--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -66,9 +66,6 @@
     <t>MEM_READ</t>
   </si>
   <si>
-    <t>OUT_MEM to REG_IN</t>
-  </si>
-  <si>
     <t>R2 to MEM_ADDR</t>
   </si>
   <si>
@@ -91,13 +88,49 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>R1 to MEM_ADDR</t>
+  </si>
+  <si>
+    <t>MEM_DATA to REG_IN</t>
+  </si>
+  <si>
+    <t>R2 to MEM_DATA</t>
+  </si>
+  <si>
+    <t>NO OP</t>
+  </si>
+  <si>
+    <t>CALL [addr]</t>
+  </si>
+  <si>
+    <t>CALL Z, [addr]</t>
+  </si>
+  <si>
+    <t>RET</t>
+  </si>
+  <si>
+    <t>PC to REG_RET_ADDR</t>
+  </si>
+  <si>
+    <t>REG_RET_ADDR to PC</t>
+  </si>
+  <si>
+    <t>in blue</t>
+  </si>
+  <si>
+    <t>will be implemented later</t>
+  </si>
+  <si>
+    <t>All ALU instr follow this pattern</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +142,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -142,6 +190,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,20 +500,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
-    <col min="2" max="10" width="3" customWidth="1"/>
-    <col min="11" max="16" width="2.85546875" customWidth="1"/>
+    <col min="2" max="11" width="3" customWidth="1"/>
+    <col min="12" max="17" width="2.85546875" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" style="6" customWidth="1"/>
+    <col min="19" max="20" width="3.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="130.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="130.5" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
@@ -477,452 +535,781 @@
         <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="7"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3">
-        <v>1</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>1</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>1</v>
+      </c>
+      <c r="P12" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>0</v>
+      </c>
+      <c r="R12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="S13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="60">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -30,21 +28,12 @@
     <t>LD R1, [addr]</t>
   </si>
   <si>
-    <t>LD R1, [R2]</t>
-  </si>
-  <si>
     <t>JP [addr]</t>
   </si>
   <si>
     <t>JP Z, [addr]</t>
   </si>
   <si>
-    <t>ST [addr], R2</t>
-  </si>
-  <si>
-    <t>ST [R1], R2</t>
-  </si>
-  <si>
     <t>EN REG_CLK</t>
   </si>
   <si>
@@ -60,9 +49,6 @@
     <t>MEM_READ</t>
   </si>
   <si>
-    <t>R2 to MEM_ADDR</t>
-  </si>
-  <si>
     <t>R1 to ALU_A</t>
   </si>
   <si>
@@ -81,15 +67,9 @@
     <t>x</t>
   </si>
   <si>
-    <t>R1 to MEM_ADDR</t>
-  </si>
-  <si>
     <t>MEM_DATA to REG_IN</t>
   </si>
   <si>
-    <t>R2 to MEM_DATA</t>
-  </si>
-  <si>
     <t>NO OP</t>
   </si>
   <si>
@@ -169,6 +149,51 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>JP GT R1, R2</t>
+  </si>
+  <si>
+    <t>JP GTE R1, R2</t>
+  </si>
+  <si>
+    <t>JP ST R1, R2</t>
+  </si>
+  <si>
+    <t>JP STE R1, R2</t>
+  </si>
+  <si>
+    <t>IN R1</t>
+  </si>
+  <si>
+    <t>OUT R1</t>
+  </si>
+  <si>
+    <t>R1, R2</t>
+  </si>
+  <si>
+    <t>general use 8-bit registers</t>
+  </si>
+  <si>
+    <t>pair of 8-bit registers (as addressing is 12-bit, only half of the High register will be used)</t>
+  </si>
+  <si>
+    <t>ST [addr], R1</t>
+  </si>
+  <si>
+    <t>R1 to MEM_DATA</t>
+  </si>
+  <si>
+    <t>LD R1, [RR3]</t>
+  </si>
+  <si>
+    <t>ST [RR3], R1</t>
+  </si>
+  <si>
+    <t>[RR3]</t>
+  </si>
+  <si>
+    <t>[RR3] to MEM_ADDR</t>
   </si>
 </sst>
 </file>
@@ -328,7 +353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,7 +388,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -572,103 +597,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z23"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AA27" sqref="AA27"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
-    <col min="3" max="12" width="3" customWidth="1"/>
-    <col min="13" max="17" width="2.85546875" customWidth="1"/>
-    <col min="18" max="18" width="2.85546875" style="6" customWidth="1"/>
-    <col min="19" max="19" width="3.140625" style="6" customWidth="1"/>
-    <col min="20" max="25" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3" customWidth="1"/>
+    <col min="12" max="16" width="2.85546875" customWidth="1"/>
+    <col min="17" max="17" width="2.85546875" style="6" customWidth="1"/>
+    <col min="18" max="18" width="3.140625" style="6" customWidth="1"/>
+    <col min="19" max="24" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="130.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="130.5" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="2"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C2" s="3">
         <v>0</v>
       </c>
@@ -711,29 +733,26 @@
       <c r="P2" s="3">
         <v>0</v>
       </c>
-      <c r="Q2" s="3">
-        <v>0</v>
+      <c r="S2" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -756,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
@@ -782,29 +801,26 @@
       <c r="P3" s="3">
         <v>0</v>
       </c>
-      <c r="Q3" s="3">
-        <v>0</v>
+      <c r="S3" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -827,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -853,29 +869,26 @@
       <c r="P4" s="3">
         <v>0</v>
       </c>
-      <c r="Q4" s="3">
-        <v>0</v>
+      <c r="S4" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -924,34 +937,31 @@
       <c r="P5" s="3">
         <v>0</v>
       </c>
-      <c r="Q5" s="3">
-        <v>0</v>
+      <c r="S5" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -975,10 +985,10 @@
         <v>1</v>
       </c>
       <c r="J6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
@@ -995,34 +1005,31 @@
       <c r="P6" s="3">
         <v>0</v>
       </c>
-      <c r="Q6" s="3">
-        <v>0</v>
+      <c r="S6" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C7" s="10">
         <v>0</v>
@@ -1040,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I7" s="10">
         <v>0</v>
@@ -1049,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="10">
         <v>1</v>
@@ -1058,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="10">
         <v>0</v>
@@ -1066,34 +1073,31 @@
       <c r="P7" s="10">
         <v>0</v>
       </c>
-      <c r="Q7" s="10">
-        <v>0</v>
+      <c r="S7" s="3">
+        <v>1</v>
       </c>
       <c r="T7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" s="3">
         <v>0</v>
       </c>
       <c r="V7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C8" s="10">
         <v>0</v>
@@ -1111,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I8" s="10">
         <v>0</v>
@@ -1120,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="10">
         <v>1</v>
@@ -1129,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="10">
         <v>0</v>
@@ -1137,17 +1141,17 @@
       <c r="P8" s="10">
         <v>0</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="S8" s="3">
         <v>0</v>
       </c>
       <c r="T8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="3">
         <v>1</v>
       </c>
       <c r="V8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="3">
         <v>0</v>
@@ -1155,16 +1159,13 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C9" s="10">
         <v>0</v>
@@ -1182,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I9" s="10">
         <v>0</v>
@@ -1191,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="10">
         <v>1</v>
@@ -1200,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="10">
         <v>0</v>
@@ -1208,7 +1209,7 @@
       <c r="P9" s="10">
         <v>0</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="S9" s="3">
         <v>0</v>
       </c>
       <c r="T9" s="3">
@@ -1221,21 +1222,18 @@
         <v>0</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C10" s="10">
         <v>0</v>
@@ -1253,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I10" s="10">
         <v>0</v>
@@ -1262,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="10">
         <v>1</v>
@@ -1271,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="10">
         <v>0</v>
@@ -1279,14 +1277,14 @@
       <c r="P10" s="10">
         <v>0</v>
       </c>
-      <c r="Q10" s="10">
-        <v>0</v>
+      <c r="S10" s="3">
+        <v>1</v>
       </c>
       <c r="T10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="3">
         <v>1</v>
@@ -1294,19 +1292,16 @@
       <c r="W10" s="3">
         <v>1</v>
       </c>
-      <c r="X10" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C11" s="10">
         <v>0</v>
@@ -1324,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I11" s="10">
         <v>0</v>
@@ -1333,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="10">
         <v>1</v>
@@ -1342,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="10">
         <v>0</v>
@@ -1350,8 +1345,8 @@
       <c r="P11" s="10">
         <v>0</v>
       </c>
-      <c r="Q11" s="10">
-        <v>0</v>
+      <c r="S11" s="3">
+        <v>1</v>
       </c>
       <c r="T11" s="3">
         <v>1</v>
@@ -1360,24 +1355,21 @@
         <v>1</v>
       </c>
       <c r="V11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" s="3">
-        <v>0</v>
-      </c>
-      <c r="X11" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C12" s="10">
         <v>0</v>
@@ -1395,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I12" s="10">
         <v>0</v>
@@ -1404,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="10">
         <v>1</v>
@@ -1413,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="10">
         <v>0</v>
@@ -1421,106 +1413,100 @@
       <c r="P12" s="10">
         <v>0</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="S12" s="3">
         <v>0</v>
       </c>
       <c r="T12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="3">
         <v>1</v>
       </c>
       <c r="V12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" s="3">
-        <v>0</v>
-      </c>
-      <c r="X12" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>1</v>
-      </c>
-      <c r="P13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>0</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C14" s="3">
         <v>0</v>
       </c>
@@ -1537,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1555,40 +1541,37 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="3">
         <v>1</v>
       </c>
       <c r="P14" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -1606,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
@@ -1624,43 +1607,40 @@
         <v>0</v>
       </c>
       <c r="N15" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="5">
         <v>0</v>
       </c>
       <c r="Q15" s="5">
-        <v>0</v>
-      </c>
-      <c r="R15" s="5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
@@ -1678,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I16" s="5">
         <v>0</v>
@@ -1696,43 +1676,40 @@
         <v>0</v>
       </c>
       <c r="N16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="5">
         <v>1</v>
       </c>
       <c r="P16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="5">
-        <v>0</v>
-      </c>
-      <c r="R16" s="5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1748,213 +1725,304 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="S17" s="6">
-        <v>1</v>
+      <c r="R17" s="6">
+        <v>1</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>1</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3">
-        <v>0</v>
-      </c>
-      <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3">
-        <v>0</v>
-      </c>
-      <c r="P19" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" t="s">
-        <v>39</v>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="58">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -49,13 +49,7 @@
     <t>MEM_READ</t>
   </si>
   <si>
-    <t>R1 to ALU_A</t>
-  </si>
-  <si>
     <t>ALU_OUT to REG_IN</t>
-  </si>
-  <si>
-    <t>R2 to ALU_B</t>
   </si>
   <si>
     <t>IR_ADDR to PC</t>
@@ -266,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -281,9 +275,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -597,25 +588,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y31"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="3" customWidth="1"/>
-    <col min="12" max="16" width="2.85546875" customWidth="1"/>
-    <col min="17" max="17" width="2.85546875" style="6" customWidth="1"/>
-    <col min="18" max="18" width="3.140625" style="6" customWidth="1"/>
-    <col min="19" max="24" width="2.85546875" customWidth="1"/>
+    <col min="3" max="10" width="3" customWidth="1"/>
+    <col min="11" max="14" width="2.85546875" customWidth="1"/>
+    <col min="15" max="15" width="2.85546875" style="6" customWidth="1"/>
+    <col min="16" max="16" width="3.140625" style="6" customWidth="1"/>
+    <col min="17" max="22" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="130.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="130.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
@@ -635,34 +626,34 @@
         <v>10</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>23</v>
+        <v>53</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>34</v>
@@ -676,20 +667,14 @@
       <c r="V1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" s="2"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -727,32 +712,26 @@
       <c r="N2" s="3">
         <v>0</v>
       </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3">
-        <v>0</v>
+      <c r="Q2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -775,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
@@ -795,32 +774,26 @@
       <c r="N3" s="3">
         <v>0</v>
       </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
+      <c r="Q3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -843,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -863,32 +836,26 @@
       <c r="N4" s="3">
         <v>0</v>
       </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0</v>
+      <c r="Q4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -931,37 +898,31 @@
       <c r="N5" s="3">
         <v>0</v>
       </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
+      <c r="Q5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -999,85 +960,79 @@
       <c r="N6" s="3">
         <v>0</v>
       </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0</v>
+      <c r="Q6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10">
-        <v>0</v>
-      </c>
-      <c r="K7" s="10">
-        <v>1</v>
-      </c>
-      <c r="L7" s="10">
-        <v>1</v>
-      </c>
-      <c r="M7" s="10">
-        <v>1</v>
-      </c>
-      <c r="N7" s="10">
-        <v>0</v>
-      </c>
-      <c r="O7" s="10">
-        <v>0</v>
-      </c>
-      <c r="P7" s="10">
+        <v>24</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>1</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
+      <c r="R7" s="3">
         <v>0</v>
       </c>
       <c r="S7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="3">
         <v>0</v>
@@ -1085,128 +1040,116 @@
       <c r="V7" s="3">
         <v>1</v>
       </c>
-      <c r="W7" s="3">
-        <v>0</v>
-      </c>
-      <c r="X7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0</v>
-      </c>
-      <c r="D8" s="10">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="10">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10">
-        <v>0</v>
-      </c>
-      <c r="K8" s="10">
-        <v>1</v>
-      </c>
-      <c r="L8" s="10">
-        <v>1</v>
-      </c>
-      <c r="M8" s="10">
-        <v>1</v>
-      </c>
-      <c r="N8" s="10">
-        <v>0</v>
-      </c>
-      <c r="O8" s="10">
-        <v>0</v>
-      </c>
-      <c r="P8" s="10">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>1</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1</v>
       </c>
       <c r="S8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="3">
         <v>0</v>
       </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0</v>
-      </c>
-      <c r="D9" s="10">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="10">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10">
-        <v>0</v>
-      </c>
-      <c r="K9" s="10">
-        <v>1</v>
-      </c>
-      <c r="L9" s="10">
-        <v>1</v>
-      </c>
-      <c r="M9" s="10">
-        <v>1</v>
-      </c>
-      <c r="N9" s="10">
-        <v>0</v>
-      </c>
-      <c r="O9" s="10">
-        <v>0</v>
-      </c>
-      <c r="P9" s="10">
+        <v>28</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>0</v>
       </c>
       <c r="S9" s="3">
@@ -1216,225 +1159,201 @@
         <v>0</v>
       </c>
       <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3">
-        <v>1</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10">
-        <v>0</v>
-      </c>
-      <c r="K10" s="10">
-        <v>1</v>
-      </c>
-      <c r="L10" s="10">
-        <v>1</v>
-      </c>
-      <c r="M10" s="10">
-        <v>1</v>
-      </c>
-      <c r="N10" s="10">
-        <v>0</v>
-      </c>
-      <c r="O10" s="10">
-        <v>0</v>
-      </c>
-      <c r="P10" s="10">
+        <v>26</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>1</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3">
         <v>0</v>
       </c>
       <c r="S10" s="3">
         <v>1</v>
       </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" s="3">
         <v>1</v>
       </c>
-      <c r="V10" s="3">
-        <v>1</v>
-      </c>
-      <c r="W10" s="3">
-        <v>1</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>1</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3">
+        <v>1</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0</v>
+      </c>
+      <c r="U11" s="3">
+        <v>1</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="10">
-        <v>0</v>
-      </c>
-      <c r="D11" s="10">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="10">
-        <v>0</v>
-      </c>
-      <c r="J11" s="10">
-        <v>0</v>
-      </c>
-      <c r="K11" s="10">
-        <v>1</v>
-      </c>
-      <c r="L11" s="10">
-        <v>1</v>
-      </c>
-      <c r="M11" s="10">
-        <v>1</v>
-      </c>
-      <c r="N11" s="10">
-        <v>0</v>
-      </c>
-      <c r="O11" s="10">
-        <v>0</v>
-      </c>
-      <c r="P11" s="10">
-        <v>0</v>
-      </c>
-      <c r="S11" s="3">
-        <v>1</v>
-      </c>
-      <c r="T11" s="3">
-        <v>1</v>
-      </c>
-      <c r="U11" s="3">
-        <v>1</v>
-      </c>
-      <c r="V11" s="3">
-        <v>0</v>
-      </c>
-      <c r="W11" s="3">
-        <v>1</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="10">
-        <v>0</v>
-      </c>
-      <c r="D12" s="10">
-        <v>1</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="10">
-        <v>0</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="10">
-        <v>0</v>
-      </c>
-      <c r="J12" s="10">
-        <v>0</v>
-      </c>
-      <c r="K12" s="10">
-        <v>1</v>
-      </c>
-      <c r="L12" s="10">
-        <v>1</v>
-      </c>
-      <c r="M12" s="10">
-        <v>1</v>
-      </c>
-      <c r="N12" s="10">
-        <v>0</v>
-      </c>
-      <c r="O12" s="10">
-        <v>0</v>
-      </c>
-      <c r="P12" s="10">
-        <v>0</v>
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>1</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>1</v>
       </c>
       <c r="S12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="3">
         <v>1</v>
       </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
-      <c r="W12" s="3">
-        <v>1</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
@@ -1455,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
@@ -1467,42 +1386,36 @@
         <v>0</v>
       </c>
       <c r="L13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="3">
         <v>0</v>
       </c>
       <c r="N13" s="3">
-        <v>1</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
@@ -1523,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1535,43 +1448,37 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="3">
-        <v>1</v>
-      </c>
-      <c r="O14" s="3">
-        <v>1</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -1589,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
@@ -1601,46 +1508,40 @@
         <v>0</v>
       </c>
       <c r="L15" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="5">
         <v>0</v>
       </c>
       <c r="N15" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="5">
-        <v>0</v>
-      </c>
-      <c r="P15" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
@@ -1658,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I16" s="5">
         <v>0</v>
@@ -1670,46 +1571,40 @@
         <v>0</v>
       </c>
       <c r="L16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="5">
         <v>1</v>
       </c>
-      <c r="P16" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>1</v>
+      <c r="Q16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1723,169 +1618,155 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="R17" s="6">
-        <v>1</v>
+      <c r="P17" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>1</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3">
-        <v>0</v>
-      </c>
-      <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1898,18 +1779,16 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1922,18 +1801,16 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1946,18 +1823,16 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1970,55 +1845,53 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
+      <c r="C30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
         <v>51</v>
-      </c>
-      <c r="C30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Control Lines" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Program" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="72">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -188,6 +189,48 @@
   </si>
   <si>
     <t>[RR3] to MEM_ADDR</t>
+  </si>
+  <si>
+    <t>LD A, data</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>LD B, data</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>LD A, B</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
+  <si>
+    <t>LD B, A</t>
+  </si>
+  <si>
+    <t>LD A, [addr]</t>
+  </si>
+  <si>
+    <t>[addr]</t>
+  </si>
+  <si>
+    <t>0c</t>
   </si>
 </sst>
 </file>
@@ -260,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -284,6 +327,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1898,4 +1942,93 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Control Lines" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="75">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -231,6 +231,15 @@
   </si>
   <si>
     <t>0c</t>
+  </si>
+  <si>
+    <t>001011</t>
+  </si>
+  <si>
+    <t>2c</t>
+  </si>
+  <si>
+    <t>0[addr]</t>
   </si>
 </sst>
 </file>
@@ -388,7 +397,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -423,7 +432,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -634,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1946,85 +1955,102 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="11"/>
+    <col min="2" max="5" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="D5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>70</v>
       </c>
     </row>

--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Control Lines" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Program" sheetId="2" r:id="rId2"/>
+    <sheet name="Some instructions for test" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="87">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -240,6 +240,42 @@
   </si>
   <si>
     <t>0[addr]</t>
+  </si>
+  <si>
+    <t>ADD A, A, B</t>
+  </si>
+  <si>
+    <t>Sums A and B, put result in A</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1x</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>SUB A, A, B</t>
+  </si>
+  <si>
+    <t>A - B, result in A</t>
+  </si>
+  <si>
+    <t>All ALU operations take a fix register (A) as ALU input A and R2 as ALU input B. Output to R1</t>
+  </si>
+  <si>
+    <t>1c</t>
+  </si>
+  <si>
+    <t>NOT A</t>
+  </si>
+  <si>
+    <t>NOT A, result in A</t>
+  </si>
+  <si>
+    <t>0x</t>
   </si>
 </sst>
 </file>
@@ -641,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +694,7 @@
     <col min="17" max="22" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="130.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="130.5" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -722,7 +758,7 @@
       </c>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -784,7 +820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -846,7 +882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -908,7 +944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -970,7 +1006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1032,7 +1068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1093,8 +1129,11 @@
       <c r="V7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1156,7 +1195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1218,7 +1257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1280,7 +1319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1342,7 +1381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
@@ -1404,7 +1443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
@@ -1466,7 +1505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
@@ -1528,7 +1567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
         <v>17</v>
@@ -1591,7 +1630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="4" t="s">
         <v>18</v>
@@ -1955,10 +1994,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1967,7 +2006,7 @@
     <col min="2" max="5" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -1981,7 +2020,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1995,7 +2034,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -2009,7 +2048,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -2023,7 +2062,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -2037,7 +2076,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2052,6 +2091,57 @@
       </c>
       <c r="E6" s="11" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Control Lines" sheetId="1" r:id="rId1"/>
     <sheet name="Some instructions for test" sheetId="2" r:id="rId2"/>
+    <sheet name="TestProgram_Counter" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="97">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -276,6 +277,36 @@
   </si>
   <si>
     <t>0x</t>
+  </si>
+  <si>
+    <t>LD B, 0x1</t>
+  </si>
+  <si>
+    <t>LD A, 0x20</t>
+  </si>
+  <si>
+    <t>ADD A, B</t>
+  </si>
+  <si>
+    <t>SUB A, B</t>
+  </si>
+  <si>
+    <t>18 10 00</t>
+  </si>
+  <si>
+    <t>14 10 00</t>
+  </si>
+  <si>
+    <t>04 00 20</t>
+  </si>
+  <si>
+    <t>04 80 01</t>
+  </si>
+  <si>
+    <t>JP [0x006]</t>
+  </si>
+  <si>
+    <t>2c 00 06</t>
   </si>
 </sst>
 </file>
@@ -433,7 +464,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -468,7 +499,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -679,7 +710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
@@ -2147,4 +2178,79 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="Control Lines" sheetId="1" r:id="rId1"/>
     <sheet name="Some instructions for test" sheetId="2" r:id="rId2"/>
-    <sheet name="TestProgram_Counter" sheetId="3" r:id="rId3"/>
+    <sheet name="Test Programs" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="117">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -307,13 +307,73 @@
   </si>
   <si>
     <t>2c 00 06</t>
+  </si>
+  <si>
+    <t>LD E, 0x0</t>
+  </si>
+  <si>
+    <t>LD F, 0xff</t>
+  </si>
+  <si>
+    <t>LD A, E</t>
+  </si>
+  <si>
+    <t>LD E, A</t>
+  </si>
+  <si>
+    <t>LD A, F</t>
+  </si>
+  <si>
+    <t>LD F, A</t>
+  </si>
+  <si>
+    <t>JP [0x009]</t>
+  </si>
+  <si>
+    <t>Equiv to ADD E, B</t>
+  </si>
+  <si>
+    <t>06 00 00</t>
+  </si>
+  <si>
+    <t>06 80 ff</t>
+  </si>
+  <si>
+    <t>08 40 00</t>
+  </si>
+  <si>
+    <t>08 50 00</t>
+  </si>
+  <si>
+    <t>0a 80 00</t>
+  </si>
+  <si>
+    <t>0a 00 00</t>
+  </si>
+  <si>
+    <t>2c 00 09</t>
+  </si>
+  <si>
+    <t>// Increments E, decrements F</t>
+  </si>
+  <si>
+    <t>Equiv to SUB F, B</t>
+  </si>
+  <si>
+    <t>// Increments A</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Hexa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,6 +412,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -379,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -404,6 +471,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2182,74 +2253,279 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="11"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B6" si="0">DEC2HEX(A3,3)</f>
+        <v>000</v>
+      </c>
+      <c r="C3" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>003</v>
+      </c>
+      <c r="C4" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>006</v>
+      </c>
+      <c r="C5" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>009</v>
+      </c>
+      <c r="C6" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="str">
+        <f t="shared" ref="B9" si="1">DEC2HEX(A9,3)</f>
+        <v>006</v>
+      </c>
+      <c r="C9" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>91</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" ref="B17:B22" si="2">DEC2HEX(A17,3)</f>
+        <v>000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="2"/>
+        <v>003</v>
+      </c>
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="2"/>
+        <v>006</v>
+      </c>
+      <c r="C19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="2"/>
+        <v>009</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="2"/>
+        <v>00C</v>
+      </c>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="2"/>
+        <v>00F</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23" t="str">
+        <f>DEC2HEX(A23,3)</f>
+        <v>012</v>
+      </c>
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" ref="B24:B26" si="3">DEC2HEX(A24,3)</f>
+        <v>015</v>
+      </c>
+      <c r="C24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="3"/>
+        <v>018</v>
+      </c>
+      <c r="C25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>27</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="3"/>
+        <v>01B</v>
+      </c>
+      <c r="C26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E23:E25"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Control Lines" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="126">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -367,6 +367,33 @@
   </si>
   <si>
     <t>Hexa</t>
+  </si>
+  <si>
+    <t>// Increments A, stops at 0</t>
+  </si>
+  <si>
+    <t>JP [0x00f]</t>
+  </si>
+  <si>
+    <t>JP Z, [0x00f]</t>
+  </si>
+  <si>
+    <t>2c 00 0f</t>
+  </si>
+  <si>
+    <t>30 00 0f</t>
+  </si>
+  <si>
+    <t>// Load value from memory, puts it in A</t>
+  </si>
+  <si>
+    <t>LD A, [0x003]</t>
+  </si>
+  <si>
+    <t>a0</t>
+  </si>
+  <si>
+    <t>0c 00 03</t>
   </si>
 </sst>
 </file>
@@ -471,10 +498,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2253,10 +2280,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:E22"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2277,7 +2304,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2357,7 +2384,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2420,7 +2447,7 @@
       <c r="D20" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="13" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2438,7 +2465,7 @@
       <c r="D21" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="12"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -2454,7 +2481,7 @@
       <c r="D22" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="12"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -2470,7 +2497,7 @@
       <c r="D23" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="13" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2488,7 +2515,7 @@
       <c r="D24" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="12"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -2504,7 +2531,7 @@
       <c r="D25" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="12"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -2519,6 +2546,135 @@
       </c>
       <c r="D26" s="11" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" ref="B32:B35" si="4">DEC2HEX(A32,3)</f>
+        <v>000</v>
+      </c>
+      <c r="C32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="4"/>
+        <v>003</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="4"/>
+        <v>006</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="4"/>
+        <v>009</v>
+      </c>
+      <c r="C35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>12</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" ref="B36:B37" si="5">DEC2HEX(A36,3)</f>
+        <v>00C</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>15</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="5"/>
+        <v>00F</v>
+      </c>
+      <c r="C37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" ref="B42:B47" si="6">DEC2HEX(A42,3)</f>
+        <v>000</v>
+      </c>
+      <c r="C42" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="6"/>
+        <v>003</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Control Lines" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="129">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -384,16 +384,25 @@
     <t>30 00 0f</t>
   </si>
   <si>
-    <t>// Load value from memory, puts it in A</t>
-  </si>
-  <si>
-    <t>LD A, [0x003]</t>
-  </si>
-  <si>
-    <t>a0</t>
-  </si>
-  <si>
-    <t>0c 00 03</t>
+    <t>LD A, [0x010]</t>
+  </si>
+  <si>
+    <t>ST [0x011], A</t>
+  </si>
+  <si>
+    <t>34 00 11</t>
+  </si>
+  <si>
+    <t>0c 00 10</t>
+  </si>
+  <si>
+    <t>// Load value from memory, copies it to next address</t>
+  </si>
+  <si>
+    <t>R1 to MEM_DATA, provisorily using R2</t>
+  </si>
+  <si>
+    <t>f0</t>
   </si>
 </sst>
 </file>
@@ -447,7 +456,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,6 +466,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -501,6 +516,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -808,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,7 +876,7 @@
       <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="14" t="s">
         <v>53</v>
       </c>
       <c r="O1" s="7" t="s">
@@ -1822,7 +1840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="4" t="s">
         <v>19</v>
@@ -1861,7 +1879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -1923,7 +1941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
@@ -1985,7 +2003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>43</v>
       </c>
@@ -2007,7 +2025,7 @@
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>44</v>
       </c>
@@ -2029,7 +2047,7 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>45</v>
       </c>
@@ -2050,8 +2068,11 @@
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>46</v>
       </c>
@@ -2073,17 +2094,17 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>22</v>
       </c>
@@ -2091,7 +2112,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>30</v>
       </c>
@@ -2099,7 +2120,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>49</v>
       </c>
@@ -2107,7 +2128,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>56</v>
       </c>
@@ -2280,10 +2301,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2647,7 +2668,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C41" s="12" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2655,11 +2676,11 @@
         <v>0</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" ref="B42:B47" si="6">DEC2HEX(A42,3)</f>
+        <f t="shared" ref="B42:B45" si="6">DEC2HEX(A42,3)</f>
         <v>000</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>125</v>
@@ -2673,8 +2694,38 @@
         <f t="shared" si="6"/>
         <v>003</v>
       </c>
+      <c r="C43" t="s">
+        <v>123</v>
+      </c>
       <c r="D43" s="11" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="6"/>
+        <v>006</v>
+      </c>
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>16</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="6"/>
+        <v>010</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Control Lines" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="143">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -159,21 +159,12 @@
     <t>JP STE R1, R2</t>
   </si>
   <si>
-    <t>IN R1</t>
-  </si>
-  <si>
-    <t>OUT R1</t>
-  </si>
-  <si>
     <t>R1, R2</t>
   </si>
   <si>
     <t>general use 8-bit registers</t>
   </si>
   <si>
-    <t>pair of 8-bit registers (as addressing is 12-bit, only half of the High register will be used)</t>
-  </si>
-  <si>
     <t>ST [addr], R1</t>
   </si>
   <si>
@@ -366,9 +357,6 @@
     <t>Dec</t>
   </si>
   <si>
-    <t>Hexa</t>
-  </si>
-  <si>
     <t>// Increments A, stops at 0</t>
   </si>
   <si>
@@ -403,6 +391,60 @@
   </si>
   <si>
     <t>f0</t>
+  </si>
+  <si>
+    <t>pair of 8-bit registers (as addressing is 12-bit, only lower half of the High register will be used)</t>
+  </si>
+  <si>
+    <t>IN R1, R2</t>
+  </si>
+  <si>
+    <t>OUT R1. R2</t>
+  </si>
+  <si>
+    <t>Read byte from input selected by R2, and writes it to R1</t>
+  </si>
+  <si>
+    <t>Write byte value of R1 in output selected in R2</t>
+  </si>
+  <si>
+    <t>R1 to OUT</t>
+  </si>
+  <si>
+    <t>// Write letter A to LCD output</t>
+  </si>
+  <si>
+    <t>LD A, 0x0</t>
+  </si>
+  <si>
+    <t>LD B, 0x41</t>
+  </si>
+  <si>
+    <t>04 80 41</t>
+  </si>
+  <si>
+    <t>OUT A, B</t>
+  </si>
+  <si>
+    <t>04 00 00</t>
+  </si>
+  <si>
+    <t>// ASCII code for letter A</t>
+  </si>
+  <si>
+    <t>44 10 00</t>
+  </si>
+  <si>
+    <t>Hex</t>
+  </si>
+  <si>
+    <t>Mnemonic</t>
+  </si>
+  <si>
+    <t>Opcode (Hex)</t>
+  </si>
+  <si>
+    <t>ROM Output in Hex</t>
   </si>
 </sst>
 </file>
@@ -488,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -514,11 +556,14 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -824,25 +869,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X31"/>
+  <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="3" customWidth="1"/>
     <col min="11" max="14" width="2.85546875" customWidth="1"/>
     <col min="15" max="15" width="2.85546875" style="6" customWidth="1"/>
     <col min="16" max="16" width="3.140625" style="6" customWidth="1"/>
-    <col min="17" max="22" width="2.85546875" customWidth="1"/>
+    <col min="17" max="17" width="2.85546875" customWidth="1"/>
+    <col min="18" max="18" width="3.140625" style="6" customWidth="1"/>
+    <col min="19" max="25" width="2.85546875" customWidth="1"/>
+    <col min="26" max="26" width="5.42578125" customWidth="1"/>
+    <col min="27" max="27" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="130.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="130.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
@@ -865,7 +920,7 @@
         <v>15</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>11</v>
@@ -876,8 +931,8 @@
       <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="14" t="s">
-        <v>53</v>
+      <c r="N1" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>20</v>
@@ -886,26 +941,35 @@
         <v>21</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R1" s="7"/>
+      <c r="S1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="2"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -948,11 +1012,8 @@
       <c r="N2" s="3">
         <v>0</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>14</v>
+      <c r="Q2" s="3">
+        <v>0</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>14</v>
@@ -966,8 +1027,31 @@
       <c r="V2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" s="3"/>
+      <c r="Z2" t="str">
+        <f>BIN2HEX(C2 &amp; D2 &amp; E2 &amp; F2 &amp; G2 &amp; H2 &amp; I2 &amp; J2, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AA2" t="e">
+        <f>BIN2HEX(K2 &amp; L2 &amp; M2 &amp; N2 &amp; S2 &amp; T2 &amp; U2 &amp; V2, 2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AB2" t="e">
+        <f>BIN2HEX(W2 &amp; X2, 1)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE2" t="str">
+        <f>IF(S2="x", 0, S2) &amp; IF(T2="x", 0, T2)</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1010,11 +1094,8 @@
       <c r="N3" s="3">
         <v>0</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>14</v>
+      <c r="Q3" s="3">
+        <v>0</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>14</v>
@@ -1028,8 +1109,15 @@
       <c r="V3" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y3" s="3"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1072,11 +1160,8 @@
       <c r="N4" s="3">
         <v>0</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>14</v>
+      <c r="Q4" s="3">
+        <v>0</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>14</v>
@@ -1090,8 +1175,15 @@
       <c r="V4" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y4" s="3"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1134,11 +1226,8 @@
       <c r="N5" s="3">
         <v>0</v>
       </c>
-      <c r="Q5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>14</v>
+      <c r="Q5" s="3">
+        <v>0</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>14</v>
@@ -1152,13 +1241,20 @@
       <c r="V5" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y5" s="3"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -1196,11 +1292,8 @@
       <c r="N6" s="3">
         <v>0</v>
       </c>
-      <c r="Q6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>14</v>
+      <c r="Q6" s="3">
+        <v>0</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>14</v>
@@ -1214,8 +1307,15 @@
       <c r="V6" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1259,16 +1359,13 @@
         <v>0</v>
       </c>
       <c r="Q7" s="3">
-        <v>1</v>
-      </c>
-      <c r="R7" s="3">
         <v>0</v>
       </c>
       <c r="S7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" s="3">
         <v>0</v>
@@ -1276,11 +1373,18 @@
       <c r="V7" s="3">
         <v>1</v>
       </c>
-      <c r="X7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="3"/>
+      <c r="AD7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1326,23 +1430,27 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-      <c r="R8" s="3">
-        <v>1</v>
-      </c>
       <c r="S8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1388,9 +1496,6 @@
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
       <c r="S9" s="3">
         <v>0</v>
       </c>
@@ -1398,13 +1503,20 @@
         <v>0</v>
       </c>
       <c r="U9" s="3">
-        <v>1</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>1</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y9" s="3"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1448,25 +1560,29 @@
         <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>1</v>
-      </c>
-      <c r="R10" s="3">
         <v>0</v>
       </c>
       <c r="S10" s="3">
         <v>1</v>
       </c>
       <c r="T10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" s="3">
         <v>1</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V10" s="3">
+        <v>1</v>
+      </c>
+      <c r="W10" s="3">
+        <v>1</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y10" s="3"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1510,25 +1626,29 @@
         <v>0</v>
       </c>
       <c r="Q11" s="3">
-        <v>1</v>
-      </c>
-      <c r="R11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="3">
         <v>1</v>
       </c>
       <c r="T11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" s="3">
         <v>1</v>
       </c>
-      <c r="V11" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V11" s="3">
+        <v>0</v>
+      </c>
+      <c r="W11" s="3">
+        <v>1</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
@@ -1574,23 +1694,27 @@
       <c r="Q12" s="3">
         <v>0</v>
       </c>
-      <c r="R12" s="3">
-        <v>1</v>
-      </c>
       <c r="S12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="3">
         <v>1</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>1</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y12" s="3"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
@@ -1633,11 +1757,8 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="Q13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>14</v>
+      <c r="Q13" s="3">
+        <v>0</v>
       </c>
       <c r="S13" s="3" t="s">
         <v>14</v>
@@ -1651,8 +1772,15 @@
       <c r="V13" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y13" s="3"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
@@ -1695,11 +1823,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>14</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>14</v>
@@ -1713,8 +1838,15 @@
       <c r="V14" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y14" s="3"/>
+    </row>
+    <row r="15" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
         <v>17</v>
@@ -1758,11 +1890,8 @@
       <c r="O15" s="5">
         <v>1</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>14</v>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>14</v>
@@ -1776,8 +1905,15 @@
       <c r="V15" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y15" s="3"/>
+    </row>
+    <row r="16" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="4" t="s">
         <v>18</v>
@@ -1821,11 +1957,8 @@
       <c r="O16" s="5">
         <v>1</v>
       </c>
-      <c r="Q16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>14</v>
+      <c r="Q16" s="3">
+        <v>0</v>
       </c>
       <c r="S16" s="3" t="s">
         <v>14</v>
@@ -1839,8 +1972,15 @@
       <c r="V16" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="4" t="s">
         <v>19</v>
@@ -1857,14 +1997,8 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-      <c r="P17" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>14</v>
+      <c r="Q17" s="3">
+        <v>1</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>14</v>
@@ -1878,13 +2012,20 @@
       <c r="V17" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y17" s="3"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -1922,11 +2063,8 @@
       <c r="N18">
         <v>1</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>14</v>
+      <c r="Q18" s="3">
+        <v>0</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>14</v>
@@ -1940,13 +2078,20 @@
       <c r="V18" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y18" s="3"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -1984,11 +2129,8 @@
       <c r="N19">
         <v>1</v>
       </c>
-      <c r="Q19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>14</v>
+      <c r="Q19" s="3">
+        <v>0</v>
       </c>
       <c r="S19" s="3" t="s">
         <v>14</v>
@@ -2002,8 +2144,15 @@
       <c r="V19" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>43</v>
       </c>
@@ -2019,13 +2168,15 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>44</v>
       </c>
@@ -2041,13 +2192,15 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>45</v>
       </c>
@@ -2063,16 +2216,18 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
-      <c r="X22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="AB22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>46</v>
       </c>
@@ -2088,23 +2243,37 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>10</v>
+      </c>
       <c r="B24" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>11</v>
+      </c>
       <c r="B25" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>22</v>
       </c>
@@ -2112,7 +2281,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>30</v>
       </c>
@@ -2120,23 +2289,26 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="Z1:AB1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2158,72 +2330,72 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>66</v>
-      </c>
       <c r="E3" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>74</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2231,67 +2403,67 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>78</v>
-      </c>
       <c r="E7" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s">
         <v>78</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>86</v>
-      </c>
       <c r="E9" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2301,10 +2473,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2316,17 +2488,17 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2334,14 +2506,14 @@
         <v>0</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B6" si="0">DEC2HEX(A3,3)</f>
-        <v>000</v>
+        <f>"0x" &amp; DEC2HEX(A3,3)</f>
+        <v>0x000</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2349,14 +2521,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>003</v>
+        <f t="shared" ref="B4:B6" si="0">"0x" &amp; DEC2HEX(A4,3)</f>
+        <v>0x003</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2365,13 +2537,13 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>006</v>
+        <v>0x006</v>
       </c>
       <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>89</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2380,13 +2552,13 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>009</v>
+        <v>0x009</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2394,19 +2566,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" ref="B9" si="1">DEC2HEX(A9,3)</f>
-        <v>006</v>
+        <f>"0x" &amp; DEC2HEX(A9,3)</f>
+        <v>0x006</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2414,14 +2586,14 @@
         <v>0</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" ref="B17:B22" si="2">DEC2HEX(A17,3)</f>
-        <v>000</v>
+        <f t="shared" ref="B17:B26" si="1">"0x" &amp; DEC2HEX(A17,3)</f>
+        <v>0x000</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2429,14 +2601,14 @@
         <v>3</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="2"/>
-        <v>003</v>
+        <f t="shared" si="1"/>
+        <v>0x003</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2444,14 +2616,14 @@
         <v>6</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="2"/>
-        <v>006</v>
+        <f t="shared" si="1"/>
+        <v>0x006</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2459,17 +2631,17 @@
         <v>9</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="2"/>
-        <v>009</v>
+        <f t="shared" si="1"/>
+        <v>0x009</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="13" t="s">
         <v>104</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2477,49 +2649,49 @@
         <v>12</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="2"/>
-        <v>00C</v>
+        <f t="shared" si="1"/>
+        <v>0x00C</v>
       </c>
       <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="13"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="2"/>
-        <v>00F</v>
+        <f t="shared" si="1"/>
+        <v>0x00F</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" s="13"/>
+        <v>107</v>
+      </c>
+      <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
       <c r="B23" t="str">
-        <f>DEC2HEX(A23,3)</f>
-        <v>012</v>
+        <f t="shared" si="1"/>
+        <v>0x012</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>113</v>
+        <v>105</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2527,53 +2699,53 @@
         <v>21</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" ref="B24:B26" si="3">DEC2HEX(A24,3)</f>
-        <v>015</v>
+        <f t="shared" si="1"/>
+        <v>0x015</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="13"/>
+        <v>88</v>
+      </c>
+      <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="3"/>
-        <v>018</v>
+        <f t="shared" si="1"/>
+        <v>0x018</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="13"/>
+        <v>106</v>
+      </c>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>27</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="3"/>
-        <v>01B</v>
+        <f t="shared" si="1"/>
+        <v>0x01B</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2581,14 +2753,14 @@
         <v>0</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" ref="B32:B35" si="4">DEC2HEX(A32,3)</f>
-        <v>000</v>
+        <f t="shared" ref="B32:B37" si="2">"0x" &amp; DEC2HEX(A32,3)</f>
+        <v>0x000</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2596,14 +2768,14 @@
         <v>3</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="4"/>
-        <v>003</v>
+        <f t="shared" si="2"/>
+        <v>0x003</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2611,14 +2783,14 @@
         <v>6</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="4"/>
-        <v>006</v>
+        <f t="shared" si="2"/>
+        <v>0x006</v>
       </c>
       <c r="C34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>89</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2626,14 +2798,14 @@
         <v>9</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="4"/>
-        <v>009</v>
+        <f t="shared" si="2"/>
+        <v>0x009</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2641,14 +2813,14 @@
         <v>12</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" ref="B36:B37" si="5">DEC2HEX(A36,3)</f>
-        <v>00C</v>
+        <f t="shared" si="2"/>
+        <v>0x00C</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2656,19 +2828,19 @@
         <v>15</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="5"/>
-        <v>00F</v>
+        <f t="shared" si="2"/>
+        <v>0x00F</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C41" s="12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2676,14 +2848,14 @@
         <v>0</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" ref="B42:B45" si="6">DEC2HEX(A42,3)</f>
-        <v>000</v>
+        <f t="shared" ref="B42:B45" si="3">"0x" &amp; DEC2HEX(A42,3)</f>
+        <v>0x000</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2691,14 +2863,14 @@
         <v>3</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="6"/>
-        <v>003</v>
+        <f t="shared" si="3"/>
+        <v>0x003</v>
       </c>
       <c r="C43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2706,14 +2878,14 @@
         <v>6</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="6"/>
-        <v>006</v>
+        <f t="shared" si="3"/>
+        <v>0x006</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2721,11 +2893,64 @@
         <v>16</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="6"/>
-        <v>010</v>
+        <f t="shared" si="3"/>
+        <v>0x010</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>128</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" ref="B49:B51" si="4">"0x" &amp; DEC2HEX(A49,3)</f>
+        <v>0x000</v>
+      </c>
+      <c r="C49" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="4"/>
+        <v>0x003</v>
+      </c>
+      <c r="C50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>6</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="4"/>
+        <v>0x006</v>
+      </c>
+      <c r="C51" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -15,8 +15,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="AB2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Warning : caution with this byte (look the rom output in circuit)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="143">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -444,14 +478,14 @@
     <t>Opcode (Hex)</t>
   </si>
   <si>
-    <t>ROM Output in Hex</t>
+    <t>ROM DATA in Hex</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,6 +530,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -559,11 +606,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -868,11 +915,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+      <selection activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,8 +933,7 @@
     <col min="17" max="17" width="2.85546875" customWidth="1"/>
     <col min="18" max="18" width="3.140625" style="6" customWidth="1"/>
     <col min="19" max="25" width="2.85546875" customWidth="1"/>
-    <col min="26" max="26" width="5.42578125" customWidth="1"/>
-    <col min="27" max="27" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="5.85546875" customWidth="1"/>
     <col min="29" max="29" width="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -963,11 +1009,11 @@
         <v>37</v>
       </c>
       <c r="Y1" s="2"/>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
@@ -1035,16 +1081,16 @@
       </c>
       <c r="Y2" s="3"/>
       <c r="Z2" t="str">
-        <f>BIN2HEX(C2 &amp; D2 &amp; E2 &amp; F2 &amp; G2 &amp; H2 &amp; I2 &amp; J2, 2)</f>
+        <f>BIN2HEX(IF(C2="x", 0, C2) &amp; IF(D2="x", 0, D2) &amp; IF(E2="x", 0, E2) &amp; IF(F2="x", 0, F2) &amp; IF(G2="x", 0, G2) &amp; IF(H2="x", 0, H2) &amp; IF(I2="x", 0, I2) &amp; IF(J2="x", 0, J2), 2)</f>
         <v>00</v>
       </c>
-      <c r="AA2" t="e">
-        <f>BIN2HEX(K2 &amp; L2 &amp; M2 &amp; N2 &amp; S2 &amp; T2 &amp; U2 &amp; V2, 2)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AB2" t="e">
-        <f>BIN2HEX(W2 &amp; X2, 1)</f>
-        <v>#NUM!</v>
+      <c r="AA2" t="str">
+        <f>BIN2HEX(IF(K2="x", 0, K2) &amp; IF(L2="x", 0, L2) &amp; IF(M2="x", 0, M2) &amp; IF(N2="x", 0, N2) &amp;  IF(Q2="x", 0, Q2) &amp; IF(S2="x", 0, S2) &amp; IF(T2="x", 0, T2) &amp; IF(U2="x", 0, U2), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AB2" t="str">
+        <f>BIN2HEX(IF(V2="x", 0, V2) &amp; IF(W2="x", 0, W2) &amp; IF(X2="x", 0, X2), 2)</f>
+        <v>00</v>
       </c>
       <c r="AE2" t="str">
         <f>IF(S2="x", 0, S2) &amp; IF(T2="x", 0, T2)</f>
@@ -1116,6 +1162,18 @@
         <v>14</v>
       </c>
       <c r="Y3" s="3"/>
+      <c r="Z3" t="str">
+        <f>BIN2HEX(IF(C3="x", 0, C3) &amp; IF(D3="x", 0, D3) &amp; IF(E3="x", 0, E3) &amp; IF(F3="x", 0, F3) &amp; IF(G3="x", 0, G3) &amp; IF(H3="x", 0, H3) &amp; IF(I3="x", 0, I3) &amp; IF(J3="x", 0, J3), 2)</f>
+        <v>C0</v>
+      </c>
+      <c r="AA3" t="str">
+        <f t="shared" ref="AA3:AA19" si="0">BIN2HEX(IF(K3="x", 0, K3) &amp; IF(L3="x", 0, L3) &amp; IF(M3="x", 0, M3) &amp; IF(N3="x", 0, N3) &amp;  IF(Q3="x", 0, Q3) &amp; IF(S3="x", 0, S3) &amp; IF(T3="x", 0, T3) &amp; IF(U3="x", 0, U3), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AB3" t="str">
+        <f t="shared" ref="AB3:AB16" si="1">BIN2HEX(IF(V3="x", 0, V3) &amp; IF(W3="x", 0, W3) &amp; IF(X3="x", 0, X3), 2)</f>
+        <v>00</v>
+      </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -1182,6 +1240,18 @@
         <v>14</v>
       </c>
       <c r="Y4" s="3"/>
+      <c r="Z4" t="str">
+        <f t="shared" ref="Z4:Z19" si="2">BIN2HEX(IF(C4="x", 0, C4) &amp; IF(D4="x", 0, D4) &amp; IF(E4="x", 0, E4) &amp; IF(F4="x", 0, F4) &amp; IF(G4="x", 0, G4) &amp; IF(H4="x", 0, H4) &amp; IF(I4="x", 0, I4) &amp; IF(J4="x", 0, J4), 2)</f>
+        <v>60</v>
+      </c>
+      <c r="AA4" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="AB4" t="str">
+        <f t="shared" si="1"/>
+        <v>00</v>
+      </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -1248,6 +1318,18 @@
         <v>14</v>
       </c>
       <c r="Y5" s="3"/>
+      <c r="Z5" t="str">
+        <f t="shared" si="2"/>
+        <v>5E</v>
+      </c>
+      <c r="AA5" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="AB5" t="str">
+        <f t="shared" si="1"/>
+        <v>00</v>
+      </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1314,6 +1396,18 @@
         <v>14</v>
       </c>
       <c r="Y6" s="3"/>
+      <c r="Z6" t="str">
+        <f t="shared" si="2"/>
+        <v>4F</v>
+      </c>
+      <c r="AA6" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="AB6" t="str">
+        <f t="shared" si="1"/>
+        <v>00</v>
+      </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -1380,6 +1474,18 @@
         <v>1</v>
       </c>
       <c r="Y7" s="3"/>
+      <c r="Z7" t="str">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="AA7" t="str">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="AB7" t="str">
+        <f>BIN2HEX(IF(V7="x", 0, V7) &amp; IF(W7="x", 0, W7) &amp; IF(X7="x", 0, X7), 2)</f>
+        <v>05</v>
+      </c>
       <c r="AD7" t="s">
         <v>79</v>
       </c>
@@ -1449,6 +1555,18 @@
         <v>0</v>
       </c>
       <c r="Y8" s="3"/>
+      <c r="Z8" t="str">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="AA8" t="str">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="AB8" t="str">
+        <f t="shared" si="1"/>
+        <v>00</v>
+      </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1515,6 +1633,18 @@
         <v>14</v>
       </c>
       <c r="Y9" s="3"/>
+      <c r="Z9" t="str">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="AA9" t="str">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AB9" t="str">
+        <f t="shared" si="1"/>
+        <v>02</v>
+      </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1581,6 +1711,18 @@
         <v>14</v>
       </c>
       <c r="Y10" s="3"/>
+      <c r="Z10" t="str">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="AA10" t="str">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="AB10" t="str">
+        <f t="shared" si="1"/>
+        <v>06</v>
+      </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -1647,6 +1789,18 @@
         <v>14</v>
       </c>
       <c r="Y11" s="3"/>
+      <c r="Z11" t="str">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="AA11" t="str">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="AB11" t="str">
+        <f t="shared" si="1"/>
+        <v>02</v>
+      </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -1713,6 +1867,18 @@
         <v>14</v>
       </c>
       <c r="Y12" s="3"/>
+      <c r="Z12" t="str">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="AA12" t="str">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="AB12" t="str">
+        <f t="shared" si="1"/>
+        <v>02</v>
+      </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1779,6 +1945,18 @@
         <v>14</v>
       </c>
       <c r="Y13" s="3"/>
+      <c r="Z13" t="str">
+        <f t="shared" si="2"/>
+        <v>00</v>
+      </c>
+      <c r="AA13" t="str">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AB13" t="str">
+        <f t="shared" si="1"/>
+        <v>00</v>
+      </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -1845,6 +2023,18 @@
         <v>14</v>
       </c>
       <c r="Y14" s="3"/>
+      <c r="Z14" t="str">
+        <f t="shared" si="2"/>
+        <v>00</v>
+      </c>
+      <c r="AA14" t="str">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="AB14" t="str">
+        <f t="shared" si="1"/>
+        <v>00</v>
+      </c>
     </row>
     <row r="15" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
@@ -1912,6 +2102,18 @@
         <v>14</v>
       </c>
       <c r="Y15" s="3"/>
+      <c r="Z15" t="str">
+        <f t="shared" si="2"/>
+        <v>00</v>
+      </c>
+      <c r="AA15" t="str">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AB15" t="str">
+        <f t="shared" si="1"/>
+        <v>00</v>
+      </c>
     </row>
     <row r="16" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
@@ -1979,8 +2181,20 @@
         <v>14</v>
       </c>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z16" t="str">
+        <f t="shared" si="2"/>
+        <v>00</v>
+      </c>
+      <c r="AA16" t="str">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="AB16" t="str">
+        <f t="shared" si="1"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="4" t="s">
         <v>19</v>
@@ -1997,9 +2211,7 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-      <c r="Q17" s="3">
-        <v>1</v>
-      </c>
+      <c r="Q17" s="3"/>
       <c r="S17" s="3" t="s">
         <v>14</v>
       </c>
@@ -2019,8 +2231,10 @@
         <v>14</v>
       </c>
       <c r="Y17" s="3"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z17"/>
+      <c r="AA17"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -2085,8 +2299,20 @@
         <v>14</v>
       </c>
       <c r="Y18" s="3"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z18" t="str">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="AA18" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AB18" t="str">
+        <f t="shared" ref="AB18:AB19" si="3">BIN2HEX(IF(V18="x", 0, V18) &amp; IF(W18="x", 0, W18) &amp; IF(X18="x", 0, X18), 2)</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
@@ -2151,8 +2377,20 @@
         <v>14</v>
       </c>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z19" t="str">
+        <f t="shared" si="2"/>
+        <v>09</v>
+      </c>
+      <c r="AA19" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AB19" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>43</v>
       </c>
@@ -2167,7 +2405,9 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
@@ -2176,7 +2416,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>44</v>
       </c>
@@ -2191,7 +2431,9 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="Q21" s="3"/>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
@@ -2200,7 +2442,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>45</v>
       </c>
@@ -2215,7 +2457,9 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="Q22" s="3"/>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
@@ -2223,11 +2467,11 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
-      <c r="AB22" t="s">
+      <c r="AD22" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>46</v>
       </c>
@@ -2242,7 +2486,9 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="Q23" s="3"/>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
@@ -2251,29 +2497,101 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>10</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>11</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z25" t="str">
+        <f t="shared" ref="Z24:Z25" si="4">BIN2HEX(IF(C25="x", 0, C25) &amp; IF(D25="x", 0, D25) &amp; IF(E25="x", 0, E25) &amp; IF(F25="x", 0, F25) &amp; IF(G25="x", 0, G25) &amp; IF(H25="x", 0, H25) &amp; IF(I25="x", 0, I25) &amp; IF(J25="x", 0, J25), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AA25" t="str">
+        <f t="shared" ref="AA24:AA25" si="5">BIN2HEX(IF(K25="x", 0, K25) &amp; IF(L25="x", 0, L25) &amp; IF(M25="x", 0, M25) &amp; IF(N25="x", 0, N25) &amp;  IF(Q25="x", 0, Q25) &amp; IF(S25="x", 0, S25) &amp; IF(T25="x", 0, T25) &amp; IF(U25="x", 0, U25), 2)</f>
+        <v>08</v>
+      </c>
+      <c r="AB25" t="str">
+        <f t="shared" ref="AB24:AB25" si="6">BIN2HEX(IF(V25="x", 0, V25) &amp; IF(W25="x", 0, W25) &amp; IF(X25="x", 0, X25), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AD25" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>22</v>
       </c>
@@ -2281,7 +2599,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>30</v>
       </c>
@@ -2289,7 +2607,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>47</v>
       </c>
@@ -2297,7 +2615,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>53</v>
       </c>
@@ -2311,6 +2629,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2475,8 +2794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2640,7 +2959,7 @@
       <c r="D20" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="15" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2658,7 +2977,7 @@
       <c r="D21" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="14"/>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -2674,7 +2993,7 @@
       <c r="D22" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -2690,7 +3009,7 @@
       <c r="D23" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="15" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2708,7 +3027,7 @@
       <c r="D24" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="14"/>
+      <c r="E24" s="15"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -2724,7 +3043,7 @@
       <c r="D25" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">

--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Control Lines" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="173">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -479,6 +479,96 @@
   </si>
   <si>
     <t>ROM DATA in Hex</t>
+  </si>
+  <si>
+    <t>// Addr of the LCD display</t>
+  </si>
+  <si>
+    <t>// Write letter 'Hello World!' to LCD output</t>
+  </si>
+  <si>
+    <t>LD B, 0x48</t>
+  </si>
+  <si>
+    <t>04 80 48</t>
+  </si>
+  <si>
+    <t>// ASCII code for letter H</t>
+  </si>
+  <si>
+    <t>// e</t>
+  </si>
+  <si>
+    <t>// l</t>
+  </si>
+  <si>
+    <t>LD B, 0x65</t>
+  </si>
+  <si>
+    <t>04 80 65</t>
+  </si>
+  <si>
+    <t>LD B, 0x6c</t>
+  </si>
+  <si>
+    <t>04 80 6c</t>
+  </si>
+  <si>
+    <t>// o</t>
+  </si>
+  <si>
+    <t>04 80 6f</t>
+  </si>
+  <si>
+    <t>LD B, 0x6f</t>
+  </si>
+  <si>
+    <t>LD B, 0x20</t>
+  </si>
+  <si>
+    <t>04 80 20</t>
+  </si>
+  <si>
+    <t>// Space</t>
+  </si>
+  <si>
+    <t>LD B, 0x57</t>
+  </si>
+  <si>
+    <t>04 80 57</t>
+  </si>
+  <si>
+    <t>// W</t>
+  </si>
+  <si>
+    <t>// r</t>
+  </si>
+  <si>
+    <t>04 80 72</t>
+  </si>
+  <si>
+    <t>LD B, 0x72</t>
+  </si>
+  <si>
+    <t>// d</t>
+  </si>
+  <si>
+    <t>04 80 64</t>
+  </si>
+  <si>
+    <t>LD B, 0x64</t>
+  </si>
+  <si>
+    <t>// !</t>
+  </si>
+  <si>
+    <t>04 80 21</t>
+  </si>
+  <si>
+    <t>LD B, 0x21</t>
+  </si>
+  <si>
+    <t>040000</t>
   </si>
 </sst>
 </file>
@@ -609,7 +699,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -918,7 +1008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
@@ -2576,15 +2666,15 @@
         <v>14</v>
       </c>
       <c r="Z25" t="str">
-        <f t="shared" ref="Z24:Z25" si="4">BIN2HEX(IF(C25="x", 0, C25) &amp; IF(D25="x", 0, D25) &amp; IF(E25="x", 0, E25) &amp; IF(F25="x", 0, F25) &amp; IF(G25="x", 0, G25) &amp; IF(H25="x", 0, H25) &amp; IF(I25="x", 0, I25) &amp; IF(J25="x", 0, J25), 2)</f>
+        <f t="shared" ref="Z25" si="4">BIN2HEX(IF(C25="x", 0, C25) &amp; IF(D25="x", 0, D25) &amp; IF(E25="x", 0, E25) &amp; IF(F25="x", 0, F25) &amp; IF(G25="x", 0, G25) &amp; IF(H25="x", 0, H25) &amp; IF(I25="x", 0, I25) &amp; IF(J25="x", 0, J25), 2)</f>
         <v>00</v>
       </c>
       <c r="AA25" t="str">
-        <f t="shared" ref="AA24:AA25" si="5">BIN2HEX(IF(K25="x", 0, K25) &amp; IF(L25="x", 0, L25) &amp; IF(M25="x", 0, M25) &amp; IF(N25="x", 0, N25) &amp;  IF(Q25="x", 0, Q25) &amp; IF(S25="x", 0, S25) &amp; IF(T25="x", 0, T25) &amp; IF(U25="x", 0, U25), 2)</f>
+        <f t="shared" ref="AA25" si="5">BIN2HEX(IF(K25="x", 0, K25) &amp; IF(L25="x", 0, L25) &amp; IF(M25="x", 0, M25) &amp; IF(N25="x", 0, N25) &amp;  IF(Q25="x", 0, Q25) &amp; IF(S25="x", 0, S25) &amp; IF(T25="x", 0, T25) &amp; IF(U25="x", 0, U25), 2)</f>
         <v>08</v>
       </c>
       <c r="AB25" t="str">
-        <f t="shared" ref="AB24:AB25" si="6">BIN2HEX(IF(V25="x", 0, V25) &amp; IF(W25="x", 0, W25) &amp; IF(X25="x", 0, X25), 2)</f>
+        <f t="shared" ref="AB25" si="6">BIN2HEX(IF(V25="x", 0, V25) &amp; IF(W25="x", 0, W25) &amp; IF(X25="x", 0, X25), 2)</f>
         <v>00</v>
       </c>
       <c r="AD25" t="s">
@@ -2792,10 +2882,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D80" sqref="D57:D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3060,162 +3150,162 @@
         <v>108</v>
       </c>
     </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="12" t="s">
-        <v>113</v>
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" ref="B31:B36" si="2">"0x" &amp; DEC2HEX(A31,3)</f>
+        <v>0x000</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" ref="B32:B37" si="2">"0x" &amp; DEC2HEX(A32,3)</f>
-        <v>0x000</v>
+        <f t="shared" si="2"/>
+        <v>0x003</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="2"/>
-        <v>0x003</v>
+        <v>0x006</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="2"/>
-        <v>0x006</v>
+        <v>0x009</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="2"/>
-        <v>0x009</v>
+        <v>0x00C</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="2"/>
-        <v>0x00C</v>
+        <v>0x00F</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>15</v>
-      </c>
-      <c r="B37" t="str">
-        <f t="shared" si="2"/>
-        <v>0x00F</v>
-      </c>
-      <c r="C37" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" s="11" t="s">
         <v>116</v>
       </c>
     </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C41" s="12" t="s">
-        <v>122</v>
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" ref="B41:B44" si="3">"0x" &amp; DEC2HEX(A41,3)</f>
+        <v>0x000</v>
+      </c>
+      <c r="C41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" ref="B42:B45" si="3">"0x" &amp; DEC2HEX(A42,3)</f>
-        <v>0x000</v>
+        <f t="shared" si="3"/>
+        <v>0x003</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="3"/>
-        <v>0x003</v>
+        <v>0x006</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="3"/>
-        <v>0x006</v>
-      </c>
-      <c r="C44" t="s">
-        <v>92</v>
+        <v>0x010</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>16</v>
-      </c>
-      <c r="B45" t="str">
-        <f t="shared" si="3"/>
-        <v>0x010</v>
-      </c>
-      <c r="D45" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3238,6 +3328,9 @@
       <c r="D49" s="11" t="s">
         <v>136</v>
       </c>
+      <c r="E49" s="12" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -3253,7 +3346,7 @@
       <c r="D50" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="12" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3271,6 +3364,476 @@
       <c r="D51" s="11" t="s">
         <v>138</v>
       </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C55" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" ref="B56:B80" si="5">"0x" &amp; DEC2HEX(A56,3)</f>
+        <v>0x000</v>
+      </c>
+      <c r="C56" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="5"/>
+        <v>0x003</v>
+      </c>
+      <c r="C57" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>6</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="5"/>
+        <v>0x006</v>
+      </c>
+      <c r="C58" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E58" s="12"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>9</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="5"/>
+        <v>0x009</v>
+      </c>
+      <c r="C59" t="s">
+        <v>150</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>12</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="5"/>
+        <v>0x00C</v>
+      </c>
+      <c r="C60" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E60" s="12"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>15</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="5"/>
+        <v>0x00F</v>
+      </c>
+      <c r="C61" t="s">
+        <v>152</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>18</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="5"/>
+        <v>0x012</v>
+      </c>
+      <c r="C62" t="s">
+        <v>135</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E62" s="12"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>21</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="5"/>
+        <v>0x015</v>
+      </c>
+      <c r="C63" t="s">
+        <v>152</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>24</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="5"/>
+        <v>0x018</v>
+      </c>
+      <c r="C64" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E64" s="12"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>27</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="5"/>
+        <v>0x01B</v>
+      </c>
+      <c r="C65" t="s">
+        <v>156</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>30</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="5"/>
+        <v>0x01E</v>
+      </c>
+      <c r="C66" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E66" s="12"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>33</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="5"/>
+        <v>0x021</v>
+      </c>
+      <c r="C67" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>36</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="5"/>
+        <v>0x024</v>
+      </c>
+      <c r="C68" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E68" s="12"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>39</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="5"/>
+        <v>0x027</v>
+      </c>
+      <c r="C69" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>42</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="5"/>
+        <v>0x02A</v>
+      </c>
+      <c r="C70" t="s">
+        <v>135</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E70" s="12"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>45</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="5"/>
+        <v>0x02D</v>
+      </c>
+      <c r="C71" t="s">
+        <v>156</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>48</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="5"/>
+        <v>0x030</v>
+      </c>
+      <c r="C72" t="s">
+        <v>135</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E72" s="12"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>51</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="5"/>
+        <v>0x033</v>
+      </c>
+      <c r="C73" t="s">
+        <v>165</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>54</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="5"/>
+        <v>0x036</v>
+      </c>
+      <c r="C74" t="s">
+        <v>135</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E74" s="12"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>57</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="5"/>
+        <v>0x039</v>
+      </c>
+      <c r="C75" t="s">
+        <v>152</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>60</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="5"/>
+        <v>0x03C</v>
+      </c>
+      <c r="C76" t="s">
+        <v>135</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E76" s="12"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>63</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="5"/>
+        <v>0x03F</v>
+      </c>
+      <c r="C77" t="s">
+        <v>168</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>66</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="5"/>
+        <v>0x042</v>
+      </c>
+      <c r="C78" t="s">
+        <v>135</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E78" s="12"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>69</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="5"/>
+        <v>0x045</v>
+      </c>
+      <c r="C79" t="s">
+        <v>171</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>72</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="5"/>
+        <v>0x048</v>
+      </c>
+      <c r="C80" t="s">
+        <v>135</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E80" s="12"/>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E81" s="12"/>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E82" s="12"/>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E83" s="12"/>
+    </row>
+    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E84" s="12"/>
+    </row>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E85" s="12"/>
+    </row>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E86" s="12"/>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E87" s="12"/>
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E88" s="12"/>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E89" s="12"/>
+    </row>
+    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E90" s="12"/>
+    </row>
+    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E91" s="12"/>
+    </row>
+    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E92" s="12"/>
+    </row>
+    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E93" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Control Lines" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="178">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -202,9 +202,6 @@
     <t>ST [addr], R1</t>
   </si>
   <si>
-    <t>R1 to MEM_DATA</t>
-  </si>
-  <si>
     <t>LD R1, [RR3]</t>
   </si>
   <si>
@@ -421,30 +418,18 @@
     <t>// Load value from memory, copies it to next address</t>
   </si>
   <si>
-    <t>R1 to MEM_DATA, provisorily using R2</t>
-  </si>
-  <si>
     <t>f0</t>
   </si>
   <si>
     <t>pair of 8-bit registers (as addressing is 12-bit, only lower half of the High register will be used)</t>
   </si>
   <si>
-    <t>IN R1, R2</t>
-  </si>
-  <si>
-    <t>OUT R1. R2</t>
-  </si>
-  <si>
     <t>Read byte from input selected by R2, and writes it to R1</t>
   </si>
   <si>
     <t>Write byte value of R1 in output selected in R2</t>
   </si>
   <si>
-    <t>R1 to OUT</t>
-  </si>
-  <si>
     <t>// Write letter A to LCD output</t>
   </si>
   <si>
@@ -568,7 +553,37 @@
     <t>LD B, 0x21</t>
   </si>
   <si>
-    <t>040000</t>
+    <t>output device address (0 - LCD Display; 1 - Led matrix)</t>
+  </si>
+  <si>
+    <t>input device address (0 - Keyboard)</t>
+  </si>
+  <si>
+    <t>R2 to MEM_DATA</t>
+  </si>
+  <si>
+    <t>OUT 0, B</t>
+  </si>
+  <si>
+    <t>[OD_addr]</t>
+  </si>
+  <si>
+    <t>[ID_addr]</t>
+  </si>
+  <si>
+    <t>OUT [OD_addr]. R2</t>
+  </si>
+  <si>
+    <t>IN [ID_addr], R2</t>
+  </si>
+  <si>
+    <t>literal byte value</t>
+  </si>
+  <si>
+    <t>memory address with 12 bits</t>
+  </si>
+  <si>
+    <t>R2 to OUT</t>
   </si>
 </sst>
 </file>
@@ -1006,16 +1021,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE31"/>
+  <dimension ref="A1:AE35"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AA29" sqref="AA29"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="3" customWidth="1"/>
     <col min="11" max="14" width="2.85546875" customWidth="1"/>
     <col min="15" max="15" width="2.85546875" style="6" customWidth="1"/>
@@ -1029,10 +1044,10 @@
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" ht="130.5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1056,7 +1071,7 @@
         <v>15</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>11</v>
@@ -1068,7 +1083,7 @@
         <v>13</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>20</v>
@@ -1077,7 +1092,7 @@
         <v>21</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="R1" s="7"/>
       <c r="S1" s="2" t="s">
@@ -1100,7 +1115,7 @@
       </c>
       <c r="Y1" s="2"/>
       <c r="Z1" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AA1" s="14"/>
       <c r="AB1" s="14"/>
@@ -1426,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -1577,7 +1592,7 @@
         <v>05</v>
       </c>
       <c r="AD7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
@@ -2407,7 +2422,7 @@
         <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -2557,9 +2572,6 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
-      <c r="AD22" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
@@ -2592,13 +2604,13 @@
         <v>10</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="AD24" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
@@ -2606,7 +2618,7 @@
         <v>11</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2678,7 +2690,7 @@
         <v>00</v>
       </c>
       <c r="AD25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
@@ -2699,18 +2711,50 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2739,72 +2783,72 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>61</v>
-      </c>
       <c r="E4" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2812,67 +2856,67 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>71</v>
-      </c>
       <c r="E6" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" t="s">
         <v>72</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
         <v>77</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" t="s">
         <v>81</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2882,10 +2926,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D80" sqref="D57:D80"/>
+    <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2897,17 +2941,17 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2919,10 +2963,10 @@
         <v>0x000</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2934,10 +2978,10 @@
         <v>0x003</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2949,10 +2993,10 @@
         <v>0x006</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2964,10 +3008,10 @@
         <v>0x009</v>
       </c>
       <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2979,15 +3023,15 @@
         <v>0x006</v>
       </c>
       <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2999,10 +3043,10 @@
         <v>0x000</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3014,10 +3058,10 @@
         <v>0x003</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3029,10 +3073,10 @@
         <v>0x006</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3044,13 +3088,13 @@
         <v>0x009</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3062,10 +3106,10 @@
         <v>0x00C</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E21" s="15"/>
     </row>
@@ -3078,10 +3122,10 @@
         <v>0x00F</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E22" s="15"/>
     </row>
@@ -3094,13 +3138,13 @@
         <v>0x012</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3112,10 +3156,10 @@
         <v>0x015</v>
       </c>
       <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="E24" s="15"/>
     </row>
@@ -3128,10 +3172,10 @@
         <v>0x018</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E25" s="15"/>
     </row>
@@ -3144,17 +3188,17 @@
         <v>0x01B</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3166,10 +3210,10 @@
         <v>0x000</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3181,10 +3225,10 @@
         <v>0x003</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3196,10 +3240,10 @@
         <v>0x006</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3211,10 +3255,10 @@
         <v>0x009</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3226,10 +3270,10 @@
         <v>0x00C</v>
       </c>
       <c r="C35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3241,15 +3285,15 @@
         <v>0x00F</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C40" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3261,10 +3305,10 @@
         <v>0x000</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3276,10 +3320,10 @@
         <v>0x003</v>
       </c>
       <c r="C42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3291,10 +3335,10 @@
         <v>0x006</v>
       </c>
       <c r="C43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3306,12 +3350,12 @@
         <v>0x010</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C48" s="12" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3323,13 +3367,13 @@
         <v>0x000</v>
       </c>
       <c r="C49" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3341,13 +3385,13 @@
         <v>0x003</v>
       </c>
       <c r="C50" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3359,15 +3403,15 @@
         <v>0x006</v>
       </c>
       <c r="C51" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C55" s="12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -3375,17 +3419,17 @@
         <v>0</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" ref="B56:B80" si="5">"0x" &amp; DEC2HEX(A56,3)</f>
+        <f t="shared" ref="B56:B79" si="5">"0x" &amp; DEC2HEX(A56,3)</f>
         <v>0x000</v>
       </c>
       <c r="C56" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -3397,14 +3441,12 @@
         <v>0x003</v>
       </c>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>147</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E57" s="12"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
@@ -3415,12 +3457,14 @@
         <v>0x006</v>
       </c>
       <c r="C58" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E58" s="12"/>
+        <v>146</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
@@ -3431,14 +3475,12 @@
         <v>0x009</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>148</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E59" s="12"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -3449,12 +3491,14 @@
         <v>0x00C</v>
       </c>
       <c r="C60" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E60" s="12"/>
+        <v>148</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -3465,14 +3509,12 @@
         <v>0x00F</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>149</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E61" s="12"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
@@ -3483,12 +3525,14 @@
         <v>0x012</v>
       </c>
       <c r="C62" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E62" s="12"/>
+        <v>148</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
@@ -3499,14 +3543,12 @@
         <v>0x015</v>
       </c>
       <c r="C63" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>149</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E63" s="12"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
@@ -3517,12 +3559,14 @@
         <v>0x018</v>
       </c>
       <c r="C64" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E64" s="12"/>
+        <v>150</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
@@ -3533,14 +3577,12 @@
         <v>0x01B</v>
       </c>
       <c r="C65" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>154</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E65" s="12"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
@@ -3551,12 +3593,14 @@
         <v>0x01E</v>
       </c>
       <c r="C66" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E66" s="12"/>
+        <v>153</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
@@ -3567,14 +3611,12 @@
         <v>0x021</v>
       </c>
       <c r="C67" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>159</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E67" s="12"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
@@ -3585,12 +3627,14 @@
         <v>0x024</v>
       </c>
       <c r="C68" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E68" s="12"/>
+        <v>156</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
@@ -3601,14 +3645,12 @@
         <v>0x027</v>
       </c>
       <c r="C69" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>162</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E69" s="12"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
@@ -3619,12 +3661,14 @@
         <v>0x02A</v>
       </c>
       <c r="C70" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E70" s="12"/>
+        <v>150</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
@@ -3635,14 +3679,12 @@
         <v>0x02D</v>
       </c>
       <c r="C71" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>154</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E71" s="12"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
@@ -3653,12 +3695,14 @@
         <v>0x030</v>
       </c>
       <c r="C72" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E72" s="12"/>
+        <v>159</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
@@ -3669,14 +3713,12 @@
         <v>0x033</v>
       </c>
       <c r="C73" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>163</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E73" s="12"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
@@ -3687,12 +3729,14 @@
         <v>0x036</v>
       </c>
       <c r="C74" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E74" s="12"/>
+        <v>148</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
@@ -3703,14 +3747,12 @@
         <v>0x039</v>
       </c>
       <c r="C75" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>149</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E75" s="12"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
@@ -3721,12 +3763,14 @@
         <v>0x03C</v>
       </c>
       <c r="C76" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E76" s="12"/>
+        <v>162</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
@@ -3737,14 +3781,12 @@
         <v>0x03F</v>
       </c>
       <c r="C77" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>166</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E77" s="12"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
@@ -3755,12 +3797,14 @@
         <v>0x042</v>
       </c>
       <c r="C78" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E78" s="12"/>
+        <v>165</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
@@ -3771,69 +3815,51 @@
         <v>0x045</v>
       </c>
       <c r="C79" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>169</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E79" s="12"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>72</v>
-      </c>
-      <c r="B80" t="str">
-        <f t="shared" si="5"/>
-        <v>0x048</v>
-      </c>
-      <c r="C80" t="s">
-        <v>135</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>138</v>
-      </c>
       <c r="E80" s="12"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E81" s="12"/>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E82" s="12"/>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E83" s="12"/>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E84" s="12"/>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E85" s="12"/>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E86" s="12"/>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E87" s="12"/>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E88" s="12"/>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E89" s="12"/>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E90" s="12"/>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E91" s="12"/>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E92" s="12"/>
-    </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E93" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Control Lines" sheetId="1" r:id="rId1"/>
@@ -45,6 +45,24 @@
         </r>
       </text>
     </comment>
+    <comment ref="B25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>R1
+2 bits: col (0, 1, or 2)
+4 bits: line (0 to 15)
+R2: value
+OD_addr: 2 or 3 bits (using NOT USED of By Register instr format)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -571,9 +589,6 @@
     <t>[ID_addr]</t>
   </si>
   <si>
-    <t>OUT [OD_addr]. R2</t>
-  </si>
-  <si>
     <t>IN [ID_addr], R2</t>
   </si>
   <si>
@@ -584,13 +599,16 @@
   </si>
   <si>
     <t>R2 to OUT</t>
+  </si>
+  <si>
+    <t>OUT [OD_addr]. R1, R2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,6 +666,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1023,14 +1048,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AC38" sqref="AC38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="3" customWidth="1"/>
     <col min="11" max="14" width="2.85546875" customWidth="1"/>
     <col min="15" max="15" width="2.85546875" style="6" customWidth="1"/>
@@ -1092,7 +1117,7 @@
         <v>21</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R1" s="7"/>
       <c r="S1" s="2" t="s">
@@ -2316,6 +2341,9 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
+      <c r="P17" s="6">
+        <v>1</v>
+      </c>
       <c r="Q17" s="3"/>
       <c r="S17" s="3" t="s">
         <v>14</v>
@@ -2604,7 +2632,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -2618,7 +2646,7 @@
         <v>11</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2714,7 +2742,7 @@
         <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
@@ -2722,7 +2750,7 @@
         <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">

--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Control Lines" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>R1
 2 bits: col (0, 1, or 2)
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="199">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -460,9 +460,6 @@
     <t>04 80 41</t>
   </si>
   <si>
-    <t>OUT A, B</t>
-  </si>
-  <si>
     <t>04 00 00</t>
   </si>
   <si>
@@ -487,9 +484,6 @@
     <t>// Addr of the LCD display</t>
   </si>
   <si>
-    <t>// Write letter 'Hello World!' to LCD output</t>
-  </si>
-  <si>
     <t>LD B, 0x48</t>
   </si>
   <si>
@@ -602,13 +596,82 @@
   </si>
   <si>
     <t>OUT [OD_addr]. R1, R2</t>
+  </si>
+  <si>
+    <t>// Write 'Hello World!' to LCD output</t>
+  </si>
+  <si>
+    <t>// Write 'Hello World!' to LCD output (reading from a sequence of bytes in memory)</t>
+  </si>
+  <si>
+    <t>//Counting in LCD output</t>
+  </si>
+  <si>
+    <t>JP [0x003]</t>
+  </si>
+  <si>
+    <t>2c 00 03</t>
+  </si>
+  <si>
+    <t>LD A, 0x30</t>
+  </si>
+  <si>
+    <t>04 00 30</t>
+  </si>
+  <si>
+    <t>// ASCII char '0'</t>
+  </si>
+  <si>
+    <t>// ASCII char '9'</t>
+  </si>
+  <si>
+    <t>OUT 0, A</t>
+  </si>
+  <si>
+    <t>44 00 00</t>
+  </si>
+  <si>
+    <t>LD B, 0x39</t>
+  </si>
+  <si>
+    <t>04 80 39</t>
+  </si>
+  <si>
+    <t>JP Z, [0x015]</t>
+  </si>
+  <si>
+    <t>30 00 15</t>
+  </si>
+  <si>
+    <t>LD C, A</t>
+  </si>
+  <si>
+    <t>LD A, C</t>
+  </si>
+  <si>
+    <t>// Saves the value of A register in C</t>
+  </si>
+  <si>
+    <t>// Restores valu of A register</t>
+  </si>
+  <si>
+    <t>04 20 00</t>
+  </si>
+  <si>
+    <t>05 00 00</t>
+  </si>
+  <si>
+    <t>18 20 00</t>
+  </si>
+  <si>
+    <t>// Not working. Reason: there is no C register implemented...</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,13 +729,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1048,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AC38" sqref="AC38"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,10 +1125,10 @@
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" ht="130.5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1108,7 +1164,7 @@
         <v>13</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>20</v>
@@ -1117,7 +1173,7 @@
         <v>21</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R1" s="7"/>
       <c r="S1" s="2" t="s">
@@ -1140,7 +1196,7 @@
       </c>
       <c r="Y1" s="2"/>
       <c r="Z1" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA1" s="14"/>
       <c r="AB1" s="14"/>
@@ -2632,7 +2688,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -2646,7 +2702,7 @@
         <v>11</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2742,7 +2798,7 @@
         <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
@@ -2750,7 +2806,7 @@
         <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
@@ -2771,18 +2827,18 @@
     </row>
     <row r="34" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C34" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C35" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2800,7 +2856,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2954,10 +3010,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:XFD56"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2972,7 +3028,7 @@
         <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3398,10 +3454,10 @@
         <v>127</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3419,7 +3475,7 @@
         <v>129</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3431,15 +3487,15 @@
         <v>0x006</v>
       </c>
       <c r="C51" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C55" s="12" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -3451,13 +3507,13 @@
         <v>0x000</v>
       </c>
       <c r="C56" t="s">
+        <v>138</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E56" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -3469,10 +3525,10 @@
         <v>0x003</v>
       </c>
       <c r="C57" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E57" s="12"/>
     </row>
@@ -3485,13 +3541,13 @@
         <v>0x006</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3503,10 +3559,10 @@
         <v>0x009</v>
       </c>
       <c r="C59" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E59" s="12"/>
     </row>
@@ -3519,13 +3575,13 @@
         <v>0x00C</v>
       </c>
       <c r="C60" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3537,10 +3593,10 @@
         <v>0x00F</v>
       </c>
       <c r="C61" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E61" s="12"/>
     </row>
@@ -3553,13 +3609,13 @@
         <v>0x012</v>
       </c>
       <c r="C62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3571,10 +3627,10 @@
         <v>0x015</v>
       </c>
       <c r="C63" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E63" s="12"/>
     </row>
@@ -3587,13 +3643,13 @@
         <v>0x018</v>
       </c>
       <c r="C64" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -3605,10 +3661,10 @@
         <v>0x01B</v>
       </c>
       <c r="C65" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E65" s="12"/>
     </row>
@@ -3621,13 +3677,13 @@
         <v>0x01E</v>
       </c>
       <c r="C66" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E66" s="12" t="s">
         <v>152</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3639,10 +3695,10 @@
         <v>0x021</v>
       </c>
       <c r="C67" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E67" s="12"/>
     </row>
@@ -3655,13 +3711,13 @@
         <v>0x024</v>
       </c>
       <c r="C68" t="s">
+        <v>153</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E68" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3673,10 +3729,10 @@
         <v>0x027</v>
       </c>
       <c r="C69" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E69" s="12"/>
     </row>
@@ -3689,13 +3745,13 @@
         <v>0x02A</v>
       </c>
       <c r="C70" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3707,10 +3763,10 @@
         <v>0x02D</v>
       </c>
       <c r="C71" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E71" s="12"/>
     </row>
@@ -3723,13 +3779,13 @@
         <v>0x030</v>
       </c>
       <c r="C72" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3741,10 +3797,10 @@
         <v>0x033</v>
       </c>
       <c r="C73" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E73" s="12"/>
     </row>
@@ -3757,13 +3813,13 @@
         <v>0x036</v>
       </c>
       <c r="C74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3775,10 +3831,10 @@
         <v>0x039</v>
       </c>
       <c r="C75" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E75" s="12"/>
     </row>
@@ -3791,13 +3847,13 @@
         <v>0x03C</v>
       </c>
       <c r="C76" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3809,10 +3865,10 @@
         <v>0x03F</v>
       </c>
       <c r="C77" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E77" s="12"/>
     </row>
@@ -3825,13 +3881,13 @@
         <v>0x042</v>
       </c>
       <c r="C78" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3843,51 +3899,210 @@
         <v>0x045</v>
       </c>
       <c r="C79" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E79" s="12"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E80" s="12"/>
     </row>
-    <row r="81" spans="5:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D81"/>
       <c r="E81" s="12"/>
     </row>
-    <row r="82" spans="5:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C82" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D82"/>
       <c r="E82" s="12"/>
     </row>
-    <row r="83" spans="5:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D83"/>
       <c r="E83" s="12"/>
     </row>
-    <row r="84" spans="5:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C84" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D84"/>
       <c r="E84" s="12"/>
     </row>
-    <row r="85" spans="5:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E85" s="12"/>
-    </row>
-    <row r="86" spans="5:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" ref="B85:B94" si="6">"0x" &amp; DEC2HEX(A85,3)</f>
+        <v>0x000</v>
+      </c>
+      <c r="C85" t="s">
+        <v>181</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>3</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="6"/>
+        <v>0x003</v>
+      </c>
+      <c r="C86" t="s">
+        <v>185</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>186</v>
+      </c>
       <c r="E86" s="12"/>
     </row>
-    <row r="87" spans="5:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>6</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="6"/>
+        <v>0x006</v>
+      </c>
+      <c r="C87" t="s">
+        <v>83</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="E87" s="12"/>
     </row>
-    <row r="88" spans="5:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>9</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="6"/>
+        <v>0x009</v>
+      </c>
+      <c r="C88" t="s">
+        <v>85</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="E88" s="12"/>
     </row>
-    <row r="89" spans="5:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E89" s="12"/>
-    </row>
-    <row r="90" spans="5:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E90" s="12"/>
-    </row>
-    <row r="91" spans="5:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>12</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="6"/>
+        <v>0x00C</v>
+      </c>
+      <c r="C89" t="s">
+        <v>191</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>15</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="6"/>
+        <v>0x00F</v>
+      </c>
+      <c r="C90" t="s">
+        <v>187</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>18</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="6"/>
+        <v>0x012</v>
+      </c>
+      <c r="C91" t="s">
+        <v>86</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>197</v>
+      </c>
       <c r="E91" s="12"/>
     </row>
-    <row r="92" spans="5:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>21</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="6"/>
+        <v>0x015</v>
+      </c>
+      <c r="C92" t="s">
+        <v>189</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>190</v>
+      </c>
       <c r="E92" s="12"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>24</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="6"/>
+        <v>0x018</v>
+      </c>
+      <c r="C93" t="s">
+        <v>192</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>27</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="6"/>
+        <v>0x01B</v>
+      </c>
+      <c r="C94" t="s">
+        <v>179</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E94" s="12"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>198</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="232">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -595,9 +595,6 @@
     <t>R2 to OUT</t>
   </si>
   <si>
-    <t>OUT [OD_addr]. R1, R2</t>
-  </si>
-  <si>
     <t>// Write 'Hello World!' to LCD output</t>
   </si>
   <si>
@@ -607,12 +604,6 @@
     <t>//Counting in LCD output</t>
   </si>
   <si>
-    <t>JP [0x003]</t>
-  </si>
-  <si>
-    <t>2c 00 03</t>
-  </si>
-  <si>
     <t>LD A, 0x30</t>
   </si>
   <si>
@@ -622,27 +613,12 @@
     <t>// ASCII char '0'</t>
   </si>
   <si>
-    <t>// ASCII char '9'</t>
-  </si>
-  <si>
     <t>OUT 0, A</t>
   </si>
   <si>
     <t>44 00 00</t>
   </si>
   <si>
-    <t>LD B, 0x39</t>
-  </si>
-  <si>
-    <t>04 80 39</t>
-  </si>
-  <si>
-    <t>JP Z, [0x015]</t>
-  </si>
-  <si>
-    <t>30 00 15</t>
-  </si>
-  <si>
     <t>LD C, A</t>
   </si>
   <si>
@@ -652,9 +628,6 @@
     <t>// Saves the value of A register in C</t>
   </si>
   <si>
-    <t>// Restores valu of A register</t>
-  </si>
-  <si>
     <t>04 20 00</t>
   </si>
   <si>
@@ -665,6 +638,132 @@
   </si>
   <si>
     <t>// Not working. Reason: there is no C register implemented...</t>
+  </si>
+  <si>
+    <t>OUT [OD_addr], R1, R2</t>
+  </si>
+  <si>
+    <t>04 10 00</t>
+  </si>
+  <si>
+    <t>LD E, 0x1</t>
+  </si>
+  <si>
+    <t>06 00 01</t>
+  </si>
+  <si>
+    <t>ADD A, E</t>
+  </si>
+  <si>
+    <t>14 40 00</t>
+  </si>
+  <si>
+    <t>08 80 00</t>
+  </si>
+  <si>
+    <t>// Addr of first char</t>
+  </si>
+  <si>
+    <t>// Constant to use in increment</t>
+  </si>
+  <si>
+    <t>// Reads char from memory</t>
+  </si>
+  <si>
+    <t>// Print out char to LCD</t>
+  </si>
+  <si>
+    <t>// Restores value of A register</t>
+  </si>
+  <si>
+    <t>SUB A, F</t>
+  </si>
+  <si>
+    <t>// Addr of last char</t>
+  </si>
+  <si>
+    <t>LD B, 0x30</t>
+  </si>
+  <si>
+    <t>LD F, 0x3b</t>
+  </si>
+  <si>
+    <t>04 80 30</t>
+  </si>
+  <si>
+    <t>06 80 3b</t>
+  </si>
+  <si>
+    <t>// Data</t>
+  </si>
+  <si>
+    <t>48 65 6c</t>
+  </si>
+  <si>
+    <t>6c 6f 20</t>
+  </si>
+  <si>
+    <t>57 6f 72</t>
+  </si>
+  <si>
+    <t>6c 64 21</t>
+  </si>
+  <si>
+    <t>// Hel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// lo </t>
+  </si>
+  <si>
+    <t>// Wor</t>
+  </si>
+  <si>
+    <t>// ld!</t>
+  </si>
+  <si>
+    <t>// Tests whether is the last char</t>
+  </si>
+  <si>
+    <t>LD A, [CB]</t>
+  </si>
+  <si>
+    <t>LD C, 0x00</t>
+  </si>
+  <si>
+    <t>JP Z, [0x01e]</t>
+  </si>
+  <si>
+    <t>30 00 1e</t>
+  </si>
+  <si>
+    <t>LD B, 0x40</t>
+  </si>
+  <si>
+    <t>04 80 40</t>
+  </si>
+  <si>
+    <t>// ASCII char '9' + 1</t>
+  </si>
+  <si>
+    <t>OUT 0, F</t>
+  </si>
+  <si>
+    <t>// Clear Display</t>
+  </si>
+  <si>
+    <t>// Code to clear display</t>
+  </si>
+  <si>
+    <t>30 00 18</t>
+  </si>
+  <si>
+    <t>JP Z, [0x018]</t>
+  </si>
+  <si>
+    <t>// Stops if is the last char</t>
+  </si>
+  <si>
+    <t>// next iteration of loop</t>
   </si>
 </sst>
 </file>
@@ -763,7 +862,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -798,6 +897,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1104,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE35"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,7 +1621,7 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="3">
@@ -2702,7 +2802,7 @@
         <v>11</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -3010,17 +3110,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3315,7 +3415,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
@@ -3330,7 +3430,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -3345,7 +3445,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>12</v>
       </c>
@@ -3360,7 +3460,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>15</v>
       </c>
@@ -3375,12 +3475,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C40" s="12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0</v>
       </c>
@@ -3395,7 +3495,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -3410,7 +3510,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6</v>
       </c>
@@ -3425,7 +3525,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>16</v>
       </c>
@@ -3436,8 +3536,11 @@
       <c r="D44" s="11" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C48" s="12" t="s">
         <v>126</v>
       </c>
@@ -3495,7 +3598,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C55" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -3915,193 +4018,497 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C82" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D82"/>
       <c r="E82" s="12"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D83"/>
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83" t="str">
+        <f>"0x" &amp; DEC2HEX(A83,3)</f>
+        <v>0x000</v>
+      </c>
+      <c r="C83" t="s">
+        <v>219</v>
+      </c>
       <c r="E83" s="12"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C84" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="D84"/>
-      <c r="E84" s="12"/>
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84" t="str">
+        <f>"0x" &amp; DEC2HEX(A84,3)</f>
+        <v>0x003</v>
+      </c>
+      <c r="C84" t="s">
+        <v>204</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" ref="B85:B94" si="6">"0x" &amp; DEC2HEX(A85,3)</f>
-        <v>0x000</v>
+        <f>"0x" &amp; DEC2HEX(A85,3)</f>
+        <v>0x006</v>
       </c>
       <c r="C85" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="6"/>
-        <v>0x003</v>
+        <f>"0x" &amp; DEC2HEX(A86,3)</f>
+        <v>0x009</v>
       </c>
       <c r="C86" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="E86" s="12"/>
+        <v>193</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" si="6"/>
-        <v>0x006</v>
+        <f>"0x" &amp; DEC2HEX(A87,3)</f>
+        <v>0x00C</v>
       </c>
       <c r="C87" t="s">
-        <v>83</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E87" s="12"/>
+        <v>218</v>
+      </c>
+      <c r="D87"/>
+      <c r="E87" s="12" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" si="6"/>
-        <v>0x009</v>
+        <f>"0x" &amp; DEC2HEX(A88,3)</f>
+        <v>0x00F</v>
       </c>
       <c r="C88" t="s">
-        <v>85</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E88" s="12"/>
+        <v>181</v>
+      </c>
+      <c r="D88" t="s">
+        <v>182</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" si="6"/>
-        <v>0x00C</v>
+        <f>"0x" &amp; DEC2HEX(A89,3)</f>
+        <v>0x012</v>
       </c>
       <c r="C89" t="s">
+        <v>61</v>
+      </c>
+      <c r="D89" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D89" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>193</v>
-      </c>
+      <c r="E89" s="12"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" si="6"/>
-        <v>0x00F</v>
+        <f>"0x" &amp; DEC2HEX(A90,3)</f>
+        <v>0x015</v>
       </c>
       <c r="C90" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>184</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" si="6"/>
-        <v>0x012</v>
+        <f>"0x" &amp; DEC2HEX(A91,3)</f>
+        <v>0x018</v>
       </c>
       <c r="C91" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E91" s="12"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" si="6"/>
-        <v>0x015</v>
+        <f>"0x" &amp; DEC2HEX(A92,3)</f>
+        <v>0x01B</v>
       </c>
       <c r="C92" t="s">
-        <v>189</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="E92" s="12"/>
+        <v>202</v>
+      </c>
+      <c r="D92"/>
+      <c r="E92" s="12" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B93" t="str">
-        <f t="shared" si="6"/>
-        <v>0x018</v>
+        <f>"0x" &amp; DEC2HEX(A93,3)</f>
+        <v>0x01E</v>
       </c>
       <c r="C93" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="E93" s="12" t="s">
-        <v>194</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="E93" s="12"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
+        <v>33</v>
+      </c>
+      <c r="B94" t="str">
+        <f>"0x" &amp; DEC2HEX(A94,3)</f>
+        <v>0x021</v>
+      </c>
+      <c r="C94" t="s">
+        <v>99</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E94" s="12"/>
+    </row>
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E95" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>48</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" ref="B84:B99" si="6">"0x" &amp; DEC2HEX(A96,3)</f>
+        <v>0x030</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>51</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="6"/>
+        <v>0x033</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>54</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="6"/>
+        <v>0x036</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>57</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="6"/>
+        <v>0x039</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E100" s="12"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D101"/>
+      <c r="E101" s="12"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C102" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D102"/>
+      <c r="E102" s="12"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" ref="B103:B114" si="7">"0x" &amp; DEC2HEX(A103,3)</f>
+        <v>0x000</v>
+      </c>
+      <c r="C103" t="s">
+        <v>178</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>3</v>
+      </c>
+      <c r="B104" t="str">
+        <f>"0x" &amp; DEC2HEX(A104,3)</f>
+        <v>0x003</v>
+      </c>
+      <c r="C104" t="s">
+        <v>94</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>6</v>
+      </c>
+      <c r="B105" t="str">
+        <f>"0x" &amp; DEC2HEX(A105,3)</f>
+        <v>0x006</v>
+      </c>
+      <c r="C105" t="s">
+        <v>181</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E105" s="12"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>9</v>
+      </c>
+      <c r="B106" t="str">
+        <f>"0x" &amp; DEC2HEX(A106,3)</f>
+        <v>0x009</v>
+      </c>
+      <c r="C106" t="s">
+        <v>83</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E106" s="12"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>12</v>
+      </c>
+      <c r="B107" t="str">
+        <f>"0x" &amp; DEC2HEX(A107,3)</f>
+        <v>0x00C</v>
+      </c>
+      <c r="C107" t="s">
+        <v>85</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E107" s="12"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>15</v>
+      </c>
+      <c r="B108" t="str">
+        <f>"0x" &amp; DEC2HEX(A108,3)</f>
+        <v>0x00F</v>
+      </c>
+      <c r="C108" t="s">
+        <v>183</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>18</v>
+      </c>
+      <c r="B109" t="str">
+        <f>"0x" &amp; DEC2HEX(A109,3)</f>
+        <v>0x012</v>
+      </c>
+      <c r="C109" t="s">
+        <v>222</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>21</v>
+      </c>
+      <c r="B110" t="str">
+        <f>"0x" &amp; DEC2HEX(A110,3)</f>
+        <v>0x015</v>
+      </c>
+      <c r="C110" t="s">
+        <v>86</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E110" s="12"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>24</v>
+      </c>
+      <c r="B111" t="str">
+        <f>"0x" &amp; DEC2HEX(A111,3)</f>
+        <v>0x018</v>
+      </c>
+      <c r="C111" t="s">
+        <v>229</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
         <v>27</v>
       </c>
-      <c r="B94" t="str">
-        <f t="shared" si="6"/>
+      <c r="B112" t="str">
+        <f>"0x" &amp; DEC2HEX(A112,3)</f>
         <v>0x01B</v>
       </c>
-      <c r="C94" t="s">
-        <v>179</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="E94" s="12"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E96" t="s">
-        <v>198</v>
+      <c r="C112" t="s">
+        <v>184</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>30</v>
+      </c>
+      <c r="B113" t="str">
+        <f>"0x" &amp; DEC2HEX(A113,3)</f>
+        <v>0x01E</v>
+      </c>
+      <c r="C113" t="s">
+        <v>225</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>33</v>
+      </c>
+      <c r="B114" t="str">
+        <f>"0x" &amp; DEC2HEX(A114,3)</f>
+        <v>0x021</v>
+      </c>
+      <c r="C114" t="s">
+        <v>91</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E116" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Control Lines" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="235">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -643,9 +643,6 @@
     <t>OUT [OD_addr], R1, R2</t>
   </si>
   <si>
-    <t>04 10 00</t>
-  </si>
-  <si>
     <t>LD E, 0x1</t>
   </si>
   <si>
@@ -679,21 +676,12 @@
     <t>SUB A, F</t>
   </si>
   <si>
-    <t>// Addr of last char</t>
-  </si>
-  <si>
     <t>LD B, 0x30</t>
   </si>
   <si>
-    <t>LD F, 0x3b</t>
-  </si>
-  <si>
     <t>04 80 30</t>
   </si>
   <si>
-    <t>06 80 3b</t>
-  </si>
-  <si>
     <t>// Data</t>
   </si>
   <si>
@@ -724,18 +712,6 @@
     <t>// Tests whether is the last char</t>
   </si>
   <si>
-    <t>LD A, [CB]</t>
-  </si>
-  <si>
-    <t>LD C, 0x00</t>
-  </si>
-  <si>
-    <t>JP Z, [0x01e]</t>
-  </si>
-  <si>
-    <t>30 00 1e</t>
-  </si>
-  <si>
     <t>LD B, 0x40</t>
   </si>
   <si>
@@ -764,6 +740,39 @@
   </si>
   <si>
     <t>// next iteration of loop</t>
+  </si>
+  <si>
+    <t>LD A, [?B]</t>
+  </si>
+  <si>
+    <t>10 10 00</t>
+  </si>
+  <si>
+    <t>18 50 00</t>
+  </si>
+  <si>
+    <t>JP Z, [0x01b]</t>
+  </si>
+  <si>
+    <t>30 00 1b</t>
+  </si>
+  <si>
+    <t>// If true, stops here</t>
+  </si>
+  <si>
+    <t>// If false, next loop iteration</t>
+  </si>
+  <si>
+    <t>08 10 00</t>
+  </si>
+  <si>
+    <t>06 80 3c</t>
+  </si>
+  <si>
+    <t>LD F, 0x3c</t>
+  </si>
+  <si>
+    <t>// Addr of last char + 1</t>
   </si>
 </sst>
 </file>
@@ -891,13 +900,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1204,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AF12" sqref="AF12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,11 +1304,11 @@
         <v>37</v>
       </c>
       <c r="Y1" s="2"/>
-      <c r="Z1" s="14" t="s">
+      <c r="Z1" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
@@ -3110,10 +3119,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E115" sqref="E115"/>
+    <sheetView topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3277,7 +3286,7 @@
       <c r="D20" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="16" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3295,7 +3304,7 @@
       <c r="D21" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="15"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -3311,7 +3320,7 @@
       <c r="D22" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="15"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -3327,7 +3336,7 @@
       <c r="D23" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="16" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3345,7 +3354,7 @@
       <c r="D24" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="15"/>
+      <c r="E24" s="16"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -3361,7 +3370,7 @@
       <c r="D25" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="15"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -3537,7 +3546,7 @@
         <v>122</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4028,30 +4037,35 @@
         <v>0</v>
       </c>
       <c r="B83" t="str">
-        <f>"0x" &amp; DEC2HEX(A83,3)</f>
+        <f t="shared" ref="B83:B93" si="6">"0x" &amp; DEC2HEX(A83,3)</f>
         <v>0x000</v>
       </c>
       <c r="C83" t="s">
-        <v>219</v>
-      </c>
-      <c r="E83" s="12"/>
+        <v>202</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3</v>
       </c>
       <c r="B84" t="str">
-        <f>"0x" &amp; DEC2HEX(A84,3)</f>
+        <f t="shared" si="6"/>
         <v>0x003</v>
       </c>
       <c r="C84" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -4059,17 +4073,17 @@
         <v>6</v>
       </c>
       <c r="B85" t="str">
-        <f>"0x" &amp; DEC2HEX(A85,3)</f>
+        <f t="shared" si="6"/>
         <v>0x006</v>
       </c>
       <c r="C85" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -4077,14 +4091,14 @@
         <v>9</v>
       </c>
       <c r="B86" t="str">
-        <f>"0x" &amp; DEC2HEX(A86,3)</f>
+        <f t="shared" si="6"/>
         <v>0x009</v>
       </c>
       <c r="C86" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="E86" s="12" t="s">
         <v>198</v>
@@ -4095,13 +4109,15 @@
         <v>12</v>
       </c>
       <c r="B87" t="str">
-        <f>"0x" &amp; DEC2HEX(A87,3)</f>
+        <f t="shared" si="6"/>
         <v>0x00C</v>
       </c>
       <c r="C87" t="s">
-        <v>218</v>
-      </c>
-      <c r="D87"/>
+        <v>181</v>
+      </c>
+      <c r="D87" t="s">
+        <v>182</v>
+      </c>
       <c r="E87" s="12" t="s">
         <v>199</v>
       </c>
@@ -4111,83 +4127,85 @@
         <v>15</v>
       </c>
       <c r="B88" t="str">
-        <f>"0x" &amp; DEC2HEX(A88,3)</f>
+        <f t="shared" si="6"/>
         <v>0x00F</v>
       </c>
       <c r="C88" t="s">
-        <v>181</v>
-      </c>
-      <c r="D88" t="s">
-        <v>182</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>200</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E88" s="12"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>18</v>
       </c>
       <c r="B89" t="str">
-        <f>"0x" &amp; DEC2HEX(A89,3)</f>
+        <f t="shared" si="6"/>
         <v>0x012</v>
       </c>
       <c r="C89" t="s">
-        <v>61</v>
+        <v>193</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="E89" s="12"/>
+        <v>194</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>21</v>
       </c>
       <c r="B90" t="str">
-        <f>"0x" &amp; DEC2HEX(A90,3)</f>
+        <f t="shared" si="6"/>
         <v>0x015</v>
       </c>
       <c r="C90" t="s">
-        <v>194</v>
+        <v>64</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="E90" s="12" t="s">
-        <v>110</v>
-      </c>
+      <c r="E90" s="12"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>24</v>
       </c>
       <c r="B91" t="str">
-        <f>"0x" &amp; DEC2HEX(A91,3)</f>
+        <f t="shared" si="6"/>
         <v>0x018</v>
       </c>
       <c r="C91" t="s">
-        <v>64</v>
+        <v>201</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E91" s="12"/>
+        <v>226</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>27</v>
       </c>
       <c r="B92" t="str">
-        <f>"0x" &amp; DEC2HEX(A92,3)</f>
+        <f t="shared" si="6"/>
         <v>0x01B</v>
       </c>
       <c r="C92" t="s">
-        <v>202</v>
-      </c>
-      <c r="D92"/>
+        <v>227</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>228</v>
+      </c>
       <c r="E92" s="12" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -4195,319 +4213,305 @@
         <v>30</v>
       </c>
       <c r="B93" t="str">
-        <f>"0x" &amp; DEC2HEX(A93,3)</f>
+        <f t="shared" si="6"/>
         <v>0x01E</v>
       </c>
       <c r="C93" t="s">
-        <v>220</v>
+        <v>99</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="E93" s="12"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>33</v>
-      </c>
-      <c r="B94" t="str">
-        <f>"0x" &amp; DEC2HEX(A94,3)</f>
-        <v>0x021</v>
-      </c>
-      <c r="C94" t="s">
-        <v>99</v>
-      </c>
-      <c r="D94" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E94" s="12"/>
-    </row>
-    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E93" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E94" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>48</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" ref="B95:B98" si="7">"0x" &amp; DEC2HEX(A95,3)</f>
+        <v>0x030</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>205</v>
+      </c>
       <c r="E95" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B96" t="str">
-        <f t="shared" ref="B84:B99" si="6">"0x" &amp; DEC2HEX(A96,3)</f>
-        <v>0x030</v>
+        <f t="shared" si="7"/>
+        <v>0x033</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E96" s="12" t="s">
-        <v>213</v>
+        <v>206</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" si="6"/>
-        <v>0x033</v>
+        <f t="shared" si="7"/>
+        <v>0x036</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="E97" s="16" t="s">
-        <v>214</v>
+        <v>207</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" si="6"/>
-        <v>0x036</v>
+        <f t="shared" si="7"/>
+        <v>0x039</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>57</v>
-      </c>
-      <c r="B99" t="str">
-        <f t="shared" si="6"/>
-        <v>0x039</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="E99" s="12" t="s">
-        <v>216</v>
-      </c>
+      <c r="E99" s="12"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D100"/>
       <c r="E100" s="12"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C101" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="D101"/>
       <c r="E101" s="12"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C102" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D102"/>
-      <c r="E102" s="12"/>
+      <c r="A102">
+        <v>0</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" ref="B102" si="8">"0x" &amp; DEC2HEX(A102,3)</f>
+        <v>0x000</v>
+      </c>
+      <c r="C102" t="s">
+        <v>178</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B103" t="str">
-        <f t="shared" ref="B103:B114" si="7">"0x" &amp; DEC2HEX(A103,3)</f>
-        <v>0x000</v>
+        <f t="shared" ref="B103:B113" si="9">"0x" &amp; DEC2HEX(A103,3)</f>
+        <v>0x003</v>
       </c>
       <c r="C103" t="s">
-        <v>178</v>
+        <v>94</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B104" t="str">
-        <f>"0x" &amp; DEC2HEX(A104,3)</f>
-        <v>0x003</v>
+        <f t="shared" si="9"/>
+        <v>0x006</v>
       </c>
       <c r="C104" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E104" s="12" t="s">
-        <v>227</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="E104" s="12"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B105" t="str">
-        <f>"0x" &amp; DEC2HEX(A105,3)</f>
-        <v>0x006</v>
+        <f t="shared" si="9"/>
+        <v>0x009</v>
       </c>
       <c r="C105" t="s">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="E105" s="12"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B106" t="str">
-        <f>"0x" &amp; DEC2HEX(A106,3)</f>
-        <v>0x009</v>
+        <f t="shared" si="9"/>
+        <v>0x00C</v>
       </c>
       <c r="C106" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E106" s="12"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B107" t="str">
-        <f>"0x" &amp; DEC2HEX(A107,3)</f>
-        <v>0x00C</v>
+        <f t="shared" si="9"/>
+        <v>0x00F</v>
       </c>
       <c r="C107" t="s">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E107" s="12"/>
+        <v>187</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B108" t="str">
-        <f>"0x" &amp; DEC2HEX(A108,3)</f>
-        <v>0x00F</v>
+        <f t="shared" si="9"/>
+        <v>0x012</v>
       </c>
       <c r="C108" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B109" t="str">
-        <f>"0x" &amp; DEC2HEX(A109,3)</f>
-        <v>0x012</v>
+        <f t="shared" si="9"/>
+        <v>0x015</v>
       </c>
       <c r="C109" t="s">
-        <v>222</v>
+        <v>86</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="E109" s="12" t="s">
-        <v>224</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="E109" s="12"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B110" t="str">
-        <f>"0x" &amp; DEC2HEX(A110,3)</f>
-        <v>0x015</v>
+        <f t="shared" si="9"/>
+        <v>0x018</v>
       </c>
       <c r="C110" t="s">
-        <v>86</v>
+        <v>221</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E110" s="12"/>
+        <v>220</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B111" t="str">
-        <f>"0x" &amp; DEC2HEX(A111,3)</f>
-        <v>0x018</v>
+        <f t="shared" si="9"/>
+        <v>0x01B</v>
       </c>
       <c r="C111" t="s">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B112" t="str">
-        <f>"0x" &amp; DEC2HEX(A112,3)</f>
-        <v>0x01B</v>
+        <f t="shared" si="9"/>
+        <v>0x01E</v>
       </c>
       <c r="C112" t="s">
-        <v>184</v>
-      </c>
-      <c r="D112" s="11" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B113" t="str">
-        <f>"0x" &amp; DEC2HEX(A113,3)</f>
-        <v>0x01E</v>
+        <f t="shared" si="9"/>
+        <v>0x021</v>
       </c>
       <c r="C113" t="s">
-        <v>225</v>
+        <v>91</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>33</v>
-      </c>
-      <c r="B114" t="str">
-        <f>"0x" &amp; DEC2HEX(A114,3)</f>
-        <v>0x021</v>
-      </c>
-      <c r="C114" t="s">
-        <v>91</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E114" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E116" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E115" t="s">
         <v>189</v>
       </c>
     </row>

--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Control Lines" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="230">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -619,27 +619,9 @@
     <t>44 00 00</t>
   </si>
   <si>
-    <t>LD C, A</t>
-  </si>
-  <si>
-    <t>LD A, C</t>
-  </si>
-  <si>
     <t>// Saves the value of A register in C</t>
   </si>
   <si>
-    <t>04 20 00</t>
-  </si>
-  <si>
-    <t>05 00 00</t>
-  </si>
-  <si>
-    <t>18 20 00</t>
-  </si>
-  <si>
-    <t>// Not working. Reason: there is no C register implemented...</t>
-  </si>
-  <si>
     <t>OUT [OD_addr], R1, R2</t>
   </si>
   <si>
@@ -712,12 +694,6 @@
     <t>// Tests whether is the last char</t>
   </si>
   <si>
-    <t>LD B, 0x40</t>
-  </si>
-  <si>
-    <t>04 80 40</t>
-  </si>
-  <si>
     <t>// ASCII char '9' + 1</t>
   </si>
   <si>
@@ -773,6 +749,15 @@
   </si>
   <si>
     <t>// Addr of last char + 1</t>
+  </si>
+  <si>
+    <t>LD B, 0x3a</t>
+  </si>
+  <si>
+    <t>04 80 3a</t>
+  </si>
+  <si>
+    <t>44 50 00</t>
   </si>
 </sst>
 </file>
@@ -1213,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2811,7 +2796,7 @@
         <v>11</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -3119,10 +3104,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3546,7 +3531,7 @@
         <v>122</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4041,13 +4026,13 @@
         <v>0x000</v>
       </c>
       <c r="C83" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -4059,13 +4044,13 @@
         <v>0x003</v>
       </c>
       <c r="C84" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -4077,13 +4062,13 @@
         <v>0x006</v>
       </c>
       <c r="C85" t="s">
+        <v>185</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E85" s="12" t="s">
         <v>191</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -4095,13 +4080,13 @@
         <v>0x009</v>
       </c>
       <c r="C86" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -4119,7 +4104,7 @@
         <v>182</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -4134,7 +4119,7 @@
         <v>61</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E88" s="12"/>
     </row>
@@ -4147,10 +4132,10 @@
         <v>0x012</v>
       </c>
       <c r="C89" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E89" s="12" t="s">
         <v>110</v>
@@ -4168,7 +4153,7 @@
         <v>64</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E90" s="12"/>
     </row>
@@ -4181,13 +4166,13 @@
         <v>0x018</v>
       </c>
       <c r="C91" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -4199,13 +4184,13 @@
         <v>0x01B</v>
       </c>
       <c r="C92" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -4223,12 +4208,12 @@
         <v>107</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E94" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -4240,10 +4225,10 @@
         <v>0x030</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -4255,10 +4240,10 @@
         <v>0x033</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -4270,10 +4255,10 @@
         <v>0x036</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -4285,10 +4270,10 @@
         <v>0x039</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -4338,7 +4323,7 @@
         <v>102</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -4398,13 +4383,13 @@
         <v>0x00F</v>
       </c>
       <c r="C107" t="s">
+        <v>96</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E107" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="E107" s="12" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -4416,13 +4401,13 @@
         <v>0x012</v>
       </c>
       <c r="C108" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -4437,7 +4422,7 @@
         <v>86</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>188</v>
+        <v>87</v>
       </c>
       <c r="E109" s="12"/>
     </row>
@@ -4450,13 +4435,13 @@
         <v>0x018</v>
       </c>
       <c r="C110" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -4468,13 +4453,13 @@
         <v>0x01B</v>
       </c>
       <c r="C111" t="s">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>186</v>
+        <v>103</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -4486,10 +4471,13 @@
         <v>0x01E</v>
       </c>
       <c r="C112" t="s">
-        <v>217</v>
+        <v>209</v>
+      </c>
+      <c r="D112" t="s">
+        <v>229</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -4507,12 +4495,7 @@
         <v>92</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E115" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="231">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -758,6 +758,9 @@
   </si>
   <si>
     <t>44 50 00</t>
+  </si>
+  <si>
+    <t>// Copy a block of memory from one place to another</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1202,7 @@
   <dimension ref="A1:AE35"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3104,10 +3107,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4498,6 +4501,11 @@
         <v>215</v>
       </c>
     </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C117" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E20:E22"/>

--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="246">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -761,6 +761,51 @@
   </si>
   <si>
     <t>// Copy a block of memory from one place to another</t>
+  </si>
+  <si>
+    <t>// Source addr of first byte</t>
+  </si>
+  <si>
+    <t>// Source addr of last byte + 1</t>
+  </si>
+  <si>
+    <t>LD C, 0x60</t>
+  </si>
+  <si>
+    <t>// Destitation addr of first byte</t>
+  </si>
+  <si>
+    <t>ST [?C], A</t>
+  </si>
+  <si>
+    <t>// Store byte in destiny addr</t>
+  </si>
+  <si>
+    <t>// Reads byte from memory</t>
+  </si>
+  <si>
+    <t>// Increments B</t>
+  </si>
+  <si>
+    <t>JP [0x00c]</t>
+  </si>
+  <si>
+    <t>2c 00 0c</t>
+  </si>
+  <si>
+    <t>// Increments C</t>
+  </si>
+  <si>
+    <t>LD A, C</t>
+  </si>
+  <si>
+    <t>LD C, A</t>
+  </si>
+  <si>
+    <t>JP Z, [0x01e]</t>
+  </si>
+  <si>
+    <t>30 00 1e</t>
   </si>
 </sst>
 </file>
@@ -859,7 +904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -894,6 +939,9 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3107,10 +3155,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E129" sqref="E129:E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4124,7 +4172,9 @@
       <c r="D88" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="E88" s="12"/>
+      <c r="E88" s="17" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
@@ -4140,9 +4190,7 @@
       <c r="D89" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="E89" s="12" t="s">
-        <v>110</v>
-      </c>
+      <c r="E89" s="17"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
@@ -4158,7 +4206,7 @@
       <c r="D90" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="E90" s="12"/>
+      <c r="E90" s="17"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
@@ -4506,10 +4554,263 @@
         <v>230</v>
       </c>
     </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>0</v>
+      </c>
+      <c r="B118" t="str">
+        <f t="shared" ref="B118:B123" si="10">"0x" &amp; DEC2HEX(A118,3)</f>
+        <v>0x000</v>
+      </c>
+      <c r="C118" t="s">
+        <v>196</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>3</v>
+      </c>
+      <c r="B119" t="str">
+        <f t="shared" si="10"/>
+        <v>0x003</v>
+      </c>
+      <c r="C119" t="s">
+        <v>225</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>6</v>
+      </c>
+      <c r="B120" t="str">
+        <f t="shared" si="10"/>
+        <v>0x006</v>
+      </c>
+      <c r="C120" t="s">
+        <v>233</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>9</v>
+      </c>
+      <c r="B121" t="str">
+        <f t="shared" si="10"/>
+        <v>0x009</v>
+      </c>
+      <c r="C121" t="s">
+        <v>185</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>12</v>
+      </c>
+      <c r="B122" t="str">
+        <f t="shared" si="10"/>
+        <v>0x00C</v>
+      </c>
+      <c r="C122" t="s">
+        <v>216</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>15</v>
+      </c>
+      <c r="B123" t="str">
+        <f t="shared" ref="B123:B132" si="11">"0x" &amp; DEC2HEX(A123,3)</f>
+        <v>0x00F</v>
+      </c>
+      <c r="C123" t="s">
+        <v>235</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>18</v>
+      </c>
+      <c r="B124" t="str">
+        <f t="shared" si="11"/>
+        <v>0x012</v>
+      </c>
+      <c r="C124" t="s">
+        <v>61</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E124" s="17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>21</v>
+      </c>
+      <c r="B125" t="str">
+        <f t="shared" si="11"/>
+        <v>0x015</v>
+      </c>
+      <c r="C125" t="s">
+        <v>187</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E125" s="17"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>24</v>
+      </c>
+      <c r="B126" t="str">
+        <f t="shared" si="11"/>
+        <v>0x018</v>
+      </c>
+      <c r="C126" t="s">
+        <v>64</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E126" s="17"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>27</v>
+      </c>
+      <c r="B127" t="str">
+        <f t="shared" si="11"/>
+        <v>0x01B</v>
+      </c>
+      <c r="C127" t="s">
+        <v>195</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>30</v>
+      </c>
+      <c r="B128" t="str">
+        <f t="shared" si="11"/>
+        <v>0x01E</v>
+      </c>
+      <c r="C128" t="s">
+        <v>244</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>33</v>
+      </c>
+      <c r="B129" t="str">
+        <f t="shared" si="11"/>
+        <v>0x021</v>
+      </c>
+      <c r="C129" t="s">
+        <v>242</v>
+      </c>
+      <c r="E129" s="17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>36</v>
+      </c>
+      <c r="B130" t="str">
+        <f t="shared" si="11"/>
+        <v>0x024</v>
+      </c>
+      <c r="C130" t="s">
+        <v>187</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E130" s="17"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>39</v>
+      </c>
+      <c r="B131" t="str">
+        <f t="shared" si="11"/>
+        <v>0x027</v>
+      </c>
+      <c r="C131" t="s">
+        <v>243</v>
+      </c>
+      <c r="E131" s="17"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>42</v>
+      </c>
+      <c r="B132" t="str">
+        <f t="shared" si="11"/>
+        <v>0x02A</v>
+      </c>
+      <c r="C132" t="s">
+        <v>239</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="E20:E22"/>
     <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="E124:E126"/>
+    <mergeCell ref="E129:E131"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Control Lines" sheetId="1" r:id="rId1"/>
@@ -442,9 +442,6 @@
     <t>pair of 8-bit registers (as addressing is 12-bit, only lower half of the High register will be used)</t>
   </si>
   <si>
-    <t>Read byte from input selected by R2, and writes it to R1</t>
-  </si>
-  <si>
     <t>Write byte value of R1 in output selected in R2</t>
   </si>
   <si>
@@ -806,6 +803,9 @@
   </si>
   <si>
     <t>30 00 1e</t>
+  </si>
+  <si>
+    <t>Read byte from input selected by R2, and write it to R1</t>
   </si>
 </sst>
 </file>
@@ -1249,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE35"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AD25" sqref="AD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,10 +1270,10 @@
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" ht="130.5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1309,7 +1309,7 @@
         <v>13</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>20</v>
@@ -1318,7 +1318,7 @@
         <v>21</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R1" s="7"/>
       <c r="S1" s="2" t="s">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="Y1" s="2"/>
       <c r="Z1" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA1" s="15"/>
       <c r="AB1" s="15"/>
@@ -2833,13 +2833,13 @@
         <v>10</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="AD24" t="s">
-        <v>124</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
@@ -2847,7 +2847,7 @@
         <v>11</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>00</v>
       </c>
       <c r="AD25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
@@ -2943,7 +2943,7 @@
         <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
@@ -2951,7 +2951,7 @@
         <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
@@ -2972,18 +2972,18 @@
     </row>
     <row r="34" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3157,7 +3157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A85" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E129" sqref="E129:E131"/>
     </sheetView>
   </sheetViews>
@@ -3173,7 +3173,7 @@
         <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3582,12 +3582,12 @@
         <v>122</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C48" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3599,13 +3599,13 @@
         <v>0x000</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3617,13 +3617,13 @@
         <v>0x003</v>
       </c>
       <c r="C50" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D50" s="11" t="s">
-        <v>129</v>
-      </c>
       <c r="E50" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3635,15 +3635,15 @@
         <v>0x006</v>
       </c>
       <c r="C51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C55" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -3655,13 +3655,13 @@
         <v>0x000</v>
       </c>
       <c r="C56" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="E56" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -3673,10 +3673,10 @@
         <v>0x003</v>
       </c>
       <c r="C57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E57" s="12"/>
     </row>
@@ -3689,13 +3689,13 @@
         <v>0x006</v>
       </c>
       <c r="C58" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D58" s="11" t="s">
-        <v>144</v>
-      </c>
       <c r="E58" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3707,10 +3707,10 @@
         <v>0x009</v>
       </c>
       <c r="C59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E59" s="12"/>
     </row>
@@ -3723,13 +3723,13 @@
         <v>0x00C</v>
       </c>
       <c r="C60" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D60" s="11" t="s">
-        <v>146</v>
-      </c>
       <c r="E60" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3741,10 +3741,10 @@
         <v>0x00F</v>
       </c>
       <c r="C61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E61" s="12"/>
     </row>
@@ -3757,13 +3757,13 @@
         <v>0x012</v>
       </c>
       <c r="C62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D62" s="11" t="s">
-        <v>146</v>
-      </c>
       <c r="E62" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3775,10 +3775,10 @@
         <v>0x015</v>
       </c>
       <c r="C63" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E63" s="12"/>
     </row>
@@ -3791,13 +3791,13 @@
         <v>0x018</v>
       </c>
       <c r="C64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -3809,10 +3809,10 @@
         <v>0x01B</v>
       </c>
       <c r="C65" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E65" s="12"/>
     </row>
@@ -3825,13 +3825,13 @@
         <v>0x01E</v>
       </c>
       <c r="C66" t="s">
+        <v>149</v>
+      </c>
+      <c r="D66" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="E66" s="12" t="s">
         <v>151</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3843,10 +3843,10 @@
         <v>0x021</v>
       </c>
       <c r="C67" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E67" s="12"/>
     </row>
@@ -3859,13 +3859,13 @@
         <v>0x024</v>
       </c>
       <c r="C68" t="s">
+        <v>152</v>
+      </c>
+      <c r="D68" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="E68" s="12" t="s">
         <v>154</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3877,10 +3877,10 @@
         <v>0x027</v>
       </c>
       <c r="C69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E69" s="12"/>
     </row>
@@ -3893,13 +3893,13 @@
         <v>0x02A</v>
       </c>
       <c r="C70" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3911,10 +3911,10 @@
         <v>0x02D</v>
       </c>
       <c r="C71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E71" s="12"/>
     </row>
@@ -3927,13 +3927,13 @@
         <v>0x030</v>
       </c>
       <c r="C72" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3945,10 +3945,10 @@
         <v>0x033</v>
       </c>
       <c r="C73" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E73" s="12"/>
     </row>
@@ -3961,13 +3961,13 @@
         <v>0x036</v>
       </c>
       <c r="C74" t="s">
+        <v>144</v>
+      </c>
+      <c r="D74" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D74" s="11" t="s">
-        <v>146</v>
-      </c>
       <c r="E74" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3979,10 +3979,10 @@
         <v>0x039</v>
       </c>
       <c r="C75" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E75" s="12"/>
     </row>
@@ -3995,13 +3995,13 @@
         <v>0x03C</v>
       </c>
       <c r="C76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -4013,10 +4013,10 @@
         <v>0x03F</v>
       </c>
       <c r="C77" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E77" s="12"/>
     </row>
@@ -4029,13 +4029,13 @@
         <v>0x042</v>
       </c>
       <c r="C78" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -4047,10 +4047,10 @@
         <v>0x045</v>
       </c>
       <c r="C79" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E79" s="12"/>
     </row>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C82" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D82"/>
       <c r="E82" s="12"/>
@@ -4077,13 +4077,13 @@
         <v>0x000</v>
       </c>
       <c r="C83" t="s">
+        <v>195</v>
+      </c>
+      <c r="D83" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D83" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="E83" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -4095,13 +4095,13 @@
         <v>0x003</v>
       </c>
       <c r="C84" t="s">
+        <v>224</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E84" s="12" t="s">
         <v>225</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E84" s="12" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -4113,13 +4113,13 @@
         <v>0x006</v>
       </c>
       <c r="C85" t="s">
+        <v>184</v>
+      </c>
+      <c r="D85" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="D85" s="11" t="s">
-        <v>186</v>
-      </c>
       <c r="E85" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -4131,13 +4131,13 @@
         <v>0x009</v>
       </c>
       <c r="C86" t="s">
+        <v>215</v>
+      </c>
+      <c r="D86" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="D86" s="11" t="s">
-        <v>217</v>
-      </c>
       <c r="E86" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -4149,13 +4149,13 @@
         <v>0x00C</v>
       </c>
       <c r="C87" t="s">
+        <v>180</v>
+      </c>
+      <c r="D87" t="s">
         <v>181</v>
       </c>
-      <c r="D87" t="s">
-        <v>182</v>
-      </c>
       <c r="E87" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -4170,10 +4170,10 @@
         <v>61</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -4185,10 +4185,10 @@
         <v>0x012</v>
       </c>
       <c r="C89" t="s">
+        <v>186</v>
+      </c>
+      <c r="D89" s="11" t="s">
         <v>187</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>188</v>
       </c>
       <c r="E89" s="17"/>
     </row>
@@ -4204,7 +4204,7 @@
         <v>64</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E90" s="17"/>
     </row>
@@ -4217,13 +4217,13 @@
         <v>0x018</v>
       </c>
       <c r="C91" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -4235,13 +4235,13 @@
         <v>0x01B</v>
       </c>
       <c r="C92" t="s">
+        <v>218</v>
+      </c>
+      <c r="D92" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="E92" s="12" t="s">
         <v>220</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -4259,12 +4259,12 @@
         <v>107</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E94" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -4276,10 +4276,10 @@
         <v>0x030</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -4291,10 +4291,10 @@
         <v>0x033</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -4306,10 +4306,10 @@
         <v>0x036</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -4321,10 +4321,10 @@
         <v>0x039</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -4336,7 +4336,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C101" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D101"/>
       <c r="E101" s="12"/>
@@ -4350,13 +4350,13 @@
         <v>0x000</v>
       </c>
       <c r="C102" t="s">
+        <v>177</v>
+      </c>
+      <c r="D102" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="D102" s="11" t="s">
+      <c r="E102" s="12" t="s">
         <v>179</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -4374,7 +4374,7 @@
         <v>102</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -4386,10 +4386,10 @@
         <v>0x006</v>
       </c>
       <c r="C104" t="s">
+        <v>180</v>
+      </c>
+      <c r="D104" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="E104" s="12"/>
     </row>
@@ -4440,7 +4440,7 @@
         <v>106</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -4452,13 +4452,13 @@
         <v>0x012</v>
       </c>
       <c r="C108" t="s">
+        <v>226</v>
+      </c>
+      <c r="D108" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="D108" s="11" t="s">
-        <v>228</v>
-      </c>
       <c r="E108" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -4486,13 +4486,13 @@
         <v>0x018</v>
       </c>
       <c r="C110" t="s">
+        <v>212</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E110" s="12" t="s">
         <v>213</v>
-      </c>
-      <c r="D110" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="E110" s="12" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -4510,7 +4510,7 @@
         <v>103</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -4522,13 +4522,13 @@
         <v>0x01E</v>
       </c>
       <c r="C112" t="s">
+        <v>208</v>
+      </c>
+      <c r="D112" t="s">
+        <v>228</v>
+      </c>
+      <c r="E112" s="12" t="s">
         <v>209</v>
-      </c>
-      <c r="D112" t="s">
-        <v>229</v>
-      </c>
-      <c r="E112" s="12" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -4546,12 +4546,12 @@
         <v>92</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C117" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -4559,17 +4559,17 @@
         <v>0</v>
       </c>
       <c r="B118" t="str">
-        <f t="shared" ref="B118:B123" si="10">"0x" &amp; DEC2HEX(A118,3)</f>
+        <f t="shared" ref="B118:B122" si="10">"0x" &amp; DEC2HEX(A118,3)</f>
         <v>0x000</v>
       </c>
       <c r="C118" t="s">
+        <v>195</v>
+      </c>
+      <c r="D118" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D118" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="E118" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -4581,13 +4581,13 @@
         <v>0x003</v>
       </c>
       <c r="C119" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -4599,10 +4599,10 @@
         <v>0x006</v>
       </c>
       <c r="C120" t="s">
+        <v>232</v>
+      </c>
+      <c r="E120" s="12" t="s">
         <v>233</v>
-      </c>
-      <c r="E120" s="12" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -4614,13 +4614,13 @@
         <v>0x009</v>
       </c>
       <c r="C121" t="s">
+        <v>184</v>
+      </c>
+      <c r="D121" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="D121" s="11" t="s">
-        <v>186</v>
-      </c>
       <c r="E121" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -4632,13 +4632,13 @@
         <v>0x00C</v>
       </c>
       <c r="C122" t="s">
+        <v>215</v>
+      </c>
+      <c r="D122" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="D122" s="11" t="s">
-        <v>217</v>
-      </c>
       <c r="E122" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -4650,10 +4650,10 @@
         <v>0x00F</v>
       </c>
       <c r="C123" t="s">
+        <v>234</v>
+      </c>
+      <c r="E123" s="12" t="s">
         <v>235</v>
-      </c>
-      <c r="E123" s="12" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -4668,10 +4668,10 @@
         <v>61</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -4683,10 +4683,10 @@
         <v>0x015</v>
       </c>
       <c r="C125" t="s">
+        <v>186</v>
+      </c>
+      <c r="D125" s="11" t="s">
         <v>187</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>188</v>
       </c>
       <c r="E125" s="17"/>
     </row>
@@ -4702,7 +4702,7 @@
         <v>64</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E126" s="17"/>
     </row>
@@ -4715,13 +4715,13 @@
         <v>0x01B</v>
       </c>
       <c r="C127" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -4733,13 +4733,13 @@
         <v>0x01E</v>
       </c>
       <c r="C128" t="s">
+        <v>243</v>
+      </c>
+      <c r="D128" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="D128" s="11" t="s">
-        <v>245</v>
-      </c>
       <c r="E128" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -4751,10 +4751,10 @@
         <v>0x021</v>
       </c>
       <c r="C129" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E129" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -4766,10 +4766,10 @@
         <v>0x024</v>
       </c>
       <c r="C130" t="s">
+        <v>186</v>
+      </c>
+      <c r="D130" s="11" t="s">
         <v>187</v>
-      </c>
-      <c r="D130" s="11" t="s">
-        <v>188</v>
       </c>
       <c r="E130" s="17"/>
     </row>
@@ -4782,7 +4782,7 @@
         <v>0x027</v>
       </c>
       <c r="C131" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E131" s="17"/>
     </row>
@@ -4795,13 +4795,13 @@
         <v>0x02A</v>
       </c>
       <c r="C132" t="s">
+        <v>238</v>
+      </c>
+      <c r="D132" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="D132" s="11" t="s">
-        <v>240</v>
-      </c>
       <c r="E132" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Control Lines" sheetId="1" r:id="rId1"/>
@@ -67,8 +67,49 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>R1/R2:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+A - 0
+B - 1
+C - 2
+D - 3
+E - 4
+F - 5
+G - 6
+H - 7</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="274">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -700,18 +741,6 @@
     <t>// Clear Display</t>
   </si>
   <si>
-    <t>// Code to clear display</t>
-  </si>
-  <si>
-    <t>30 00 18</t>
-  </si>
-  <si>
-    <t>JP Z, [0x018]</t>
-  </si>
-  <si>
-    <t>// Stops if is the last char</t>
-  </si>
-  <si>
     <t>// next iteration of loop</t>
   </si>
   <si>
@@ -769,9 +798,6 @@
     <t>LD C, 0x60</t>
   </si>
   <si>
-    <t>// Destitation addr of first byte</t>
-  </si>
-  <si>
     <t>ST [?C], A</t>
   </si>
   <si>
@@ -806,6 +832,105 @@
   </si>
   <si>
     <t>Read byte from input selected by R2, and write it to R1</t>
+  </si>
+  <si>
+    <t>// Destination addr of first byte</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>opcode (bin)</t>
+  </si>
+  <si>
+    <t>r1 (bin)</t>
+  </si>
+  <si>
+    <t>r2 (bin)</t>
+  </si>
+  <si>
+    <t>data (bin)</t>
+  </si>
+  <si>
+    <t>addr (bin)</t>
+  </si>
+  <si>
+    <t>// 32 in decimal</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>data(dec)</t>
+  </si>
+  <si>
+    <t>opcode (dec)</t>
+  </si>
+  <si>
+    <t>addr (dec)</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>registers</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>JP Z, [0x000]</t>
+  </si>
+  <si>
+    <t>30 00 00</t>
+  </si>
+  <si>
+    <t>// Restart if is the last char</t>
+  </si>
+  <si>
+    <t>// Constant to clear display</t>
+  </si>
+  <si>
+    <t>ff ff ff</t>
+  </si>
+  <si>
+    <t>ee ee ee</t>
+  </si>
+  <si>
+    <t>dd dd dd</t>
+  </si>
+  <si>
+    <t>LD F, 0x39</t>
+  </si>
+  <si>
+    <t>06 80 39</t>
+  </si>
+  <si>
+    <t>05 00 60</t>
+  </si>
+  <si>
+    <t>08 20 00</t>
+  </si>
+  <si>
+    <t>09 00 00</t>
+  </si>
+  <si>
+    <t>38 20 00</t>
   </si>
 </sst>
 </file>
@@ -892,10 +1017,28 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -904,7 +1047,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -942,6 +1085,39 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1250,7 +1426,7 @@
   <dimension ref="A1:AE35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AD25" sqref="AD25"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2839,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="AD24" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
@@ -3001,7 +3177,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3154,36 +3330,92 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X136"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E129" sqref="E129:E131"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D132" sqref="D118:D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="27" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="3"/>
+    <col min="15" max="15" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="P1" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="R1" s="24"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="18"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="12" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="U2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3197,13 +3429,65 @@
       <c r="D3" s="11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="12"/>
+      <c r="F3" s="19">
+        <v>1</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H5" si="0">IF(G3="", "", VLOOKUP(G3, $U$3:$V$10, 2))</f>
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="27" t="str">
+        <f>IF(F3="", "", TEXT(DEC2BIN(F3), "000000"))</f>
+        <v>000001</v>
+      </c>
+      <c r="M3" s="28" t="str">
+        <f>IF(H3="", "", TEXT(DEC2BIN(H3), "000"))</f>
+        <v>001</v>
+      </c>
+      <c r="N3" s="28" t="str">
+        <f>IF(I3="", "", TEXT(DEC2BIN(I3), "000"))</f>
+        <v/>
+      </c>
+      <c r="O3" s="28" t="str">
+        <f>IF(J3="", "", TEXT(DEC2BIN(J3), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P3" s="29" t="str">
+        <f>IF(K3="", "", TEXT(DEC2BIN(K3), "00000000"))</f>
+        <v>00000001</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q5" si="1">BIN2HEX(LEFT(CONCATENATE(L3,IF(M3="", "000", M3)), 8), 2)</f>
+        <v>04</v>
+      </c>
+      <c r="R3" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M3, 1), IF(N3 = "", "000", N3), "0000"), 2)</f>
+        <v>80</v>
+      </c>
+      <c r="S3" s="21" t="str">
+        <f t="shared" ref="S3:S5" si="2">IF(O3="", BIN2HEX(P3, 2), BIN2HEX(O3,2))</f>
+        <v>01</v>
+      </c>
+      <c r="U3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" ref="B4:B6" si="0">"0x" &amp; DEC2HEX(A4,3)</f>
+        <f t="shared" ref="B4:B6" si="3">"0x" &amp; DEC2HEX(A4,3)</f>
         <v>0x003</v>
       </c>
       <c r="C4" t="s">
@@ -3212,13 +3496,67 @@
       <c r="D4" s="11" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>32</v>
+      </c>
+      <c r="L4" s="27" t="str">
+        <f>IF(F4="", "", TEXT(DEC2BIN(F4), "000000"))</f>
+        <v>000001</v>
+      </c>
+      <c r="M4" s="28" t="str">
+        <f>IF(H4="", "", TEXT(DEC2BIN(H4), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="N4" s="28" t="str">
+        <f>IF(I4="", "", TEXT(DEC2BIN(I4), "000"))</f>
+        <v/>
+      </c>
+      <c r="O4" s="28" t="str">
+        <f>IF(J4="", "", TEXT(DEC2BIN(J4), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P4" s="29" t="str">
+        <f>IF(K4="", "", TEXT(DEC2BIN(K4), "00000000"))</f>
+        <v>00100000</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="1"/>
+        <v>04</v>
+      </c>
+      <c r="R4" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M4, 1), IF(N4 = "", "000", N4), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="S4" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="U4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0x006</v>
       </c>
       <c r="C5" t="s">
@@ -3227,13 +3565,65 @@
       <c r="D5" s="11" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="12"/>
+      <c r="F5" s="19">
+        <v>5</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="27" t="str">
+        <f>IF(F5="", "", TEXT(DEC2BIN(F5), "000000"))</f>
+        <v>000101</v>
+      </c>
+      <c r="M5" s="28" t="str">
+        <f>IF(H5="", "", TEXT(DEC2BIN(H5), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="N5" s="28" t="str">
+        <f>IF(I5="", "", TEXT(DEC2BIN(I5), "000"))</f>
+        <v>001</v>
+      </c>
+      <c r="O5" s="28" t="str">
+        <f>IF(J5="", "", TEXT(DEC2BIN(J5), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P5" s="29" t="str">
+        <f>IF(K5="", "", TEXT(DEC2BIN(K5), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="R5" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M5, 1), IF(N5 = "", "000", N5), "0000"), 2)</f>
+        <v>10</v>
+      </c>
+      <c r="S5" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>00</v>
+      </c>
+      <c r="U5" t="s">
+        <v>40</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0x009</v>
       </c>
       <c r="C6" t="s">
@@ -3242,8 +3632,78 @@
       <c r="D6" s="11" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="12"/>
+      <c r="F6" s="19">
+        <v>11</v>
+      </c>
+      <c r="H6" t="str">
+        <f>IF(G6="", "", VLOOKUP(G6, $U$3:$V$10, 2))</f>
+        <v/>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="L6" s="27" t="str">
+        <f>IF(F6="", "", TEXT(DEC2BIN(F6), "000000"))</f>
+        <v>001011</v>
+      </c>
+      <c r="M6" s="28" t="str">
+        <f>IF(H6="", "", TEXT(DEC2BIN(H6), "000"))</f>
+        <v/>
+      </c>
+      <c r="N6" s="28" t="str">
+        <f>IF(I6="", "", TEXT(DEC2BIN(I6), "000"))</f>
+        <v/>
+      </c>
+      <c r="O6" s="28" t="str">
+        <f>IF(J6="", "", TEXT(DEC2BIN(J6), "00000000"))</f>
+        <v>00000110</v>
+      </c>
+      <c r="P6" s="29" t="str">
+        <f>IF(K6="", "", TEXT(DEC2BIN(K6), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q6" t="str">
+        <f>BIN2HEX(LEFT(CONCATENATE(L6,IF(M6="", "000", M6)), 8), 2)</f>
+        <v>2C</v>
+      </c>
+      <c r="R6" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M6, 1), IF(N6 = "", "000", N6), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="S6" s="21" t="str">
+        <f>IF(O6="", BIN2HEX(P6, 2), BIN2HEX(O6,2))</f>
+        <v>06</v>
+      </c>
+      <c r="U6" t="s">
+        <v>41</v>
+      </c>
+      <c r="V6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E7" s="12"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="U7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E8" s="12"/>
+      <c r="U8" t="s">
+        <v>258</v>
+      </c>
+      <c r="V8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -3257,18 +3717,80 @@
       <c r="D9" s="11" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="12"/>
+      <c r="F9" s="19">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="27" t="str">
+        <f>IF(F9="", "", TEXT(DEC2BIN(F9), "000000"))</f>
+        <v>000110</v>
+      </c>
+      <c r="M9" s="28" t="str">
+        <f>IF(H9="", "", TEXT(DEC2BIN(H9), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="N9" s="28" t="str">
+        <f>IF(I9="", "", TEXT(DEC2BIN(I9), "000"))</f>
+        <v>001</v>
+      </c>
+      <c r="O9" s="28" t="str">
+        <f>IF(J9="", "", TEXT(DEC2BIN(J9), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P9" s="29" t="str">
+        <f>IF(K9="", "", TEXT(DEC2BIN(K9), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q9" t="str">
+        <f>BIN2HEX(LEFT(CONCATENATE(L9,IF(M9="", "000", M9)), 8), 2)</f>
+        <v>18</v>
+      </c>
+      <c r="R9" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M9, 1), IF(N9 = "", "000", N9), "0000"), 2)</f>
+        <v>10</v>
+      </c>
+      <c r="S9" s="21" t="str">
+        <f>IF(O9="", BIN2HEX(P9, 2), BIN2HEX(O9,2))</f>
+        <v>00</v>
+      </c>
+      <c r="U9" t="s">
+        <v>259</v>
+      </c>
+      <c r="V9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U10" t="s">
+        <v>260</v>
+      </c>
+      <c r="V10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="U16" t="s">
+        <v>256</v>
+      </c>
+      <c r="V16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" ref="B17:B26" si="1">"0x" &amp; DEC2HEX(A17,3)</f>
+        <f t="shared" ref="B17:B26" si="4">"0x" &amp; DEC2HEX(A17,3)</f>
         <v>0x000</v>
       </c>
       <c r="C17" t="s">
@@ -3277,13 +3799,67 @@
       <c r="D17" s="11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" s="27" t="str">
+        <f>IF(F17="", "", TEXT(DEC2BIN(F17), "000000"))</f>
+        <v>000001</v>
+      </c>
+      <c r="M17" s="28" t="str">
+        <f>IF(H17="", "", TEXT(DEC2BIN(H17), "000"))</f>
+        <v>001</v>
+      </c>
+      <c r="N17" s="28" t="str">
+        <f>IF(I17="", "", TEXT(DEC2BIN(I17), "000"))</f>
+        <v/>
+      </c>
+      <c r="O17" s="28" t="str">
+        <f>IF(J17="", "", TEXT(DEC2BIN(J17), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P17" s="29" t="str">
+        <f>IF(K17="", "", TEXT(DEC2BIN(K17), "00000000"))</f>
+        <v>00000001</v>
+      </c>
+      <c r="Q17" t="str">
+        <f>BIN2HEX(LEFT(CONCATENATE(L17,IF(M17="", "000", M17)), 8), 2)</f>
+        <v>04</v>
+      </c>
+      <c r="R17" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M17, 1), IF(N17 = "", "000", N17), "0000"), 2)</f>
+        <v>80</v>
+      </c>
+      <c r="S17" s="21" t="str">
+        <f>IF(O17="", BIN2HEX(P17, 2), BIN2HEX(O17,2))</f>
+        <v>01</v>
+      </c>
+      <c r="U17" t="s">
+        <v>254</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17" t="s">
+        <v>255</v>
+      </c>
+      <c r="X17">
+        <f>VLOOKUP(W17,U16:V18,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0x003</v>
       </c>
       <c r="C18" t="s">
@@ -3292,13 +3868,60 @@
       <c r="D18" s="11" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="19">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="27" t="str">
+        <f>IF(F18="", "", TEXT(DEC2BIN(F18), "000000"))</f>
+        <v>000001</v>
+      </c>
+      <c r="M18" s="28" t="str">
+        <f>IF(H18="", "", TEXT(DEC2BIN(H18), "000"))</f>
+        <v>100</v>
+      </c>
+      <c r="N18" s="28" t="str">
+        <f>IF(I18="", "", TEXT(DEC2BIN(I18), "000"))</f>
+        <v/>
+      </c>
+      <c r="O18" s="28" t="str">
+        <f>IF(J18="", "", TEXT(DEC2BIN(J18), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P18" s="29" t="str">
+        <f>IF(K18="", "", TEXT(DEC2BIN(K18), "00000000"))</f>
+        <v>00000000</v>
+      </c>
+      <c r="Q18" t="str">
+        <f>BIN2HEX(LEFT(CONCATENATE(L18,IF(M18="", "000", M18)), 8), 2)</f>
+        <v>06</v>
+      </c>
+      <c r="R18" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M18, 1), IF(N18 = "", "000", N18), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="S18" s="21" t="str">
+        <f>IF(O18="", BIN2HEX(P18, 2), BIN2HEX(O18,2))</f>
+        <v>00</v>
+      </c>
+      <c r="U18" t="s">
+        <v>255</v>
+      </c>
+      <c r="V18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0x006</v>
       </c>
       <c r="C19" t="s">
@@ -3307,13 +3930,54 @@
       <c r="D19" s="11" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>255</v>
+      </c>
+      <c r="L19" s="27" t="str">
+        <f>IF(F19="", "", TEXT(DEC2BIN(F19), "000000"))</f>
+        <v>000001</v>
+      </c>
+      <c r="M19" s="28" t="str">
+        <f>IF(H19="", "", TEXT(DEC2BIN(H19), "000"))</f>
+        <v>101</v>
+      </c>
+      <c r="N19" s="28" t="str">
+        <f>IF(I19="", "", TEXT(DEC2BIN(I19), "000"))</f>
+        <v/>
+      </c>
+      <c r="O19" s="28" t="str">
+        <f>IF(J19="", "", TEXT(DEC2BIN(J19), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P19" s="29" t="str">
+        <f>IF(K19="", "", TEXT(DEC2BIN(K19), "00000000"))</f>
+        <v>11111111</v>
+      </c>
+      <c r="Q19" t="str">
+        <f>BIN2HEX(LEFT(CONCATENATE(L19,IF(M19="", "000", M19)), 8), 2)</f>
+        <v>06</v>
+      </c>
+      <c r="R19" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M19, 1), IF(N19 = "", "000", N19), "0000"), 2)</f>
+        <v>80</v>
+      </c>
+      <c r="S19" s="21" t="str">
+        <f>IF(O19="", BIN2HEX(P19, 2), BIN2HEX(O19,2))</f>
+        <v>FF</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0x009</v>
       </c>
       <c r="C20" t="s">
@@ -3326,12 +3990,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0x00C</v>
       </c>
       <c r="C21" t="s">
@@ -3342,12 +4006,12 @@
       </c>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0x00F</v>
       </c>
       <c r="C22" t="s">
@@ -3358,12 +4022,12 @@
       </c>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0x012</v>
       </c>
       <c r="C23" t="s">
@@ -3376,12 +4040,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0x015</v>
       </c>
       <c r="C24" t="s">
@@ -3392,12 +4056,12 @@
       </c>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0x018</v>
       </c>
       <c r="C25" t="s">
@@ -3408,12 +4072,12 @@
       </c>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>27</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0x01B</v>
       </c>
       <c r="C26" t="s">
@@ -3423,19 +4087,19 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" ref="B31:B36" si="2">"0x" &amp; DEC2HEX(A31,3)</f>
+        <f t="shared" ref="B31:B36" si="5">"0x" &amp; DEC2HEX(A31,3)</f>
         <v>0x000</v>
       </c>
       <c r="C31" t="s">
@@ -3445,12 +4109,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0x003</v>
       </c>
       <c r="C32" t="s">
@@ -3460,12 +4124,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0x006</v>
       </c>
       <c r="C33" t="s">
@@ -3475,12 +4139,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0x009</v>
       </c>
       <c r="C34" t="s">
@@ -3489,13 +4153,51 @@
       <c r="D34" s="11" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="19">
+        <v>12</v>
+      </c>
+      <c r="J34">
+        <v>15</v>
+      </c>
+      <c r="L34" s="27" t="str">
+        <f>IF(F34="", "", TEXT(DEC2BIN(F34), "000000"))</f>
+        <v>001100</v>
+      </c>
+      <c r="M34" s="28" t="str">
+        <f>IF(H34="", "", TEXT(DEC2BIN(H34), "000"))</f>
+        <v/>
+      </c>
+      <c r="N34" s="28" t="str">
+        <f>IF(I34="", "", TEXT(DEC2BIN(I34), "000"))</f>
+        <v/>
+      </c>
+      <c r="O34" s="28" t="str">
+        <f>IF(J34="", "", TEXT(DEC2BIN(J34), "00000000"))</f>
+        <v>00001111</v>
+      </c>
+      <c r="P34" s="29" t="str">
+        <f>IF(K34="", "", TEXT(DEC2BIN(K34), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q34" t="str">
+        <f>BIN2HEX(LEFT(CONCATENATE(L34,IF(M34="", "000", M34)), 8), 2)</f>
+        <v>30</v>
+      </c>
+      <c r="R34" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M34, 1), IF(N34 = "", "000", N34), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="S34" s="21" t="str">
+        <f>IF(O34="", BIN2HEX(P34, 2), BIN2HEX(O34,2))</f>
+        <v>0F</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>12</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0x00C</v>
       </c>
       <c r="C35" t="s">
@@ -3504,13 +4206,16 @@
       <c r="D35" s="11" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>15</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0x00F</v>
       </c>
       <c r="C36" t="s">
@@ -3520,17 +4225,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C40" s="12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" ref="B41:B44" si="3">"0x" &amp; DEC2HEX(A41,3)</f>
+        <f t="shared" ref="B41:B44" si="6">"0x" &amp; DEC2HEX(A41,3)</f>
         <v>0x000</v>
       </c>
       <c r="C41" t="s">
@@ -3539,13 +4244,51 @@
       <c r="D41" s="11" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="19">
+        <v>3</v>
+      </c>
+      <c r="K41">
+        <v>16</v>
+      </c>
+      <c r="L41" s="27" t="str">
+        <f t="shared" ref="L41:L42" si="7">IF(F41="", "", TEXT(DEC2BIN(F41), "000000"))</f>
+        <v>000011</v>
+      </c>
+      <c r="M41" s="28" t="str">
+        <f t="shared" ref="M41:M42" si="8">IF(H41="", "", TEXT(DEC2BIN(H41), "000"))</f>
+        <v/>
+      </c>
+      <c r="N41" s="28" t="str">
+        <f t="shared" ref="N41:N42" si="9">IF(I41="", "", TEXT(DEC2BIN(I41), "000"))</f>
+        <v/>
+      </c>
+      <c r="O41" s="28" t="str">
+        <f t="shared" ref="O41:O42" si="10">IF(J41="", "", TEXT(DEC2BIN(J41), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P41" s="29" t="str">
+        <f t="shared" ref="P41:P42" si="11">IF(K41="", "", TEXT(DEC2BIN(K41), "00000000"))</f>
+        <v>00010000</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" ref="Q41:Q42" si="12">BIN2HEX(LEFT(CONCATENATE(L41,IF(M41="", "000", M41)), 8), 2)</f>
+        <v>0C</v>
+      </c>
+      <c r="R41" t="str">
+        <f t="shared" ref="R41:R42" si="13">BIN2HEX(CONCATENATE(RIGHT(M41, 1), IF(N41 = "", "000", N41), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="S41" s="21" t="str">
+        <f t="shared" ref="S41:S42" si="14">IF(O41="", BIN2HEX(P41, 2), BIN2HEX(O41,2))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0x003</v>
       </c>
       <c r="C42" t="s">
@@ -3554,13 +4297,54 @@
       <c r="D42" s="11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="19">
+        <v>13</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>17</v>
+      </c>
+      <c r="L42" s="27" t="str">
+        <f t="shared" si="7"/>
+        <v>001101</v>
+      </c>
+      <c r="M42" s="28" t="str">
+        <f t="shared" si="8"/>
+        <v>000</v>
+      </c>
+      <c r="N42" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O42" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>00010001</v>
+      </c>
+      <c r="P42" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="12"/>
+        <v>34</v>
+      </c>
+      <c r="R42" t="str">
+        <f t="shared" si="13"/>
+        <v>00</v>
+      </c>
+      <c r="S42" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0x006</v>
       </c>
       <c r="C43" t="s">
@@ -3570,12 +4354,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>16</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0x010</v>
       </c>
       <c r="D44" s="11" t="s">
@@ -3585,17 +4369,17 @@
         <v>197</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C48" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" ref="B49:B51" si="4">"0x" &amp; DEC2HEX(A49,3)</f>
+        <f t="shared" ref="B49:B51" si="15">"0x" &amp; DEC2HEX(A49,3)</f>
         <v>0x000</v>
       </c>
       <c r="C49" t="s">
@@ -3608,12 +4392,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>0x003</v>
       </c>
       <c r="C50" t="s">
@@ -3626,12 +4410,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>6</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>0x006</v>
       </c>
       <c r="C51" t="s">
@@ -3640,18 +4424,59 @@
       <c r="D51" s="11" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="19">
+        <v>17</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="L51" s="27" t="str">
+        <f t="shared" ref="L51" si="16">IF(F51="", "", TEXT(DEC2BIN(F51), "000000"))</f>
+        <v>010001</v>
+      </c>
+      <c r="M51" s="28" t="str">
+        <f t="shared" ref="M51" si="17">IF(H51="", "", TEXT(DEC2BIN(H51), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="N51" s="28" t="str">
+        <f t="shared" ref="N51" si="18">IF(I51="", "", TEXT(DEC2BIN(I51), "000"))</f>
+        <v>001</v>
+      </c>
+      <c r="O51" s="28" t="str">
+        <f t="shared" ref="O51" si="19">IF(J51="", "", TEXT(DEC2BIN(J51), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P51" s="29" t="str">
+        <f t="shared" ref="P51" si="20">IF(K51="", "", TEXT(DEC2BIN(K51), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" ref="Q51" si="21">BIN2HEX(LEFT(CONCATENATE(L51,IF(M51="", "000", M51)), 8), 2)</f>
+        <v>44</v>
+      </c>
+      <c r="R51" t="str">
+        <f t="shared" ref="R51" si="22">BIN2HEX(CONCATENATE(RIGHT(M51, 1), IF(N51 = "", "000", N51), "0000"), 2)</f>
+        <v>10</v>
+      </c>
+      <c r="S51" s="21" t="str">
+        <f t="shared" ref="S51" si="23">IF(O51="", BIN2HEX(P51, 2), BIN2HEX(O51,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C55" s="12" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" ref="B56:B79" si="5">"0x" &amp; DEC2HEX(A56,3)</f>
+        <f t="shared" ref="B56:B79" si="24">"0x" &amp; DEC2HEX(A56,3)</f>
         <v>0x000</v>
       </c>
       <c r="C56" t="s">
@@ -3664,12 +4489,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0x003</v>
       </c>
       <c r="C57" t="s">
@@ -3680,12 +4505,12 @@
       </c>
       <c r="E57" s="12"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0x006</v>
       </c>
       <c r="C58" t="s">
@@ -3698,12 +4523,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>9</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0x009</v>
       </c>
       <c r="C59" t="s">
@@ -3714,12 +4539,12 @@
       </c>
       <c r="E59" s="12"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>12</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0x00C</v>
       </c>
       <c r="C60" t="s">
@@ -3732,12 +4557,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>15</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0x00F</v>
       </c>
       <c r="C61" t="s">
@@ -3748,12 +4573,12 @@
       </c>
       <c r="E61" s="12"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>18</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0x012</v>
       </c>
       <c r="C62" t="s">
@@ -3766,12 +4591,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>21</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0x015</v>
       </c>
       <c r="C63" t="s">
@@ -3782,12 +4607,12 @@
       </c>
       <c r="E63" s="12"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>24</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0x018</v>
       </c>
       <c r="C64" t="s">
@@ -3805,7 +4630,7 @@
         <v>27</v>
       </c>
       <c r="B65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0x01B</v>
       </c>
       <c r="C65" t="s">
@@ -3821,7 +4646,7 @@
         <v>30</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0x01E</v>
       </c>
       <c r="C66" t="s">
@@ -3839,7 +4664,7 @@
         <v>33</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0x021</v>
       </c>
       <c r="C67" t="s">
@@ -3855,7 +4680,7 @@
         <v>36</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0x024</v>
       </c>
       <c r="C68" t="s">
@@ -3873,7 +4698,7 @@
         <v>39</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0x027</v>
       </c>
       <c r="C69" t="s">
@@ -3889,7 +4714,7 @@
         <v>42</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0x02A</v>
       </c>
       <c r="C70" t="s">
@@ -3907,7 +4732,7 @@
         <v>45</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0x02D</v>
       </c>
       <c r="C71" t="s">
@@ -3923,7 +4748,7 @@
         <v>48</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0x030</v>
       </c>
       <c r="C72" t="s">
@@ -3941,7 +4766,7 @@
         <v>51</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0x033</v>
       </c>
       <c r="C73" t="s">
@@ -3957,7 +4782,7 @@
         <v>54</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0x036</v>
       </c>
       <c r="C74" t="s">
@@ -3975,7 +4800,7 @@
         <v>57</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0x039</v>
       </c>
       <c r="C75" t="s">
@@ -3991,7 +4816,7 @@
         <v>60</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0x03C</v>
       </c>
       <c r="C76" t="s">
@@ -4009,7 +4834,7 @@
         <v>63</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0x03F</v>
       </c>
       <c r="C77" t="s">
@@ -4025,7 +4850,7 @@
         <v>66</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0x042</v>
       </c>
       <c r="C78" t="s">
@@ -4043,7 +4868,7 @@
         <v>69</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0x045</v>
       </c>
       <c r="C79" t="s">
@@ -4073,7 +4898,7 @@
         <v>0</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" ref="B83:B93" si="6">"0x" &amp; DEC2HEX(A83,3)</f>
+        <f t="shared" ref="B83:B93" si="25">"0x" &amp; DEC2HEX(A83,3)</f>
         <v>0x000</v>
       </c>
       <c r="C83" t="s">
@@ -4091,17 +4916,17 @@
         <v>3</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0x003</v>
       </c>
       <c r="C84" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -4109,7 +4934,7 @@
         <v>6</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0x006</v>
       </c>
       <c r="C85" t="s">
@@ -4127,14 +4952,14 @@
         <v>9</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0x009</v>
       </c>
       <c r="C86" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E86" s="12" t="s">
         <v>191</v>
@@ -4145,7 +4970,7 @@
         <v>12</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0x00C</v>
       </c>
       <c r="C87" t="s">
@@ -4163,17 +4988,17 @@
         <v>15</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0x00F</v>
       </c>
       <c r="C88" t="s">
         <v>61</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -4181,7 +5006,7 @@
         <v>18</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0x012</v>
       </c>
       <c r="C89" t="s">
@@ -4197,7 +5022,7 @@
         <v>21</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0x015</v>
       </c>
       <c r="C90" t="s">
@@ -4213,14 +5038,14 @@
         <v>24</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0x018</v>
       </c>
       <c r="C91" t="s">
         <v>194</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E91" s="12" t="s">
         <v>206</v>
@@ -4231,17 +5056,17 @@
         <v>27</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0x01B</v>
       </c>
       <c r="C92" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -4249,7 +5074,7 @@
         <v>30</v>
       </c>
       <c r="B93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0x01E</v>
       </c>
       <c r="C93" t="s">
@@ -4259,7 +5084,7 @@
         <v>107</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4272,7 +5097,7 @@
         <v>48</v>
       </c>
       <c r="B95" t="str">
-        <f t="shared" ref="B95:B98" si="7">"0x" &amp; DEC2HEX(A95,3)</f>
+        <f t="shared" ref="B95:B98" si="26">"0x" &amp; DEC2HEX(A95,3)</f>
         <v>0x030</v>
       </c>
       <c r="D95" s="11" t="s">
@@ -4287,7 +5112,7 @@
         <v>51</v>
       </c>
       <c r="B96" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>0x033</v>
       </c>
       <c r="D96" s="11" t="s">
@@ -4302,7 +5127,7 @@
         <v>54</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>0x036</v>
       </c>
       <c r="D97" s="11" t="s">
@@ -4317,7 +5142,7 @@
         <v>57</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>0x039</v>
       </c>
       <c r="D98" s="11" t="s">
@@ -4346,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="B102" t="str">
-        <f t="shared" ref="B102" si="8">"0x" &amp; DEC2HEX(A102,3)</f>
+        <f t="shared" ref="B102" si="27">"0x" &amp; DEC2HEX(A102,3)</f>
         <v>0x000</v>
       </c>
       <c r="C102" t="s">
@@ -4364,7 +5189,7 @@
         <v>3</v>
       </c>
       <c r="B103" t="str">
-        <f t="shared" ref="B103:B113" si="9">"0x" &amp; DEC2HEX(A103,3)</f>
+        <f t="shared" ref="B103:B113" si="28">"0x" &amp; DEC2HEX(A103,3)</f>
         <v>0x003</v>
       </c>
       <c r="C103" t="s">
@@ -4374,7 +5199,7 @@
         <v>102</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>210</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -4382,30 +5207,32 @@
         <v>6</v>
       </c>
       <c r="B104" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>0x006</v>
       </c>
       <c r="C104" t="s">
-        <v>180</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="E104" s="12"/>
+        <v>208</v>
+      </c>
+      <c r="D104" t="s">
+        <v>224</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>9</v>
       </c>
       <c r="B105" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>0x009</v>
       </c>
       <c r="C105" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="E105" s="12"/>
     </row>
@@ -4414,14 +5241,14 @@
         <v>12</v>
       </c>
       <c r="B106" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>0x00C</v>
       </c>
       <c r="C106" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E106" s="12"/>
     </row>
@@ -4430,35 +5257,33 @@
         <v>15</v>
       </c>
       <c r="B107" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>0x00F</v>
       </c>
       <c r="C107" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E107" s="12" t="s">
-        <v>182</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E107" s="12"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>18</v>
       </c>
       <c r="B108" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>0x012</v>
       </c>
       <c r="C108" t="s">
-        <v>226</v>
+        <v>96</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>227</v>
+        <v>106</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -4466,51 +5291,51 @@
         <v>21</v>
       </c>
       <c r="B109" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>0x015</v>
       </c>
       <c r="C109" t="s">
-        <v>86</v>
+        <v>222</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E109" s="12"/>
+        <v>223</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>24</v>
       </c>
       <c r="B110" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>0x018</v>
       </c>
       <c r="C110" t="s">
-        <v>212</v>
+        <v>86</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="E110" s="12" t="s">
-        <v>213</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E110" s="12"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>27</v>
       </c>
       <c r="B111" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>0x01B</v>
       </c>
       <c r="C111" t="s">
-        <v>95</v>
+        <v>261</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>103</v>
+        <v>262</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -4518,25 +5343,25 @@
         <v>30</v>
       </c>
       <c r="B112" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>0x01E</v>
       </c>
       <c r="C112" t="s">
-        <v>208</v>
-      </c>
-      <c r="D112" t="s">
-        <v>228</v>
+        <v>95</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>33</v>
       </c>
       <c r="B113" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>0x021</v>
       </c>
       <c r="C113" t="s">
@@ -4546,20 +5371,20 @@
         <v>92</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C117" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>0</v>
       </c>
       <c r="B118" t="str">
-        <f t="shared" ref="B118:B122" si="10">"0x" &amp; DEC2HEX(A118,3)</f>
+        <f t="shared" ref="B118:B122" si="29">"0x" &amp; DEC2HEX(A118,3)</f>
         <v>0x000</v>
       </c>
       <c r="C118" t="s">
@@ -4569,48 +5394,96 @@
         <v>196</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>3</v>
       </c>
       <c r="B119" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>0x003</v>
       </c>
       <c r="C119" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>6</v>
       </c>
       <c r="B120" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>0x006</v>
       </c>
       <c r="C120" t="s">
-        <v>232</v>
+        <v>228</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>270</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F120" s="19">
+        <v>1</v>
+      </c>
+      <c r="G120" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H120">
+        <f t="shared" ref="H120:H121" si="30">IF(G120="", "", VLOOKUP(G120, $U$3:$V$10, 2))</f>
+        <v>2</v>
+      </c>
+      <c r="K120">
+        <v>96</v>
+      </c>
+      <c r="L120" s="27" t="str">
+        <f>IF(F120="", "", TEXT(DEC2BIN(F120), "000000"))</f>
+        <v>000001</v>
+      </c>
+      <c r="M120" s="28" t="str">
+        <f>IF(H120="", "", TEXT(DEC2BIN(H120), "000"))</f>
+        <v>010</v>
+      </c>
+      <c r="N120" s="28" t="str">
+        <f>IF(I120="", "", TEXT(DEC2BIN(I120), "000"))</f>
+        <v/>
+      </c>
+      <c r="O120" s="28" t="str">
+        <f>IF(J120="", "", TEXT(DEC2BIN(J120), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P120" s="29" t="str">
+        <f>IF(K120="", "", TEXT(DEC2BIN(K120), "00000000"))</f>
+        <v>01100000</v>
+      </c>
+      <c r="Q120" t="str">
+        <f t="shared" ref="Q120" si="31">BIN2HEX(LEFT(CONCATENATE(L120,IF(M120="", "000", M120)), 8), 2)</f>
+        <v>05</v>
+      </c>
+      <c r="R120" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M120, 1), IF(N120 = "", "000", N120), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="S120" s="21" t="str">
+        <f t="shared" ref="S120" si="32">IF(O120="", BIN2HEX(P120, 2), BIN2HEX(O120,2))</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>9</v>
       </c>
       <c r="B121" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>0x009</v>
       </c>
       <c r="C121" t="s">
@@ -4623,63 +5496,111 @@
         <v>190</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>12</v>
       </c>
       <c r="B122" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>0x00C</v>
       </c>
       <c r="C122" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>15</v>
       </c>
       <c r="B123" t="str">
-        <f t="shared" ref="B123:B132" si="11">"0x" &amp; DEC2HEX(A123,3)</f>
+        <f t="shared" ref="B123:B136" si="33">"0x" &amp; DEC2HEX(A123,3)</f>
         <v>0x00F</v>
       </c>
       <c r="C123" t="s">
-        <v>234</v>
+        <v>229</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>273</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="F123" s="19">
+        <v>14</v>
+      </c>
+      <c r="G123" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H123">
+        <f>IF(G123="", "", VLOOKUP(G123, $U$3:$V$10, 2))</f>
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>2</v>
+      </c>
+      <c r="L123" s="27" t="str">
+        <f>IF(F123="", "", TEXT(DEC2BIN(F123), "000000"))</f>
+        <v>001110</v>
+      </c>
+      <c r="M123" s="28" t="str">
+        <f>IF(H123="", "", TEXT(DEC2BIN(H123), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="N123" s="28" t="str">
+        <f>IF(I123="", "", TEXT(DEC2BIN(I123), "000"))</f>
+        <v>010</v>
+      </c>
+      <c r="O123" s="28" t="str">
+        <f>IF(J123="", "", TEXT(DEC2BIN(J123), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P123" s="29" t="str">
+        <f>IF(K123="", "", TEXT(DEC2BIN(K123), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q123" t="str">
+        <f t="shared" ref="Q123" si="34">BIN2HEX(LEFT(CONCATENATE(L123,IF(M123="", "000", M123)), 8), 2)</f>
+        <v>38</v>
+      </c>
+      <c r="R123" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M123, 1), IF(N123 = "", "000", N123), "0000"), 2)</f>
+        <v>20</v>
+      </c>
+      <c r="S123" s="21" t="str">
+        <f t="shared" ref="S123" si="35">IF(O123="", BIN2HEX(P123, 2), BIN2HEX(O123,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>18</v>
       </c>
       <c r="B124" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="33"/>
         <v>0x012</v>
       </c>
       <c r="C124" t="s">
         <v>61</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>21</v>
       </c>
       <c r="B125" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="33"/>
         <v>0x015</v>
       </c>
       <c r="C125" t="s">
@@ -4690,12 +5611,12 @@
       </c>
       <c r="E125" s="17"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>24</v>
       </c>
       <c r="B126" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="33"/>
         <v>0x018</v>
       </c>
       <c r="C126" t="s">
@@ -4706,63 +5627,111 @@
       </c>
       <c r="E126" s="17"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>27</v>
       </c>
       <c r="B127" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="33"/>
         <v>0x01B</v>
       </c>
       <c r="C127" t="s">
         <v>194</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E127" s="12" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>30</v>
       </c>
       <c r="B128" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="33"/>
         <v>0x01E</v>
       </c>
       <c r="C128" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>33</v>
       </c>
       <c r="B129" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="33"/>
         <v>0x021</v>
       </c>
       <c r="C129" t="s">
-        <v>241</v>
+        <v>236</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>271</v>
       </c>
       <c r="E129" s="17" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="F129" s="19">
+        <v>2</v>
+      </c>
+      <c r="G129" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H129">
+        <f t="shared" ref="H129:H131" si="36">IF(G129="", "", VLOOKUP(G129, $U$3:$V$10, 2))</f>
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="L129" s="27" t="str">
+        <f>IF(F129="", "", TEXT(DEC2BIN(F129), "000000"))</f>
+        <v>000010</v>
+      </c>
+      <c r="M129" s="28" t="str">
+        <f>IF(H129="", "", TEXT(DEC2BIN(H129), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="N129" s="28" t="str">
+        <f>IF(I129="", "", TEXT(DEC2BIN(I129), "000"))</f>
+        <v>010</v>
+      </c>
+      <c r="O129" s="28" t="str">
+        <f>IF(J129="", "", TEXT(DEC2BIN(J129), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P129" s="29" t="str">
+        <f>IF(K129="", "", TEXT(DEC2BIN(K129), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q129" t="str">
+        <f t="shared" ref="Q129" si="37">BIN2HEX(LEFT(CONCATENATE(L129,IF(M129="", "000", M129)), 8), 2)</f>
+        <v>08</v>
+      </c>
+      <c r="R129" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M129, 1), IF(N129 = "", "000", N129), "0000"), 2)</f>
+        <v>20</v>
+      </c>
+      <c r="S129" s="21" t="str">
+        <f t="shared" ref="S129" si="38">IF(O129="", BIN2HEX(P129, 2), BIN2HEX(O129,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>36</v>
       </c>
       <c r="B130" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="33"/>
         <v>0x024</v>
       </c>
       <c r="C130" t="s">
@@ -4773,46 +5742,148 @@
       </c>
       <c r="E130" s="17"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>39</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="33"/>
         <v>0x027</v>
       </c>
       <c r="C131" t="s">
-        <v>242</v>
+        <v>237</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>272</v>
       </c>
       <c r="E131" s="17"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131" s="19">
+        <v>2</v>
+      </c>
+      <c r="G131" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H131">
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="L131" s="27" t="str">
+        <f>IF(F131="", "", TEXT(DEC2BIN(F131), "000000"))</f>
+        <v>000010</v>
+      </c>
+      <c r="M131" s="28" t="str">
+        <f>IF(H131="", "", TEXT(DEC2BIN(H131), "000"))</f>
+        <v>010</v>
+      </c>
+      <c r="N131" s="28" t="str">
+        <f>IF(I131="", "", TEXT(DEC2BIN(I131), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="O131" s="28" t="str">
+        <f>IF(J131="", "", TEXT(DEC2BIN(J131), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P131" s="29" t="str">
+        <f>IF(K131="", "", TEXT(DEC2BIN(K131), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q131" t="str">
+        <f t="shared" ref="Q131" si="39">BIN2HEX(LEFT(CONCATENATE(L131,IF(M131="", "000", M131)), 8), 2)</f>
+        <v>09</v>
+      </c>
+      <c r="R131" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M131, 1), IF(N131 = "", "000", N131), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="S131" s="21" t="str">
+        <f t="shared" ref="S131" si="40">IF(O131="", BIN2HEX(P131, 2), BIN2HEX(O131,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>42</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="33"/>
         <v>0x02A</v>
       </c>
       <c r="C132" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>221</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E133" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>48</v>
+      </c>
+      <c r="B134" t="str">
+        <f t="shared" si="33"/>
+        <v>0x030</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>51</v>
+      </c>
+      <c r="B135" t="str">
+        <f t="shared" si="33"/>
+        <v>0x033</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>54</v>
+      </c>
+      <c r="B136" t="str">
+        <f t="shared" si="33"/>
+        <v>0x036</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <sortState ref="U16:V18">
+    <sortCondition ref="U13"/>
+  </sortState>
+  <mergeCells count="6">
+    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="E20:E22"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="E88:E90"/>
     <mergeCell ref="E124:E126"/>
     <mergeCell ref="E129:E131"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W17">
+      <formula1>$U$16:$U$18</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G6 G123 G120 G129 G131">
+      <formula1>$U$3:$U$10</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="275">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -931,6 +931,9 @@
   </si>
   <si>
     <t>38 20 00</t>
+  </si>
+  <si>
+    <t>SUB A, E</t>
   </si>
 </sst>
 </file>
@@ -1077,29 +1080,11 @@
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1118,6 +1103,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1426,7 +1429,7 @@
   <dimension ref="A1:AE35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,11 +1519,11 @@
         <v>37</v>
       </c>
       <c r="Y1" s="2"/>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
@@ -3334,8 +3337,8 @@
   <dimension ref="A1:X136"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D132" sqref="D118:D132"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3343,16 +3346,16 @@
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3" style="17" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" style="27" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="21" customWidth="1"/>
     <col min="13" max="14" width="9.140625" style="3"/>
     <col min="15" max="15" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -3362,10 +3365,10 @@
       <c r="B1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="20" t="s">
         <v>242</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -3380,27 +3383,27 @@
       <c r="K1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="R1" s="24"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="18"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -3408,9 +3411,9 @@
       <c r="C2" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
       <c r="U2" t="s">
         <v>257</v>
       </c>
@@ -3424,55 +3427,55 @@
         <v>0x000</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>90</v>
       </c>
       <c r="E3" s="12"/>
-      <c r="F3" s="19">
-        <v>1</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>39</v>
+      <c r="F3" s="16">
+        <v>1</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H5" si="0">IF(G3="", "", VLOOKUP(G3, $U$3:$V$10, 2))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3" s="27" t="str">
+      <c r="L3" s="21" t="str">
         <f>IF(F3="", "", TEXT(DEC2BIN(F3), "000000"))</f>
         <v>000001</v>
       </c>
-      <c r="M3" s="28" t="str">
-        <f>IF(H3="", "", TEXT(DEC2BIN(H3), "000"))</f>
-        <v>001</v>
-      </c>
-      <c r="N3" s="28" t="str">
-        <f>IF(I3="", "", TEXT(DEC2BIN(I3), "000"))</f>
+      <c r="M3" s="22" t="str">
+        <f t="shared" ref="M3:N6" si="1">IF(H3="", "", TEXT(DEC2BIN(H3), "000"))</f>
+        <v>100</v>
+      </c>
+      <c r="N3" s="22" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O3" s="28" t="str">
-        <f>IF(J3="", "", TEXT(DEC2BIN(J3), "00000000"))</f>
+      <c r="O3" s="22" t="str">
+        <f t="shared" ref="O3:P6" si="2">IF(J3="", "", TEXT(DEC2BIN(J3), "00000000"))</f>
         <v/>
       </c>
-      <c r="P3" s="29" t="str">
-        <f>IF(K3="", "", TEXT(DEC2BIN(K3), "00000000"))</f>
+      <c r="P3" s="23" t="str">
+        <f t="shared" si="2"/>
         <v>00000001</v>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q5" si="1">BIN2HEX(LEFT(CONCATENATE(L3,IF(M3="", "000", M3)), 8), 2)</f>
-        <v>04</v>
+        <f t="shared" ref="Q3:Q5" si="3">BIN2HEX(LEFT(CONCATENATE(L3,IF(M3="", "000", M3)), 8), 2)</f>
+        <v>06</v>
       </c>
       <c r="R3" t="str">
         <f>BIN2HEX(CONCATENATE(RIGHT(M3, 1), IF(N3 = "", "000", N3), "0000"), 2)</f>
-        <v>80</v>
-      </c>
-      <c r="S3" s="21" t="str">
-        <f t="shared" ref="S3:S5" si="2">IF(O3="", BIN2HEX(P3, 2), BIN2HEX(O3,2))</f>
+        <v>00</v>
+      </c>
+      <c r="S3" s="18" t="str">
+        <f t="shared" ref="S3:S5" si="4">IF(O3="", BIN2HEX(P3, 2), BIN2HEX(O3,2))</f>
         <v>01</v>
       </c>
       <c r="U3" t="s">
@@ -3487,7 +3490,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" ref="B4:B6" si="3">"0x" &amp; DEC2HEX(A4,3)</f>
+        <f t="shared" ref="B4:B6" si="5">"0x" &amp; DEC2HEX(A4,3)</f>
         <v>0x003</v>
       </c>
       <c r="C4" t="s">
@@ -3499,10 +3502,10 @@
       <c r="E4" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="F4" s="19">
-        <v>1</v>
-      </c>
-      <c r="G4" s="20" t="s">
+      <c r="F4" s="16">
+        <v>1</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>38</v>
       </c>
       <c r="H4">
@@ -3512,36 +3515,36 @@
       <c r="K4">
         <v>32</v>
       </c>
-      <c r="L4" s="27" t="str">
+      <c r="L4" s="21" t="str">
         <f>IF(F4="", "", TEXT(DEC2BIN(F4), "000000"))</f>
         <v>000001</v>
       </c>
-      <c r="M4" s="28" t="str">
-        <f>IF(H4="", "", TEXT(DEC2BIN(H4), "000"))</f>
+      <c r="M4" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>000</v>
       </c>
-      <c r="N4" s="28" t="str">
-        <f>IF(I4="", "", TEXT(DEC2BIN(I4), "000"))</f>
+      <c r="N4" s="22" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O4" s="28" t="str">
-        <f>IF(J4="", "", TEXT(DEC2BIN(J4), "00000000"))</f>
+      <c r="O4" s="22" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P4" s="29" t="str">
-        <f>IF(K4="", "", TEXT(DEC2BIN(K4), "00000000"))</f>
+      <c r="P4" s="23" t="str">
+        <f t="shared" si="2"/>
         <v>00100000</v>
       </c>
       <c r="Q4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>04</v>
       </c>
       <c r="R4" t="str">
         <f>BIN2HEX(CONCATENATE(RIGHT(M4, 1), IF(N4 = "", "000", N4), "0000"), 2)</f>
         <v>00</v>
       </c>
-      <c r="S4" s="21" t="str">
-        <f t="shared" si="2"/>
+      <c r="S4" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="U4" t="s">
@@ -3556,20 +3559,20 @@
         <v>6</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x006</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>88</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="19">
+      <c r="F5" s="16">
         <v>5</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="17" t="s">
         <v>38</v>
       </c>
       <c r="H5">
@@ -3577,38 +3580,38 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="L5" s="27" t="str">
+        <v>4</v>
+      </c>
+      <c r="L5" s="21" t="str">
         <f>IF(F5="", "", TEXT(DEC2BIN(F5), "000000"))</f>
         <v>000101</v>
       </c>
-      <c r="M5" s="28" t="str">
-        <f>IF(H5="", "", TEXT(DEC2BIN(H5), "000"))</f>
+      <c r="M5" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>000</v>
       </c>
-      <c r="N5" s="28" t="str">
-        <f>IF(I5="", "", TEXT(DEC2BIN(I5), "000"))</f>
-        <v>001</v>
-      </c>
-      <c r="O5" s="28" t="str">
-        <f>IF(J5="", "", TEXT(DEC2BIN(J5), "00000000"))</f>
+      <c r="N5" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="O5" s="22" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P5" s="29" t="str">
-        <f>IF(K5="", "", TEXT(DEC2BIN(K5), "00000000"))</f>
+      <c r="P5" s="23" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="R5" t="str">
         <f>BIN2HEX(CONCATENATE(RIGHT(M5, 1), IF(N5 = "", "000", N5), "0000"), 2)</f>
-        <v>10</v>
-      </c>
-      <c r="S5" s="21" t="str">
-        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="S5" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="U5" t="s">
@@ -3623,7 +3626,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x009</v>
       </c>
       <c r="C6" t="s">
@@ -3633,7 +3636,7 @@
         <v>92</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="19">
+      <c r="F6" s="16">
         <v>11</v>
       </c>
       <c r="H6" t="str">
@@ -3643,24 +3646,24 @@
       <c r="J6">
         <v>6</v>
       </c>
-      <c r="L6" s="27" t="str">
+      <c r="L6" s="21" t="str">
         <f>IF(F6="", "", TEXT(DEC2BIN(F6), "000000"))</f>
         <v>001011</v>
       </c>
-      <c r="M6" s="28" t="str">
-        <f>IF(H6="", "", TEXT(DEC2BIN(H6), "000"))</f>
+      <c r="M6" s="22" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N6" s="28" t="str">
-        <f>IF(I6="", "", TEXT(DEC2BIN(I6), "000"))</f>
+      <c r="N6" s="22" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O6" s="28" t="str">
-        <f>IF(J6="", "", TEXT(DEC2BIN(J6), "00000000"))</f>
+      <c r="O6" s="22" t="str">
+        <f t="shared" si="2"/>
         <v>00000110</v>
       </c>
-      <c r="P6" s="29" t="str">
-        <f>IF(K6="", "", TEXT(DEC2BIN(K6), "00000000"))</f>
+      <c r="P6" s="23" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q6" t="str">
@@ -3671,7 +3674,7 @@
         <f>BIN2HEX(CONCATENATE(RIGHT(M6, 1), IF(N6 = "", "000", N6), "0000"), 2)</f>
         <v>00</v>
       </c>
-      <c r="S6" s="21" t="str">
+      <c r="S6" s="18" t="str">
         <f>IF(O6="", BIN2HEX(P6, 2), BIN2HEX(O6,2))</f>
         <v>06</v>
       </c>
@@ -3684,9 +3687,9 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E7" s="12"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
       <c r="U7" t="s">
         <v>42</v>
       </c>
@@ -3712,38 +3715,38 @@
         <v>0x006</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>274</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>87</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="19">
+      <c r="F9" s="16">
         <v>6</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="L9" s="27" t="str">
+        <v>4</v>
+      </c>
+      <c r="L9" s="21" t="str">
         <f>IF(F9="", "", TEXT(DEC2BIN(F9), "000000"))</f>
         <v>000110</v>
       </c>
-      <c r="M9" s="28" t="str">
+      <c r="M9" s="22" t="str">
         <f>IF(H9="", "", TEXT(DEC2BIN(H9), "000"))</f>
         <v>000</v>
       </c>
-      <c r="N9" s="28" t="str">
+      <c r="N9" s="22" t="str">
         <f>IF(I9="", "", TEXT(DEC2BIN(I9), "000"))</f>
-        <v>001</v>
-      </c>
-      <c r="O9" s="28" t="str">
+        <v>100</v>
+      </c>
+      <c r="O9" s="22" t="str">
         <f>IF(J9="", "", TEXT(DEC2BIN(J9), "00000000"))</f>
         <v/>
       </c>
-      <c r="P9" s="29" t="str">
+      <c r="P9" s="23" t="str">
         <f>IF(K9="", "", TEXT(DEC2BIN(K9), "00000000"))</f>
         <v/>
       </c>
@@ -3753,9 +3756,9 @@
       </c>
       <c r="R9" t="str">
         <f>BIN2HEX(CONCATENATE(RIGHT(M9, 1), IF(N9 = "", "000", N9), "0000"), 2)</f>
-        <v>10</v>
-      </c>
-      <c r="S9" s="21" t="str">
+        <v>40</v>
+      </c>
+      <c r="S9" s="18" t="str">
         <f>IF(O9="", BIN2HEX(P9, 2), BIN2HEX(O9,2))</f>
         <v>00</v>
       </c>
@@ -3790,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" ref="B17:B26" si="4">"0x" &amp; DEC2HEX(A17,3)</f>
+        <f t="shared" ref="B17:B26" si="6">"0x" &amp; DEC2HEX(A17,3)</f>
         <v>0x000</v>
       </c>
       <c r="C17" t="s">
@@ -3799,7 +3802,7 @@
       <c r="D17" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="16">
         <v>1</v>
       </c>
       <c r="H17">
@@ -3808,24 +3811,24 @@
       <c r="K17">
         <v>1</v>
       </c>
-      <c r="L17" s="27" t="str">
+      <c r="L17" s="21" t="str">
         <f>IF(F17="", "", TEXT(DEC2BIN(F17), "000000"))</f>
         <v>000001</v>
       </c>
-      <c r="M17" s="28" t="str">
-        <f>IF(H17="", "", TEXT(DEC2BIN(H17), "000"))</f>
+      <c r="M17" s="22" t="str">
+        <f t="shared" ref="M17:N19" si="7">IF(H17="", "", TEXT(DEC2BIN(H17), "000"))</f>
         <v>001</v>
       </c>
-      <c r="N17" s="28" t="str">
-        <f>IF(I17="", "", TEXT(DEC2BIN(I17), "000"))</f>
+      <c r="N17" s="22" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="O17" s="28" t="str">
-        <f>IF(J17="", "", TEXT(DEC2BIN(J17), "00000000"))</f>
+      <c r="O17" s="22" t="str">
+        <f t="shared" ref="O17:P19" si="8">IF(J17="", "", TEXT(DEC2BIN(J17), "00000000"))</f>
         <v/>
       </c>
-      <c r="P17" s="29" t="str">
-        <f>IF(K17="", "", TEXT(DEC2BIN(K17), "00000000"))</f>
+      <c r="P17" s="23" t="str">
+        <f t="shared" si="8"/>
         <v>00000001</v>
       </c>
       <c r="Q17" t="str">
@@ -3836,7 +3839,7 @@
         <f>BIN2HEX(CONCATENATE(RIGHT(M17, 1), IF(N17 = "", "000", N17), "0000"), 2)</f>
         <v>80</v>
       </c>
-      <c r="S17" s="21" t="str">
+      <c r="S17" s="18" t="str">
         <f>IF(O17="", BIN2HEX(P17, 2), BIN2HEX(O17,2))</f>
         <v>01</v>
       </c>
@@ -3859,7 +3862,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0x003</v>
       </c>
       <c r="C18" t="s">
@@ -3868,7 +3871,7 @@
       <c r="D18" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="16">
         <v>1</v>
       </c>
       <c r="H18">
@@ -3877,24 +3880,24 @@
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18" s="27" t="str">
+      <c r="L18" s="21" t="str">
         <f>IF(F18="", "", TEXT(DEC2BIN(F18), "000000"))</f>
         <v>000001</v>
       </c>
-      <c r="M18" s="28" t="str">
-        <f>IF(H18="", "", TEXT(DEC2BIN(H18), "000"))</f>
+      <c r="M18" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="N18" s="28" t="str">
-        <f>IF(I18="", "", TEXT(DEC2BIN(I18), "000"))</f>
+      <c r="N18" s="22" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="O18" s="28" t="str">
-        <f>IF(J18="", "", TEXT(DEC2BIN(J18), "00000000"))</f>
+      <c r="O18" s="22" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P18" s="29" t="str">
-        <f>IF(K18="", "", TEXT(DEC2BIN(K18), "00000000"))</f>
+      <c r="P18" s="23" t="str">
+        <f t="shared" si="8"/>
         <v>00000000</v>
       </c>
       <c r="Q18" t="str">
@@ -3905,7 +3908,7 @@
         <f>BIN2HEX(CONCATENATE(RIGHT(M18, 1), IF(N18 = "", "000", N18), "0000"), 2)</f>
         <v>00</v>
       </c>
-      <c r="S18" s="21" t="str">
+      <c r="S18" s="18" t="str">
         <f>IF(O18="", BIN2HEX(P18, 2), BIN2HEX(O18,2))</f>
         <v>00</v>
       </c>
@@ -3921,7 +3924,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0x006</v>
       </c>
       <c r="C19" t="s">
@@ -3930,7 +3933,7 @@
       <c r="D19" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="16">
         <v>1</v>
       </c>
       <c r="H19">
@@ -3939,24 +3942,24 @@
       <c r="K19">
         <v>255</v>
       </c>
-      <c r="L19" s="27" t="str">
+      <c r="L19" s="21" t="str">
         <f>IF(F19="", "", TEXT(DEC2BIN(F19), "000000"))</f>
         <v>000001</v>
       </c>
-      <c r="M19" s="28" t="str">
-        <f>IF(H19="", "", TEXT(DEC2BIN(H19), "000"))</f>
+      <c r="M19" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>101</v>
       </c>
-      <c r="N19" s="28" t="str">
-        <f>IF(I19="", "", TEXT(DEC2BIN(I19), "000"))</f>
+      <c r="N19" s="22" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="O19" s="28" t="str">
-        <f>IF(J19="", "", TEXT(DEC2BIN(J19), "00000000"))</f>
+      <c r="O19" s="22" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P19" s="29" t="str">
-        <f>IF(K19="", "", TEXT(DEC2BIN(K19), "00000000"))</f>
+      <c r="P19" s="23" t="str">
+        <f t="shared" si="8"/>
         <v>11111111</v>
       </c>
       <c r="Q19" t="str">
@@ -3967,7 +3970,7 @@
         <f>BIN2HEX(CONCATENATE(RIGHT(M19, 1), IF(N19 = "", "000", N19), "0000"), 2)</f>
         <v>80</v>
       </c>
-      <c r="S19" s="21" t="str">
+      <c r="S19" s="18" t="str">
         <f>IF(O19="", BIN2HEX(P19, 2), BIN2HEX(O19,2))</f>
         <v>FF</v>
       </c>
@@ -3977,7 +3980,7 @@
         <v>9</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0x009</v>
       </c>
       <c r="C20" t="s">
@@ -3986,7 +3989,7 @@
       <c r="D20" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="31" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3995,7 +3998,7 @@
         <v>12</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0x00C</v>
       </c>
       <c r="C21" t="s">
@@ -4004,14 +4007,14 @@
       <c r="D21" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="16"/>
+      <c r="E21" s="31"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0x00F</v>
       </c>
       <c r="C22" t="s">
@@ -4020,14 +4023,14 @@
       <c r="D22" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="16"/>
+      <c r="E22" s="31"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0x012</v>
       </c>
       <c r="C23" t="s">
@@ -4036,7 +4039,7 @@
       <c r="D23" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="31" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4045,7 +4048,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0x015</v>
       </c>
       <c r="C24" t="s">
@@ -4054,14 +4057,14 @@
       <c r="D24" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="16"/>
+      <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0x018</v>
       </c>
       <c r="C25" t="s">
@@ -4070,14 +4073,14 @@
       <c r="D25" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="31"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>27</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0x01B</v>
       </c>
       <c r="C26" t="s">
@@ -4099,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" ref="B31:B36" si="5">"0x" &amp; DEC2HEX(A31,3)</f>
+        <f t="shared" ref="B31:B36" si="9">"0x" &amp; DEC2HEX(A31,3)</f>
         <v>0x000</v>
       </c>
       <c r="C31" t="s">
@@ -4114,7 +4117,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0x003</v>
       </c>
       <c r="C32" t="s">
@@ -4129,7 +4132,7 @@
         <v>6</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0x006</v>
       </c>
       <c r="C33" t="s">
@@ -4144,7 +4147,7 @@
         <v>9</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0x009</v>
       </c>
       <c r="C34" t="s">
@@ -4153,29 +4156,29 @@
       <c r="D34" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="16">
         <v>12</v>
       </c>
       <c r="J34">
         <v>15</v>
       </c>
-      <c r="L34" s="27" t="str">
+      <c r="L34" s="21" t="str">
         <f>IF(F34="", "", TEXT(DEC2BIN(F34), "000000"))</f>
         <v>001100</v>
       </c>
-      <c r="M34" s="28" t="str">
+      <c r="M34" s="22" t="str">
         <f>IF(H34="", "", TEXT(DEC2BIN(H34), "000"))</f>
         <v/>
       </c>
-      <c r="N34" s="28" t="str">
+      <c r="N34" s="22" t="str">
         <f>IF(I34="", "", TEXT(DEC2BIN(I34), "000"))</f>
         <v/>
       </c>
-      <c r="O34" s="28" t="str">
+      <c r="O34" s="22" t="str">
         <f>IF(J34="", "", TEXT(DEC2BIN(J34), "00000000"))</f>
         <v>00001111</v>
       </c>
-      <c r="P34" s="29" t="str">
+      <c r="P34" s="23" t="str">
         <f>IF(K34="", "", TEXT(DEC2BIN(K34), "00000000"))</f>
         <v/>
       </c>
@@ -4187,7 +4190,7 @@
         <f>BIN2HEX(CONCATENATE(RIGHT(M34, 1), IF(N34 = "", "000", N34), "0000"), 2)</f>
         <v>00</v>
       </c>
-      <c r="S34" s="21" t="str">
+      <c r="S34" s="18" t="str">
         <f>IF(O34="", BIN2HEX(P34, 2), BIN2HEX(O34,2))</f>
         <v>0F</v>
       </c>
@@ -4197,7 +4200,7 @@
         <v>12</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0x00C</v>
       </c>
       <c r="C35" t="s">
@@ -4206,16 +4209,16 @@
       <c r="D35" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>15</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0x00F</v>
       </c>
       <c r="C36" t="s">
@@ -4235,7 +4238,7 @@
         <v>0</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" ref="B41:B44" si="6">"0x" &amp; DEC2HEX(A41,3)</f>
+        <f t="shared" ref="B41:B44" si="10">"0x" &amp; DEC2HEX(A41,3)</f>
         <v>0x000</v>
       </c>
       <c r="C41" t="s">
@@ -4244,42 +4247,42 @@
       <c r="D41" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F41" s="16">
         <v>3</v>
       </c>
       <c r="K41">
         <v>16</v>
       </c>
-      <c r="L41" s="27" t="str">
-        <f t="shared" ref="L41:L42" si="7">IF(F41="", "", TEXT(DEC2BIN(F41), "000000"))</f>
+      <c r="L41" s="21" t="str">
+        <f t="shared" ref="L41:L42" si="11">IF(F41="", "", TEXT(DEC2BIN(F41), "000000"))</f>
         <v>000011</v>
       </c>
-      <c r="M41" s="28" t="str">
-        <f t="shared" ref="M41:M42" si="8">IF(H41="", "", TEXT(DEC2BIN(H41), "000"))</f>
+      <c r="M41" s="22" t="str">
+        <f t="shared" ref="M41:M42" si="12">IF(H41="", "", TEXT(DEC2BIN(H41), "000"))</f>
         <v/>
       </c>
-      <c r="N41" s="28" t="str">
-        <f t="shared" ref="N41:N42" si="9">IF(I41="", "", TEXT(DEC2BIN(I41), "000"))</f>
+      <c r="N41" s="22" t="str">
+        <f t="shared" ref="N41:N42" si="13">IF(I41="", "", TEXT(DEC2BIN(I41), "000"))</f>
         <v/>
       </c>
-      <c r="O41" s="28" t="str">
-        <f t="shared" ref="O41:O42" si="10">IF(J41="", "", TEXT(DEC2BIN(J41), "00000000"))</f>
+      <c r="O41" s="22" t="str">
+        <f t="shared" ref="O41:O42" si="14">IF(J41="", "", TEXT(DEC2BIN(J41), "00000000"))</f>
         <v/>
       </c>
-      <c r="P41" s="29" t="str">
-        <f t="shared" ref="P41:P42" si="11">IF(K41="", "", TEXT(DEC2BIN(K41), "00000000"))</f>
+      <c r="P41" s="23" t="str">
+        <f t="shared" ref="P41:P42" si="15">IF(K41="", "", TEXT(DEC2BIN(K41), "00000000"))</f>
         <v>00010000</v>
       </c>
       <c r="Q41" t="str">
-        <f t="shared" ref="Q41:Q42" si="12">BIN2HEX(LEFT(CONCATENATE(L41,IF(M41="", "000", M41)), 8), 2)</f>
+        <f t="shared" ref="Q41:Q42" si="16">BIN2HEX(LEFT(CONCATENATE(L41,IF(M41="", "000", M41)), 8), 2)</f>
         <v>0C</v>
       </c>
       <c r="R41" t="str">
-        <f t="shared" ref="R41:R42" si="13">BIN2HEX(CONCATENATE(RIGHT(M41, 1), IF(N41 = "", "000", N41), "0000"), 2)</f>
+        <f t="shared" ref="R41:R42" si="17">BIN2HEX(CONCATENATE(RIGHT(M41, 1), IF(N41 = "", "000", N41), "0000"), 2)</f>
         <v>00</v>
       </c>
-      <c r="S41" s="21" t="str">
-        <f t="shared" ref="S41:S42" si="14">IF(O41="", BIN2HEX(P41, 2), BIN2HEX(O41,2))</f>
+      <c r="S41" s="18" t="str">
+        <f t="shared" ref="S41:S42" si="18">IF(O41="", BIN2HEX(P41, 2), BIN2HEX(O41,2))</f>
         <v>10</v>
       </c>
     </row>
@@ -4288,7 +4291,7 @@
         <v>3</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0x003</v>
       </c>
       <c r="C42" t="s">
@@ -4297,7 +4300,7 @@
       <c r="D42" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F42" s="16">
         <v>13</v>
       </c>
       <c r="H42">
@@ -4306,36 +4309,36 @@
       <c r="J42">
         <v>17</v>
       </c>
-      <c r="L42" s="27" t="str">
-        <f t="shared" si="7"/>
+      <c r="L42" s="21" t="str">
+        <f t="shared" si="11"/>
         <v>001101</v>
       </c>
-      <c r="M42" s="28" t="str">
-        <f t="shared" si="8"/>
+      <c r="M42" s="22" t="str">
+        <f t="shared" si="12"/>
         <v>000</v>
       </c>
-      <c r="N42" s="28" t="str">
-        <f t="shared" si="9"/>
+      <c r="N42" s="22" t="str">
+        <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="O42" s="28" t="str">
-        <f t="shared" si="10"/>
+      <c r="O42" s="22" t="str">
+        <f t="shared" si="14"/>
         <v>00010001</v>
       </c>
-      <c r="P42" s="29" t="str">
-        <f t="shared" si="11"/>
+      <c r="P42" s="23" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>34</v>
       </c>
       <c r="R42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>00</v>
       </c>
-      <c r="S42" s="21" t="str">
-        <f t="shared" si="14"/>
+      <c r="S42" s="18" t="str">
+        <f t="shared" si="18"/>
         <v>11</v>
       </c>
     </row>
@@ -4344,7 +4347,7 @@
         <v>6</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0x006</v>
       </c>
       <c r="C43" t="s">
@@ -4359,7 +4362,7 @@
         <v>16</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0x010</v>
       </c>
       <c r="D44" s="11" t="s">
@@ -4379,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" ref="B49:B51" si="15">"0x" &amp; DEC2HEX(A49,3)</f>
+        <f t="shared" ref="B49:B51" si="19">"0x" &amp; DEC2HEX(A49,3)</f>
         <v>0x000</v>
       </c>
       <c r="C49" t="s">
@@ -4397,7 +4400,7 @@
         <v>3</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0x003</v>
       </c>
       <c r="C50" t="s">
@@ -4415,7 +4418,7 @@
         <v>6</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0x006</v>
       </c>
       <c r="C51" t="s">
@@ -4424,7 +4427,7 @@
       <c r="D51" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F51" s="16">
         <v>17</v>
       </c>
       <c r="H51">
@@ -4433,36 +4436,36 @@
       <c r="I51">
         <v>1</v>
       </c>
-      <c r="L51" s="27" t="str">
-        <f t="shared" ref="L51" si="16">IF(F51="", "", TEXT(DEC2BIN(F51), "000000"))</f>
+      <c r="L51" s="21" t="str">
+        <f t="shared" ref="L51" si="20">IF(F51="", "", TEXT(DEC2BIN(F51), "000000"))</f>
         <v>010001</v>
       </c>
-      <c r="M51" s="28" t="str">
-        <f t="shared" ref="M51" si="17">IF(H51="", "", TEXT(DEC2BIN(H51), "000"))</f>
+      <c r="M51" s="22" t="str">
+        <f t="shared" ref="M51" si="21">IF(H51="", "", TEXT(DEC2BIN(H51), "000"))</f>
         <v>000</v>
       </c>
-      <c r="N51" s="28" t="str">
-        <f t="shared" ref="N51" si="18">IF(I51="", "", TEXT(DEC2BIN(I51), "000"))</f>
+      <c r="N51" s="22" t="str">
+        <f t="shared" ref="N51" si="22">IF(I51="", "", TEXT(DEC2BIN(I51), "000"))</f>
         <v>001</v>
       </c>
-      <c r="O51" s="28" t="str">
-        <f t="shared" ref="O51" si="19">IF(J51="", "", TEXT(DEC2BIN(J51), "00000000"))</f>
+      <c r="O51" s="22" t="str">
+        <f t="shared" ref="O51" si="23">IF(J51="", "", TEXT(DEC2BIN(J51), "00000000"))</f>
         <v/>
       </c>
-      <c r="P51" s="29" t="str">
-        <f t="shared" ref="P51" si="20">IF(K51="", "", TEXT(DEC2BIN(K51), "00000000"))</f>
+      <c r="P51" s="23" t="str">
+        <f t="shared" ref="P51" si="24">IF(K51="", "", TEXT(DEC2BIN(K51), "00000000"))</f>
         <v/>
       </c>
       <c r="Q51" t="str">
-        <f t="shared" ref="Q51" si="21">BIN2HEX(LEFT(CONCATENATE(L51,IF(M51="", "000", M51)), 8), 2)</f>
+        <f t="shared" ref="Q51" si="25">BIN2HEX(LEFT(CONCATENATE(L51,IF(M51="", "000", M51)), 8), 2)</f>
         <v>44</v>
       </c>
       <c r="R51" t="str">
-        <f t="shared" ref="R51" si="22">BIN2HEX(CONCATENATE(RIGHT(M51, 1), IF(N51 = "", "000", N51), "0000"), 2)</f>
+        <f t="shared" ref="R51" si="26">BIN2HEX(CONCATENATE(RIGHT(M51, 1), IF(N51 = "", "000", N51), "0000"), 2)</f>
         <v>10</v>
       </c>
-      <c r="S51" s="21" t="str">
-        <f t="shared" ref="S51" si="23">IF(O51="", BIN2HEX(P51, 2), BIN2HEX(O51,2))</f>
+      <c r="S51" s="18" t="str">
+        <f t="shared" ref="S51" si="27">IF(O51="", BIN2HEX(P51, 2), BIN2HEX(O51,2))</f>
         <v>00</v>
       </c>
     </row>
@@ -4476,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" ref="B56:B79" si="24">"0x" &amp; DEC2HEX(A56,3)</f>
+        <f t="shared" ref="B56:B79" si="28">"0x" &amp; DEC2HEX(A56,3)</f>
         <v>0x000</v>
       </c>
       <c r="C56" t="s">
@@ -4494,7 +4497,7 @@
         <v>3</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0x003</v>
       </c>
       <c r="C57" t="s">
@@ -4510,7 +4513,7 @@
         <v>6</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0x006</v>
       </c>
       <c r="C58" t="s">
@@ -4528,7 +4531,7 @@
         <v>9</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0x009</v>
       </c>
       <c r="C59" t="s">
@@ -4544,7 +4547,7 @@
         <v>12</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0x00C</v>
       </c>
       <c r="C60" t="s">
@@ -4562,7 +4565,7 @@
         <v>15</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0x00F</v>
       </c>
       <c r="C61" t="s">
@@ -4578,7 +4581,7 @@
         <v>18</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0x012</v>
       </c>
       <c r="C62" t="s">
@@ -4596,7 +4599,7 @@
         <v>21</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0x015</v>
       </c>
       <c r="C63" t="s">
@@ -4612,7 +4615,7 @@
         <v>24</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0x018</v>
       </c>
       <c r="C64" t="s">
@@ -4630,7 +4633,7 @@
         <v>27</v>
       </c>
       <c r="B65" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0x01B</v>
       </c>
       <c r="C65" t="s">
@@ -4646,7 +4649,7 @@
         <v>30</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0x01E</v>
       </c>
       <c r="C66" t="s">
@@ -4664,7 +4667,7 @@
         <v>33</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0x021</v>
       </c>
       <c r="C67" t="s">
@@ -4680,7 +4683,7 @@
         <v>36</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0x024</v>
       </c>
       <c r="C68" t="s">
@@ -4698,7 +4701,7 @@
         <v>39</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0x027</v>
       </c>
       <c r="C69" t="s">
@@ -4714,7 +4717,7 @@
         <v>42</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0x02A</v>
       </c>
       <c r="C70" t="s">
@@ -4732,7 +4735,7 @@
         <v>45</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0x02D</v>
       </c>
       <c r="C71" t="s">
@@ -4748,7 +4751,7 @@
         <v>48</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0x030</v>
       </c>
       <c r="C72" t="s">
@@ -4766,7 +4769,7 @@
         <v>51</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0x033</v>
       </c>
       <c r="C73" t="s">
@@ -4782,7 +4785,7 @@
         <v>54</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0x036</v>
       </c>
       <c r="C74" t="s">
@@ -4800,7 +4803,7 @@
         <v>57</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0x039</v>
       </c>
       <c r="C75" t="s">
@@ -4816,7 +4819,7 @@
         <v>60</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0x03C</v>
       </c>
       <c r="C76" t="s">
@@ -4834,7 +4837,7 @@
         <v>63</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0x03F</v>
       </c>
       <c r="C77" t="s">
@@ -4850,7 +4853,7 @@
         <v>66</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0x042</v>
       </c>
       <c r="C78" t="s">
@@ -4868,7 +4871,7 @@
         <v>69</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0x045</v>
       </c>
       <c r="C79" t="s">
@@ -4898,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" ref="B83:B93" si="25">"0x" &amp; DEC2HEX(A83,3)</f>
+        <f t="shared" ref="B83:B93" si="29">"0x" &amp; DEC2HEX(A83,3)</f>
         <v>0x000</v>
       </c>
       <c r="C83" t="s">
@@ -4916,7 +4919,7 @@
         <v>3</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0x003</v>
       </c>
       <c r="C84" t="s">
@@ -4934,7 +4937,7 @@
         <v>6</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0x006</v>
       </c>
       <c r="C85" t="s">
@@ -4952,7 +4955,7 @@
         <v>9</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0x009</v>
       </c>
       <c r="C86" t="s">
@@ -4970,7 +4973,7 @@
         <v>12</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0x00C</v>
       </c>
       <c r="C87" t="s">
@@ -4988,7 +4991,7 @@
         <v>15</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0x00F</v>
       </c>
       <c r="C88" t="s">
@@ -4997,7 +5000,7 @@
       <c r="D88" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="E88" s="17" t="s">
+      <c r="E88" s="32" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5006,7 +5009,7 @@
         <v>18</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0x012</v>
       </c>
       <c r="C89" t="s">
@@ -5015,14 +5018,14 @@
       <c r="D89" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="E89" s="17"/>
+      <c r="E89" s="32"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>21</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0x015</v>
       </c>
       <c r="C90" t="s">
@@ -5031,14 +5034,14 @@
       <c r="D90" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="E90" s="17"/>
+      <c r="E90" s="32"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>24</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0x018</v>
       </c>
       <c r="C91" t="s">
@@ -5056,7 +5059,7 @@
         <v>27</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0x01B</v>
       </c>
       <c r="C92" t="s">
@@ -5074,7 +5077,7 @@
         <v>30</v>
       </c>
       <c r="B93" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0x01E</v>
       </c>
       <c r="C93" t="s">
@@ -5097,7 +5100,7 @@
         <v>48</v>
       </c>
       <c r="B95" t="str">
-        <f t="shared" ref="B95:B98" si="26">"0x" &amp; DEC2HEX(A95,3)</f>
+        <f t="shared" ref="B95:B98" si="30">"0x" &amp; DEC2HEX(A95,3)</f>
         <v>0x030</v>
       </c>
       <c r="D95" s="11" t="s">
@@ -5112,7 +5115,7 @@
         <v>51</v>
       </c>
       <c r="B96" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0x033</v>
       </c>
       <c r="D96" s="11" t="s">
@@ -5127,7 +5130,7 @@
         <v>54</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0x036</v>
       </c>
       <c r="D97" s="11" t="s">
@@ -5142,7 +5145,7 @@
         <v>57</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0x039</v>
       </c>
       <c r="D98" s="11" t="s">
@@ -5171,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="B102" t="str">
-        <f t="shared" ref="B102" si="27">"0x" &amp; DEC2HEX(A102,3)</f>
+        <f t="shared" ref="B102" si="31">"0x" &amp; DEC2HEX(A102,3)</f>
         <v>0x000</v>
       </c>
       <c r="C102" t="s">
@@ -5189,7 +5192,7 @@
         <v>3</v>
       </c>
       <c r="B103" t="str">
-        <f t="shared" ref="B103:B113" si="28">"0x" &amp; DEC2HEX(A103,3)</f>
+        <f t="shared" ref="B103:B113" si="32">"0x" &amp; DEC2HEX(A103,3)</f>
         <v>0x003</v>
       </c>
       <c r="C103" t="s">
@@ -5207,7 +5210,7 @@
         <v>6</v>
       </c>
       <c r="B104" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0x006</v>
       </c>
       <c r="C104" t="s">
@@ -5225,7 +5228,7 @@
         <v>9</v>
       </c>
       <c r="B105" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0x009</v>
       </c>
       <c r="C105" t="s">
@@ -5241,7 +5244,7 @@
         <v>12</v>
       </c>
       <c r="B106" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0x00C</v>
       </c>
       <c r="C106" t="s">
@@ -5257,7 +5260,7 @@
         <v>15</v>
       </c>
       <c r="B107" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0x00F</v>
       </c>
       <c r="C107" t="s">
@@ -5273,7 +5276,7 @@
         <v>18</v>
       </c>
       <c r="B108" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0x012</v>
       </c>
       <c r="C108" t="s">
@@ -5291,7 +5294,7 @@
         <v>21</v>
       </c>
       <c r="B109" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0x015</v>
       </c>
       <c r="C109" t="s">
@@ -5309,7 +5312,7 @@
         <v>24</v>
       </c>
       <c r="B110" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0x018</v>
       </c>
       <c r="C110" t="s">
@@ -5325,7 +5328,7 @@
         <v>27</v>
       </c>
       <c r="B111" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0x01B</v>
       </c>
       <c r="C111" t="s">
@@ -5343,7 +5346,7 @@
         <v>30</v>
       </c>
       <c r="B112" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0x01E</v>
       </c>
       <c r="C112" t="s">
@@ -5361,7 +5364,7 @@
         <v>33</v>
       </c>
       <c r="B113" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0x021</v>
       </c>
       <c r="C113" t="s">
@@ -5384,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="B118" t="str">
-        <f t="shared" ref="B118:B122" si="29">"0x" &amp; DEC2HEX(A118,3)</f>
+        <f t="shared" ref="B118:B122" si="33">"0x" &amp; DEC2HEX(A118,3)</f>
         <v>0x000</v>
       </c>
       <c r="C118" t="s">
@@ -5402,7 +5405,7 @@
         <v>3</v>
       </c>
       <c r="B119" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0x003</v>
       </c>
       <c r="C119" t="s">
@@ -5420,7 +5423,7 @@
         <v>6</v>
       </c>
       <c r="B120" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0x006</v>
       </c>
       <c r="C120" t="s">
@@ -5432,49 +5435,49 @@
       <c r="E120" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="F120" s="19">
-        <v>1</v>
-      </c>
-      <c r="G120" s="20" t="s">
+      <c r="F120" s="16">
+        <v>1</v>
+      </c>
+      <c r="G120" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H120">
-        <f t="shared" ref="H120:H121" si="30">IF(G120="", "", VLOOKUP(G120, $U$3:$V$10, 2))</f>
+        <f t="shared" ref="H120" si="34">IF(G120="", "", VLOOKUP(G120, $U$3:$V$10, 2))</f>
         <v>2</v>
       </c>
       <c r="K120">
         <v>96</v>
       </c>
-      <c r="L120" s="27" t="str">
+      <c r="L120" s="21" t="str">
         <f>IF(F120="", "", TEXT(DEC2BIN(F120), "000000"))</f>
         <v>000001</v>
       </c>
-      <c r="M120" s="28" t="str">
+      <c r="M120" s="22" t="str">
         <f>IF(H120="", "", TEXT(DEC2BIN(H120), "000"))</f>
         <v>010</v>
       </c>
-      <c r="N120" s="28" t="str">
+      <c r="N120" s="22" t="str">
         <f>IF(I120="", "", TEXT(DEC2BIN(I120), "000"))</f>
         <v/>
       </c>
-      <c r="O120" s="28" t="str">
+      <c r="O120" s="22" t="str">
         <f>IF(J120="", "", TEXT(DEC2BIN(J120), "00000000"))</f>
         <v/>
       </c>
-      <c r="P120" s="29" t="str">
+      <c r="P120" s="23" t="str">
         <f>IF(K120="", "", TEXT(DEC2BIN(K120), "00000000"))</f>
         <v>01100000</v>
       </c>
       <c r="Q120" t="str">
-        <f t="shared" ref="Q120" si="31">BIN2HEX(LEFT(CONCATENATE(L120,IF(M120="", "000", M120)), 8), 2)</f>
+        <f t="shared" ref="Q120" si="35">BIN2HEX(LEFT(CONCATENATE(L120,IF(M120="", "000", M120)), 8), 2)</f>
         <v>05</v>
       </c>
       <c r="R120" t="str">
         <f>BIN2HEX(CONCATENATE(RIGHT(M120, 1), IF(N120 = "", "000", N120), "0000"), 2)</f>
         <v>00</v>
       </c>
-      <c r="S120" s="21" t="str">
-        <f t="shared" ref="S120" si="32">IF(O120="", BIN2HEX(P120, 2), BIN2HEX(O120,2))</f>
+      <c r="S120" s="18" t="str">
+        <f t="shared" ref="S120" si="36">IF(O120="", BIN2HEX(P120, 2), BIN2HEX(O120,2))</f>
         <v>60</v>
       </c>
     </row>
@@ -5483,7 +5486,7 @@
         <v>9</v>
       </c>
       <c r="B121" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0x009</v>
       </c>
       <c r="C121" t="s">
@@ -5501,7 +5504,7 @@
         <v>12</v>
       </c>
       <c r="B122" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0x00C</v>
       </c>
       <c r="C122" t="s">
@@ -5519,7 +5522,7 @@
         <v>15</v>
       </c>
       <c r="B123" t="str">
-        <f t="shared" ref="B123:B136" si="33">"0x" &amp; DEC2HEX(A123,3)</f>
+        <f t="shared" ref="B123:B136" si="37">"0x" &amp; DEC2HEX(A123,3)</f>
         <v>0x00F</v>
       </c>
       <c r="C123" t="s">
@@ -5531,10 +5534,10 @@
       <c r="E123" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="F123" s="19">
-        <v>14</v>
-      </c>
-      <c r="G123" s="20" t="s">
+      <c r="F123" s="16">
+        <v>14</v>
+      </c>
+      <c r="G123" s="17" t="s">
         <v>38</v>
       </c>
       <c r="H123">
@@ -5544,36 +5547,36 @@
       <c r="I123">
         <v>2</v>
       </c>
-      <c r="L123" s="27" t="str">
+      <c r="L123" s="21" t="str">
         <f>IF(F123="", "", TEXT(DEC2BIN(F123), "000000"))</f>
         <v>001110</v>
       </c>
-      <c r="M123" s="28" t="str">
+      <c r="M123" s="22" t="str">
         <f>IF(H123="", "", TEXT(DEC2BIN(H123), "000"))</f>
         <v>000</v>
       </c>
-      <c r="N123" s="28" t="str">
+      <c r="N123" s="22" t="str">
         <f>IF(I123="", "", TEXT(DEC2BIN(I123), "000"))</f>
         <v>010</v>
       </c>
-      <c r="O123" s="28" t="str">
+      <c r="O123" s="22" t="str">
         <f>IF(J123="", "", TEXT(DEC2BIN(J123), "00000000"))</f>
         <v/>
       </c>
-      <c r="P123" s="29" t="str">
+      <c r="P123" s="23" t="str">
         <f>IF(K123="", "", TEXT(DEC2BIN(K123), "00000000"))</f>
         <v/>
       </c>
       <c r="Q123" t="str">
-        <f t="shared" ref="Q123" si="34">BIN2HEX(LEFT(CONCATENATE(L123,IF(M123="", "000", M123)), 8), 2)</f>
+        <f t="shared" ref="Q123" si="38">BIN2HEX(LEFT(CONCATENATE(L123,IF(M123="", "000", M123)), 8), 2)</f>
         <v>38</v>
       </c>
       <c r="R123" t="str">
         <f>BIN2HEX(CONCATENATE(RIGHT(M123, 1), IF(N123 = "", "000", N123), "0000"), 2)</f>
         <v>20</v>
       </c>
-      <c r="S123" s="21" t="str">
-        <f t="shared" ref="S123" si="35">IF(O123="", BIN2HEX(P123, 2), BIN2HEX(O123,2))</f>
+      <c r="S123" s="18" t="str">
+        <f t="shared" ref="S123" si="39">IF(O123="", BIN2HEX(P123, 2), BIN2HEX(O123,2))</f>
         <v>00</v>
       </c>
     </row>
@@ -5582,7 +5585,7 @@
         <v>18</v>
       </c>
       <c r="B124" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0x012</v>
       </c>
       <c r="C124" t="s">
@@ -5591,7 +5594,7 @@
       <c r="D124" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="E124" s="17" t="s">
+      <c r="E124" s="32" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5600,7 +5603,7 @@
         <v>21</v>
       </c>
       <c r="B125" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0x015</v>
       </c>
       <c r="C125" t="s">
@@ -5609,14 +5612,14 @@
       <c r="D125" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="E125" s="17"/>
+      <c r="E125" s="32"/>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>24</v>
       </c>
       <c r="B126" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0x018</v>
       </c>
       <c r="C126" t="s">
@@ -5625,14 +5628,14 @@
       <c r="D126" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="E126" s="17"/>
+      <c r="E126" s="32"/>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>27</v>
       </c>
       <c r="B127" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0x01B</v>
       </c>
       <c r="C127" t="s">
@@ -5650,7 +5653,7 @@
         <v>30</v>
       </c>
       <c r="B128" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0x01E</v>
       </c>
       <c r="C128" t="s">
@@ -5668,7 +5671,7 @@
         <v>33</v>
       </c>
       <c r="B129" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0x021</v>
       </c>
       <c r="C129" t="s">
@@ -5677,52 +5680,52 @@
       <c r="D129" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="E129" s="17" t="s">
+      <c r="E129" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="F129" s="19">
+      <c r="F129" s="16">
         <v>2</v>
       </c>
-      <c r="G129" s="20" t="s">
+      <c r="G129" s="17" t="s">
         <v>38</v>
       </c>
       <c r="H129">
-        <f t="shared" ref="H129:H131" si="36">IF(G129="", "", VLOOKUP(G129, $U$3:$V$10, 2))</f>
+        <f t="shared" ref="H129:H131" si="40">IF(G129="", "", VLOOKUP(G129, $U$3:$V$10, 2))</f>
         <v>0</v>
       </c>
       <c r="I129">
         <v>2</v>
       </c>
-      <c r="L129" s="27" t="str">
+      <c r="L129" s="21" t="str">
         <f>IF(F129="", "", TEXT(DEC2BIN(F129), "000000"))</f>
         <v>000010</v>
       </c>
-      <c r="M129" s="28" t="str">
+      <c r="M129" s="22" t="str">
         <f>IF(H129="", "", TEXT(DEC2BIN(H129), "000"))</f>
         <v>000</v>
       </c>
-      <c r="N129" s="28" t="str">
+      <c r="N129" s="22" t="str">
         <f>IF(I129="", "", TEXT(DEC2BIN(I129), "000"))</f>
         <v>010</v>
       </c>
-      <c r="O129" s="28" t="str">
+      <c r="O129" s="22" t="str">
         <f>IF(J129="", "", TEXT(DEC2BIN(J129), "00000000"))</f>
         <v/>
       </c>
-      <c r="P129" s="29" t="str">
+      <c r="P129" s="23" t="str">
         <f>IF(K129="", "", TEXT(DEC2BIN(K129), "00000000"))</f>
         <v/>
       </c>
       <c r="Q129" t="str">
-        <f t="shared" ref="Q129" si="37">BIN2HEX(LEFT(CONCATENATE(L129,IF(M129="", "000", M129)), 8), 2)</f>
+        <f t="shared" ref="Q129" si="41">BIN2HEX(LEFT(CONCATENATE(L129,IF(M129="", "000", M129)), 8), 2)</f>
         <v>08</v>
       </c>
       <c r="R129" t="str">
         <f>BIN2HEX(CONCATENATE(RIGHT(M129, 1), IF(N129 = "", "000", N129), "0000"), 2)</f>
         <v>20</v>
       </c>
-      <c r="S129" s="21" t="str">
-        <f t="shared" ref="S129" si="38">IF(O129="", BIN2HEX(P129, 2), BIN2HEX(O129,2))</f>
+      <c r="S129" s="18" t="str">
+        <f t="shared" ref="S129" si="42">IF(O129="", BIN2HEX(P129, 2), BIN2HEX(O129,2))</f>
         <v>00</v>
       </c>
     </row>
@@ -5731,7 +5734,7 @@
         <v>36</v>
       </c>
       <c r="B130" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0x024</v>
       </c>
       <c r="C130" t="s">
@@ -5740,14 +5743,14 @@
       <c r="D130" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="E130" s="17"/>
+      <c r="E130" s="32"/>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>39</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0x027</v>
       </c>
       <c r="C131" t="s">
@@ -5756,50 +5759,50 @@
       <c r="D131" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="E131" s="17"/>
-      <c r="F131" s="19">
+      <c r="E131" s="32"/>
+      <c r="F131" s="16">
         <v>2</v>
       </c>
-      <c r="G131" s="20" t="s">
+      <c r="G131" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H131">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
-      <c r="L131" s="27" t="str">
+      <c r="L131" s="21" t="str">
         <f>IF(F131="", "", TEXT(DEC2BIN(F131), "000000"))</f>
         <v>000010</v>
       </c>
-      <c r="M131" s="28" t="str">
+      <c r="M131" s="22" t="str">
         <f>IF(H131="", "", TEXT(DEC2BIN(H131), "000"))</f>
         <v>010</v>
       </c>
-      <c r="N131" s="28" t="str">
+      <c r="N131" s="22" t="str">
         <f>IF(I131="", "", TEXT(DEC2BIN(I131), "000"))</f>
         <v>000</v>
       </c>
-      <c r="O131" s="28" t="str">
+      <c r="O131" s="22" t="str">
         <f>IF(J131="", "", TEXT(DEC2BIN(J131), "00000000"))</f>
         <v/>
       </c>
-      <c r="P131" s="29" t="str">
+      <c r="P131" s="23" t="str">
         <f>IF(K131="", "", TEXT(DEC2BIN(K131), "00000000"))</f>
         <v/>
       </c>
       <c r="Q131" t="str">
-        <f t="shared" ref="Q131" si="39">BIN2HEX(LEFT(CONCATENATE(L131,IF(M131="", "000", M131)), 8), 2)</f>
+        <f t="shared" ref="Q131" si="43">BIN2HEX(LEFT(CONCATENATE(L131,IF(M131="", "000", M131)), 8), 2)</f>
         <v>09</v>
       </c>
       <c r="R131" t="str">
         <f>BIN2HEX(CONCATENATE(RIGHT(M131, 1), IF(N131 = "", "000", N131), "0000"), 2)</f>
         <v>00</v>
       </c>
-      <c r="S131" s="21" t="str">
-        <f t="shared" ref="S131" si="40">IF(O131="", BIN2HEX(P131, 2), BIN2HEX(O131,2))</f>
+      <c r="S131" s="18" t="str">
+        <f t="shared" ref="S131" si="44">IF(O131="", BIN2HEX(P131, 2), BIN2HEX(O131,2))</f>
         <v>00</v>
       </c>
     </row>
@@ -5808,7 +5811,7 @@
         <v>42</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0x02A</v>
       </c>
       <c r="C132" t="s">
@@ -5831,7 +5834,7 @@
         <v>48</v>
       </c>
       <c r="B134" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0x030</v>
       </c>
       <c r="D134" s="11" t="s">
@@ -5843,7 +5846,7 @@
         <v>51</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0x033</v>
       </c>
       <c r="D135" s="11" t="s">
@@ -5855,7 +5858,7 @@
         <v>54</v>
       </c>
       <c r="B136" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0x036</v>
       </c>
       <c r="D136" s="11" t="s">
@@ -5867,12 +5870,12 @@
     <sortCondition ref="U13"/>
   </sortState>
   <mergeCells count="6">
+    <mergeCell ref="E129:E131"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="E20:E22"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="E88:E90"/>
     <mergeCell ref="E124:E126"/>
-    <mergeCell ref="E129:E131"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W17">

--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="288" windowWidth="14808" windowHeight="7836" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="288" windowWidth="14808" windowHeight="7836"/>
   </bookViews>
   <sheets>
     <sheet name="Control Lines" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="277">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -238,12 +238,6 @@
     <t>ST [addr], R1</t>
   </si>
   <si>
-    <t>LD R1, [RR3]</t>
-  </si>
-  <si>
-    <t>ST [RR3], R1</t>
-  </si>
-  <si>
     <t>[RR3]</t>
   </si>
   <si>
@@ -352,9 +346,6 @@
     <t>14 10 00</t>
   </si>
   <si>
-    <t>04 00 20</t>
-  </si>
-  <si>
     <t>04 80 01</t>
   </si>
   <si>
@@ -364,9 +355,6 @@
     <t>2c 00 06</t>
   </si>
   <si>
-    <t>LD E, 0x0</t>
-  </si>
-  <si>
     <t>LD F, 0xff</t>
   </si>
   <si>
@@ -376,45 +364,24 @@
     <t>LD E, A</t>
   </si>
   <si>
-    <t>LD A, F</t>
-  </si>
-  <si>
-    <t>LD F, A</t>
-  </si>
-  <si>
     <t>JP [0x009]</t>
   </si>
   <si>
     <t>Equiv to ADD E, B</t>
   </si>
   <si>
-    <t>06 00 00</t>
-  </si>
-  <si>
     <t>06 80 ff</t>
   </si>
   <si>
     <t>08 40 00</t>
   </si>
   <si>
-    <t>08 50 00</t>
-  </si>
-  <si>
-    <t>0a 80 00</t>
-  </si>
-  <si>
     <t>0a 00 00</t>
   </si>
   <si>
     <t>2c 00 09</t>
   </si>
   <si>
-    <t>// Increments E, decrements F</t>
-  </si>
-  <si>
-    <t>Equiv to SUB F, B</t>
-  </si>
-  <si>
     <t>Dec</t>
   </si>
   <si>
@@ -427,24 +394,12 @@
     <t>JP Z, [0x00f]</t>
   </si>
   <si>
-    <t>2c 00 0f</t>
-  </si>
-  <si>
-    <t>30 00 0f</t>
-  </si>
-  <si>
     <t>LD A, [0x010]</t>
   </si>
   <si>
     <t>ST [0x011], A</t>
   </si>
   <si>
-    <t>34 00 11</t>
-  </si>
-  <si>
-    <t>0c 00 10</t>
-  </si>
-  <si>
     <t>// Load value from memory, copies it to next address</t>
   </si>
   <si>
@@ -856,9 +811,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
@@ -941,13 +893,37 @@
   </si>
   <si>
     <t>// Increments A, using INC instruction</t>
+  </si>
+  <si>
+    <t>LD R1, [HL]</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>// Increments A, decrements B</t>
+  </si>
+  <si>
+    <t>LD B, 0xff</t>
+  </si>
+  <si>
+    <t>DEC B</t>
+  </si>
+  <si>
+    <t>maybe these two ST instr can use R2 (all 8 registers) instead of R1 (4 regs)</t>
+  </si>
+  <si>
+    <t>v.0.14.0 Working up to this point</t>
+  </si>
+  <si>
+    <t>ST [HL], R1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1010,6 +986,28 @@
       <b/>
       <sz val="11"/>
       <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1124,16 +1122,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1166,21 +1161,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1192,9 +1172,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1214,6 +1191,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1552,11 +1555,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM54"/>
+  <dimension ref="A1:AL54"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL18" sqref="AL18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1564,14 +1567,15 @@
     <col min="1" max="1" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16" width="3.33203125" customWidth="1"/>
-    <col min="17" max="18" width="3.33203125" style="5" customWidth="1"/>
-    <col min="19" max="26" width="3.33203125" customWidth="1"/>
-    <col min="27" max="27" width="2.88671875" customWidth="1"/>
-    <col min="28" max="30" width="5.88671875" customWidth="1"/>
-    <col min="31" max="31" width="2" customWidth="1"/>
+    <col min="17" max="18" width="3.33203125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="3.33203125" customWidth="1"/>
+    <col min="20" max="20" width="3.33203125" style="46" customWidth="1"/>
+    <col min="21" max="26" width="3.33203125" customWidth="1"/>
+    <col min="27" max="29" width="5.88671875" customWidth="1"/>
+    <col min="30" max="30" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="C1">
         <v>23</v>
       </c>
@@ -1623,7 +1627,7 @@
       <c r="S1">
         <v>7</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="46">
         <v>6</v>
       </c>
       <c r="U1">
@@ -1645,97 +1649,96 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="1" customFormat="1" ht="129" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="29" t="s">
+    <row r="2" spans="1:38" s="1" customFormat="1" ht="130.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="29" t="s">
+      <c r="J2" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q2" s="31" t="s">
+      <c r="N2" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="31" t="s">
+      <c r="R2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="T2" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="U2" s="29" t="s">
+      <c r="S2" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="T2" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="U2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="29" t="s">
+      <c r="V2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="29" t="s">
+      <c r="W2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="29" t="s">
+      <c r="X2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="29" t="s">
+      <c r="Y2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" s="29" t="s">
+      <c r="Z2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AA2" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="2">
@@ -1780,16 +1783,16 @@
       <c r="P3" s="2">
         <v>0</v>
       </c>
-      <c r="Q3" s="5">
-        <v>0</v>
-      </c>
-      <c r="R3" s="5">
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
         <v>0</v>
       </c>
       <c r="S3" s="2">
         <v>0</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="47">
         <v>0</v>
       </c>
       <c r="U3" s="2" t="s">
@@ -1810,33 +1813,32 @@
       <c r="Z3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="33" t="str">
-        <f>BIN2HEX(IF(C3="x", 0, C3) &amp; IF(D3="x", 0, D3) &amp; IF(E3="x", 0, E3) &amp; IF(F3="x", 0, F3) &amp; IF(G3="x", 0, G3) &amp; IF(H3="x", 0, H3) &amp; IF(I3="x", 0, I3) &amp; IF(J3="x", 0, J3), 2)</f>
-        <v>00</v>
-      </c>
-      <c r="AC3" s="34" t="str">
-        <f>BIN2HEX(IF(K3="x", 0, K3) &amp; IF(L3="x", 0, L3) &amp; IF(M3="x", 0, M3) &amp; IF(N3="x", 0, N3) &amp;  IF(O3="x", 0, O3) &amp; IF(P3="x", 0, P3) &amp; IF(Q3="x", 0, Q3) &amp; IF(R3="x", 0, R3), 2)</f>
-        <v>00</v>
-      </c>
-      <c r="AD3" s="35" t="str">
-        <f>BIN2HEX(IF(S3="x", 0, S3) &amp; IF(T3="x", 0, T3) &amp; IF(U3="x", 0, U3) &amp; IF(V3="x", 0, V3) &amp; IF(W3="x", 0, W3) &amp; IF(X3="x", 0, X3) &amp; IF(Y3="x", 0, Y3) &amp; IF(Z3="x", 0, Z3), 2)</f>
-        <v>00</v>
-      </c>
-      <c r="AG3" t="str">
+      <c r="AA3" s="26" t="str">
+        <f t="shared" ref="AA3:AA14" si="0">BIN2HEX(IF(C3="x", 0, C3) &amp; IF(D3="x", 0, D3) &amp; IF(E3="x", 0, E3) &amp; IF(F3="x", 0, F3) &amp; IF(G3="x", 0, G3) &amp; IF(H3="x", 0, H3) &amp; IF(I3="x", 0, I3) &amp; IF(J3="x", 0, J3), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AB3" s="27" t="str">
+        <f t="shared" ref="AB3:AB14" si="1">BIN2HEX(IF(K3="x", 0, K3) &amp; IF(L3="x", 0, L3) &amp; IF(M3="x", 0, M3) &amp; IF(N3="x", 0, N3) &amp;  IF(O3="x", 0, O3) &amp; IF(P3="x", 0, P3) &amp; IF(Q3="x", 0, Q3) &amp; IF(R3="x", 0, R3), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AC3" s="28" t="str">
+        <f t="shared" ref="AC3:AC14" si="2">BIN2HEX(IF(S3="x", 0, S3) &amp; IF(T3="x", 0, T3) &amp; IF(U3="x", 0, U3) &amp; IF(V3="x", 0, V3) &amp; IF(W3="x", 0, W3) &amp; IF(X3="x", 0, X3) &amp; IF(Y3="x", 0, Y3) &amp; IF(Z3="x", 0, Z3), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AF3" t="str">
         <f>IF(U3="x", 0, U3) &amp; IF(V3="x", 0, V3)</f>
         <v>00</v>
       </c>
-      <c r="AM3" s="9" t="str">
-        <f t="shared" ref="AM3:AM44" si="0">AB3 &amp; AC3 &amp; AD3</f>
+      <c r="AL3" s="8" t="str">
+        <f t="shared" ref="AL3:AL11" si="3">AA3 &amp; AB3 &amp; AC3</f>
         <v>000000</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="30" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
@@ -1881,16 +1883,16 @@
       <c r="P4" s="2">
         <v>0</v>
       </c>
-      <c r="Q4" s="5">
-        <v>0</v>
-      </c>
-      <c r="R4" s="5">
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
         <v>0</v>
       </c>
       <c r="S4" s="2">
         <v>0</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="47">
         <v>0</v>
       </c>
       <c r="U4" s="2" t="s">
@@ -1911,29 +1913,28 @@
       <c r="Z4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="2"/>
+      <c r="AA4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>C0</v>
+      </c>
       <c r="AB4" s="12" t="str">
-        <f t="shared" ref="AB4:AB11" si="1">BIN2HEX(IF(C4="x", 0, C4) &amp; IF(D4="x", 0, D4) &amp; IF(E4="x", 0, E4) &amp; IF(F4="x", 0, F4) &amp; IF(G4="x", 0, G4) &amp; IF(H4="x", 0, H4) &amp; IF(I4="x", 0, I4) &amp; IF(J4="x", 0, J4), 2)</f>
-        <v>C0</v>
+        <f t="shared" si="1"/>
+        <v>00</v>
       </c>
       <c r="AC4" s="13" t="str">
-        <f t="shared" ref="AC4:AC11" si="2">BIN2HEX(IF(K4="x", 0, K4) &amp; IF(L4="x", 0, L4) &amp; IF(M4="x", 0, M4) &amp; IF(N4="x", 0, N4) &amp;  IF(O4="x", 0, O4) &amp; IF(P4="x", 0, P4) &amp; IF(Q4="x", 0, Q4) &amp; IF(R4="x", 0, R4), 2)</f>
-        <v>00</v>
-      </c>
-      <c r="AD4" s="14" t="str">
-        <f t="shared" ref="AD4:AD11" si="3">BIN2HEX(IF(S4="x", 0, S4) &amp; IF(T4="x", 0, T4) &amp; IF(U4="x", 0, U4) &amp; IF(V4="x", 0, V4) &amp; IF(W4="x", 0, W4) &amp; IF(X4="x", 0, X4) &amp; IF(Y4="x", 0, Y4) &amp; IF(Z4="x", 0, Z4), 2)</f>
-        <v>00</v>
-      </c>
-      <c r="AM4" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>00</v>
+      </c>
+      <c r="AL4" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>C00000</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="30" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2">
@@ -1973,21 +1974,21 @@
         <v>0</v>
       </c>
       <c r="O5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="2">
         <v>1</v>
       </c>
-      <c r="Q5" s="5">
-        <v>0</v>
-      </c>
-      <c r="R5" s="5">
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
         <v>0</v>
       </c>
       <c r="S5" s="2">
         <v>0</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="47">
         <v>0</v>
       </c>
       <c r="U5" s="2" t="s">
@@ -2008,29 +2009,28 @@
       <c r="Z5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AA5" s="2"/>
+      <c r="AA5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
       <c r="AB5" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>04</v>
       </c>
       <c r="AC5" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>0C</v>
-      </c>
-      <c r="AD5" s="14" t="str">
+        <v>00</v>
+      </c>
+      <c r="AL5" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
-      </c>
-      <c r="AM5" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>600C00</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+        <v>600400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2">
@@ -2075,16 +2075,16 @@
       <c r="P6" s="2">
         <v>0</v>
       </c>
-      <c r="Q6" s="5">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5">
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
         <v>0</v>
       </c>
       <c r="S6" s="2">
         <v>0</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="47">
         <v>0</v>
       </c>
       <c r="U6" s="2" t="s">
@@ -2105,30 +2105,29 @@
       <c r="Z6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AA6" s="2"/>
+      <c r="AA6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>5E</v>
+      </c>
       <c r="AB6" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>5E</v>
+        <v>00</v>
       </c>
       <c r="AC6" s="13" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="AD6" s="14" t="str">
+      <c r="AL6" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
-      </c>
-      <c r="AM6" s="9" t="str">
-        <f t="shared" si="0"/>
         <v>5E0000</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>50</v>
+      <c r="B7" s="31" t="s">
+        <v>269</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -2172,16 +2171,16 @@
       <c r="P7" s="2">
         <v>0</v>
       </c>
-      <c r="Q7" s="5">
-        <v>0</v>
-      </c>
-      <c r="R7" s="5">
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
         <v>0</v>
       </c>
       <c r="S7" s="2">
         <v>0</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="47">
         <v>0</v>
       </c>
       <c r="U7" s="2" t="s">
@@ -2202,29 +2201,28 @@
       <c r="Z7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AA7" s="2"/>
+      <c r="AA7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>4F</v>
+      </c>
       <c r="AB7" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>4F</v>
+        <v>00</v>
       </c>
       <c r="AC7" s="13" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="AD7" s="14" t="str">
+      <c r="AL7" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
-      </c>
-      <c r="AM7" s="9" t="str">
-        <f t="shared" si="0"/>
         <v>4F0000</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="30" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2">
@@ -2269,16 +2267,16 @@
       <c r="P8" s="2">
         <v>0</v>
       </c>
-      <c r="Q8" s="5">
-        <v>0</v>
-      </c>
-      <c r="R8" s="5">
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
         <v>0</v>
       </c>
       <c r="S8" s="2">
         <v>0</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="47">
         <v>0</v>
       </c>
       <c r="U8" s="2" t="s">
@@ -2299,29 +2297,28 @@
       <c r="Z8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AA8" s="2"/>
+      <c r="AA8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
       <c r="AB8" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
+        <v>40</v>
       </c>
       <c r="AC8" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="AD8" s="14" t="str">
+        <v>00</v>
+      </c>
+      <c r="AL8" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
-      </c>
-      <c r="AM8" s="9" t="str">
-        <f t="shared" si="0"/>
         <v>004000</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="2">
@@ -2366,16 +2363,16 @@
       <c r="P9" s="2">
         <v>0</v>
       </c>
-      <c r="Q9" s="5">
-        <v>0</v>
-      </c>
-      <c r="R9" s="5">
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
         <v>0</v>
       </c>
       <c r="S9" s="2">
         <v>0</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T9" s="47">
         <v>0</v>
       </c>
       <c r="U9" s="2" t="s">
@@ -2396,292 +2393,288 @@
       <c r="Z9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AA9" s="2"/>
+      <c r="AA9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
       <c r="AB9" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
+        <v>60</v>
       </c>
       <c r="AC9" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="AD9" s="14" t="str">
+        <v>00</v>
+      </c>
+      <c r="AL9" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
-      </c>
-      <c r="AM9" s="9" t="str">
+        <v>006000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33">
+        <v>7</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="33">
+        <v>0</v>
+      </c>
+      <c r="D10" s="33">
+        <v>0</v>
+      </c>
+      <c r="E10" s="33">
+        <v>0</v>
+      </c>
+      <c r="F10" s="33">
+        <v>0</v>
+      </c>
+      <c r="G10" s="33">
+        <v>0</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="33">
+        <v>0</v>
+      </c>
+      <c r="J10" s="33">
+        <v>0</v>
+      </c>
+      <c r="K10" s="33">
+        <v>0</v>
+      </c>
+      <c r="L10" s="33">
+        <v>1</v>
+      </c>
+      <c r="M10" s="33">
+        <v>0</v>
+      </c>
+      <c r="N10" s="33">
+        <v>0</v>
+      </c>
+      <c r="O10" s="33">
+        <v>0</v>
+      </c>
+      <c r="P10" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="33">
+        <v>1</v>
+      </c>
+      <c r="R10" s="8">
+        <v>0</v>
+      </c>
+      <c r="S10" s="33">
+        <v>0</v>
+      </c>
+      <c r="T10" s="47">
+        <v>0</v>
+      </c>
+      <c r="U10" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="V10" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="W10" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="X10" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y10" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z10" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA10" s="35" t="str">
         <f t="shared" si="0"/>
-        <v>006000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40">
-        <v>7</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="40">
-        <v>0</v>
-      </c>
-      <c r="D10" s="40">
-        <v>0</v>
-      </c>
-      <c r="E10" s="40">
-        <v>0</v>
-      </c>
-      <c r="F10" s="40">
-        <v>0</v>
-      </c>
-      <c r="G10" s="40">
-        <v>0</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="40">
-        <v>0</v>
-      </c>
-      <c r="J10" s="40">
-        <v>0</v>
-      </c>
-      <c r="K10" s="40">
-        <v>0</v>
-      </c>
-      <c r="L10" s="40">
-        <v>1</v>
-      </c>
-      <c r="M10" s="40">
-        <v>0</v>
-      </c>
-      <c r="N10" s="40">
-        <v>0</v>
-      </c>
-      <c r="O10" s="40">
-        <v>0</v>
-      </c>
-      <c r="P10" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="40">
-        <v>1</v>
-      </c>
-      <c r="R10" s="9">
-        <v>0</v>
-      </c>
-      <c r="S10" s="40">
-        <v>0</v>
-      </c>
-      <c r="T10" s="40">
-        <v>0</v>
-      </c>
-      <c r="U10" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="V10" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="W10" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="X10" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y10" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z10" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="42" t="str">
+        <v>00</v>
+      </c>
+      <c r="AB10" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="AC10" s="43" t="str">
+        <v>42</v>
+      </c>
+      <c r="AC10" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="AD10" s="44" t="str">
+        <v>00</v>
+      </c>
+      <c r="AL10" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
-      </c>
-      <c r="AM10" s="9" t="str">
+        <v>004200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33">
+        <v>8</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="33">
+        <v>0</v>
+      </c>
+      <c r="D11" s="33">
+        <v>0</v>
+      </c>
+      <c r="E11" s="33">
+        <v>0</v>
+      </c>
+      <c r="F11" s="33">
+        <v>0</v>
+      </c>
+      <c r="G11" s="33">
+        <v>0</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="33">
+        <v>0</v>
+      </c>
+      <c r="J11" s="33">
+        <v>0</v>
+      </c>
+      <c r="K11" s="33">
+        <v>0</v>
+      </c>
+      <c r="L11" s="33">
+        <v>1</v>
+      </c>
+      <c r="M11" s="33">
+        <v>1</v>
+      </c>
+      <c r="N11" s="33">
+        <v>0</v>
+      </c>
+      <c r="O11" s="33">
+        <v>0</v>
+      </c>
+      <c r="P11" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="33">
+        <v>1</v>
+      </c>
+      <c r="R11" s="8">
+        <v>0</v>
+      </c>
+      <c r="S11" s="33">
+        <v>0</v>
+      </c>
+      <c r="T11" s="47">
+        <v>0</v>
+      </c>
+      <c r="U11" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="V11" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="W11" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="X11" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y11" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z11" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA11" s="35" t="str">
         <f t="shared" si="0"/>
-        <v>004200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40">
-        <v>8</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="40">
-        <v>0</v>
-      </c>
-      <c r="D11" s="40">
-        <v>0</v>
-      </c>
-      <c r="E11" s="40">
-        <v>0</v>
-      </c>
-      <c r="F11" s="40">
-        <v>0</v>
-      </c>
-      <c r="G11" s="40">
-        <v>0</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="40">
-        <v>0</v>
-      </c>
-      <c r="J11" s="40">
-        <v>0</v>
-      </c>
-      <c r="K11" s="40">
-        <v>0</v>
-      </c>
-      <c r="L11" s="40">
-        <v>1</v>
-      </c>
-      <c r="M11" s="40">
-        <v>1</v>
-      </c>
-      <c r="N11" s="40">
-        <v>0</v>
-      </c>
-      <c r="O11" s="40">
-        <v>0</v>
-      </c>
-      <c r="P11" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="40">
-        <v>1</v>
-      </c>
-      <c r="R11" s="9">
-        <v>0</v>
-      </c>
-      <c r="S11" s="40">
-        <v>0</v>
-      </c>
-      <c r="T11" s="40">
-        <v>0</v>
-      </c>
-      <c r="U11" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="V11" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="W11" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="X11" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y11" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z11" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA11" s="40"/>
-      <c r="AB11" s="42" t="str">
+        <v>00</v>
+      </c>
+      <c r="AB11" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="AC11" s="43" t="str">
+        <v>62</v>
+      </c>
+      <c r="AC11" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
-      <c r="AD11" s="44" t="str">
+        <v>00</v>
+      </c>
+      <c r="AL11" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
-      </c>
-      <c r="AM11" s="9" t="str">
+        <v>006200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33">
+        <v>9</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="8">
+        <v>0</v>
+      </c>
+      <c r="R12" s="8">
+        <v>1</v>
+      </c>
+      <c r="S12" s="33">
+        <v>0</v>
+      </c>
+      <c r="T12" s="47">
+        <v>0</v>
+      </c>
+      <c r="U12" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="V12" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="W12" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="X12" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y12" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z12" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA12" s="35" t="str">
         <f t="shared" si="0"/>
-        <v>006200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40">
-        <v>9</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="9">
-        <v>0</v>
-      </c>
-      <c r="R12" s="9">
-        <v>1</v>
-      </c>
-      <c r="S12" s="40">
-        <v>0</v>
-      </c>
-      <c r="T12" s="40">
-        <v>0</v>
-      </c>
-      <c r="U12" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="V12" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="W12" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="X12" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y12" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z12" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA12" s="40"/>
-      <c r="AB12" s="42" t="str">
-        <f t="shared" ref="AB12" si="4">BIN2HEX(IF(C12="x", 0, C12) &amp; IF(D12="x", 0, D12) &amp; IF(E12="x", 0, E12) &amp; IF(F12="x", 0, F12) &amp; IF(G12="x", 0, G12) &amp; IF(H12="x", 0, H12) &amp; IF(I12="x", 0, I12) &amp; IF(J12="x", 0, J12), 2)</f>
-        <v>00</v>
-      </c>
-      <c r="AC12" s="43" t="str">
-        <f t="shared" ref="AC12" si="5">BIN2HEX(IF(K12="x", 0, K12) &amp; IF(L12="x", 0, L12) &amp; IF(M12="x", 0, M12) &amp; IF(N12="x", 0, N12) &amp;  IF(O12="x", 0, O12) &amp; IF(P12="x", 0, P12) &amp; IF(Q12="x", 0, Q12) &amp; IF(R12="x", 0, R12), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AB12" s="36" t="str">
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
-      <c r="AD12" s="44" t="str">
-        <f t="shared" ref="AD12" si="6">BIN2HEX(IF(S12="x", 0, S12) &amp; IF(T12="x", 0, T12) &amp; IF(U12="x", 0, U12) &amp; IF(V12="x", 0, V12) &amp; IF(W12="x", 0, W12) &amp; IF(X12="x", 0, X12) &amp; IF(Y12="x", 0, Y12) &amp; IF(Z12="x", 0, Z12), 2)</f>
-        <v>00</v>
-      </c>
-      <c r="AM12" s="9" t="str">
-        <f>AB12 &amp; AC12 &amp; AD12</f>
+      <c r="AC12" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>00</v>
+      </c>
+      <c r="AL12" s="8" t="str">
+        <f>AA12 &amp; AB12 &amp; AC12</f>
         <v>000100</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="30" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="2">
@@ -2720,22 +2713,22 @@
       <c r="N13">
         <v>1</v>
       </c>
-      <c r="O13" s="4">
-        <v>1</v>
-      </c>
-      <c r="P13" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>0</v>
-      </c>
-      <c r="R13" s="5">
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
         <v>0</v>
       </c>
       <c r="S13" s="2">
         <v>0</v>
       </c>
-      <c r="T13" s="2">
+      <c r="T13" s="47">
         <v>0</v>
       </c>
       <c r="U13" s="2" t="s">
@@ -2756,30 +2749,32 @@
       <c r="Z13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AA13" s="2"/>
+      <c r="AA13" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="AB13" s="12" t="str">
-        <f t="shared" ref="AB13:AB14" si="7">BIN2HEX(IF(C13="x", 0, C13) &amp; IF(D13="x", 0, D13) &amp; IF(E13="x", 0, E13) &amp; IF(F13="x", 0, F13) &amp; IF(G13="x", 0, G13) &amp; IF(H13="x", 0, H13) &amp; IF(I13="x", 0, I13) &amp; IF(J13="x", 0, J13), 2)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="AC13" s="13" t="str">
-        <f t="shared" ref="AC13:AC14" si="8">BIN2HEX(IF(K13="x", 0, K13) &amp; IF(L13="x", 0, L13) &amp; IF(M13="x", 0, M13) &amp; IF(N13="x", 0, N13) &amp;  IF(O13="x", 0, O13) &amp; IF(P13="x", 0, P13) &amp; IF(Q13="x", 0, Q13) &amp; IF(R13="x", 0, R13), 2)</f>
-        <v>1C</v>
-      </c>
-      <c r="AD13" s="14" t="str">
-        <f t="shared" ref="AD13:AD14" si="9">BIN2HEX(IF(S13="x", 0, S13) &amp; IF(T13="x", 0, T13) &amp; IF(U13="x", 0, U13) &amp; IF(V13="x", 0, V13) &amp; IF(W13="x", 0, W13) &amp; IF(X13="x", 0, X13) &amp; IF(Y13="x", 0, Y13) &amp; IF(Z13="x", 0, Z13), 2)</f>
-        <v>00</v>
-      </c>
-      <c r="AM13" s="9" t="str">
-        <f t="shared" ref="AM13:AM44" si="10">AB13 &amp; AC13 &amp; AD13</f>
-        <v>181C00</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>00</v>
+      </c>
+      <c r="AE13" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="AL13" s="8" t="str">
+        <f t="shared" ref="AL13:AL44" si="4">AA13 &amp; AB13 &amp; AC13</f>
+        <v>181800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>51</v>
+      <c r="B14" s="30" t="s">
+        <v>276</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -2817,22 +2812,22 @@
       <c r="N14">
         <v>1</v>
       </c>
-      <c r="O14" s="4">
-        <v>0</v>
-      </c>
-      <c r="P14" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>0</v>
-      </c>
-      <c r="R14" s="5">
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
         <v>0</v>
       </c>
       <c r="S14" s="2">
         <v>0</v>
       </c>
-      <c r="T14" s="2">
+      <c r="T14" s="47">
         <v>0</v>
       </c>
       <c r="U14" s="2" t="s">
@@ -2853,261 +2848,256 @@
       <c r="Z14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AA14" s="2"/>
+      <c r="AA14" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>09</v>
+      </c>
       <c r="AB14" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>09</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AC14" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>00</v>
+      </c>
+      <c r="AL14" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>091000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33">
+        <v>12</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="S15" s="33">
+        <v>0</v>
+      </c>
+      <c r="T15" s="47">
+        <v>0</v>
+      </c>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="35" t="str">
+        <f t="shared" ref="AA15" si="5">BIN2HEX(IF(C15="x", 0, C15) &amp; IF(D15="x", 0, D15) &amp; IF(E15="x", 0, E15) &amp; IF(F15="x", 0, F15) &amp; IF(G15="x", 0, G15) &amp; IF(H15="x", 0, H15) &amp; IF(I15="x", 0, I15) &amp; IF(J15="x", 0, J15), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AB15" s="36" t="str">
+        <f t="shared" ref="AB15" si="6">BIN2HEX(IF(K15="x", 0, K15) &amp; IF(L15="x", 0, L15) &amp; IF(M15="x", 0, M15) &amp; IF(N15="x", 0, N15) &amp;  IF(O15="x", 0, O15) &amp; IF(P15="x", 0, P15) &amp; IF(Q15="x", 0, Q15) &amp; IF(R15="x", 0, R15), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AC15" s="37" t="str">
+        <f t="shared" ref="AC15" si="7">BIN2HEX(IF(S15="x", 0, S15) &amp; IF(T15="x", 0, T15) &amp; IF(U15="x", 0, U15) &amp; IF(V15="x", 0, V15) &amp; IF(W15="x", 0, W15) &amp; IF(X15="x", 0, X15) &amp; IF(Y15="x", 0, Y15) &amp; IF(Z15="x", 0, Z15), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AL15" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33">
+        <v>13</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="S16" s="33">
+        <v>0</v>
+      </c>
+      <c r="T16" s="47">
+        <v>0</v>
+      </c>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="35" t="str">
+        <f t="shared" ref="AA16:AA19" si="8">BIN2HEX(IF(C16="x", 0, C16) &amp; IF(D16="x", 0, D16) &amp; IF(E16="x", 0, E16) &amp; IF(F16="x", 0, F16) &amp; IF(G16="x", 0, G16) &amp; IF(H16="x", 0, H16) &amp; IF(I16="x", 0, I16) &amp; IF(J16="x", 0, J16), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AB16" s="36" t="str">
+        <f t="shared" ref="AB16:AB19" si="9">BIN2HEX(IF(K16="x", 0, K16) &amp; IF(L16="x", 0, L16) &amp; IF(M16="x", 0, M16) &amp; IF(N16="x", 0, N16) &amp;  IF(O16="x", 0, O16) &amp; IF(P16="x", 0, P16) &amp; IF(Q16="x", 0, Q16) &amp; IF(R16="x", 0, R16), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AC16" s="37" t="str">
+        <f t="shared" ref="AC16:AC19" si="10">BIN2HEX(IF(S16="x", 0, S16) &amp; IF(T16="x", 0, T16) &amp; IF(U16="x", 0, U16) &amp; IF(V16="x", 0, V16) &amp; IF(W16="x", 0, W16) &amp; IF(X16="x", 0, X16) &amp; IF(Y16="x", 0, Y16) &amp; IF(Z16="x", 0, Z16), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AL16" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33">
+        <v>14</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="S17" s="33">
+        <v>0</v>
+      </c>
+      <c r="T17" s="47">
+        <v>0</v>
+      </c>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="35" t="str">
         <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="AD14" s="14" t="str">
+        <v>00</v>
+      </c>
+      <c r="AB17" s="36" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="AM14" s="9" t="str">
+      <c r="AC17" s="37" t="str">
         <f t="shared" si="10"/>
-        <v>091000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40">
-        <v>12</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="S15" s="40">
-        <v>0</v>
-      </c>
-      <c r="T15" s="40">
-        <v>0</v>
-      </c>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="42" t="str">
-        <f t="shared" ref="AB15" si="11">BIN2HEX(IF(C15="x", 0, C15) &amp; IF(D15="x", 0, D15) &amp; IF(E15="x", 0, E15) &amp; IF(F15="x", 0, F15) &amp; IF(G15="x", 0, G15) &amp; IF(H15="x", 0, H15) &amp; IF(I15="x", 0, I15) &amp; IF(J15="x", 0, J15), 2)</f>
-        <v>00</v>
-      </c>
-      <c r="AC15" s="43" t="str">
-        <f t="shared" ref="AC15" si="12">BIN2HEX(IF(K15="x", 0, K15) &amp; IF(L15="x", 0, L15) &amp; IF(M15="x", 0, M15) &amp; IF(N15="x", 0, N15) &amp;  IF(O15="x", 0, O15) &amp; IF(P15="x", 0, P15) &amp; IF(Q15="x", 0, Q15) &amp; IF(R15="x", 0, R15), 2)</f>
-        <v>00</v>
-      </c>
-      <c r="AD15" s="44" t="str">
-        <f t="shared" ref="AD15" si="13">BIN2HEX(IF(S15="x", 0, S15) &amp; IF(T15="x", 0, T15) &amp; IF(U15="x", 0, U15) &amp; IF(V15="x", 0, V15) &amp; IF(W15="x", 0, W15) &amp; IF(X15="x", 0, X15) &amp; IF(Y15="x", 0, Y15) &amp; IF(Z15="x", 0, Z15), 2)</f>
-        <v>00</v>
-      </c>
-      <c r="AM15" s="9" t="str">
+        <v>00</v>
+      </c>
+      <c r="AL17" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="33">
+        <v>15</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="S18" s="33">
+        <v>0</v>
+      </c>
+      <c r="T18" s="47">
+        <v>0</v>
+      </c>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="35" t="str">
+        <f t="shared" si="8"/>
+        <v>00</v>
+      </c>
+      <c r="AB18" s="36" t="str">
+        <f t="shared" si="9"/>
+        <v>00</v>
+      </c>
+      <c r="AC18" s="37" t="str">
         <f t="shared" si="10"/>
+        <v>00</v>
+      </c>
+      <c r="AL18" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="16" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40">
-        <v>13</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="S16" s="40">
-        <v>0</v>
-      </c>
-      <c r="T16" s="40">
-        <v>0</v>
-      </c>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="42" t="str">
-        <f t="shared" ref="AB16:AB19" si="14">BIN2HEX(IF(C16="x", 0, C16) &amp; IF(D16="x", 0, D16) &amp; IF(E16="x", 0, E16) &amp; IF(F16="x", 0, F16) &amp; IF(G16="x", 0, G16) &amp; IF(H16="x", 0, H16) &amp; IF(I16="x", 0, I16) &amp; IF(J16="x", 0, J16), 2)</f>
-        <v>00</v>
-      </c>
-      <c r="AC16" s="43" t="str">
-        <f t="shared" ref="AC16:AC19" si="15">BIN2HEX(IF(K16="x", 0, K16) &amp; IF(L16="x", 0, L16) &amp; IF(M16="x", 0, M16) &amp; IF(N16="x", 0, N16) &amp;  IF(O16="x", 0, O16) &amp; IF(P16="x", 0, P16) &amp; IF(Q16="x", 0, Q16) &amp; IF(R16="x", 0, R16), 2)</f>
-        <v>00</v>
-      </c>
-      <c r="AD16" s="44" t="str">
-        <f t="shared" ref="AD16:AD19" si="16">BIN2HEX(IF(S16="x", 0, S16) &amp; IF(T16="x", 0, T16) &amp; IF(U16="x", 0, U16) &amp; IF(V16="x", 0, V16) &amp; IF(W16="x", 0, W16) &amp; IF(X16="x", 0, X16) &amp; IF(Y16="x", 0, Y16) &amp; IF(Z16="x", 0, Z16), 2)</f>
-        <v>00</v>
-      </c>
-      <c r="AM16" s="9" t="str">
+    <row r="19" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="33">
+        <v>16</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="O19" s="8">
+        <v>0</v>
+      </c>
+      <c r="P19" s="8">
+        <v>0</v>
+      </c>
+      <c r="S19" s="8">
+        <v>0</v>
+      </c>
+      <c r="T19" s="47">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="35" t="str">
+        <f t="shared" si="8"/>
+        <v>00</v>
+      </c>
+      <c r="AB19" s="36" t="str">
+        <f t="shared" si="9"/>
+        <v>00</v>
+      </c>
+      <c r="AC19" s="37" t="str">
         <f t="shared" si="10"/>
+        <v>00</v>
+      </c>
+      <c r="AE19" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL19" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="17" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40">
-        <v>14</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="S17" s="40">
-        <v>0</v>
-      </c>
-      <c r="T17" s="40">
-        <v>0</v>
-      </c>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>00</v>
-      </c>
-      <c r="AC17" s="43" t="str">
-        <f t="shared" si="15"/>
-        <v>00</v>
-      </c>
-      <c r="AD17" s="44" t="str">
-        <f t="shared" si="16"/>
-        <v>00</v>
-      </c>
-      <c r="AM17" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v>000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40">
-        <v>15</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="S18" s="40">
-        <v>0</v>
-      </c>
-      <c r="T18" s="40">
-        <v>0</v>
-      </c>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="40"/>
-      <c r="AA18" s="40"/>
-      <c r="AB18" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>00</v>
-      </c>
-      <c r="AC18" s="43" t="str">
-        <f t="shared" si="15"/>
-        <v>00</v>
-      </c>
-      <c r="AD18" s="44" t="str">
-        <f t="shared" si="16"/>
-        <v>00</v>
-      </c>
-      <c r="AM18" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v>000000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40">
-        <v>16</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="O19" s="9">
-        <v>0</v>
-      </c>
-      <c r="P19" s="9">
-        <v>0</v>
-      </c>
-      <c r="S19" s="9">
-        <v>0</v>
-      </c>
-      <c r="T19" s="40">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>00</v>
-      </c>
-      <c r="AC19" s="43" t="str">
-        <f t="shared" si="15"/>
-        <v>00</v>
-      </c>
-      <c r="AD19" s="44" t="str">
-        <f t="shared" si="16"/>
-        <v>00</v>
-      </c>
-      <c r="AF19" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="AM19" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v>000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="38" t="s">
-        <v>180</v>
+      <c r="B20" s="31" t="s">
+        <v>165</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3151,16 +3141,16 @@
       <c r="P20">
         <v>0</v>
       </c>
-      <c r="Q20" s="5">
-        <v>0</v>
-      </c>
-      <c r="R20" s="5">
+      <c r="Q20" s="4">
+        <v>0</v>
+      </c>
+      <c r="R20" s="4">
         <v>0</v>
       </c>
       <c r="S20">
         <v>1</v>
       </c>
-      <c r="T20" s="2">
+      <c r="T20" s="47">
         <v>0</v>
       </c>
       <c r="U20" s="2" t="s">
@@ -3181,491 +3171,491 @@
       <c r="Z20" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="AA20" s="11" t="str">
+        <f t="shared" ref="AA20" si="11">BIN2HEX(IF(C20="x", 0, C20) &amp; IF(D20="x", 0, D20) &amp; IF(E20="x", 0, E20) &amp; IF(F20="x", 0, F20) &amp; IF(G20="x", 0, G20) &amp; IF(H20="x", 0, H20) &amp; IF(I20="x", 0, I20) &amp; IF(J20="x", 0, J20), 2)</f>
+        <v>00</v>
+      </c>
       <c r="AB20" s="12" t="str">
-        <f t="shared" ref="AB20" si="17">BIN2HEX(IF(C20="x", 0, C20) &amp; IF(D20="x", 0, D20) &amp; IF(E20="x", 0, E20) &amp; IF(F20="x", 0, F20) &amp; IF(G20="x", 0, G20) &amp; IF(H20="x", 0, H20) &amp; IF(I20="x", 0, I20) &amp; IF(J20="x", 0, J20), 2)</f>
+        <f t="shared" ref="AB20" si="12">BIN2HEX(IF(K20="x", 0, K20) &amp; IF(L20="x", 0, L20) &amp; IF(M20="x", 0, M20) &amp; IF(N20="x", 0, N20) &amp;  IF(O20="x", 0, O20) &amp; IF(P20="x", 0, P20) &amp; IF(Q20="x", 0, Q20) &amp; IF(R20="x", 0, R20), 2)</f>
         <v>00</v>
       </c>
       <c r="AC20" s="13" t="str">
-        <f t="shared" ref="AC20" si="18">BIN2HEX(IF(K20="x", 0, K20) &amp; IF(L20="x", 0, L20) &amp; IF(M20="x", 0, M20) &amp; IF(N20="x", 0, N20) &amp;  IF(O20="x", 0, O20) &amp; IF(P20="x", 0, P20) &amp; IF(Q20="x", 0, Q20) &amp; IF(R20="x", 0, R20), 2)</f>
-        <v>00</v>
-      </c>
-      <c r="AD20" s="14" t="str">
-        <f t="shared" ref="AD20" si="19">BIN2HEX(IF(S20="x", 0, S20) &amp; IF(T20="x", 0, T20) &amp; IF(U20="x", 0, U20) &amp; IF(V20="x", 0, V20) &amp; IF(W20="x", 0, W20) &amp; IF(X20="x", 0, X20) &amp; IF(Y20="x", 0, Y20) &amp; IF(Z20="x", 0, Z20), 2)</f>
+        <f t="shared" ref="AC20" si="13">BIN2HEX(IF(S20="x", 0, S20) &amp; IF(T20="x", 0, T20) &amp; IF(U20="x", 0, U20) &amp; IF(V20="x", 0, V20) &amp; IF(W20="x", 0, W20) &amp; IF(X20="x", 0, X20) &amp; IF(Y20="x", 0, Y20) &amp; IF(Z20="x", 0, Z20), 2)</f>
         <v>80</v>
       </c>
-      <c r="AF20" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM20" s="9" t="str">
-        <f t="shared" si="10"/>
+      <c r="AE20" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL20" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>000080</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="T21" s="2"/>
+      <c r="B21" s="31"/>
+      <c r="T21" s="47"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
+      <c r="AA21" s="11" t="str">
+        <f t="shared" ref="AA21:AA34" si="14">BIN2HEX(IF(C21="x", 0, C21) &amp; IF(D21="x", 0, D21) &amp; IF(E21="x", 0, E21) &amp; IF(F21="x", 0, F21) &amp; IF(G21="x", 0, G21) &amp; IF(H21="x", 0, H21) &amp; IF(I21="x", 0, I21) &amp; IF(J21="x", 0, J21), 2)</f>
+        <v>00</v>
+      </c>
       <c r="AB21" s="12" t="str">
-        <f t="shared" ref="AB21:AB34" si="20">BIN2HEX(IF(C21="x", 0, C21) &amp; IF(D21="x", 0, D21) &amp; IF(E21="x", 0, E21) &amp; IF(F21="x", 0, F21) &amp; IF(G21="x", 0, G21) &amp; IF(H21="x", 0, H21) &amp; IF(I21="x", 0, I21) &amp; IF(J21="x", 0, J21), 2)</f>
+        <f t="shared" ref="AB21:AB34" si="15">BIN2HEX(IF(K21="x", 0, K21) &amp; IF(L21="x", 0, L21) &amp; IF(M21="x", 0, M21) &amp; IF(N21="x", 0, N21) &amp;  IF(O21="x", 0, O21) &amp; IF(P21="x", 0, P21) &amp; IF(Q21="x", 0, Q21) &amp; IF(R21="x", 0, R21), 2)</f>
         <v>00</v>
       </c>
       <c r="AC21" s="13" t="str">
-        <f t="shared" ref="AC21:AC34" si="21">BIN2HEX(IF(K21="x", 0, K21) &amp; IF(L21="x", 0, L21) &amp; IF(M21="x", 0, M21) &amp; IF(N21="x", 0, N21) &amp;  IF(O21="x", 0, O21) &amp; IF(P21="x", 0, P21) &amp; IF(Q21="x", 0, Q21) &amp; IF(R21="x", 0, R21), 2)</f>
-        <v>00</v>
-      </c>
-      <c r="AD21" s="14" t="str">
-        <f t="shared" ref="AD21:AD34" si="22">BIN2HEX(IF(S21="x", 0, S21) &amp; IF(T21="x", 0, T21) &amp; IF(U21="x", 0, U21) &amp; IF(V21="x", 0, V21) &amp; IF(W21="x", 0, W21) &amp; IF(X21="x", 0, X21) &amp; IF(Y21="x", 0, Y21) &amp; IF(Z21="x", 0, Z21), 2)</f>
-        <v>00</v>
-      </c>
-      <c r="AM21" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="AC21:AC34" si="16">BIN2HEX(IF(S21="x", 0, S21) &amp; IF(T21="x", 0, T21) &amp; IF(U21="x", 0, U21) &amp; IF(V21="x", 0, V21) &amp; IF(W21="x", 0, W21) &amp; IF(X21="x", 0, X21) &amp; IF(Y21="x", 0, Y21) &amp; IF(Z21="x", 0, Z21), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AL21" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="T22" s="2"/>
+      <c r="B22" s="31"/>
+      <c r="T22" s="47"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
+      <c r="AA22" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>00</v>
+      </c>
       <c r="AB22" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>00</v>
       </c>
       <c r="AC22" s="13" t="str">
-        <f t="shared" si="21"/>
-        <v>00</v>
-      </c>
-      <c r="AD22" s="14" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="AM22" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
+        <v>00</v>
+      </c>
+      <c r="AL22" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="T23" s="2"/>
+      <c r="B23" s="31"/>
+      <c r="T23" s="47"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
+      <c r="AA23" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>00</v>
+      </c>
       <c r="AB23" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>00</v>
       </c>
       <c r="AC23" s="13" t="str">
-        <f t="shared" si="21"/>
-        <v>00</v>
-      </c>
-      <c r="AD23" s="14" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="AM23" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
+        <v>00</v>
+      </c>
+      <c r="AL23" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="T24" s="2"/>
+      <c r="B24" s="31"/>
+      <c r="T24" s="47"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
+      <c r="AA24" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>00</v>
+      </c>
       <c r="AB24" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>00</v>
       </c>
       <c r="AC24" s="13" t="str">
-        <f t="shared" si="21"/>
-        <v>00</v>
-      </c>
-      <c r="AD24" s="14" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="AM24" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
+        <v>00</v>
+      </c>
+      <c r="AL24" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="T25" s="2"/>
+      <c r="B25" s="31"/>
+      <c r="T25" s="47"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
+      <c r="AA25" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>00</v>
+      </c>
       <c r="AB25" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>00</v>
       </c>
       <c r="AC25" s="13" t="str">
-        <f t="shared" si="21"/>
-        <v>00</v>
-      </c>
-      <c r="AD25" s="14" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="AM25" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
+        <v>00</v>
+      </c>
+      <c r="AL25" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="T26" s="2"/>
+      <c r="B26" s="31"/>
+      <c r="T26" s="47"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
+      <c r="AA26" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>00</v>
+      </c>
       <c r="AB26" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>00</v>
       </c>
       <c r="AC26" s="13" t="str">
-        <f t="shared" si="21"/>
-        <v>00</v>
-      </c>
-      <c r="AD26" s="14" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="AM26" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
+        <v>00</v>
+      </c>
+      <c r="AL26" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="T27" s="2"/>
+      <c r="B27" s="31"/>
+      <c r="T27" s="47"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
+      <c r="AA27" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>00</v>
+      </c>
       <c r="AB27" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>00</v>
       </c>
       <c r="AC27" s="13" t="str">
-        <f t="shared" si="21"/>
-        <v>00</v>
-      </c>
-      <c r="AD27" s="14" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="AM27" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
+        <v>00</v>
+      </c>
+      <c r="AL27" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="T28" s="2"/>
+      <c r="B28" s="31"/>
+      <c r="T28" s="47"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
+      <c r="AA28" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>00</v>
+      </c>
       <c r="AB28" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>00</v>
       </c>
       <c r="AC28" s="13" t="str">
-        <f t="shared" si="21"/>
-        <v>00</v>
-      </c>
-      <c r="AD28" s="14" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="AM28" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
+        <v>00</v>
+      </c>
+      <c r="AL28" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="T29" s="2"/>
+      <c r="B29" s="31"/>
+      <c r="T29" s="47"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
+      <c r="AA29" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>00</v>
+      </c>
       <c r="AB29" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>00</v>
       </c>
       <c r="AC29" s="13" t="str">
-        <f t="shared" si="21"/>
-        <v>00</v>
-      </c>
-      <c r="AD29" s="14" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="AM29" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
+        <v>00</v>
+      </c>
+      <c r="AL29" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="T30" s="2"/>
+      <c r="B30" s="31"/>
+      <c r="T30" s="47"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
+      <c r="AA30" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>00</v>
+      </c>
       <c r="AB30" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>00</v>
       </c>
       <c r="AC30" s="13" t="str">
-        <f t="shared" si="21"/>
-        <v>00</v>
-      </c>
-      <c r="AD30" s="14" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="AM30" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
+        <v>00</v>
+      </c>
+      <c r="AL30" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="T31" s="2"/>
+      <c r="B31" s="31"/>
+      <c r="T31" s="47"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
+      <c r="AA31" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>00</v>
+      </c>
       <c r="AB31" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>00</v>
       </c>
       <c r="AC31" s="13" t="str">
-        <f t="shared" si="21"/>
-        <v>00</v>
-      </c>
-      <c r="AD31" s="14" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="AM31" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
+        <v>00</v>
+      </c>
+      <c r="AL31" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="T32" s="2"/>
+      <c r="B32" s="31"/>
+      <c r="T32" s="47"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
+      <c r="AA32" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>00</v>
+      </c>
       <c r="AB32" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>00</v>
       </c>
       <c r="AC32" s="13" t="str">
-        <f t="shared" si="21"/>
-        <v>00</v>
-      </c>
-      <c r="AD32" s="14" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="AM32" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
+        <v>00</v>
+      </c>
+      <c r="AL32" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>30</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="T33" s="2"/>
+      <c r="B33" s="31"/>
+      <c r="T33" s="47"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
+      <c r="AA33" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>00</v>
+      </c>
       <c r="AB33" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>00</v>
       </c>
       <c r="AC33" s="13" t="str">
-        <f t="shared" si="21"/>
-        <v>00</v>
-      </c>
-      <c r="AD33" s="14" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="AM33" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
+        <v>00</v>
+      </c>
+      <c r="AL33" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>31</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="T34" s="2"/>
+      <c r="B34" s="31"/>
+      <c r="T34" s="47"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
+      <c r="AA34" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>00</v>
+      </c>
       <c r="AB34" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>00</v>
       </c>
       <c r="AC34" s="13" t="str">
-        <f t="shared" si="21"/>
-        <v>00</v>
-      </c>
-      <c r="AD34" s="14" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="AM34" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
+        <v>00</v>
+      </c>
+      <c r="AL34" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>32</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="7">
-        <v>0</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1</v>
-      </c>
-      <c r="E35" s="7">
-        <v>0</v>
-      </c>
-      <c r="F35" s="7">
-        <v>0</v>
-      </c>
-      <c r="G35" s="7">
-        <v>0</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="7">
-        <v>0</v>
-      </c>
-      <c r="J35" s="7">
-        <v>0</v>
-      </c>
-      <c r="K35" s="7">
-        <v>1</v>
-      </c>
-      <c r="L35" s="7">
-        <v>0</v>
-      </c>
-      <c r="M35" s="7">
-        <v>0</v>
-      </c>
-      <c r="N35" s="7">
-        <v>0</v>
-      </c>
-      <c r="O35" s="7">
-        <v>1</v>
-      </c>
-      <c r="P35" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="5">
-        <v>0</v>
-      </c>
-      <c r="R35" s="5">
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="6">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6">
+        <v>0</v>
+      </c>
+      <c r="K35" s="6">
+        <v>1</v>
+      </c>
+      <c r="L35" s="6">
+        <v>0</v>
+      </c>
+      <c r="M35" s="6">
+        <v>0</v>
+      </c>
+      <c r="N35" s="6">
+        <v>0</v>
+      </c>
+      <c r="O35" s="6">
+        <v>1</v>
+      </c>
+      <c r="P35" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>0</v>
+      </c>
+      <c r="R35" s="4">
         <v>0</v>
       </c>
       <c r="S35" s="2">
         <v>0</v>
       </c>
-      <c r="T35" s="2">
+      <c r="T35" s="47">
         <v>0</v>
       </c>
       <c r="U35" s="2">
@@ -3686,86 +3676,85 @@
       <c r="Z35" s="2">
         <v>1</v>
       </c>
-      <c r="AA35" s="2"/>
+      <c r="AA35" s="11" t="str">
+        <f t="shared" ref="AA35:AA40" si="17">BIN2HEX(IF(C35="x", 0, C35) &amp; IF(D35="x", 0, D35) &amp; IF(E35="x", 0, E35) &amp; IF(F35="x", 0, F35) &amp; IF(G35="x", 0, G35) &amp; IF(H35="x", 0, H35) &amp; IF(I35="x", 0, I35) &amp; IF(J35="x", 0, J35), 2)</f>
+        <v>40</v>
+      </c>
       <c r="AB35" s="12" t="str">
-        <f>BIN2HEX(IF(C35="x", 0, C35) &amp; IF(D35="x", 0, D35) &amp; IF(E35="x", 0, E35) &amp; IF(F35="x", 0, F35) &amp; IF(G35="x", 0, G35) &amp; IF(H35="x", 0, H35) &amp; IF(I35="x", 0, I35) &amp; IF(J35="x", 0, J35), 2)</f>
-        <v>40</v>
+        <f t="shared" ref="AB35:AB40" si="18">BIN2HEX(IF(K35="x", 0, K35) &amp; IF(L35="x", 0, L35) &amp; IF(M35="x", 0, M35) &amp; IF(N35="x", 0, N35) &amp;  IF(O35="x", 0, O35) &amp; IF(P35="x", 0, P35) &amp; IF(Q35="x", 0, Q35) &amp; IF(R35="x", 0, R35), 2)</f>
+        <v>88</v>
       </c>
       <c r="AC35" s="13" t="str">
-        <f>BIN2HEX(IF(K35="x", 0, K35) &amp; IF(L35="x", 0, L35) &amp; IF(M35="x", 0, M35) &amp; IF(N35="x", 0, N35) &amp;  IF(O35="x", 0, O35) &amp; IF(P35="x", 0, P35) &amp; IF(Q35="x", 0, Q35) &amp; IF(R35="x", 0, R35), 2)</f>
-        <v>88</v>
-      </c>
-      <c r="AD35" s="14" t="str">
-        <f>BIN2HEX(IF(S35="x", 0, S35) &amp; IF(T35="x", 0, T35) &amp; IF(U35="x", 0, U35) &amp; IF(V35="x", 0, V35) &amp; IF(W35="x", 0, W35) &amp; IF(X35="x", 0, X35) &amp; IF(Y35="x", 0, Y35) &amp; IF(Z35="x", 0, Z35), 2)</f>
+        <f t="shared" ref="AC35:AC40" si="19">BIN2HEX(IF(S35="x", 0, S35) &amp; IF(T35="x", 0, T35) &amp; IF(U35="x", 0, U35) &amp; IF(V35="x", 0, V35) &amp; IF(W35="x", 0, W35) &amp; IF(X35="x", 0, X35) &amp; IF(Y35="x", 0, Y35) &amp; IF(Z35="x", 0, Z35), 2)</f>
         <v>25</v>
       </c>
-      <c r="AF35" t="s">
-        <v>273</v>
-      </c>
-      <c r="AM35" s="9" t="str">
-        <f t="shared" si="10"/>
+      <c r="AE35" t="s">
+        <v>257</v>
+      </c>
+      <c r="AL35" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>408825</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>33</v>
       </c>
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="7">
-        <v>0</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1</v>
-      </c>
-      <c r="E36" s="7">
-        <v>0</v>
-      </c>
-      <c r="F36" s="7">
-        <v>0</v>
-      </c>
-      <c r="G36" s="7">
-        <v>0</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="7">
-        <v>0</v>
-      </c>
-      <c r="K36" s="7">
-        <v>1</v>
-      </c>
-      <c r="L36" s="7">
-        <v>0</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0</v>
-      </c>
-      <c r="N36" s="7">
-        <v>0</v>
-      </c>
-      <c r="O36" s="7">
-        <v>1</v>
-      </c>
-      <c r="P36" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="5">
-        <v>0</v>
-      </c>
-      <c r="R36" s="5">
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6">
+        <v>0</v>
+      </c>
+      <c r="K36" s="6">
+        <v>1</v>
+      </c>
+      <c r="L36" s="6">
+        <v>0</v>
+      </c>
+      <c r="M36" s="6">
+        <v>0</v>
+      </c>
+      <c r="N36" s="6">
+        <v>0</v>
+      </c>
+      <c r="O36" s="6">
+        <v>1</v>
+      </c>
+      <c r="P36" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>0</v>
+      </c>
+      <c r="R36" s="4">
         <v>0</v>
       </c>
       <c r="S36" s="2">
         <v>0</v>
       </c>
-      <c r="T36" s="2">
+      <c r="T36" s="47">
         <v>0</v>
       </c>
       <c r="U36" s="2">
@@ -3786,86 +3775,85 @@
       <c r="Z36" s="2">
         <v>0</v>
       </c>
-      <c r="AA36" s="2"/>
+      <c r="AA36" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>40</v>
+      </c>
       <c r="AB36" s="12" t="str">
-        <f>BIN2HEX(IF(C36="x", 0, C36) &amp; IF(D36="x", 0, D36) &amp; IF(E36="x", 0, E36) &amp; IF(F36="x", 0, F36) &amp; IF(G36="x", 0, G36) &amp; IF(H36="x", 0, H36) &amp; IF(I36="x", 0, I36) &amp; IF(J36="x", 0, J36), 2)</f>
-        <v>40</v>
+        <f t="shared" si="18"/>
+        <v>88</v>
       </c>
       <c r="AC36" s="13" t="str">
-        <f>BIN2HEX(IF(K36="x", 0, K36) &amp; IF(L36="x", 0, L36) &amp; IF(M36="x", 0, M36) &amp; IF(N36="x", 0, N36) &amp;  IF(O36="x", 0, O36) &amp; IF(P36="x", 0, P36) &amp; IF(Q36="x", 0, Q36) &amp; IF(R36="x", 0, R36), 2)</f>
-        <v>88</v>
-      </c>
-      <c r="AD36" s="14" t="str">
-        <f>BIN2HEX(IF(S36="x", 0, S36) &amp; IF(T36="x", 0, T36) &amp; IF(U36="x", 0, U36) &amp; IF(V36="x", 0, V36) &amp; IF(W36="x", 0, W36) &amp; IF(X36="x", 0, X36) &amp; IF(Y36="x", 0, Y36) &amp; IF(Z36="x", 0, Z36), 2)</f>
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
-      <c r="AF36" t="s">
-        <v>274</v>
-      </c>
-      <c r="AM36" s="9" t="str">
-        <f t="shared" si="10"/>
+      <c r="AE36" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL36" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>408818</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>34</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="7">
-        <v>0</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1</v>
-      </c>
-      <c r="E37" s="7">
-        <v>0</v>
-      </c>
-      <c r="F37" s="7">
-        <v>0</v>
-      </c>
-      <c r="G37" s="7">
-        <v>0</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7">
-        <v>0</v>
-      </c>
-      <c r="K37" s="7">
-        <v>1</v>
-      </c>
-      <c r="L37" s="7">
-        <v>0</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0</v>
-      </c>
-      <c r="N37" s="7">
-        <v>0</v>
-      </c>
-      <c r="O37" s="7">
-        <v>1</v>
-      </c>
-      <c r="P37" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="5">
-        <v>0</v>
-      </c>
-      <c r="R37" s="5">
+      <c r="C37" s="6">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0</v>
+      </c>
+      <c r="J37" s="6">
+        <v>0</v>
+      </c>
+      <c r="K37" s="6">
+        <v>1</v>
+      </c>
+      <c r="L37" s="6">
+        <v>0</v>
+      </c>
+      <c r="M37" s="6">
+        <v>0</v>
+      </c>
+      <c r="N37" s="6">
+        <v>0</v>
+      </c>
+      <c r="O37" s="6">
+        <v>1</v>
+      </c>
+      <c r="P37" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>0</v>
+      </c>
+      <c r="R37" s="4">
         <v>0</v>
       </c>
       <c r="S37" s="2">
         <v>0</v>
       </c>
-      <c r="T37" s="2">
+      <c r="T37" s="47">
         <v>0</v>
       </c>
       <c r="U37" s="2">
@@ -3886,83 +3874,82 @@
       <c r="Z37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AA37" s="2"/>
+      <c r="AA37" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>40</v>
+      </c>
       <c r="AB37" s="12" t="str">
-        <f>BIN2HEX(IF(C37="x", 0, C37) &amp; IF(D37="x", 0, D37) &amp; IF(E37="x", 0, E37) &amp; IF(F37="x", 0, F37) &amp; IF(G37="x", 0, G37) &amp; IF(H37="x", 0, H37) &amp; IF(I37="x", 0, I37) &amp; IF(J37="x", 0, J37), 2)</f>
-        <v>40</v>
+        <f t="shared" si="18"/>
+        <v>88</v>
       </c>
       <c r="AC37" s="13" t="str">
-        <f>BIN2HEX(IF(K37="x", 0, K37) &amp; IF(L37="x", 0, L37) &amp; IF(M37="x", 0, M37) &amp; IF(N37="x", 0, N37) &amp;  IF(O37="x", 0, O37) &amp; IF(P37="x", 0, P37) &amp; IF(Q37="x", 0, Q37) &amp; IF(R37="x", 0, R37), 2)</f>
-        <v>88</v>
-      </c>
-      <c r="AD37" s="14" t="str">
-        <f>BIN2HEX(IF(S37="x", 0, S37) &amp; IF(T37="x", 0, T37) &amp; IF(U37="x", 0, U37) &amp; IF(V37="x", 0, V37) &amp; IF(W37="x", 0, W37) &amp; IF(X37="x", 0, X37) &amp; IF(Y37="x", 0, Y37) &amp; IF(Z37="x", 0, Z37), 2)</f>
+        <f t="shared" si="19"/>
         <v>02</v>
       </c>
-      <c r="AM37" s="9" t="str">
-        <f t="shared" si="10"/>
+      <c r="AL37" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>408802</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>35</v>
       </c>
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="7">
-        <v>0</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1</v>
-      </c>
-      <c r="E38" s="7">
-        <v>0</v>
-      </c>
-      <c r="F38" s="7">
-        <v>0</v>
-      </c>
-      <c r="G38" s="7">
-        <v>0</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="7">
-        <v>0</v>
-      </c>
-      <c r="J38" s="7">
-        <v>0</v>
-      </c>
-      <c r="K38" s="7">
-        <v>1</v>
-      </c>
-      <c r="L38" s="7">
-        <v>0</v>
-      </c>
-      <c r="M38" s="7">
-        <v>0</v>
-      </c>
-      <c r="N38" s="7">
-        <v>0</v>
-      </c>
-      <c r="O38" s="7">
-        <v>1</v>
-      </c>
-      <c r="P38" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="5">
-        <v>0</v>
-      </c>
-      <c r="R38" s="5">
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0</v>
+      </c>
+      <c r="J38" s="6">
+        <v>0</v>
+      </c>
+      <c r="K38" s="6">
+        <v>1</v>
+      </c>
+      <c r="L38" s="6">
+        <v>0</v>
+      </c>
+      <c r="M38" s="6">
+        <v>0</v>
+      </c>
+      <c r="N38" s="6">
+        <v>0</v>
+      </c>
+      <c r="O38" s="6">
+        <v>1</v>
+      </c>
+      <c r="P38" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>0</v>
+      </c>
+      <c r="R38" s="4">
         <v>0</v>
       </c>
       <c r="S38" s="2">
         <v>0</v>
       </c>
-      <c r="T38" s="2">
+      <c r="T38" s="47">
         <v>0</v>
       </c>
       <c r="U38" s="2">
@@ -3983,83 +3970,82 @@
       <c r="Z38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AA38" s="2"/>
+      <c r="AA38" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>40</v>
+      </c>
       <c r="AB38" s="12" t="str">
-        <f>BIN2HEX(IF(C38="x", 0, C38) &amp; IF(D38="x", 0, D38) &amp; IF(E38="x", 0, E38) &amp; IF(F38="x", 0, F38) &amp; IF(G38="x", 0, G38) &amp; IF(H38="x", 0, H38) &amp; IF(I38="x", 0, I38) &amp; IF(J38="x", 0, J38), 2)</f>
-        <v>40</v>
+        <f t="shared" si="18"/>
+        <v>88</v>
       </c>
       <c r="AC38" s="13" t="str">
-        <f>BIN2HEX(IF(K38="x", 0, K38) &amp; IF(L38="x", 0, L38) &amp; IF(M38="x", 0, M38) &amp; IF(N38="x", 0, N38) &amp;  IF(O38="x", 0, O38) &amp; IF(P38="x", 0, P38) &amp; IF(Q38="x", 0, Q38) &amp; IF(R38="x", 0, R38), 2)</f>
-        <v>88</v>
-      </c>
-      <c r="AD38" s="14" t="str">
-        <f>BIN2HEX(IF(S38="x", 0, S38) &amp; IF(T38="x", 0, T38) &amp; IF(U38="x", 0, U38) &amp; IF(V38="x", 0, V38) &amp; IF(W38="x", 0, W38) &amp; IF(X38="x", 0, X38) &amp; IF(Y38="x", 0, Y38) &amp; IF(Z38="x", 0, Z38), 2)</f>
+        <f t="shared" si="19"/>
         <v>2E</v>
       </c>
-      <c r="AM38" s="9" t="str">
-        <f t="shared" si="10"/>
+      <c r="AL38" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>40882E</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>36</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="7">
-        <v>0</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1</v>
-      </c>
-      <c r="E39" s="7">
-        <v>0</v>
-      </c>
-      <c r="F39" s="7">
-        <v>0</v>
-      </c>
-      <c r="G39" s="7">
-        <v>0</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" s="7">
-        <v>0</v>
-      </c>
-      <c r="J39" s="7">
-        <v>0</v>
-      </c>
-      <c r="K39" s="7">
-        <v>1</v>
-      </c>
-      <c r="L39" s="7">
-        <v>0</v>
-      </c>
-      <c r="M39" s="7">
-        <v>0</v>
-      </c>
-      <c r="N39" s="7">
-        <v>0</v>
-      </c>
-      <c r="O39" s="7">
-        <v>1</v>
-      </c>
-      <c r="P39" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="5">
-        <v>0</v>
-      </c>
-      <c r="R39" s="5">
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0</v>
+      </c>
+      <c r="J39" s="6">
+        <v>0</v>
+      </c>
+      <c r="K39" s="6">
+        <v>1</v>
+      </c>
+      <c r="L39" s="6">
+        <v>0</v>
+      </c>
+      <c r="M39" s="6">
+        <v>0</v>
+      </c>
+      <c r="N39" s="6">
+        <v>0</v>
+      </c>
+      <c r="O39" s="6">
+        <v>1</v>
+      </c>
+      <c r="P39" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>0</v>
+      </c>
+      <c r="R39" s="4">
         <v>0</v>
       </c>
       <c r="S39" s="2">
         <v>0</v>
       </c>
-      <c r="T39" s="2">
+      <c r="T39" s="47">
         <v>0</v>
       </c>
       <c r="U39" s="2">
@@ -4080,83 +4066,82 @@
       <c r="Z39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AA39" s="2"/>
+      <c r="AA39" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>40</v>
+      </c>
       <c r="AB39" s="12" t="str">
-        <f>BIN2HEX(IF(C39="x", 0, C39) &amp; IF(D39="x", 0, D39) &amp; IF(E39="x", 0, E39) &amp; IF(F39="x", 0, F39) &amp; IF(G39="x", 0, G39) &amp; IF(H39="x", 0, H39) &amp; IF(I39="x", 0, I39) &amp; IF(J39="x", 0, J39), 2)</f>
-        <v>40</v>
+        <f t="shared" si="18"/>
+        <v>88</v>
       </c>
       <c r="AC39" s="13" t="str">
-        <f>BIN2HEX(IF(K39="x", 0, K39) &amp; IF(L39="x", 0, L39) &amp; IF(M39="x", 0, M39) &amp; IF(N39="x", 0, N39) &amp;  IF(O39="x", 0, O39) &amp; IF(P39="x", 0, P39) &amp; IF(Q39="x", 0, Q39) &amp; IF(R39="x", 0, R39), 2)</f>
-        <v>88</v>
-      </c>
-      <c r="AD39" s="14" t="str">
-        <f>BIN2HEX(IF(S39="x", 0, S39) &amp; IF(T39="x", 0, T39) &amp; IF(U39="x", 0, U39) &amp; IF(V39="x", 0, V39) &amp; IF(W39="x", 0, W39) &amp; IF(X39="x", 0, X39) &amp; IF(Y39="x", 0, Y39) &amp; IF(Z39="x", 0, Z39), 2)</f>
+        <f t="shared" si="19"/>
         <v>3A</v>
       </c>
-      <c r="AM39" s="9" t="str">
-        <f t="shared" si="10"/>
+      <c r="AL39" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>40883A</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>37</v>
       </c>
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="7">
-        <v>0</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1</v>
-      </c>
-      <c r="E40" s="7">
-        <v>0</v>
-      </c>
-      <c r="F40" s="7">
-        <v>0</v>
-      </c>
-      <c r="G40" s="7">
-        <v>0</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" s="7">
-        <v>0</v>
-      </c>
-      <c r="J40" s="7">
-        <v>0</v>
-      </c>
-      <c r="K40" s="7">
-        <v>1</v>
-      </c>
-      <c r="L40" s="7">
-        <v>0</v>
-      </c>
-      <c r="M40" s="7">
-        <v>0</v>
-      </c>
-      <c r="N40" s="7">
-        <v>0</v>
-      </c>
-      <c r="O40" s="7">
-        <v>1</v>
-      </c>
-      <c r="P40" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="5">
-        <v>0</v>
-      </c>
-      <c r="R40" s="5">
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0</v>
+      </c>
+      <c r="J40" s="6">
+        <v>0</v>
+      </c>
+      <c r="K40" s="6">
+        <v>1</v>
+      </c>
+      <c r="L40" s="6">
+        <v>0</v>
+      </c>
+      <c r="M40" s="6">
+        <v>0</v>
+      </c>
+      <c r="N40" s="6">
+        <v>0</v>
+      </c>
+      <c r="O40" s="6">
+        <v>1</v>
+      </c>
+      <c r="P40" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>0</v>
+      </c>
+      <c r="R40" s="4">
         <v>0</v>
       </c>
       <c r="S40" s="2">
         <v>0</v>
       </c>
-      <c r="T40" s="2">
+      <c r="T40" s="47">
         <v>0</v>
       </c>
       <c r="U40" s="2">
@@ -4177,83 +4162,82 @@
       <c r="Z40" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AA40" s="2"/>
+      <c r="AA40" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>40</v>
+      </c>
       <c r="AB40" s="12" t="str">
-        <f>BIN2HEX(IF(C40="x", 0, C40) &amp; IF(D40="x", 0, D40) &amp; IF(E40="x", 0, E40) &amp; IF(F40="x", 0, F40) &amp; IF(G40="x", 0, G40) &amp; IF(H40="x", 0, H40) &amp; IF(I40="x", 0, I40) &amp; IF(J40="x", 0, J40), 2)</f>
-        <v>40</v>
+        <f t="shared" si="18"/>
+        <v>88</v>
       </c>
       <c r="AC40" s="13" t="str">
-        <f>BIN2HEX(IF(K40="x", 0, K40) &amp; IF(L40="x", 0, L40) &amp; IF(M40="x", 0, M40) &amp; IF(N40="x", 0, N40) &amp;  IF(O40="x", 0, O40) &amp; IF(P40="x", 0, P40) &amp; IF(Q40="x", 0, Q40) &amp; IF(R40="x", 0, R40), 2)</f>
-        <v>88</v>
-      </c>
-      <c r="AD40" s="14" t="str">
-        <f>BIN2HEX(IF(S40="x", 0, S40) &amp; IF(T40="x", 0, T40) &amp; IF(U40="x", 0, U40) &amp; IF(V40="x", 0, V40) &amp; IF(W40="x", 0, W40) &amp; IF(X40="x", 0, X40) &amp; IF(Y40="x", 0, Y40) &amp; IF(Z40="x", 0, Z40), 2)</f>
+        <f t="shared" si="19"/>
         <v>1A</v>
       </c>
-      <c r="AM40" s="9" t="str">
-        <f t="shared" si="10"/>
+      <c r="AL40" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>40881A</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>38</v>
       </c>
-      <c r="B41" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="C41" s="7">
-        <v>0</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1</v>
-      </c>
-      <c r="E41" s="7">
-        <v>0</v>
-      </c>
-      <c r="F41" s="7">
-        <v>0</v>
-      </c>
-      <c r="G41" s="7">
-        <v>0</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="7">
-        <v>0</v>
-      </c>
-      <c r="J41" s="7">
-        <v>0</v>
-      </c>
-      <c r="K41" s="7">
-        <v>1</v>
-      </c>
-      <c r="L41" s="7">
-        <v>0</v>
-      </c>
-      <c r="M41" s="7">
-        <v>0</v>
-      </c>
-      <c r="N41" s="7">
-        <v>0</v>
-      </c>
-      <c r="O41" s="7">
-        <v>1</v>
-      </c>
-      <c r="P41" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="5">
-        <v>0</v>
-      </c>
-      <c r="R41" s="5">
+      <c r="B41" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6">
+        <v>1</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6">
+        <v>0</v>
+      </c>
+      <c r="K41" s="6">
+        <v>1</v>
+      </c>
+      <c r="L41" s="6">
+        <v>0</v>
+      </c>
+      <c r="M41" s="6">
+        <v>0</v>
+      </c>
+      <c r="N41" s="6">
+        <v>0</v>
+      </c>
+      <c r="O41" s="6">
+        <v>1</v>
+      </c>
+      <c r="P41" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>0</v>
+      </c>
+      <c r="R41" s="4">
         <v>0</v>
       </c>
       <c r="S41" s="2">
         <v>0</v>
       </c>
-      <c r="T41" s="2">
+      <c r="T41" s="47">
         <v>0</v>
       </c>
       <c r="U41" s="2">
@@ -4274,83 +4258,82 @@
       <c r="Z41" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AA41" s="2"/>
+      <c r="AA41" s="11" t="str">
+        <f t="shared" ref="AA41:AA44" si="20">BIN2HEX(IF(C41="x", 0, C41) &amp; IF(D41="x", 0, D41) &amp; IF(E41="x", 0, E41) &amp; IF(F41="x", 0, F41) &amp; IF(G41="x", 0, G41) &amp; IF(H41="x", 0, H41) &amp; IF(I41="x", 0, I41) &amp; IF(J41="x", 0, J41), 2)</f>
+        <v>40</v>
+      </c>
       <c r="AB41" s="12" t="str">
-        <f t="shared" ref="AB41:AB44" si="23">BIN2HEX(IF(C41="x", 0, C41) &amp; IF(D41="x", 0, D41) &amp; IF(E41="x", 0, E41) &amp; IF(F41="x", 0, F41) &amp; IF(G41="x", 0, G41) &amp; IF(H41="x", 0, H41) &amp; IF(I41="x", 0, I41) &amp; IF(J41="x", 0, J41), 2)</f>
-        <v>40</v>
+        <f t="shared" ref="AB41:AB44" si="21">BIN2HEX(IF(K41="x", 0, K41) &amp; IF(L41="x", 0, L41) &amp; IF(M41="x", 0, M41) &amp; IF(N41="x", 0, N41) &amp;  IF(O41="x", 0, O41) &amp; IF(P41="x", 0, P41) &amp; IF(Q41="x", 0, Q41) &amp; IF(R41="x", 0, R41), 2)</f>
+        <v>88</v>
       </c>
       <c r="AC41" s="13" t="str">
-        <f t="shared" ref="AC41:AC44" si="24">BIN2HEX(IF(K41="x", 0, K41) &amp; IF(L41="x", 0, L41) &amp; IF(M41="x", 0, M41) &amp; IF(N41="x", 0, N41) &amp;  IF(O41="x", 0, O41) &amp; IF(P41="x", 0, P41) &amp; IF(Q41="x", 0, Q41) &amp; IF(R41="x", 0, R41), 2)</f>
-        <v>88</v>
-      </c>
-      <c r="AD41" s="14" t="str">
-        <f t="shared" ref="AD41:AD44" si="25">BIN2HEX(IF(S41="x", 0, S41) &amp; IF(T41="x", 0, T41) &amp; IF(U41="x", 0, U41) &amp; IF(V41="x", 0, V41) &amp; IF(W41="x", 0, W41) &amp; IF(X41="x", 0, X41) &amp; IF(Y41="x", 0, Y41) &amp; IF(Z41="x", 0, Z41), 2)</f>
+        <f t="shared" ref="AC41:AC44" si="22">BIN2HEX(IF(S41="x", 0, S41) &amp; IF(T41="x", 0, T41) &amp; IF(U41="x", 0, U41) &amp; IF(V41="x", 0, V41) &amp; IF(W41="x", 0, W41) &amp; IF(X41="x", 0, X41) &amp; IF(Y41="x", 0, Y41) &amp; IF(Z41="x", 0, Z41), 2)</f>
         <v>06</v>
       </c>
-      <c r="AM41" s="9" t="str">
-        <f t="shared" si="10"/>
+      <c r="AL41" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>408806</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>39</v>
       </c>
-      <c r="B42" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="C42" s="7">
-        <v>0</v>
-      </c>
-      <c r="D42" s="7">
-        <v>1</v>
-      </c>
-      <c r="E42" s="7">
-        <v>0</v>
-      </c>
-      <c r="F42" s="7">
-        <v>0</v>
-      </c>
-      <c r="G42" s="7">
-        <v>0</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" s="7">
-        <v>0</v>
-      </c>
-      <c r="J42" s="7">
-        <v>0</v>
-      </c>
-      <c r="K42" s="7">
-        <v>1</v>
-      </c>
-      <c r="L42" s="7">
-        <v>0</v>
-      </c>
-      <c r="M42" s="7">
-        <v>0</v>
-      </c>
-      <c r="N42" s="7">
-        <v>0</v>
-      </c>
-      <c r="O42" s="7">
-        <v>1</v>
-      </c>
-      <c r="P42" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="5">
-        <v>0</v>
-      </c>
-      <c r="R42" s="5">
+      <c r="B42" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6">
+        <v>1</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0</v>
+      </c>
+      <c r="J42" s="6">
+        <v>0</v>
+      </c>
+      <c r="K42" s="6">
+        <v>1</v>
+      </c>
+      <c r="L42" s="6">
+        <v>0</v>
+      </c>
+      <c r="M42" s="6">
+        <v>0</v>
+      </c>
+      <c r="N42" s="6">
+        <v>0</v>
+      </c>
+      <c r="O42" s="6">
+        <v>1</v>
+      </c>
+      <c r="P42" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>0</v>
+      </c>
+      <c r="R42" s="4">
         <v>0</v>
       </c>
       <c r="S42" s="2">
         <v>0</v>
       </c>
-      <c r="T42" s="2">
+      <c r="T42" s="47">
         <v>0</v>
       </c>
       <c r="U42" s="2">
@@ -4371,83 +4354,82 @@
       <c r="Z42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AA42" s="2"/>
+      <c r="AA42" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v>40</v>
+      </c>
       <c r="AB42" s="12" t="str">
-        <f t="shared" si="23"/>
-        <v>40</v>
+        <f t="shared" si="21"/>
+        <v>88</v>
       </c>
       <c r="AC42" s="13" t="str">
-        <f t="shared" si="24"/>
-        <v>88</v>
-      </c>
-      <c r="AD42" s="14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>26</v>
       </c>
-      <c r="AM42" s="9" t="str">
-        <f t="shared" si="10"/>
+      <c r="AL42" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>408826</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>40</v>
       </c>
-      <c r="B43" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="C43" s="7">
-        <v>0</v>
-      </c>
-      <c r="D43" s="7">
-        <v>1</v>
-      </c>
-      <c r="E43" s="7">
-        <v>0</v>
-      </c>
-      <c r="F43" s="7">
-        <v>0</v>
-      </c>
-      <c r="G43" s="7">
-        <v>0</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" s="7">
-        <v>0</v>
-      </c>
-      <c r="J43" s="7">
-        <v>0</v>
-      </c>
-      <c r="K43" s="7">
-        <v>1</v>
-      </c>
-      <c r="L43" s="7">
-        <v>0</v>
-      </c>
-      <c r="M43" s="7">
-        <v>0</v>
-      </c>
-      <c r="N43" s="7">
-        <v>0</v>
-      </c>
-      <c r="O43" s="7">
-        <v>1</v>
-      </c>
-      <c r="P43" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="5">
-        <v>0</v>
-      </c>
-      <c r="R43" s="5">
+      <c r="B43" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0</v>
+      </c>
+      <c r="J43" s="6">
+        <v>0</v>
+      </c>
+      <c r="K43" s="6">
+        <v>1</v>
+      </c>
+      <c r="L43" s="6">
+        <v>0</v>
+      </c>
+      <c r="M43" s="6">
+        <v>0</v>
+      </c>
+      <c r="N43" s="6">
+        <v>0</v>
+      </c>
+      <c r="O43" s="6">
+        <v>1</v>
+      </c>
+      <c r="P43" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>0</v>
+      </c>
+      <c r="R43" s="4">
         <v>0</v>
       </c>
       <c r="S43" s="2">
         <v>0</v>
       </c>
-      <c r="T43" s="2">
+      <c r="T43" s="47">
         <v>0</v>
       </c>
       <c r="U43" s="2">
@@ -4468,83 +4450,82 @@
       <c r="Z43" s="2">
         <v>0</v>
       </c>
-      <c r="AA43" s="2"/>
+      <c r="AA43" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v>40</v>
+      </c>
       <c r="AB43" s="12" t="str">
-        <f t="shared" si="23"/>
-        <v>40</v>
+        <f t="shared" si="21"/>
+        <v>88</v>
       </c>
       <c r="AC43" s="13" t="str">
-        <f t="shared" si="24"/>
-        <v>88</v>
-      </c>
-      <c r="AD43" s="14" t="str">
-        <f t="shared" si="25"/>
-        <v>00</v>
-      </c>
-      <c r="AM43" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
+        <v>00</v>
+      </c>
+      <c r="AL43" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>408800</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>41</v>
       </c>
-      <c r="B44" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="C44" s="7">
-        <v>0</v>
-      </c>
-      <c r="D44" s="7">
-        <v>1</v>
-      </c>
-      <c r="E44" s="7">
-        <v>0</v>
-      </c>
-      <c r="F44" s="7">
-        <v>0</v>
-      </c>
-      <c r="G44" s="7">
-        <v>0</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44" s="7">
-        <v>0</v>
-      </c>
-      <c r="J44" s="7">
-        <v>0</v>
-      </c>
-      <c r="K44" s="7">
-        <v>1</v>
-      </c>
-      <c r="L44" s="7">
-        <v>0</v>
-      </c>
-      <c r="M44" s="7">
-        <v>0</v>
-      </c>
-      <c r="N44" s="7">
-        <v>0</v>
-      </c>
-      <c r="O44" s="7">
-        <v>1</v>
-      </c>
-      <c r="P44" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="5">
-        <v>0</v>
-      </c>
-      <c r="R44" s="5">
+      <c r="B44" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0</v>
+      </c>
+      <c r="D44" s="6">
+        <v>1</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6">
+        <v>0</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0</v>
+      </c>
+      <c r="K44" s="6">
+        <v>1</v>
+      </c>
+      <c r="L44" s="6">
+        <v>0</v>
+      </c>
+      <c r="M44" s="6">
+        <v>0</v>
+      </c>
+      <c r="N44" s="6">
+        <v>0</v>
+      </c>
+      <c r="O44" s="6">
+        <v>1</v>
+      </c>
+      <c r="P44" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>0</v>
+      </c>
+      <c r="R44" s="4">
         <v>0</v>
       </c>
       <c r="S44" s="2">
         <v>0</v>
       </c>
-      <c r="T44" s="2">
+      <c r="T44" s="47">
         <v>0</v>
       </c>
       <c r="U44" s="2">
@@ -4565,25 +4546,24 @@
       <c r="Z44" s="2">
         <v>1</v>
       </c>
-      <c r="AA44" s="2"/>
+      <c r="AA44" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v>40</v>
+      </c>
       <c r="AB44" s="12" t="str">
-        <f t="shared" si="23"/>
-        <v>40</v>
+        <f t="shared" si="21"/>
+        <v>88</v>
       </c>
       <c r="AC44" s="13" t="str">
-        <f t="shared" si="24"/>
-        <v>88</v>
-      </c>
-      <c r="AD44" s="14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>3D</v>
       </c>
-      <c r="AM44" s="9" t="str">
-        <f t="shared" si="10"/>
+      <c r="AL44" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>40883D</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>22</v>
       </c>
@@ -4591,8 +4571,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="B47" s="6" t="s">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B47" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C47" t="s">
@@ -4601,18 +4581,18 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
@@ -4626,10 +4606,10 @@
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52"/>
       <c r="B52" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="Q52"/>
       <c r="R52"/>
@@ -4637,10 +4617,10 @@
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53"/>
       <c r="B53" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C53" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="Q53"/>
       <c r="R53"/>
@@ -4648,17 +4628,17 @@
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54"/>
       <c r="B54" s="1" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C54" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="Q54"/>
       <c r="R54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AA2:AC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4677,145 +4657,145 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.109375" style="8"/>
+    <col min="2" max="5" width="9.109375" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>66</v>
+      <c r="D5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>66</v>
+      <c r="E6" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>63</v>
+      <c r="D7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
         <v>75</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="E9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
         <v>78</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4827,86 +4807,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W17" sqref="W17"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" style="17" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" style="16" customWidth="1"/>
     <col min="13" max="14" width="9.109375" style="2"/>
     <col min="15" max="15" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" style="18" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.44140625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>239</v>
+        <v>115</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>224</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q1" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="R1" s="25"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="11"/>
+        <v>233</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q1" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="R1" s="44"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="10"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="C2" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
       <c r="U2" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -4918,51 +4898,51 @@
         <v>0x000</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="12">
-        <v>1</v>
-      </c>
-      <c r="G3" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="11">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>42</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H5" si="0">IF(G3="", "", VLOOKUP(G3, $U$3:$V$10, 2))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3" s="17" t="str">
+      <c r="L3" s="16" t="str">
         <f>IF(F3="", "", TEXT(DEC2BIN(F3), "000000"))</f>
         <v>000001</v>
       </c>
-      <c r="M3" s="18" t="str">
+      <c r="M3" s="17" t="str">
         <f t="shared" ref="M3:N6" si="1">IF(H3="", "", TEXT(DEC2BIN(H3), "000"))</f>
-        <v>100</v>
-      </c>
-      <c r="N3" s="18" t="str">
+        <v>110</v>
+      </c>
+      <c r="N3" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O3" s="18" t="str">
+      <c r="O3" s="17" t="str">
         <f t="shared" ref="O3:P6" si="2">IF(J3="", "", TEXT(DEC2BIN(J3), "00000000"))</f>
         <v/>
       </c>
-      <c r="P3" s="19" t="str">
+      <c r="P3" s="18" t="str">
         <f t="shared" si="2"/>
         <v>00000001</v>
       </c>
       <c r="Q3" t="str">
         <f t="shared" ref="Q3:Q5" si="3">BIN2HEX(LEFT(CONCATENATE(L3,IF(M3="", "000", M3)), 8), 2)</f>
-        <v>06</v>
+        <v>07</v>
       </c>
       <c r="R3" t="str">
         <f>BIN2HEX(CONCATENATE(RIGHT(M3, 1), IF(N3 = "", "000", N3), "0000"), 2)</f>
         <v>00</v>
       </c>
-      <c r="S3" s="14" t="str">
+      <c r="S3" s="13" t="str">
         <f t="shared" ref="S3:S5" si="4">IF(O3="", BIN2HEX(P3, 2), BIN2HEX(O3,2))</f>
         <v>01</v>
       </c>
@@ -4982,15 +4962,15 @@
         <v>0x003</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="F4" s="12">
-        <v>1</v>
-      </c>
-      <c r="G4" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>38</v>
       </c>
       <c r="H4">
@@ -5000,23 +4980,23 @@
       <c r="K4">
         <v>32</v>
       </c>
-      <c r="L4" s="17" t="str">
+      <c r="L4" s="16" t="str">
         <f>IF(F4="", "", TEXT(DEC2BIN(F4), "000000"))</f>
         <v>000001</v>
       </c>
-      <c r="M4" s="18" t="str">
+      <c r="M4" s="17" t="str">
         <f t="shared" si="1"/>
         <v>000</v>
       </c>
-      <c r="N4" s="18" t="str">
+      <c r="N4" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O4" s="18" t="str">
+      <c r="O4" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P4" s="19" t="str">
+      <c r="P4" s="18" t="str">
         <f t="shared" si="2"/>
         <v>00100000</v>
       </c>
@@ -5028,7 +5008,7 @@
         <f>BIN2HEX(CONCATENATE(RIGHT(M4, 1), IF(N4 = "", "000", N4), "0000"), 2)</f>
         <v>00</v>
       </c>
-      <c r="S4" s="14" t="str">
+      <c r="S4" s="13" t="str">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
@@ -5048,13 +5028,13 @@
         <v>0x006</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="12">
+        <v>168</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="11">
         <v>32</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>38</v>
       </c>
       <c r="H5">
@@ -5062,25 +5042,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="L5" s="17" t="str">
+        <v>6</v>
+      </c>
+      <c r="L5" s="16" t="str">
         <f>IF(F5="", "", TEXT(DEC2BIN(F5), "000000"))</f>
         <v>100000</v>
       </c>
-      <c r="M5" s="18" t="str">
+      <c r="M5" s="17" t="str">
         <f t="shared" si="1"/>
         <v>000</v>
       </c>
-      <c r="N5" s="18" t="str">
+      <c r="N5" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="O5" s="18" t="str">
+        <v>110</v>
+      </c>
+      <c r="O5" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P5" s="19" t="str">
+      <c r="P5" s="18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5090,9 +5070,9 @@
       </c>
       <c r="R5" t="str">
         <f>BIN2HEX(CONCATENATE(RIGHT(M5, 1), IF(N5 = "", "000", N5), "0000"), 2)</f>
-        <v>40</v>
-      </c>
-      <c r="S5" s="14" t="str">
+        <v>60</v>
+      </c>
+      <c r="S5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
@@ -5100,7 +5080,7 @@
         <v>40</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -5112,10 +5092,10 @@
         <v>0x009</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="12">
+        <v>87</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="11">
         <v>5</v>
       </c>
       <c r="H6" t="str">
@@ -5125,23 +5105,23 @@
       <c r="J6">
         <v>6</v>
       </c>
-      <c r="L6" s="17" t="str">
+      <c r="L6" s="16" t="str">
         <f>IF(F6="", "", TEXT(DEC2BIN(F6), "000000"))</f>
         <v>000101</v>
       </c>
-      <c r="M6" s="18" t="str">
+      <c r="M6" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N6" s="18" t="str">
+      <c r="N6" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O6" s="18" t="str">
+      <c r="O6" s="17" t="str">
         <f t="shared" si="2"/>
         <v>00000110</v>
       </c>
-      <c r="P6" s="19" t="str">
+      <c r="P6" s="18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5153,7 +5133,7 @@
         <f>BIN2HEX(CONCATENATE(RIGHT(M6, 1), IF(N6 = "", "000", N6), "0000"), 2)</f>
         <v>00</v>
       </c>
-      <c r="S6" s="14" t="str">
+      <c r="S6" s="13" t="str">
         <f>IF(O6="", BIN2HEX(P6, 2), BIN2HEX(O6,2))</f>
         <v>06</v>
       </c>
@@ -5161,31 +5141,31 @@
         <v>41</v>
       </c>
       <c r="V6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E7" s="9"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
+      <c r="E7" s="8"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
       <c r="U7" t="s">
         <v>42</v>
       </c>
       <c r="V7">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C8" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="E8" s="9"/>
+      <c r="C8" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="8"/>
       <c r="U8" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="V8">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -5197,13 +5177,13 @@
         <v>0x000</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="12">
-        <v>1</v>
-      </c>
-      <c r="G9" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>38</v>
       </c>
       <c r="H9">
@@ -5213,23 +5193,23 @@
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9" s="17" t="str">
+      <c r="L9" s="16" t="str">
         <f>IF(F9="", "", TEXT(DEC2BIN(F9), "000000"))</f>
         <v>000001</v>
       </c>
-      <c r="M9" s="18" t="str">
+      <c r="M9" s="17" t="str">
         <f t="shared" ref="M9" si="7">IF(H9="", "", TEXT(DEC2BIN(H9), "000"))</f>
         <v>000</v>
       </c>
-      <c r="N9" s="18" t="str">
+      <c r="N9" s="17" t="str">
         <f t="shared" ref="N9" si="8">IF(I9="", "", TEXT(DEC2BIN(I9), "000"))</f>
         <v/>
       </c>
-      <c r="O9" s="18" t="str">
+      <c r="O9" s="17" t="str">
         <f t="shared" ref="O9" si="9">IF(J9="", "", TEXT(DEC2BIN(J9), "00000000"))</f>
         <v/>
       </c>
-      <c r="P9" s="19" t="str">
+      <c r="P9" s="18" t="str">
         <f t="shared" ref="P9" si="10">IF(K9="", "", TEXT(DEC2BIN(K9), "00000000"))</f>
         <v>00000000</v>
       </c>
@@ -5241,15 +5221,15 @@
         <f>BIN2HEX(CONCATENATE(RIGHT(M9, 1), IF(N9 = "", "000", N9), "0000"), 2)</f>
         <v>00</v>
       </c>
-      <c r="S9" s="14" t="str">
+      <c r="S9" s="13" t="str">
         <f t="shared" ref="S9" si="12">IF(O9="", BIN2HEX(P9, 2), BIN2HEX(O9,2))</f>
         <v>00</v>
       </c>
-      <c r="U9" t="s">
-        <v>256</v>
-      </c>
-      <c r="V9">
-        <v>6</v>
+      <c r="U9" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="V9" s="38">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -5261,35 +5241,35 @@
         <v>0x003</v>
       </c>
       <c r="C10" t="s">
-        <v>282</v>
-      </c>
-      <c r="F10" s="12">
+        <v>266</v>
+      </c>
+      <c r="F10" s="11">
         <v>40</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>38</v>
       </c>
       <c r="H10">
         <f t="shared" ref="H10" si="13">IF(G10="", "", VLOOKUP(G10, $U$3:$V$10, 2))</f>
         <v>0</v>
       </c>
-      <c r="L10" s="17" t="str">
+      <c r="L10" s="16" t="str">
         <f>IF(F10="", "", TEXT(DEC2BIN(F10), "000000"))</f>
         <v>101000</v>
       </c>
-      <c r="M10" s="18" t="str">
+      <c r="M10" s="17" t="str">
         <f t="shared" ref="M10:M11" si="14">IF(H10="", "", TEXT(DEC2BIN(H10), "000"))</f>
         <v>000</v>
       </c>
-      <c r="N10" s="18" t="str">
+      <c r="N10" s="17" t="str">
         <f t="shared" ref="N10:N11" si="15">IF(I10="", "", TEXT(DEC2BIN(I10), "000"))</f>
         <v/>
       </c>
-      <c r="O10" s="18" t="str">
+      <c r="O10" s="17" t="str">
         <f t="shared" ref="O10:O11" si="16">IF(J10="", "", TEXT(DEC2BIN(J10), "00000000"))</f>
         <v/>
       </c>
-      <c r="P10" s="19" t="str">
+      <c r="P10" s="18" t="str">
         <f t="shared" ref="P10:P11" si="17">IF(K10="", "", TEXT(DEC2BIN(K10), "00000000"))</f>
         <v/>
       </c>
@@ -5301,15 +5281,15 @@
         <f>BIN2HEX(CONCATENATE(RIGHT(M10, 1), IF(N10 = "", "000", N10), "0000"), 2)</f>
         <v>00</v>
       </c>
-      <c r="S10" s="14" t="str">
+      <c r="S10" s="13" t="str">
         <f t="shared" ref="S10" si="19">IF(O10="", BIN2HEX(P10, 2), BIN2HEX(O10,2))</f>
         <v>00</v>
       </c>
-      <c r="U10" t="s">
-        <v>257</v>
-      </c>
-      <c r="V10">
-        <v>7</v>
+      <c r="U10" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="V10" s="38">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -5321,9 +5301,9 @@
         <v>0x006</v>
       </c>
       <c r="C11" t="s">
-        <v>283</v>
-      </c>
-      <c r="F11" s="12">
+        <v>267</v>
+      </c>
+      <c r="F11" s="11">
         <v>5</v>
       </c>
       <c r="H11" t="str">
@@ -5333,23 +5313,23 @@
       <c r="J11">
         <v>3</v>
       </c>
-      <c r="L11" s="17" t="str">
+      <c r="L11" s="16" t="str">
         <f>IF(F11="", "", TEXT(DEC2BIN(F11), "000000"))</f>
         <v>000101</v>
       </c>
-      <c r="M11" s="18" t="str">
+      <c r="M11" s="17" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N11" s="18" t="str">
+      <c r="N11" s="17" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="O11" s="18" t="str">
+      <c r="O11" s="17" t="str">
         <f t="shared" si="16"/>
         <v>00000011</v>
       </c>
-      <c r="P11" s="19" t="str">
+      <c r="P11" s="18" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
@@ -5361,17 +5341,17 @@
         <f>BIN2HEX(CONCATENATE(RIGHT(M11, 1), IF(N11 = "", "000", N11), "0000"), 2)</f>
         <v>00</v>
       </c>
-      <c r="S11" s="14" t="str">
+      <c r="S11" s="13" t="str">
         <f>IF(O11="", BIN2HEX(P11, 2), BIN2HEX(O11,2))</f>
         <v>03</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C16" s="9" t="s">
-        <v>107</v>
+      <c r="C16" s="8" t="s">
+        <v>271</v>
       </c>
       <c r="U16" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="V16">
         <v>3</v>
@@ -5382,43 +5362,44 @@
         <v>0</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" ref="B17:B26" si="20">"0x" &amp; DEC2HEX(A17,3)</f>
+        <f t="shared" ref="B17:B21" si="20">"0x" &amp; DEC2HEX(A17,3)</f>
         <v>0x000</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="12">
-        <v>1</v>
+        <v>109</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <f t="shared" ref="H17:H19" si="21">IF(G17="", "", VLOOKUP(G17, $U$3:$V$10, 2))</f>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17" s="17" t="str">
+        <v>0</v>
+      </c>
+      <c r="L17" s="16" t="str">
         <f>IF(F17="", "", TEXT(DEC2BIN(F17), "000000"))</f>
         <v>000001</v>
       </c>
-      <c r="M17" s="18" t="str">
-        <f t="shared" ref="M17:N19" si="21">IF(H17="", "", TEXT(DEC2BIN(H17), "000"))</f>
-        <v>001</v>
-      </c>
-      <c r="N17" s="18" t="str">
-        <f t="shared" si="21"/>
+      <c r="M17" s="17" t="str">
+        <f t="shared" ref="M17:N19" si="22">IF(H17="", "", TEXT(DEC2BIN(H17), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="N17" s="17" t="str">
+        <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="O17" s="18" t="str">
-        <f t="shared" ref="O17:P19" si="22">IF(J17="", "", TEXT(DEC2BIN(J17), "00000000"))</f>
+      <c r="O17" s="17" t="str">
+        <f t="shared" ref="O17:P19" si="23">IF(J17="", "", TEXT(DEC2BIN(J17), "00000000"))</f>
         <v/>
       </c>
-      <c r="P17" s="19" t="str">
-        <f t="shared" si="22"/>
-        <v>00000001</v>
+      <c r="P17" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v>00000000</v>
       </c>
       <c r="Q17" t="str">
         <f>BIN2HEX(LEFT(CONCATENATE(L17,IF(M17="", "000", M17)), 8), 2)</f>
@@ -5426,20 +5407,20 @@
       </c>
       <c r="R17" t="str">
         <f>BIN2HEX(CONCATENATE(RIGHT(M17, 1), IF(N17 = "", "000", N17), "0000"), 2)</f>
-        <v>80</v>
-      </c>
-      <c r="S17" s="14" t="str">
+        <v>00</v>
+      </c>
+      <c r="S17" s="13" t="str">
         <f>IF(O17="", BIN2HEX(P17, 2), BIN2HEX(O17,2))</f>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="U17" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="V17">
         <v>1</v>
       </c>
       <c r="W17" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="X17">
         <f>VLOOKUP(W17,U16:V18,2)</f>
@@ -5455,54 +5436,55 @@
         <v>0x003</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="12">
-        <v>1</v>
+        <v>272</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" s="17" t="str">
+        <v>255</v>
+      </c>
+      <c r="L18" s="16" t="str">
         <f>IF(F18="", "", TEXT(DEC2BIN(F18), "000000"))</f>
         <v>000001</v>
       </c>
-      <c r="M18" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v>100</v>
-      </c>
-      <c r="N18" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="O18" s="18" t="str">
+      <c r="M18" s="17" t="str">
+        <f t="shared" si="22"/>
+        <v>001</v>
+      </c>
+      <c r="N18" s="17" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P18" s="19" t="str">
-        <f t="shared" si="22"/>
-        <v>00000000</v>
+      <c r="O18" s="17" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="P18" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v>11111111</v>
       </c>
       <c r="Q18" t="str">
         <f>BIN2HEX(LEFT(CONCATENATE(L18,IF(M18="", "000", M18)), 8), 2)</f>
-        <v>06</v>
+        <v>04</v>
       </c>
       <c r="R18" t="str">
         <f>BIN2HEX(CONCATENATE(RIGHT(M18, 1), IF(N18 = "", "000", N18), "0000"), 2)</f>
-        <v>00</v>
-      </c>
-      <c r="S18" s="14" t="str">
+        <v>80</v>
+      </c>
+      <c r="S18" s="13" t="str">
         <f>IF(O18="", BIN2HEX(P18, 2), BIN2HEX(O18,2))</f>
-        <v>00</v>
+        <v>FF</v>
       </c>
       <c r="U18" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="V18">
         <v>2</v>
@@ -5517,51 +5499,49 @@
         <v>0x006</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="12">
-        <v>1</v>
+        <v>266</v>
+      </c>
+      <c r="F19" s="11">
+        <v>40</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="H19">
-        <v>5</v>
-      </c>
-      <c r="K19">
-        <v>255</v>
-      </c>
-      <c r="L19" s="17" t="str">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="16" t="str">
         <f>IF(F19="", "", TEXT(DEC2BIN(F19), "000000"))</f>
-        <v>000001</v>
-      </c>
-      <c r="M19" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v>101</v>
-      </c>
-      <c r="N19" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="O19" s="18" t="str">
+        <v>101000</v>
+      </c>
+      <c r="M19" s="17" t="str">
+        <f t="shared" si="22"/>
+        <v>000</v>
+      </c>
+      <c r="N19" s="17" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P19" s="19" t="str">
-        <f t="shared" si="22"/>
-        <v>11111111</v>
+      <c r="O19" s="17" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="P19" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v/>
       </c>
       <c r="Q19" t="str">
         <f>BIN2HEX(LEFT(CONCATENATE(L19,IF(M19="", "000", M19)), 8), 2)</f>
-        <v>06</v>
+        <v>A0</v>
       </c>
       <c r="R19" t="str">
         <f>BIN2HEX(CONCATENATE(RIGHT(M19, 1), IF(N19 = "", "000", N19), "0000"), 2)</f>
-        <v>80</v>
-      </c>
-      <c r="S19" s="14" t="str">
+        <v>00</v>
+      </c>
+      <c r="S19" s="13" t="str">
         <f>IF(O19="", BIN2HEX(P19, 2), BIN2HEX(O19,2))</f>
-        <v>FF</v>
+        <v>00</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
@@ -5573,13 +5553,52 @@
         <v>0x009</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>99</v>
+        <v>273</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="11">
+        <v>41</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20" si="24">IF(G20="", "", VLOOKUP(G20, $U$3:$V$10, 2))</f>
+        <v>1</v>
+      </c>
+      <c r="L20" s="16" t="str">
+        <f>IF(F20="", "", TEXT(DEC2BIN(F20), "000000"))</f>
+        <v>101001</v>
+      </c>
+      <c r="M20" s="17" t="str">
+        <f t="shared" ref="M20" si="25">IF(H20="", "", TEXT(DEC2BIN(H20), "000"))</f>
+        <v>001</v>
+      </c>
+      <c r="N20" s="17" t="str">
+        <f t="shared" ref="N20" si="26">IF(I20="", "", TEXT(DEC2BIN(I20), "000"))</f>
+        <v/>
+      </c>
+      <c r="O20" s="17" t="str">
+        <f t="shared" ref="O20" si="27">IF(J20="", "", TEXT(DEC2BIN(J20), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P20" s="18" t="str">
+        <f t="shared" ref="P20" si="28">IF(K20="", "", TEXT(DEC2BIN(K20), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q20" t="str">
+        <f>BIN2HEX(LEFT(CONCATENATE(L20,IF(M20="", "000", M20)), 8), 2)</f>
+        <v>A4</v>
+      </c>
+      <c r="R20" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M20, 1), IF(N20 = "", "000", N20), "0000"), 2)</f>
+        <v>80</v>
+      </c>
+      <c r="S20" s="13" t="str">
+        <f>IF(O20="", BIN2HEX(P20, 2), BIN2HEX(O20,2))</f>
+        <v>00</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
@@ -5591,99 +5610,86 @@
         <v>0x00C</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="27"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="11">
+        <v>5</v>
+      </c>
+      <c r="H21" t="str">
+        <f>IF(G21="", "", VLOOKUP(G21, $U$3:$V$10, 2))</f>
+        <v/>
+      </c>
+      <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="L21" s="16" t="str">
+        <f>IF(F21="", "", TEXT(DEC2BIN(F21), "000000"))</f>
+        <v>000101</v>
+      </c>
+      <c r="M21" s="17" t="str">
+        <f t="shared" ref="M21" si="29">IF(H21="", "", TEXT(DEC2BIN(H21), "000"))</f>
+        <v/>
+      </c>
+      <c r="N21" s="17" t="str">
+        <f t="shared" ref="N21" si="30">IF(I21="", "", TEXT(DEC2BIN(I21), "000"))</f>
+        <v/>
+      </c>
+      <c r="O21" s="17" t="str">
+        <f t="shared" ref="O21" si="31">IF(J21="", "", TEXT(DEC2BIN(J21), "00000000"))</f>
+        <v>00000110</v>
+      </c>
+      <c r="P21" s="18" t="str">
+        <f t="shared" ref="P21" si="32">IF(K21="", "", TEXT(DEC2BIN(K21), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q21" t="str">
+        <f>BIN2HEX(LEFT(CONCATENATE(L21,IF(M21="", "000", M21)), 8), 2)</f>
+        <v>14</v>
+      </c>
+      <c r="R21" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M21, 1), IF(N21 = "", "000", N21), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="S21" s="13" t="str">
+        <f>IF(O21="", BIN2HEX(P21, 2), BIN2HEX(O21,2))</f>
+        <v>06</v>
+      </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>15</v>
-      </c>
-      <c r="B22" t="str">
-        <f t="shared" si="20"/>
-        <v>0x00F</v>
-      </c>
-      <c r="C22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E22" s="27"/>
+      <c r="E22" s="39"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>18</v>
-      </c>
-      <c r="B23" t="str">
-        <f t="shared" si="20"/>
-        <v>0x012</v>
-      </c>
-      <c r="C23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>108</v>
-      </c>
+      <c r="E23" s="39"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>21</v>
-      </c>
-      <c r="B24" t="str">
-        <f t="shared" si="20"/>
-        <v>0x015</v>
-      </c>
-      <c r="C24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" s="27"/>
+      <c r="E24" s="39"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="str">
-        <f t="shared" si="20"/>
-        <v>0x018</v>
-      </c>
-      <c r="C25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="39"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>27</v>
-      </c>
-      <c r="B26" t="str">
-        <f t="shared" si="20"/>
-        <v>0x01B</v>
-      </c>
-      <c r="C26" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>106</v>
-      </c>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="9" t="s">
-        <v>110</v>
+      <c r="C30" s="8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
@@ -5691,14 +5697,56 @@
         <v>0</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" ref="B31:B36" si="23">"0x" &amp; DEC2HEX(A31,3)</f>
+        <f t="shared" ref="B31:B36" si="33">"0x" &amp; DEC2HEX(A31,3)</f>
         <v>0x000</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>89</v>
+        <v>166</v>
+      </c>
+      <c r="F31" s="11">
+        <v>1</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ref="H31" si="34">IF(G31="", "", VLOOKUP(G31, $U$3:$V$10, 2))</f>
+        <v>6</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31" s="16" t="str">
+        <f t="shared" ref="L31:L36" si="35">IF(F31="", "", TEXT(DEC2BIN(F31), "000000"))</f>
+        <v>000001</v>
+      </c>
+      <c r="M31" s="17" t="str">
+        <f t="shared" ref="M31" si="36">IF(H31="", "", TEXT(DEC2BIN(H31), "000"))</f>
+        <v>110</v>
+      </c>
+      <c r="N31" s="17" t="str">
+        <f t="shared" ref="N31" si="37">IF(I31="", "", TEXT(DEC2BIN(I31), "000"))</f>
+        <v/>
+      </c>
+      <c r="O31" s="17" t="str">
+        <f t="shared" ref="O31" si="38">IF(J31="", "", TEXT(DEC2BIN(J31), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P31" s="18" t="str">
+        <f t="shared" ref="P31" si="39">IF(K31="", "", TEXT(DEC2BIN(K31), "00000000"))</f>
+        <v>00000001</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" ref="Q31:Q36" si="40">BIN2HEX(LEFT(CONCATENATE(L31,IF(M31="", "000", M31)), 8), 2)</f>
+        <v>07</v>
+      </c>
+      <c r="R31" t="str">
+        <f t="shared" ref="R31:R36" si="41">BIN2HEX(CONCATENATE(RIGHT(M31, 1), IF(N31 = "", "000", N31), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="S31" s="13" t="str">
+        <f t="shared" ref="S31:S36" si="42">IF(O31="", BIN2HEX(P31, 2), BIN2HEX(O31,2))</f>
+        <v>01</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
@@ -5706,14 +5754,56 @@
         <v>3</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0x003</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>88</v>
+        <v>81</v>
+      </c>
+      <c r="F32" s="11">
+        <v>1</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ref="H32" si="43">IF(G32="", "", VLOOKUP(G32, $U$3:$V$10, 2))</f>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>32</v>
+      </c>
+      <c r="L32" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>000001</v>
+      </c>
+      <c r="M32" s="17" t="str">
+        <f t="shared" ref="M32" si="44">IF(H32="", "", TEXT(DEC2BIN(H32), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="N32" s="17" t="str">
+        <f t="shared" ref="N32" si="45">IF(I32="", "", TEXT(DEC2BIN(I32), "000"))</f>
+        <v/>
+      </c>
+      <c r="O32" s="17" t="str">
+        <f t="shared" ref="O32" si="46">IF(J32="", "", TEXT(DEC2BIN(J32), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P32" s="18" t="str">
+        <f t="shared" ref="P32" si="47">IF(K32="", "", TEXT(DEC2BIN(K32), "00000000"))</f>
+        <v>00100000</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="40"/>
+        <v>04</v>
+      </c>
+      <c r="R32" t="str">
+        <f t="shared" si="41"/>
+        <v>00</v>
+      </c>
+      <c r="S32" s="13" t="str">
+        <f t="shared" si="42"/>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
@@ -5721,14 +5811,56 @@
         <v>6</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0x006</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>87</v>
+        <v>168</v>
+      </c>
+      <c r="F33" s="11">
+        <v>32</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ref="H33" si="48">IF(G33="", "", VLOOKUP(G33, $U$3:$V$10, 2))</f>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>6</v>
+      </c>
+      <c r="L33" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>100000</v>
+      </c>
+      <c r="M33" s="17" t="str">
+        <f t="shared" ref="M33" si="49">IF(H33="", "", TEXT(DEC2BIN(H33), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="N33" s="17" t="str">
+        <f t="shared" ref="N33" si="50">IF(I33="", "", TEXT(DEC2BIN(I33), "000"))</f>
+        <v>110</v>
+      </c>
+      <c r="O33" s="17" t="str">
+        <f t="shared" ref="O33" si="51">IF(J33="", "", TEXT(DEC2BIN(J33), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P33" s="18" t="str">
+        <f t="shared" ref="P33" si="52">IF(K33="", "", TEXT(DEC2BIN(K33), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="40"/>
+        <v>80</v>
+      </c>
+      <c r="R33" t="str">
+        <f t="shared" si="41"/>
+        <v>60</v>
+      </c>
+      <c r="S33" s="13" t="str">
+        <f t="shared" si="42"/>
+        <v>00</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
@@ -5736,51 +5868,48 @@
         <v>9</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0x009</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F34" s="12">
-        <v>12</v>
+        <v>101</v>
+      </c>
+      <c r="F34" s="11">
+        <v>6</v>
       </c>
       <c r="J34">
         <v>15</v>
       </c>
-      <c r="L34" s="17" t="str">
-        <f>IF(F34="", "", TEXT(DEC2BIN(F34), "000000"))</f>
-        <v>001100</v>
-      </c>
-      <c r="M34" s="18" t="str">
-        <f>IF(H34="", "", TEXT(DEC2BIN(H34), "000"))</f>
+      <c r="L34" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>000110</v>
+      </c>
+      <c r="M34" s="17" t="str">
+        <f t="shared" ref="M34:N36" si="53">IF(H34="", "", TEXT(DEC2BIN(H34), "000"))</f>
         <v/>
       </c>
-      <c r="N34" s="18" t="str">
-        <f>IF(I34="", "", TEXT(DEC2BIN(I34), "000"))</f>
+      <c r="N34" s="17" t="str">
+        <f t="shared" si="53"/>
         <v/>
       </c>
-      <c r="O34" s="18" t="str">
-        <f>IF(J34="", "", TEXT(DEC2BIN(J34), "00000000"))</f>
+      <c r="O34" s="17" t="str">
+        <f t="shared" ref="O34:P36" si="54">IF(J34="", "", TEXT(DEC2BIN(J34), "00000000"))</f>
         <v>00001111</v>
       </c>
-      <c r="P34" s="19" t="str">
-        <f>IF(K34="", "", TEXT(DEC2BIN(K34), "00000000"))</f>
+      <c r="P34" s="18" t="str">
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="Q34" t="str">
-        <f>BIN2HEX(LEFT(CONCATENATE(L34,IF(M34="", "000", M34)), 8), 2)</f>
-        <v>30</v>
+        <f t="shared" si="40"/>
+        <v>18</v>
       </c>
       <c r="R34" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(M34, 1), IF(N34 = "", "000", N34), "0000"), 2)</f>
-        <v>00</v>
-      </c>
-      <c r="S34" s="14" t="str">
-        <f>IF(O34="", BIN2HEX(P34, 2), BIN2HEX(O34,2))</f>
+        <f t="shared" si="41"/>
+        <v>00</v>
+      </c>
+      <c r="S34" s="13" t="str">
+        <f t="shared" si="42"/>
         <v>0F</v>
       </c>
     </row>
@@ -5789,37 +5918,104 @@
         <v>12</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0x00C</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
+        <v>87</v>
+      </c>
+      <c r="F35" s="11">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>6</v>
+      </c>
+      <c r="L35" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>000101</v>
+      </c>
+      <c r="M35" s="17" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="N35" s="17" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="O35" s="17" t="str">
+        <f t="shared" si="54"/>
+        <v>00000110</v>
+      </c>
+      <c r="P35" s="18" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="40"/>
+        <v>14</v>
+      </c>
+      <c r="R35" t="str">
+        <f t="shared" si="41"/>
+        <v>00</v>
+      </c>
+      <c r="S35" s="13" t="str">
+        <f t="shared" si="42"/>
+        <v>06</v>
+      </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>15</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0x00F</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>113</v>
+        <v>100</v>
+      </c>
+      <c r="F36" s="11">
+        <v>5</v>
+      </c>
+      <c r="J36">
+        <v>15</v>
+      </c>
+      <c r="L36" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>000101</v>
+      </c>
+      <c r="M36" s="17" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="N36" s="17" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="O36" s="17" t="str">
+        <f t="shared" si="54"/>
+        <v>00001111</v>
+      </c>
+      <c r="P36" s="18" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="40"/>
+        <v>14</v>
+      </c>
+      <c r="R36" t="str">
+        <f t="shared" si="41"/>
+        <v>00</v>
+      </c>
+      <c r="S36" s="13" t="str">
+        <f t="shared" si="42"/>
+        <v>0F</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C40" s="9" t="s">
-        <v>119</v>
+      <c r="C40" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
@@ -5827,51 +6023,55 @@
         <v>0</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" ref="B41:B44" si="24">"0x" &amp; DEC2HEX(A41,3)</f>
+        <f t="shared" ref="B41:B44" si="55">"0x" &amp; DEC2HEX(A41,3)</f>
         <v>0x000</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F41" s="12">
+        <v>102</v>
+      </c>
+      <c r="F41" s="11">
         <v>3</v>
       </c>
-      <c r="K41">
+      <c r="G41" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ref="H41:H42" si="56">IF(G41="", "", VLOOKUP(G41, $U$3:$V$10, 2))</f>
+        <v>0</v>
+      </c>
+      <c r="J41">
         <v>16</v>
       </c>
-      <c r="L41" s="17" t="str">
-        <f t="shared" ref="L41:L42" si="25">IF(F41="", "", TEXT(DEC2BIN(F41), "000000"))</f>
+      <c r="L41" s="16" t="str">
+        <f t="shared" ref="L41:L42" si="57">IF(F41="", "", TEXT(DEC2BIN(F41), "000000"))</f>
         <v>000011</v>
       </c>
-      <c r="M41" s="18" t="str">
-        <f t="shared" ref="M41:M42" si="26">IF(H41="", "", TEXT(DEC2BIN(H41), "000"))</f>
+      <c r="M41" s="17" t="str">
+        <f t="shared" ref="M41:M42" si="58">IF(H41="", "", TEXT(DEC2BIN(H41), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="N41" s="17" t="str">
+        <f t="shared" ref="N41:N42" si="59">IF(I41="", "", TEXT(DEC2BIN(I41), "000"))</f>
         <v/>
       </c>
-      <c r="N41" s="18" t="str">
-        <f t="shared" ref="N41:N42" si="27">IF(I41="", "", TEXT(DEC2BIN(I41), "000"))</f>
+      <c r="O41" s="17" t="str">
+        <f t="shared" ref="O41:O42" si="60">IF(J41="", "", TEXT(DEC2BIN(J41), "00000000"))</f>
+        <v>00010000</v>
+      </c>
+      <c r="P41" s="18" t="str">
+        <f t="shared" ref="P41:P42" si="61">IF(K41="", "", TEXT(DEC2BIN(K41), "00000000"))</f>
         <v/>
       </c>
-      <c r="O41" s="18" t="str">
-        <f t="shared" ref="O41:O42" si="28">IF(J41="", "", TEXT(DEC2BIN(J41), "00000000"))</f>
-        <v/>
-      </c>
-      <c r="P41" s="19" t="str">
-        <f t="shared" ref="P41:P42" si="29">IF(K41="", "", TEXT(DEC2BIN(K41), "00000000"))</f>
-        <v>00010000</v>
-      </c>
       <c r="Q41" t="str">
-        <f t="shared" ref="Q41:Q42" si="30">BIN2HEX(LEFT(CONCATENATE(L41,IF(M41="", "000", M41)), 8), 2)</f>
+        <f t="shared" ref="Q41:Q42" si="62">BIN2HEX(LEFT(CONCATENATE(L41,IF(M41="", "000", M41)), 8), 2)</f>
         <v>0C</v>
       </c>
       <c r="R41" t="str">
-        <f t="shared" ref="R41:R42" si="31">BIN2HEX(CONCATENATE(RIGHT(M41, 1), IF(N41 = "", "000", N41), "0000"), 2)</f>
-        <v>00</v>
-      </c>
-      <c r="S41" s="14" t="str">
-        <f t="shared" ref="S41:S42" si="32">IF(O41="", BIN2HEX(P41, 2), BIN2HEX(O41,2))</f>
+        <f t="shared" ref="R41:R42" si="63">BIN2HEX(CONCATENATE(RIGHT(M41, 1), IF(N41 = "", "000", N41), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="S41" s="13" t="str">
+        <f t="shared" ref="S41:S42" si="64">IF(O41="", BIN2HEX(P41, 2), BIN2HEX(O41,2))</f>
         <v>10</v>
       </c>
     </row>
@@ -5880,54 +6080,55 @@
         <v>3</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="55"/>
         <v>0x003</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F42" s="12">
-        <v>13</v>
+        <v>103</v>
+      </c>
+      <c r="F42" s="11">
+        <v>10</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="H42">
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="J42">
         <v>17</v>
       </c>
-      <c r="L42" s="17" t="str">
-        <f t="shared" si="25"/>
-        <v>001101</v>
-      </c>
-      <c r="M42" s="18" t="str">
-        <f t="shared" si="26"/>
+      <c r="L42" s="16" t="str">
+        <f t="shared" si="57"/>
+        <v>001010</v>
+      </c>
+      <c r="M42" s="17" t="str">
+        <f t="shared" si="58"/>
         <v>000</v>
       </c>
-      <c r="N42" s="18" t="str">
-        <f t="shared" si="27"/>
+      <c r="N42" s="17" t="str">
+        <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="O42" s="18" t="str">
-        <f t="shared" si="28"/>
+      <c r="O42" s="17" t="str">
+        <f t="shared" si="60"/>
         <v>00010001</v>
       </c>
-      <c r="P42" s="19" t="str">
-        <f t="shared" si="29"/>
+      <c r="P42" s="18" t="str">
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" si="30"/>
-        <v>34</v>
+        <f t="shared" si="62"/>
+        <v>28</v>
       </c>
       <c r="R42" t="str">
-        <f t="shared" si="31"/>
-        <v>00</v>
-      </c>
-      <c r="S42" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="63"/>
+        <v>00</v>
+      </c>
+      <c r="S42" s="13" t="str">
+        <f t="shared" si="64"/>
         <v>11</v>
       </c>
     </row>
@@ -5936,14 +6137,49 @@
         <v>6</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="55"/>
         <v>0x006</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="F43" s="11">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>6</v>
+      </c>
+      <c r="L43" s="16" t="str">
+        <f>IF(F43="", "", TEXT(DEC2BIN(F43), "000000"))</f>
+        <v>000101</v>
+      </c>
+      <c r="M43" s="17" t="str">
+        <f>IF(H43="", "", TEXT(DEC2BIN(H43), "000"))</f>
+        <v/>
+      </c>
+      <c r="N43" s="17" t="str">
+        <f>IF(I43="", "", TEXT(DEC2BIN(I43), "000"))</f>
+        <v/>
+      </c>
+      <c r="O43" s="17" t="str">
+        <f>IF(J43="", "", TEXT(DEC2BIN(J43), "00000000"))</f>
+        <v>00000110</v>
+      </c>
+      <c r="P43" s="18" t="str">
+        <f>IF(K43="", "", TEXT(DEC2BIN(K43), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q43" t="str">
+        <f>BIN2HEX(LEFT(CONCATENATE(L43,IF(M43="", "000", M43)), 8), 2)</f>
+        <v>14</v>
+      </c>
+      <c r="R43" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M43, 1), IF(N43 = "", "000", N43), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="S43" s="13" t="str">
+        <f>IF(O43="", BIN2HEX(P43, 2), BIN2HEX(O43,2))</f>
+        <v>06</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
@@ -5951,19 +6187,24 @@
         <v>16</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="55"/>
         <v>0x010</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>194</v>
+      <c r="D44" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C46" s="38" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C48" s="9" t="s">
-        <v>123</v>
+      <c r="C48" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
@@ -5971,17 +6212,17 @@
         <v>0</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" ref="B49:B51" si="33">"0x" &amp; DEC2HEX(A49,3)</f>
+        <f t="shared" ref="B49:B51" si="65">"0x" &amp; DEC2HEX(A49,3)</f>
         <v>0x000</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>133</v>
+        <v>109</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
@@ -5989,17 +6230,17 @@
         <v>3</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="65"/>
         <v>0x003</v>
       </c>
       <c r="C50" t="s">
-        <v>125</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>128</v>
+        <v>110</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
@@ -6007,16 +6248,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="65"/>
         <v>0x006</v>
       </c>
       <c r="C51" t="s">
-        <v>164</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F51" s="12">
+        <v>149</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F51" s="11">
         <v>17</v>
       </c>
       <c r="H51">
@@ -6025,42 +6266,42 @@
       <c r="I51">
         <v>1</v>
       </c>
-      <c r="L51" s="17" t="str">
-        <f t="shared" ref="L51" si="34">IF(F51="", "", TEXT(DEC2BIN(F51), "000000"))</f>
+      <c r="L51" s="16" t="str">
+        <f t="shared" ref="L51" si="66">IF(F51="", "", TEXT(DEC2BIN(F51), "000000"))</f>
         <v>010001</v>
       </c>
-      <c r="M51" s="18" t="str">
-        <f t="shared" ref="M51" si="35">IF(H51="", "", TEXT(DEC2BIN(H51), "000"))</f>
+      <c r="M51" s="17" t="str">
+        <f t="shared" ref="M51" si="67">IF(H51="", "", TEXT(DEC2BIN(H51), "000"))</f>
         <v>000</v>
       </c>
-      <c r="N51" s="18" t="str">
-        <f t="shared" ref="N51" si="36">IF(I51="", "", TEXT(DEC2BIN(I51), "000"))</f>
+      <c r="N51" s="17" t="str">
+        <f t="shared" ref="N51" si="68">IF(I51="", "", TEXT(DEC2BIN(I51), "000"))</f>
         <v>001</v>
       </c>
-      <c r="O51" s="18" t="str">
-        <f t="shared" ref="O51" si="37">IF(J51="", "", TEXT(DEC2BIN(J51), "00000000"))</f>
+      <c r="O51" s="17" t="str">
+        <f t="shared" ref="O51" si="69">IF(J51="", "", TEXT(DEC2BIN(J51), "00000000"))</f>
         <v/>
       </c>
-      <c r="P51" s="19" t="str">
-        <f t="shared" ref="P51" si="38">IF(K51="", "", TEXT(DEC2BIN(K51), "00000000"))</f>
+      <c r="P51" s="18" t="str">
+        <f t="shared" ref="P51" si="70">IF(K51="", "", TEXT(DEC2BIN(K51), "00000000"))</f>
         <v/>
       </c>
       <c r="Q51" t="str">
-        <f t="shared" ref="Q51" si="39">BIN2HEX(LEFT(CONCATENATE(L51,IF(M51="", "000", M51)), 8), 2)</f>
+        <f t="shared" ref="Q51" si="71">BIN2HEX(LEFT(CONCATENATE(L51,IF(M51="", "000", M51)), 8), 2)</f>
         <v>44</v>
       </c>
       <c r="R51" t="str">
-        <f t="shared" ref="R51" si="40">BIN2HEX(CONCATENATE(RIGHT(M51, 1), IF(N51 = "", "000", N51), "0000"), 2)</f>
+        <f t="shared" ref="R51" si="72">BIN2HEX(CONCATENATE(RIGHT(M51, 1), IF(N51 = "", "000", N51), "0000"), 2)</f>
         <v>10</v>
       </c>
-      <c r="S51" s="14" t="str">
-        <f t="shared" ref="S51" si="41">IF(O51="", BIN2HEX(P51, 2), BIN2HEX(O51,2))</f>
+      <c r="S51" s="13" t="str">
+        <f t="shared" ref="S51" si="73">IF(O51="", BIN2HEX(P51, 2), BIN2HEX(O51,2))</f>
         <v>00</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C55" s="9" t="s">
-        <v>171</v>
+      <c r="C55" s="8" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
@@ -6068,17 +6309,17 @@
         <v>0</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" ref="B56:B79" si="42">"0x" &amp; DEC2HEX(A56,3)</f>
+        <f t="shared" ref="B56:B79" si="74">"0x" &amp; DEC2HEX(A56,3)</f>
         <v>0x000</v>
       </c>
       <c r="C56" t="s">
-        <v>134</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>136</v>
+        <v>119</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
@@ -6086,33 +6327,33 @@
         <v>3</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="74"/>
         <v>0x003</v>
       </c>
       <c r="C57" t="s">
-        <v>164</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E57" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>6</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="74"/>
         <v>0x006</v>
       </c>
       <c r="C58" t="s">
-        <v>139</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>137</v>
+        <v>124</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
@@ -6120,33 +6361,33 @@
         <v>9</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="74"/>
         <v>0x009</v>
       </c>
       <c r="C59" t="s">
-        <v>164</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E59" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>12</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="74"/>
         <v>0x00C</v>
       </c>
       <c r="C60" t="s">
-        <v>141</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>138</v>
+        <v>126</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
@@ -6154,33 +6395,33 @@
         <v>15</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="74"/>
         <v>0x00F</v>
       </c>
       <c r="C61" t="s">
-        <v>164</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E61" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>18</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="74"/>
         <v>0x012</v>
       </c>
       <c r="C62" t="s">
-        <v>141</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>138</v>
+        <v>126</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
@@ -6188,33 +6429,33 @@
         <v>21</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="74"/>
         <v>0x015</v>
       </c>
       <c r="C63" t="s">
-        <v>164</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E63" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>24</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="74"/>
         <v>0x018</v>
       </c>
       <c r="C64" t="s">
-        <v>145</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>143</v>
+        <v>130</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -6222,33 +6463,33 @@
         <v>27</v>
       </c>
       <c r="B65" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="74"/>
         <v>0x01B</v>
       </c>
       <c r="C65" t="s">
-        <v>164</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E65" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>30</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="74"/>
         <v>0x01E</v>
       </c>
       <c r="C66" t="s">
-        <v>146</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>148</v>
+        <v>131</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -6256,33 +6497,33 @@
         <v>33</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="74"/>
         <v>0x021</v>
       </c>
       <c r="C67" t="s">
-        <v>164</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E67" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>36</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="74"/>
         <v>0x024</v>
       </c>
       <c r="C68" t="s">
-        <v>149</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>151</v>
+        <v>134</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -6290,33 +6531,33 @@
         <v>39</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="74"/>
         <v>0x027</v>
       </c>
       <c r="C69" t="s">
-        <v>164</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E69" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E69" s="8"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>42</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="74"/>
         <v>0x02A</v>
       </c>
       <c r="C70" t="s">
-        <v>145</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>143</v>
+        <v>130</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -6324,33 +6565,33 @@
         <v>45</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="74"/>
         <v>0x02D</v>
       </c>
       <c r="C71" t="s">
-        <v>164</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E71" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>48</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="74"/>
         <v>0x030</v>
       </c>
       <c r="C72" t="s">
-        <v>154</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>152</v>
+        <v>139</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -6358,33 +6599,33 @@
         <v>51</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="74"/>
         <v>0x033</v>
       </c>
       <c r="C73" t="s">
-        <v>164</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E73" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>54</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="74"/>
         <v>0x036</v>
       </c>
       <c r="C74" t="s">
-        <v>141</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>138</v>
+        <v>126</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -6392,33 +6633,33 @@
         <v>57</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="74"/>
         <v>0x039</v>
       </c>
       <c r="C75" t="s">
-        <v>164</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E75" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>60</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="74"/>
         <v>0x03C</v>
       </c>
       <c r="C76" t="s">
-        <v>157</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>155</v>
+        <v>142</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -6426,33 +6667,33 @@
         <v>63</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="74"/>
         <v>0x03F</v>
       </c>
       <c r="C77" t="s">
-        <v>164</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E77" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E77" s="8"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>66</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="74"/>
         <v>0x042</v>
       </c>
       <c r="C78" t="s">
-        <v>160</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>158</v>
+        <v>145</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -6460,47 +6701,47 @@
         <v>69</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="74"/>
         <v>0x045</v>
       </c>
       <c r="C79" t="s">
-        <v>160</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E79" s="9"/>
+        <v>145</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E79" s="8"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E80" s="9"/>
+      <c r="E80" s="8"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D81"/>
-      <c r="E81" s="9"/>
+      <c r="E81" s="8"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C82" s="9" t="s">
-        <v>172</v>
+      <c r="C82" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="D82"/>
-      <c r="E82" s="9"/>
+      <c r="E82" s="8"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>0</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" ref="B83:B93" si="43">"0x" &amp; DEC2HEX(A83,3)</f>
+        <f t="shared" ref="B83:B93" si="75">"0x" &amp; DEC2HEX(A83,3)</f>
         <v>0x000</v>
       </c>
       <c r="C83" t="s">
-        <v>192</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>186</v>
+        <v>177</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -6508,17 +6749,17 @@
         <v>3</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="75"/>
         <v>0x003</v>
       </c>
       <c r="C84" t="s">
-        <v>217</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>218</v>
+        <v>202</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -6526,17 +6767,17 @@
         <v>6</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="75"/>
         <v>0x006</v>
       </c>
       <c r="C85" t="s">
-        <v>181</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>187</v>
+        <v>166</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -6544,17 +6785,17 @@
         <v>9</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="75"/>
         <v>0x009</v>
       </c>
       <c r="C86" t="s">
-        <v>208</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>188</v>
+        <v>193</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -6562,17 +6803,17 @@
         <v>12</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="75"/>
         <v>0x00C</v>
       </c>
       <c r="C87" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="D87" t="s">
-        <v>178</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>189</v>
+        <v>163</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -6580,17 +6821,17 @@
         <v>15</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="75"/>
         <v>0x00F</v>
       </c>
       <c r="C88" t="s">
-        <v>61</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="E88" s="23" t="s">
-        <v>229</v>
+        <v>59</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E88" s="42" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -6598,49 +6839,49 @@
         <v>18</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="75"/>
         <v>0x012</v>
       </c>
       <c r="C89" t="s">
-        <v>183</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E89" s="23"/>
+        <v>168</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E89" s="42"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>21</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="75"/>
         <v>0x015</v>
       </c>
       <c r="C90" t="s">
-        <v>64</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E90" s="23"/>
+        <v>62</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E90" s="42"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>24</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="75"/>
         <v>0x018</v>
       </c>
       <c r="C91" t="s">
-        <v>191</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>203</v>
+        <v>176</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -6648,17 +6889,17 @@
         <v>27</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="75"/>
         <v>0x01B</v>
       </c>
       <c r="C92" t="s">
-        <v>211</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>213</v>
+        <v>196</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -6666,22 +6907,22 @@
         <v>30</v>
       </c>
       <c r="B93" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="75"/>
         <v>0x01E</v>
       </c>
       <c r="C93" t="s">
-        <v>98</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>214</v>
+        <v>92</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E94" s="9" t="s">
-        <v>194</v>
+      <c r="E94" s="8" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -6689,14 +6930,14 @@
         <v>48</v>
       </c>
       <c r="B95" t="str">
-        <f t="shared" ref="B95:B98" si="44">"0x" &amp; DEC2HEX(A95,3)</f>
+        <f t="shared" ref="B95:B98" si="76">"0x" &amp; DEC2HEX(A95,3)</f>
         <v>0x030</v>
       </c>
-      <c r="D95" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>199</v>
+      <c r="D95" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -6704,14 +6945,14 @@
         <v>51</v>
       </c>
       <c r="B96" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="76"/>
         <v>0x033</v>
       </c>
-      <c r="D96" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="E96" s="10" t="s">
-        <v>200</v>
+      <c r="D96" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -6719,14 +6960,14 @@
         <v>54</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="76"/>
         <v>0x036</v>
       </c>
-      <c r="D97" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>201</v>
+      <c r="D97" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -6734,46 +6975,46 @@
         <v>57</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="76"/>
         <v>0x039</v>
       </c>
-      <c r="D98" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>202</v>
+      <c r="D98" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E99" s="9"/>
+      <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D100"/>
-      <c r="E100" s="9"/>
+      <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C101" s="9" t="s">
-        <v>173</v>
+      <c r="C101" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="D101"/>
-      <c r="E101" s="9"/>
+      <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>0</v>
       </c>
       <c r="B102" t="str">
-        <f t="shared" ref="B102" si="45">"0x" &amp; DEC2HEX(A102,3)</f>
+        <f t="shared" ref="B102" si="77">"0x" &amp; DEC2HEX(A102,3)</f>
         <v>0x000</v>
       </c>
       <c r="C102" t="s">
-        <v>174</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>176</v>
+        <v>159</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -6781,17 +7022,17 @@
         <v>3</v>
       </c>
       <c r="B103" t="str">
-        <f t="shared" ref="B103:B113" si="46">"0x" &amp; DEC2HEX(A103,3)</f>
+        <f t="shared" ref="B103:B113" si="78">"0x" &amp; DEC2HEX(A103,3)</f>
         <v>0x003</v>
       </c>
       <c r="C103" t="s">
-        <v>93</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>261</v>
+        <v>89</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -6799,17 +7040,17 @@
         <v>6</v>
       </c>
       <c r="B104" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="78"/>
         <v>0x006</v>
       </c>
       <c r="C104" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D104" t="s">
-        <v>221</v>
-      </c>
-      <c r="E104" s="9" t="s">
         <v>206</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -6817,65 +7058,65 @@
         <v>9</v>
       </c>
       <c r="B105" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="78"/>
         <v>0x009</v>
       </c>
       <c r="C105" t="s">
-        <v>177</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E105" s="9"/>
+        <v>162</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>12</v>
       </c>
       <c r="B106" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="78"/>
         <v>0x00C</v>
       </c>
       <c r="C106" t="s">
-        <v>82</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E106" s="9"/>
+        <v>80</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>15</v>
       </c>
       <c r="B107" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="78"/>
         <v>0x00F</v>
       </c>
       <c r="C107" t="s">
-        <v>84</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E107" s="9"/>
+        <v>82</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>18</v>
       </c>
       <c r="B108" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="78"/>
         <v>0x012</v>
       </c>
       <c r="C108" t="s">
-        <v>95</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>179</v>
+        <v>91</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -6883,17 +7124,17 @@
         <v>21</v>
       </c>
       <c r="B109" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="78"/>
         <v>0x015</v>
       </c>
       <c r="C109" t="s">
-        <v>219</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E109" s="9" t="s">
         <v>204</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -6901,33 +7142,33 @@
         <v>24</v>
       </c>
       <c r="B110" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="78"/>
         <v>0x018</v>
       </c>
       <c r="C110" t="s">
-        <v>85</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E110" s="9"/>
+        <v>83</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>27</v>
       </c>
       <c r="B111" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="78"/>
         <v>0x01B</v>
       </c>
       <c r="C111" t="s">
-        <v>258</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>260</v>
+        <v>242</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -6935,17 +7176,17 @@
         <v>30</v>
       </c>
       <c r="B112" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="78"/>
         <v>0x01E</v>
       </c>
       <c r="C112" t="s">
-        <v>94</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>190</v>
+        <v>90</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.3">
@@ -6953,22 +7194,22 @@
         <v>33</v>
       </c>
       <c r="B113" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="78"/>
         <v>0x021</v>
       </c>
       <c r="C113" t="s">
-        <v>90</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E113" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C117" s="8" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C117" s="9" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.3">
@@ -6976,17 +7217,17 @@
         <v>0</v>
       </c>
       <c r="B118" t="str">
-        <f t="shared" ref="B118:B122" si="47">"0x" &amp; DEC2HEX(A118,3)</f>
+        <f t="shared" ref="B118:B122" si="79">"0x" &amp; DEC2HEX(A118,3)</f>
         <v>0x000</v>
       </c>
       <c r="C118" t="s">
-        <v>192</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>223</v>
+        <v>177</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.3">
@@ -6994,17 +7235,17 @@
         <v>3</v>
       </c>
       <c r="B119" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="79"/>
         <v>0x003</v>
       </c>
       <c r="C119" t="s">
-        <v>265</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>224</v>
+        <v>249</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.3">
@@ -7012,61 +7253,61 @@
         <v>6</v>
       </c>
       <c r="B120" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="79"/>
         <v>0x006</v>
       </c>
       <c r="C120" t="s">
-        <v>225</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="F120" s="12">
-        <v>1</v>
-      </c>
-      <c r="G120" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F120" s="11">
+        <v>1</v>
+      </c>
+      <c r="G120" s="12" t="s">
         <v>40</v>
       </c>
       <c r="H120">
-        <f t="shared" ref="H120" si="48">IF(G120="", "", VLOOKUP(G120, $U$3:$V$10, 2))</f>
-        <v>2</v>
+        <f t="shared" ref="H120" si="80">IF(G120="", "", VLOOKUP(G120, $U$3:$V$10, 2))</f>
+        <v>4</v>
       </c>
       <c r="K120">
         <v>96</v>
       </c>
-      <c r="L120" s="17" t="str">
+      <c r="L120" s="16" t="str">
         <f>IF(F120="", "", TEXT(DEC2BIN(F120), "000000"))</f>
         <v>000001</v>
       </c>
-      <c r="M120" s="18" t="str">
+      <c r="M120" s="17" t="str">
         <f>IF(H120="", "", TEXT(DEC2BIN(H120), "000"))</f>
-        <v>010</v>
-      </c>
-      <c r="N120" s="18" t="str">
+        <v>100</v>
+      </c>
+      <c r="N120" s="17" t="str">
         <f>IF(I120="", "", TEXT(DEC2BIN(I120), "000"))</f>
         <v/>
       </c>
-      <c r="O120" s="18" t="str">
+      <c r="O120" s="17" t="str">
         <f>IF(J120="", "", TEXT(DEC2BIN(J120), "00000000"))</f>
         <v/>
       </c>
-      <c r="P120" s="19" t="str">
+      <c r="P120" s="18" t="str">
         <f>IF(K120="", "", TEXT(DEC2BIN(K120), "00000000"))</f>
         <v>01100000</v>
       </c>
       <c r="Q120" t="str">
-        <f t="shared" ref="Q120" si="49">BIN2HEX(LEFT(CONCATENATE(L120,IF(M120="", "000", M120)), 8), 2)</f>
-        <v>05</v>
+        <f t="shared" ref="Q120" si="81">BIN2HEX(LEFT(CONCATENATE(L120,IF(M120="", "000", M120)), 8), 2)</f>
+        <v>06</v>
       </c>
       <c r="R120" t="str">
         <f>BIN2HEX(CONCATENATE(RIGHT(M120, 1), IF(N120 = "", "000", N120), "0000"), 2)</f>
         <v>00</v>
       </c>
-      <c r="S120" s="14" t="str">
-        <f t="shared" ref="S120" si="50">IF(O120="", BIN2HEX(P120, 2), BIN2HEX(O120,2))</f>
+      <c r="S120" s="13" t="str">
+        <f t="shared" ref="S120" si="82">IF(O120="", BIN2HEX(P120, 2), BIN2HEX(O120,2))</f>
         <v>60</v>
       </c>
     </row>
@@ -7075,17 +7316,17 @@
         <v>9</v>
       </c>
       <c r="B121" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="79"/>
         <v>0x009</v>
       </c>
       <c r="C121" t="s">
-        <v>181</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E121" s="9" t="s">
-        <v>187</v>
+        <v>166</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.3">
@@ -7093,17 +7334,17 @@
         <v>12</v>
       </c>
       <c r="B122" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="79"/>
         <v>0x00C</v>
       </c>
       <c r="C122" t="s">
-        <v>208</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>228</v>
+        <v>193</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.3">
@@ -7111,22 +7352,22 @@
         <v>15</v>
       </c>
       <c r="B123" t="str">
-        <f t="shared" ref="B123:B136" si="51">"0x" &amp; DEC2HEX(A123,3)</f>
+        <f t="shared" ref="B123:B136" si="83">"0x" &amp; DEC2HEX(A123,3)</f>
         <v>0x00F</v>
       </c>
       <c r="C123" t="s">
-        <v>226</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="F123" s="12">
-        <v>14</v>
-      </c>
-      <c r="G123" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F123" s="11">
+        <v>14</v>
+      </c>
+      <c r="G123" s="12" t="s">
         <v>38</v>
       </c>
       <c r="H123">
@@ -7136,36 +7377,36 @@
       <c r="I123">
         <v>2</v>
       </c>
-      <c r="L123" s="17" t="str">
+      <c r="L123" s="16" t="str">
         <f>IF(F123="", "", TEXT(DEC2BIN(F123), "000000"))</f>
         <v>001110</v>
       </c>
-      <c r="M123" s="18" t="str">
+      <c r="M123" s="17" t="str">
         <f>IF(H123="", "", TEXT(DEC2BIN(H123), "000"))</f>
         <v>000</v>
       </c>
-      <c r="N123" s="18" t="str">
+      <c r="N123" s="17" t="str">
         <f>IF(I123="", "", TEXT(DEC2BIN(I123), "000"))</f>
         <v>010</v>
       </c>
-      <c r="O123" s="18" t="str">
+      <c r="O123" s="17" t="str">
         <f>IF(J123="", "", TEXT(DEC2BIN(J123), "00000000"))</f>
         <v/>
       </c>
-      <c r="P123" s="19" t="str">
+      <c r="P123" s="18" t="str">
         <f>IF(K123="", "", TEXT(DEC2BIN(K123), "00000000"))</f>
         <v/>
       </c>
       <c r="Q123" t="str">
-        <f t="shared" ref="Q123" si="52">BIN2HEX(LEFT(CONCATENATE(L123,IF(M123="", "000", M123)), 8), 2)</f>
+        <f t="shared" ref="Q123" si="84">BIN2HEX(LEFT(CONCATENATE(L123,IF(M123="", "000", M123)), 8), 2)</f>
         <v>38</v>
       </c>
       <c r="R123" t="str">
         <f>BIN2HEX(CONCATENATE(RIGHT(M123, 1), IF(N123 = "", "000", N123), "0000"), 2)</f>
         <v>20</v>
       </c>
-      <c r="S123" s="14" t="str">
-        <f t="shared" ref="S123" si="53">IF(O123="", BIN2HEX(P123, 2), BIN2HEX(O123,2))</f>
+      <c r="S123" s="13" t="str">
+        <f t="shared" ref="S123" si="85">IF(O123="", BIN2HEX(P123, 2), BIN2HEX(O123,2))</f>
         <v>00</v>
       </c>
     </row>
@@ -7174,17 +7415,17 @@
         <v>18</v>
       </c>
       <c r="B124" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="83"/>
         <v>0x012</v>
       </c>
       <c r="C124" t="s">
-        <v>61</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="E124" s="23" t="s">
-        <v>229</v>
+        <v>59</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E124" s="42" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.3">
@@ -7192,49 +7433,49 @@
         <v>21</v>
       </c>
       <c r="B125" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="83"/>
         <v>0x015</v>
       </c>
       <c r="C125" t="s">
-        <v>183</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E125" s="23"/>
+        <v>168</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E125" s="42"/>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>24</v>
       </c>
       <c r="B126" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="83"/>
         <v>0x018</v>
       </c>
       <c r="C126" t="s">
-        <v>64</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E126" s="23"/>
+        <v>62</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E126" s="42"/>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>27</v>
       </c>
       <c r="B127" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="83"/>
         <v>0x01B</v>
       </c>
       <c r="C127" t="s">
-        <v>191</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="E127" s="9" t="s">
-        <v>203</v>
+        <v>176</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.3">
@@ -7242,17 +7483,17 @@
         <v>30</v>
       </c>
       <c r="B128" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="83"/>
         <v>0x01E</v>
       </c>
       <c r="C128" t="s">
-        <v>235</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E128" s="9" t="s">
-        <v>213</v>
+        <v>220</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.3">
@@ -7260,61 +7501,61 @@
         <v>33</v>
       </c>
       <c r="B129" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="83"/>
         <v>0x021</v>
       </c>
       <c r="C129" t="s">
-        <v>233</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E129" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="F129" s="12">
+        <v>218</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E129" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="F129" s="11">
         <v>2</v>
       </c>
-      <c r="G129" s="13" t="s">
+      <c r="G129" s="12" t="s">
         <v>38</v>
       </c>
       <c r="H129">
-        <f t="shared" ref="H129:H131" si="54">IF(G129="", "", VLOOKUP(G129, $U$3:$V$10, 2))</f>
+        <f t="shared" ref="H129:H131" si="86">IF(G129="", "", VLOOKUP(G129, $U$3:$V$10, 2))</f>
         <v>0</v>
       </c>
       <c r="I129">
         <v>2</v>
       </c>
-      <c r="L129" s="17" t="str">
+      <c r="L129" s="16" t="str">
         <f>IF(F129="", "", TEXT(DEC2BIN(F129), "000000"))</f>
         <v>000010</v>
       </c>
-      <c r="M129" s="18" t="str">
+      <c r="M129" s="17" t="str">
         <f>IF(H129="", "", TEXT(DEC2BIN(H129), "000"))</f>
         <v>000</v>
       </c>
-      <c r="N129" s="18" t="str">
+      <c r="N129" s="17" t="str">
         <f>IF(I129="", "", TEXT(DEC2BIN(I129), "000"))</f>
         <v>010</v>
       </c>
-      <c r="O129" s="18" t="str">
+      <c r="O129" s="17" t="str">
         <f>IF(J129="", "", TEXT(DEC2BIN(J129), "00000000"))</f>
         <v/>
       </c>
-      <c r="P129" s="19" t="str">
+      <c r="P129" s="18" t="str">
         <f>IF(K129="", "", TEXT(DEC2BIN(K129), "00000000"))</f>
         <v/>
       </c>
       <c r="Q129" t="str">
-        <f t="shared" ref="Q129" si="55">BIN2HEX(LEFT(CONCATENATE(L129,IF(M129="", "000", M129)), 8), 2)</f>
+        <f t="shared" ref="Q129" si="87">BIN2HEX(LEFT(CONCATENATE(L129,IF(M129="", "000", M129)), 8), 2)</f>
         <v>08</v>
       </c>
       <c r="R129" t="str">
         <f>BIN2HEX(CONCATENATE(RIGHT(M129, 1), IF(N129 = "", "000", N129), "0000"), 2)</f>
         <v>20</v>
       </c>
-      <c r="S129" s="14" t="str">
-        <f t="shared" ref="S129" si="56">IF(O129="", BIN2HEX(P129, 2), BIN2HEX(O129,2))</f>
+      <c r="S129" s="13" t="str">
+        <f t="shared" ref="S129" si="88">IF(O129="", BIN2HEX(P129, 2), BIN2HEX(O129,2))</f>
         <v>00</v>
       </c>
     </row>
@@ -7323,75 +7564,75 @@
         <v>36</v>
       </c>
       <c r="B130" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="83"/>
         <v>0x024</v>
       </c>
       <c r="C130" t="s">
-        <v>183</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E130" s="23"/>
+        <v>168</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E130" s="42"/>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>39</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="83"/>
         <v>0x027</v>
       </c>
       <c r="C131" t="s">
-        <v>234</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="E131" s="23"/>
-      <c r="F131" s="12">
+        <v>219</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E131" s="42"/>
+      <c r="F131" s="11">
         <v>2</v>
       </c>
-      <c r="G131" s="13" t="s">
+      <c r="G131" s="12" t="s">
         <v>40</v>
       </c>
       <c r="H131">
-        <f t="shared" si="54"/>
-        <v>2</v>
+        <f t="shared" si="86"/>
+        <v>4</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
-      <c r="L131" s="17" t="str">
+      <c r="L131" s="16" t="str">
         <f>IF(F131="", "", TEXT(DEC2BIN(F131), "000000"))</f>
         <v>000010</v>
       </c>
-      <c r="M131" s="18" t="str">
+      <c r="M131" s="17" t="str">
         <f>IF(H131="", "", TEXT(DEC2BIN(H131), "000"))</f>
-        <v>010</v>
-      </c>
-      <c r="N131" s="18" t="str">
+        <v>100</v>
+      </c>
+      <c r="N131" s="17" t="str">
         <f>IF(I131="", "", TEXT(DEC2BIN(I131), "000"))</f>
         <v>000</v>
       </c>
-      <c r="O131" s="18" t="str">
+      <c r="O131" s="17" t="str">
         <f>IF(J131="", "", TEXT(DEC2BIN(J131), "00000000"))</f>
         <v/>
       </c>
-      <c r="P131" s="19" t="str">
+      <c r="P131" s="18" t="str">
         <f>IF(K131="", "", TEXT(DEC2BIN(K131), "00000000"))</f>
         <v/>
       </c>
       <c r="Q131" t="str">
-        <f t="shared" ref="Q131" si="57">BIN2HEX(LEFT(CONCATENATE(L131,IF(M131="", "000", M131)), 8), 2)</f>
-        <v>09</v>
+        <f t="shared" ref="Q131" si="89">BIN2HEX(LEFT(CONCATENATE(L131,IF(M131="", "000", M131)), 8), 2)</f>
+        <v>0A</v>
       </c>
       <c r="R131" t="str">
         <f>BIN2HEX(CONCATENATE(RIGHT(M131, 1), IF(N131 = "", "000", N131), "0000"), 2)</f>
         <v>00</v>
       </c>
-      <c r="S131" s="14" t="str">
-        <f t="shared" ref="S131" si="58">IF(O131="", BIN2HEX(P131, 2), BIN2HEX(O131,2))</f>
+      <c r="S131" s="13" t="str">
+        <f t="shared" ref="S131" si="90">IF(O131="", BIN2HEX(P131, 2), BIN2HEX(O131,2))</f>
         <v>00</v>
       </c>
     </row>
@@ -7400,22 +7641,22 @@
         <v>42</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="83"/>
         <v>0x02A</v>
       </c>
       <c r="C132" t="s">
-        <v>230</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E133" s="9" t="s">
-        <v>194</v>
+      <c r="E133" s="8" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.3">
@@ -7423,11 +7664,11 @@
         <v>48</v>
       </c>
       <c r="B134" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="83"/>
         <v>0x030</v>
       </c>
-      <c r="D134" s="8" t="s">
-        <v>262</v>
+      <c r="D134" s="7" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.3">
@@ -7435,11 +7676,11 @@
         <v>51</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="83"/>
         <v>0x033</v>
       </c>
-      <c r="D135" s="8" t="s">
-        <v>263</v>
+      <c r="D135" s="7" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.3">
@@ -7447,22 +7688,20 @@
         <v>54</v>
       </c>
       <c r="B136" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="83"/>
         <v>0x036</v>
       </c>
-      <c r="D136" s="8" t="s">
-        <v>264</v>
+      <c r="D136" s="7" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="U16:V18">
     <sortCondition ref="U13"/>
   </sortState>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="E129:E131"/>
     <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E23:E25"/>
     <mergeCell ref="E88:E90"/>
     <mergeCell ref="E124:E126"/>
   </mergeCells>
@@ -7470,7 +7709,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W17">
       <formula1>$U$16:$U$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G6 G123 G120 G129 G131 G9:G11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G6 G123 G120 G129 G131 G9:G11 G17:G26 G31:G33 G41:G42">
       <formula1>$U$3:$U$10</formula1>
     </dataValidation>
   </dataValidations>

--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="288" windowWidth="14808" windowHeight="7836"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Control Lines" sheetId="1" r:id="rId1"/>
     <sheet name="Some instructions for test" sheetId="2" r:id="rId2"/>
     <sheet name="Test Programs" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
@@ -22,7 +22,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="B20" authorId="0" shapeId="0">
+    <comment ref="B20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="269">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -328,33 +328,15 @@
     <t>0x</t>
   </si>
   <si>
-    <t>LD B, 0x1</t>
-  </si>
-  <si>
     <t>LD A, 0x20</t>
   </si>
   <si>
-    <t>ADD A, B</t>
-  </si>
-  <si>
     <t>SUB A, B</t>
   </si>
   <si>
-    <t>18 10 00</t>
-  </si>
-  <si>
-    <t>14 10 00</t>
-  </si>
-  <si>
-    <t>04 80 01</t>
-  </si>
-  <si>
     <t>JP [0x006]</t>
   </si>
   <si>
-    <t>2c 00 06</t>
-  </si>
-  <si>
     <t>LD F, 0xff</t>
   </si>
   <si>
@@ -370,18 +352,6 @@
     <t>Equiv to ADD E, B</t>
   </si>
   <si>
-    <t>06 80 ff</t>
-  </si>
-  <si>
-    <t>08 40 00</t>
-  </si>
-  <si>
-    <t>0a 00 00</t>
-  </si>
-  <si>
-    <t>2c 00 09</t>
-  </si>
-  <si>
     <t>Dec</t>
   </si>
   <si>
@@ -421,12 +391,6 @@
     <t>LD B, 0x41</t>
   </si>
   <si>
-    <t>04 80 41</t>
-  </si>
-  <si>
-    <t>04 00 00</t>
-  </si>
-  <si>
     <t>// ASCII code for letter A</t>
   </si>
   <si>
@@ -442,9 +406,6 @@
     <t>ROM DATA in Hex</t>
   </si>
   <si>
-    <t>// Addr of the LCD display</t>
-  </si>
-  <si>
     <t>LD B, 0x48</t>
   </si>
   <si>
@@ -568,21 +529,12 @@
     <t>LD A, 0x30</t>
   </si>
   <si>
-    <t>04 00 30</t>
-  </si>
-  <si>
     <t>// ASCII char '0'</t>
   </si>
   <si>
     <t>OUT 0, A</t>
   </si>
   <si>
-    <t>44 00 00</t>
-  </si>
-  <si>
-    <t>// Saves the value of A register in C</t>
-  </si>
-  <si>
     <t>OUT [OD_addr], R1, R2</t>
   </si>
   <si>
@@ -601,9 +553,6 @@
     <t>08 80 00</t>
   </si>
   <si>
-    <t>// Addr of first char</t>
-  </si>
-  <si>
     <t>// Constant to use in increment</t>
   </si>
   <si>
@@ -676,12 +625,6 @@
     <t>18 50 00</t>
   </si>
   <si>
-    <t>JP Z, [0x01b]</t>
-  </si>
-  <si>
-    <t>30 00 1b</t>
-  </si>
-  <si>
     <t>// If true, stops here</t>
   </si>
   <si>
@@ -691,9 +634,6 @@
     <t>08 10 00</t>
   </si>
   <si>
-    <t>06 80 3c</t>
-  </si>
-  <si>
     <t>LD F, 0x3c</t>
   </si>
   <si>
@@ -703,12 +643,6 @@
     <t>LD B, 0x3a</t>
   </si>
   <si>
-    <t>04 80 3a</t>
-  </si>
-  <si>
-    <t>44 50 00</t>
-  </si>
-  <si>
     <t>// Copy a block of memory from one place to another</t>
   </si>
   <si>
@@ -817,9 +751,6 @@
     <t>JP Z, [0x000]</t>
   </si>
   <si>
-    <t>30 00 00</t>
-  </si>
-  <si>
     <t>// Restart if is the last char</t>
   </si>
   <si>
@@ -917,12 +848,57 @@
   </si>
   <si>
     <t>ST [HL], R1</t>
+  </si>
+  <si>
+    <t>These machine codes doesn't changed</t>
+  </si>
+  <si>
+    <t>LD A, [HL]</t>
+  </si>
+  <si>
+    <t>// Addr of first char (low)</t>
+  </si>
+  <si>
+    <t>// Addr of first char (hi)</t>
+  </si>
+  <si>
+    <t>LD H, 0x0</t>
+  </si>
+  <si>
+    <t>LD L, 0x30</t>
+  </si>
+  <si>
+    <t>INC L</t>
+  </si>
+  <si>
+    <t>SUB L, F</t>
+  </si>
+  <si>
+    <t>JP Z, [0x018]</t>
+  </si>
+  <si>
+    <t>// Saves the value of A register in E</t>
+  </si>
+  <si>
+    <t>LD B, L</t>
+  </si>
+  <si>
+    <t>// Saves the value of L register in B</t>
+  </si>
+  <si>
+    <t>LD L, B</t>
+  </si>
+  <si>
+    <t>// Restores value of L register</t>
+  </si>
+  <si>
+    <t>Test these 3 programs above in v.0.14.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1122,7 +1098,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1198,6 +1174,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1213,10 +1193,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1237,7 +1218,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1275,9 +1256,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1310,26 +1291,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1362,26 +1326,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1557,25 +1504,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL18" sqref="AL18"/>
+      <selection pane="bottomLeft" activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16" width="3.33203125" customWidth="1"/>
-    <col min="17" max="18" width="3.33203125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="3.33203125" customWidth="1"/>
-    <col min="20" max="20" width="3.33203125" style="46" customWidth="1"/>
-    <col min="21" max="26" width="3.33203125" customWidth="1"/>
-    <col min="27" max="29" width="5.88671875" customWidth="1"/>
+    <col min="3" max="16" width="3.28515625" customWidth="1"/>
+    <col min="17" max="18" width="3.28515625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="3.28515625" customWidth="1"/>
+    <col min="20" max="20" width="3.28515625" style="41" customWidth="1"/>
+    <col min="21" max="26" width="3.28515625" customWidth="1"/>
+    <col min="27" max="29" width="5.85546875" customWidth="1"/>
     <col min="30" max="30" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C1">
         <v>23</v>
       </c>
@@ -1627,7 +1574,7 @@
       <c r="S1">
         <v>7</v>
       </c>
-      <c r="T1" s="46">
+      <c r="T1" s="41">
         <v>6</v>
       </c>
       <c r="U1">
@@ -1649,12 +1596,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" ht="130.19999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" s="1" customFormat="1" ht="130.15" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>1</v>
@@ -1690,13 +1637,13 @@
         <v>13</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="O2" s="23" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="P2" s="23" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="Q2" s="25" t="s">
         <v>20</v>
@@ -1705,10 +1652,10 @@
         <v>21</v>
       </c>
       <c r="S2" s="23" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="T2" s="40" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="U2" s="23" t="s">
         <v>32</v>
@@ -1728,13 +1675,13 @@
       <c r="Z2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AA2" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+    </row>
+    <row r="3" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1792,7 +1739,7 @@
       <c r="S3" s="2">
         <v>0</v>
       </c>
-      <c r="T3" s="47">
+      <c r="T3" s="42">
         <v>0</v>
       </c>
       <c r="U3" s="2" t="s">
@@ -1834,7 +1781,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1892,7 +1839,7 @@
       <c r="S4" s="2">
         <v>0</v>
       </c>
-      <c r="T4" s="47">
+      <c r="T4" s="42">
         <v>0</v>
       </c>
       <c r="U4" s="2" t="s">
@@ -1930,7 +1877,7 @@
         <v>C00000</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1988,7 +1935,7 @@
       <c r="S5" s="2">
         <v>0</v>
       </c>
-      <c r="T5" s="47">
+      <c r="T5" s="42">
         <v>0</v>
       </c>
       <c r="U5" s="2" t="s">
@@ -2026,7 +1973,7 @@
         <v>600400</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2084,7 +2031,7 @@
       <c r="S6" s="2">
         <v>0</v>
       </c>
-      <c r="T6" s="47">
+      <c r="T6" s="42">
         <v>0</v>
       </c>
       <c r="U6" s="2" t="s">
@@ -2122,12 +2069,12 @@
         <v>5E0000</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -2180,7 +2127,7 @@
       <c r="S7" s="2">
         <v>0</v>
       </c>
-      <c r="T7" s="47">
+      <c r="T7" s="42">
         <v>0</v>
       </c>
       <c r="U7" s="2" t="s">
@@ -2218,7 +2165,7 @@
         <v>4F0000</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2276,7 +2223,7 @@
       <c r="S8" s="2">
         <v>0</v>
       </c>
-      <c r="T8" s="47">
+      <c r="T8" s="42">
         <v>0</v>
       </c>
       <c r="U8" s="2" t="s">
@@ -2314,7 +2261,7 @@
         <v>004000</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2372,7 +2319,7 @@
       <c r="S9" s="2">
         <v>0</v>
       </c>
-      <c r="T9" s="47">
+      <c r="T9" s="42">
         <v>0</v>
       </c>
       <c r="U9" s="2" t="s">
@@ -2410,7 +2357,7 @@
         <v>006000</v>
       </c>
     </row>
-    <row r="10" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="33">
         <v>7</v>
       </c>
@@ -2468,7 +2415,7 @@
       <c r="S10" s="33">
         <v>0</v>
       </c>
-      <c r="T10" s="47">
+      <c r="T10" s="42">
         <v>0</v>
       </c>
       <c r="U10" s="33" t="s">
@@ -2506,7 +2453,7 @@
         <v>004200</v>
       </c>
     </row>
-    <row r="11" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="33">
         <v>8</v>
       </c>
@@ -2564,7 +2511,7 @@
       <c r="S11" s="33">
         <v>0</v>
       </c>
-      <c r="T11" s="47">
+      <c r="T11" s="42">
         <v>0</v>
       </c>
       <c r="U11" s="33" t="s">
@@ -2602,7 +2549,7 @@
         <v>006200</v>
       </c>
     </row>
-    <row r="12" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
         <v>9</v>
       </c>
@@ -2632,7 +2579,7 @@
       <c r="S12" s="33">
         <v>0</v>
       </c>
-      <c r="T12" s="47">
+      <c r="T12" s="42">
         <v>0</v>
       </c>
       <c r="U12" s="33" t="s">
@@ -2670,7 +2617,7 @@
         <v>000100</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2728,7 +2675,7 @@
       <c r="S13" s="2">
         <v>0</v>
       </c>
-      <c r="T13" s="47">
+      <c r="T13" s="42">
         <v>0</v>
       </c>
       <c r="U13" s="2" t="s">
@@ -2762,19 +2709,19 @@
         <v>00</v>
       </c>
       <c r="AE13" s="5" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="AL13" s="8" t="str">
         <f t="shared" ref="AL13:AL44" si="4">AA13 &amp; AB13 &amp; AC13</f>
         <v>181800</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -2827,7 +2774,7 @@
       <c r="S14" s="2">
         <v>0</v>
       </c>
-      <c r="T14" s="47">
+      <c r="T14" s="42">
         <v>0</v>
       </c>
       <c r="U14" s="2" t="s">
@@ -2865,7 +2812,7 @@
         <v>091000</v>
       </c>
     </row>
-    <row r="15" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="33">
         <v>12</v>
       </c>
@@ -2886,7 +2833,7 @@
       <c r="S15" s="33">
         <v>0</v>
       </c>
-      <c r="T15" s="47">
+      <c r="T15" s="42">
         <v>0</v>
       </c>
       <c r="U15" s="33"/>
@@ -2912,7 +2859,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="16" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="33">
         <v>13</v>
       </c>
@@ -2933,7 +2880,7 @@
       <c r="S16" s="33">
         <v>0</v>
       </c>
-      <c r="T16" s="47">
+      <c r="T16" s="42">
         <v>0</v>
       </c>
       <c r="U16" s="33"/>
@@ -2959,7 +2906,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="17" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="33">
         <v>14</v>
       </c>
@@ -2980,7 +2927,7 @@
       <c r="S17" s="33">
         <v>0</v>
       </c>
-      <c r="T17" s="47">
+      <c r="T17" s="42">
         <v>0</v>
       </c>
       <c r="U17" s="33"/>
@@ -3006,7 +2953,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="18" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="33">
         <v>15</v>
       </c>
@@ -3027,7 +2974,7 @@
       <c r="S18" s="33">
         <v>0</v>
       </c>
-      <c r="T18" s="47">
+      <c r="T18" s="42">
         <v>0</v>
       </c>
       <c r="U18" s="33"/>
@@ -3053,12 +3000,12 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="19" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="33">
         <v>16</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="O19" s="8">
         <v>0</v>
@@ -3069,7 +3016,7 @@
       <c r="S19" s="8">
         <v>0</v>
       </c>
-      <c r="T19" s="47">
+      <c r="T19" s="42">
         <v>0</v>
       </c>
       <c r="AA19" s="35" t="str">
@@ -3085,19 +3032,19 @@
         <v>00</v>
       </c>
       <c r="AE19" s="8" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="AL19" s="8" t="str">
         <f t="shared" si="4"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3150,7 +3097,7 @@
       <c r="S20">
         <v>1</v>
       </c>
-      <c r="T20" s="47">
+      <c r="T20" s="42">
         <v>0</v>
       </c>
       <c r="U20" s="2" t="s">
@@ -3184,19 +3131,19 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="AL20" s="8" t="str">
         <f t="shared" si="4"/>
         <v>000080</v>
       </c>
     </row>
-    <row r="21" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
       <c r="B21" s="31"/>
-      <c r="T21" s="47"/>
+      <c r="T21" s="42"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
@@ -3220,12 +3167,12 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="22" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
       <c r="B22" s="31"/>
-      <c r="T22" s="47"/>
+      <c r="T22" s="42"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
@@ -3249,12 +3196,12 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="23" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
       <c r="B23" s="31"/>
-      <c r="T23" s="47"/>
+      <c r="T23" s="42"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
@@ -3278,12 +3225,12 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="24" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
       <c r="B24" s="31"/>
-      <c r="T24" s="47"/>
+      <c r="T24" s="42"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
@@ -3307,12 +3254,12 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="25" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
       <c r="B25" s="31"/>
-      <c r="T25" s="47"/>
+      <c r="T25" s="42"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
@@ -3336,12 +3283,12 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="26" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
       <c r="B26" s="31"/>
-      <c r="T26" s="47"/>
+      <c r="T26" s="42"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
@@ -3365,12 +3312,12 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="27" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
       <c r="B27" s="31"/>
-      <c r="T27" s="47"/>
+      <c r="T27" s="42"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
@@ -3394,12 +3341,12 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="28" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
       <c r="B28" s="31"/>
-      <c r="T28" s="47"/>
+      <c r="T28" s="42"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
@@ -3423,12 +3370,12 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="29" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
       <c r="B29" s="31"/>
-      <c r="T29" s="47"/>
+      <c r="T29" s="42"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
@@ -3452,12 +3399,12 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="30" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
       <c r="B30" s="31"/>
-      <c r="T30" s="47"/>
+      <c r="T30" s="42"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
@@ -3481,12 +3428,12 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="31" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
       <c r="B31" s="31"/>
-      <c r="T31" s="47"/>
+      <c r="T31" s="42"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
@@ -3510,12 +3457,12 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="32" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>
       <c r="B32" s="31"/>
-      <c r="T32" s="47"/>
+      <c r="T32" s="42"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
@@ -3539,12 +3486,12 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="33" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>30</v>
       </c>
       <c r="B33" s="31"/>
-      <c r="T33" s="47"/>
+      <c r="T33" s="42"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
@@ -3568,12 +3515,12 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="34" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>31</v>
       </c>
       <c r="B34" s="31"/>
-      <c r="T34" s="47"/>
+      <c r="T34" s="42"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
@@ -3597,7 +3544,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -3655,7 +3602,7 @@
       <c r="S35" s="2">
         <v>0</v>
       </c>
-      <c r="T35" s="47">
+      <c r="T35" s="42">
         <v>0</v>
       </c>
       <c r="U35" s="2">
@@ -3689,14 +3636,14 @@
         <v>25</v>
       </c>
       <c r="AE35" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="AL35" s="8" t="str">
         <f t="shared" si="4"/>
         <v>408825</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -3754,7 +3701,7 @@
       <c r="S36" s="2">
         <v>0</v>
       </c>
-      <c r="T36" s="47">
+      <c r="T36" s="42">
         <v>0</v>
       </c>
       <c r="U36" s="2">
@@ -3788,14 +3735,14 @@
         <v>18</v>
       </c>
       <c r="AE36" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="AL36" s="8" t="str">
         <f t="shared" si="4"/>
         <v>408818</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -3853,7 +3800,7 @@
       <c r="S37" s="2">
         <v>0</v>
       </c>
-      <c r="T37" s="47">
+      <c r="T37" s="42">
         <v>0</v>
       </c>
       <c r="U37" s="2">
@@ -3891,7 +3838,7 @@
         <v>408802</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -3949,7 +3896,7 @@
       <c r="S38" s="2">
         <v>0</v>
       </c>
-      <c r="T38" s="47">
+      <c r="T38" s="42">
         <v>0</v>
       </c>
       <c r="U38" s="2">
@@ -3987,7 +3934,7 @@
         <v>40882E</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -4045,7 +3992,7 @@
       <c r="S39" s="2">
         <v>0</v>
       </c>
-      <c r="T39" s="47">
+      <c r="T39" s="42">
         <v>0</v>
       </c>
       <c r="U39" s="2">
@@ -4083,7 +4030,7 @@
         <v>40883A</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -4141,7 +4088,7 @@
       <c r="S40" s="2">
         <v>0</v>
       </c>
-      <c r="T40" s="47">
+      <c r="T40" s="42">
         <v>0</v>
       </c>
       <c r="U40" s="2">
@@ -4179,12 +4126,12 @@
         <v>40881A</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>38</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -4237,7 +4184,7 @@
       <c r="S41" s="2">
         <v>0</v>
       </c>
-      <c r="T41" s="47">
+      <c r="T41" s="42">
         <v>0</v>
       </c>
       <c r="U41" s="2">
@@ -4275,12 +4222,12 @@
         <v>408806</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>39</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="C42" s="6">
         <v>0</v>
@@ -4333,7 +4280,7 @@
       <c r="S42" s="2">
         <v>0</v>
       </c>
-      <c r="T42" s="47">
+      <c r="T42" s="42">
         <v>0</v>
       </c>
       <c r="U42" s="2">
@@ -4371,12 +4318,12 @@
         <v>408826</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>40</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="C43" s="6">
         <v>0</v>
@@ -4429,7 +4376,7 @@
       <c r="S43" s="2">
         <v>0</v>
       </c>
-      <c r="T43" s="47">
+      <c r="T43" s="42">
         <v>0</v>
       </c>
       <c r="U43" s="2">
@@ -4467,12 +4414,12 @@
         <v>408800</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>41</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="C44" s="6">
         <v>0</v>
@@ -4525,7 +4472,7 @@
       <c r="S44" s="2">
         <v>0</v>
       </c>
-      <c r="T44" s="47">
+      <c r="T44" s="42">
         <v>0</v>
       </c>
       <c r="U44" s="2">
@@ -4563,7 +4510,7 @@
         <v>40883D</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>22</v>
       </c>
@@ -4571,7 +4518,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
         <v>30</v>
       </c>
@@ -4579,23 +4526,23 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>47</v>
       </c>
@@ -4603,35 +4550,35 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="B52" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="Q52"/>
       <c r="R52"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53"/>
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C53" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q53"/>
       <c r="R53"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="B54" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="Q54"/>
       <c r="R54"/>
@@ -4654,10 +4601,10 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.109375" style="7"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -4805,91 +4752,91 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X136"/>
+  <dimension ref="A1:X135"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J93" sqref="J93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" style="16" customWidth="1"/>
-    <col min="13" max="14" width="9.109375" style="2"/>
-    <col min="15" max="15" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="16" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="2"/>
+    <col min="15" max="15" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q1" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="R1" s="44"/>
-      <c r="S1" s="45"/>
+        <v>207</v>
+      </c>
+      <c r="Q1" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="R1" s="46"/>
+      <c r="S1" s="47"/>
       <c r="T1" s="10"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="8" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
       <c r="O2" s="17"/>
       <c r="U2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -4898,7 +4845,7 @@
         <v>0x000</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="11">
@@ -4953,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4962,10 +4909,10 @@
         <v>0x003</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="F4" s="11">
         <v>1</v>
@@ -5019,7 +4966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6</v>
       </c>
@@ -5028,7 +4975,7 @@
         <v>0x006</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="11">
@@ -5083,7 +5030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9</v>
       </c>
@@ -5092,7 +5039,7 @@
         <v>0x009</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="11">
@@ -5144,7 +5091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E7" s="8"/>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
@@ -5156,19 +5103,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C8" s="8" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="E8" s="8"/>
       <c r="U8" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="V8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -5177,7 +5124,7 @@
         <v>0x000</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11">
@@ -5226,13 +5173,13 @@
         <v>00</v>
       </c>
       <c r="U9" s="38" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="V9" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -5241,7 +5188,7 @@
         <v>0x003</v>
       </c>
       <c r="C10" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="F10" s="11">
         <v>40</v>
@@ -5286,13 +5233,13 @@
         <v>00</v>
       </c>
       <c r="U10" s="38" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="V10" s="38">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -5301,7 +5248,7 @@
         <v>0x006</v>
       </c>
       <c r="C11" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="F11" s="11">
         <v>5</v>
@@ -5346,18 +5293,18 @@
         <v>03</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C16" s="8" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="U16" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="V16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
@@ -5366,7 +5313,7 @@
         <v>0x000</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F17" s="11">
         <v>1</v>
@@ -5414,20 +5361,20 @@
         <v>00</v>
       </c>
       <c r="U17" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="V17">
         <v>1</v>
       </c>
       <c r="W17" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="X17">
         <f>VLOOKUP(W17,U16:V18,2)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5436,7 +5383,7 @@
         <v>0x003</v>
       </c>
       <c r="C18" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="F18" s="11">
         <v>1</v>
@@ -5484,13 +5431,13 @@
         <v>FF</v>
       </c>
       <c r="U18" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="V18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
@@ -5499,7 +5446,7 @@
         <v>0x006</v>
       </c>
       <c r="C19" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="F19" s="11">
         <v>40</v>
@@ -5544,7 +5491,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>9</v>
       </c>
@@ -5553,10 +5500,10 @@
         <v>0x009</v>
       </c>
       <c r="C20" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F20" s="11">
         <v>41</v>
@@ -5601,7 +5548,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12</v>
       </c>
@@ -5610,7 +5557,7 @@
         <v>0x00C</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="11">
@@ -5656,43 +5603,43 @@
         <v>06</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E22" s="39"/>
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E23" s="39"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
       <c r="O23" s="17"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E24" s="39"/>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
       <c r="O24" s="17"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E25" s="39"/>
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
       <c r="O25" s="17"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M26" s="17"/>
       <c r="N26" s="17"/>
       <c r="O26" s="17"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
@@ -5701,7 +5648,7 @@
         <v>0x000</v>
       </c>
       <c r="C31" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F31" s="11">
         <v>1</v>
@@ -5749,7 +5696,7 @@
         <v>01</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -5758,7 +5705,7 @@
         <v>0x003</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F32" s="11">
         <v>1</v>
@@ -5806,7 +5753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -5815,7 +5762,7 @@
         <v>0x006</v>
       </c>
       <c r="C33" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="F33" s="11">
         <v>32</v>
@@ -5863,7 +5810,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>9</v>
       </c>
@@ -5872,7 +5819,7 @@
         <v>0x009</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F34" s="11">
         <v>6</v>
@@ -5913,7 +5860,7 @@
         <v>0F</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>12</v>
       </c>
@@ -5922,7 +5869,7 @@
         <v>0x00C</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F35" s="11">
         <v>5</v>
@@ -5963,7 +5910,7 @@
         <v>06</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>15</v>
       </c>
@@ -5972,7 +5919,7 @@
         <v>0x00F</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F36" s="11">
         <v>5</v>
@@ -6013,12 +5960,12 @@
         <v>0F</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C40" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
@@ -6027,7 +5974,7 @@
         <v>0x000</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F41" s="11">
         <v>3</v>
@@ -6075,7 +6022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
@@ -6084,7 +6031,7 @@
         <v>0x003</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F42" s="11">
         <v>10</v>
@@ -6132,7 +6079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>6</v>
       </c>
@@ -6141,7 +6088,7 @@
         <v>0x006</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F43" s="11">
         <v>5</v>
@@ -6182,7 +6129,7 @@
         <v>06</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>16</v>
       </c>
@@ -6191,41 +6138,83 @@
         <v>0x010</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C46" s="38" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C48" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" ref="B49:B51" si="65">"0x" &amp; DEC2HEX(A49,3)</f>
+        <f t="shared" ref="B49:B50" si="65">"0x" &amp; DEC2HEX(A49,3)</f>
         <v>0x000</v>
       </c>
       <c r="C49" t="s">
-        <v>109</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="F49" s="11">
+        <v>1</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H49">
+        <f t="shared" ref="H49" si="66">IF(G49="", "", VLOOKUP(G49, $U$3:$V$10, 2))</f>
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>65</v>
+      </c>
+      <c r="L49" s="16" t="str">
+        <f t="shared" ref="L49" si="67">IF(F49="", "", TEXT(DEC2BIN(F49), "000000"))</f>
+        <v>000001</v>
+      </c>
+      <c r="M49" s="17" t="str">
+        <f t="shared" ref="M49" si="68">IF(H49="", "", TEXT(DEC2BIN(H49), "000"))</f>
+        <v>001</v>
+      </c>
+      <c r="N49" s="17" t="str">
+        <f t="shared" ref="N49" si="69">IF(I49="", "", TEXT(DEC2BIN(I49), "000"))</f>
+        <v/>
+      </c>
+      <c r="O49" s="17" t="str">
+        <f t="shared" ref="O49" si="70">IF(J49="", "", TEXT(DEC2BIN(J49), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P49" s="18" t="str">
+        <f t="shared" ref="P49" si="71">IF(K49="", "", TEXT(DEC2BIN(K49), "00000000"))</f>
+        <v>01000001</v>
+      </c>
+      <c r="Q49" t="str">
+        <f t="shared" ref="Q49" si="72">BIN2HEX(LEFT(CONCATENATE(L49,IF(M49="", "000", M49)), 8), 2)</f>
+        <v>04</v>
+      </c>
+      <c r="R49" t="str">
+        <f t="shared" ref="R49" si="73">BIN2HEX(CONCATENATE(RIGHT(M49, 1), IF(N49 = "", "000", N49), "0000"), 2)</f>
+        <v>80</v>
+      </c>
+      <c r="S49" s="13" t="str">
+        <f t="shared" ref="S49" si="74">IF(O49="", BIN2HEX(P49, 2), BIN2HEX(O49,2))</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -6234,1482 +6223,1838 @@
         <v>0x003</v>
       </c>
       <c r="C50" t="s">
-        <v>110</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>6</v>
-      </c>
-      <c r="B51" t="str">
-        <f t="shared" si="65"/>
-        <v>0x006</v>
-      </c>
-      <c r="C51" t="s">
-        <v>149</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F51" s="11">
+        <v>136</v>
+      </c>
+      <c r="F50" s="11">
         <v>17</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="L51" s="16" t="str">
-        <f t="shared" ref="L51" si="66">IF(F51="", "", TEXT(DEC2BIN(F51), "000000"))</f>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="L50" s="16" t="str">
+        <f t="shared" ref="L50" si="75">IF(F50="", "", TEXT(DEC2BIN(F50), "000000"))</f>
         <v>010001</v>
       </c>
-      <c r="M51" s="17" t="str">
-        <f t="shared" ref="M51" si="67">IF(H51="", "", TEXT(DEC2BIN(H51), "000"))</f>
+      <c r="M50" s="17" t="str">
+        <f t="shared" ref="M50" si="76">IF(H50="", "", TEXT(DEC2BIN(H50), "000"))</f>
         <v>000</v>
       </c>
-      <c r="N51" s="17" t="str">
-        <f t="shared" ref="N51" si="68">IF(I51="", "", TEXT(DEC2BIN(I51), "000"))</f>
+      <c r="N50" s="17" t="str">
+        <f t="shared" ref="N50" si="77">IF(I50="", "", TEXT(DEC2BIN(I50), "000"))</f>
         <v>001</v>
       </c>
-      <c r="O51" s="17" t="str">
-        <f t="shared" ref="O51" si="69">IF(J51="", "", TEXT(DEC2BIN(J51), "00000000"))</f>
-        <v/>
-      </c>
-      <c r="P51" s="18" t="str">
-        <f t="shared" ref="P51" si="70">IF(K51="", "", TEXT(DEC2BIN(K51), "00000000"))</f>
-        <v/>
-      </c>
-      <c r="Q51" t="str">
-        <f t="shared" ref="Q51" si="71">BIN2HEX(LEFT(CONCATENATE(L51,IF(M51="", "000", M51)), 8), 2)</f>
+      <c r="O50" s="17" t="str">
+        <f t="shared" ref="O50" si="78">IF(J50="", "", TEXT(DEC2BIN(J50), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P50" s="18" t="str">
+        <f t="shared" ref="P50" si="79">IF(K50="", "", TEXT(DEC2BIN(K50), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" ref="Q50" si="80">BIN2HEX(LEFT(CONCATENATE(L50,IF(M50="", "000", M50)), 8), 2)</f>
         <v>44</v>
       </c>
-      <c r="R51" t="str">
-        <f t="shared" ref="R51" si="72">BIN2HEX(CONCATENATE(RIGHT(M51, 1), IF(N51 = "", "000", N51), "0000"), 2)</f>
+      <c r="R50" t="str">
+        <f t="shared" ref="R50" si="81">BIN2HEX(CONCATENATE(RIGHT(M50, 1), IF(N50 = "", "000", N50), "0000"), 2)</f>
         <v>10</v>
       </c>
-      <c r="S51" s="13" t="str">
-        <f t="shared" ref="S51" si="73">IF(O51="", BIN2HEX(P51, 2), BIN2HEX(O51,2))</f>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S50" s="13" t="str">
+        <f t="shared" ref="S50" si="82">IF(O50="", BIN2HEX(P50, 2), BIN2HEX(O50,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+    </row>
+    <row r="55" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C55" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" ref="B56:B79" si="74">"0x" &amp; DEC2HEX(A56,3)</f>
+        <f t="shared" ref="B56:B79" si="83">"0x" &amp; DEC2HEX(A56,3)</f>
         <v>0x000</v>
       </c>
       <c r="C56" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="F56" s="48" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>0x003</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>6</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>0x006</v>
       </c>
       <c r="C58" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>9</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>0x009</v>
       </c>
       <c r="C59" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E59" s="8"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>12</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>0x00C</v>
       </c>
       <c r="C60" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>15</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>0x00F</v>
       </c>
       <c r="C61" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>18</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>0x012</v>
       </c>
       <c r="C62" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>21</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>0x015</v>
       </c>
       <c r="C63" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>24</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>0x018</v>
       </c>
       <c r="C64" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>27</v>
       </c>
       <c r="B65" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>0x01B</v>
       </c>
       <c r="C65" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E65" s="8"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>30</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>0x01E</v>
       </c>
       <c r="C66" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>33</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>0x021</v>
       </c>
       <c r="C67" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E67" s="8"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>36</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>0x024</v>
       </c>
       <c r="C68" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>39</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>0x027</v>
       </c>
       <c r="C69" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E69" s="8"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>42</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>0x02A</v>
       </c>
       <c r="C70" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>45</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>0x02D</v>
       </c>
       <c r="C71" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E71" s="8"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>48</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>0x030</v>
       </c>
       <c r="C72" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>51</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>0x033</v>
       </c>
       <c r="C73" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>54</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>0x036</v>
       </c>
       <c r="C74" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>57</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>0x039</v>
       </c>
       <c r="C75" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E75" s="8"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>60</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>0x03C</v>
       </c>
       <c r="C76" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>63</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>0x03F</v>
       </c>
       <c r="C77" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E77" s="8"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>66</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>0x042</v>
       </c>
       <c r="C78" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>69</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>0x045</v>
       </c>
       <c r="C79" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E80" s="8"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D81"/>
       <c r="E81" s="8"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C82" s="8" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="D82"/>
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" ref="B83:B93" si="75">"0x" &amp; DEC2HEX(A83,3)</f>
+        <f t="shared" ref="B83:B87" si="84">"0x" &amp; DEC2HEX(A83,3)</f>
         <v>0x000</v>
       </c>
       <c r="C83" t="s">
-        <v>177</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>178</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="D83"/>
       <c r="E83" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="F83" s="11">
+        <v>1</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="H83">
+        <f t="shared" ref="H83" si="85">IF(G83="", "", VLOOKUP(G83, $U$3:$V$10, 2))</f>
+        <v>2</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83" s="16" t="str">
+        <f t="shared" ref="L83" si="86">IF(F83="", "", TEXT(DEC2BIN(F83), "000000"))</f>
+        <v>000001</v>
+      </c>
+      <c r="M83" s="17" t="str">
+        <f t="shared" ref="M83" si="87">IF(H83="", "", TEXT(DEC2BIN(H83), "000"))</f>
+        <v>010</v>
+      </c>
+      <c r="N83" s="17" t="str">
+        <f t="shared" ref="N83" si="88">IF(I83="", "", TEXT(DEC2BIN(I83), "000"))</f>
+        <v/>
+      </c>
+      <c r="O83" s="17" t="str">
+        <f t="shared" ref="O83" si="89">IF(J83="", "", TEXT(DEC2BIN(J83), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P83" s="18" t="str">
+        <f t="shared" ref="P83" si="90">IF(K83="", "", TEXT(DEC2BIN(K83), "00000000"))</f>
+        <v>00000000</v>
+      </c>
+      <c r="Q83" t="str">
+        <f t="shared" ref="Q83" si="91">BIN2HEX(LEFT(CONCATENATE(L83,IF(M83="", "000", M83)), 8), 2)</f>
+        <v>05</v>
+      </c>
+      <c r="R83" t="str">
+        <f t="shared" ref="R83" si="92">BIN2HEX(CONCATENATE(RIGHT(M83, 1), IF(N83 = "", "000", N83), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="S83" s="13" t="str">
+        <f t="shared" ref="S83" si="93">IF(O83="", BIN2HEX(P83, 2), BIN2HEX(O83,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>0x003</v>
       </c>
       <c r="C84" t="s">
-        <v>202</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+      <c r="F84" s="11">
+        <v>1</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H84">
+        <f t="shared" ref="H84:H86" si="94">IF(G84="", "", VLOOKUP(G84, $U$3:$V$10, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="K84">
+        <v>48</v>
+      </c>
+      <c r="L84" s="16" t="str">
+        <f t="shared" ref="L84:L86" si="95">IF(F84="", "", TEXT(DEC2BIN(F84), "000000"))</f>
+        <v>000001</v>
+      </c>
+      <c r="M84" s="17" t="str">
+        <f t="shared" ref="M84:M86" si="96">IF(H84="", "", TEXT(DEC2BIN(H84), "000"))</f>
+        <v>011</v>
+      </c>
+      <c r="N84" s="17" t="str">
+        <f t="shared" ref="N84:N86" si="97">IF(I84="", "", TEXT(DEC2BIN(I84), "000"))</f>
+        <v/>
+      </c>
+      <c r="O84" s="17" t="str">
+        <f t="shared" ref="O84:O86" si="98">IF(J84="", "", TEXT(DEC2BIN(J84), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P84" s="18" t="str">
+        <f t="shared" ref="P84:P86" si="99">IF(K84="", "", TEXT(DEC2BIN(K84), "00000000"))</f>
+        <v>00110000</v>
+      </c>
+      <c r="Q84" t="str">
+        <f t="shared" ref="Q84:Q86" si="100">BIN2HEX(LEFT(CONCATENATE(L84,IF(M84="", "000", M84)), 8), 2)</f>
+        <v>05</v>
+      </c>
+      <c r="R84" t="str">
+        <f t="shared" ref="R84:R86" si="101">BIN2HEX(CONCATENATE(RIGHT(M84, 1), IF(N84 = "", "000", N84), "0000"), 2)</f>
+        <v>80</v>
+      </c>
+      <c r="S84" s="13" t="str">
+        <f t="shared" ref="S84:S86" si="102">IF(O84="", BIN2HEX(P84, 2), BIN2HEX(O84,2))</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>6</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>0x006</v>
       </c>
       <c r="C85" t="s">
-        <v>166</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+      <c r="F85" s="11">
+        <v>1</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="94"/>
+        <v>7</v>
+      </c>
+      <c r="K85">
+        <v>60</v>
+      </c>
+      <c r="L85" s="16" t="str">
+        <f t="shared" si="95"/>
+        <v>000001</v>
+      </c>
+      <c r="M85" s="17" t="str">
+        <f t="shared" si="96"/>
+        <v>111</v>
+      </c>
+      <c r="N85" s="17" t="str">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+      <c r="O85" s="17" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="P85" s="18" t="str">
+        <f t="shared" si="99"/>
+        <v>00111100</v>
+      </c>
+      <c r="Q85" t="str">
+        <f t="shared" si="100"/>
+        <v>07</v>
+      </c>
+      <c r="R85" t="str">
+        <f t="shared" si="101"/>
+        <v>80</v>
+      </c>
+      <c r="S85" s="13" t="str">
+        <f t="shared" si="102"/>
+        <v>3C</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>9</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>0x009</v>
       </c>
       <c r="C86" t="s">
-        <v>193</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>194</v>
+        <v>255</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="F86" s="11">
+        <v>4</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86" s="16" t="str">
+        <f t="shared" si="95"/>
+        <v>000100</v>
+      </c>
+      <c r="M86" s="17" t="str">
+        <f t="shared" si="96"/>
+        <v>000</v>
+      </c>
+      <c r="N86" s="17" t="str">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+      <c r="O86" s="17" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="P86" s="18" t="str">
+        <f t="shared" si="99"/>
+        <v>00000000</v>
+      </c>
+      <c r="Q86" t="str">
+        <f t="shared" si="100"/>
+        <v>10</v>
+      </c>
+      <c r="R86" t="str">
+        <f t="shared" si="101"/>
+        <v>00</v>
+      </c>
+      <c r="S86" s="13" t="str">
+        <f t="shared" si="102"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>12</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>0x00C</v>
       </c>
       <c r="C87" t="s">
-        <v>162</v>
-      </c>
-      <c r="D87" t="s">
-        <v>163</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="D87"/>
       <c r="E87" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="F87" s="11">
+        <v>17</v>
+      </c>
+      <c r="G87" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H87">
+        <f t="shared" ref="H87:H89" si="103">IF(G87="", "", VLOOKUP(G87, $U$3:$V$10, 2))</f>
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="L87" s="16" t="str">
+        <f t="shared" ref="L87" si="104">IF(F87="", "", TEXT(DEC2BIN(F87), "000000"))</f>
+        <v>010001</v>
+      </c>
+      <c r="M87" s="17" t="str">
+        <f t="shared" ref="M87:M89" si="105">IF(H87="", "", TEXT(DEC2BIN(H87), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="N87" s="17" t="str">
+        <f t="shared" ref="N87:N89" si="106">IF(I87="", "", TEXT(DEC2BIN(I87), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="O87" s="17" t="str">
+        <f t="shared" ref="O87:O89" si="107">IF(J87="", "", TEXT(DEC2BIN(J87), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P87" s="18" t="str">
+        <f t="shared" ref="P87:P89" si="108">IF(K87="", "", TEXT(DEC2BIN(K87), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q87" t="str">
+        <f t="shared" ref="Q87" si="109">BIN2HEX(LEFT(CONCATENATE(L87,IF(M87="", "000", M87)), 8), 2)</f>
+        <v>44</v>
+      </c>
+      <c r="R87" t="str">
+        <f t="shared" ref="R87" si="110">BIN2HEX(CONCATENATE(RIGHT(M87, 1), IF(N87 = "", "000", N87), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="S87" s="13" t="str">
+        <f t="shared" ref="S87" si="111">IF(O87="", BIN2HEX(P87, 2), BIN2HEX(O87,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>15</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" ref="B88:B93" si="112">"0x" &amp; DEC2HEX(A88,3)</f>
         <v>0x00F</v>
       </c>
       <c r="C88" t="s">
-        <v>59</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E88" s="42" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="E88" s="49"/>
+      <c r="F88" s="11">
+        <v>40</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="103"/>
+        <v>3</v>
+      </c>
+      <c r="L88" s="16" t="str">
+        <f>IF(F88="", "", TEXT(DEC2BIN(F88), "000000"))</f>
+        <v>101000</v>
+      </c>
+      <c r="M88" s="17" t="str">
+        <f t="shared" si="105"/>
+        <v>011</v>
+      </c>
+      <c r="N88" s="17" t="str">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+      <c r="O88" s="17" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+      <c r="P88" s="18" t="str">
+        <f t="shared" si="108"/>
+        <v/>
+      </c>
+      <c r="Q88" t="str">
+        <f>BIN2HEX(LEFT(CONCATENATE(L88,IF(M88="", "000", M88)), 8), 2)</f>
+        <v>A1</v>
+      </c>
+      <c r="R88" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M88, 1), IF(N88 = "", "000", N88), "0000"), 2)</f>
+        <v>80</v>
+      </c>
+      <c r="S88" s="13" t="str">
+        <f>IF(O88="", BIN2HEX(P88, 2), BIN2HEX(O88,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>18</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="112"/>
         <v>0x012</v>
       </c>
       <c r="C89" t="s">
-        <v>168</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E89" s="42"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F89" s="11">
+        <v>2</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="103"/>
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>3</v>
+      </c>
+      <c r="L89" s="16" t="str">
+        <f t="shared" ref="L89" si="113">IF(F89="", "", TEXT(DEC2BIN(F89), "000000"))</f>
+        <v>000010</v>
+      </c>
+      <c r="M89" s="17" t="str">
+        <f t="shared" si="105"/>
+        <v>001</v>
+      </c>
+      <c r="N89" s="17" t="str">
+        <f t="shared" si="106"/>
+        <v>011</v>
+      </c>
+      <c r="O89" s="17" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+      <c r="P89" s="18" t="str">
+        <f t="shared" si="108"/>
+        <v/>
+      </c>
+      <c r="Q89" t="str">
+        <f t="shared" ref="Q89" si="114">BIN2HEX(LEFT(CONCATENATE(L89,IF(M89="", "000", M89)), 8), 2)</f>
+        <v>08</v>
+      </c>
+      <c r="R89" t="str">
+        <f t="shared" ref="R89" si="115">BIN2HEX(CONCATENATE(RIGHT(M89, 1), IF(N89 = "", "000", N89), "0000"), 2)</f>
+        <v>B0</v>
+      </c>
+      <c r="S89" s="13" t="str">
+        <f t="shared" ref="S89" si="116">IF(O89="", BIN2HEX(P89, 2), BIN2HEX(O89,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>21</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="112"/>
         <v>0x015</v>
       </c>
       <c r="C90" t="s">
-        <v>62</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E90" s="42"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F90" s="11">
+        <v>33</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H90">
+        <f t="shared" ref="H90" si="117">IF(G90="", "", VLOOKUP(G90, $U$3:$V$10, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="I90">
+        <v>7</v>
+      </c>
+      <c r="L90" s="16" t="str">
+        <f>IF(F90="", "", TEXT(DEC2BIN(F90), "000000"))</f>
+        <v>100001</v>
+      </c>
+      <c r="M90" s="17" t="str">
+        <f t="shared" ref="M90" si="118">IF(H90="", "", TEXT(DEC2BIN(H90), "000"))</f>
+        <v>011</v>
+      </c>
+      <c r="N90" s="17" t="str">
+        <f t="shared" ref="N90" si="119">IF(I90="", "", TEXT(DEC2BIN(I90), "000"))</f>
+        <v>111</v>
+      </c>
+      <c r="O90" s="17" t="str">
+        <f t="shared" ref="O90" si="120">IF(J90="", "", TEXT(DEC2BIN(J90), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P90" s="18" t="str">
+        <f t="shared" ref="P90" si="121">IF(K90="", "", TEXT(DEC2BIN(K90), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q90" t="str">
+        <f>BIN2HEX(LEFT(CONCATENATE(L90,IF(M90="", "000", M90)), 8), 2)</f>
+        <v>85</v>
+      </c>
+      <c r="R90" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M90, 1), IF(N90 = "", "000", N90), "0000"), 2)</f>
+        <v>F0</v>
+      </c>
+      <c r="S90" s="13" t="str">
+        <f>IF(O90="", BIN2HEX(P90, 2), BIN2HEX(O90,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>24</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="112"/>
         <v>0x018</v>
       </c>
       <c r="C91" t="s">
-        <v>176</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>195</v>
+        <v>262</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="F91" s="11">
+        <v>6</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" ref="H91:H92" si="122">IF(G91="", "", VLOOKUP(G91, $U$3:$V$10, 2))</f>
+        <v/>
+      </c>
+      <c r="J91">
+        <v>24</v>
+      </c>
+      <c r="L91" s="16" t="str">
+        <f>IF(F91="", "", TEXT(DEC2BIN(F91), "000000"))</f>
+        <v>000110</v>
+      </c>
+      <c r="M91" s="17" t="str">
+        <f t="shared" ref="M91:M92" si="123">IF(H91="", "", TEXT(DEC2BIN(H91), "000"))</f>
+        <v/>
+      </c>
+      <c r="N91" s="17" t="str">
+        <f t="shared" ref="N91:N92" si="124">IF(I91="", "", TEXT(DEC2BIN(I91), "000"))</f>
+        <v/>
+      </c>
+      <c r="O91" s="17" t="str">
+        <f t="shared" ref="O91:O92" si="125">IF(J91="", "", TEXT(DEC2BIN(J91), "00000000"))</f>
+        <v>00011000</v>
+      </c>
+      <c r="P91" s="18" t="str">
+        <f t="shared" ref="P91:P92" si="126">IF(K91="", "", TEXT(DEC2BIN(K91), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q91" t="str">
+        <f>BIN2HEX(LEFT(CONCATENATE(L91,IF(M91="", "000", M91)), 8), 2)</f>
+        <v>18</v>
+      </c>
+      <c r="R91" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M91, 1), IF(N91 = "", "000", N91), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="S91" s="13" t="str">
+        <f>IF(O91="", BIN2HEX(P91, 2), BIN2HEX(O91,2))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>27</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="112"/>
         <v>0x01B</v>
       </c>
       <c r="C92" t="s">
-        <v>196</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>197</v>
+        <v>266</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+      <c r="F92" s="11">
+        <v>2</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="122"/>
+        <v>3</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="L92" s="16" t="str">
+        <f t="shared" ref="L92" si="127">IF(F92="", "", TEXT(DEC2BIN(F92), "000000"))</f>
+        <v>000010</v>
+      </c>
+      <c r="M92" s="17" t="str">
+        <f t="shared" si="123"/>
+        <v>011</v>
+      </c>
+      <c r="N92" s="17" t="str">
+        <f t="shared" si="124"/>
+        <v>001</v>
+      </c>
+      <c r="O92" s="17" t="str">
+        <f t="shared" si="125"/>
+        <v/>
+      </c>
+      <c r="P92" s="18" t="str">
+        <f t="shared" si="126"/>
+        <v/>
+      </c>
+      <c r="Q92" t="str">
+        <f t="shared" ref="Q92" si="128">BIN2HEX(LEFT(CONCATENATE(L92,IF(M92="", "000", M92)), 8), 2)</f>
+        <v>09</v>
+      </c>
+      <c r="R92" t="str">
+        <f t="shared" ref="R92" si="129">BIN2HEX(CONCATENATE(RIGHT(M92, 1), IF(N92 = "", "000", N92), "0000"), 2)</f>
+        <v>90</v>
+      </c>
+      <c r="S92" s="13" t="str">
+        <f t="shared" ref="S92" si="130">IF(O92="", BIN2HEX(P92, 2), BIN2HEX(O92,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>30</v>
       </c>
       <c r="B93" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="112"/>
         <v>0x01E</v>
       </c>
       <c r="C93" t="s">
-        <v>92</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="F93" s="11">
+        <v>5</v>
+      </c>
+      <c r="H93" t="str">
+        <f t="shared" ref="H93" si="131">IF(G93="", "", VLOOKUP(G93, $U$3:$V$10, 2))</f>
+        <v/>
+      </c>
+      <c r="J93">
+        <v>9</v>
+      </c>
+      <c r="L93" s="16" t="str">
+        <f>IF(F93="", "", TEXT(DEC2BIN(F93), "000000"))</f>
+        <v>000101</v>
+      </c>
+      <c r="M93" s="17" t="str">
+        <f t="shared" ref="M93" si="132">IF(H93="", "", TEXT(DEC2BIN(H93), "000"))</f>
+        <v/>
+      </c>
+      <c r="N93" s="17" t="str">
+        <f t="shared" ref="N93" si="133">IF(I93="", "", TEXT(DEC2BIN(I93), "000"))</f>
+        <v/>
+      </c>
+      <c r="O93" s="17" t="str">
+        <f t="shared" ref="O93" si="134">IF(J93="", "", TEXT(DEC2BIN(J93), "00000000"))</f>
+        <v>00001001</v>
+      </c>
+      <c r="P93" s="18" t="str">
+        <f t="shared" ref="P93" si="135">IF(K93="", "", TEXT(DEC2BIN(K93), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q93" t="str">
+        <f>BIN2HEX(LEFT(CONCATENATE(L93,IF(M93="", "000", M93)), 8), 2)</f>
+        <v>14</v>
+      </c>
+      <c r="R93" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M93, 1), IF(N93 = "", "000", N93), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="S93" s="13" t="str">
+        <f>IF(O93="", BIN2HEX(P93, 2), BIN2HEX(O93,2))</f>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E94" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>48</v>
       </c>
       <c r="B95" t="str">
-        <f t="shared" ref="B95:B98" si="76">"0x" &amp; DEC2HEX(A95,3)</f>
+        <f t="shared" ref="B95:B98" si="136">"0x" &amp; DEC2HEX(A95,3)</f>
         <v>0x030</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>51</v>
       </c>
       <c r="B96" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="136"/>
         <v>0x033</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>54</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="136"/>
         <v>0x036</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>57</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="136"/>
         <v>0x039</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C99" s="5" t="s">
+        <v>268</v>
+      </c>
       <c r="E99" s="8"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D100"/>
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C101" s="8" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="D101"/>
       <c r="E101" s="8"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>0</v>
       </c>
       <c r="B102" t="str">
-        <f t="shared" ref="B102" si="77">"0x" &amp; DEC2HEX(A102,3)</f>
+        <f t="shared" ref="B102" si="137">"0x" &amp; DEC2HEX(A102,3)</f>
         <v>0x000</v>
       </c>
       <c r="C102" t="s">
-        <v>159</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>3</v>
       </c>
       <c r="B103" t="str">
-        <f t="shared" ref="B103:B113" si="78">"0x" &amp; DEC2HEX(A103,3)</f>
+        <f t="shared" ref="B103:B106" si="138">"0x" &amp; DEC2HEX(A103,3)</f>
         <v>0x003</v>
       </c>
       <c r="C103" t="s">
-        <v>89</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>6</v>
       </c>
       <c r="B104" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="138"/>
         <v>0x006</v>
       </c>
       <c r="C104" t="s">
-        <v>190</v>
-      </c>
-      <c r="D104" t="s">
-        <v>206</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D104"/>
       <c r="E104" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>9</v>
       </c>
       <c r="B105" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="138"/>
         <v>0x009</v>
       </c>
       <c r="C105" t="s">
-        <v>162</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E105" s="8"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>12</v>
       </c>
       <c r="B106" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="138"/>
         <v>0x00C</v>
       </c>
       <c r="C106" t="s">
-        <v>80</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>86</v>
+        <v>243</v>
       </c>
       <c r="E106" s="8"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>15</v>
-      </c>
-      <c r="B107" t="str">
-        <f t="shared" si="78"/>
-        <v>0x00F</v>
-      </c>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
+        <v>85</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>184</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>81</v>
+      </c>
+      <c r="E109" s="8"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>220</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>84</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
         <v>82</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E107" s="8"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>18</v>
-      </c>
-      <c r="B108" t="str">
-        <f t="shared" si="78"/>
-        <v>0x012</v>
-      </c>
-      <c r="C108" t="s">
-        <v>91</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <v>21</v>
-      </c>
-      <c r="B109" t="str">
-        <f t="shared" si="78"/>
-        <v>0x015</v>
-      </c>
-      <c r="C109" t="s">
-        <v>204</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110">
-        <v>24</v>
-      </c>
-      <c r="B110" t="str">
-        <f t="shared" si="78"/>
-        <v>0x018</v>
-      </c>
-      <c r="C110" t="s">
-        <v>83</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E110" s="8"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111">
-        <v>27</v>
-      </c>
-      <c r="B111" t="str">
-        <f t="shared" si="78"/>
-        <v>0x01B</v>
-      </c>
-      <c r="C111" t="s">
-        <v>242</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112">
-        <v>30</v>
-      </c>
-      <c r="B112" t="str">
-        <f t="shared" si="78"/>
-        <v>0x01E</v>
-      </c>
-      <c r="C112" t="s">
-        <v>90</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="E112" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A113">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C116" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>0</v>
+      </c>
+      <c r="B117" t="str">
+        <f t="shared" ref="B117:B121" si="139">"0x" &amp; DEC2HEX(A117,3)</f>
+        <v>0x000</v>
+      </c>
+      <c r="C117" t="s">
+        <v>160</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>3</v>
+      </c>
+      <c r="B118" t="str">
+        <f t="shared" si="139"/>
+        <v>0x003</v>
+      </c>
+      <c r="C118" t="s">
+        <v>226</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>6</v>
+      </c>
+      <c r="B119" t="str">
+        <f t="shared" si="139"/>
+        <v>0x006</v>
+      </c>
+      <c r="C119" t="s">
+        <v>188</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F119" s="11">
+        <v>1</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H119">
+        <f t="shared" ref="H119" si="140">IF(G119="", "", VLOOKUP(G119, $U$3:$V$10, 2))</f>
+        <v>4</v>
+      </c>
+      <c r="K119">
+        <v>96</v>
+      </c>
+      <c r="L119" s="16" t="str">
+        <f>IF(F119="", "", TEXT(DEC2BIN(F119), "000000"))</f>
+        <v>000001</v>
+      </c>
+      <c r="M119" s="17" t="str">
+        <f>IF(H119="", "", TEXT(DEC2BIN(H119), "000"))</f>
+        <v>100</v>
+      </c>
+      <c r="N119" s="17" t="str">
+        <f>IF(I119="", "", TEXT(DEC2BIN(I119), "000"))</f>
+        <v/>
+      </c>
+      <c r="O119" s="17" t="str">
+        <f>IF(J119="", "", TEXT(DEC2BIN(J119), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P119" s="18" t="str">
+        <f>IF(K119="", "", TEXT(DEC2BIN(K119), "00000000"))</f>
+        <v>01100000</v>
+      </c>
+      <c r="Q119" t="str">
+        <f t="shared" ref="Q119" si="141">BIN2HEX(LEFT(CONCATENATE(L119,IF(M119="", "000", M119)), 8), 2)</f>
+        <v>06</v>
+      </c>
+      <c r="R119" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M119, 1), IF(N119 = "", "000", N119), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="S119" s="13" t="str">
+        <f t="shared" ref="S119" si="142">IF(O119="", BIN2HEX(P119, 2), BIN2HEX(O119,2))</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>9</v>
+      </c>
+      <c r="B120" t="str">
+        <f t="shared" si="139"/>
+        <v>0x009</v>
+      </c>
+      <c r="C120" t="s">
+        <v>150</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>12</v>
+      </c>
+      <c r="B121" t="str">
+        <f t="shared" si="139"/>
+        <v>0x00C</v>
+      </c>
+      <c r="C121" t="s">
+        <v>176</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>15</v>
+      </c>
+      <c r="B122" t="str">
+        <f t="shared" ref="B122:B135" si="143">"0x" &amp; DEC2HEX(A122,3)</f>
+        <v>0x00F</v>
+      </c>
+      <c r="C122" t="s">
+        <v>189</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F122" s="11">
+        <v>14</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H122">
+        <f>IF(G122="", "", VLOOKUP(G122, $U$3:$V$10, 2))</f>
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>2</v>
+      </c>
+      <c r="L122" s="16" t="str">
+        <f>IF(F122="", "", TEXT(DEC2BIN(F122), "000000"))</f>
+        <v>001110</v>
+      </c>
+      <c r="M122" s="17" t="str">
+        <f>IF(H122="", "", TEXT(DEC2BIN(H122), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="N122" s="17" t="str">
+        <f>IF(I122="", "", TEXT(DEC2BIN(I122), "000"))</f>
+        <v>010</v>
+      </c>
+      <c r="O122" s="17" t="str">
+        <f>IF(J122="", "", TEXT(DEC2BIN(J122), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P122" s="18" t="str">
+        <f>IF(K122="", "", TEXT(DEC2BIN(K122), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q122" t="str">
+        <f t="shared" ref="Q122" si="144">BIN2HEX(LEFT(CONCATENATE(L122,IF(M122="", "000", M122)), 8), 2)</f>
+        <v>38</v>
+      </c>
+      <c r="R122" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M122, 1), IF(N122 = "", "000", N122), "0000"), 2)</f>
+        <v>20</v>
+      </c>
+      <c r="S122" s="13" t="str">
+        <f t="shared" ref="S122" si="145">IF(O122="", BIN2HEX(P122, 2), BIN2HEX(O122,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>18</v>
+      </c>
+      <c r="B123" t="str">
+        <f t="shared" si="143"/>
+        <v>0x012</v>
+      </c>
+      <c r="C123" t="s">
+        <v>59</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E123" s="44" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>21</v>
+      </c>
+      <c r="B124" t="str">
+        <f t="shared" si="143"/>
+        <v>0x015</v>
+      </c>
+      <c r="C124" t="s">
+        <v>152</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E124" s="44"/>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>24</v>
+      </c>
+      <c r="B125" t="str">
+        <f t="shared" si="143"/>
+        <v>0x018</v>
+      </c>
+      <c r="C125" t="s">
+        <v>62</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E125" s="44"/>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>27</v>
+      </c>
+      <c r="B126" t="str">
+        <f t="shared" si="143"/>
+        <v>0x01B</v>
+      </c>
+      <c r="C126" t="s">
+        <v>159</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>30</v>
+      </c>
+      <c r="B127" t="str">
+        <f t="shared" si="143"/>
+        <v>0x01E</v>
+      </c>
+      <c r="C127" t="s">
+        <v>198</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A128">
         <v>33</v>
       </c>
-      <c r="B113" t="str">
-        <f t="shared" si="78"/>
+      <c r="B128" t="str">
+        <f t="shared" si="143"/>
         <v>0x021</v>
       </c>
-      <c r="C113" t="s">
-        <v>87</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C117" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A118">
-        <v>0</v>
-      </c>
-      <c r="B118" t="str">
-        <f t="shared" ref="B118:B122" si="79">"0x" &amp; DEC2HEX(A118,3)</f>
-        <v>0x000</v>
-      </c>
-      <c r="C118" t="s">
-        <v>177</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <v>3</v>
-      </c>
-      <c r="B119" t="str">
-        <f t="shared" si="79"/>
-        <v>0x003</v>
-      </c>
-      <c r="C119" t="s">
-        <v>249</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <v>6</v>
-      </c>
-      <c r="B120" t="str">
-        <f t="shared" si="79"/>
-        <v>0x006</v>
-      </c>
-      <c r="C120" t="s">
-        <v>210</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="E120" s="8" t="s">
+      <c r="C128" t="s">
+        <v>196</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E128" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="F128" s="11">
+        <v>2</v>
+      </c>
+      <c r="G128" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H128">
+        <f t="shared" ref="H128:H130" si="146">IF(G128="", "", VLOOKUP(G128, $U$3:$V$10, 2))</f>
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
+      </c>
+      <c r="L128" s="16" t="str">
+        <f>IF(F128="", "", TEXT(DEC2BIN(F128), "000000"))</f>
+        <v>000010</v>
+      </c>
+      <c r="M128" s="17" t="str">
+        <f>IF(H128="", "", TEXT(DEC2BIN(H128), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="N128" s="17" t="str">
+        <f>IF(I128="", "", TEXT(DEC2BIN(I128), "000"))</f>
+        <v>010</v>
+      </c>
+      <c r="O128" s="17" t="str">
+        <f>IF(J128="", "", TEXT(DEC2BIN(J128), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P128" s="18" t="str">
+        <f>IF(K128="", "", TEXT(DEC2BIN(K128), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q128" t="str">
+        <f t="shared" ref="Q128" si="147">BIN2HEX(LEFT(CONCATENATE(L128,IF(M128="", "000", M128)), 8), 2)</f>
+        <v>08</v>
+      </c>
+      <c r="R128" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M128, 1), IF(N128 = "", "000", N128), "0000"), 2)</f>
+        <v>20</v>
+      </c>
+      <c r="S128" s="13" t="str">
+        <f t="shared" ref="S128" si="148">IF(O128="", BIN2HEX(P128, 2), BIN2HEX(O128,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>36</v>
+      </c>
+      <c r="B129" t="str">
+        <f t="shared" si="143"/>
+        <v>0x024</v>
+      </c>
+      <c r="C129" t="s">
+        <v>152</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E129" s="44"/>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>39</v>
+      </c>
+      <c r="B130" t="str">
+        <f t="shared" si="143"/>
+        <v>0x027</v>
+      </c>
+      <c r="C130" t="s">
+        <v>197</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E130" s="44"/>
+      <c r="F130" s="11">
+        <v>2</v>
+      </c>
+      <c r="G130" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="146"/>
+        <v>4</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="L130" s="16" t="str">
+        <f>IF(F130="", "", TEXT(DEC2BIN(F130), "000000"))</f>
+        <v>000010</v>
+      </c>
+      <c r="M130" s="17" t="str">
+        <f>IF(H130="", "", TEXT(DEC2BIN(H130), "000"))</f>
+        <v>100</v>
+      </c>
+      <c r="N130" s="17" t="str">
+        <f>IF(I130="", "", TEXT(DEC2BIN(I130), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="O130" s="17" t="str">
+        <f>IF(J130="", "", TEXT(DEC2BIN(J130), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P130" s="18" t="str">
+        <f>IF(K130="", "", TEXT(DEC2BIN(K130), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q130" t="str">
+        <f t="shared" ref="Q130" si="149">BIN2HEX(LEFT(CONCATENATE(L130,IF(M130="", "000", M130)), 8), 2)</f>
+        <v>0A</v>
+      </c>
+      <c r="R130" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M130, 1), IF(N130 = "", "000", N130), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="S130" s="13" t="str">
+        <f t="shared" ref="S130" si="150">IF(O130="", BIN2HEX(P130, 2), BIN2HEX(O130,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>42</v>
+      </c>
+      <c r="B131" t="str">
+        <f t="shared" si="143"/>
+        <v>0x02A</v>
+      </c>
+      <c r="C131" t="s">
+        <v>193</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E132" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>48</v>
+      </c>
+      <c r="B133" t="str">
+        <f t="shared" si="143"/>
+        <v>0x030</v>
+      </c>
+      <c r="D133" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F120" s="11">
-        <v>1</v>
-      </c>
-      <c r="G120" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H120">
-        <f t="shared" ref="H120" si="80">IF(G120="", "", VLOOKUP(G120, $U$3:$V$10, 2))</f>
-        <v>4</v>
-      </c>
-      <c r="K120">
-        <v>96</v>
-      </c>
-      <c r="L120" s="16" t="str">
-        <f>IF(F120="", "", TEXT(DEC2BIN(F120), "000000"))</f>
-        <v>000001</v>
-      </c>
-      <c r="M120" s="17" t="str">
-        <f>IF(H120="", "", TEXT(DEC2BIN(H120), "000"))</f>
-        <v>100</v>
-      </c>
-      <c r="N120" s="17" t="str">
-        <f>IF(I120="", "", TEXT(DEC2BIN(I120), "000"))</f>
-        <v/>
-      </c>
-      <c r="O120" s="17" t="str">
-        <f>IF(J120="", "", TEXT(DEC2BIN(J120), "00000000"))</f>
-        <v/>
-      </c>
-      <c r="P120" s="18" t="str">
-        <f>IF(K120="", "", TEXT(DEC2BIN(K120), "00000000"))</f>
-        <v>01100000</v>
-      </c>
-      <c r="Q120" t="str">
-        <f t="shared" ref="Q120" si="81">BIN2HEX(LEFT(CONCATENATE(L120,IF(M120="", "000", M120)), 8), 2)</f>
-        <v>06</v>
-      </c>
-      <c r="R120" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(M120, 1), IF(N120 = "", "000", N120), "0000"), 2)</f>
-        <v>00</v>
-      </c>
-      <c r="S120" s="13" t="str">
-        <f t="shared" ref="S120" si="82">IF(O120="", BIN2HEX(P120, 2), BIN2HEX(O120,2))</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <v>9</v>
-      </c>
-      <c r="B121" t="str">
-        <f t="shared" si="79"/>
-        <v>0x009</v>
-      </c>
-      <c r="C121" t="s">
-        <v>166</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <v>12</v>
-      </c>
-      <c r="B122" t="str">
-        <f t="shared" si="79"/>
-        <v>0x00C</v>
-      </c>
-      <c r="C122" t="s">
-        <v>193</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>15</v>
-      </c>
-      <c r="B123" t="str">
-        <f t="shared" ref="B123:B136" si="83">"0x" &amp; DEC2HEX(A123,3)</f>
-        <v>0x00F</v>
-      </c>
-      <c r="C123" t="s">
-        <v>211</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="F123" s="11">
-        <v>14</v>
-      </c>
-      <c r="G123" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H123">
-        <f>IF(G123="", "", VLOOKUP(G123, $U$3:$V$10, 2))</f>
-        <v>0</v>
-      </c>
-      <c r="I123">
-        <v>2</v>
-      </c>
-      <c r="L123" s="16" t="str">
-        <f>IF(F123="", "", TEXT(DEC2BIN(F123), "000000"))</f>
-        <v>001110</v>
-      </c>
-      <c r="M123" s="17" t="str">
-        <f>IF(H123="", "", TEXT(DEC2BIN(H123), "000"))</f>
-        <v>000</v>
-      </c>
-      <c r="N123" s="17" t="str">
-        <f>IF(I123="", "", TEXT(DEC2BIN(I123), "000"))</f>
-        <v>010</v>
-      </c>
-      <c r="O123" s="17" t="str">
-        <f>IF(J123="", "", TEXT(DEC2BIN(J123), "00000000"))</f>
-        <v/>
-      </c>
-      <c r="P123" s="18" t="str">
-        <f>IF(K123="", "", TEXT(DEC2BIN(K123), "00000000"))</f>
-        <v/>
-      </c>
-      <c r="Q123" t="str">
-        <f t="shared" ref="Q123" si="84">BIN2HEX(LEFT(CONCATENATE(L123,IF(M123="", "000", M123)), 8), 2)</f>
-        <v>38</v>
-      </c>
-      <c r="R123" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(M123, 1), IF(N123 = "", "000", N123), "0000"), 2)</f>
-        <v>20</v>
-      </c>
-      <c r="S123" s="13" t="str">
-        <f t="shared" ref="S123" si="85">IF(O123="", BIN2HEX(P123, 2), BIN2HEX(O123,2))</f>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <v>18</v>
-      </c>
-      <c r="B124" t="str">
-        <f t="shared" si="83"/>
-        <v>0x012</v>
-      </c>
-      <c r="C124" t="s">
-        <v>59</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E124" s="42" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>21</v>
-      </c>
-      <c r="B125" t="str">
-        <f t="shared" si="83"/>
-        <v>0x015</v>
-      </c>
-      <c r="C125" t="s">
-        <v>168</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E125" s="42"/>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>24</v>
-      </c>
-      <c r="B126" t="str">
-        <f t="shared" si="83"/>
-        <v>0x018</v>
-      </c>
-      <c r="C126" t="s">
-        <v>62</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E126" s="42"/>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>27</v>
-      </c>
-      <c r="B127" t="str">
-        <f t="shared" si="83"/>
-        <v>0x01B</v>
-      </c>
-      <c r="C127" t="s">
-        <v>176</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A128">
-        <v>30</v>
-      </c>
-      <c r="B128" t="str">
-        <f t="shared" si="83"/>
-        <v>0x01E</v>
-      </c>
-      <c r="C128" t="s">
-        <v>220</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A129">
-        <v>33</v>
-      </c>
-      <c r="B129" t="str">
-        <f t="shared" si="83"/>
-        <v>0x021</v>
-      </c>
-      <c r="C129" t="s">
-        <v>218</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="E129" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="F129" s="11">
-        <v>2</v>
-      </c>
-      <c r="G129" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H129">
-        <f t="shared" ref="H129:H131" si="86">IF(G129="", "", VLOOKUP(G129, $U$3:$V$10, 2))</f>
-        <v>0</v>
-      </c>
-      <c r="I129">
-        <v>2</v>
-      </c>
-      <c r="L129" s="16" t="str">
-        <f>IF(F129="", "", TEXT(DEC2BIN(F129), "000000"))</f>
-        <v>000010</v>
-      </c>
-      <c r="M129" s="17" t="str">
-        <f>IF(H129="", "", TEXT(DEC2BIN(H129), "000"))</f>
-        <v>000</v>
-      </c>
-      <c r="N129" s="17" t="str">
-        <f>IF(I129="", "", TEXT(DEC2BIN(I129), "000"))</f>
-        <v>010</v>
-      </c>
-      <c r="O129" s="17" t="str">
-        <f>IF(J129="", "", TEXT(DEC2BIN(J129), "00000000"))</f>
-        <v/>
-      </c>
-      <c r="P129" s="18" t="str">
-        <f>IF(K129="", "", TEXT(DEC2BIN(K129), "00000000"))</f>
-        <v/>
-      </c>
-      <c r="Q129" t="str">
-        <f t="shared" ref="Q129" si="87">BIN2HEX(LEFT(CONCATENATE(L129,IF(M129="", "000", M129)), 8), 2)</f>
-        <v>08</v>
-      </c>
-      <c r="R129" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(M129, 1), IF(N129 = "", "000", N129), "0000"), 2)</f>
-        <v>20</v>
-      </c>
-      <c r="S129" s="13" t="str">
-        <f t="shared" ref="S129" si="88">IF(O129="", BIN2HEX(P129, 2), BIN2HEX(O129,2))</f>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A130">
-        <v>36</v>
-      </c>
-      <c r="B130" t="str">
-        <f t="shared" si="83"/>
-        <v>0x024</v>
-      </c>
-      <c r="C130" t="s">
-        <v>168</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E130" s="42"/>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A131">
-        <v>39</v>
-      </c>
-      <c r="B131" t="str">
-        <f t="shared" si="83"/>
-        <v>0x027</v>
-      </c>
-      <c r="C131" t="s">
-        <v>219</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="E131" s="42"/>
-      <c r="F131" s="11">
-        <v>2</v>
-      </c>
-      <c r="G131" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H131">
-        <f t="shared" si="86"/>
-        <v>4</v>
-      </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
-      <c r="L131" s="16" t="str">
-        <f>IF(F131="", "", TEXT(DEC2BIN(F131), "000000"))</f>
-        <v>000010</v>
-      </c>
-      <c r="M131" s="17" t="str">
-        <f>IF(H131="", "", TEXT(DEC2BIN(H131), "000"))</f>
-        <v>100</v>
-      </c>
-      <c r="N131" s="17" t="str">
-        <f>IF(I131="", "", TEXT(DEC2BIN(I131), "000"))</f>
-        <v>000</v>
-      </c>
-      <c r="O131" s="17" t="str">
-        <f>IF(J131="", "", TEXT(DEC2BIN(J131), "00000000"))</f>
-        <v/>
-      </c>
-      <c r="P131" s="18" t="str">
-        <f>IF(K131="", "", TEXT(DEC2BIN(K131), "00000000"))</f>
-        <v/>
-      </c>
-      <c r="Q131" t="str">
-        <f t="shared" ref="Q131" si="89">BIN2HEX(LEFT(CONCATENATE(L131,IF(M131="", "000", M131)), 8), 2)</f>
-        <v>0A</v>
-      </c>
-      <c r="R131" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(M131, 1), IF(N131 = "", "000", N131), "0000"), 2)</f>
-        <v>00</v>
-      </c>
-      <c r="S131" s="13" t="str">
-        <f t="shared" ref="S131" si="90">IF(O131="", BIN2HEX(P131, 2), BIN2HEX(O131,2))</f>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A132">
-        <v>42</v>
-      </c>
-      <c r="B132" t="str">
-        <f t="shared" si="83"/>
-        <v>0x02A</v>
-      </c>
-      <c r="C132" t="s">
-        <v>215</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E133" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B134" t="str">
-        <f t="shared" si="83"/>
-        <v>0x030</v>
+        <f t="shared" si="143"/>
+        <v>0x033</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" si="83"/>
-        <v>0x033</v>
+        <f t="shared" si="143"/>
+        <v>0x036</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A136">
-        <v>54</v>
-      </c>
-      <c r="B136" t="str">
-        <f t="shared" si="83"/>
-        <v>0x036</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="U16:V18">
     <sortCondition ref="U13"/>
   </sortState>
-  <mergeCells count="4">
-    <mergeCell ref="E129:E131"/>
+  <mergeCells count="3">
+    <mergeCell ref="E128:E130"/>
     <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="E124:E126"/>
+    <mergeCell ref="E123:E125"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W17">
       <formula1>$U$16:$U$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G6 G123 G120 G129 G131 G9:G11 G17:G26 G31:G33 G41:G42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G6 G122 G119 G128 G130 G9:G11 G17:G26 G31:G33 G41:G42 G49 G83:G93">
       <formula1>$U$3:$U$10</formula1>
     </dataValidation>
   </dataValidations>

--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="288" windowWidth="14808" windowHeight="7836" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Control Lines" sheetId="1" r:id="rId1"/>
     <sheet name="Some instructions for test" sheetId="2" r:id="rId2"/>
     <sheet name="Test Programs" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
@@ -22,7 +22,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="B20" authorId="0">
+    <comment ref="B20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="250">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -238,9 +238,6 @@
     <t>ST [addr], R1</t>
   </si>
   <si>
-    <t>[RR3]</t>
-  </si>
-  <si>
     <t>[RR3] to MEM_ADDR</t>
   </si>
   <si>
@@ -331,9 +328,6 @@
     <t>LD A, 0x20</t>
   </si>
   <si>
-    <t>SUB A, B</t>
-  </si>
-  <si>
     <t>JP [0x006]</t>
   </si>
   <si>
@@ -376,9 +370,6 @@
     <t>f0</t>
   </si>
   <si>
-    <t>pair of 8-bit registers (as addressing is 12-bit, only lower half of the High register will be used)</t>
-  </si>
-  <si>
     <t>Write byte value of R1 in output selected in R2</t>
   </si>
   <si>
@@ -541,39 +532,21 @@
     <t>LD E, 0x1</t>
   </si>
   <si>
-    <t>06 00 01</t>
-  </si>
-  <si>
     <t>ADD A, E</t>
   </si>
   <si>
-    <t>14 40 00</t>
-  </si>
-  <si>
-    <t>08 80 00</t>
-  </si>
-  <si>
-    <t>// Constant to use in increment</t>
-  </si>
-  <si>
     <t>// Reads char from memory</t>
   </si>
   <si>
     <t>// Print out char to LCD</t>
   </si>
   <si>
-    <t>// Restores value of A register</t>
-  </si>
-  <si>
     <t>SUB A, F</t>
   </si>
   <si>
     <t>LD B, 0x30</t>
   </si>
   <si>
-    <t>04 80 30</t>
-  </si>
-  <si>
     <t>// Data</t>
   </si>
   <si>
@@ -616,24 +589,12 @@
     <t>// next iteration of loop</t>
   </si>
   <si>
-    <t>LD A, [?B]</t>
-  </si>
-  <si>
-    <t>10 10 00</t>
-  </si>
-  <si>
-    <t>18 50 00</t>
-  </si>
-  <si>
     <t>// If true, stops here</t>
   </si>
   <si>
     <t>// If false, next loop iteration</t>
   </si>
   <si>
-    <t>08 10 00</t>
-  </si>
-  <si>
     <t>LD F, 0x3c</t>
   </si>
   <si>
@@ -652,42 +613,15 @@
     <t>// Source addr of last byte + 1</t>
   </si>
   <si>
-    <t>LD C, 0x60</t>
-  </si>
-  <si>
-    <t>ST [?C], A</t>
-  </si>
-  <si>
     <t>// Store byte in destiny addr</t>
   </si>
   <si>
     <t>// Reads byte from memory</t>
   </si>
   <si>
-    <t>// Increments B</t>
-  </si>
-  <si>
     <t>JP [0x00c]</t>
   </si>
   <si>
-    <t>2c 00 0c</t>
-  </si>
-  <si>
-    <t>// Increments C</t>
-  </si>
-  <si>
-    <t>LD A, C</t>
-  </si>
-  <si>
-    <t>LD C, A</t>
-  </si>
-  <si>
-    <t>JP Z, [0x01e]</t>
-  </si>
-  <si>
-    <t>30 00 1e</t>
-  </si>
-  <si>
     <t>Read byte from input selected by R2, and write it to R1</t>
   </si>
   <si>
@@ -769,21 +703,6 @@
     <t>LD F, 0x39</t>
   </si>
   <si>
-    <t>06 80 39</t>
-  </si>
-  <si>
-    <t>05 00 60</t>
-  </si>
-  <si>
-    <t>08 20 00</t>
-  </si>
-  <si>
-    <t>09 00 00</t>
-  </si>
-  <si>
-    <t>38 20 00</t>
-  </si>
-  <si>
     <t>CLOSE_REGS_BRIDGE</t>
   </si>
   <si>
@@ -793,9 +712,6 @@
     <t>All ALU operations take R1 as ALU input A and R2 as ALU input B. Output to R1</t>
   </si>
   <si>
-    <t>In ALU operations R1 are constrained from A to D, and R2 from E to H</t>
-  </si>
-  <si>
     <t>Opcode (Dec)</t>
   </si>
   <si>
@@ -844,15 +760,9 @@
     <t>maybe these two ST instr can use R2 (all 8 registers) instead of R1 (4 regs)</t>
   </si>
   <si>
-    <t>v.0.14.0 Working up to this point</t>
-  </si>
-  <si>
     <t>ST [HL], R1</t>
   </si>
   <si>
-    <t>These machine codes doesn't changed</t>
-  </si>
-  <si>
     <t>LD A, [HL]</t>
   </si>
   <si>
@@ -892,13 +802,46 @@
     <t>// Restores value of L register</t>
   </si>
   <si>
-    <t>Test these 3 programs above in v.0.14.0</t>
+    <t>ST [HL], A</t>
+  </si>
+  <si>
+    <t>INC B</t>
+  </si>
+  <si>
+    <t>// Saves value of B register (current src addr)</t>
+  </si>
+  <si>
+    <t>SUB E, B</t>
+  </si>
+  <si>
+    <t>JP Z, [0x021]</t>
+  </si>
+  <si>
+    <t>// Hi part of both src and dest addresses</t>
+  </si>
+  <si>
+    <t>In ALU operations R1 are constrained to A, B, H and L registers, and R2 from C to F</t>
+  </si>
+  <si>
+    <t>[HL]</t>
+  </si>
+  <si>
+    <t>pair of H and L registers (as addressing is 12-bit, only lower half of the High register will be used)</t>
+  </si>
+  <si>
+    <t>LD E, 0x60</t>
+  </si>
+  <si>
+    <t>LD L, E</t>
+  </si>
+  <si>
+    <t>// Increments E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1098,7 +1041,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1178,11 +1121,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1193,11 +1138,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1218,7 +1164,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1256,9 +1202,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1291,9 +1237,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1326,9 +1289,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1506,23 +1486,23 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P42" sqref="P42"/>
+      <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16" width="3.28515625" customWidth="1"/>
-    <col min="17" max="18" width="3.28515625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="3.28515625" customWidth="1"/>
-    <col min="20" max="20" width="3.28515625" style="41" customWidth="1"/>
-    <col min="21" max="26" width="3.28515625" customWidth="1"/>
-    <col min="27" max="29" width="5.85546875" customWidth="1"/>
+    <col min="3" max="16" width="3.33203125" customWidth="1"/>
+    <col min="17" max="18" width="3.33203125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="3.33203125" customWidth="1"/>
+    <col min="20" max="20" width="3.33203125" style="41" customWidth="1"/>
+    <col min="21" max="26" width="3.33203125" customWidth="1"/>
+    <col min="27" max="29" width="5.88671875" customWidth="1"/>
     <col min="30" max="30" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="C1">
         <v>23</v>
       </c>
@@ -1596,12 +1576,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" ht="130.15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" s="1" customFormat="1" ht="129" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>1</v>
@@ -1625,7 +1605,7 @@
         <v>15</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K2" s="23" t="s">
         <v>11</v>
@@ -1637,13 +1617,13 @@
         <v>13</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O2" s="23" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="P2" s="23" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="Q2" s="25" t="s">
         <v>20</v>
@@ -1652,10 +1632,10 @@
         <v>21</v>
       </c>
       <c r="S2" s="23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="T2" s="40" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="U2" s="23" t="s">
         <v>32</v>
@@ -1675,13 +1655,13 @@
       <c r="Z2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-    </row>
-    <row r="3" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="AA2" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1781,7 +1761,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1877,7 +1857,7 @@
         <v>C00000</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1973,7 +1953,7 @@
         <v>600400</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2069,12 +2049,12 @@
         <v>5E0000</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>246</v>
+      <c r="B7" s="30" t="s">
+        <v>218</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -2165,7 +2145,7 @@
         <v>4F0000</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2261,7 +2241,7 @@
         <v>004000</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2357,7 +2337,7 @@
         <v>006000</v>
       </c>
     </row>
-    <row r="10" spans="1:38" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33">
         <v>7</v>
       </c>
@@ -2453,7 +2433,7 @@
         <v>004200</v>
       </c>
     </row>
-    <row r="11" spans="1:38" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33">
         <v>8</v>
       </c>
@@ -2549,7 +2529,7 @@
         <v>006200</v>
       </c>
     </row>
-    <row r="12" spans="1:38" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
         <v>9</v>
       </c>
@@ -2617,7 +2597,7 @@
         <v>000100</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2709,19 +2689,19 @@
         <v>00</v>
       </c>
       <c r="AE13" s="5" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="AL13" s="8" t="str">
         <f t="shared" ref="AL13:AL44" si="4">AA13 &amp; AB13 &amp; AC13</f>
         <v>181800</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -2760,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="O14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="2">
         <v>0</v>
@@ -2801,7 +2781,7 @@
       </c>
       <c r="AB14" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AC14" s="13" t="str">
         <f t="shared" si="2"/>
@@ -2809,10 +2789,10 @@
       </c>
       <c r="AL14" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>091000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>091800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33">
         <v>12</v>
       </c>
@@ -2859,7 +2839,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="16" spans="1:38" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33">
         <v>13</v>
       </c>
@@ -2906,7 +2886,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="17" spans="1:38" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="33">
         <v>14</v>
       </c>
@@ -2953,7 +2933,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="18" spans="1:38" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33">
         <v>15</v>
       </c>
@@ -3000,12 +2980,12 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="19" spans="1:38" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="33">
         <v>16</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O19" s="8">
         <v>0</v>
@@ -3032,19 +3012,19 @@
         <v>00</v>
       </c>
       <c r="AE19" s="8" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="AL19" s="8" t="str">
         <f t="shared" si="4"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3131,14 +3111,14 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AL20" s="8" t="str">
         <f t="shared" si="4"/>
         <v>000080</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -3167,7 +3147,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -3196,7 +3176,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -3225,7 +3205,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -3254,7 +3234,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -3283,7 +3263,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -3312,7 +3292,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -3341,7 +3321,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -3370,7 +3350,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -3399,7 +3379,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -3428,7 +3408,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -3457,7 +3437,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -3486,7 +3466,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -3515,7 +3495,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -3544,7 +3524,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -3636,14 +3616,14 @@
         <v>25</v>
       </c>
       <c r="AE35" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="AL35" s="8" t="str">
         <f t="shared" si="4"/>
         <v>408825</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -3735,14 +3715,14 @@
         <v>18</v>
       </c>
       <c r="AE36" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="AL36" s="8" t="str">
         <f t="shared" si="4"/>
         <v>408818</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -3838,7 +3818,7 @@
         <v>408802</v>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -3934,7 +3914,7 @@
         <v>40882E</v>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -4030,7 +4010,7 @@
         <v>40883A</v>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -4126,12 +4106,12 @@
         <v>40881A</v>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>38</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -4222,12 +4202,12 @@
         <v>408806</v>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>39</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="C42" s="6">
         <v>0</v>
@@ -4318,12 +4298,12 @@
         <v>408826</v>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>40</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="C43" s="6">
         <v>0</v>
@@ -4414,12 +4394,12 @@
         <v>408800</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>41</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="C44" s="6">
         <v>0</v>
@@ -4510,7 +4490,7 @@
         <v>40883D</v>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>22</v>
       </c>
@@ -4518,7 +4498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
         <v>30</v>
       </c>
@@ -4526,23 +4506,23 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>47</v>
       </c>
@@ -4550,35 +4530,35 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52"/>
       <c r="B52" s="1" t="s">
-        <v>50</v>
+        <v>245</v>
       </c>
       <c r="C52" t="s">
-        <v>96</v>
+        <v>246</v>
       </c>
       <c r="Q52"/>
       <c r="R52"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53"/>
       <c r="B53" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q53"/>
       <c r="R53"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54"/>
       <c r="B54" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C54" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q54"/>
       <c r="R54"/>
@@ -4601,80 +4581,80 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="7"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.109375" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4682,67 +4662,67 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="E6" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
         <v>69</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
         <v>74</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
         <v>77</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4755,88 +4735,88 @@
   <dimension ref="A1:X135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J93" sqref="J93"/>
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L131" sqref="L131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" style="16" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="2"/>
-    <col min="15" max="15" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" style="16" customWidth="1"/>
+    <col min="13" max="14" width="9.109375" style="2"/>
+    <col min="15" max="15" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.44140625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q1" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="R1" s="46"/>
-      <c r="S1" s="47"/>
+        <v>185</v>
+      </c>
+      <c r="Q1" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="R1" s="48"/>
+      <c r="S1" s="49"/>
       <c r="T1" s="10"/>
     </row>
-    <row r="2" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="8" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
       <c r="O2" s="17"/>
       <c r="U2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -4845,7 +4825,7 @@
         <v>0x000</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="11">
@@ -4900,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4909,10 +4889,10 @@
         <v>0x003</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="F4" s="11">
         <v>1</v>
@@ -4966,7 +4946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6</v>
       </c>
@@ -4975,7 +4955,7 @@
         <v>0x006</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="11">
@@ -5030,7 +5010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9</v>
       </c>
@@ -5039,7 +5019,7 @@
         <v>0x009</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="11">
@@ -5091,7 +5071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E7" s="8"/>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
@@ -5103,19 +5083,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C8" s="8" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="E8" s="8"/>
       <c r="U8" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="V8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -5124,7 +5104,7 @@
         <v>0x000</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11">
@@ -5173,13 +5153,13 @@
         <v>00</v>
       </c>
       <c r="U9" s="38" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="V9" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -5188,7 +5168,7 @@
         <v>0x003</v>
       </c>
       <c r="C10" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="F10" s="11">
         <v>40</v>
@@ -5233,13 +5213,13 @@
         <v>00</v>
       </c>
       <c r="U10" s="38" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="V10" s="38">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -5248,7 +5228,7 @@
         <v>0x006</v>
       </c>
       <c r="C11" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="F11" s="11">
         <v>5</v>
@@ -5293,18 +5273,18 @@
         <v>03</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C16" s="8" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="U16" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="V16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
@@ -5313,7 +5293,7 @@
         <v>0x000</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F17" s="11">
         <v>1</v>
@@ -5361,20 +5341,20 @@
         <v>00</v>
       </c>
       <c r="U17" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="V17">
         <v>1</v>
       </c>
       <c r="W17" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="X17">
         <f>VLOOKUP(W17,U16:V18,2)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5383,7 +5363,7 @@
         <v>0x003</v>
       </c>
       <c r="C18" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="F18" s="11">
         <v>1</v>
@@ -5431,13 +5411,13 @@
         <v>FF</v>
       </c>
       <c r="U18" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="V18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
@@ -5446,7 +5426,7 @@
         <v>0x006</v>
       </c>
       <c r="C19" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="F19" s="11">
         <v>40</v>
@@ -5491,7 +5471,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>9</v>
       </c>
@@ -5500,10 +5480,10 @@
         <v>0x009</v>
       </c>
       <c r="C20" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F20" s="11">
         <v>41</v>
@@ -5548,7 +5528,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12</v>
       </c>
@@ -5557,7 +5537,7 @@
         <v>0x00C</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="11">
@@ -5603,43 +5583,43 @@
         <v>06</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E22" s="39"/>
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
     </row>
-    <row r="23" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E23" s="39"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
       <c r="O23" s="17"/>
     </row>
-    <row r="24" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E24" s="39"/>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
       <c r="O24" s="17"/>
     </row>
-    <row r="25" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E25" s="39"/>
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
       <c r="O25" s="17"/>
     </row>
-    <row r="26" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M26" s="17"/>
       <c r="N26" s="17"/>
       <c r="O26" s="17"/>
     </row>
-    <row r="30" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
@@ -5648,7 +5628,7 @@
         <v>0x000</v>
       </c>
       <c r="C31" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F31" s="11">
         <v>1</v>
@@ -5696,7 +5676,7 @@
         <v>01</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -5705,7 +5685,7 @@
         <v>0x003</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F32" s="11">
         <v>1</v>
@@ -5753,7 +5733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -5762,7 +5742,7 @@
         <v>0x006</v>
       </c>
       <c r="C33" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F33" s="11">
         <v>32</v>
@@ -5810,7 +5790,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>9</v>
       </c>
@@ -5819,7 +5799,7 @@
         <v>0x009</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F34" s="11">
         <v>6</v>
@@ -5860,7 +5840,7 @@
         <v>0F</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>12</v>
       </c>
@@ -5869,7 +5849,7 @@
         <v>0x00C</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F35" s="11">
         <v>5</v>
@@ -5910,7 +5890,7 @@
         <v>06</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>15</v>
       </c>
@@ -5919,7 +5899,7 @@
         <v>0x00F</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F36" s="11">
         <v>5</v>
@@ -5960,12 +5940,12 @@
         <v>0F</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C40" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
@@ -5974,7 +5954,7 @@
         <v>0x000</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F41" s="11">
         <v>3</v>
@@ -6022,7 +6002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
@@ -6031,7 +6011,7 @@
         <v>0x003</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F42" s="11">
         <v>10</v>
@@ -6079,7 +6059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>6</v>
       </c>
@@ -6088,7 +6068,7 @@
         <v>0x006</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F43" s="11">
         <v>5</v>
@@ -6129,7 +6109,7 @@
         <v>06</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>16</v>
       </c>
@@ -6138,23 +6118,21 @@
         <v>0x010</v>
       </c>
       <c r="D44" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C46" s="38"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C48" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E44" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C46" s="38" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C48" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0</v>
       </c>
@@ -6163,10 +6141,10 @@
         <v>0x000</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F49" s="11">
         <v>1</v>
@@ -6214,7 +6192,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3</v>
       </c>
@@ -6223,7 +6201,7 @@
         <v>0x003</v>
       </c>
       <c r="C50" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F50" s="11">
         <v>17</v>
@@ -6267,17 +6245,17 @@
         <v>00</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
       <c r="O51" s="17"/>
     </row>
-    <row r="55" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C55" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0</v>
       </c>
@@ -6286,19 +6264,17 @@
         <v>0x000</v>
       </c>
       <c r="C56" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F56" s="48" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="F56" s="43"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
@@ -6307,14 +6283,14 @@
         <v>0x003</v>
       </c>
       <c r="C57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>6</v>
       </c>
@@ -6323,16 +6299,16 @@
         <v>0x006</v>
       </c>
       <c r="C58" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>9</v>
       </c>
@@ -6341,14 +6317,14 @@
         <v>0x009</v>
       </c>
       <c r="C59" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E59" s="8"/>
     </row>
-    <row r="60" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>12</v>
       </c>
@@ -6357,16 +6333,16 @@
         <v>0x00C</v>
       </c>
       <c r="C60" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>15</v>
       </c>
@@ -6375,14 +6351,14 @@
         <v>0x00F</v>
       </c>
       <c r="C61" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>18</v>
       </c>
@@ -6391,16 +6367,16 @@
         <v>0x012</v>
       </c>
       <c r="C62" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>21</v>
       </c>
@@ -6409,14 +6385,14 @@
         <v>0x015</v>
       </c>
       <c r="C63" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>24</v>
       </c>
@@ -6425,16 +6401,16 @@
         <v>0x018</v>
       </c>
       <c r="C64" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>27</v>
       </c>
@@ -6443,14 +6419,14 @@
         <v>0x01B</v>
       </c>
       <c r="C65" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E65" s="8"/>
     </row>
-    <row r="66" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>30</v>
       </c>
@@ -6459,16 +6435,16 @@
         <v>0x01E</v>
       </c>
       <c r="C66" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>33</v>
       </c>
@@ -6477,14 +6453,14 @@
         <v>0x021</v>
       </c>
       <c r="C67" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E67" s="8"/>
     </row>
-    <row r="68" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>36</v>
       </c>
@@ -6493,16 +6469,16 @@
         <v>0x024</v>
       </c>
       <c r="C68" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>39</v>
       </c>
@@ -6511,14 +6487,14 @@
         <v>0x027</v>
       </c>
       <c r="C69" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E69" s="8"/>
     </row>
-    <row r="70" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>42</v>
       </c>
@@ -6527,16 +6503,16 @@
         <v>0x02A</v>
       </c>
       <c r="C70" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>45</v>
       </c>
@@ -6545,14 +6521,14 @@
         <v>0x02D</v>
       </c>
       <c r="C71" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E71" s="8"/>
     </row>
-    <row r="72" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>48</v>
       </c>
@@ -6561,16 +6537,16 @@
         <v>0x030</v>
       </c>
       <c r="C72" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>51</v>
       </c>
@@ -6579,14 +6555,14 @@
         <v>0x033</v>
       </c>
       <c r="C73" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>54</v>
       </c>
@@ -6595,16 +6571,16 @@
         <v>0x036</v>
       </c>
       <c r="C74" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>57</v>
       </c>
@@ -6613,14 +6589,14 @@
         <v>0x039</v>
       </c>
       <c r="C75" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E75" s="8"/>
     </row>
-    <row r="76" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>60</v>
       </c>
@@ -6629,16 +6605,16 @@
         <v>0x03C</v>
       </c>
       <c r="C76" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>63</v>
       </c>
@@ -6647,14 +6623,14 @@
         <v>0x03F</v>
       </c>
       <c r="C77" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E77" s="8"/>
     </row>
-    <row r="78" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>66</v>
       </c>
@@ -6663,16 +6639,16 @@
         <v>0x042</v>
       </c>
       <c r="C78" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>69</v>
       </c>
@@ -6681,28 +6657,28 @@
         <v>0x045</v>
       </c>
       <c r="C79" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E80" s="8"/>
     </row>
-    <row r="81" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D81"/>
       <c r="E81" s="8"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C82" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D82"/>
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>0</v>
       </c>
@@ -6711,17 +6687,17 @@
         <v>0x000</v>
       </c>
       <c r="C83" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="D83"/>
       <c r="E83" s="8" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="F83" s="11">
         <v>1</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="H83">
         <f t="shared" ref="H83" si="85">IF(G83="", "", VLOOKUP(G83, $U$3:$V$10, 2))</f>
@@ -6763,7 +6739,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>3</v>
       </c>
@@ -6772,16 +6748,16 @@
         <v>0x003</v>
       </c>
       <c r="C84" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="F84" s="11">
         <v>1</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="H84">
         <f t="shared" ref="H84:H86" si="94">IF(G84="", "", VLOOKUP(G84, $U$3:$V$10, 2))</f>
@@ -6823,7 +6799,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>6</v>
       </c>
@@ -6832,16 +6808,16 @@
         <v>0x006</v>
       </c>
       <c r="C85" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F85" s="11">
         <v>1</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="H85">
         <f t="shared" si="94"/>
@@ -6883,7 +6859,7 @@
         <v>3C</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>9</v>
       </c>
@@ -6892,10 +6868,10 @@
         <v>0x009</v>
       </c>
       <c r="C86" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F86" s="11">
         <v>4</v>
@@ -6905,9 +6881,6 @@
       </c>
       <c r="H86">
         <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="K86">
         <v>0</v>
       </c>
       <c r="L86" s="16" t="str">
@@ -6928,7 +6901,7 @@
       </c>
       <c r="P86" s="18" t="str">
         <f t="shared" si="99"/>
-        <v>00000000</v>
+        <v/>
       </c>
       <c r="Q86" t="str">
         <f t="shared" si="100"/>
@@ -6943,7 +6916,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>12</v>
       </c>
@@ -6952,16 +6925,16 @@
         <v>0x00C</v>
       </c>
       <c r="C87" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D87"/>
       <c r="E87" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F87" s="11">
         <v>17</v>
       </c>
-      <c r="G87" s="50" t="s">
+      <c r="G87" s="45" t="s">
         <v>38</v>
       </c>
       <c r="H87">
@@ -7004,7 +6977,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>15</v>
       </c>
@@ -7013,14 +6986,14 @@
         <v>0x00F</v>
       </c>
       <c r="C88" t="s">
-        <v>260</v>
-      </c>
-      <c r="E88" s="49"/>
+        <v>230</v>
+      </c>
+      <c r="E88" s="44"/>
       <c r="F88" s="11">
         <v>40</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="H88">
         <f t="shared" si="103"/>
@@ -7059,7 +7032,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>18</v>
       </c>
@@ -7068,10 +7041,10 @@
         <v>0x012</v>
       </c>
       <c r="C89" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="F89" s="11">
         <v>2</v>
@@ -7119,7 +7092,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>21</v>
       </c>
@@ -7128,16 +7101,16 @@
         <v>0x015</v>
       </c>
       <c r="C90" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F90" s="11">
         <v>33</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="H90">
         <f t="shared" ref="H90" si="117">IF(G90="", "", VLOOKUP(G90, $U$3:$V$10, 2))</f>
@@ -7179,7 +7152,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>24</v>
       </c>
@@ -7188,10 +7161,10 @@
         <v>0x018</v>
       </c>
       <c r="C91" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="F91" s="11">
         <v>6</v>
@@ -7236,7 +7209,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>27</v>
       </c>
@@ -7245,16 +7218,16 @@
         <v>0x01B</v>
       </c>
       <c r="C92" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="F92" s="11">
         <v>2</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="H92">
         <f t="shared" si="122"/>
@@ -7296,7 +7269,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>30</v>
       </c>
@@ -7305,10 +7278,10 @@
         <v>0x01E</v>
       </c>
       <c r="C93" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="F93" s="11">
         <v>5</v>
@@ -7353,12 +7326,12 @@
         <v>09</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E94" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>48</v>
       </c>
@@ -7367,13 +7340,13 @@
         <v>0x030</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>51</v>
       </c>
@@ -7382,13 +7355,13 @@
         <v>0x033</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>54</v>
       </c>
@@ -7397,13 +7370,13 @@
         <v>0x036</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>57</v>
       </c>
@@ -7412,30 +7385,28 @@
         <v>0x039</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C99" s="5" t="s">
-        <v>268</v>
-      </c>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C99" s="5"/>
       <c r="E99" s="8"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D100"/>
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C101" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D101"/>
       <c r="E101" s="8"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>0</v>
       </c>
@@ -7444,13 +7415,13 @@
         <v>0x000</v>
       </c>
       <c r="C102" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>3</v>
       </c>
@@ -7459,13 +7430,13 @@
         <v>0x003</v>
       </c>
       <c r="C103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>6</v>
       </c>
@@ -7474,14 +7445,14 @@
         <v>0x006</v>
       </c>
       <c r="C104" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D104"/>
       <c r="E104" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>9</v>
       </c>
@@ -7490,11 +7461,11 @@
         <v>0x009</v>
       </c>
       <c r="C105" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E105" s="8"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>12</v>
       </c>
@@ -7503,126 +7474,259 @@
         <v>0x00C</v>
       </c>
       <c r="C106" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="E106" s="8"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="E108" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
+        <v>241</v>
+      </c>
+      <c r="E109" s="8"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
+        <v>198</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
+        <v>80</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C115" s="8" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C109" t="s">
-        <v>81</v>
-      </c>
-      <c r="E109" s="8"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C110" t="s">
-        <v>220</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C111" t="s">
-        <v>84</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C112" t="s">
-        <v>82</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C116" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>0</v>
+      </c>
+      <c r="B116" t="str">
+        <f t="shared" ref="B116:B131" si="139">"0x" &amp; DEC2HEX(A116,3)</f>
+        <v>0x000</v>
+      </c>
+      <c r="C116" t="s">
+        <v>152</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F116" s="11">
+        <v>1</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H116">
+        <f t="shared" ref="H116:H117" si="140">IF(G116="", "", VLOOKUP(G116, $U$3:$V$10, 2))</f>
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>48</v>
+      </c>
+      <c r="L116" s="16" t="str">
+        <f t="shared" ref="L116:L117" si="141">IF(F116="", "", TEXT(DEC2BIN(F116), "000000"))</f>
+        <v>000001</v>
+      </c>
+      <c r="M116" s="17" t="str">
+        <f t="shared" ref="M116:M117" si="142">IF(H116="", "", TEXT(DEC2BIN(H116), "000"))</f>
+        <v>001</v>
+      </c>
+      <c r="N116" s="17" t="str">
+        <f t="shared" ref="N116:N117" si="143">IF(I116="", "", TEXT(DEC2BIN(I116), "000"))</f>
+        <v/>
+      </c>
+      <c r="O116" s="17" t="str">
+        <f t="shared" ref="O116:O117" si="144">IF(J116="", "", TEXT(DEC2BIN(J116), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P116" s="18" t="str">
+        <f t="shared" ref="P116:P117" si="145">IF(K116="", "", TEXT(DEC2BIN(K116), "00000000"))</f>
+        <v>00110000</v>
+      </c>
+      <c r="Q116" t="str">
+        <f t="shared" ref="Q116:Q117" si="146">BIN2HEX(LEFT(CONCATENATE(L116,IF(M116="", "000", M116)), 8), 2)</f>
+        <v>04</v>
+      </c>
+      <c r="R116" t="str">
+        <f t="shared" ref="R116:R117" si="147">BIN2HEX(CONCATENATE(RIGHT(M116, 1), IF(N116 = "", "000", N116), "0000"), 2)</f>
+        <v>80</v>
+      </c>
+      <c r="S116" s="13" t="str">
+        <f t="shared" ref="S116:S117" si="148">IF(O116="", BIN2HEX(P116, 2), BIN2HEX(O116,2))</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B117" t="str">
-        <f t="shared" ref="B117:B121" si="139">"0x" &amp; DEC2HEX(A117,3)</f>
-        <v>0x000</v>
+        <f t="shared" si="139"/>
+        <v>0x003</v>
       </c>
       <c r="C117" t="s">
-        <v>160</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="F117" s="11">
+        <v>1</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="140"/>
+        <v>7</v>
+      </c>
+      <c r="K117">
+        <v>57</v>
+      </c>
+      <c r="L117" s="16" t="str">
+        <f t="shared" si="141"/>
+        <v>000001</v>
+      </c>
+      <c r="M117" s="17" t="str">
+        <f t="shared" si="142"/>
+        <v>111</v>
+      </c>
+      <c r="N117" s="17" t="str">
+        <f t="shared" si="143"/>
+        <v/>
+      </c>
+      <c r="O117" s="17" t="str">
+        <f t="shared" si="144"/>
+        <v/>
+      </c>
+      <c r="P117" s="18" t="str">
+        <f t="shared" si="145"/>
+        <v>00111001</v>
+      </c>
+      <c r="Q117" t="str">
+        <f t="shared" si="146"/>
+        <v>07</v>
+      </c>
+      <c r="R117" t="str">
+        <f t="shared" si="147"/>
+        <v>80</v>
+      </c>
+      <c r="S117" s="13" t="str">
+        <f t="shared" si="148"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B118" t="str">
         <f t="shared" si="139"/>
-        <v>0x003</v>
+        <v>0x006</v>
       </c>
       <c r="C118" t="s">
-        <v>226</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="F118" s="11">
+        <v>1</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H118">
+        <f t="shared" ref="H118" si="149">IF(G118="", "", VLOOKUP(G118, $U$3:$V$10, 2))</f>
+        <v>6</v>
+      </c>
+      <c r="K118">
+        <v>96</v>
+      </c>
+      <c r="L118" s="16" t="str">
+        <f>IF(F118="", "", TEXT(DEC2BIN(F118), "000000"))</f>
+        <v>000001</v>
+      </c>
+      <c r="M118" s="17" t="str">
+        <f>IF(H118="", "", TEXT(DEC2BIN(H118), "000"))</f>
+        <v>110</v>
+      </c>
+      <c r="N118" s="17" t="str">
+        <f>IF(I118="", "", TEXT(DEC2BIN(I118), "000"))</f>
+        <v/>
+      </c>
+      <c r="O118" s="17" t="str">
+        <f>IF(J118="", "", TEXT(DEC2BIN(J118), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P118" s="18" t="str">
+        <f>IF(K118="", "", TEXT(DEC2BIN(K118), "00000000"))</f>
+        <v>01100000</v>
+      </c>
+      <c r="Q118" t="str">
+        <f t="shared" ref="Q118" si="150">BIN2HEX(LEFT(CONCATENATE(L118,IF(M118="", "000", M118)), 8), 2)</f>
+        <v>07</v>
+      </c>
+      <c r="R118" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M118, 1), IF(N118 = "", "000", N118), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="S118" s="13" t="str">
+        <f t="shared" ref="S118" si="151">IF(O118="", BIN2HEX(P118, 2), BIN2HEX(O118,2))</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B119" t="str">
         <f t="shared" si="139"/>
-        <v>0x006</v>
+        <v>0x009</v>
       </c>
       <c r="C119" t="s">
-        <v>188</v>
-      </c>
-      <c r="D119" s="7" t="s">
         <v>228</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="F119" s="11">
         <v>1</v>
       </c>
       <c r="G119" s="12" t="s">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="H119">
-        <f t="shared" ref="H119" si="140">IF(G119="", "", VLOOKUP(G119, $U$3:$V$10, 2))</f>
-        <v>4</v>
+        <f>IF(G119="", "", VLOOKUP(G119, $U$3:$V$10, 2))</f>
+        <v>2</v>
       </c>
       <c r="K119">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="L119" s="16" t="str">
         <f>IF(F119="", "", TEXT(DEC2BIN(F119), "000000"))</f>
@@ -7630,7 +7734,7 @@
       </c>
       <c r="M119" s="17" t="str">
         <f>IF(H119="", "", TEXT(DEC2BIN(H119), "000"))</f>
-        <v>100</v>
+        <v>010</v>
       </c>
       <c r="N119" s="17" t="str">
         <f>IF(I119="", "", TEXT(DEC2BIN(I119), "000"))</f>
@@ -7642,222 +7746,496 @@
       </c>
       <c r="P119" s="18" t="str">
         <f>IF(K119="", "", TEXT(DEC2BIN(K119), "00000000"))</f>
-        <v>01100000</v>
+        <v>00000000</v>
       </c>
       <c r="Q119" t="str">
-        <f t="shared" ref="Q119" si="141">BIN2HEX(LEFT(CONCATENATE(L119,IF(M119="", "000", M119)), 8), 2)</f>
-        <v>06</v>
+        <f>BIN2HEX(LEFT(CONCATENATE(L119,IF(M119="", "000", M119)), 8), 2)</f>
+        <v>05</v>
       </c>
       <c r="R119" t="str">
         <f>BIN2HEX(CONCATENATE(RIGHT(M119, 1), IF(N119 = "", "000", N119), "0000"), 2)</f>
         <v>00</v>
       </c>
       <c r="S119" s="13" t="str">
-        <f t="shared" ref="S119" si="142">IF(O119="", BIN2HEX(P119, 2), BIN2HEX(O119,2))</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+        <f>IF(O119="", BIN2HEX(P119, 2), BIN2HEX(O119,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B120" t="str">
         <f t="shared" si="139"/>
-        <v>0x009</v>
+        <v>0x00C</v>
       </c>
       <c r="C120" t="s">
-        <v>150</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="E120" s="8"/>
+      <c r="F120" s="11">
+        <v>2</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="H120">
+        <f t="shared" ref="H120:H121" si="152">IF(G120="", "", VLOOKUP(G120, $U$3:$V$10, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="L120" s="16" t="str">
+        <f t="shared" ref="L120:L121" si="153">IF(F120="", "", TEXT(DEC2BIN(F120), "000000"))</f>
+        <v>000010</v>
+      </c>
+      <c r="M120" s="17" t="str">
+        <f t="shared" ref="M120:M121" si="154">IF(H120="", "", TEXT(DEC2BIN(H120), "000"))</f>
+        <v>011</v>
+      </c>
+      <c r="N120" s="17" t="str">
+        <f t="shared" ref="N120:N121" si="155">IF(I120="", "", TEXT(DEC2BIN(I120), "000"))</f>
+        <v>001</v>
+      </c>
+      <c r="O120" s="17" t="str">
+        <f t="shared" ref="O120:O121" si="156">IF(J120="", "", TEXT(DEC2BIN(J120), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P120" s="18" t="str">
+        <f t="shared" ref="P120:P121" si="157">IF(K120="", "", TEXT(DEC2BIN(K120), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q120" t="str">
+        <f t="shared" ref="Q120:Q121" si="158">BIN2HEX(LEFT(CONCATENATE(L120,IF(M120="", "000", M120)), 8), 2)</f>
+        <v>09</v>
+      </c>
+      <c r="R120" t="str">
+        <f t="shared" ref="R120:R121" si="159">BIN2HEX(CONCATENATE(RIGHT(M120, 1), IF(N120 = "", "000", N120), "0000"), 2)</f>
+        <v>90</v>
+      </c>
+      <c r="S120" s="13" t="str">
+        <f t="shared" ref="S120:S121" si="160">IF(O120="", BIN2HEX(P120, 2), BIN2HEX(O120,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B121" t="str">
         <f t="shared" si="139"/>
-        <v>0x00C</v>
+        <v>0x00F</v>
       </c>
       <c r="C121" t="s">
+        <v>225</v>
+      </c>
+      <c r="E121" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D121" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F121" s="11">
+        <v>4</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="152"/>
+        <v>0</v>
+      </c>
+      <c r="L121" s="16" t="str">
+        <f t="shared" si="153"/>
+        <v>000100</v>
+      </c>
+      <c r="M121" s="17" t="str">
+        <f t="shared" si="154"/>
+        <v>000</v>
+      </c>
+      <c r="N121" s="17" t="str">
+        <f t="shared" si="155"/>
+        <v/>
+      </c>
+      <c r="O121" s="17" t="str">
+        <f t="shared" si="156"/>
+        <v/>
+      </c>
+      <c r="P121" s="18" t="str">
+        <f t="shared" si="157"/>
+        <v/>
+      </c>
+      <c r="Q121" t="str">
+        <f t="shared" si="158"/>
+        <v>10</v>
+      </c>
+      <c r="R121" t="str">
+        <f t="shared" si="159"/>
+        <v>00</v>
+      </c>
+      <c r="S121" s="13" t="str">
+        <f t="shared" si="160"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B122" t="str">
-        <f t="shared" ref="B122:B135" si="143">"0x" &amp; DEC2HEX(A122,3)</f>
-        <v>0x00F</v>
+        <f t="shared" si="139"/>
+        <v>0x012</v>
       </c>
       <c r="C122" t="s">
-        <v>189</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>190</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="E122" s="8"/>
       <c r="F122" s="11">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G122" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="H122">
+        <f t="shared" ref="H122:H123" si="161">IF(G122="", "", VLOOKUP(G122, $U$3:$V$10, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="I122">
+        <v>6</v>
+      </c>
+      <c r="L122" s="16" t="str">
+        <f t="shared" ref="L122:L123" si="162">IF(F122="", "", TEXT(DEC2BIN(F122), "000000"))</f>
+        <v>000010</v>
+      </c>
+      <c r="M122" s="17" t="str">
+        <f t="shared" ref="M122:M123" si="163">IF(H122="", "", TEXT(DEC2BIN(H122), "000"))</f>
+        <v>011</v>
+      </c>
+      <c r="N122" s="17" t="str">
+        <f t="shared" ref="N122:N123" si="164">IF(I122="", "", TEXT(DEC2BIN(I122), "000"))</f>
+        <v>110</v>
+      </c>
+      <c r="O122" s="17" t="str">
+        <f t="shared" ref="O122:O123" si="165">IF(J122="", "", TEXT(DEC2BIN(J122), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P122" s="18" t="str">
+        <f t="shared" ref="P122:P123" si="166">IF(K122="", "", TEXT(DEC2BIN(K122), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q122" t="str">
+        <f t="shared" ref="Q122:Q123" si="167">BIN2HEX(LEFT(CONCATENATE(L122,IF(M122="", "000", M122)), 8), 2)</f>
+        <v>09</v>
+      </c>
+      <c r="R122" t="str">
+        <f t="shared" ref="R122:R123" si="168">BIN2HEX(CONCATENATE(RIGHT(M122, 1), IF(N122 = "", "000", N122), "0000"), 2)</f>
+        <v>E0</v>
+      </c>
+      <c r="S122" s="13" t="str">
+        <f t="shared" ref="S122:S123" si="169">IF(O122="", BIN2HEX(P122, 2), BIN2HEX(O122,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>21</v>
+      </c>
+      <c r="B123" t="str">
+        <f t="shared" si="139"/>
+        <v>0x015</v>
+      </c>
+      <c r="C123" t="s">
+        <v>238</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F123" s="11">
+        <v>11</v>
+      </c>
+      <c r="G123" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H122">
-        <f>IF(G122="", "", VLOOKUP(G122, $U$3:$V$10, 2))</f>
-        <v>0</v>
-      </c>
-      <c r="I122">
+      <c r="H123">
+        <f t="shared" si="161"/>
+        <v>0</v>
+      </c>
+      <c r="L123" s="16" t="str">
+        <f t="shared" si="162"/>
+        <v>001011</v>
+      </c>
+      <c r="M123" s="17" t="str">
+        <f t="shared" si="163"/>
+        <v>000</v>
+      </c>
+      <c r="N123" s="17" t="str">
+        <f t="shared" si="164"/>
+        <v/>
+      </c>
+      <c r="O123" s="17" t="str">
+        <f t="shared" si="165"/>
+        <v/>
+      </c>
+      <c r="P123" s="18" t="str">
+        <f t="shared" si="166"/>
+        <v/>
+      </c>
+      <c r="Q123" t="str">
+        <f t="shared" si="167"/>
+        <v>2C</v>
+      </c>
+      <c r="R123" t="str">
+        <f t="shared" si="168"/>
+        <v>00</v>
+      </c>
+      <c r="S123" s="13" t="str">
+        <f t="shared" si="169"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>24</v>
+      </c>
+      <c r="B124" t="str">
+        <f t="shared" si="139"/>
+        <v>0x018</v>
+      </c>
+      <c r="C124" t="s">
+        <v>239</v>
+      </c>
+      <c r="E124" s="50"/>
+      <c r="F124" s="11">
+        <v>40</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H124">
+        <f t="shared" ref="H124:H128" si="170">IF(G124="", "", VLOOKUP(G124, $U$3:$V$10, 2))</f>
+        <v>1</v>
+      </c>
+      <c r="L124" s="16" t="str">
+        <f>IF(F124="", "", TEXT(DEC2BIN(F124), "000000"))</f>
+        <v>101000</v>
+      </c>
+      <c r="M124" s="17" t="str">
+        <f>IF(H124="", "", TEXT(DEC2BIN(H124), "000"))</f>
+        <v>001</v>
+      </c>
+      <c r="N124" s="17" t="str">
+        <f>IF(I124="", "", TEXT(DEC2BIN(I124), "000"))</f>
+        <v/>
+      </c>
+      <c r="O124" s="17" t="str">
+        <f>IF(J124="", "", TEXT(DEC2BIN(J124), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P124" s="18" t="str">
+        <f>IF(K124="", "", TEXT(DEC2BIN(K124), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q124" t="str">
+        <f t="shared" ref="Q124:Q125" si="171">BIN2HEX(LEFT(CONCATENATE(L124,IF(M124="", "000", M124)), 8), 2)</f>
+        <v>A0</v>
+      </c>
+      <c r="R124" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M124, 1), IF(N124 = "", "000", N124), "0000"), 2)</f>
+        <v>80</v>
+      </c>
+      <c r="S124" s="13" t="str">
+        <f t="shared" ref="S124:S125" si="172">IF(O124="", BIN2HEX(P124, 2), BIN2HEX(O124,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>27</v>
+      </c>
+      <c r="B125" t="str">
+        <f t="shared" si="139"/>
+        <v>0x01B</v>
+      </c>
+      <c r="C125" t="s">
+        <v>58</v>
+      </c>
+      <c r="E125" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="F125" s="11">
         <v>2</v>
       </c>
-      <c r="L122" s="16" t="str">
-        <f>IF(F122="", "", TEXT(DEC2BIN(F122), "000000"))</f>
-        <v>001110</v>
-      </c>
-      <c r="M122" s="17" t="str">
-        <f>IF(H122="", "", TEXT(DEC2BIN(H122), "000"))</f>
+      <c r="G125" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="170"/>
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="L125" s="16" t="str">
+        <f t="shared" ref="L125" si="173">IF(F125="", "", TEXT(DEC2BIN(F125), "000000"))</f>
+        <v>000010</v>
+      </c>
+      <c r="M125" s="17" t="str">
+        <f t="shared" ref="M125:M128" si="174">IF(H125="", "", TEXT(DEC2BIN(H125), "000"))</f>
         <v>000</v>
       </c>
-      <c r="N122" s="17" t="str">
-        <f>IF(I122="", "", TEXT(DEC2BIN(I122), "000"))</f>
-        <v>010</v>
-      </c>
-      <c r="O122" s="17" t="str">
-        <f>IF(J122="", "", TEXT(DEC2BIN(J122), "00000000"))</f>
-        <v/>
-      </c>
-      <c r="P122" s="18" t="str">
-        <f>IF(K122="", "", TEXT(DEC2BIN(K122), "00000000"))</f>
-        <v/>
-      </c>
-      <c r="Q122" t="str">
-        <f t="shared" ref="Q122" si="144">BIN2HEX(LEFT(CONCATENATE(L122,IF(M122="", "000", M122)), 8), 2)</f>
+      <c r="N125" s="17" t="str">
+        <f t="shared" ref="N125:N128" si="175">IF(I125="", "", TEXT(DEC2BIN(I125), "000"))</f>
+        <v>001</v>
+      </c>
+      <c r="O125" s="17" t="str">
+        <f t="shared" ref="O125:O128" si="176">IF(J125="", "", TEXT(DEC2BIN(J125), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P125" s="18" t="str">
+        <f t="shared" ref="P125:P128" si="177">IF(K125="", "", TEXT(DEC2BIN(K125), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q125" t="str">
+        <f t="shared" si="171"/>
+        <v>08</v>
+      </c>
+      <c r="R125" t="str">
+        <f t="shared" ref="R125" si="178">BIN2HEX(CONCATENATE(RIGHT(M125, 1), IF(N125 = "", "000", N125), "0000"), 2)</f>
+        <v>10</v>
+      </c>
+      <c r="S125" s="13" t="str">
+        <f t="shared" si="172"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>30</v>
+      </c>
+      <c r="B126" t="str">
+        <f t="shared" si="139"/>
+        <v>0x01E</v>
+      </c>
+      <c r="C126" t="s">
+        <v>151</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F126" s="11">
+        <v>33</v>
+      </c>
+      <c r="G126" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="R122" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(M122, 1), IF(N122 = "", "000", N122), "0000"), 2)</f>
-        <v>20</v>
-      </c>
-      <c r="S122" s="13" t="str">
-        <f t="shared" ref="S122" si="145">IF(O122="", BIN2HEX(P122, 2), BIN2HEX(O122,2))</f>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="H126">
+        <f t="shared" si="170"/>
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>7</v>
+      </c>
+      <c r="L126" s="16" t="str">
+        <f>IF(F126="", "", TEXT(DEC2BIN(F126), "000000"))</f>
+        <v>100001</v>
+      </c>
+      <c r="M126" s="17" t="str">
+        <f t="shared" si="174"/>
+        <v>000</v>
+      </c>
+      <c r="N126" s="17" t="str">
+        <f t="shared" si="175"/>
+        <v>111</v>
+      </c>
+      <c r="O126" s="17" t="str">
+        <f t="shared" si="176"/>
+        <v/>
+      </c>
+      <c r="P126" s="18" t="str">
+        <f t="shared" si="177"/>
+        <v/>
+      </c>
+      <c r="Q126" t="str">
+        <f>BIN2HEX(LEFT(CONCATENATE(L126,IF(M126="", "000", M126)), 8), 2)</f>
+        <v>84</v>
+      </c>
+      <c r="R126" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M126, 1), IF(N126 = "", "000", N126), "0000"), 2)</f>
+        <v>70</v>
+      </c>
+      <c r="S126" s="13" t="str">
+        <f>IF(O126="", BIN2HEX(P126, 2), BIN2HEX(O126,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>33</v>
+      </c>
+      <c r="B127" t="str">
+        <f t="shared" si="139"/>
+        <v>0x021</v>
+      </c>
+      <c r="C127" t="s">
+        <v>242</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F127" s="11">
+        <v>6</v>
+      </c>
+      <c r="H127" t="str">
+        <f t="shared" si="170"/>
+        <v/>
+      </c>
+      <c r="J127">
+        <v>33</v>
+      </c>
+      <c r="L127" s="16" t="str">
+        <f>IF(F127="", "", TEXT(DEC2BIN(F127), "000000"))</f>
+        <v>000110</v>
+      </c>
+      <c r="M127" s="17" t="str">
+        <f t="shared" si="174"/>
+        <v/>
+      </c>
+      <c r="N127" s="17" t="str">
+        <f t="shared" si="175"/>
+        <v/>
+      </c>
+      <c r="O127" s="17" t="str">
+        <f t="shared" si="176"/>
+        <v>00100001</v>
+      </c>
+      <c r="P127" s="18" t="str">
+        <f t="shared" si="177"/>
+        <v/>
+      </c>
+      <c r="Q127" t="str">
+        <f>BIN2HEX(LEFT(CONCATENATE(L127,IF(M127="", "000", M127)), 8), 2)</f>
         <v>18</v>
       </c>
-      <c r="B123" t="str">
-        <f t="shared" si="143"/>
-        <v>0x012</v>
-      </c>
-      <c r="C123" t="s">
-        <v>59</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="E123" s="44" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="R127" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M127, 1), IF(N127 = "", "000", N127), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="S127" s="13" t="str">
+        <f>IF(O127="", BIN2HEX(P127, 2), BIN2HEX(O127,2))</f>
         <v>21</v>
       </c>
-      <c r="B124" t="str">
-        <f t="shared" si="143"/>
-        <v>0x015</v>
-      </c>
-      <c r="C124" t="s">
-        <v>152</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E124" s="44"/>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>24</v>
-      </c>
-      <c r="B125" t="str">
-        <f t="shared" si="143"/>
-        <v>0x018</v>
-      </c>
-      <c r="C125" t="s">
-        <v>62</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E125" s="44"/>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>27</v>
-      </c>
-      <c r="B126" t="str">
-        <f t="shared" si="143"/>
-        <v>0x01B</v>
-      </c>
-      <c r="C126" t="s">
-        <v>159</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>30</v>
-      </c>
-      <c r="B127" t="str">
-        <f t="shared" si="143"/>
-        <v>0x01E</v>
-      </c>
-      <c r="C127" t="s">
-        <v>198</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B128" t="str">
-        <f t="shared" si="143"/>
-        <v>0x021</v>
+        <f t="shared" si="139"/>
+        <v>0x024</v>
       </c>
       <c r="C128" t="s">
-        <v>196</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E128" s="44" t="s">
-        <v>195</v>
+        <v>82</v>
+      </c>
+      <c r="E128" s="51" t="s">
+        <v>249</v>
       </c>
       <c r="F128" s="11">
         <v>2</v>
@@ -7866,195 +8244,269 @@
         <v>38</v>
       </c>
       <c r="H128">
-        <f t="shared" ref="H128:H130" si="146">IF(G128="", "", VLOOKUP(G128, $U$3:$V$10, 2))</f>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L128" s="16" t="str">
-        <f>IF(F128="", "", TEXT(DEC2BIN(F128), "000000"))</f>
+        <f t="shared" ref="L128" si="179">IF(F128="", "", TEXT(DEC2BIN(F128), "000000"))</f>
         <v>000010</v>
       </c>
       <c r="M128" s="17" t="str">
-        <f>IF(H128="", "", TEXT(DEC2BIN(H128), "000"))</f>
+        <f t="shared" si="174"/>
         <v>000</v>
       </c>
       <c r="N128" s="17" t="str">
-        <f>IF(I128="", "", TEXT(DEC2BIN(I128), "000"))</f>
-        <v>010</v>
+        <f t="shared" si="175"/>
+        <v>110</v>
       </c>
       <c r="O128" s="17" t="str">
-        <f>IF(J128="", "", TEXT(DEC2BIN(J128), "00000000"))</f>
+        <f t="shared" si="176"/>
         <v/>
       </c>
       <c r="P128" s="18" t="str">
-        <f>IF(K128="", "", TEXT(DEC2BIN(K128), "00000000"))</f>
+        <f t="shared" si="177"/>
         <v/>
       </c>
       <c r="Q128" t="str">
-        <f t="shared" ref="Q128" si="147">BIN2HEX(LEFT(CONCATENATE(L128,IF(M128="", "000", M128)), 8), 2)</f>
+        <f t="shared" ref="Q128" si="180">BIN2HEX(LEFT(CONCATENATE(L128,IF(M128="", "000", M128)), 8), 2)</f>
         <v>08</v>
       </c>
       <c r="R128" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(M128, 1), IF(N128 = "", "000", N128), "0000"), 2)</f>
-        <v>20</v>
+        <f t="shared" ref="R128" si="181">BIN2HEX(CONCATENATE(RIGHT(M128, 1), IF(N128 = "", "000", N128), "0000"), 2)</f>
+        <v>60</v>
       </c>
       <c r="S128" s="13" t="str">
-        <f t="shared" ref="S128" si="148">IF(O128="", BIN2HEX(P128, 2), BIN2HEX(O128,2))</f>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" ref="S128" si="182">IF(O128="", BIN2HEX(P128, 2), BIN2HEX(O128,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B129" t="str">
-        <f t="shared" si="143"/>
-        <v>0x024</v>
+        <f t="shared" si="139"/>
+        <v>0x027</v>
       </c>
       <c r="C129" t="s">
-        <v>152</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E129" s="44"/>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="E129" s="51"/>
+      <c r="F129" s="11">
+        <v>40</v>
+      </c>
+      <c r="G129" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H129">
+        <f t="shared" ref="H129:H131" si="183">IF(G129="", "", VLOOKUP(G129, $U$3:$V$10, 2))</f>
+        <v>0</v>
+      </c>
+      <c r="L129" s="16" t="str">
+        <f>IF(F129="", "", TEXT(DEC2BIN(F129), "000000"))</f>
+        <v>101000</v>
+      </c>
+      <c r="M129" s="17" t="str">
+        <f>IF(H129="", "", TEXT(DEC2BIN(H129), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="N129" s="17" t="str">
+        <f>IF(I129="", "", TEXT(DEC2BIN(I129), "000"))</f>
+        <v/>
+      </c>
+      <c r="O129" s="17" t="str">
+        <f>IF(J129="", "", TEXT(DEC2BIN(J129), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P129" s="18" t="str">
+        <f>IF(K129="", "", TEXT(DEC2BIN(K129), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q129" t="str">
+        <f t="shared" ref="Q129:Q130" si="184">BIN2HEX(LEFT(CONCATENATE(L129,IF(M129="", "000", M129)), 8), 2)</f>
+        <v>A0</v>
+      </c>
+      <c r="R129" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M129, 1), IF(N129 = "", "000", N129), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="S129" s="13" t="str">
+        <f t="shared" ref="S129:S130" si="185">IF(O129="", BIN2HEX(P129, 2), BIN2HEX(O129,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B130" t="str">
-        <f t="shared" si="143"/>
-        <v>0x027</v>
+        <f t="shared" si="139"/>
+        <v>0x02A</v>
       </c>
       <c r="C130" t="s">
-        <v>197</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E130" s="44"/>
+        <v>83</v>
+      </c>
+      <c r="E130" s="51"/>
       <c r="F130" s="11">
         <v>2</v>
       </c>
       <c r="G130" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H130">
-        <f t="shared" si="146"/>
-        <v>4</v>
+        <f t="shared" si="183"/>
+        <v>6</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="L130" s="16" t="str">
-        <f>IF(F130="", "", TEXT(DEC2BIN(F130), "000000"))</f>
+        <f t="shared" ref="L130" si="186">IF(F130="", "", TEXT(DEC2BIN(F130), "000000"))</f>
         <v>000010</v>
       </c>
       <c r="M130" s="17" t="str">
-        <f>IF(H130="", "", TEXT(DEC2BIN(H130), "000"))</f>
-        <v>100</v>
+        <f t="shared" ref="M130" si="187">IF(H130="", "", TEXT(DEC2BIN(H130), "000"))</f>
+        <v>110</v>
       </c>
       <c r="N130" s="17" t="str">
-        <f>IF(I130="", "", TEXT(DEC2BIN(I130), "000"))</f>
+        <f t="shared" ref="N130" si="188">IF(I130="", "", TEXT(DEC2BIN(I130), "000"))</f>
         <v>000</v>
       </c>
       <c r="O130" s="17" t="str">
-        <f>IF(J130="", "", TEXT(DEC2BIN(J130), "00000000"))</f>
+        <f t="shared" ref="O130" si="189">IF(J130="", "", TEXT(DEC2BIN(J130), "00000000"))</f>
         <v/>
       </c>
       <c r="P130" s="18" t="str">
-        <f>IF(K130="", "", TEXT(DEC2BIN(K130), "00000000"))</f>
+        <f t="shared" ref="P130" si="190">IF(K130="", "", TEXT(DEC2BIN(K130), "00000000"))</f>
         <v/>
       </c>
       <c r="Q130" t="str">
-        <f t="shared" ref="Q130" si="149">BIN2HEX(LEFT(CONCATENATE(L130,IF(M130="", "000", M130)), 8), 2)</f>
-        <v>0A</v>
+        <f t="shared" si="184"/>
+        <v>0B</v>
       </c>
       <c r="R130" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(M130, 1), IF(N130 = "", "000", N130), "0000"), 2)</f>
+        <f t="shared" ref="R130" si="191">BIN2HEX(CONCATENATE(RIGHT(M130, 1), IF(N130 = "", "000", N130), "0000"), 2)</f>
         <v>00</v>
       </c>
       <c r="S130" s="13" t="str">
-        <f t="shared" ref="S130" si="150">IF(O130="", BIN2HEX(P130, 2), BIN2HEX(O130,2))</f>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="185"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" si="143"/>
-        <v>0x02A</v>
+        <f t="shared" si="139"/>
+        <v>0x02D</v>
       </c>
       <c r="C131" t="s">
-        <v>193</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="F131" s="11">
+        <v>5</v>
+      </c>
+      <c r="H131" t="str">
+        <f t="shared" si="183"/>
+        <v/>
+      </c>
+      <c r="J131">
+        <v>12</v>
+      </c>
+      <c r="L131" s="16" t="str">
+        <f>IF(F131="", "", TEXT(DEC2BIN(F131), "000000"))</f>
+        <v>000101</v>
+      </c>
+      <c r="M131" s="17" t="str">
+        <f t="shared" ref="M131" si="192">IF(H131="", "", TEXT(DEC2BIN(H131), "000"))</f>
+        <v/>
+      </c>
+      <c r="N131" s="17" t="str">
+        <f t="shared" ref="N131" si="193">IF(I131="", "", TEXT(DEC2BIN(I131), "000"))</f>
+        <v/>
+      </c>
+      <c r="O131" s="17" t="str">
+        <f t="shared" ref="O131" si="194">IF(J131="", "", TEXT(DEC2BIN(J131), "00000000"))</f>
+        <v>00001100</v>
+      </c>
+      <c r="P131" s="18" t="str">
+        <f t="shared" ref="P131" si="195">IF(K131="", "", TEXT(DEC2BIN(K131), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q131" t="str">
+        <f>BIN2HEX(LEFT(CONCATENATE(L131,IF(M131="", "000", M131)), 8), 2)</f>
+        <v>14</v>
+      </c>
+      <c r="R131" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M131, 1), IF(N131 = "", "000", N131), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="S131" s="13" t="str">
+        <f>IF(O131="", BIN2HEX(P131, 2), BIN2HEX(O131,2))</f>
+        <v>0C</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E132" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>48</v>
       </c>
       <c r="B133" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" ref="B133:B135" si="196">"0x" &amp; DEC2HEX(A133,3)</f>
         <v>0x030</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>51</v>
       </c>
       <c r="B134" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="196"/>
         <v>0x033</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>54</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="196"/>
         <v>0x036</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="U16:V18">
     <sortCondition ref="U13"/>
   </sortState>
-  <mergeCells count="3">
+  <mergeCells count="2">
+    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="E128:E130"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="E123:E125"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W17">
       <formula1>$U$16:$U$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G6 G122 G119 G128 G130 G9:G11 G17:G26 G31:G33 G41:G42 G49 G83:G93">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G6 G9:G11 G17:G26 G31:G33 G41:G42 G49 G83:G93 G116:G131">
       <formula1>$U$3:$U$10</formula1>
     </dataValidation>
   </dataValidations>

--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="288" windowWidth="14808" windowHeight="7836" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Control Lines" sheetId="1" r:id="rId1"/>
     <sheet name="Some instructions for test" sheetId="2" r:id="rId2"/>
     <sheet name="Test Programs" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
@@ -22,7 +22,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="B20" authorId="0" shapeId="0">
+    <comment ref="B20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="252">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -331,9 +331,6 @@
     <t>JP [0x006]</t>
   </si>
   <si>
-    <t>LD F, 0xff</t>
-  </si>
-  <si>
     <t>LD A, E</t>
   </si>
   <si>
@@ -580,9 +577,6 @@
     <t>// ASCII char '9' + 1</t>
   </si>
   <si>
-    <t>OUT 0, F</t>
-  </si>
-  <si>
     <t>// Clear Display</t>
   </si>
   <si>
@@ -811,9 +805,6 @@
     <t>// Saves value of B register (current src addr)</t>
   </si>
   <si>
-    <t>SUB E, B</t>
-  </si>
-  <si>
     <t>JP Z, [0x021]</t>
   </si>
   <si>
@@ -836,12 +827,27 @@
   </si>
   <si>
     <t>// Increments E</t>
+  </si>
+  <si>
+    <t>SUB B, E</t>
+  </si>
+  <si>
+    <t>LD H, 0xff</t>
+  </si>
+  <si>
+    <t>OUT 0, H</t>
+  </si>
+  <si>
+    <t>CLOSE_REGS_BRIDGE = 1 woual allow to output all registers, instead of only the first four</t>
+  </si>
+  <si>
+    <t>One register instructions can be modified to use all registers, as the above OUT instruction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1126,6 +1132,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1137,9 +1146,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1164,7 +1170,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1202,9 +1208,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1237,26 +1243,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1289,26 +1278,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1482,27 +1454,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL54"/>
+  <dimension ref="A1:AM54"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
+      <selection pane="bottomLeft" activeCell="AM38" sqref="AM38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16" width="3.33203125" customWidth="1"/>
-    <col min="17" max="18" width="3.33203125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="3.33203125" customWidth="1"/>
-    <col min="20" max="20" width="3.33203125" style="41" customWidth="1"/>
-    <col min="21" max="26" width="3.33203125" customWidth="1"/>
-    <col min="27" max="29" width="5.88671875" customWidth="1"/>
+    <col min="3" max="16" width="3.28515625" customWidth="1"/>
+    <col min="17" max="18" width="3.28515625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="3.28515625" customWidth="1"/>
+    <col min="20" max="20" width="3.28515625" style="41" customWidth="1"/>
+    <col min="21" max="26" width="3.28515625" customWidth="1"/>
+    <col min="27" max="29" width="5.85546875" customWidth="1"/>
     <col min="30" max="30" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C1">
         <v>23</v>
       </c>
@@ -1576,12 +1548,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" ht="129" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" s="1" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>1</v>
@@ -1617,13 +1589,13 @@
         <v>13</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O2" s="23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P2" s="23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q2" s="25" t="s">
         <v>20</v>
@@ -1632,10 +1604,10 @@
         <v>21</v>
       </c>
       <c r="S2" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T2" s="40" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="U2" s="23" t="s">
         <v>32</v>
@@ -1655,13 +1627,13 @@
       <c r="Z2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AA2" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+    </row>
+    <row r="3" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1761,7 +1733,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1857,7 +1829,7 @@
         <v>C00000</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1953,7 +1925,7 @@
         <v>600400</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2049,12 +2021,12 @@
         <v>5E0000</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -2145,7 +2117,7 @@
         <v>4F0000</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2241,7 +2213,7 @@
         <v>004000</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2337,7 +2309,7 @@
         <v>006000</v>
       </c>
     </row>
-    <row r="10" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="33">
         <v>7</v>
       </c>
@@ -2433,7 +2405,7 @@
         <v>004200</v>
       </c>
     </row>
-    <row r="11" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="33">
         <v>8</v>
       </c>
@@ -2529,7 +2501,7 @@
         <v>006200</v>
       </c>
     </row>
-    <row r="12" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
         <v>9</v>
       </c>
@@ -2597,7 +2569,7 @@
         <v>000100</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2689,19 +2661,19 @@
         <v>00</v>
       </c>
       <c r="AE13" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AL13" s="8" t="str">
         <f t="shared" ref="AL13:AL44" si="4">AA13 &amp; AB13 &amp; AC13</f>
         <v>181800</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -2792,7 +2764,7 @@
         <v>091800</v>
       </c>
     </row>
-    <row r="15" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="33">
         <v>12</v>
       </c>
@@ -2839,7 +2811,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="16" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="33">
         <v>13</v>
       </c>
@@ -2886,7 +2858,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="17" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="33">
         <v>14</v>
       </c>
@@ -2933,7 +2905,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="18" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="33">
         <v>15</v>
       </c>
@@ -2980,12 +2952,12 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="19" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="33">
         <v>16</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O19" s="8">
         <v>0</v>
@@ -3012,19 +2984,19 @@
         <v>00</v>
       </c>
       <c r="AE19" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AL19" s="8" t="str">
         <f t="shared" si="4"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3111,14 +3083,17 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AL20" s="8" t="str">
         <f t="shared" si="4"/>
         <v>000080</v>
       </c>
-    </row>
-    <row r="21" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AM20" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -3147,7 +3122,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="22" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -3176,7 +3151,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="23" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -3205,7 +3180,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="24" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -3234,7 +3209,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="25" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -3263,7 +3238,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="26" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -3292,7 +3267,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="27" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -3321,7 +3296,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="28" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -3350,7 +3325,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="29" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -3379,7 +3354,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="30" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -3408,7 +3383,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="31" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -3437,7 +3412,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="32" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -3466,7 +3441,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="33" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -3495,7 +3470,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="34" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:39" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -3524,7 +3499,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -3616,14 +3591,14 @@
         <v>25</v>
       </c>
       <c r="AE35" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AL35" s="8" t="str">
         <f t="shared" si="4"/>
         <v>408825</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -3715,14 +3690,14 @@
         <v>18</v>
       </c>
       <c r="AE36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AL36" s="8" t="str">
         <f t="shared" si="4"/>
         <v>408818</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -3817,8 +3792,11 @@
         <f t="shared" si="4"/>
         <v>408802</v>
       </c>
-    </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM37" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -3914,7 +3892,7 @@
         <v>40882E</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -4010,7 +3988,7 @@
         <v>40883A</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -4106,12 +4084,12 @@
         <v>40881A</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>38</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -4202,12 +4180,12 @@
         <v>408806</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>39</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C42" s="6">
         <v>0</v>
@@ -4298,12 +4276,12 @@
         <v>408826</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>40</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C43" s="6">
         <v>0</v>
@@ -4394,12 +4372,12 @@
         <v>408800</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>41</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C44" s="6">
         <v>0</v>
@@ -4490,7 +4468,7 @@
         <v>40883D</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>22</v>
       </c>
@@ -4498,7 +4476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
         <v>30</v>
       </c>
@@ -4506,23 +4484,23 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>47</v>
       </c>
@@ -4530,35 +4508,35 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="B52" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Q52"/>
       <c r="R52"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53"/>
       <c r="B53" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q53"/>
       <c r="R53"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="B54" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q54"/>
       <c r="R54"/>
@@ -4581,10 +4559,10 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.109375" style="7"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -4732,91 +4710,91 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X135"/>
+  <dimension ref="A1:X136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L131" sqref="L131"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W115" sqref="W115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" style="16" customWidth="1"/>
-    <col min="13" max="14" width="9.109375" style="2"/>
-    <col min="15" max="15" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="16" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="2"/>
+    <col min="15" max="15" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G1" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L1" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="L1" s="19" t="s">
+      <c r="N1" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="O1" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="P1" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="N1" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="O1" s="20" t="s">
+      <c r="Q1" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="P1" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q1" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="R1" s="48"/>
-      <c r="S1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="50"/>
       <c r="T1" s="10"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
       <c r="O2" s="17"/>
       <c r="U2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -4825,7 +4803,7 @@
         <v>0x000</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="11">
@@ -4880,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4892,7 +4870,7 @@
         <v>79</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F4" s="11">
         <v>1</v>
@@ -4946,7 +4924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6</v>
       </c>
@@ -4955,7 +4933,7 @@
         <v>0x006</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="11">
@@ -5010,7 +4988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9</v>
       </c>
@@ -5071,7 +5049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E7" s="8"/>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
@@ -5083,19 +5061,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C8" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E8" s="8"/>
       <c r="U8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="V8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -5104,7 +5082,7 @@
         <v>0x000</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11">
@@ -5153,13 +5131,13 @@
         <v>00</v>
       </c>
       <c r="U9" s="38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="V9" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -5168,7 +5146,7 @@
         <v>0x003</v>
       </c>
       <c r="C10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F10" s="11">
         <v>40</v>
@@ -5213,13 +5191,13 @@
         <v>00</v>
       </c>
       <c r="U10" s="38" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="V10" s="38">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -5228,7 +5206,7 @@
         <v>0x006</v>
       </c>
       <c r="C11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F11" s="11">
         <v>5</v>
@@ -5273,18 +5251,18 @@
         <v>03</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C16" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="U16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="V16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
@@ -5293,7 +5271,7 @@
         <v>0x000</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F17" s="11">
         <v>1</v>
@@ -5341,20 +5319,20 @@
         <v>00</v>
       </c>
       <c r="U17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="V17">
         <v>1</v>
       </c>
       <c r="W17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="X17">
         <f>VLOOKUP(W17,U16:V18,2)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5363,7 +5341,7 @@
         <v>0x003</v>
       </c>
       <c r="C18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F18" s="11">
         <v>1</v>
@@ -5411,13 +5389,13 @@
         <v>FF</v>
       </c>
       <c r="U18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="V18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
@@ -5426,7 +5404,7 @@
         <v>0x006</v>
       </c>
       <c r="C19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F19" s="11">
         <v>40</v>
@@ -5471,7 +5449,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>9</v>
       </c>
@@ -5480,10 +5458,10 @@
         <v>0x009</v>
       </c>
       <c r="C20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F20" s="11">
         <v>41</v>
@@ -5528,7 +5506,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12</v>
       </c>
@@ -5583,43 +5561,43 @@
         <v>06</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E22" s="39"/>
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E23" s="39"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
       <c r="O23" s="17"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E24" s="39"/>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
       <c r="O24" s="17"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E25" s="39"/>
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
       <c r="O25" s="17"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M26" s="17"/>
       <c r="N26" s="17"/>
       <c r="O26" s="17"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
@@ -5628,7 +5606,7 @@
         <v>0x000</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F31" s="11">
         <v>1</v>
@@ -5676,7 +5654,7 @@
         <v>01</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -5733,7 +5711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -5742,7 +5720,7 @@
         <v>0x006</v>
       </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F33" s="11">
         <v>32</v>
@@ -5790,7 +5768,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>9</v>
       </c>
@@ -5799,7 +5777,7 @@
         <v>0x009</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F34" s="11">
         <v>6</v>
@@ -5840,7 +5818,7 @@
         <v>0F</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>12</v>
       </c>
@@ -5890,7 +5868,7 @@
         <v>06</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>15</v>
       </c>
@@ -5899,7 +5877,7 @@
         <v>0x00F</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F36" s="11">
         <v>5</v>
@@ -5940,12 +5918,12 @@
         <v>0F</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C40" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
@@ -5954,7 +5932,7 @@
         <v>0x000</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F41" s="11">
         <v>3</v>
@@ -6002,7 +5980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
@@ -6011,7 +5989,7 @@
         <v>0x003</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F42" s="11">
         <v>10</v>
@@ -6059,7 +6037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>6</v>
       </c>
@@ -6109,7 +6087,7 @@
         <v>06</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>16</v>
       </c>
@@ -6118,21 +6096,21 @@
         <v>0x010</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C46" s="38"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C48" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0</v>
       </c>
@@ -6141,10 +6119,10 @@
         <v>0x000</v>
       </c>
       <c r="C49" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="F49" s="11">
         <v>1</v>
@@ -6192,7 +6170,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3</v>
       </c>
@@ -6201,7 +6179,7 @@
         <v>0x003</v>
       </c>
       <c r="C50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F50" s="11">
         <v>17</v>
@@ -6245,17 +6223,17 @@
         <v>00</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
       <c r="O51" s="17"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C55" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0</v>
       </c>
@@ -6264,17 +6242,17 @@
         <v>0x000</v>
       </c>
       <c r="C56" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="E56" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E56" s="8" t="s">
-        <v>105</v>
-      </c>
       <c r="F56" s="43"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
@@ -6283,14 +6261,14 @@
         <v>0x003</v>
       </c>
       <c r="C57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>6</v>
       </c>
@@ -6299,16 +6277,16 @@
         <v>0x006</v>
       </c>
       <c r="C58" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="E58" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>9</v>
       </c>
@@ -6317,14 +6295,14 @@
         <v>0x009</v>
       </c>
       <c r="C59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E59" s="8"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>12</v>
       </c>
@@ -6333,16 +6311,16 @@
         <v>0x00C</v>
       </c>
       <c r="C60" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="E60" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>15</v>
       </c>
@@ -6351,14 +6329,14 @@
         <v>0x00F</v>
       </c>
       <c r="C61" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>18</v>
       </c>
@@ -6367,16 +6345,16 @@
         <v>0x012</v>
       </c>
       <c r="C62" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="E62" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>21</v>
       </c>
@@ -6385,14 +6363,14 @@
         <v>0x015</v>
       </c>
       <c r="C63" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>24</v>
       </c>
@@ -6401,16 +6379,16 @@
         <v>0x018</v>
       </c>
       <c r="C64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>27</v>
       </c>
@@ -6419,14 +6397,14 @@
         <v>0x01B</v>
       </c>
       <c r="C65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E65" s="8"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>30</v>
       </c>
@@ -6435,16 +6413,16 @@
         <v>0x01E</v>
       </c>
       <c r="C66" t="s">
+        <v>114</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="E66" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E66" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>33</v>
       </c>
@@ -6453,14 +6431,14 @@
         <v>0x021</v>
       </c>
       <c r="C67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E67" s="8"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>36</v>
       </c>
@@ -6469,16 +6447,16 @@
         <v>0x024</v>
       </c>
       <c r="C68" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="E68" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E68" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>39</v>
       </c>
@@ -6487,14 +6465,14 @@
         <v>0x027</v>
       </c>
       <c r="C69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E69" s="8"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>42</v>
       </c>
@@ -6503,16 +6481,16 @@
         <v>0x02A</v>
       </c>
       <c r="C70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>45</v>
       </c>
@@ -6521,14 +6499,14 @@
         <v>0x02D</v>
       </c>
       <c r="C71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E71" s="8"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>48</v>
       </c>
@@ -6537,16 +6515,16 @@
         <v>0x030</v>
       </c>
       <c r="C72" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>51</v>
       </c>
@@ -6555,14 +6533,14 @@
         <v>0x033</v>
       </c>
       <c r="C73" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>54</v>
       </c>
@@ -6571,16 +6549,16 @@
         <v>0x036</v>
       </c>
       <c r="C74" t="s">
+        <v>109</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D74" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="E74" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>57</v>
       </c>
@@ -6589,14 +6567,14 @@
         <v>0x039</v>
       </c>
       <c r="C75" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E75" s="8"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>60</v>
       </c>
@@ -6605,16 +6583,16 @@
         <v>0x03C</v>
       </c>
       <c r="C76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>63</v>
       </c>
@@ -6623,14 +6601,14 @@
         <v>0x03F</v>
       </c>
       <c r="C77" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E77" s="8"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>66</v>
       </c>
@@ -6639,16 +6617,16 @@
         <v>0x042</v>
       </c>
       <c r="C78" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>69</v>
       </c>
@@ -6657,28 +6635,28 @@
         <v>0x045</v>
       </c>
       <c r="C79" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E80" s="8"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D81"/>
       <c r="E81" s="8"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C82" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D82"/>
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>0</v>
       </c>
@@ -6687,17 +6665,17 @@
         <v>0x000</v>
       </c>
       <c r="C83" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D83"/>
       <c r="E83" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F83" s="11">
         <v>1</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H83">
         <f t="shared" ref="H83" si="85">IF(G83="", "", VLOOKUP(G83, $U$3:$V$10, 2))</f>
@@ -6739,7 +6717,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>3</v>
       </c>
@@ -6748,16 +6726,16 @@
         <v>0x003</v>
       </c>
       <c r="C84" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F84" s="11">
         <v>1</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H84">
         <f t="shared" ref="H84:H86" si="94">IF(G84="", "", VLOOKUP(G84, $U$3:$V$10, 2))</f>
@@ -6799,7 +6777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>6</v>
       </c>
@@ -6808,16 +6786,16 @@
         <v>0x006</v>
       </c>
       <c r="C85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F85" s="11">
         <v>1</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H85">
         <f t="shared" si="94"/>
@@ -6859,7 +6837,7 @@
         <v>3C</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>9</v>
       </c>
@@ -6868,10 +6846,10 @@
         <v>0x009</v>
       </c>
       <c r="C86" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F86" s="11">
         <v>4</v>
@@ -6916,7 +6894,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>12</v>
       </c>
@@ -6925,11 +6903,11 @@
         <v>0x00C</v>
       </c>
       <c r="C87" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D87"/>
       <c r="E87" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F87" s="11">
         <v>17</v>
@@ -6977,7 +6955,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>15</v>
       </c>
@@ -6986,14 +6964,14 @@
         <v>0x00F</v>
       </c>
       <c r="C88" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E88" s="44"/>
       <c r="F88" s="11">
         <v>40</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H88">
         <f t="shared" si="103"/>
@@ -7032,7 +7010,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>18</v>
       </c>
@@ -7041,10 +7019,10 @@
         <v>0x012</v>
       </c>
       <c r="C89" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F89" s="11">
         <v>2</v>
@@ -7092,7 +7070,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>21</v>
       </c>
@@ -7101,16 +7079,16 @@
         <v>0x015</v>
       </c>
       <c r="C90" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F90" s="11">
         <v>33</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H90">
         <f t="shared" ref="H90" si="117">IF(G90="", "", VLOOKUP(G90, $U$3:$V$10, 2))</f>
@@ -7152,7 +7130,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>24</v>
       </c>
@@ -7161,10 +7139,10 @@
         <v>0x018</v>
       </c>
       <c r="C91" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F91" s="11">
         <v>6</v>
@@ -7209,7 +7187,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>27</v>
       </c>
@@ -7218,16 +7196,16 @@
         <v>0x01B</v>
       </c>
       <c r="C92" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F92" s="11">
         <v>2</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H92">
         <f t="shared" si="122"/>
@@ -7269,7 +7247,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>30</v>
       </c>
@@ -7278,10 +7256,10 @@
         <v>0x01E</v>
       </c>
       <c r="C93" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F93" s="11">
         <v>5</v>
@@ -7328,10 +7306,10 @@
     </row>
     <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E94" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>48</v>
       </c>
@@ -7340,13 +7318,13 @@
         <v>0x030</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>51</v>
       </c>
@@ -7355,13 +7333,13 @@
         <v>0x033</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>54</v>
       </c>
@@ -7370,13 +7348,13 @@
         <v>0x036</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>57</v>
       </c>
@@ -7385,28 +7363,28 @@
         <v>0x039</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C99" s="5"/>
       <c r="E99" s="8"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D100"/>
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C101" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D101"/>
       <c r="E101" s="8"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>0</v>
       </c>
@@ -7415,318 +7393,784 @@
         <v>0x000</v>
       </c>
       <c r="C102" t="s">
+        <v>142</v>
+      </c>
+      <c r="E102" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E102" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102" s="11">
+        <v>1</v>
+      </c>
+      <c r="G102" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H102">
+        <f t="shared" ref="H102" si="138">IF(G102="", "", VLOOKUP(G102, $U$3:$V$10, 2))</f>
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>48</v>
+      </c>
+      <c r="L102" s="16" t="str">
+        <f t="shared" ref="L102" si="139">IF(F102="", "", TEXT(DEC2BIN(F102), "000000"))</f>
+        <v>000001</v>
+      </c>
+      <c r="M102" s="17" t="str">
+        <f t="shared" ref="M102" si="140">IF(H102="", "", TEXT(DEC2BIN(H102), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="N102" s="17" t="str">
+        <f t="shared" ref="N102" si="141">IF(I102="", "", TEXT(DEC2BIN(I102), "000"))</f>
+        <v/>
+      </c>
+      <c r="O102" s="17" t="str">
+        <f t="shared" ref="O102" si="142">IF(J102="", "", TEXT(DEC2BIN(J102), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P102" s="18" t="str">
+        <f t="shared" ref="P102" si="143">IF(K102="", "", TEXT(DEC2BIN(K102), "00000000"))</f>
+        <v>00110000</v>
+      </c>
+      <c r="Q102" t="str">
+        <f t="shared" ref="Q102" si="144">BIN2HEX(LEFT(CONCATENATE(L102,IF(M102="", "000", M102)), 8), 2)</f>
+        <v>04</v>
+      </c>
+      <c r="R102" t="str">
+        <f t="shared" ref="R102" si="145">BIN2HEX(CONCATENATE(RIGHT(M102, 1), IF(N102 = "", "000", N102), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="S102" s="13" t="str">
+        <f t="shared" ref="S102" si="146">IF(O102="", BIN2HEX(P102, 2), BIN2HEX(O102,2))</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>3</v>
       </c>
       <c r="B103" t="str">
-        <f t="shared" ref="B103:B106" si="138">"0x" &amp; DEC2HEX(A103,3)</f>
+        <f t="shared" ref="B103:B112" si="147">"0x" &amp; DEC2HEX(A103,3)</f>
         <v>0x003</v>
       </c>
       <c r="C103" t="s">
-        <v>81</v>
+        <v>248</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="F103" s="11">
+        <v>1</v>
+      </c>
+      <c r="G103" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="H103">
+        <f t="shared" ref="H103" si="148">IF(G103="", "", VLOOKUP(G103, $U$3:$V$10, 2))</f>
+        <v>2</v>
+      </c>
+      <c r="K103">
+        <v>255</v>
+      </c>
+      <c r="L103" s="16" t="str">
+        <f t="shared" ref="L103:L104" si="149">IF(F103="", "", TEXT(DEC2BIN(F103), "000000"))</f>
+        <v>000001</v>
+      </c>
+      <c r="M103" s="17" t="str">
+        <f t="shared" ref="M103:M104" si="150">IF(H103="", "", TEXT(DEC2BIN(H103), "000"))</f>
+        <v>010</v>
+      </c>
+      <c r="N103" s="17" t="str">
+        <f t="shared" ref="N103:N104" si="151">IF(I103="", "", TEXT(DEC2BIN(I103), "000"))</f>
+        <v/>
+      </c>
+      <c r="O103" s="17" t="str">
+        <f t="shared" ref="O103:O104" si="152">IF(J103="", "", TEXT(DEC2BIN(J103), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P103" s="18" t="str">
+        <f t="shared" ref="P103:P104" si="153">IF(K103="", "", TEXT(DEC2BIN(K103), "00000000"))</f>
+        <v>11111111</v>
+      </c>
+      <c r="Q103" t="str">
+        <f t="shared" ref="Q103:Q104" si="154">BIN2HEX(LEFT(CONCATENATE(L103,IF(M103="", "000", M103)), 8), 2)</f>
+        <v>05</v>
+      </c>
+      <c r="R103" t="str">
+        <f t="shared" ref="R103:R104" si="155">BIN2HEX(CONCATENATE(RIGHT(M103, 1), IF(N103 = "", "000", N103), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="S103" s="13" t="str">
+        <f t="shared" ref="S103:S104" si="156">IF(O103="", BIN2HEX(P103, 2), BIN2HEX(O103,2))</f>
+        <v>FF</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>6</v>
       </c>
       <c r="B104" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="147"/>
         <v>0x006</v>
       </c>
       <c r="C104" t="s">
-        <v>164</v>
+        <v>249</v>
       </c>
       <c r="D104"/>
       <c r="E104" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+      <c r="F104" s="11">
+        <v>17</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="L104" s="16" t="str">
+        <f t="shared" si="149"/>
+        <v>010001</v>
+      </c>
+      <c r="M104" s="17" t="str">
+        <f t="shared" si="150"/>
+        <v>000</v>
+      </c>
+      <c r="N104" s="17" t="str">
+        <f t="shared" si="151"/>
+        <v>010</v>
+      </c>
+      <c r="O104" s="17" t="str">
+        <f t="shared" si="152"/>
+        <v/>
+      </c>
+      <c r="P104" s="18" t="str">
+        <f t="shared" si="153"/>
+        <v/>
+      </c>
+      <c r="Q104" t="str">
+        <f t="shared" si="154"/>
+        <v>44</v>
+      </c>
+      <c r="R104" t="str">
+        <f t="shared" si="155"/>
+        <v>20</v>
+      </c>
+      <c r="S104" s="13" t="str">
+        <f t="shared" si="156"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>9</v>
       </c>
       <c r="B105" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="147"/>
         <v>0x009</v>
       </c>
       <c r="C105" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E105" s="8"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105" s="11">
+        <v>17</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="L105" s="16" t="str">
+        <f t="shared" ref="L105" si="157">IF(F105="", "", TEXT(DEC2BIN(F105), "000000"))</f>
+        <v>010001</v>
+      </c>
+      <c r="M105" s="17" t="str">
+        <f t="shared" ref="M105:M110" si="158">IF(H105="", "", TEXT(DEC2BIN(H105), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="N105" s="17" t="str">
+        <f t="shared" ref="N105:N110" si="159">IF(I105="", "", TEXT(DEC2BIN(I105), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="O105" s="17" t="str">
+        <f t="shared" ref="O105:O110" si="160">IF(J105="", "", TEXT(DEC2BIN(J105), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P105" s="18" t="str">
+        <f t="shared" ref="P105:P110" si="161">IF(K105="", "", TEXT(DEC2BIN(K105), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q105" t="str">
+        <f t="shared" ref="Q105" si="162">BIN2HEX(LEFT(CONCATENATE(L105,IF(M105="", "000", M105)), 8), 2)</f>
+        <v>44</v>
+      </c>
+      <c r="R105" t="str">
+        <f t="shared" ref="R105" si="163">BIN2HEX(CONCATENATE(RIGHT(M105, 1), IF(N105 = "", "000", N105), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="S105" s="13" t="str">
+        <f t="shared" ref="S105" si="164">IF(O105="", BIN2HEX(P105, 2), BIN2HEX(O105,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>12</v>
       </c>
       <c r="B106" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="147"/>
         <v>0x00C</v>
       </c>
       <c r="C106" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E106" s="8"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106" s="11">
+        <v>40</v>
+      </c>
+      <c r="G106" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H106">
+        <f t="shared" ref="H106:H110" si="165">IF(G106="", "", VLOOKUP(G106, $U$3:$V$10, 2))</f>
+        <v>0</v>
+      </c>
+      <c r="L106" s="16" t="str">
+        <f>IF(F106="", "", TEXT(DEC2BIN(F106), "000000"))</f>
+        <v>101000</v>
+      </c>
+      <c r="M106" s="17" t="str">
+        <f t="shared" si="158"/>
+        <v>000</v>
+      </c>
+      <c r="N106" s="17" t="str">
+        <f t="shared" si="159"/>
+        <v/>
+      </c>
+      <c r="O106" s="17" t="str">
+        <f t="shared" si="160"/>
+        <v/>
+      </c>
+      <c r="P106" s="18" t="str">
+        <f t="shared" si="161"/>
+        <v/>
+      </c>
+      <c r="Q106" t="str">
+        <f>BIN2HEX(LEFT(CONCATENATE(L106,IF(M106="", "000", M106)), 8), 2)</f>
+        <v>A0</v>
+      </c>
+      <c r="R106" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M106, 1), IF(N106 = "", "000", N106), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="S106" s="13" t="str">
+        <f>IF(O106="", BIN2HEX(P106, 2), BIN2HEX(O106,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>15</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="147"/>
+        <v>0x00F</v>
+      </c>
       <c r="C107" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+      <c r="F107" s="11">
+        <v>2</v>
+      </c>
+      <c r="G107" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="165"/>
+        <v>6</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="L107" s="16" t="str">
+        <f t="shared" ref="L107:L108" si="166">IF(F107="", "", TEXT(DEC2BIN(F107), "000000"))</f>
+        <v>000010</v>
+      </c>
+      <c r="M107" s="17" t="str">
+        <f t="shared" si="158"/>
+        <v>110</v>
+      </c>
+      <c r="N107" s="17" t="str">
+        <f t="shared" si="159"/>
+        <v>000</v>
+      </c>
+      <c r="O107" s="17" t="str">
+        <f t="shared" si="160"/>
+        <v/>
+      </c>
+      <c r="P107" s="18" t="str">
+        <f t="shared" si="161"/>
+        <v/>
+      </c>
+      <c r="Q107" t="str">
+        <f t="shared" ref="Q107:Q108" si="167">BIN2HEX(LEFT(CONCATENATE(L107,IF(M107="", "000", M107)), 8), 2)</f>
+        <v>0B</v>
+      </c>
+      <c r="R107" t="str">
+        <f t="shared" ref="R107:R108" si="168">BIN2HEX(CONCATENATE(RIGHT(M107, 1), IF(N107 = "", "000", N107), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="S107" s="13" t="str">
+        <f t="shared" ref="S107:S108" si="169">IF(O107="", BIN2HEX(P107, 2), BIN2HEX(O107,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>18</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="147"/>
+        <v>0x012</v>
+      </c>
       <c r="C108" t="s">
+        <v>169</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F108" s="11">
+        <v>1</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="165"/>
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>58</v>
+      </c>
+      <c r="L108" s="16" t="str">
+        <f t="shared" si="166"/>
+        <v>000001</v>
+      </c>
+      <c r="M108" s="17" t="str">
+        <f t="shared" si="158"/>
+        <v>001</v>
+      </c>
+      <c r="N108" s="17" t="str">
+        <f t="shared" si="159"/>
+        <v/>
+      </c>
+      <c r="O108" s="17" t="str">
+        <f t="shared" si="160"/>
+        <v/>
+      </c>
+      <c r="P108" s="18" t="str">
+        <f t="shared" si="161"/>
+        <v>00111010</v>
+      </c>
+      <c r="Q108" t="str">
+        <f t="shared" si="167"/>
+        <v>04</v>
+      </c>
+      <c r="R108" t="str">
+        <f t="shared" si="168"/>
+        <v>80</v>
+      </c>
+      <c r="S108" s="13" t="str">
+        <f t="shared" si="169"/>
+        <v>3A</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>21</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="147"/>
+        <v>0x015</v>
+      </c>
+      <c r="C109" t="s">
+        <v>247</v>
+      </c>
+      <c r="E109" s="8"/>
+      <c r="F109" s="11">
+        <v>33</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="165"/>
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>6</v>
+      </c>
+      <c r="L109" s="16" t="str">
+        <f>IF(F109="", "", TEXT(DEC2BIN(F109), "000000"))</f>
+        <v>100001</v>
+      </c>
+      <c r="M109" s="17" t="str">
+        <f t="shared" si="158"/>
+        <v>001</v>
+      </c>
+      <c r="N109" s="17" t="str">
+        <f t="shared" si="159"/>
+        <v>110</v>
+      </c>
+      <c r="O109" s="17" t="str">
+        <f t="shared" si="160"/>
+        <v/>
+      </c>
+      <c r="P109" s="18" t="str">
+        <f t="shared" si="161"/>
+        <v/>
+      </c>
+      <c r="Q109" t="str">
+        <f>BIN2HEX(LEFT(CONCATENATE(L109,IF(M109="", "000", M109)), 8), 2)</f>
+        <v>84</v>
+      </c>
+      <c r="R109" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M109, 1), IF(N109 = "", "000", N109), "0000"), 2)</f>
+        <v>E0</v>
+      </c>
+      <c r="S109" s="13" t="str">
+        <f>IF(O109="", BIN2HEX(P109, 2), BIN2HEX(O109,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>24</v>
+      </c>
+      <c r="B110" t="str">
+        <f t="shared" si="147"/>
+        <v>0x018</v>
+      </c>
+      <c r="C110" t="s">
+        <v>196</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F110" s="11">
+        <v>6</v>
+      </c>
+      <c r="H110" t="str">
+        <f t="shared" si="165"/>
+        <v/>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="L110" s="16" t="str">
+        <f>IF(F110="", "", TEXT(DEC2BIN(F110), "000000"))</f>
+        <v>000110</v>
+      </c>
+      <c r="M110" s="17" t="str">
+        <f t="shared" si="158"/>
+        <v/>
+      </c>
+      <c r="N110" s="17" t="str">
+        <f t="shared" si="159"/>
+        <v/>
+      </c>
+      <c r="O110" s="17" t="str">
+        <f t="shared" si="160"/>
+        <v>00000000</v>
+      </c>
+      <c r="P110" s="18" t="str">
+        <f t="shared" si="161"/>
+        <v/>
+      </c>
+      <c r="Q110" t="str">
+        <f>BIN2HEX(LEFT(CONCATENATE(L110,IF(M110="", "000", M110)), 8), 2)</f>
+        <v>18</v>
+      </c>
+      <c r="R110" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M110, 1), IF(N110 = "", "000", N110), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="S110" s="13" t="str">
+        <f>IF(O110="", BIN2HEX(P110, 2), BIN2HEX(O110,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>27</v>
+      </c>
+      <c r="B111" t="str">
+        <f t="shared" si="147"/>
+        <v>0x01B</v>
+      </c>
+      <c r="C111" t="s">
+        <v>81</v>
+      </c>
+      <c r="E111" s="8"/>
+      <c r="F111" s="11">
+        <v>2</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H111">
+        <f t="shared" ref="H111:H112" si="170">IF(G111="", "", VLOOKUP(G111, $U$3:$V$10, 2))</f>
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>6</v>
+      </c>
+      <c r="L111" s="16" t="str">
+        <f t="shared" ref="L111" si="171">IF(F111="", "", TEXT(DEC2BIN(F111), "000000"))</f>
+        <v>000010</v>
+      </c>
+      <c r="M111" s="17" t="str">
+        <f t="shared" ref="M111:M112" si="172">IF(H111="", "", TEXT(DEC2BIN(H111), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="N111" s="17" t="str">
+        <f t="shared" ref="N111:N112" si="173">IF(I111="", "", TEXT(DEC2BIN(I111), "000"))</f>
+        <v>110</v>
+      </c>
+      <c r="O111" s="17" t="str">
+        <f t="shared" ref="O111:O112" si="174">IF(J111="", "", TEXT(DEC2BIN(J111), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P111" s="18" t="str">
+        <f t="shared" ref="P111:P112" si="175">IF(K111="", "", TEXT(DEC2BIN(K111), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q111" t="str">
+        <f t="shared" ref="Q111" si="176">BIN2HEX(LEFT(CONCATENATE(L111,IF(M111="", "000", M111)), 8), 2)</f>
+        <v>08</v>
+      </c>
+      <c r="R111" t="str">
+        <f t="shared" ref="R111" si="177">BIN2HEX(CONCATENATE(RIGHT(M111, 1), IF(N111 = "", "000", N111), "0000"), 2)</f>
+        <v>60</v>
+      </c>
+      <c r="S111" s="13" t="str">
+        <f t="shared" ref="S111" si="178">IF(O111="", BIN2HEX(P111, 2), BIN2HEX(O111,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>30</v>
+      </c>
+      <c r="B112" t="str">
+        <f t="shared" si="147"/>
+        <v>0x01E</v>
+      </c>
+      <c r="C112" t="s">
+        <v>80</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F112" s="11">
+        <v>5</v>
+      </c>
+      <c r="H112" t="str">
+        <f t="shared" si="170"/>
+        <v/>
+      </c>
+      <c r="J112">
+        <v>6</v>
+      </c>
+      <c r="L112" s="16" t="str">
+        <f>IF(F112="", "", TEXT(DEC2BIN(F112), "000000"))</f>
+        <v>000101</v>
+      </c>
+      <c r="M112" s="17" t="str">
+        <f t="shared" si="172"/>
+        <v/>
+      </c>
+      <c r="N112" s="17" t="str">
+        <f t="shared" si="173"/>
+        <v/>
+      </c>
+      <c r="O112" s="17" t="str">
+        <f t="shared" si="174"/>
+        <v>00000110</v>
+      </c>
+      <c r="P112" s="18" t="str">
+        <f t="shared" si="175"/>
+        <v/>
+      </c>
+      <c r="Q112" t="str">
+        <f>BIN2HEX(LEFT(CONCATENATE(L112,IF(M112="", "000", M112)), 8), 2)</f>
+        <v>14</v>
+      </c>
+      <c r="R112" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M112, 1), IF(N112 = "", "000", N112), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="S112" s="13" t="str">
+        <f>IF(O112="", BIN2HEX(P112, 2), BIN2HEX(O112,2))</f>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C116" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>0</v>
+      </c>
+      <c r="B117" t="str">
+        <f t="shared" ref="B117:B132" si="179">"0x" &amp; DEC2HEX(A117,3)</f>
+        <v>0x000</v>
+      </c>
+      <c r="C117" t="s">
+        <v>151</v>
+      </c>
+      <c r="E117" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="E108" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C109" t="s">
-        <v>241</v>
-      </c>
-      <c r="E109" s="8"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C110" t="s">
-        <v>198</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C111" t="s">
+      <c r="F117" s="11">
+        <v>1</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H117">
+        <f t="shared" ref="H117:H118" si="180">IF(G117="", "", VLOOKUP(G117, $U$3:$V$10, 2))</f>
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>48</v>
+      </c>
+      <c r="L117" s="16" t="str">
+        <f t="shared" ref="L117:L118" si="181">IF(F117="", "", TEXT(DEC2BIN(F117), "000000"))</f>
+        <v>000001</v>
+      </c>
+      <c r="M117" s="17" t="str">
+        <f t="shared" ref="M117:M118" si="182">IF(H117="", "", TEXT(DEC2BIN(H117), "000"))</f>
+        <v>001</v>
+      </c>
+      <c r="N117" s="17" t="str">
+        <f t="shared" ref="N117:N118" si="183">IF(I117="", "", TEXT(DEC2BIN(I117), "000"))</f>
+        <v/>
+      </c>
+      <c r="O117" s="17" t="str">
+        <f t="shared" ref="O117:O118" si="184">IF(J117="", "", TEXT(DEC2BIN(J117), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P117" s="18" t="str">
+        <f t="shared" ref="P117:P118" si="185">IF(K117="", "", TEXT(DEC2BIN(K117), "00000000"))</f>
+        <v>00110000</v>
+      </c>
+      <c r="Q117" t="str">
+        <f t="shared" ref="Q117:Q118" si="186">BIN2HEX(LEFT(CONCATENATE(L117,IF(M117="", "000", M117)), 8), 2)</f>
+        <v>04</v>
+      </c>
+      <c r="R117" t="str">
+        <f t="shared" ref="R117:R118" si="187">BIN2HEX(CONCATENATE(RIGHT(M117, 1), IF(N117 = "", "000", N117), "0000"), 2)</f>
         <v>80</v>
       </c>
-      <c r="E111" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C115" s="8" t="s">
+      <c r="S117" s="13" t="str">
+        <f t="shared" ref="S117:S118" si="188">IF(O117="", BIN2HEX(P117, 2), BIN2HEX(O117,2))</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>3</v>
+      </c>
+      <c r="B118" t="str">
+        <f t="shared" si="179"/>
+        <v>0x003</v>
+      </c>
+      <c r="C118" t="s">
+        <v>202</v>
+      </c>
+      <c r="E118" s="8" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>0</v>
-      </c>
-      <c r="B116" t="str">
-        <f t="shared" ref="B116:B131" si="139">"0x" &amp; DEC2HEX(A116,3)</f>
-        <v>0x000</v>
-      </c>
-      <c r="C116" t="s">
-        <v>152</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F116" s="11">
-        <v>1</v>
-      </c>
-      <c r="G116" s="12" t="s">
+      <c r="F118" s="11">
+        <v>1</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="180"/>
+        <v>7</v>
+      </c>
+      <c r="K118">
+        <v>57</v>
+      </c>
+      <c r="L118" s="16" t="str">
+        <f t="shared" si="181"/>
+        <v>000001</v>
+      </c>
+      <c r="M118" s="17" t="str">
+        <f t="shared" si="182"/>
+        <v>111</v>
+      </c>
+      <c r="N118" s="17" t="str">
+        <f t="shared" si="183"/>
+        <v/>
+      </c>
+      <c r="O118" s="17" t="str">
+        <f t="shared" si="184"/>
+        <v/>
+      </c>
+      <c r="P118" s="18" t="str">
+        <f t="shared" si="185"/>
+        <v>00111001</v>
+      </c>
+      <c r="Q118" t="str">
+        <f t="shared" si="186"/>
+        <v>07</v>
+      </c>
+      <c r="R118" t="str">
+        <f t="shared" si="187"/>
+        <v>80</v>
+      </c>
+      <c r="S118" s="13" t="str">
+        <f t="shared" si="188"/>
         <v>39</v>
       </c>
-      <c r="H116">
-        <f t="shared" ref="H116:H117" si="140">IF(G116="", "", VLOOKUP(G116, $U$3:$V$10, 2))</f>
-        <v>1</v>
-      </c>
-      <c r="K116">
-        <v>48</v>
-      </c>
-      <c r="L116" s="16" t="str">
-        <f t="shared" ref="L116:L117" si="141">IF(F116="", "", TEXT(DEC2BIN(F116), "000000"))</f>
-        <v>000001</v>
-      </c>
-      <c r="M116" s="17" t="str">
-        <f t="shared" ref="M116:M117" si="142">IF(H116="", "", TEXT(DEC2BIN(H116), "000"))</f>
-        <v>001</v>
-      </c>
-      <c r="N116" s="17" t="str">
-        <f t="shared" ref="N116:N117" si="143">IF(I116="", "", TEXT(DEC2BIN(I116), "000"))</f>
-        <v/>
-      </c>
-      <c r="O116" s="17" t="str">
-        <f t="shared" ref="O116:O117" si="144">IF(J116="", "", TEXT(DEC2BIN(J116), "00000000"))</f>
-        <v/>
-      </c>
-      <c r="P116" s="18" t="str">
-        <f t="shared" ref="P116:P117" si="145">IF(K116="", "", TEXT(DEC2BIN(K116), "00000000"))</f>
-        <v>00110000</v>
-      </c>
-      <c r="Q116" t="str">
-        <f t="shared" ref="Q116:Q117" si="146">BIN2HEX(LEFT(CONCATENATE(L116,IF(M116="", "000", M116)), 8), 2)</f>
-        <v>04</v>
-      </c>
-      <c r="R116" t="str">
-        <f t="shared" ref="R116:R117" si="147">BIN2HEX(CONCATENATE(RIGHT(M116, 1), IF(N116 = "", "000", N116), "0000"), 2)</f>
-        <v>80</v>
-      </c>
-      <c r="S116" s="13" t="str">
-        <f t="shared" ref="S116:S117" si="148">IF(O116="", BIN2HEX(P116, 2), BIN2HEX(O116,2))</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>3</v>
-      </c>
-      <c r="B117" t="str">
-        <f t="shared" si="139"/>
-        <v>0x003</v>
-      </c>
-      <c r="C117" t="s">
-        <v>204</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F117" s="11">
-        <v>1</v>
-      </c>
-      <c r="G117" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H117">
-        <f t="shared" si="140"/>
-        <v>7</v>
-      </c>
-      <c r="K117">
-        <v>57</v>
-      </c>
-      <c r="L117" s="16" t="str">
-        <f t="shared" si="141"/>
-        <v>000001</v>
-      </c>
-      <c r="M117" s="17" t="str">
-        <f t="shared" si="142"/>
-        <v>111</v>
-      </c>
-      <c r="N117" s="17" t="str">
-        <f t="shared" si="143"/>
-        <v/>
-      </c>
-      <c r="O117" s="17" t="str">
-        <f t="shared" si="144"/>
-        <v/>
-      </c>
-      <c r="P117" s="18" t="str">
-        <f t="shared" si="145"/>
-        <v>00111001</v>
-      </c>
-      <c r="Q117" t="str">
-        <f t="shared" si="146"/>
-        <v>07</v>
-      </c>
-      <c r="R117" t="str">
-        <f t="shared" si="147"/>
-        <v>80</v>
-      </c>
-      <c r="S117" s="13" t="str">
-        <f t="shared" si="148"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A118">
+    </row>
+    <row r="119" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A119">
         <v>6</v>
       </c>
-      <c r="B118" t="str">
-        <f t="shared" si="139"/>
+      <c r="B119" t="str">
+        <f t="shared" si="179"/>
         <v>0x006</v>
       </c>
-      <c r="C118" t="s">
-        <v>247</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="F118" s="11">
-        <v>1</v>
-      </c>
-      <c r="G118" s="12" t="s">
+      <c r="C119" t="s">
+        <v>244</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F119" s="11">
+        <v>1</v>
+      </c>
+      <c r="G119" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H118">
-        <f t="shared" ref="H118" si="149">IF(G118="", "", VLOOKUP(G118, $U$3:$V$10, 2))</f>
+      <c r="H119">
+        <f t="shared" ref="H119" si="189">IF(G119="", "", VLOOKUP(G119, $U$3:$V$10, 2))</f>
         <v>6</v>
       </c>
-      <c r="K118">
+      <c r="K119">
         <v>96</v>
-      </c>
-      <c r="L118" s="16" t="str">
-        <f>IF(F118="", "", TEXT(DEC2BIN(F118), "000000"))</f>
-        <v>000001</v>
-      </c>
-      <c r="M118" s="17" t="str">
-        <f>IF(H118="", "", TEXT(DEC2BIN(H118), "000"))</f>
-        <v>110</v>
-      </c>
-      <c r="N118" s="17" t="str">
-        <f>IF(I118="", "", TEXT(DEC2BIN(I118), "000"))</f>
-        <v/>
-      </c>
-      <c r="O118" s="17" t="str">
-        <f>IF(J118="", "", TEXT(DEC2BIN(J118), "00000000"))</f>
-        <v/>
-      </c>
-      <c r="P118" s="18" t="str">
-        <f>IF(K118="", "", TEXT(DEC2BIN(K118), "00000000"))</f>
-        <v>01100000</v>
-      </c>
-      <c r="Q118" t="str">
-        <f t="shared" ref="Q118" si="150">BIN2HEX(LEFT(CONCATENATE(L118,IF(M118="", "000", M118)), 8), 2)</f>
-        <v>07</v>
-      </c>
-      <c r="R118" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(M118, 1), IF(N118 = "", "000", N118), "0000"), 2)</f>
-        <v>00</v>
-      </c>
-      <c r="S118" s="13" t="str">
-        <f t="shared" ref="S118" si="151">IF(O118="", BIN2HEX(P118, 2), BIN2HEX(O118,2))</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <v>9</v>
-      </c>
-      <c r="B119" t="str">
-        <f t="shared" si="139"/>
-        <v>0x009</v>
-      </c>
-      <c r="C119" t="s">
-        <v>228</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="F119" s="11">
-        <v>1</v>
-      </c>
-      <c r="G119" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="H119">
-        <f>IF(G119="", "", VLOOKUP(G119, $U$3:$V$10, 2))</f>
-        <v>2</v>
-      </c>
-      <c r="K119">
-        <v>0</v>
       </c>
       <c r="L119" s="16" t="str">
         <f>IF(F119="", "", TEXT(DEC2BIN(F119), "000000"))</f>
@@ -7734,7 +8178,7 @@
       </c>
       <c r="M119" s="17" t="str">
         <f>IF(H119="", "", TEXT(DEC2BIN(H119), "000"))</f>
-        <v>010</v>
+        <v>110</v>
       </c>
       <c r="N119" s="17" t="str">
         <f>IF(I119="", "", TEXT(DEC2BIN(I119), "000"))</f>
@@ -7746,752 +8190,812 @@
       </c>
       <c r="P119" s="18" t="str">
         <f>IF(K119="", "", TEXT(DEC2BIN(K119), "00000000"))</f>
-        <v>00000000</v>
+        <v>01100000</v>
       </c>
       <c r="Q119" t="str">
-        <f>BIN2HEX(LEFT(CONCATENATE(L119,IF(M119="", "000", M119)), 8), 2)</f>
-        <v>05</v>
+        <f t="shared" ref="Q119" si="190">BIN2HEX(LEFT(CONCATENATE(L119,IF(M119="", "000", M119)), 8), 2)</f>
+        <v>07</v>
       </c>
       <c r="R119" t="str">
         <f>BIN2HEX(CONCATENATE(RIGHT(M119, 1), IF(N119 = "", "000", N119), "0000"), 2)</f>
         <v>00</v>
       </c>
       <c r="S119" s="13" t="str">
-        <f>IF(O119="", BIN2HEX(P119, 2), BIN2HEX(O119,2))</f>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" ref="S119" si="191">IF(O119="", BIN2HEX(P119, 2), BIN2HEX(O119,2))</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A120">
+        <v>9</v>
+      </c>
+      <c r="B120" t="str">
+        <f t="shared" si="179"/>
+        <v>0x009</v>
+      </c>
+      <c r="C120" t="s">
+        <v>226</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F120" s="11">
+        <v>1</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="H120">
+        <f>IF(G120="", "", VLOOKUP(G120, $U$3:$V$10, 2))</f>
+        <v>2</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120" s="16" t="str">
+        <f>IF(F120="", "", TEXT(DEC2BIN(F120), "000000"))</f>
+        <v>000001</v>
+      </c>
+      <c r="M120" s="17" t="str">
+        <f>IF(H120="", "", TEXT(DEC2BIN(H120), "000"))</f>
+        <v>010</v>
+      </c>
+      <c r="N120" s="17" t="str">
+        <f>IF(I120="", "", TEXT(DEC2BIN(I120), "000"))</f>
+        <v/>
+      </c>
+      <c r="O120" s="17" t="str">
+        <f>IF(J120="", "", TEXT(DEC2BIN(J120), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P120" s="18" t="str">
+        <f>IF(K120="", "", TEXT(DEC2BIN(K120), "00000000"))</f>
+        <v>00000000</v>
+      </c>
+      <c r="Q120" t="str">
+        <f>BIN2HEX(LEFT(CONCATENATE(L120,IF(M120="", "000", M120)), 8), 2)</f>
+        <v>05</v>
+      </c>
+      <c r="R120" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M120, 1), IF(N120 = "", "000", N120), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="S120" s="13" t="str">
+        <f>IF(O120="", BIN2HEX(P120, 2), BIN2HEX(O120,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A121">
         <v>12</v>
       </c>
-      <c r="B120" t="str">
-        <f t="shared" si="139"/>
+      <c r="B121" t="str">
+        <f t="shared" si="179"/>
         <v>0x00C</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C121" t="s">
+        <v>234</v>
+      </c>
+      <c r="E121" s="8"/>
+      <c r="F121" s="11">
+        <v>2</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="H121">
+        <f t="shared" ref="H121:H122" si="192">IF(G121="", "", VLOOKUP(G121, $U$3:$V$10, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="L121" s="16" t="str">
+        <f t="shared" ref="L121:L122" si="193">IF(F121="", "", TEXT(DEC2BIN(F121), "000000"))</f>
+        <v>000010</v>
+      </c>
+      <c r="M121" s="17" t="str">
+        <f t="shared" ref="M121:M122" si="194">IF(H121="", "", TEXT(DEC2BIN(H121), "000"))</f>
+        <v>011</v>
+      </c>
+      <c r="N121" s="17" t="str">
+        <f t="shared" ref="N121:N122" si="195">IF(I121="", "", TEXT(DEC2BIN(I121), "000"))</f>
+        <v>001</v>
+      </c>
+      <c r="O121" s="17" t="str">
+        <f t="shared" ref="O121:O122" si="196">IF(J121="", "", TEXT(DEC2BIN(J121), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P121" s="18" t="str">
+        <f t="shared" ref="P121:P122" si="197">IF(K121="", "", TEXT(DEC2BIN(K121), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q121" t="str">
+        <f t="shared" ref="Q121:Q122" si="198">BIN2HEX(LEFT(CONCATENATE(L121,IF(M121="", "000", M121)), 8), 2)</f>
+        <v>09</v>
+      </c>
+      <c r="R121" t="str">
+        <f t="shared" ref="R121:R122" si="199">BIN2HEX(CONCATENATE(RIGHT(M121, 1), IF(N121 = "", "000", N121), "0000"), 2)</f>
+        <v>90</v>
+      </c>
+      <c r="S121" s="13" t="str">
+        <f t="shared" ref="S121:S122" si="200">IF(O121="", BIN2HEX(P121, 2), BIN2HEX(O121,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>15</v>
+      </c>
+      <c r="B122" t="str">
+        <f t="shared" si="179"/>
+        <v>0x00F</v>
+      </c>
+      <c r="C122" t="s">
+        <v>223</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F122" s="11">
+        <v>4</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="192"/>
+        <v>0</v>
+      </c>
+      <c r="L122" s="16" t="str">
+        <f t="shared" si="193"/>
+        <v>000100</v>
+      </c>
+      <c r="M122" s="17" t="str">
+        <f t="shared" si="194"/>
+        <v>000</v>
+      </c>
+      <c r="N122" s="17" t="str">
+        <f t="shared" si="195"/>
+        <v/>
+      </c>
+      <c r="O122" s="17" t="str">
+        <f t="shared" si="196"/>
+        <v/>
+      </c>
+      <c r="P122" s="18" t="str">
+        <f t="shared" si="197"/>
+        <v/>
+      </c>
+      <c r="Q122" t="str">
+        <f t="shared" si="198"/>
+        <v>10</v>
+      </c>
+      <c r="R122" t="str">
+        <f t="shared" si="199"/>
+        <v>00</v>
+      </c>
+      <c r="S122" s="13" t="str">
+        <f t="shared" si="200"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>18</v>
+      </c>
+      <c r="B123" t="str">
+        <f t="shared" si="179"/>
+        <v>0x012</v>
+      </c>
+      <c r="C123" t="s">
+        <v>245</v>
+      </c>
+      <c r="E123" s="8"/>
+      <c r="F123" s="11">
+        <v>2</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="H123">
+        <f t="shared" ref="H123:H124" si="201">IF(G123="", "", VLOOKUP(G123, $U$3:$V$10, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="I123">
+        <v>6</v>
+      </c>
+      <c r="L123" s="16" t="str">
+        <f t="shared" ref="L123:L124" si="202">IF(F123="", "", TEXT(DEC2BIN(F123), "000000"))</f>
+        <v>000010</v>
+      </c>
+      <c r="M123" s="17" t="str">
+        <f t="shared" ref="M123:M124" si="203">IF(H123="", "", TEXT(DEC2BIN(H123), "000"))</f>
+        <v>011</v>
+      </c>
+      <c r="N123" s="17" t="str">
+        <f t="shared" ref="N123:N124" si="204">IF(I123="", "", TEXT(DEC2BIN(I123), "000"))</f>
+        <v>110</v>
+      </c>
+      <c r="O123" s="17" t="str">
+        <f t="shared" ref="O123:O124" si="205">IF(J123="", "", TEXT(DEC2BIN(J123), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P123" s="18" t="str">
+        <f t="shared" ref="P123:P124" si="206">IF(K123="", "", TEXT(DEC2BIN(K123), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q123" t="str">
+        <f t="shared" ref="Q123:Q124" si="207">BIN2HEX(LEFT(CONCATENATE(L123,IF(M123="", "000", M123)), 8), 2)</f>
+        <v>09</v>
+      </c>
+      <c r="R123" t="str">
+        <f t="shared" ref="R123:R124" si="208">BIN2HEX(CONCATENATE(RIGHT(M123, 1), IF(N123 = "", "000", N123), "0000"), 2)</f>
+        <v>E0</v>
+      </c>
+      <c r="S123" s="13" t="str">
+        <f t="shared" ref="S123:S124" si="209">IF(O123="", BIN2HEX(P123, 2), BIN2HEX(O123,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>21</v>
+      </c>
+      <c r="B124" t="str">
+        <f t="shared" si="179"/>
+        <v>0x015</v>
+      </c>
+      <c r="C124" t="s">
         <v>236</v>
       </c>
-      <c r="E120" s="8"/>
-      <c r="F120" s="11">
+      <c r="E124" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F124" s="11">
+        <v>11</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="201"/>
+        <v>0</v>
+      </c>
+      <c r="L124" s="16" t="str">
+        <f t="shared" si="202"/>
+        <v>001011</v>
+      </c>
+      <c r="M124" s="17" t="str">
+        <f t="shared" si="203"/>
+        <v>000</v>
+      </c>
+      <c r="N124" s="17" t="str">
+        <f t="shared" si="204"/>
+        <v/>
+      </c>
+      <c r="O124" s="17" t="str">
+        <f t="shared" si="205"/>
+        <v/>
+      </c>
+      <c r="P124" s="18" t="str">
+        <f t="shared" si="206"/>
+        <v/>
+      </c>
+      <c r="Q124" t="str">
+        <f t="shared" si="207"/>
+        <v>2C</v>
+      </c>
+      <c r="R124" t="str">
+        <f t="shared" si="208"/>
+        <v>00</v>
+      </c>
+      <c r="S124" s="13" t="str">
+        <f t="shared" si="209"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>24</v>
+      </c>
+      <c r="B125" t="str">
+        <f t="shared" si="179"/>
+        <v>0x018</v>
+      </c>
+      <c r="C125" t="s">
+        <v>237</v>
+      </c>
+      <c r="E125" s="46"/>
+      <c r="F125" s="11">
+        <v>40</v>
+      </c>
+      <c r="G125" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H125">
+        <f t="shared" ref="H125:H129" si="210">IF(G125="", "", VLOOKUP(G125, $U$3:$V$10, 2))</f>
+        <v>1</v>
+      </c>
+      <c r="L125" s="16" t="str">
+        <f>IF(F125="", "", TEXT(DEC2BIN(F125), "000000"))</f>
+        <v>101000</v>
+      </c>
+      <c r="M125" s="17" t="str">
+        <f>IF(H125="", "", TEXT(DEC2BIN(H125), "000"))</f>
+        <v>001</v>
+      </c>
+      <c r="N125" s="17" t="str">
+        <f>IF(I125="", "", TEXT(DEC2BIN(I125), "000"))</f>
+        <v/>
+      </c>
+      <c r="O125" s="17" t="str">
+        <f>IF(J125="", "", TEXT(DEC2BIN(J125), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P125" s="18" t="str">
+        <f>IF(K125="", "", TEXT(DEC2BIN(K125), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q125" t="str">
+        <f t="shared" ref="Q125:Q126" si="211">BIN2HEX(LEFT(CONCATENATE(L125,IF(M125="", "000", M125)), 8), 2)</f>
+        <v>A0</v>
+      </c>
+      <c r="R125" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M125, 1), IF(N125 = "", "000", N125), "0000"), 2)</f>
+        <v>80</v>
+      </c>
+      <c r="S125" s="13" t="str">
+        <f t="shared" ref="S125:S126" si="212">IF(O125="", BIN2HEX(P125, 2), BIN2HEX(O125,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>27</v>
+      </c>
+      <c r="B126" t="str">
+        <f t="shared" si="179"/>
+        <v>0x01B</v>
+      </c>
+      <c r="C126" t="s">
+        <v>58</v>
+      </c>
+      <c r="E126" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="F126" s="11">
         <v>2</v>
-      </c>
-      <c r="G120" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="H120">
-        <f t="shared" ref="H120:H121" si="152">IF(G120="", "", VLOOKUP(G120, $U$3:$V$10, 2))</f>
-        <v>3</v>
-      </c>
-      <c r="I120">
-        <v>1</v>
-      </c>
-      <c r="L120" s="16" t="str">
-        <f t="shared" ref="L120:L121" si="153">IF(F120="", "", TEXT(DEC2BIN(F120), "000000"))</f>
-        <v>000010</v>
-      </c>
-      <c r="M120" s="17" t="str">
-        <f t="shared" ref="M120:M121" si="154">IF(H120="", "", TEXT(DEC2BIN(H120), "000"))</f>
-        <v>011</v>
-      </c>
-      <c r="N120" s="17" t="str">
-        <f t="shared" ref="N120:N121" si="155">IF(I120="", "", TEXT(DEC2BIN(I120), "000"))</f>
-        <v>001</v>
-      </c>
-      <c r="O120" s="17" t="str">
-        <f t="shared" ref="O120:O121" si="156">IF(J120="", "", TEXT(DEC2BIN(J120), "00000000"))</f>
-        <v/>
-      </c>
-      <c r="P120" s="18" t="str">
-        <f t="shared" ref="P120:P121" si="157">IF(K120="", "", TEXT(DEC2BIN(K120), "00000000"))</f>
-        <v/>
-      </c>
-      <c r="Q120" t="str">
-        <f t="shared" ref="Q120:Q121" si="158">BIN2HEX(LEFT(CONCATENATE(L120,IF(M120="", "000", M120)), 8), 2)</f>
-        <v>09</v>
-      </c>
-      <c r="R120" t="str">
-        <f t="shared" ref="R120:R121" si="159">BIN2HEX(CONCATENATE(RIGHT(M120, 1), IF(N120 = "", "000", N120), "0000"), 2)</f>
-        <v>90</v>
-      </c>
-      <c r="S120" s="13" t="str">
-        <f t="shared" ref="S120:S121" si="160">IF(O120="", BIN2HEX(P120, 2), BIN2HEX(O120,2))</f>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <v>15</v>
-      </c>
-      <c r="B121" t="str">
-        <f t="shared" si="139"/>
-        <v>0x00F</v>
-      </c>
-      <c r="C121" t="s">
-        <v>225</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="F121" s="11">
-        <v>4</v>
-      </c>
-      <c r="G121" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H121">
-        <f t="shared" si="152"/>
-        <v>0</v>
-      </c>
-      <c r="L121" s="16" t="str">
-        <f t="shared" si="153"/>
-        <v>000100</v>
-      </c>
-      <c r="M121" s="17" t="str">
-        <f t="shared" si="154"/>
-        <v>000</v>
-      </c>
-      <c r="N121" s="17" t="str">
-        <f t="shared" si="155"/>
-        <v/>
-      </c>
-      <c r="O121" s="17" t="str">
-        <f t="shared" si="156"/>
-        <v/>
-      </c>
-      <c r="P121" s="18" t="str">
-        <f t="shared" si="157"/>
-        <v/>
-      </c>
-      <c r="Q121" t="str">
-        <f t="shared" si="158"/>
-        <v>10</v>
-      </c>
-      <c r="R121" t="str">
-        <f t="shared" si="159"/>
-        <v>00</v>
-      </c>
-      <c r="S121" s="13" t="str">
-        <f t="shared" si="160"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <v>18</v>
-      </c>
-      <c r="B122" t="str">
-        <f t="shared" si="139"/>
-        <v>0x012</v>
-      </c>
-      <c r="C122" t="s">
-        <v>248</v>
-      </c>
-      <c r="E122" s="8"/>
-      <c r="F122" s="11">
-        <v>2</v>
-      </c>
-      <c r="G122" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="H122">
-        <f t="shared" ref="H122:H123" si="161">IF(G122="", "", VLOOKUP(G122, $U$3:$V$10, 2))</f>
-        <v>3</v>
-      </c>
-      <c r="I122">
-        <v>6</v>
-      </c>
-      <c r="L122" s="16" t="str">
-        <f t="shared" ref="L122:L123" si="162">IF(F122="", "", TEXT(DEC2BIN(F122), "000000"))</f>
-        <v>000010</v>
-      </c>
-      <c r="M122" s="17" t="str">
-        <f t="shared" ref="M122:M123" si="163">IF(H122="", "", TEXT(DEC2BIN(H122), "000"))</f>
-        <v>011</v>
-      </c>
-      <c r="N122" s="17" t="str">
-        <f t="shared" ref="N122:N123" si="164">IF(I122="", "", TEXT(DEC2BIN(I122), "000"))</f>
-        <v>110</v>
-      </c>
-      <c r="O122" s="17" t="str">
-        <f t="shared" ref="O122:O123" si="165">IF(J122="", "", TEXT(DEC2BIN(J122), "00000000"))</f>
-        <v/>
-      </c>
-      <c r="P122" s="18" t="str">
-        <f t="shared" ref="P122:P123" si="166">IF(K122="", "", TEXT(DEC2BIN(K122), "00000000"))</f>
-        <v/>
-      </c>
-      <c r="Q122" t="str">
-        <f t="shared" ref="Q122:Q123" si="167">BIN2HEX(LEFT(CONCATENATE(L122,IF(M122="", "000", M122)), 8), 2)</f>
-        <v>09</v>
-      </c>
-      <c r="R122" t="str">
-        <f t="shared" ref="R122:R123" si="168">BIN2HEX(CONCATENATE(RIGHT(M122, 1), IF(N122 = "", "000", N122), "0000"), 2)</f>
-        <v>E0</v>
-      </c>
-      <c r="S122" s="13" t="str">
-        <f t="shared" ref="S122:S123" si="169">IF(O122="", BIN2HEX(P122, 2), BIN2HEX(O122,2))</f>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>21</v>
-      </c>
-      <c r="B123" t="str">
-        <f t="shared" si="139"/>
-        <v>0x015</v>
-      </c>
-      <c r="C123" t="s">
-        <v>238</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F123" s="11">
-        <v>11</v>
-      </c>
-      <c r="G123" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H123">
-        <f t="shared" si="161"/>
-        <v>0</v>
-      </c>
-      <c r="L123" s="16" t="str">
-        <f t="shared" si="162"/>
-        <v>001011</v>
-      </c>
-      <c r="M123" s="17" t="str">
-        <f t="shared" si="163"/>
-        <v>000</v>
-      </c>
-      <c r="N123" s="17" t="str">
-        <f t="shared" si="164"/>
-        <v/>
-      </c>
-      <c r="O123" s="17" t="str">
-        <f t="shared" si="165"/>
-        <v/>
-      </c>
-      <c r="P123" s="18" t="str">
-        <f t="shared" si="166"/>
-        <v/>
-      </c>
-      <c r="Q123" t="str">
-        <f t="shared" si="167"/>
-        <v>2C</v>
-      </c>
-      <c r="R123" t="str">
-        <f t="shared" si="168"/>
-        <v>00</v>
-      </c>
-      <c r="S123" s="13" t="str">
-        <f t="shared" si="169"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <v>24</v>
-      </c>
-      <c r="B124" t="str">
-        <f t="shared" si="139"/>
-        <v>0x018</v>
-      </c>
-      <c r="C124" t="s">
-        <v>239</v>
-      </c>
-      <c r="E124" s="50"/>
-      <c r="F124" s="11">
-        <v>40</v>
-      </c>
-      <c r="G124" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H124">
-        <f t="shared" ref="H124:H128" si="170">IF(G124="", "", VLOOKUP(G124, $U$3:$V$10, 2))</f>
-        <v>1</v>
-      </c>
-      <c r="L124" s="16" t="str">
-        <f>IF(F124="", "", TEXT(DEC2BIN(F124), "000000"))</f>
-        <v>101000</v>
-      </c>
-      <c r="M124" s="17" t="str">
-        <f>IF(H124="", "", TEXT(DEC2BIN(H124), "000"))</f>
-        <v>001</v>
-      </c>
-      <c r="N124" s="17" t="str">
-        <f>IF(I124="", "", TEXT(DEC2BIN(I124), "000"))</f>
-        <v/>
-      </c>
-      <c r="O124" s="17" t="str">
-        <f>IF(J124="", "", TEXT(DEC2BIN(J124), "00000000"))</f>
-        <v/>
-      </c>
-      <c r="P124" s="18" t="str">
-        <f>IF(K124="", "", TEXT(DEC2BIN(K124), "00000000"))</f>
-        <v/>
-      </c>
-      <c r="Q124" t="str">
-        <f t="shared" ref="Q124:Q125" si="171">BIN2HEX(LEFT(CONCATENATE(L124,IF(M124="", "000", M124)), 8), 2)</f>
-        <v>A0</v>
-      </c>
-      <c r="R124" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(M124, 1), IF(N124 = "", "000", N124), "0000"), 2)</f>
-        <v>80</v>
-      </c>
-      <c r="S124" s="13" t="str">
-        <f t="shared" ref="S124:S125" si="172">IF(O124="", BIN2HEX(P124, 2), BIN2HEX(O124,2))</f>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>27</v>
-      </c>
-      <c r="B125" t="str">
-        <f t="shared" si="139"/>
-        <v>0x01B</v>
-      </c>
-      <c r="C125" t="s">
-        <v>58</v>
-      </c>
-      <c r="E125" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="F125" s="11">
-        <v>2</v>
-      </c>
-      <c r="G125" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H125">
-        <f t="shared" si="170"/>
-        <v>0</v>
-      </c>
-      <c r="I125">
-        <v>1</v>
-      </c>
-      <c r="L125" s="16" t="str">
-        <f t="shared" ref="L125" si="173">IF(F125="", "", TEXT(DEC2BIN(F125), "000000"))</f>
-        <v>000010</v>
-      </c>
-      <c r="M125" s="17" t="str">
-        <f t="shared" ref="M125:M128" si="174">IF(H125="", "", TEXT(DEC2BIN(H125), "000"))</f>
-        <v>000</v>
-      </c>
-      <c r="N125" s="17" t="str">
-        <f t="shared" ref="N125:N128" si="175">IF(I125="", "", TEXT(DEC2BIN(I125), "000"))</f>
-        <v>001</v>
-      </c>
-      <c r="O125" s="17" t="str">
-        <f t="shared" ref="O125:O128" si="176">IF(J125="", "", TEXT(DEC2BIN(J125), "00000000"))</f>
-        <v/>
-      </c>
-      <c r="P125" s="18" t="str">
-        <f t="shared" ref="P125:P128" si="177">IF(K125="", "", TEXT(DEC2BIN(K125), "00000000"))</f>
-        <v/>
-      </c>
-      <c r="Q125" t="str">
-        <f t="shared" si="171"/>
-        <v>08</v>
-      </c>
-      <c r="R125" t="str">
-        <f t="shared" ref="R125" si="178">BIN2HEX(CONCATENATE(RIGHT(M125, 1), IF(N125 = "", "000", N125), "0000"), 2)</f>
-        <v>10</v>
-      </c>
-      <c r="S125" s="13" t="str">
-        <f t="shared" si="172"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>30</v>
-      </c>
-      <c r="B126" t="str">
-        <f t="shared" si="139"/>
-        <v>0x01E</v>
-      </c>
-      <c r="C126" t="s">
-        <v>151</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="F126" s="11">
-        <v>33</v>
       </c>
       <c r="G126" s="12" t="s">
         <v>38</v>
       </c>
       <c r="H126">
-        <f t="shared" si="170"/>
+        <f t="shared" si="210"/>
         <v>0</v>
       </c>
       <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="L126" s="16" t="str">
+        <f t="shared" ref="L126" si="213">IF(F126="", "", TEXT(DEC2BIN(F126), "000000"))</f>
+        <v>000010</v>
+      </c>
+      <c r="M126" s="17" t="str">
+        <f t="shared" ref="M126:M129" si="214">IF(H126="", "", TEXT(DEC2BIN(H126), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="N126" s="17" t="str">
+        <f t="shared" ref="N126:N129" si="215">IF(I126="", "", TEXT(DEC2BIN(I126), "000"))</f>
+        <v>001</v>
+      </c>
+      <c r="O126" s="17" t="str">
+        <f t="shared" ref="O126:O129" si="216">IF(J126="", "", TEXT(DEC2BIN(J126), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P126" s="18" t="str">
+        <f t="shared" ref="P126:P129" si="217">IF(K126="", "", TEXT(DEC2BIN(K126), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q126" t="str">
+        <f t="shared" si="211"/>
+        <v>08</v>
+      </c>
+      <c r="R126" t="str">
+        <f t="shared" ref="R126" si="218">BIN2HEX(CONCATENATE(RIGHT(M126, 1), IF(N126 = "", "000", N126), "0000"), 2)</f>
+        <v>10</v>
+      </c>
+      <c r="S126" s="13" t="str">
+        <f t="shared" si="212"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>30</v>
+      </c>
+      <c r="B127" t="str">
+        <f t="shared" si="179"/>
+        <v>0x01E</v>
+      </c>
+      <c r="C127" t="s">
+        <v>150</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F127" s="11">
+        <v>33</v>
+      </c>
+      <c r="G127" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="210"/>
+        <v>0</v>
+      </c>
+      <c r="I127">
         <v>7</v>
-      </c>
-      <c r="L126" s="16" t="str">
-        <f>IF(F126="", "", TEXT(DEC2BIN(F126), "000000"))</f>
-        <v>100001</v>
-      </c>
-      <c r="M126" s="17" t="str">
-        <f t="shared" si="174"/>
-        <v>000</v>
-      </c>
-      <c r="N126" s="17" t="str">
-        <f t="shared" si="175"/>
-        <v>111</v>
-      </c>
-      <c r="O126" s="17" t="str">
-        <f t="shared" si="176"/>
-        <v/>
-      </c>
-      <c r="P126" s="18" t="str">
-        <f t="shared" si="177"/>
-        <v/>
-      </c>
-      <c r="Q126" t="str">
-        <f>BIN2HEX(LEFT(CONCATENATE(L126,IF(M126="", "000", M126)), 8), 2)</f>
-        <v>84</v>
-      </c>
-      <c r="R126" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(M126, 1), IF(N126 = "", "000", N126), "0000"), 2)</f>
-        <v>70</v>
-      </c>
-      <c r="S126" s="13" t="str">
-        <f>IF(O126="", BIN2HEX(P126, 2), BIN2HEX(O126,2))</f>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>33</v>
-      </c>
-      <c r="B127" t="str">
-        <f t="shared" si="139"/>
-        <v>0x021</v>
-      </c>
-      <c r="C127" t="s">
-        <v>242</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F127" s="11">
-        <v>6</v>
-      </c>
-      <c r="H127" t="str">
-        <f t="shared" si="170"/>
-        <v/>
-      </c>
-      <c r="J127">
-        <v>33</v>
       </c>
       <c r="L127" s="16" t="str">
         <f>IF(F127="", "", TEXT(DEC2BIN(F127), "000000"))</f>
-        <v>000110</v>
+        <v>100001</v>
       </c>
       <c r="M127" s="17" t="str">
-        <f t="shared" si="174"/>
-        <v/>
+        <f t="shared" si="214"/>
+        <v>000</v>
       </c>
       <c r="N127" s="17" t="str">
-        <f t="shared" si="175"/>
-        <v/>
+        <f t="shared" si="215"/>
+        <v>111</v>
       </c>
       <c r="O127" s="17" t="str">
-        <f t="shared" si="176"/>
-        <v>00100001</v>
+        <f t="shared" si="216"/>
+        <v/>
       </c>
       <c r="P127" s="18" t="str">
-        <f t="shared" si="177"/>
+        <f t="shared" si="217"/>
         <v/>
       </c>
       <c r="Q127" t="str">
         <f>BIN2HEX(LEFT(CONCATENATE(L127,IF(M127="", "000", M127)), 8), 2)</f>
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="R127" t="str">
         <f>BIN2HEX(CONCATENATE(RIGHT(M127, 1), IF(N127 = "", "000", N127), "0000"), 2)</f>
-        <v>00</v>
+        <v>70</v>
       </c>
       <c r="S127" s="13" t="str">
         <f>IF(O127="", BIN2HEX(P127, 2), BIN2HEX(O127,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>33</v>
+      </c>
+      <c r="B128" t="str">
+        <f t="shared" si="179"/>
+        <v>0x021</v>
+      </c>
+      <c r="C128" t="s">
+        <v>239</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F128" s="11">
+        <v>6</v>
+      </c>
+      <c r="H128" t="str">
+        <f t="shared" si="210"/>
+        <v/>
+      </c>
+      <c r="J128">
+        <v>33</v>
+      </c>
+      <c r="L128" s="16" t="str">
+        <f>IF(F128="", "", TEXT(DEC2BIN(F128), "000000"))</f>
+        <v>000110</v>
+      </c>
+      <c r="M128" s="17" t="str">
+        <f t="shared" si="214"/>
+        <v/>
+      </c>
+      <c r="N128" s="17" t="str">
+        <f t="shared" si="215"/>
+        <v/>
+      </c>
+      <c r="O128" s="17" t="str">
+        <f t="shared" si="216"/>
+        <v>00100001</v>
+      </c>
+      <c r="P128" s="18" t="str">
+        <f t="shared" si="217"/>
+        <v/>
+      </c>
+      <c r="Q128" t="str">
+        <f>BIN2HEX(LEFT(CONCATENATE(L128,IF(M128="", "000", M128)), 8), 2)</f>
+        <v>18</v>
+      </c>
+      <c r="R128" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M128, 1), IF(N128 = "", "000", N128), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="S128" s="13" t="str">
+        <f>IF(O128="", BIN2HEX(P128, 2), BIN2HEX(O128,2))</f>
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A128">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129">
         <v>36</v>
       </c>
-      <c r="B128" t="str">
-        <f t="shared" si="139"/>
+      <c r="B129" t="str">
+        <f t="shared" si="179"/>
         <v>0x024</v>
       </c>
-      <c r="C128" t="s">
-        <v>82</v>
-      </c>
-      <c r="E128" s="51" t="s">
-        <v>249</v>
-      </c>
-      <c r="F128" s="11">
+      <c r="C129" t="s">
+        <v>81</v>
+      </c>
+      <c r="E129" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="F129" s="11">
         <v>2</v>
-      </c>
-      <c r="G128" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H128">
-        <f t="shared" si="170"/>
-        <v>0</v>
-      </c>
-      <c r="I128">
-        <v>6</v>
-      </c>
-      <c r="L128" s="16" t="str">
-        <f t="shared" ref="L128" si="179">IF(F128="", "", TEXT(DEC2BIN(F128), "000000"))</f>
-        <v>000010</v>
-      </c>
-      <c r="M128" s="17" t="str">
-        <f t="shared" si="174"/>
-        <v>000</v>
-      </c>
-      <c r="N128" s="17" t="str">
-        <f t="shared" si="175"/>
-        <v>110</v>
-      </c>
-      <c r="O128" s="17" t="str">
-        <f t="shared" si="176"/>
-        <v/>
-      </c>
-      <c r="P128" s="18" t="str">
-        <f t="shared" si="177"/>
-        <v/>
-      </c>
-      <c r="Q128" t="str">
-        <f t="shared" ref="Q128" si="180">BIN2HEX(LEFT(CONCATENATE(L128,IF(M128="", "000", M128)), 8), 2)</f>
-        <v>08</v>
-      </c>
-      <c r="R128" t="str">
-        <f t="shared" ref="R128" si="181">BIN2HEX(CONCATENATE(RIGHT(M128, 1), IF(N128 = "", "000", N128), "0000"), 2)</f>
-        <v>60</v>
-      </c>
-      <c r="S128" s="13" t="str">
-        <f t="shared" ref="S128" si="182">IF(O128="", BIN2HEX(P128, 2), BIN2HEX(O128,2))</f>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A129">
-        <v>39</v>
-      </c>
-      <c r="B129" t="str">
-        <f t="shared" si="139"/>
-        <v>0x027</v>
-      </c>
-      <c r="C129" t="s">
-        <v>215</v>
-      </c>
-      <c r="E129" s="51"/>
-      <c r="F129" s="11">
-        <v>40</v>
       </c>
       <c r="G129" s="12" t="s">
         <v>38</v>
       </c>
       <c r="H129">
-        <f t="shared" ref="H129:H131" si="183">IF(G129="", "", VLOOKUP(G129, $U$3:$V$10, 2))</f>
-        <v>0</v>
+        <f t="shared" si="210"/>
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>6</v>
       </c>
       <c r="L129" s="16" t="str">
-        <f>IF(F129="", "", TEXT(DEC2BIN(F129), "000000"))</f>
-        <v>101000</v>
+        <f t="shared" ref="L129" si="219">IF(F129="", "", TEXT(DEC2BIN(F129), "000000"))</f>
+        <v>000010</v>
       </c>
       <c r="M129" s="17" t="str">
-        <f>IF(H129="", "", TEXT(DEC2BIN(H129), "000"))</f>
+        <f t="shared" si="214"/>
         <v>000</v>
       </c>
       <c r="N129" s="17" t="str">
-        <f>IF(I129="", "", TEXT(DEC2BIN(I129), "000"))</f>
-        <v/>
+        <f t="shared" si="215"/>
+        <v>110</v>
       </c>
       <c r="O129" s="17" t="str">
-        <f>IF(J129="", "", TEXT(DEC2BIN(J129), "00000000"))</f>
+        <f t="shared" si="216"/>
         <v/>
       </c>
       <c r="P129" s="18" t="str">
-        <f>IF(K129="", "", TEXT(DEC2BIN(K129), "00000000"))</f>
+        <f t="shared" si="217"/>
         <v/>
       </c>
       <c r="Q129" t="str">
-        <f t="shared" ref="Q129:Q130" si="184">BIN2HEX(LEFT(CONCATENATE(L129,IF(M129="", "000", M129)), 8), 2)</f>
-        <v>A0</v>
+        <f t="shared" ref="Q129" si="220">BIN2HEX(LEFT(CONCATENATE(L129,IF(M129="", "000", M129)), 8), 2)</f>
+        <v>08</v>
       </c>
       <c r="R129" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(M129, 1), IF(N129 = "", "000", N129), "0000"), 2)</f>
-        <v>00</v>
+        <f t="shared" ref="R129" si="221">BIN2HEX(CONCATENATE(RIGHT(M129, 1), IF(N129 = "", "000", N129), "0000"), 2)</f>
+        <v>60</v>
       </c>
       <c r="S129" s="13" t="str">
-        <f t="shared" ref="S129:S130" si="185">IF(O129="", BIN2HEX(P129, 2), BIN2HEX(O129,2))</f>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" ref="S129" si="222">IF(O129="", BIN2HEX(P129, 2), BIN2HEX(O129,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B130" t="str">
-        <f t="shared" si="139"/>
-        <v>0x02A</v>
+        <f t="shared" si="179"/>
+        <v>0x027</v>
       </c>
       <c r="C130" t="s">
-        <v>83</v>
+        <v>213</v>
       </c>
       <c r="E130" s="51"/>
       <c r="F130" s="11">
+        <v>40</v>
+      </c>
+      <c r="G130" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H130">
+        <f t="shared" ref="H130:H132" si="223">IF(G130="", "", VLOOKUP(G130, $U$3:$V$10, 2))</f>
+        <v>0</v>
+      </c>
+      <c r="L130" s="16" t="str">
+        <f>IF(F130="", "", TEXT(DEC2BIN(F130), "000000"))</f>
+        <v>101000</v>
+      </c>
+      <c r="M130" s="17" t="str">
+        <f>IF(H130="", "", TEXT(DEC2BIN(H130), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="N130" s="17" t="str">
+        <f>IF(I130="", "", TEXT(DEC2BIN(I130), "000"))</f>
+        <v/>
+      </c>
+      <c r="O130" s="17" t="str">
+        <f>IF(J130="", "", TEXT(DEC2BIN(J130), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P130" s="18" t="str">
+        <f>IF(K130="", "", TEXT(DEC2BIN(K130), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q130" t="str">
+        <f t="shared" ref="Q130:Q131" si="224">BIN2HEX(LEFT(CONCATENATE(L130,IF(M130="", "000", M130)), 8), 2)</f>
+        <v>A0</v>
+      </c>
+      <c r="R130" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M130, 1), IF(N130 = "", "000", N130), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="S130" s="13" t="str">
+        <f t="shared" ref="S130:S131" si="225">IF(O130="", BIN2HEX(P130, 2), BIN2HEX(O130,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>42</v>
+      </c>
+      <c r="B131" t="str">
+        <f t="shared" si="179"/>
+        <v>0x02A</v>
+      </c>
+      <c r="C131" t="s">
+        <v>82</v>
+      </c>
+      <c r="E131" s="51"/>
+      <c r="F131" s="11">
         <v>2</v>
       </c>
-      <c r="G130" s="12" t="s">
+      <c r="G131" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H130">
-        <f t="shared" si="183"/>
+      <c r="H131">
+        <f t="shared" si="223"/>
         <v>6</v>
       </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-      <c r="L130" s="16" t="str">
-        <f t="shared" ref="L130" si="186">IF(F130="", "", TEXT(DEC2BIN(F130), "000000"))</f>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="L131" s="16" t="str">
+        <f t="shared" ref="L131" si="226">IF(F131="", "", TEXT(DEC2BIN(F131), "000000"))</f>
         <v>000010</v>
       </c>
-      <c r="M130" s="17" t="str">
-        <f t="shared" ref="M130" si="187">IF(H130="", "", TEXT(DEC2BIN(H130), "000"))</f>
+      <c r="M131" s="17" t="str">
+        <f t="shared" ref="M131" si="227">IF(H131="", "", TEXT(DEC2BIN(H131), "000"))</f>
         <v>110</v>
       </c>
-      <c r="N130" s="17" t="str">
-        <f t="shared" ref="N130" si="188">IF(I130="", "", TEXT(DEC2BIN(I130), "000"))</f>
+      <c r="N131" s="17" t="str">
+        <f t="shared" ref="N131" si="228">IF(I131="", "", TEXT(DEC2BIN(I131), "000"))</f>
         <v>000</v>
       </c>
-      <c r="O130" s="17" t="str">
-        <f t="shared" ref="O130" si="189">IF(J130="", "", TEXT(DEC2BIN(J130), "00000000"))</f>
-        <v/>
-      </c>
-      <c r="P130" s="18" t="str">
-        <f t="shared" ref="P130" si="190">IF(K130="", "", TEXT(DEC2BIN(K130), "00000000"))</f>
-        <v/>
-      </c>
-      <c r="Q130" t="str">
-        <f t="shared" si="184"/>
+      <c r="O131" s="17" t="str">
+        <f t="shared" ref="O131" si="229">IF(J131="", "", TEXT(DEC2BIN(J131), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="P131" s="18" t="str">
+        <f t="shared" ref="P131" si="230">IF(K131="", "", TEXT(DEC2BIN(K131), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q131" t="str">
+        <f t="shared" si="224"/>
         <v>0B</v>
       </c>
-      <c r="R130" t="str">
-        <f t="shared" ref="R130" si="191">BIN2HEX(CONCATENATE(RIGHT(M130, 1), IF(N130 = "", "000", N130), "0000"), 2)</f>
-        <v>00</v>
-      </c>
-      <c r="S130" s="13" t="str">
-        <f t="shared" si="185"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A131">
+      <c r="R131" t="str">
+        <f t="shared" ref="R131" si="231">BIN2HEX(CONCATENATE(RIGHT(M131, 1), IF(N131 = "", "000", N131), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="S131" s="13" t="str">
+        <f t="shared" si="225"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A132">
         <v>45</v>
       </c>
-      <c r="B131" t="str">
-        <f t="shared" si="139"/>
+      <c r="B132" t="str">
+        <f t="shared" si="179"/>
         <v>0x02D</v>
       </c>
-      <c r="C131" t="s">
-        <v>177</v>
-      </c>
-      <c r="E131" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F131" s="11">
+      <c r="C132" t="s">
+        <v>175</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F132" s="11">
         <v>5</v>
       </c>
-      <c r="H131" t="str">
-        <f t="shared" si="183"/>
-        <v/>
-      </c>
-      <c r="J131">
+      <c r="H132" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+      <c r="J132">
         <v>12</v>
       </c>
-      <c r="L131" s="16" t="str">
-        <f>IF(F131="", "", TEXT(DEC2BIN(F131), "000000"))</f>
+      <c r="L132" s="16" t="str">
+        <f>IF(F132="", "", TEXT(DEC2BIN(F132), "000000"))</f>
         <v>000101</v>
       </c>
-      <c r="M131" s="17" t="str">
-        <f t="shared" ref="M131" si="192">IF(H131="", "", TEXT(DEC2BIN(H131), "000"))</f>
-        <v/>
-      </c>
-      <c r="N131" s="17" t="str">
-        <f t="shared" ref="N131" si="193">IF(I131="", "", TEXT(DEC2BIN(I131), "000"))</f>
-        <v/>
-      </c>
-      <c r="O131" s="17" t="str">
-        <f t="shared" ref="O131" si="194">IF(J131="", "", TEXT(DEC2BIN(J131), "00000000"))</f>
+      <c r="M132" s="17" t="str">
+        <f t="shared" ref="M132" si="232">IF(H132="", "", TEXT(DEC2BIN(H132), "000"))</f>
+        <v/>
+      </c>
+      <c r="N132" s="17" t="str">
+        <f t="shared" ref="N132" si="233">IF(I132="", "", TEXT(DEC2BIN(I132), "000"))</f>
+        <v/>
+      </c>
+      <c r="O132" s="17" t="str">
+        <f t="shared" ref="O132" si="234">IF(J132="", "", TEXT(DEC2BIN(J132), "00000000"))</f>
         <v>00001100</v>
       </c>
-      <c r="P131" s="18" t="str">
-        <f t="shared" ref="P131" si="195">IF(K131="", "", TEXT(DEC2BIN(K131), "00000000"))</f>
-        <v/>
-      </c>
-      <c r="Q131" t="str">
-        <f>BIN2HEX(LEFT(CONCATENATE(L131,IF(M131="", "000", M131)), 8), 2)</f>
-        <v>14</v>
-      </c>
-      <c r="R131" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(M131, 1), IF(N131 = "", "000", N131), "0000"), 2)</f>
-        <v>00</v>
-      </c>
-      <c r="S131" s="13" t="str">
-        <f>IF(O131="", BIN2HEX(P131, 2), BIN2HEX(O131,2))</f>
+      <c r="P132" s="18" t="str">
+        <f t="shared" ref="P132" si="235">IF(K132="", "", TEXT(DEC2BIN(K132), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="Q132" t="str">
+        <f>BIN2HEX(LEFT(CONCATENATE(L132,IF(M132="", "000", M132)), 8), 2)</f>
+        <v>14</v>
+      </c>
+      <c r="R132" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(M132, 1), IF(N132 = "", "000", N132), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="S132" s="13" t="str">
+        <f>IF(O132="", BIN2HEX(P132, 2), BIN2HEX(O132,2))</f>
         <v>0C</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E132" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A133">
+    <row r="133" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="E133" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A134">
         <v>48</v>
       </c>
-      <c r="B133" t="str">
-        <f t="shared" ref="B133:B135" si="196">"0x" &amp; DEC2HEX(A133,3)</f>
+      <c r="B134" t="str">
+        <f t="shared" ref="B134:B136" si="236">"0x" &amp; DEC2HEX(A134,3)</f>
         <v>0x030</v>
       </c>
-      <c r="D133" s="7" t="s">
+      <c r="D134" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>51</v>
+      </c>
+      <c r="B135" t="str">
+        <f t="shared" si="236"/>
+        <v>0x033</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>54</v>
+      </c>
+      <c r="B136" t="str">
+        <f t="shared" si="236"/>
+        <v>0x036</v>
+      </c>
+      <c r="D136" s="7" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A134">
-        <v>51</v>
-      </c>
-      <c r="B134" t="str">
-        <f t="shared" si="196"/>
-        <v>0x033</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A135">
-        <v>54</v>
-      </c>
-      <c r="B135" t="str">
-        <f t="shared" si="196"/>
-        <v>0x036</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -8500,13 +9004,13 @@
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="E128:E130"/>
+    <mergeCell ref="E129:E131"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W17">
       <formula1>$U$16:$U$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G6 G9:G11 G17:G26 G31:G33 G41:G42 G49 G83:G93 G116:G131">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G6 G9:G11 G17:G26 G31:G33 G41:G42 G49 G83:G93 G117:G132 G102:G112">
       <formula1>$U$3:$U$10</formula1>
     </dataValidation>
   </dataValidations>

--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="288" windowWidth="14808" windowHeight="7836" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Control Lines" sheetId="1" r:id="rId1"/>
     <sheet name="Some instructions for test" sheetId="2" r:id="rId2"/>
     <sheet name="Test Programs" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
@@ -22,7 +22,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="C20" authorId="0" shapeId="0">
+    <comment ref="C20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="273">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -879,12 +879,39 @@
   </si>
   <si>
     <t>ALL PROGRAMS MUST HAVE THE OUT INSTR REASSEMBLED (NOW USES R1 INSTEAD OF R2)</t>
+  </si>
+  <si>
+    <t>// Addr of first byte (hi)</t>
+  </si>
+  <si>
+    <t>// Addr of first byte (low)</t>
+  </si>
+  <si>
+    <t>// Addr of last byte + 1</t>
+  </si>
+  <si>
+    <t>// Output byte to line indicated by E</t>
+  </si>
+  <si>
+    <t>// If true, start over the animation</t>
+  </si>
+  <si>
+    <t>00 00 00</t>
+  </si>
+  <si>
+    <t>ff 00 00</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>LD F, 0x70</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1207,7 +1234,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1245,9 +1272,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1280,26 +1307,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1332,26 +1342,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1532,21 +1525,21 @@
       <selection pane="bottomLeft" activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="3.33203125" customWidth="1"/>
-    <col min="18" max="19" width="3.33203125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="3.33203125" customWidth="1"/>
-    <col min="21" max="21" width="3.33203125" style="41" customWidth="1"/>
-    <col min="22" max="27" width="3.33203125" customWidth="1"/>
-    <col min="28" max="30" width="5.88671875" customWidth="1"/>
+    <col min="4" max="17" width="3.28515625" customWidth="1"/>
+    <col min="18" max="19" width="3.28515625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="3.28515625" customWidth="1"/>
+    <col min="21" max="21" width="3.28515625" style="41" customWidth="1"/>
+    <col min="22" max="27" width="3.28515625" customWidth="1"/>
+    <col min="28" max="30" width="5.85546875" customWidth="1"/>
     <col min="31" max="31" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D1">
         <v>23</v>
       </c>
@@ -1620,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="1" customFormat="1" ht="130.19999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" s="1" customFormat="1" ht="130.15" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>205</v>
       </c>
@@ -1708,7 +1701,7 @@
       <c r="AC2" s="47"/>
       <c r="AD2" s="47"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1812,7 +1805,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1912,7 +1905,7 @@
         <v>C00000</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2012,7 +2005,7 @@
         <v>600400</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2112,7 +2105,7 @@
         <v>5E0000</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2212,7 +2205,7 @@
         <v>4F0000</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2312,7 +2305,7 @@
         <v>004000</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2412,7 +2405,7 @@
         <v>006000</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="33">
         <v>7</v>
       </c>
@@ -2512,7 +2505,7 @@
         <v>004200</v>
       </c>
     </row>
-    <row r="11" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="33">
         <v>8</v>
       </c>
@@ -2612,7 +2605,7 @@
         <v>006200</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
         <v>9</v>
       </c>
@@ -2684,7 +2677,7 @@
         <v>000100</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2787,7 +2780,7 @@
         <v>181800</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -2887,7 +2880,7 @@
         <v>091800</v>
       </c>
     </row>
-    <row r="15" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="33">
         <v>12</v>
       </c>
@@ -2938,7 +2931,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="16" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="33">
         <v>13</v>
       </c>
@@ -2989,7 +2982,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="33">
         <v>14</v>
       </c>
@@ -3040,7 +3033,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="33">
         <v>15</v>
       </c>
@@ -3091,7 +3084,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="33">
         <v>16</v>
       </c>
@@ -3134,7 +3127,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -3240,7 +3233,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="21" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -3273,7 +3266,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -3306,7 +3299,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -3339,7 +3332,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -3372,7 +3365,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -3405,7 +3398,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -3438,7 +3431,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -3471,7 +3464,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -3504,7 +3497,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -3537,7 +3530,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -3570,7 +3563,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -3603,7 +3596,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -3636,7 +3629,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="33" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -3669,7 +3662,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="34" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -3702,7 +3695,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -3805,7 +3798,7 @@
         <v>408825</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -3908,7 +3901,7 @@
         <v>408818</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -4011,7 +4004,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -4111,7 +4104,7 @@
         <v>40882E</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -4211,7 +4204,7 @@
         <v>40883A</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -4311,7 +4304,7 @@
         <v>40881A</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -4411,7 +4404,7 @@
         <v>408806</v>
       </c>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -4511,7 +4504,7 @@
         <v>408826</v>
       </c>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -4611,7 +4604,7 @@
         <v>408800</v>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -4711,7 +4704,7 @@
         <v>40883D</v>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C46" s="3" t="s">
         <v>22</v>
       </c>
@@ -4719,7 +4712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C47" s="5" t="s">
         <v>30</v>
       </c>
@@ -4727,7 +4720,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
         <v>53</v>
       </c>
@@ -4735,7 +4728,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C50" s="1" t="s">
         <v>62</v>
       </c>
@@ -4743,7 +4736,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
         <v>47</v>
       </c>
@@ -4751,7 +4744,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52" s="1" t="s">
@@ -4763,7 +4756,7 @@
       <c r="R52"/>
       <c r="S52"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53" s="1" t="s">
@@ -4775,7 +4768,7 @@
       <c r="R53"/>
       <c r="S53"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54" s="1" t="s">
@@ -4805,10 +4798,10 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.109375" style="7"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -4956,33 +4949,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z151"/>
+  <dimension ref="A1:Z191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C151" sqref="C151"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M181" sqref="M181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.44140625" style="16" customWidth="1"/>
-    <col min="14" max="15" width="9.109375" style="2"/>
-    <col min="16" max="16" width="8.88671875" style="2"/>
-    <col min="17" max="17" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" style="16" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="2"/>
+    <col min="16" max="16" width="8.85546875" style="2"/>
+    <col min="17" max="17" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.42578125" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
@@ -5035,7 +5028,7 @@
       <c r="U1" s="50"/>
       <c r="V1" s="10"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="8" t="s">
@@ -5049,7 +5042,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -5114,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5181,7 +5174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6</v>
       </c>
@@ -5246,7 +5239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9</v>
       </c>
@@ -5308,7 +5301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E7" s="8"/>
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
@@ -5321,7 +5314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C8" s="8" t="s">
         <v>214</v>
       </c>
@@ -5333,7 +5326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -5398,7 +5391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -5459,7 +5452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -5514,7 +5507,7 @@
         <v>03</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C16" s="8" t="s">
         <v>217</v>
       </c>
@@ -5525,7 +5518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
@@ -5596,7 +5589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5660,7 +5653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
@@ -5715,7 +5708,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>9</v>
       </c>
@@ -5773,7 +5766,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12</v>
       </c>
@@ -5829,48 +5822,48 @@
         <v>06</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E22" s="39"/>
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
       <c r="P22" s="17"/>
       <c r="Q22" s="17"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E23" s="39"/>
       <c r="N23" s="17"/>
       <c r="O23" s="17"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="17"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E24" s="39"/>
       <c r="N24" s="17"/>
       <c r="O24" s="17"/>
       <c r="P24" s="17"/>
       <c r="Q24" s="17"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E25" s="39"/>
       <c r="N25" s="17"/>
       <c r="O25" s="17"/>
       <c r="P25" s="17"/>
       <c r="Q25" s="17"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="N26" s="17"/>
       <c r="O26" s="17"/>
       <c r="P26" s="17"/>
       <c r="Q26" s="17"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
@@ -5928,7 +5921,7 @@
         <v>01</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -5986,7 +5979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -6044,7 +6037,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>9</v>
       </c>
@@ -6095,7 +6088,7 @@
         <v>0F</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>12</v>
       </c>
@@ -6146,7 +6139,7 @@
         <v>06</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>15</v>
       </c>
@@ -6197,12 +6190,12 @@
         <v>0F</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C40" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
@@ -6260,7 +6253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
@@ -6318,7 +6311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>6</v>
       </c>
@@ -6369,7 +6362,7 @@
         <v>06</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>16</v>
       </c>
@@ -6384,15 +6377,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C46" s="38"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C48" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0</v>
       </c>
@@ -6453,7 +6446,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3</v>
       </c>
@@ -6507,18 +6500,18 @@
         <v>00</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="N51" s="17"/>
       <c r="O51" s="17"/>
       <c r="P51" s="17"/>
       <c r="Q51" s="17"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C55" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0</v>
       </c>
@@ -6537,7 +6530,7 @@
       </c>
       <c r="F56" s="43"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
@@ -6553,7 +6546,7 @@
       </c>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>6</v>
       </c>
@@ -6571,7 +6564,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>9</v>
       </c>
@@ -6587,7 +6580,7 @@
       </c>
       <c r="E59" s="8"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>12</v>
       </c>
@@ -6605,7 +6598,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>15</v>
       </c>
@@ -6621,7 +6614,7 @@
       </c>
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>18</v>
       </c>
@@ -6639,7 +6632,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>21</v>
       </c>
@@ -6655,7 +6648,7 @@
       </c>
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>24</v>
       </c>
@@ -6673,7 +6666,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>27</v>
       </c>
@@ -6689,7 +6682,7 @@
       </c>
       <c r="E65" s="8"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>30</v>
       </c>
@@ -6707,7 +6700,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>33</v>
       </c>
@@ -6723,7 +6716,7 @@
       </c>
       <c r="E67" s="8"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>36</v>
       </c>
@@ -6741,7 +6734,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>39</v>
       </c>
@@ -6757,7 +6750,7 @@
       </c>
       <c r="E69" s="8"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>42</v>
       </c>
@@ -6775,7 +6768,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>45</v>
       </c>
@@ -6791,7 +6784,7 @@
       </c>
       <c r="E71" s="8"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>48</v>
       </c>
@@ -6809,7 +6802,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>51</v>
       </c>
@@ -6825,7 +6818,7 @@
       </c>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>54</v>
       </c>
@@ -6843,7 +6836,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>57</v>
       </c>
@@ -6859,7 +6852,7 @@
       </c>
       <c r="E75" s="8"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>60</v>
       </c>
@@ -6877,7 +6870,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>63</v>
       </c>
@@ -6893,7 +6886,7 @@
       </c>
       <c r="E77" s="8"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>66</v>
       </c>
@@ -6911,7 +6904,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>69</v>
       </c>
@@ -6927,21 +6920,21 @@
       </c>
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E80" s="8"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D81"/>
       <c r="E81" s="8"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C82" s="8" t="s">
         <v>139</v>
       </c>
       <c r="D82"/>
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>0</v>
       </c>
@@ -7003,7 +6996,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>3</v>
       </c>
@@ -7064,7 +7057,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>6</v>
       </c>
@@ -7125,7 +7118,7 @@
         <v>3C</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>9</v>
       </c>
@@ -7183,7 +7176,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>12</v>
       </c>
@@ -7245,7 +7238,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>15</v>
       </c>
@@ -7301,7 +7294,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>18</v>
       </c>
@@ -7362,7 +7355,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>21</v>
       </c>
@@ -7423,7 +7416,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>24</v>
       </c>
@@ -7481,7 +7474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>27</v>
       </c>
@@ -7542,7 +7535,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>30</v>
       </c>
@@ -7605,7 +7598,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>48</v>
       </c>
@@ -7620,7 +7613,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>51</v>
       </c>
@@ -7635,7 +7628,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>54</v>
       </c>
@@ -7650,7 +7643,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>57</v>
       </c>
@@ -7665,25 +7658,25 @@
         <v>159</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C99" s="5"/>
       <c r="E99" s="8"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C100" s="5" t="s">
         <v>256</v>
       </c>
       <c r="D100"/>
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C101" s="8" t="s">
         <v>140</v>
       </c>
       <c r="D101"/>
       <c r="E101" s="8"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>0</v>
       </c>
@@ -7747,7 +7740,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>3</v>
       </c>
@@ -7811,7 +7804,7 @@
         <v>FF</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>6</v>
       </c>
@@ -7872,7 +7865,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>9</v>
       </c>
@@ -7930,7 +7923,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>12</v>
       </c>
@@ -7989,7 +7982,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>15</v>
       </c>
@@ -8053,7 +8046,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>18</v>
       </c>
@@ -8117,7 +8110,7 @@
         <v>3A</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>21</v>
       </c>
@@ -8179,7 +8172,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>24</v>
       </c>
@@ -8240,7 +8233,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>27</v>
       </c>
@@ -8302,7 +8295,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>30</v>
       </c>
@@ -8363,12 +8356,12 @@
         <v>06</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C116" s="8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>0</v>
       </c>
@@ -8429,7 +8422,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>3</v>
       </c>
@@ -8490,7 +8483,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>6</v>
       </c>
@@ -8551,7 +8544,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>9</v>
       </c>
@@ -8612,7 +8605,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>12</v>
       </c>
@@ -8671,7 +8664,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>15</v>
       </c>
@@ -8729,7 +8722,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>18</v>
       </c>
@@ -8788,7 +8781,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>21</v>
       </c>
@@ -8846,7 +8839,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>24</v>
       </c>
@@ -8902,7 +8895,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>27</v>
       </c>
@@ -8963,7 +8956,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>30</v>
       </c>
@@ -9024,7 +9017,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>33</v>
       </c>
@@ -9082,7 +9075,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>36</v>
       </c>
@@ -9143,7 +9136,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>39</v>
       </c>
@@ -9199,7 +9192,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>42</v>
       </c>
@@ -9258,7 +9251,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>45</v>
       </c>
@@ -9316,12 +9309,12 @@
         <v>0C</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E133" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>48</v>
       </c>
@@ -9333,7 +9326,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>51</v>
       </c>
@@ -9345,7 +9338,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>54</v>
       </c>
@@ -9357,12 +9350,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C140" s="8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>0</v>
       </c>
@@ -9392,23 +9385,23 @@
         <v>000001</v>
       </c>
       <c r="N141" s="17" t="str">
-        <f>IF(H141="", "", TEXT(DEC2BIN(H141), "000"))</f>
+        <f t="shared" ref="N141:P144" si="235">IF(H141="", "", TEXT(DEC2BIN(H141), "000"))</f>
         <v>110</v>
       </c>
       <c r="O141" s="17" t="str">
-        <f>IF(I141="", "", TEXT(DEC2BIN(I141), "000"))</f>
+        <f t="shared" si="235"/>
         <v/>
       </c>
       <c r="P141" s="17" t="str">
-        <f>IF(J141="", "", TEXT(DEC2BIN(J141), "000"))</f>
+        <f t="shared" si="235"/>
         <v/>
       </c>
       <c r="Q141" s="17" t="str">
-        <f>IF(K141="", "", TEXT(DEC2BIN(K141), "00000000"))</f>
+        <f t="shared" ref="Q141:R144" si="236">IF(K141="", "", TEXT(DEC2BIN(K141), "00000000"))</f>
         <v/>
       </c>
       <c r="R141" s="18" t="str">
-        <f>IF(L141="", "", TEXT(DEC2BIN(L141), "00000000"))</f>
+        <f t="shared" si="236"/>
         <v>00000000</v>
       </c>
       <c r="S141" t="str">
@@ -9424,7 +9417,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>3</v>
       </c>
@@ -9443,7 +9436,7 @@
         <v>38</v>
       </c>
       <c r="H142">
-        <f t="shared" ref="H142" si="235">IF(G142="", "", VLOOKUP(G142, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H142" si="237">IF(G142="", "", VLOOKUP(G142, $W$3:$X$10, 2))</f>
         <v>0</v>
       </c>
       <c r="L142">
@@ -9454,23 +9447,23 @@
         <v>000001</v>
       </c>
       <c r="N142" s="17" t="str">
-        <f>IF(H142="", "", TEXT(DEC2BIN(H142), "000"))</f>
+        <f t="shared" si="235"/>
         <v>000</v>
       </c>
       <c r="O142" s="17" t="str">
-        <f>IF(I142="", "", TEXT(DEC2BIN(I142), "000"))</f>
+        <f t="shared" si="235"/>
         <v/>
       </c>
       <c r="P142" s="17" t="str">
-        <f>IF(J142="", "", TEXT(DEC2BIN(J142), "000"))</f>
+        <f t="shared" si="235"/>
         <v/>
       </c>
       <c r="Q142" s="17" t="str">
-        <f>IF(K142="", "", TEXT(DEC2BIN(K142), "00000000"))</f>
+        <f t="shared" si="236"/>
         <v/>
       </c>
       <c r="R142" s="18" t="str">
-        <f>IF(L142="", "", TEXT(DEC2BIN(L142), "00000000"))</f>
+        <f t="shared" si="236"/>
         <v>11111111</v>
       </c>
       <c r="S142" t="str">
@@ -9486,7 +9479,7 @@
         <v>FF</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>6</v>
       </c>
@@ -9516,23 +9509,23 @@
         <v>000001</v>
       </c>
       <c r="N143" s="17" t="str">
-        <f>IF(H143="", "", TEXT(DEC2BIN(H143), "000"))</f>
+        <f t="shared" si="235"/>
         <v>010</v>
       </c>
       <c r="O143" s="17" t="str">
-        <f>IF(I143="", "", TEXT(DEC2BIN(I143), "000"))</f>
+        <f t="shared" si="235"/>
         <v/>
       </c>
       <c r="P143" s="17" t="str">
-        <f>IF(J143="", "", TEXT(DEC2BIN(J143), "000"))</f>
+        <f t="shared" si="235"/>
         <v/>
       </c>
       <c r="Q143" s="17" t="str">
-        <f>IF(K143="", "", TEXT(DEC2BIN(K143), "00000000"))</f>
+        <f t="shared" si="236"/>
         <v/>
       </c>
       <c r="R143" s="18" t="str">
-        <f>IF(L143="", "", TEXT(DEC2BIN(L143), "00000000"))</f>
+        <f t="shared" si="236"/>
         <v>00000000</v>
       </c>
       <c r="S143" t="str">
@@ -9548,7 +9541,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C144" t="s">
         <v>261</v>
       </c>
@@ -9574,23 +9567,23 @@
         <v>010001</v>
       </c>
       <c r="N144" s="17" t="str">
-        <f>IF(H144="", "", TEXT(DEC2BIN(H144), "000"))</f>
+        <f t="shared" si="235"/>
         <v>010</v>
       </c>
       <c r="O144" s="17" t="str">
-        <f>IF(I144="", "", TEXT(DEC2BIN(I144), "000"))</f>
+        <f t="shared" si="235"/>
         <v>110</v>
       </c>
       <c r="P144" s="17" t="str">
-        <f>IF(J144="", "", TEXT(DEC2BIN(J144), "000"))</f>
+        <f t="shared" si="235"/>
         <v>001</v>
       </c>
       <c r="Q144" s="17" t="str">
-        <f>IF(K144="", "", TEXT(DEC2BIN(K144), "00000000"))</f>
+        <f t="shared" si="236"/>
         <v/>
       </c>
       <c r="R144" s="18" t="str">
-        <f>IF(L144="", "", TEXT(DEC2BIN(L144), "00000000"))</f>
+        <f t="shared" si="236"/>
         <v/>
       </c>
       <c r="S144" t="str">
@@ -9606,7 +9599,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="145" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C145" t="s">
         <v>258</v>
       </c>
@@ -9618,7 +9611,7 @@
         <v>38</v>
       </c>
       <c r="H145">
-        <f t="shared" ref="H145:H147" si="236">IF(G145="", "", VLOOKUP(G145, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H145:H147" si="238">IF(G145="", "", VLOOKUP(G145, $W$3:$X$10, 2))</f>
         <v>0</v>
       </c>
       <c r="I145">
@@ -9628,31 +9621,31 @@
         <v>1</v>
       </c>
       <c r="M145" s="16" t="str">
-        <f t="shared" ref="M145:M146" si="237">IF(F145="", "", TEXT(DEC2BIN(F145), "000000"))</f>
+        <f t="shared" ref="M145:M146" si="239">IF(F145="", "", TEXT(DEC2BIN(F145), "000000"))</f>
         <v>010001</v>
       </c>
       <c r="N145" s="17" t="str">
-        <f t="shared" ref="N145:N146" si="238">IF(H145="", "", TEXT(DEC2BIN(H145), "000"))</f>
+        <f t="shared" ref="N145:N146" si="240">IF(H145="", "", TEXT(DEC2BIN(H145), "000"))</f>
         <v>000</v>
       </c>
       <c r="O145" s="17" t="str">
-        <f t="shared" ref="O145:O146" si="239">IF(I145="", "", TEXT(DEC2BIN(I145), "000"))</f>
+        <f t="shared" ref="O145:O146" si="241">IF(I145="", "", TEXT(DEC2BIN(I145), "000"))</f>
         <v>110</v>
       </c>
       <c r="P145" s="17" t="str">
-        <f t="shared" ref="P145" si="240">IF(J145="", "", TEXT(DEC2BIN(J145), "000"))</f>
+        <f t="shared" ref="P145" si="242">IF(J145="", "", TEXT(DEC2BIN(J145), "000"))</f>
         <v>001</v>
       </c>
       <c r="Q145" s="17" t="str">
-        <f t="shared" ref="Q145:Q146" si="241">IF(K145="", "", TEXT(DEC2BIN(K145), "00000000"))</f>
+        <f t="shared" ref="Q145:Q146" si="243">IF(K145="", "", TEXT(DEC2BIN(K145), "00000000"))</f>
         <v/>
       </c>
       <c r="R145" s="18" t="str">
-        <f t="shared" ref="R145:R146" si="242">IF(L145="", "", TEXT(DEC2BIN(L145), "00000000"))</f>
+        <f t="shared" ref="R145:R146" si="244">IF(L145="", "", TEXT(DEC2BIN(L145), "00000000"))</f>
         <v/>
       </c>
       <c r="S145" t="str">
-        <f t="shared" ref="S145:S147" si="243">BIN2HEX(LEFT(CONCATENATE(M145,IF(N145="", "000", N145)), 8), 2)</f>
+        <f t="shared" ref="S145:S147" si="245">BIN2HEX(LEFT(CONCATENATE(M145,IF(N145="", "000", N145)), 8), 2)</f>
         <v>44</v>
       </c>
       <c r="T145" t="str">
@@ -9660,11 +9653,11 @@
         <v>62</v>
       </c>
       <c r="U145" s="13" t="str">
-        <f t="shared" ref="U145:U147" si="244">IF(Q145="", BIN2HEX(R145, 2), BIN2HEX(Q145,2))</f>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="146" spans="3:21" x14ac:dyDescent="0.3">
+        <f t="shared" ref="U145:U147" si="246">IF(Q145="", BIN2HEX(R145, 2), BIN2HEX(Q145,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C146" t="s">
         <v>259</v>
       </c>
@@ -9676,47 +9669,47 @@
         <v>39</v>
       </c>
       <c r="H146">
-        <f t="shared" si="236"/>
+        <f t="shared" si="238"/>
         <v>1</v>
       </c>
       <c r="I146">
         <v>6</v>
       </c>
       <c r="M146" s="16" t="str">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>000010</v>
       </c>
       <c r="N146" s="17" t="str">
-        <f t="shared" si="238"/>
+        <f t="shared" si="240"/>
         <v>001</v>
       </c>
       <c r="O146" s="17" t="str">
-        <f t="shared" si="239"/>
+        <f t="shared" si="241"/>
         <v>110</v>
       </c>
       <c r="P146" s="17"/>
       <c r="Q146" s="17" t="str">
-        <f t="shared" si="241"/>
+        <f t="shared" si="243"/>
         <v/>
       </c>
       <c r="R146" s="18" t="str">
-        <f t="shared" si="242"/>
+        <f t="shared" si="244"/>
         <v/>
       </c>
       <c r="S146" t="str">
-        <f t="shared" si="243"/>
+        <f t="shared" si="245"/>
         <v>08</v>
       </c>
       <c r="T146" t="str">
-        <f t="shared" ref="T146" si="245">BIN2HEX(CONCATENATE(RIGHT(N146, 1), IF(O146 = "", "000", O146), "0000"), 2)</f>
+        <f t="shared" ref="T146" si="247">BIN2HEX(CONCATENATE(RIGHT(N146, 1), IF(O146 = "", "000", O146), "0000"), 2)</f>
         <v>E0</v>
       </c>
       <c r="U146" s="13" t="str">
-        <f t="shared" si="244"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="147" spans="3:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="246"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C147" t="s">
         <v>236</v>
       </c>
@@ -9728,7 +9721,7 @@
         <v>39</v>
       </c>
       <c r="H147">
-        <f t="shared" si="236"/>
+        <f t="shared" si="238"/>
         <v>1</v>
       </c>
       <c r="M147" s="16" t="str">
@@ -9753,7 +9746,7 @@
         <v/>
       </c>
       <c r="S147" t="str">
-        <f t="shared" si="243"/>
+        <f t="shared" si="245"/>
         <v>A0</v>
       </c>
       <c r="T147" t="str">
@@ -9761,11 +9754,11 @@
         <v>80</v>
       </c>
       <c r="U147" s="13" t="str">
-        <f t="shared" si="244"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="148" spans="3:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="246"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C148" t="s">
         <v>260</v>
       </c>
@@ -9777,47 +9770,47 @@
         <v>42</v>
       </c>
       <c r="H148">
-        <f t="shared" ref="H148" si="246">IF(G148="", "", VLOOKUP(G148, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H148" si="248">IF(G148="", "", VLOOKUP(G148, $W$3:$X$10, 2))</f>
         <v>6</v>
       </c>
       <c r="I148">
         <v>1</v>
       </c>
       <c r="M148" s="16" t="str">
-        <f t="shared" ref="M148" si="247">IF(F148="", "", TEXT(DEC2BIN(F148), "000000"))</f>
+        <f t="shared" ref="M148" si="249">IF(F148="", "", TEXT(DEC2BIN(F148), "000000"))</f>
         <v>000010</v>
       </c>
       <c r="N148" s="17" t="str">
-        <f t="shared" ref="N148" si="248">IF(H148="", "", TEXT(DEC2BIN(H148), "000"))</f>
+        <f t="shared" ref="N148" si="250">IF(H148="", "", TEXT(DEC2BIN(H148), "000"))</f>
         <v>110</v>
       </c>
       <c r="O148" s="17" t="str">
-        <f t="shared" ref="O148" si="249">IF(I148="", "", TEXT(DEC2BIN(I148), "000"))</f>
+        <f t="shared" ref="O148" si="251">IF(I148="", "", TEXT(DEC2BIN(I148), "000"))</f>
         <v>001</v>
       </c>
       <c r="P148" s="17"/>
       <c r="Q148" s="17" t="str">
-        <f t="shared" ref="Q148" si="250">IF(K148="", "", TEXT(DEC2BIN(K148), "00000000"))</f>
+        <f t="shared" ref="Q148" si="252">IF(K148="", "", TEXT(DEC2BIN(K148), "00000000"))</f>
         <v/>
       </c>
       <c r="R148" s="18" t="str">
-        <f t="shared" ref="R148" si="251">IF(L148="", "", TEXT(DEC2BIN(L148), "00000000"))</f>
+        <f t="shared" ref="R148" si="253">IF(L148="", "", TEXT(DEC2BIN(L148), "00000000"))</f>
         <v/>
       </c>
       <c r="S148" t="str">
-        <f t="shared" ref="S148" si="252">BIN2HEX(LEFT(CONCATENATE(M148,IF(N148="", "000", N148)), 8), 2)</f>
+        <f t="shared" ref="S148" si="254">BIN2HEX(LEFT(CONCATENATE(M148,IF(N148="", "000", N148)), 8), 2)</f>
         <v>0B</v>
       </c>
       <c r="T148" t="str">
-        <f t="shared" ref="T148" si="253">BIN2HEX(CONCATENATE(RIGHT(N148, 1), IF(O148 = "", "000", O148), "0000"), 2)</f>
+        <f t="shared" ref="T148" si="255">BIN2HEX(CONCATENATE(RIGHT(N148, 1), IF(O148 = "", "000", O148), "0000"), 2)</f>
         <v>10</v>
       </c>
       <c r="U148" s="13" t="str">
-        <f t="shared" ref="U148" si="254">IF(Q148="", BIN2HEX(R148, 2), BIN2HEX(Q148,2))</f>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="149" spans="3:21" x14ac:dyDescent="0.3">
+        <f t="shared" ref="U148" si="256">IF(Q148="", BIN2HEX(R148, 2), BIN2HEX(Q148,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
         <v>82</v>
       </c>
@@ -9825,38 +9818,38 @@
         <v>5</v>
       </c>
       <c r="H149" t="str">
-        <f t="shared" ref="H143:H149" si="255">IF(G149="", "", VLOOKUP(G149, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H149" si="257">IF(G149="", "", VLOOKUP(G149, $W$3:$X$10, 2))</f>
         <v/>
       </c>
       <c r="K149">
         <v>9</v>
       </c>
       <c r="M149" s="16" t="str">
-        <f t="shared" ref="M149" si="256">IF(F149="", "", TEXT(DEC2BIN(F149), "000000"))</f>
+        <f t="shared" ref="M149" si="258">IF(F149="", "", TEXT(DEC2BIN(F149), "000000"))</f>
         <v>000101</v>
       </c>
       <c r="N149" s="17" t="str">
-        <f t="shared" ref="N149" si="257">IF(H149="", "", TEXT(DEC2BIN(H149), "000"))</f>
+        <f t="shared" ref="N149" si="259">IF(H149="", "", TEXT(DEC2BIN(H149), "000"))</f>
         <v/>
       </c>
       <c r="O149" s="17" t="str">
-        <f t="shared" ref="O149" si="258">IF(I149="", "", TEXT(DEC2BIN(I149), "000"))</f>
+        <f t="shared" ref="O149" si="260">IF(I149="", "", TEXT(DEC2BIN(I149), "000"))</f>
         <v/>
       </c>
       <c r="P149" s="17" t="str">
-        <f t="shared" ref="P149" si="259">IF(J149="", "", TEXT(DEC2BIN(J149), "000"))</f>
+        <f t="shared" ref="P149" si="261">IF(J149="", "", TEXT(DEC2BIN(J149), "000"))</f>
         <v/>
       </c>
       <c r="Q149" s="17" t="str">
-        <f t="shared" ref="Q149" si="260">IF(K149="", "", TEXT(DEC2BIN(K149), "00000000"))</f>
+        <f t="shared" ref="Q149" si="262">IF(K149="", "", TEXT(DEC2BIN(K149), "00000000"))</f>
         <v>00001001</v>
       </c>
       <c r="R149" s="18" t="str">
-        <f t="shared" ref="R149" si="261">IF(L149="", "", TEXT(DEC2BIN(L149), "00000000"))</f>
+        <f t="shared" ref="R149" si="263">IF(L149="", "", TEXT(DEC2BIN(L149), "00000000"))</f>
         <v/>
       </c>
       <c r="S149" t="str">
-        <f t="shared" ref="S149" si="262">BIN2HEX(LEFT(CONCATENATE(M149,IF(N149="", "000", N149)), 8), 2)</f>
+        <f t="shared" ref="S149" si="264">BIN2HEX(LEFT(CONCATENATE(M149,IF(N149="", "000", N149)), 8), 2)</f>
         <v>14</v>
       </c>
       <c r="T149" t="str">
@@ -9864,28 +9857,1205 @@
         <v>00</v>
       </c>
       <c r="U149" s="13" t="str">
-        <f t="shared" ref="U149" si="263">IF(Q149="", BIN2HEX(R149, 2), BIN2HEX(Q149,2))</f>
+        <f t="shared" ref="U149" si="265">IF(Q149="", BIN2HEX(R149, 2), BIN2HEX(Q149,2))</f>
         <v>09</v>
       </c>
     </row>
-    <row r="151" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C151" s="5" t="s">
         <v>263</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C153" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>0</v>
+      </c>
+      <c r="B154" t="str">
+        <f t="shared" ref="B154:B168" si="266">"0x" &amp; DEC2HEX(A154,3)</f>
+        <v>0x000</v>
+      </c>
+      <c r="C154" t="s">
+        <v>254</v>
+      </c>
+      <c r="E154" s="8"/>
+      <c r="F154" s="11">
+        <v>1</v>
+      </c>
+      <c r="G154" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H154">
+        <f t="shared" ref="H154" si="267">IF(G154="", "", VLOOKUP(G154, $W$3:$X$10, 2))</f>
+        <v>6</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154" s="16" t="str">
+        <f>IF(F154="", "", TEXT(DEC2BIN(F154), "000000"))</f>
+        <v>000001</v>
+      </c>
+      <c r="N154" s="17" t="str">
+        <f t="shared" ref="N154" si="268">IF(H154="", "", TEXT(DEC2BIN(H154), "000"))</f>
+        <v>110</v>
+      </c>
+      <c r="O154" s="17" t="str">
+        <f t="shared" ref="O154" si="269">IF(I154="", "", TEXT(DEC2BIN(I154), "000"))</f>
+        <v/>
+      </c>
+      <c r="P154" s="17" t="str">
+        <f t="shared" ref="P154" si="270">IF(J154="", "", TEXT(DEC2BIN(J154), "000"))</f>
+        <v/>
+      </c>
+      <c r="Q154" s="17" t="str">
+        <f t="shared" ref="Q154" si="271">IF(K154="", "", TEXT(DEC2BIN(K154), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="R154" s="18" t="str">
+        <f t="shared" ref="R154" si="272">IF(L154="", "", TEXT(DEC2BIN(L154), "00000000"))</f>
+        <v>00000000</v>
+      </c>
+      <c r="S154" t="str">
+        <f>BIN2HEX(LEFT(CONCATENATE(M154,IF(N154="", "000", N154)), 8), 2)</f>
+        <v>07</v>
+      </c>
+      <c r="T154" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(N154, 1), IF(O154 = "", "000", O154), IF(P154 = "", "000", P154), "0"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="U154" s="13" t="str">
+        <f>IF(Q154="", BIN2HEX(R154, 2), BIN2HEX(Q154,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>3</v>
+      </c>
+      <c r="B155" t="str">
+        <f t="shared" si="266"/>
+        <v>0x003</v>
+      </c>
+      <c r="C155" t="s">
+        <v>225</v>
+      </c>
+      <c r="D155"/>
+      <c r="E155" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="F155" s="11">
+        <v>1</v>
+      </c>
+      <c r="G155" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="H155">
+        <f t="shared" ref="H155:H168" si="273">IF(G155="", "", VLOOKUP(G155, $W$3:$X$10, 2))</f>
+        <v>2</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155" s="16" t="str">
+        <f t="shared" ref="M155:M159" si="274">IF(F155="", "", TEXT(DEC2BIN(F155), "000000"))</f>
+        <v>000001</v>
+      </c>
+      <c r="N155" s="17" t="str">
+        <f t="shared" ref="N155:N168" si="275">IF(H155="", "", TEXT(DEC2BIN(H155), "000"))</f>
+        <v>010</v>
+      </c>
+      <c r="O155" s="17" t="str">
+        <f t="shared" ref="O155:O168" si="276">IF(I155="", "", TEXT(DEC2BIN(I155), "000"))</f>
+        <v/>
+      </c>
+      <c r="P155" s="17"/>
+      <c r="Q155" s="17" t="str">
+        <f t="shared" ref="Q155:Q168" si="277">IF(K155="", "", TEXT(DEC2BIN(K155), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="R155" s="18" t="str">
+        <f t="shared" ref="R155:R168" si="278">IF(L155="", "", TEXT(DEC2BIN(L155), "00000000"))</f>
+        <v>00000000</v>
+      </c>
+      <c r="S155" t="str">
+        <f t="shared" ref="S155:S159" si="279">BIN2HEX(LEFT(CONCATENATE(M155,IF(N155="", "000", N155)), 8), 2)</f>
+        <v>05</v>
+      </c>
+      <c r="T155" t="str">
+        <f t="shared" ref="T155:T158" si="280">BIN2HEX(CONCATENATE(RIGHT(N155, 1), IF(O155 = "", "000", O155), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="U155" s="13" t="str">
+        <f t="shared" ref="U155:U159" si="281">IF(Q155="", BIN2HEX(R155, 2), BIN2HEX(Q155,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>6</v>
+      </c>
+      <c r="B156" t="str">
+        <f t="shared" si="266"/>
+        <v>0x006</v>
+      </c>
+      <c r="C156" t="s">
+        <v>226</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F156" s="11">
+        <v>1</v>
+      </c>
+      <c r="G156" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="273"/>
+        <v>3</v>
+      </c>
+      <c r="L156">
+        <v>48</v>
+      </c>
+      <c r="M156" s="16" t="str">
+        <f t="shared" si="274"/>
+        <v>000001</v>
+      </c>
+      <c r="N156" s="17" t="str">
+        <f t="shared" si="275"/>
+        <v>011</v>
+      </c>
+      <c r="O156" s="17" t="str">
+        <f t="shared" si="276"/>
+        <v/>
+      </c>
+      <c r="P156" s="17"/>
+      <c r="Q156" s="17" t="str">
+        <f t="shared" si="277"/>
+        <v/>
+      </c>
+      <c r="R156" s="18" t="str">
+        <f t="shared" si="278"/>
+        <v>00110000</v>
+      </c>
+      <c r="S156" t="str">
+        <f t="shared" si="279"/>
+        <v>05</v>
+      </c>
+      <c r="T156" t="str">
+        <f t="shared" si="280"/>
+        <v>80</v>
+      </c>
+      <c r="U156" s="13" t="str">
+        <f t="shared" si="281"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>9</v>
+      </c>
+      <c r="B157" t="str">
+        <f t="shared" si="266"/>
+        <v>0x009</v>
+      </c>
+      <c r="C157" t="s">
+        <v>272</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="F157" s="11">
+        <v>1</v>
+      </c>
+      <c r="G157" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="273"/>
+        <v>7</v>
+      </c>
+      <c r="L157">
+        <v>112</v>
+      </c>
+      <c r="M157" s="16" t="str">
+        <f t="shared" si="274"/>
+        <v>000001</v>
+      </c>
+      <c r="N157" s="17" t="str">
+        <f t="shared" si="275"/>
+        <v>111</v>
+      </c>
+      <c r="O157" s="17" t="str">
+        <f t="shared" si="276"/>
+        <v/>
+      </c>
+      <c r="P157" s="17"/>
+      <c r="Q157" s="17" t="str">
+        <f t="shared" si="277"/>
+        <v/>
+      </c>
+      <c r="R157" s="18" t="str">
+        <f t="shared" si="278"/>
+        <v>01110000</v>
+      </c>
+      <c r="S157" t="str">
+        <f t="shared" si="279"/>
+        <v>07</v>
+      </c>
+      <c r="T157" t="str">
+        <f t="shared" si="280"/>
+        <v>80</v>
+      </c>
+      <c r="U157" s="13" t="str">
+        <f t="shared" si="281"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>12</v>
+      </c>
+      <c r="B158" t="str">
+        <f t="shared" si="266"/>
+        <v>0x00C</v>
+      </c>
+      <c r="C158" t="s">
+        <v>222</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F158" s="11">
+        <v>4</v>
+      </c>
+      <c r="G158" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="M158" s="16" t="str">
+        <f t="shared" si="274"/>
+        <v>000100</v>
+      </c>
+      <c r="N158" s="17" t="str">
+        <f t="shared" si="275"/>
+        <v>000</v>
+      </c>
+      <c r="O158" s="17" t="str">
+        <f t="shared" si="276"/>
+        <v/>
+      </c>
+      <c r="P158" s="17"/>
+      <c r="Q158" s="17" t="str">
+        <f t="shared" si="277"/>
+        <v/>
+      </c>
+      <c r="R158" s="18" t="str">
+        <f t="shared" si="278"/>
+        <v/>
+      </c>
+      <c r="S158" t="str">
+        <f t="shared" si="279"/>
+        <v>10</v>
+      </c>
+      <c r="T158" t="str">
+        <f t="shared" si="280"/>
+        <v>00</v>
+      </c>
+      <c r="U158" s="13" t="str">
+        <f t="shared" si="281"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>15</v>
+      </c>
+      <c r="B159" t="str">
+        <f t="shared" si="266"/>
+        <v>0x00F</v>
+      </c>
+      <c r="C159" t="s">
+        <v>258</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="F159" s="11">
+        <v>17</v>
+      </c>
+      <c r="G159" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>6</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+      <c r="M159" s="16" t="str">
+        <f t="shared" si="274"/>
+        <v>010001</v>
+      </c>
+      <c r="N159" s="17" t="str">
+        <f t="shared" si="275"/>
+        <v>000</v>
+      </c>
+      <c r="O159" s="17" t="str">
+        <f t="shared" si="276"/>
+        <v>110</v>
+      </c>
+      <c r="P159" s="17" t="str">
+        <f t="shared" ref="P159" si="282">IF(J159="", "", TEXT(DEC2BIN(J159), "000"))</f>
+        <v>001</v>
+      </c>
+      <c r="Q159" s="17" t="str">
+        <f t="shared" si="277"/>
+        <v/>
+      </c>
+      <c r="R159" s="18" t="str">
+        <f t="shared" si="278"/>
+        <v/>
+      </c>
+      <c r="S159" t="str">
+        <f t="shared" si="279"/>
+        <v>44</v>
+      </c>
+      <c r="T159" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(N159, 1), IF(O159 = "", "000", O159), IF(P159 = "", "000", P159), "0"), 2)</f>
+        <v>62</v>
+      </c>
+      <c r="U159" s="13" t="str">
+        <f t="shared" si="281"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>18</v>
+      </c>
+      <c r="B160" t="str">
+        <f t="shared" si="266"/>
+        <v>0x012</v>
+      </c>
+      <c r="C160" t="s">
+        <v>227</v>
+      </c>
+      <c r="E160" s="44"/>
+      <c r="F160" s="11">
+        <v>40</v>
+      </c>
+      <c r="G160" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="273"/>
+        <v>3</v>
+      </c>
+      <c r="M160" s="16" t="str">
+        <f>IF(F160="", "", TEXT(DEC2BIN(F160), "000000"))</f>
+        <v>101000</v>
+      </c>
+      <c r="N160" s="17" t="str">
+        <f t="shared" si="275"/>
+        <v>011</v>
+      </c>
+      <c r="O160" s="17" t="str">
+        <f t="shared" si="276"/>
+        <v/>
+      </c>
+      <c r="P160" s="17"/>
+      <c r="Q160" s="17" t="str">
+        <f t="shared" si="277"/>
+        <v/>
+      </c>
+      <c r="R160" s="18" t="str">
+        <f t="shared" si="278"/>
+        <v/>
+      </c>
+      <c r="S160" t="str">
+        <f>BIN2HEX(LEFT(CONCATENATE(M160,IF(N160="", "000", N160)), 8), 2)</f>
+        <v>A1</v>
+      </c>
+      <c r="T160" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(N160, 1), IF(O160 = "", "000", O160), "0000"), 2)</f>
+        <v>80</v>
+      </c>
+      <c r="U160" s="13" t="str">
+        <f>IF(Q160="", BIN2HEX(R160, 2), BIN2HEX(Q160,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>21</v>
+      </c>
+      <c r="B161" t="str">
+        <f t="shared" si="266"/>
+        <v>0x015</v>
+      </c>
+      <c r="C161" t="s">
+        <v>231</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="F161" s="11">
+        <v>2</v>
+      </c>
+      <c r="G161" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="273"/>
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>3</v>
+      </c>
+      <c r="M161" s="16" t="str">
+        <f t="shared" ref="M161" si="283">IF(F161="", "", TEXT(DEC2BIN(F161), "000000"))</f>
+        <v>000010</v>
+      </c>
+      <c r="N161" s="17" t="str">
+        <f t="shared" si="275"/>
+        <v>001</v>
+      </c>
+      <c r="O161" s="17" t="str">
+        <f t="shared" si="276"/>
+        <v>011</v>
+      </c>
+      <c r="P161" s="17"/>
+      <c r="Q161" s="17" t="str">
+        <f t="shared" si="277"/>
+        <v/>
+      </c>
+      <c r="R161" s="18" t="str">
+        <f t="shared" si="278"/>
+        <v/>
+      </c>
+      <c r="S161" t="str">
+        <f t="shared" ref="S161" si="284">BIN2HEX(LEFT(CONCATENATE(M161,IF(N161="", "000", N161)), 8), 2)</f>
+        <v>08</v>
+      </c>
+      <c r="T161" t="str">
+        <f t="shared" ref="T161" si="285">BIN2HEX(CONCATENATE(RIGHT(N161, 1), IF(O161 = "", "000", O161), "0000"), 2)</f>
+        <v>B0</v>
+      </c>
+      <c r="U161" s="13" t="str">
+        <f t="shared" ref="U161" si="286">IF(Q161="", BIN2HEX(R161, 2), BIN2HEX(Q161,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>24</v>
+      </c>
+      <c r="B162" t="str">
+        <f t="shared" si="266"/>
+        <v>0x018</v>
+      </c>
+      <c r="C162" t="s">
+        <v>228</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F162" s="11">
+        <v>33</v>
+      </c>
+      <c r="G162" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="273"/>
+        <v>3</v>
+      </c>
+      <c r="I162">
+        <v>7</v>
+      </c>
+      <c r="M162" s="16" t="str">
+        <f>IF(F162="", "", TEXT(DEC2BIN(F162), "000000"))</f>
+        <v>100001</v>
+      </c>
+      <c r="N162" s="17" t="str">
+        <f t="shared" si="275"/>
+        <v>011</v>
+      </c>
+      <c r="O162" s="17" t="str">
+        <f t="shared" si="276"/>
+        <v>111</v>
+      </c>
+      <c r="P162" s="17"/>
+      <c r="Q162" s="17" t="str">
+        <f t="shared" si="277"/>
+        <v/>
+      </c>
+      <c r="R162" s="18" t="str">
+        <f t="shared" si="278"/>
+        <v/>
+      </c>
+      <c r="S162" t="str">
+        <f>BIN2HEX(LEFT(CONCATENATE(M162,IF(N162="", "000", N162)), 8), 2)</f>
+        <v>85</v>
+      </c>
+      <c r="T162" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(N162, 1), IF(O162 = "", "000", O162), "0000"), 2)</f>
+        <v>F0</v>
+      </c>
+      <c r="U162" s="13" t="str">
+        <f>IF(Q162="", BIN2HEX(R162, 2), BIN2HEX(Q162,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>27</v>
+      </c>
+      <c r="B163" t="str">
+        <f t="shared" si="266"/>
+        <v>0x01B</v>
+      </c>
+      <c r="C163" t="s">
+        <v>195</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="F163" s="11">
+        <v>6</v>
+      </c>
+      <c r="H163" t="str">
+        <f t="shared" si="273"/>
+        <v/>
+      </c>
+      <c r="K163">
+        <v>24</v>
+      </c>
+      <c r="M163" s="16" t="str">
+        <f>IF(F163="", "", TEXT(DEC2BIN(F163), "000000"))</f>
+        <v>000110</v>
+      </c>
+      <c r="N163" s="17" t="str">
+        <f t="shared" si="275"/>
+        <v/>
+      </c>
+      <c r="O163" s="17" t="str">
+        <f t="shared" si="276"/>
+        <v/>
+      </c>
+      <c r="P163" s="17"/>
+      <c r="Q163" s="17" t="str">
+        <f t="shared" si="277"/>
+        <v>00011000</v>
+      </c>
+      <c r="R163" s="18" t="str">
+        <f t="shared" si="278"/>
+        <v/>
+      </c>
+      <c r="S163" t="str">
+        <f>BIN2HEX(LEFT(CONCATENATE(M163,IF(N163="", "000", N163)), 8), 2)</f>
+        <v>18</v>
+      </c>
+      <c r="T163" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(N163, 1), IF(O163 = "", "000", O163), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="U163" s="13" t="str">
+        <f>IF(Q163="", BIN2HEX(R163, 2), BIN2HEX(Q163,2))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>30</v>
+      </c>
+      <c r="B164" t="str">
+        <f t="shared" si="266"/>
+        <v>0x01E</v>
+      </c>
+      <c r="C164" t="s">
+        <v>233</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F164" s="11">
+        <v>2</v>
+      </c>
+      <c r="G164" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="273"/>
+        <v>3</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="M164" s="16" t="str">
+        <f t="shared" ref="M164:M165" si="287">IF(F164="", "", TEXT(DEC2BIN(F164), "000000"))</f>
+        <v>000010</v>
+      </c>
+      <c r="N164" s="17" t="str">
+        <f t="shared" si="275"/>
+        <v>011</v>
+      </c>
+      <c r="O164" s="17" t="str">
+        <f t="shared" si="276"/>
+        <v>001</v>
+      </c>
+      <c r="P164" s="17"/>
+      <c r="Q164" s="17" t="str">
+        <f t="shared" si="277"/>
+        <v/>
+      </c>
+      <c r="R164" s="18" t="str">
+        <f t="shared" si="278"/>
+        <v/>
+      </c>
+      <c r="S164" t="str">
+        <f t="shared" ref="S164:S167" si="288">BIN2HEX(LEFT(CONCATENATE(M164,IF(N164="", "000", N164)), 8), 2)</f>
+        <v>09</v>
+      </c>
+      <c r="T164" t="str">
+        <f t="shared" ref="T164:T165" si="289">BIN2HEX(CONCATENATE(RIGHT(N164, 1), IF(O164 = "", "000", O164), "0000"), 2)</f>
+        <v>90</v>
+      </c>
+      <c r="U164" s="13" t="str">
+        <f t="shared" ref="U164:U167" si="290">IF(Q164="", BIN2HEX(R164, 2), BIN2HEX(Q164,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>33</v>
+      </c>
+      <c r="B165" t="str">
+        <f t="shared" si="266"/>
+        <v>0x021</v>
+      </c>
+      <c r="C165" t="s">
+        <v>259</v>
+      </c>
+      <c r="E165" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="F165" s="11">
+        <v>2</v>
+      </c>
+      <c r="G165" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="273"/>
+        <v>1</v>
+      </c>
+      <c r="I165">
+        <v>6</v>
+      </c>
+      <c r="M165" s="16" t="str">
+        <f t="shared" si="287"/>
+        <v>000010</v>
+      </c>
+      <c r="N165" s="17" t="str">
+        <f t="shared" si="275"/>
+        <v>001</v>
+      </c>
+      <c r="O165" s="17" t="str">
+        <f t="shared" si="276"/>
+        <v>110</v>
+      </c>
+      <c r="P165" s="17"/>
+      <c r="Q165" s="17" t="str">
+        <f t="shared" si="277"/>
+        <v/>
+      </c>
+      <c r="R165" s="18" t="str">
+        <f t="shared" si="278"/>
+        <v/>
+      </c>
+      <c r="S165" t="str">
+        <f t="shared" si="288"/>
+        <v>08</v>
+      </c>
+      <c r="T165" t="str">
+        <f t="shared" si="289"/>
+        <v>E0</v>
+      </c>
+      <c r="U165" s="13" t="str">
+        <f t="shared" si="290"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>36</v>
+      </c>
+      <c r="B166" t="str">
+        <f t="shared" si="266"/>
+        <v>0x024</v>
+      </c>
+      <c r="C166" t="s">
+        <v>236</v>
+      </c>
+      <c r="E166" s="51"/>
+      <c r="F166" s="11">
+        <v>40</v>
+      </c>
+      <c r="G166" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="273"/>
+        <v>1</v>
+      </c>
+      <c r="M166" s="16" t="str">
+        <f>IF(F166="", "", TEXT(DEC2BIN(F166), "000000"))</f>
+        <v>101000</v>
+      </c>
+      <c r="N166" s="17" t="str">
+        <f>IF(H166="", "", TEXT(DEC2BIN(H166), "000"))</f>
+        <v>001</v>
+      </c>
+      <c r="O166" s="17" t="str">
+        <f>IF(I166="", "", TEXT(DEC2BIN(I166), "000"))</f>
+        <v/>
+      </c>
+      <c r="P166" s="17"/>
+      <c r="Q166" s="17" t="str">
+        <f>IF(K166="", "", TEXT(DEC2BIN(K166), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="R166" s="18" t="str">
+        <f>IF(L166="", "", TEXT(DEC2BIN(L166), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="S166" t="str">
+        <f t="shared" si="288"/>
+        <v>A0</v>
+      </c>
+      <c r="T166" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(N166, 1), IF(O166 = "", "000", O166), "0000"), 2)</f>
+        <v>80</v>
+      </c>
+      <c r="U166" s="13" t="str">
+        <f t="shared" si="290"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>39</v>
+      </c>
+      <c r="B167" t="str">
+        <f t="shared" si="266"/>
+        <v>0x027</v>
+      </c>
+      <c r="C167" t="s">
+        <v>260</v>
+      </c>
+      <c r="E167" s="51"/>
+      <c r="F167" s="11">
+        <v>2</v>
+      </c>
+      <c r="G167" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="273"/>
+        <v>6</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="M167" s="16" t="str">
+        <f t="shared" ref="M167" si="291">IF(F167="", "", TEXT(DEC2BIN(F167), "000000"))</f>
+        <v>000010</v>
+      </c>
+      <c r="N167" s="17" t="str">
+        <f t="shared" ref="N167" si="292">IF(H167="", "", TEXT(DEC2BIN(H167), "000"))</f>
+        <v>110</v>
+      </c>
+      <c r="O167" s="17" t="str">
+        <f t="shared" ref="O167" si="293">IF(I167="", "", TEXT(DEC2BIN(I167), "000"))</f>
+        <v>001</v>
+      </c>
+      <c r="P167" s="17"/>
+      <c r="Q167" s="17" t="str">
+        <f t="shared" ref="Q167" si="294">IF(K167="", "", TEXT(DEC2BIN(K167), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="R167" s="18" t="str">
+        <f t="shared" ref="R167" si="295">IF(L167="", "", TEXT(DEC2BIN(L167), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="S167" t="str">
+        <f t="shared" si="288"/>
+        <v>0B</v>
+      </c>
+      <c r="T167" t="str">
+        <f t="shared" ref="T167" si="296">BIN2HEX(CONCATENATE(RIGHT(N167, 1), IF(O167 = "", "000", O167), "0000"), 2)</f>
+        <v>10</v>
+      </c>
+      <c r="U167" s="13" t="str">
+        <f t="shared" si="290"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>42</v>
+      </c>
+      <c r="B168" t="str">
+        <f t="shared" si="266"/>
+        <v>0x02A</v>
+      </c>
+      <c r="C168" t="s">
+        <v>82</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F168" s="11">
+        <v>5</v>
+      </c>
+      <c r="H168" t="str">
+        <f t="shared" si="273"/>
+        <v/>
+      </c>
+      <c r="K168">
+        <v>9</v>
+      </c>
+      <c r="M168" s="16" t="str">
+        <f>IF(F168="", "", TEXT(DEC2BIN(F168), "000000"))</f>
+        <v>000101</v>
+      </c>
+      <c r="N168" s="17" t="str">
+        <f t="shared" si="275"/>
+        <v/>
+      </c>
+      <c r="O168" s="17" t="str">
+        <f t="shared" si="276"/>
+        <v/>
+      </c>
+      <c r="P168" s="17"/>
+      <c r="Q168" s="17" t="str">
+        <f t="shared" si="277"/>
+        <v>00001001</v>
+      </c>
+      <c r="R168" s="18" t="str">
+        <f t="shared" si="278"/>
+        <v/>
+      </c>
+      <c r="S168" t="str">
+        <f>BIN2HEX(LEFT(CONCATENATE(M168,IF(N168="", "000", N168)), 8), 2)</f>
+        <v>14</v>
+      </c>
+      <c r="T168" t="str">
+        <f>BIN2HEX(CONCATENATE(RIGHT(N168, 1), IF(O168 = "", "000", O168), "0000"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="U168" s="13" t="str">
+        <f>IF(Q168="", BIN2HEX(R168, 2), BIN2HEX(Q168,2))</f>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E169" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>48</v>
+      </c>
+      <c r="B170" t="str">
+        <f t="shared" ref="B170:B173" si="297">"0x" &amp; DEC2HEX(A170,3)</f>
+        <v>0x030</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>51</v>
+      </c>
+      <c r="B171" t="str">
+        <f t="shared" si="297"/>
+        <v>0x033</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>54</v>
+      </c>
+      <c r="B172" t="str">
+        <f t="shared" si="297"/>
+        <v>0x036</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>57</v>
+      </c>
+      <c r="B173" t="str">
+        <f t="shared" si="297"/>
+        <v>0x039</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>60</v>
+      </c>
+      <c r="B174" t="str">
+        <f t="shared" ref="B174:B181" si="298">"0x" &amp; DEC2HEX(A174,3)</f>
+        <v>0x03C</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>63</v>
+      </c>
+      <c r="B175" t="str">
+        <f t="shared" si="298"/>
+        <v>0x03F</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>66</v>
+      </c>
+      <c r="B176" t="str">
+        <f t="shared" si="298"/>
+        <v>0x042</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>69</v>
+      </c>
+      <c r="B177" t="str">
+        <f t="shared" si="298"/>
+        <v>0x045</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>72</v>
+      </c>
+      <c r="B178" t="str">
+        <f t="shared" si="298"/>
+        <v>0x048</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>75</v>
+      </c>
+      <c r="B179" t="str">
+        <f t="shared" si="298"/>
+        <v>0x04B</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>78</v>
+      </c>
+      <c r="B180" t="str">
+        <f t="shared" si="298"/>
+        <v>0x04E</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>81</v>
+      </c>
+      <c r="B181" t="str">
+        <f t="shared" si="298"/>
+        <v>0x051</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>84</v>
+      </c>
+      <c r="B182" t="str">
+        <f t="shared" ref="B182:B191" si="299">"0x" &amp; DEC2HEX(A182,3)</f>
+        <v>0x054</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>87</v>
+      </c>
+      <c r="B183" t="str">
+        <f t="shared" si="299"/>
+        <v>0x057</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>90</v>
+      </c>
+      <c r="B184" t="str">
+        <f t="shared" si="299"/>
+        <v>0x05A</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>93</v>
+      </c>
+      <c r="B185" t="str">
+        <f t="shared" si="299"/>
+        <v>0x05D</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>96</v>
+      </c>
+      <c r="B186" t="str">
+        <f t="shared" si="299"/>
+        <v>0x060</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>99</v>
+      </c>
+      <c r="B187" t="str">
+        <f t="shared" si="299"/>
+        <v>0x063</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>102</v>
+      </c>
+      <c r="B188" t="str">
+        <f t="shared" si="299"/>
+        <v>0x066</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>105</v>
+      </c>
+      <c r="B189" t="str">
+        <f t="shared" si="299"/>
+        <v>0x069</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>108</v>
+      </c>
+      <c r="B190" t="str">
+        <f t="shared" si="299"/>
+        <v>0x06C</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>111</v>
+      </c>
+      <c r="B191" t="str">
+        <f t="shared" si="299"/>
+        <v>0x06F</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="W16:X18">
     <sortCondition ref="W13"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="E129:E131"/>
+    <mergeCell ref="E165:E167"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y17">
       <formula1>$W$16:$W$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G6 G9:G11 G17:G26 G31:G33 G41:G42 G49 G83:G93 G117:G132 G102:G112 G144 G141:G143 G145:G149">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G6 G9:G11 G17:G26 G31:G33 G41:G42 G49 G83:G93 G117:G132 G102:G112 G141:G149 G154:G168">
       <formula1>$W$3:$W$10</formula1>
     </dataValidation>
   </dataValidations>

--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="288" windowWidth="14808" windowHeight="7836" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Control Lines" sheetId="1" r:id="rId1"/>
     <sheet name="Some instructions for test" sheetId="2" r:id="rId2"/>
     <sheet name="Test Programs" sheetId="3" r:id="rId3"/>
+    <sheet name="Animations" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
@@ -22,7 +23,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="C20" authorId="0">
+    <comment ref="C20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +52,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="275">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -906,12 +907,18 @@
   </si>
   <si>
     <t>LD F, 0x70</t>
+  </si>
+  <si>
+    <t>SUB B, F</t>
+  </si>
+  <si>
+    <t>Frame #</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1022,7 +1029,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1107,11 +1114,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1214,6 +1230,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1234,7 +1254,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1272,9 +1292,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1307,9 +1327,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1342,9 +1379,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1525,21 +1579,21 @@
       <selection pane="bottomLeft" activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="3.28515625" customWidth="1"/>
-    <col min="18" max="19" width="3.28515625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="3.28515625" customWidth="1"/>
-    <col min="21" max="21" width="3.28515625" style="41" customWidth="1"/>
-    <col min="22" max="27" width="3.28515625" customWidth="1"/>
-    <col min="28" max="30" width="5.85546875" customWidth="1"/>
+    <col min="4" max="17" width="3.33203125" customWidth="1"/>
+    <col min="18" max="19" width="3.33203125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="3.33203125" customWidth="1"/>
+    <col min="21" max="21" width="3.33203125" style="41" customWidth="1"/>
+    <col min="22" max="27" width="3.33203125" customWidth="1"/>
+    <col min="28" max="30" width="5.88671875" customWidth="1"/>
     <col min="31" max="31" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="D1">
         <v>23</v>
       </c>
@@ -1613,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="1" customFormat="1" ht="130.15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" s="1" customFormat="1" ht="129" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>205</v>
       </c>
@@ -1701,7 +1755,7 @@
       <c r="AC2" s="47"/>
       <c r="AD2" s="47"/>
     </row>
-    <row r="3" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1805,7 +1859,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1905,7 +1959,7 @@
         <v>C00000</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2005,7 +2059,7 @@
         <v>600400</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2105,7 +2159,7 @@
         <v>5E0000</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2205,7 +2259,7 @@
         <v>4F0000</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2305,7 +2359,7 @@
         <v>004000</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2405,7 +2459,7 @@
         <v>006000</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33">
         <v>7</v>
       </c>
@@ -2505,7 +2559,7 @@
         <v>004200</v>
       </c>
     </row>
-    <row r="11" spans="1:39" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33">
         <v>8</v>
       </c>
@@ -2605,7 +2659,7 @@
         <v>006200</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
         <v>9</v>
       </c>
@@ -2677,7 +2731,7 @@
         <v>000100</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2780,7 +2834,7 @@
         <v>181800</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -2880,7 +2934,7 @@
         <v>091800</v>
       </c>
     </row>
-    <row r="15" spans="1:39" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33">
         <v>12</v>
       </c>
@@ -2931,7 +2985,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="16" spans="1:39" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33">
         <v>13</v>
       </c>
@@ -2982,7 +3036,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="33">
         <v>14</v>
       </c>
@@ -3033,7 +3087,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33">
         <v>15</v>
       </c>
@@ -3084,7 +3138,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="33">
         <v>16</v>
       </c>
@@ -3127,7 +3181,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -3233,7 +3287,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -3266,7 +3320,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -3299,7 +3353,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -3332,7 +3386,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -3365,7 +3419,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -3398,7 +3452,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -3431,7 +3485,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -3464,7 +3518,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -3497,7 +3551,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -3530,7 +3584,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -3563,7 +3617,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -3596,7 +3650,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -3629,7 +3683,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -3662,7 +3716,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -3695,7 +3749,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -3798,7 +3852,7 @@
         <v>408825</v>
       </c>
     </row>
-    <row r="36" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -3901,7 +3955,7 @@
         <v>408818</v>
       </c>
     </row>
-    <row r="37" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -4004,7 +4058,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -4104,7 +4158,7 @@
         <v>40882E</v>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -4204,7 +4258,7 @@
         <v>40883A</v>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -4304,7 +4358,7 @@
         <v>40881A</v>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -4404,7 +4458,7 @@
         <v>408806</v>
       </c>
     </row>
-    <row r="42" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -4504,7 +4558,7 @@
         <v>408826</v>
       </c>
     </row>
-    <row r="43" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -4604,7 +4658,7 @@
         <v>408800</v>
       </c>
     </row>
-    <row r="44" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -4704,7 +4758,7 @@
         <v>40883D</v>
       </c>
     </row>
-    <row r="46" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C46" s="3" t="s">
         <v>22</v>
       </c>
@@ -4712,7 +4766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C47" s="5" t="s">
         <v>30</v>
       </c>
@@ -4720,7 +4774,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>53</v>
       </c>
@@ -4728,7 +4782,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>62</v>
       </c>
@@ -4736,7 +4790,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>47</v>
       </c>
@@ -4744,7 +4798,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52" s="1" t="s">
@@ -4756,7 +4810,7 @@
       <c r="R52"/>
       <c r="S52"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53" s="1" t="s">
@@ -4768,7 +4822,7 @@
       <c r="R53"/>
       <c r="S53"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54" s="1" t="s">
@@ -4798,10 +4852,10 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="7"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.109375" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -4949,33 +5003,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z191"/>
+  <dimension ref="A1:Z190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M181" sqref="M181"/>
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L174" sqref="L174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" style="16" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="2"/>
-    <col min="16" max="16" width="8.85546875" style="2"/>
-    <col min="17" max="17" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" style="16" customWidth="1"/>
+    <col min="14" max="15" width="9.109375" style="2"/>
+    <col min="16" max="16" width="8.88671875" style="2"/>
+    <col min="17" max="17" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.44140625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
@@ -5028,7 +5082,7 @@
       <c r="U1" s="50"/>
       <c r="V1" s="10"/>
     </row>
-    <row r="2" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="8" t="s">
@@ -5042,7 +5096,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -5107,7 +5161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5174,7 +5228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6</v>
       </c>
@@ -5239,7 +5293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9</v>
       </c>
@@ -5301,7 +5355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E7" s="8"/>
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
@@ -5314,7 +5368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C8" s="8" t="s">
         <v>214</v>
       </c>
@@ -5326,7 +5380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -5391,7 +5445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -5452,7 +5506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -5507,7 +5561,7 @@
         <v>03</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C16" s="8" t="s">
         <v>217</v>
       </c>
@@ -5518,7 +5572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
@@ -5589,7 +5643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5653,7 +5707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
@@ -5708,7 +5762,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>9</v>
       </c>
@@ -5766,7 +5820,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12</v>
       </c>
@@ -5822,48 +5876,48 @@
         <v>06</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E22" s="39"/>
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
       <c r="P22" s="17"/>
       <c r="Q22" s="17"/>
     </row>
-    <row r="23" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E23" s="39"/>
       <c r="N23" s="17"/>
       <c r="O23" s="17"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="17"/>
     </row>
-    <row r="24" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E24" s="39"/>
       <c r="N24" s="17"/>
       <c r="O24" s="17"/>
       <c r="P24" s="17"/>
       <c r="Q24" s="17"/>
     </row>
-    <row r="25" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E25" s="39"/>
       <c r="N25" s="17"/>
       <c r="O25" s="17"/>
       <c r="P25" s="17"/>
       <c r="Q25" s="17"/>
     </row>
-    <row r="26" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N26" s="17"/>
       <c r="O26" s="17"/>
       <c r="P26" s="17"/>
       <c r="Q26" s="17"/>
     </row>
-    <row r="30" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
@@ -5921,7 +5975,7 @@
         <v>01</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -5979,7 +6033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -6037,7 +6091,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>9</v>
       </c>
@@ -6088,7 +6142,7 @@
         <v>0F</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>12</v>
       </c>
@@ -6139,7 +6193,7 @@
         <v>06</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>15</v>
       </c>
@@ -6190,12 +6244,12 @@
         <v>0F</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C40" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
@@ -6253,7 +6307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
@@ -6311,7 +6365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>6</v>
       </c>
@@ -6362,7 +6416,7 @@
         <v>06</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>16</v>
       </c>
@@ -6377,15 +6431,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C46" s="38"/>
     </row>
-    <row r="48" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C48" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0</v>
       </c>
@@ -6446,7 +6500,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3</v>
       </c>
@@ -6500,18 +6554,18 @@
         <v>00</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="N51" s="17"/>
       <c r="O51" s="17"/>
       <c r="P51" s="17"/>
       <c r="Q51" s="17"/>
     </row>
-    <row r="55" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C55" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0</v>
       </c>
@@ -6530,7 +6584,7 @@
       </c>
       <c r="F56" s="43"/>
     </row>
-    <row r="57" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
@@ -6546,7 +6600,7 @@
       </c>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>6</v>
       </c>
@@ -6564,7 +6618,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>9</v>
       </c>
@@ -6580,7 +6634,7 @@
       </c>
       <c r="E59" s="8"/>
     </row>
-    <row r="60" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>12</v>
       </c>
@@ -6598,7 +6652,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>15</v>
       </c>
@@ -6614,7 +6668,7 @@
       </c>
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>18</v>
       </c>
@@ -6632,7 +6686,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>21</v>
       </c>
@@ -6648,7 +6702,7 @@
       </c>
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>24</v>
       </c>
@@ -6666,7 +6720,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>27</v>
       </c>
@@ -6682,7 +6736,7 @@
       </c>
       <c r="E65" s="8"/>
     </row>
-    <row r="66" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>30</v>
       </c>
@@ -6700,7 +6754,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>33</v>
       </c>
@@ -6716,7 +6770,7 @@
       </c>
       <c r="E67" s="8"/>
     </row>
-    <row r="68" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>36</v>
       </c>
@@ -6734,7 +6788,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>39</v>
       </c>
@@ -6750,7 +6804,7 @@
       </c>
       <c r="E69" s="8"/>
     </row>
-    <row r="70" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>42</v>
       </c>
@@ -6768,7 +6822,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>45</v>
       </c>
@@ -6784,7 +6838,7 @@
       </c>
       <c r="E71" s="8"/>
     </row>
-    <row r="72" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>48</v>
       </c>
@@ -6802,7 +6856,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>51</v>
       </c>
@@ -6818,7 +6872,7 @@
       </c>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>54</v>
       </c>
@@ -6836,7 +6890,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>57</v>
       </c>
@@ -6852,7 +6906,7 @@
       </c>
       <c r="E75" s="8"/>
     </row>
-    <row r="76" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>60</v>
       </c>
@@ -6870,7 +6924,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>63</v>
       </c>
@@ -6886,7 +6940,7 @@
       </c>
       <c r="E77" s="8"/>
     </row>
-    <row r="78" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>66</v>
       </c>
@@ -6904,7 +6958,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>69</v>
       </c>
@@ -6920,21 +6974,21 @@
       </c>
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E80" s="8"/>
     </row>
-    <row r="81" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D81"/>
       <c r="E81" s="8"/>
     </row>
-    <row r="82" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C82" s="8" t="s">
         <v>139</v>
       </c>
       <c r="D82"/>
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>0</v>
       </c>
@@ -6996,7 +7050,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>3</v>
       </c>
@@ -7057,7 +7111,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>6</v>
       </c>
@@ -7118,7 +7172,7 @@
         <v>3C</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>9</v>
       </c>
@@ -7176,7 +7230,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>12</v>
       </c>
@@ -7238,7 +7292,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>15</v>
       </c>
@@ -7294,7 +7348,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>18</v>
       </c>
@@ -7355,7 +7409,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>21</v>
       </c>
@@ -7416,7 +7470,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>24</v>
       </c>
@@ -7474,7 +7528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>27</v>
       </c>
@@ -7535,7 +7589,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>30</v>
       </c>
@@ -7598,7 +7652,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>48</v>
       </c>
@@ -7613,7 +7667,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>51</v>
       </c>
@@ -7628,7 +7682,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>54</v>
       </c>
@@ -7643,7 +7697,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>57</v>
       </c>
@@ -7658,25 +7712,25 @@
         <v>159</v>
       </c>
     </row>
-    <row r="99" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C99" s="5"/>
       <c r="E99" s="8"/>
     </row>
-    <row r="100" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C100" s="5" t="s">
         <v>256</v>
       </c>
       <c r="D100"/>
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C101" s="8" t="s">
         <v>140</v>
       </c>
       <c r="D101"/>
       <c r="E101" s="8"/>
     </row>
-    <row r="102" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>0</v>
       </c>
@@ -7740,7 +7794,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>3</v>
       </c>
@@ -7804,7 +7858,7 @@
         <v>FF</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>6</v>
       </c>
@@ -7865,7 +7919,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>9</v>
       </c>
@@ -7923,7 +7977,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>12</v>
       </c>
@@ -7982,7 +8036,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>15</v>
       </c>
@@ -8046,7 +8100,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>18</v>
       </c>
@@ -8110,7 +8164,7 @@
         <v>3A</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>21</v>
       </c>
@@ -8172,7 +8226,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="110" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>24</v>
       </c>
@@ -8233,7 +8287,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="111" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>27</v>
       </c>
@@ -8295,7 +8349,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="112" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>30</v>
       </c>
@@ -8356,12 +8410,12 @@
         <v>06</v>
       </c>
     </row>
-    <row r="116" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C116" s="8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="117" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>0</v>
       </c>
@@ -8422,7 +8476,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>3</v>
       </c>
@@ -8483,7 +8537,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>6</v>
       </c>
@@ -8544,7 +8598,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="120" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>9</v>
       </c>
@@ -8605,7 +8659,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="121" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>12</v>
       </c>
@@ -8664,7 +8718,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="122" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>15</v>
       </c>
@@ -8722,7 +8776,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>18</v>
       </c>
@@ -8781,7 +8835,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="124" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>21</v>
       </c>
@@ -8839,7 +8893,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="125" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>24</v>
       </c>
@@ -8895,7 +8949,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="126" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>27</v>
       </c>
@@ -8956,7 +9010,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>30</v>
       </c>
@@ -9017,7 +9071,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="128" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>33</v>
       </c>
@@ -9075,7 +9129,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>36</v>
       </c>
@@ -9136,7 +9190,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>39</v>
       </c>
@@ -9192,7 +9246,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>42</v>
       </c>
@@ -9251,7 +9305,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="132" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>45</v>
       </c>
@@ -9309,12 +9363,12 @@
         <v>0C</v>
       </c>
     </row>
-    <row r="133" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E133" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="134" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>48</v>
       </c>
@@ -9326,7 +9380,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>51</v>
       </c>
@@ -9338,7 +9392,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="136" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>54</v>
       </c>
@@ -9350,12 +9404,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C140" s="8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="141" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>0</v>
       </c>
@@ -9417,7 +9471,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="142" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>3</v>
       </c>
@@ -9479,7 +9533,7 @@
         <v>FF</v>
       </c>
     </row>
-    <row r="143" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>6</v>
       </c>
@@ -9541,7 +9595,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="144" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C144" t="s">
         <v>261</v>
       </c>
@@ -9599,7 +9653,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="145" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C145" t="s">
         <v>258</v>
       </c>
@@ -9657,7 +9711,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="146" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C146" t="s">
         <v>259</v>
       </c>
@@ -9709,7 +9763,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="147" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C147" t="s">
         <v>236</v>
       </c>
@@ -9758,7 +9812,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="148" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C148" t="s">
         <v>260</v>
       </c>
@@ -9810,7 +9864,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C149" t="s">
         <v>82</v>
       </c>
@@ -9861,22 +9915,22 @@
         <v>09</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C151" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C153" s="8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="154" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>0</v>
       </c>
       <c r="B154" t="str">
-        <f t="shared" ref="B154:B168" si="266">"0x" &amp; DEC2HEX(A154,3)</f>
+        <f t="shared" ref="B154:B167" si="266">"0x" &amp; DEC2HEX(A154,3)</f>
         <v>0x000</v>
       </c>
       <c r="C154" t="s">
@@ -9933,7 +9987,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>3</v>
       </c>
@@ -9955,7 +10009,7 @@
         <v>194</v>
       </c>
       <c r="H155">
-        <f t="shared" ref="H155:H168" si="273">IF(G155="", "", VLOOKUP(G155, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H155:H167" si="273">IF(G155="", "", VLOOKUP(G155, $W$3:$X$10, 2))</f>
         <v>2</v>
       </c>
       <c r="L155">
@@ -9966,20 +10020,20 @@
         <v>000001</v>
       </c>
       <c r="N155" s="17" t="str">
-        <f t="shared" ref="N155:N168" si="275">IF(H155="", "", TEXT(DEC2BIN(H155), "000"))</f>
+        <f t="shared" ref="N155:N167" si="275">IF(H155="", "", TEXT(DEC2BIN(H155), "000"))</f>
         <v>010</v>
       </c>
       <c r="O155" s="17" t="str">
-        <f t="shared" ref="O155:O168" si="276">IF(I155="", "", TEXT(DEC2BIN(I155), "000"))</f>
+        <f t="shared" ref="O155:O167" si="276">IF(I155="", "", TEXT(DEC2BIN(I155), "000"))</f>
         <v/>
       </c>
       <c r="P155" s="17"/>
       <c r="Q155" s="17" t="str">
-        <f t="shared" ref="Q155:Q168" si="277">IF(K155="", "", TEXT(DEC2BIN(K155), "00000000"))</f>
+        <f t="shared" ref="Q155:Q167" si="277">IF(K155="", "", TEXT(DEC2BIN(K155), "00000000"))</f>
         <v/>
       </c>
       <c r="R155" s="18" t="str">
-        <f t="shared" ref="R155:R168" si="278">IF(L155="", "", TEXT(DEC2BIN(L155), "00000000"))</f>
+        <f t="shared" ref="R155:R167" si="278">IF(L155="", "", TEXT(DEC2BIN(L155), "00000000"))</f>
         <v>00000000</v>
       </c>
       <c r="S155" t="str">
@@ -9995,7 +10049,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>6</v>
       </c>
@@ -10056,7 +10110,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>9</v>
       </c>
@@ -10117,7 +10171,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>12</v>
       </c>
@@ -10175,7 +10229,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>15</v>
       </c>
@@ -10242,7 +10296,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>18</v>
       </c>
@@ -10298,7 +10352,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>21</v>
       </c>
@@ -10309,9 +10363,7 @@
       <c r="C161" t="s">
         <v>231</v>
       </c>
-      <c r="E161" s="8" t="s">
-        <v>232</v>
-      </c>
+      <c r="E161" s="8"/>
       <c r="F161" s="11">
         <v>2</v>
       </c>
@@ -10359,7 +10411,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>24</v>
       </c>
@@ -10368,7 +10420,7 @@
         <v>0x018</v>
       </c>
       <c r="C162" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="E162" s="8" t="s">
         <v>160</v>
@@ -10377,11 +10429,11 @@
         <v>33</v>
       </c>
       <c r="G162" s="12" t="s">
-        <v>216</v>
+        <v>39</v>
       </c>
       <c r="H162">
         <f t="shared" si="273"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I162">
         <v>7</v>
@@ -10392,7 +10444,7 @@
       </c>
       <c r="N162" s="17" t="str">
         <f t="shared" si="275"/>
-        <v>011</v>
+        <v>001</v>
       </c>
       <c r="O162" s="17" t="str">
         <f t="shared" si="276"/>
@@ -10409,7 +10461,7 @@
       </c>
       <c r="S162" t="str">
         <f>BIN2HEX(LEFT(CONCATENATE(M162,IF(N162="", "000", N162)), 8), 2)</f>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T162" t="str">
         <f>BIN2HEX(CONCATENATE(RIGHT(N162, 1), IF(O162 = "", "000", O162), "0000"), 2)</f>
@@ -10420,7 +10472,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>27</v>
       </c>
@@ -10442,7 +10494,7 @@
         <v/>
       </c>
       <c r="K163">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="M163" s="16" t="str">
         <f>IF(F163="", "", TEXT(DEC2BIN(F163), "000000"))</f>
@@ -10459,7 +10511,7 @@
       <c r="P163" s="17"/>
       <c r="Q163" s="17" t="str">
         <f t="shared" si="277"/>
-        <v>00011000</v>
+        <v>00000000</v>
       </c>
       <c r="R163" s="18" t="str">
         <f t="shared" si="278"/>
@@ -10475,10 +10527,10 @@
       </c>
       <c r="U163" s="13" t="str">
         <f>IF(Q163="", BIN2HEX(R163, 2), BIN2HEX(Q163,2))</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+        <v>00</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>30</v>
       </c>
@@ -10487,35 +10539,35 @@
         <v>0x01E</v>
       </c>
       <c r="C164" t="s">
-        <v>233</v>
-      </c>
-      <c r="E164" s="8" t="s">
-        <v>234</v>
+        <v>259</v>
+      </c>
+      <c r="E164" s="51" t="s">
+        <v>245</v>
       </c>
       <c r="F164" s="11">
         <v>2</v>
       </c>
       <c r="G164" s="12" t="s">
-        <v>216</v>
+        <v>39</v>
       </c>
       <c r="H164">
         <f t="shared" si="273"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M164" s="16" t="str">
-        <f t="shared" ref="M164:M165" si="287">IF(F164="", "", TEXT(DEC2BIN(F164), "000000"))</f>
+        <f t="shared" ref="M164" si="287">IF(F164="", "", TEXT(DEC2BIN(F164), "000000"))</f>
         <v>000010</v>
       </c>
       <c r="N164" s="17" t="str">
         <f t="shared" si="275"/>
-        <v>011</v>
+        <v>001</v>
       </c>
       <c r="O164" s="17" t="str">
         <f t="shared" si="276"/>
-        <v>001</v>
+        <v>110</v>
       </c>
       <c r="P164" s="17"/>
       <c r="Q164" s="17" t="str">
@@ -10527,19 +10579,19 @@
         <v/>
       </c>
       <c r="S164" t="str">
-        <f t="shared" ref="S164:S167" si="288">BIN2HEX(LEFT(CONCATENATE(M164,IF(N164="", "000", N164)), 8), 2)</f>
-        <v>09</v>
+        <f t="shared" ref="S164:S166" si="288">BIN2HEX(LEFT(CONCATENATE(M164,IF(N164="", "000", N164)), 8), 2)</f>
+        <v>08</v>
       </c>
       <c r="T164" t="str">
-        <f t="shared" ref="T164:T165" si="289">BIN2HEX(CONCATENATE(RIGHT(N164, 1), IF(O164 = "", "000", O164), "0000"), 2)</f>
-        <v>90</v>
+        <f t="shared" ref="T164" si="289">BIN2HEX(CONCATENATE(RIGHT(N164, 1), IF(O164 = "", "000", O164), "0000"), 2)</f>
+        <v>E0</v>
       </c>
       <c r="U164" s="13" t="str">
-        <f t="shared" ref="U164:U167" si="290">IF(Q164="", BIN2HEX(R164, 2), BIN2HEX(Q164,2))</f>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ref="U164:U166" si="290">IF(Q164="", BIN2HEX(R164, 2), BIN2HEX(Q164,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>33</v>
       </c>
@@ -10548,13 +10600,11 @@
         <v>0x021</v>
       </c>
       <c r="C165" t="s">
-        <v>259</v>
-      </c>
-      <c r="E165" s="51" t="s">
-        <v>245</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="E165" s="51"/>
       <c r="F165" s="11">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="G165" s="12" t="s">
         <v>39</v>
@@ -10563,44 +10613,41 @@
         <f t="shared" si="273"/>
         <v>1</v>
       </c>
-      <c r="I165">
-        <v>6</v>
-      </c>
       <c r="M165" s="16" t="str">
-        <f t="shared" si="287"/>
-        <v>000010</v>
+        <f>IF(F165="", "", TEXT(DEC2BIN(F165), "000000"))</f>
+        <v>101000</v>
       </c>
       <c r="N165" s="17" t="str">
-        <f t="shared" si="275"/>
+        <f>IF(H165="", "", TEXT(DEC2BIN(H165), "000"))</f>
         <v>001</v>
       </c>
       <c r="O165" s="17" t="str">
-        <f t="shared" si="276"/>
-        <v>110</v>
+        <f>IF(I165="", "", TEXT(DEC2BIN(I165), "000"))</f>
+        <v/>
       </c>
       <c r="P165" s="17"/>
       <c r="Q165" s="17" t="str">
-        <f t="shared" si="277"/>
+        <f>IF(K165="", "", TEXT(DEC2BIN(K165), "00000000"))</f>
         <v/>
       </c>
       <c r="R165" s="18" t="str">
-        <f t="shared" si="278"/>
+        <f>IF(L165="", "", TEXT(DEC2BIN(L165), "00000000"))</f>
         <v/>
       </c>
       <c r="S165" t="str">
         <f t="shared" si="288"/>
-        <v>08</v>
+        <v>A0</v>
       </c>
       <c r="T165" t="str">
-        <f t="shared" si="289"/>
-        <v>E0</v>
+        <f>BIN2HEX(CONCATENATE(RIGHT(N165, 1), IF(O165 = "", "000", O165), "0000"), 2)</f>
+        <v>80</v>
       </c>
       <c r="U165" s="13" t="str">
         <f t="shared" si="290"/>
         <v>00</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>36</v>
       </c>
@@ -10609,54 +10656,57 @@
         <v>0x024</v>
       </c>
       <c r="C166" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="E166" s="51"/>
       <c r="F166" s="11">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="G166" s="12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H166">
         <f t="shared" si="273"/>
+        <v>6</v>
+      </c>
+      <c r="I166">
         <v>1</v>
       </c>
       <c r="M166" s="16" t="str">
-        <f>IF(F166="", "", TEXT(DEC2BIN(F166), "000000"))</f>
-        <v>101000</v>
+        <f t="shared" ref="M166" si="291">IF(F166="", "", TEXT(DEC2BIN(F166), "000000"))</f>
+        <v>000010</v>
       </c>
       <c r="N166" s="17" t="str">
-        <f>IF(H166="", "", TEXT(DEC2BIN(H166), "000"))</f>
+        <f t="shared" ref="N166" si="292">IF(H166="", "", TEXT(DEC2BIN(H166), "000"))</f>
+        <v>110</v>
+      </c>
+      <c r="O166" s="17" t="str">
+        <f t="shared" ref="O166" si="293">IF(I166="", "", TEXT(DEC2BIN(I166), "000"))</f>
         <v>001</v>
-      </c>
-      <c r="O166" s="17" t="str">
-        <f>IF(I166="", "", TEXT(DEC2BIN(I166), "000"))</f>
-        <v/>
       </c>
       <c r="P166" s="17"/>
       <c r="Q166" s="17" t="str">
-        <f>IF(K166="", "", TEXT(DEC2BIN(K166), "00000000"))</f>
+        <f t="shared" ref="Q166" si="294">IF(K166="", "", TEXT(DEC2BIN(K166), "00000000"))</f>
         <v/>
       </c>
       <c r="R166" s="18" t="str">
-        <f>IF(L166="", "", TEXT(DEC2BIN(L166), "00000000"))</f>
+        <f t="shared" ref="R166" si="295">IF(L166="", "", TEXT(DEC2BIN(L166), "00000000"))</f>
         <v/>
       </c>
       <c r="S166" t="str">
         <f t="shared" si="288"/>
-        <v>A0</v>
+        <v>0B</v>
       </c>
       <c r="T166" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N166, 1), IF(O166 = "", "000", O166), "0000"), 2)</f>
-        <v>80</v>
+        <f t="shared" ref="T166" si="296">BIN2HEX(CONCATENATE(RIGHT(N166, 1), IF(O166 = "", "000", O166), "0000"), 2)</f>
+        <v>10</v>
       </c>
       <c r="U166" s="13" t="str">
         <f t="shared" si="290"/>
         <v>00</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>39</v>
       </c>
@@ -10665,380 +10715,321 @@
         <v>0x027</v>
       </c>
       <c r="C167" t="s">
-        <v>260</v>
-      </c>
-      <c r="E167" s="51"/>
+        <v>174</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>165</v>
+      </c>
       <c r="F167" s="11">
-        <v>2</v>
-      </c>
-      <c r="G167" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H167">
+        <v>5</v>
+      </c>
+      <c r="H167" t="str">
         <f t="shared" si="273"/>
-        <v>6</v>
-      </c>
-      <c r="I167">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="K167">
+        <v>12</v>
       </c>
       <c r="M167" s="16" t="str">
-        <f t="shared" ref="M167" si="291">IF(F167="", "", TEXT(DEC2BIN(F167), "000000"))</f>
-        <v>000010</v>
+        <f>IF(F167="", "", TEXT(DEC2BIN(F167), "000000"))</f>
+        <v>000101</v>
       </c>
       <c r="N167" s="17" t="str">
-        <f t="shared" ref="N167" si="292">IF(H167="", "", TEXT(DEC2BIN(H167), "000"))</f>
-        <v>110</v>
+        <f t="shared" si="275"/>
+        <v/>
       </c>
       <c r="O167" s="17" t="str">
-        <f t="shared" ref="O167" si="293">IF(I167="", "", TEXT(DEC2BIN(I167), "000"))</f>
-        <v>001</v>
+        <f t="shared" si="276"/>
+        <v/>
       </c>
       <c r="P167" s="17"/>
       <c r="Q167" s="17" t="str">
-        <f t="shared" ref="Q167" si="294">IF(K167="", "", TEXT(DEC2BIN(K167), "00000000"))</f>
-        <v/>
+        <f t="shared" si="277"/>
+        <v>00001100</v>
       </c>
       <c r="R167" s="18" t="str">
-        <f t="shared" ref="R167" si="295">IF(L167="", "", TEXT(DEC2BIN(L167), "00000000"))</f>
+        <f t="shared" si="278"/>
         <v/>
       </c>
       <c r="S167" t="str">
-        <f t="shared" si="288"/>
-        <v>0B</v>
+        <f>BIN2HEX(LEFT(CONCATENATE(M167,IF(N167="", "000", N167)), 8), 2)</f>
+        <v>14</v>
       </c>
       <c r="T167" t="str">
-        <f t="shared" ref="T167" si="296">BIN2HEX(CONCATENATE(RIGHT(N167, 1), IF(O167 = "", "000", O167), "0000"), 2)</f>
-        <v>10</v>
+        <f>BIN2HEX(CONCATENATE(RIGHT(N167, 1), IF(O167 = "", "000", O167), "0000"), 2)</f>
+        <v>00</v>
       </c>
       <c r="U167" s="13" t="str">
-        <f t="shared" si="290"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>42</v>
-      </c>
-      <c r="B168" t="str">
-        <f t="shared" si="266"/>
-        <v>0x02A</v>
-      </c>
-      <c r="C168" t="s">
-        <v>82</v>
-      </c>
+        <f>IF(Q167="", BIN2HEX(R167, 2), BIN2HEX(Q167,2))</f>
+        <v>0C</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E168" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="F168" s="11">
-        <v>5</v>
-      </c>
-      <c r="H168" t="str">
-        <f t="shared" si="273"/>
-        <v/>
-      </c>
-      <c r="K168">
-        <v>9</v>
-      </c>
-      <c r="M168" s="16" t="str">
-        <f>IF(F168="", "", TEXT(DEC2BIN(F168), "000000"))</f>
-        <v>000101</v>
-      </c>
-      <c r="N168" s="17" t="str">
-        <f t="shared" si="275"/>
-        <v/>
-      </c>
-      <c r="O168" s="17" t="str">
-        <f t="shared" si="276"/>
-        <v/>
-      </c>
-      <c r="P168" s="17"/>
-      <c r="Q168" s="17" t="str">
-        <f t="shared" si="277"/>
-        <v>00001001</v>
-      </c>
-      <c r="R168" s="18" t="str">
-        <f t="shared" si="278"/>
-        <v/>
-      </c>
-      <c r="S168" t="str">
-        <f>BIN2HEX(LEFT(CONCATENATE(M168,IF(N168="", "000", N168)), 8), 2)</f>
-        <v>14</v>
-      </c>
-      <c r="T168" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N168, 1), IF(O168 = "", "000", O168), "0000"), 2)</f>
-        <v>00</v>
-      </c>
-      <c r="U168" s="13" t="str">
-        <f>IF(Q168="", BIN2HEX(R168, 2), BIN2HEX(Q168,2))</f>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E169" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>48</v>
+      </c>
+      <c r="B169" t="str">
+        <f t="shared" ref="B169:B172" si="297">"0x" &amp; DEC2HEX(A169,3)</f>
+        <v>0x030</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B170" t="str">
-        <f t="shared" ref="B170:B173" si="297">"0x" &amp; DEC2HEX(A170,3)</f>
-        <v>0x030</v>
+        <f t="shared" si="297"/>
+        <v>0x033</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B171" t="str">
         <f t="shared" si="297"/>
-        <v>0x033</v>
+        <v>0x036</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B172" t="str">
         <f t="shared" si="297"/>
-        <v>0x036</v>
+        <v>0x039</v>
       </c>
       <c r="D172" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>60</v>
+      </c>
+      <c r="B173" t="str">
+        <f t="shared" ref="B173:B180" si="298">"0x" &amp; DEC2HEX(A173,3)</f>
+        <v>0x03C</v>
+      </c>
+      <c r="D173" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>57</v>
-      </c>
-      <c r="B173" t="str">
-        <f t="shared" si="297"/>
-        <v>0x039</v>
-      </c>
-      <c r="D173" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B174" t="str">
-        <f t="shared" ref="B174:B181" si="298">"0x" &amp; DEC2HEX(A174,3)</f>
-        <v>0x03C</v>
+        <f t="shared" si="298"/>
+        <v>0x03F</v>
       </c>
       <c r="D174" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B175" t="str">
         <f t="shared" si="298"/>
-        <v>0x03F</v>
+        <v>0x042</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B176" t="str">
         <f t="shared" si="298"/>
-        <v>0x042</v>
+        <v>0x045</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B177" t="str">
         <f t="shared" si="298"/>
-        <v>0x045</v>
+        <v>0x048</v>
       </c>
       <c r="D177" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B178" t="str">
         <f t="shared" si="298"/>
-        <v>0x048</v>
+        <v>0x04B</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B179" t="str">
         <f t="shared" si="298"/>
-        <v>0x04B</v>
+        <v>0x04E</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B180" t="str">
         <f t="shared" si="298"/>
-        <v>0x04E</v>
+        <v>0x051</v>
       </c>
       <c r="D180" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B181" t="str">
-        <f t="shared" si="298"/>
-        <v>0x051</v>
+        <f t="shared" ref="B181:B190" si="299">"0x" &amp; DEC2HEX(A181,3)</f>
+        <v>0x054</v>
       </c>
       <c r="D181" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>87</v>
+      </c>
+      <c r="B182" t="str">
+        <f t="shared" si="299"/>
+        <v>0x057</v>
+      </c>
+      <c r="D182" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>84</v>
-      </c>
-      <c r="B182" t="str">
-        <f t="shared" ref="B182:B191" si="299">"0x" &amp; DEC2HEX(A182,3)</f>
-        <v>0x054</v>
-      </c>
-      <c r="D182" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B183" t="str">
         <f t="shared" si="299"/>
-        <v>0x057</v>
+        <v>0x05A</v>
       </c>
       <c r="D183" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B184" t="str">
         <f t="shared" si="299"/>
-        <v>0x05A</v>
+        <v>0x05D</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B185" t="str">
         <f t="shared" si="299"/>
-        <v>0x05D</v>
+        <v>0x060</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B186" t="str">
         <f t="shared" si="299"/>
-        <v>0x060</v>
+        <v>0x063</v>
       </c>
       <c r="D186" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B187" t="str">
         <f t="shared" si="299"/>
-        <v>0x063</v>
+        <v>0x066</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B188" t="str">
         <f t="shared" si="299"/>
-        <v>0x066</v>
+        <v>0x069</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B189" t="str">
         <f t="shared" si="299"/>
-        <v>0x069</v>
+        <v>0x06C</v>
       </c>
       <c r="D189" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B190" t="str">
         <f t="shared" si="299"/>
-        <v>0x06C</v>
+        <v>0x06F</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>111</v>
-      </c>
-      <c r="B191" t="str">
-        <f t="shared" si="299"/>
-        <v>0x06F</v>
-      </c>
-      <c r="D191" s="7" t="s">
         <v>271</v>
       </c>
     </row>
@@ -11049,13 +11040,13 @@
   <mergeCells count="3">
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="E129:E131"/>
-    <mergeCell ref="E165:E167"/>
+    <mergeCell ref="E164:E166"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y17">
       <formula1>$W$16:$W$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G6 G9:G11 G17:G26 G31:G33 G41:G42 G49 G83:G93 G117:G132 G102:G112 G141:G149 G154:G168">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G6 G9:G11 G17:G26 G31:G33 G41:G42 G49 G83:G93 G117:G132 G102:G112 G141:G149 G154:G167">
       <formula1>$W$3:$W$10</formula1>
     </dataValidation>
   </dataValidations>
@@ -11063,4 +11054,697 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.5546875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>11111111</v>
+      </c>
+      <c r="C2" t="str">
+        <f>BIN2HEX(B2, 2)</f>
+        <v>FF</v>
+      </c>
+      <c r="D2" t="str">
+        <f>BIN2HEX(B2, 2) &amp; " " &amp; BIN2HEX(B3,2) &amp; " " &amp; BIN2HEX(B4,2)</f>
+        <v>FF 81 81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>10000001</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C65" si="0">BIN2HEX(B3, 2)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>10000001</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>10000001</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="D5" t="str">
+        <f>BIN2HEX(B5, 2) &amp; " " &amp; BIN2HEX(B6,2) &amp; " " &amp; BIN2HEX(B7,2)</f>
+        <v>81 81 81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>10000001</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>10000001</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>10000001</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="D8" t="str">
+        <f>BIN2HEX(B8, 2) &amp; " " &amp; BIN2HEX(B9,2) &amp; " " &amp; BIN2HEX(B10,2)</f>
+        <v>81 FF 00</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="53">
+        <v>11111111</v>
+      </c>
+      <c r="C9" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>FF</v>
+      </c>
+      <c r="D9" s="52"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"00000000"</f>
+        <v>00000000</v>
+      </c>
+      <c r="C10" t="str">
+        <f>BIN2HEX(B10, 2)</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="str">
+        <f>"01111110"</f>
+        <v>01111110</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>7E</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="str">
+        <f>"01000010"</f>
+        <v>01000010</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="str">
+        <f t="shared" ref="B13:B15" si="1">"01000010"</f>
+        <v>01000010</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>01000010</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>01000010</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="str">
+        <f>"01111110"</f>
+        <v>01111110</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>7E</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="53" t="str">
+        <f>"00000000"</f>
+        <v>00000000</v>
+      </c>
+      <c r="C17" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"00000000"</f>
+        <v>00000000</v>
+      </c>
+      <c r="C18" t="str">
+        <f>BIN2HEX(B18, 2)</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="str">
+        <f>"00000000"</f>
+        <v>00000000</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="str">
+        <f>"00111100"</f>
+        <v>00111100</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>3C</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="str">
+        <f>"00100100"</f>
+        <v>00100100</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="str">
+        <f>"00100100"</f>
+        <v>00100100</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="str">
+        <f>"00111100"</f>
+        <v>00111100</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>3C</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="str">
+        <f>"00000000"</f>
+        <v>00000000</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="53" t="str">
+        <f>"00000000"</f>
+        <v>00000000</v>
+      </c>
+      <c r="C25" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f>"00000000"</f>
+        <v>00000000</v>
+      </c>
+      <c r="C26" t="str">
+        <f>BIN2HEX(B26, 2)</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="str">
+        <f>"00000000"</f>
+        <v>00000000</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="str">
+        <f>"00000000"</f>
+        <v>00000000</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="str">
+        <f>"00011000"</f>
+        <v>00011000</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="str">
+        <f>"00011000"</f>
+        <v>00011000</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="str">
+        <f>"00000000"</f>
+        <v>00000000</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="str">
+        <f>"00000000"</f>
+        <v>00000000</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="53" t="str">
+        <f>"00000000"</f>
+        <v>00000000</v>
+      </c>
+      <c r="C33" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" s="2" t="str">
+        <f>"00000000"</f>
+        <v>00000000</v>
+      </c>
+      <c r="C34" t="str">
+        <f>BIN2HEX(B34, 2)</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="str">
+        <f>"00000000"</f>
+        <v>00000000</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="str">
+        <f>"00000000"</f>
+        <v>00000000</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="str">
+        <f t="shared" ref="B37:B38" si="2">"00000000"</f>
+        <v>00000000</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="str">
+        <f>"00000000"</f>
+        <v>00000000</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="str">
+        <f>"00000000"</f>
+        <v>00000000</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="53" t="str">
+        <f>"00000000"</f>
+        <v>00000000</v>
+      </c>
+      <c r="C41" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" s="2" t="str">
+        <f>"00000000"</f>
+        <v>00000000</v>
+      </c>
+      <c r="C42" t="str">
+        <f>BIN2HEX(B42, 2)</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="str">
+        <f>"00000000"</f>
+        <v>00000000</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="2" t="str">
+        <f>"00000000"</f>
+        <v>00000000</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="str">
+        <f>"00011000"</f>
+        <v>00011000</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="2" t="str">
+        <f>"00011000"</f>
+        <v>00011000</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="2" t="str">
+        <f>"00000000"</f>
+        <v>00000000</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="2" t="str">
+        <f>"00000000"</f>
+        <v>00000000</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="53" t="str">
+        <f>"00000000"</f>
+        <v>00000000</v>
+      </c>
+      <c r="C49" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>6</v>
+      </c>
+      <c r="B50" s="2" t="str">
+        <f>"00000000"</f>
+        <v>00000000</v>
+      </c>
+      <c r="C50" t="str">
+        <f>BIN2HEX(B50, 2)</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="2" t="str">
+        <f>"00000000"</f>
+        <v>00000000</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="2" t="str">
+        <f>"00111100"</f>
+        <v>00111100</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>3C</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="2" t="str">
+        <f>"00100100"</f>
+        <v>00100100</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="2" t="str">
+        <f>"00100100"</f>
+        <v>00100100</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="2" t="str">
+        <f>"00111100"</f>
+        <v>00111100</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>3C</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="2" t="str">
+        <f>"00000000"</f>
+        <v>00000000</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="53" t="str">
+        <f>"00000000"</f>
+        <v>00000000</v>
+      </c>
+      <c r="C57" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>7</v>
+      </c>
+      <c r="B58" s="2" t="str">
+        <f>"00000000"</f>
+        <v>00000000</v>
+      </c>
+      <c r="C58" t="str">
+        <f>BIN2HEX(B58, 2)</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="2" t="str">
+        <f>"01111110"</f>
+        <v>01111110</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>7E</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="2" t="str">
+        <f>"01000010"</f>
+        <v>01000010</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="2" t="str">
+        <f t="shared" ref="B61:B63" si="3">"01000010"</f>
+        <v>01000010</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>01000010</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B63" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>01000010</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B64" s="2" t="str">
+        <f>"01111110"</f>
+        <v>01111110</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>7E</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" s="53" t="str">
+        <f>"00000000"</f>
+        <v>00000000</v>
+      </c>
+      <c r="C65" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="288" windowWidth="14808" windowHeight="7836" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="288" windowWidth="14808" windowHeight="7836"/>
   </bookViews>
   <sheets>
     <sheet name="Control Lines" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>24 x 16 led matrix:
-R1
-2 bits: col (0, 1, or 2)
-4 bits: line (0 to 15)
-R2: value
-OD_addr: 2 or 3 bits (using NOT USED of By Register instr format)</t>
+          <t>R1: data
+R2: line sel (used only in LED matrix)
+OD_addr: 3 bits (using NOT USED of By Register instr format)
+0: 1602 LCD display
+1: 8x8 LED matrix</t>
         </r>
       </text>
     </comment>
@@ -88,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="274">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -345,9 +344,6 @@
     <t>Dec</t>
   </si>
   <si>
-    <t>// Increments A, stops at 0</t>
-  </si>
-  <si>
     <t>JP [0x00f]</t>
   </si>
   <si>
@@ -360,18 +356,12 @@
     <t>ST [0x011], A</t>
   </si>
   <si>
-    <t>// Load value from memory, copies it to next address</t>
-  </si>
-  <si>
     <t>f0</t>
   </si>
   <si>
     <t>Write byte value of R1 in output selected in R2</t>
   </si>
   <si>
-    <t>// Write letter A to LCD output</t>
-  </si>
-  <si>
     <t>LD A, 0x0</t>
   </si>
   <si>
@@ -381,9 +371,6 @@
     <t>// ASCII code for letter A</t>
   </si>
   <si>
-    <t>44 10 00</t>
-  </si>
-  <si>
     <t>Hex</t>
   </si>
   <si>
@@ -504,15 +491,6 @@
     <t>R2 to OUT</t>
   </si>
   <si>
-    <t>// Write 'Hello World!' to LCD output</t>
-  </si>
-  <si>
-    <t>// Write 'Hello World!' to LCD output (reading from a sequence of bytes in memory)</t>
-  </si>
-  <si>
-    <t>//Counting in LCD output</t>
-  </si>
-  <si>
     <t>LD A, 0x30</t>
   </si>
   <si>
@@ -597,9 +575,6 @@
     <t>LD B, 0x3a</t>
   </si>
   <si>
-    <t>// Copy a block of memory from one place to another</t>
-  </si>
-  <si>
     <t>// Source addr of first byte</t>
   </si>
   <si>
@@ -723,27 +698,18 @@
     <t>NOT_CONNECTED</t>
   </si>
   <si>
-    <t>// Increments A, starting in 32</t>
-  </si>
-  <si>
     <t>INC A</t>
   </si>
   <si>
     <t>JP [0x003]</t>
   </si>
   <si>
-    <t>// Increments A, using INC instruction</t>
-  </si>
-  <si>
     <t>LD R1, [HL]</t>
   </si>
   <si>
     <t>L</t>
   </si>
   <si>
-    <t>// Increments A, decrements B</t>
-  </si>
-  <si>
     <t>LD B, 0xff</t>
   </si>
   <si>
@@ -837,12 +803,6 @@
     <t>OUT 0, H</t>
   </si>
   <si>
-    <t>CLOSE_REGS_BRIDGE = 1 woual allow to output all registers, instead of only the first four</t>
-  </si>
-  <si>
-    <t>One register instructions can be modified to use all registers, as the above OUT instruction</t>
-  </si>
-  <si>
     <t>general use 8-bit registers, there are some restrictions on what registers may be used in each instruction</t>
   </si>
   <si>
@@ -858,9 +818,6 @@
     <t>LD A, 0xff</t>
   </si>
   <si>
-    <t>THIS IS THE RIGHT FORMULAS</t>
-  </si>
-  <si>
     <t>Opcode (Hex)</t>
   </si>
   <si>
@@ -876,12 +833,6 @@
     <t>OUT 1, H, E</t>
   </si>
   <si>
-    <t>// Simple animation in Led Matrix output</t>
-  </si>
-  <si>
-    <t>ALL PROGRAMS MUST HAVE THE OUT INSTR REASSEMBLED (NOW USES R1 INSTEAD OF R2)</t>
-  </si>
-  <si>
     <t>// Addr of first byte (hi)</t>
   </si>
   <si>
@@ -913,6 +864,51 @@
   </si>
   <si>
     <t>Frame #</t>
+  </si>
+  <si>
+    <t>44 80 00</t>
+  </si>
+  <si>
+    <t>CLOSE_REGS_BRIDGE = 1 would allow to output all registers, instead of only the first four</t>
+  </si>
+  <si>
+    <t>One register ALU instructions can be modified to use all registers, as the above OUT instruction</t>
+  </si>
+  <si>
+    <t>// 1 - Increments A, starting in 32</t>
+  </si>
+  <si>
+    <t>// 2 - Increments A, using INC instruction</t>
+  </si>
+  <si>
+    <t>// 3 - Increments A, decrements B</t>
+  </si>
+  <si>
+    <t>// 4 - Increments A, stops at 0</t>
+  </si>
+  <si>
+    <t>// 5 - Load value from memory, copies it to next address</t>
+  </si>
+  <si>
+    <t>// 6 - Write letter A to LCD output</t>
+  </si>
+  <si>
+    <t>// 7 - Write 'Hello World!' to LCD output</t>
+  </si>
+  <si>
+    <t>// 8 - Write 'Hello World!' to LCD output (reading from a sequence of bytes in memory)</t>
+  </si>
+  <si>
+    <t>// 9 - Counting in LCD output</t>
+  </si>
+  <si>
+    <t>// 10 - Copy a block of memory from one place to another</t>
+  </si>
+  <si>
+    <t>// Simple animation in Led Matrix output (not finished)</t>
+  </si>
+  <si>
+    <t>// 11 - Simple animation in Led Matrix output</t>
   </si>
 </sst>
 </file>
@@ -1215,6 +1211,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1229,10 +1229,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1574,9 +1570,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN54"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1669,13 +1665,13 @@
     </row>
     <row r="2" spans="1:39" s="1" customFormat="1" ht="129" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>1</v>
@@ -1711,13 +1707,13 @@
         <v>13</v>
       </c>
       <c r="O2" s="24" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P2" s="23" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="Q2" s="23" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="R2" s="25" t="s">
         <v>20</v>
@@ -1726,10 +1722,10 @@
         <v>21</v>
       </c>
       <c r="T2" s="23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="U2" s="40" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="V2" s="23" t="s">
         <v>32</v>
@@ -1749,11 +1745,11 @@
       <c r="AA2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
+      <c r="AB2" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -2168,7 +2164,7 @@
         <v>0x4</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -2827,7 +2823,7 @@
         <v>00</v>
       </c>
       <c r="AF13" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="AM13" s="8" t="str">
         <f t="shared" ref="AM13:AM44" si="5">AB13 &amp; AC13 &amp; AD13</f>
@@ -2843,7 +2839,7 @@
         <v>0xB</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -3147,7 +3143,7 @@
         <v>0x10</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P19" s="8">
         <v>0</v>
@@ -3174,7 +3170,7 @@
         <v>00</v>
       </c>
       <c r="AF19" s="8" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="AM19" s="8" t="str">
         <f t="shared" si="5"/>
@@ -3190,7 +3186,7 @@
         <v>0x11</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3277,14 +3273,14 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AM20" s="8" t="str">
         <f t="shared" si="5"/>
         <v>000880</v>
       </c>
       <c r="AN20" s="5" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -3845,7 +3841,7 @@
         <v>25</v>
       </c>
       <c r="AF35" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="AM35" s="8" t="str">
         <f t="shared" si="5"/>
@@ -3948,7 +3944,7 @@
         <v>18</v>
       </c>
       <c r="AF36" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="AM36" s="8" t="str">
         <f t="shared" si="5"/>
@@ -4055,7 +4051,7 @@
         <v>408802</v>
       </c>
       <c r="AN37" s="5" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.3">
@@ -4367,7 +4363,7 @@
         <v>0x26</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D41" s="6">
         <v>0</v>
@@ -4467,7 +4463,7 @@
         <v>0x27</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D42" s="6">
         <v>0</v>
@@ -4567,7 +4563,7 @@
         <v>0x28</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D43" s="6">
         <v>0</v>
@@ -4667,7 +4663,7 @@
         <v>0x29</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D44" s="6">
         <v>0</v>
@@ -4779,7 +4775,7 @@
         <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
@@ -4787,7 +4783,7 @@
         <v>62</v>
       </c>
       <c r="D50" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
@@ -4795,17 +4791,17 @@
         <v>47</v>
       </c>
       <c r="D51" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D52" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="R52"/>
       <c r="S52"/>
@@ -4814,10 +4810,10 @@
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D53" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R53"/>
       <c r="S53"/>
@@ -4826,10 +4822,10 @@
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D54" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="R54"/>
       <c r="S54"/>
@@ -5005,9 +5001,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z190"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L174" sqref="L174"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H122" sqref="H122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5034,66 +5030,66 @@
         <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G1" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="S1" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="S1" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="T1" s="49"/>
-      <c r="U1" s="50"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="52"/>
       <c r="V1" s="10"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="8" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="N2" s="17"/>
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
       <c r="W2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
@@ -5105,7 +5101,7 @@
         <v>0x000</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="11">
@@ -5122,36 +5118,39 @@
         <v>1</v>
       </c>
       <c r="M3" s="16" t="str">
-        <f>IF(F3="", "", TEXT(DEC2BIN(F3), "000000"))</f>
+        <f t="shared" ref="M3:M6" si="1">IF(F3="", "", TEXT(DEC2BIN(F3), "000000"))</f>
         <v>000001</v>
       </c>
       <c r="N3" s="17" t="str">
-        <f t="shared" ref="N3:O6" si="1">IF(H3="", "", TEXT(DEC2BIN(H3), "000"))</f>
+        <f t="shared" ref="N3:N6" si="2">IF(H3="", "", TEXT(DEC2BIN(H3), "000"))</f>
         <v>110</v>
       </c>
       <c r="O3" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P3" s="17"/>
+        <f t="shared" ref="O3:O6" si="3">IF(I3="", "", TEXT(DEC2BIN(I3), "000"))</f>
+        <v/>
+      </c>
+      <c r="P3" s="17" t="str">
+        <f t="shared" ref="P3:P6" si="4">IF(J3="", "", TEXT(DEC2BIN(J3), "000"))</f>
+        <v/>
+      </c>
       <c r="Q3" s="17" t="str">
-        <f t="shared" ref="Q3:R6" si="2">IF(K3="", "", TEXT(DEC2BIN(K3), "00000000"))</f>
+        <f t="shared" ref="Q3:Q6" si="5">IF(K3="", "", TEXT(DEC2BIN(K3), "00000000"))</f>
         <v/>
       </c>
       <c r="R3" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="R3:R6" si="6">IF(L3="", "", TEXT(DEC2BIN(L3), "00000000"))</f>
         <v>00000001</v>
       </c>
       <c r="S3" t="str">
-        <f t="shared" ref="S3:S5" si="3">BIN2HEX(LEFT(CONCATENATE(M3,IF(N3="", "000", N3)), 8), 2)</f>
+        <f t="shared" ref="S3:S6" si="7">BIN2HEX(LEFT(CONCATENATE(M3,IF(N3="", "000", N3)), 8), 2)</f>
         <v>07</v>
       </c>
       <c r="T3" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N3, 1), IF(O3 = "", "000", O3), "0000"), 2)</f>
+        <f t="shared" ref="T3:T6" si="8">BIN2HEX(CONCATENATE(RIGHT(N3, 1), IF(O3 = "", "000", O3), IF(P3 = "", "000", P3), "0"), 2)</f>
         <v>00</v>
       </c>
       <c r="U3" s="13" t="str">
-        <f t="shared" ref="U3:U5" si="4">IF(Q3="", BIN2HEX(R3, 2), BIN2HEX(Q3,2))</f>
+        <f t="shared" ref="U3:U6" si="9">IF(Q3="", BIN2HEX(R3, 2), BIN2HEX(Q3,2))</f>
         <v>01</v>
       </c>
       <c r="W3" t="s">
@@ -5166,14 +5165,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" ref="B4:B6" si="5">"0x" &amp; DEC2HEX(A4,3)</f>
+        <f t="shared" ref="B4:B6" si="10">"0x" &amp; DEC2HEX(A4,3)</f>
         <v>0x003</v>
       </c>
       <c r="C4" t="s">
         <v>78</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F4" s="11">
         <v>1</v>
@@ -5189,36 +5188,39 @@
         <v>32</v>
       </c>
       <c r="M4" s="16" t="str">
-        <f>IF(F4="", "", TEXT(DEC2BIN(F4), "000000"))</f>
+        <f t="shared" si="1"/>
         <v>000001</v>
       </c>
       <c r="N4" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>000</v>
       </c>
       <c r="O4" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P4" s="17"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P4" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="Q4" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R4" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>00100000</v>
       </c>
       <c r="S4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>04</v>
       </c>
       <c r="T4" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N4, 1), IF(O4 = "", "000", O4), "0000"), 2)</f>
+        <f t="shared" si="8"/>
         <v>00</v>
       </c>
       <c r="U4" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="W4" t="s">
@@ -5233,11 +5235,11 @@
         <v>6</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0x006</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="11">
@@ -5254,36 +5256,39 @@
         <v>6</v>
       </c>
       <c r="M5" s="16" t="str">
-        <f>IF(F5="", "", TEXT(DEC2BIN(F5), "000000"))</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="N5" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>000</v>
       </c>
       <c r="O5" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="P5" s="17"/>
+      <c r="P5" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="Q5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R5" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="T5" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N5, 1), IF(O5 = "", "000", O5), "0000"), 2)</f>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="U5" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>00</v>
       </c>
       <c r="W5" t="s">
@@ -5298,7 +5303,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0x009</v>
       </c>
       <c r="C6" t="s">
@@ -5316,36 +5321,39 @@
         <v>6</v>
       </c>
       <c r="M6" s="16" t="str">
-        <f>IF(F6="", "", TEXT(DEC2BIN(F6), "000000"))</f>
+        <f t="shared" si="1"/>
         <v>000101</v>
       </c>
       <c r="N6" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O6" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P6" s="17"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P6" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="Q6" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>00000110</v>
       </c>
       <c r="R6" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S6" t="str">
-        <f>BIN2HEX(LEFT(CONCATENATE(M6,IF(N6="", "000", N6)), 8), 2)</f>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="T6" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N6, 1), IF(O6 = "", "000", O6), "0000"), 2)</f>
+        <f t="shared" si="8"/>
         <v>00</v>
       </c>
       <c r="U6" s="13" t="str">
-        <f>IF(Q6="", BIN2HEX(R6, 2), BIN2HEX(Q6,2))</f>
+        <f t="shared" si="9"/>
         <v>06</v>
       </c>
       <c r="W6" t="s">
@@ -5370,11 +5378,11 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C8" s="8" t="s">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="E8" s="8"/>
       <c r="W8" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="X8">
         <v>7</v>
@@ -5389,7 +5397,7 @@
         <v>0x000</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11">
@@ -5399,47 +5407,50 @@
         <v>38</v>
       </c>
       <c r="H9">
-        <f t="shared" ref="H9" si="6">IF(G9="", "", VLOOKUP(G9, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H9" si="11">IF(G9="", "", VLOOKUP(G9, $W$3:$X$10, 2))</f>
         <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9" s="16" t="str">
-        <f>IF(F9="", "", TEXT(DEC2BIN(F9), "000000"))</f>
+        <f t="shared" ref="M9:M11" si="12">IF(F9="", "", TEXT(DEC2BIN(F9), "000000"))</f>
         <v>000001</v>
       </c>
       <c r="N9" s="17" t="str">
-        <f t="shared" ref="N9" si="7">IF(H9="", "", TEXT(DEC2BIN(H9), "000"))</f>
+        <f t="shared" ref="N9:N11" si="13">IF(H9="", "", TEXT(DEC2BIN(H9), "000"))</f>
         <v>000</v>
       </c>
       <c r="O9" s="17" t="str">
-        <f t="shared" ref="O9" si="8">IF(I9="", "", TEXT(DEC2BIN(I9), "000"))</f>
-        <v/>
-      </c>
-      <c r="P9" s="17"/>
+        <f t="shared" ref="O9:O11" si="14">IF(I9="", "", TEXT(DEC2BIN(I9), "000"))</f>
+        <v/>
+      </c>
+      <c r="P9" s="17" t="str">
+        <f t="shared" ref="P9:P11" si="15">IF(J9="", "", TEXT(DEC2BIN(J9), "000"))</f>
+        <v/>
+      </c>
       <c r="Q9" s="17" t="str">
-        <f t="shared" ref="Q9" si="9">IF(K9="", "", TEXT(DEC2BIN(K9), "00000000"))</f>
+        <f t="shared" ref="Q9:Q11" si="16">IF(K9="", "", TEXT(DEC2BIN(K9), "00000000"))</f>
         <v/>
       </c>
       <c r="R9" s="18" t="str">
-        <f t="shared" ref="R9" si="10">IF(L9="", "", TEXT(DEC2BIN(L9), "00000000"))</f>
+        <f t="shared" ref="R9:R11" si="17">IF(L9="", "", TEXT(DEC2BIN(L9), "00000000"))</f>
         <v>00000000</v>
       </c>
       <c r="S9" t="str">
-        <f t="shared" ref="S9" si="11">BIN2HEX(LEFT(CONCATENATE(M9,IF(N9="", "000", N9)), 8), 2)</f>
+        <f t="shared" ref="S9:S11" si="18">BIN2HEX(LEFT(CONCATENATE(M9,IF(N9="", "000", N9)), 8), 2)</f>
         <v>04</v>
       </c>
       <c r="T9" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N9, 1), IF(O9 = "", "000", O9), "0000"), 2)</f>
+        <f t="shared" ref="T9:T11" si="19">BIN2HEX(CONCATENATE(RIGHT(N9, 1), IF(O9 = "", "000", O9), IF(P9 = "", "000", P9), "0"), 2)</f>
         <v>00</v>
       </c>
       <c r="U9" s="13" t="str">
-        <f t="shared" ref="U9" si="12">IF(Q9="", BIN2HEX(R9, 2), BIN2HEX(Q9,2))</f>
+        <f t="shared" ref="U9:U11" si="20">IF(Q9="", BIN2HEX(R9, 2), BIN2HEX(Q9,2))</f>
         <v>00</v>
       </c>
       <c r="W9" s="38" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="X9" s="38">
         <v>2</v>
@@ -5454,7 +5465,7 @@
         <v>0x003</v>
       </c>
       <c r="C10" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F10" s="11">
         <v>40</v>
@@ -5463,44 +5474,47 @@
         <v>38</v>
       </c>
       <c r="H10">
-        <f t="shared" ref="H10" si="13">IF(G10="", "", VLOOKUP(G10, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H10" si="21">IF(G10="", "", VLOOKUP(G10, $W$3:$X$10, 2))</f>
         <v>0</v>
       </c>
       <c r="M10" s="16" t="str">
-        <f>IF(F10="", "", TEXT(DEC2BIN(F10), "000000"))</f>
+        <f t="shared" si="12"/>
         <v>101000</v>
       </c>
       <c r="N10" s="17" t="str">
-        <f t="shared" ref="N10:N11" si="14">IF(H10="", "", TEXT(DEC2BIN(H10), "000"))</f>
+        <f t="shared" si="13"/>
         <v>000</v>
       </c>
       <c r="O10" s="17" t="str">
-        <f t="shared" ref="O10:O11" si="15">IF(I10="", "", TEXT(DEC2BIN(I10), "000"))</f>
-        <v/>
-      </c>
-      <c r="P10" s="17"/>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="P10" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="Q10" s="17" t="str">
-        <f t="shared" ref="Q10:Q11" si="16">IF(K10="", "", TEXT(DEC2BIN(K10), "00000000"))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R10" s="18" t="str">
-        <f t="shared" ref="R10:R11" si="17">IF(L10="", "", TEXT(DEC2BIN(L10), "00000000"))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S10" t="str">
-        <f t="shared" ref="S10" si="18">BIN2HEX(LEFT(CONCATENATE(M10,IF(N10="", "000", N10)), 8), 2)</f>
+        <f t="shared" si="18"/>
         <v>A0</v>
       </c>
       <c r="T10" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N10, 1), IF(O10 = "", "000", O10), "0000"), 2)</f>
+        <f t="shared" si="19"/>
         <v>00</v>
       </c>
       <c r="U10" s="13" t="str">
-        <f t="shared" ref="U10" si="19">IF(Q10="", BIN2HEX(R10, 2), BIN2HEX(Q10,2))</f>
+        <f t="shared" si="20"/>
         <v>00</v>
       </c>
       <c r="W10" s="38" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="X10" s="38">
         <v>3</v>
@@ -5515,7 +5529,7 @@
         <v>0x006</v>
       </c>
       <c r="C11" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="F11" s="11">
         <v>5</v>
@@ -5528,18 +5542,21 @@
         <v>3</v>
       </c>
       <c r="M11" s="16" t="str">
-        <f>IF(F11="", "", TEXT(DEC2BIN(F11), "000000"))</f>
+        <f t="shared" si="12"/>
         <v>000101</v>
       </c>
       <c r="N11" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="O11" s="17" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="O11" s="17" t="str">
+      <c r="P11" s="17" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="P11" s="17"/>
       <c r="Q11" s="17" t="str">
         <f t="shared" si="16"/>
         <v>00000011</v>
@@ -5549,24 +5566,24 @@
         <v/>
       </c>
       <c r="S11" t="str">
-        <f>BIN2HEX(LEFT(CONCATENATE(M11,IF(N11="", "000", N11)), 8), 2)</f>
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
       <c r="T11" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N11, 1), IF(O11 = "", "000", O11), "0000"), 2)</f>
+        <f t="shared" si="19"/>
         <v>00</v>
       </c>
       <c r="U11" s="13" t="str">
-        <f>IF(Q11="", BIN2HEX(R11, 2), BIN2HEX(Q11,2))</f>
+        <f t="shared" si="20"/>
         <v>03</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C16" s="8" t="s">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="W16" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="X16">
         <v>3</v>
@@ -5577,11 +5594,11 @@
         <v>0</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" ref="B17:B21" si="20">"0x" &amp; DEC2HEX(A17,3)</f>
+        <f t="shared" ref="B17:B21" si="22">"0x" &amp; DEC2HEX(A17,3)</f>
         <v>0x000</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F17" s="11">
         <v>1</v>
@@ -5590,53 +5607,56 @@
         <v>38</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:H19" si="21">IF(G17="", "", VLOOKUP(G17, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H17:H19" si="23">IF(G17="", "", VLOOKUP(G17, $W$3:$X$10, 2))</f>
         <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17" s="16" t="str">
-        <f>IF(F17="", "", TEXT(DEC2BIN(F17), "000000"))</f>
+        <f t="shared" ref="M17:M21" si="24">IF(F17="", "", TEXT(DEC2BIN(F17), "000000"))</f>
         <v>000001</v>
       </c>
       <c r="N17" s="17" t="str">
-        <f t="shared" ref="N17:O19" si="22">IF(H17="", "", TEXT(DEC2BIN(H17), "000"))</f>
+        <f t="shared" ref="N17:N21" si="25">IF(H17="", "", TEXT(DEC2BIN(H17), "000"))</f>
         <v>000</v>
       </c>
       <c r="O17" s="17" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="P17" s="17"/>
+        <f t="shared" ref="O17:O21" si="26">IF(I17="", "", TEXT(DEC2BIN(I17), "000"))</f>
+        <v/>
+      </c>
+      <c r="P17" s="17" t="str">
+        <f t="shared" ref="P17:P21" si="27">IF(J17="", "", TEXT(DEC2BIN(J17), "000"))</f>
+        <v/>
+      </c>
       <c r="Q17" s="17" t="str">
-        <f t="shared" ref="Q17:R19" si="23">IF(K17="", "", TEXT(DEC2BIN(K17), "00000000"))</f>
+        <f t="shared" ref="Q17:Q21" si="28">IF(K17="", "", TEXT(DEC2BIN(K17), "00000000"))</f>
         <v/>
       </c>
       <c r="R17" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="R17:R21" si="29">IF(L17="", "", TEXT(DEC2BIN(L17), "00000000"))</f>
         <v>00000000</v>
       </c>
       <c r="S17" t="str">
-        <f>BIN2HEX(LEFT(CONCATENATE(M17,IF(N17="", "000", N17)), 8), 2)</f>
+        <f t="shared" ref="S17:S21" si="30">BIN2HEX(LEFT(CONCATENATE(M17,IF(N17="", "000", N17)), 8), 2)</f>
         <v>04</v>
       </c>
       <c r="T17" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N17, 1), IF(O17 = "", "000", O17), "0000"), 2)</f>
+        <f t="shared" ref="T17:T21" si="31">BIN2HEX(CONCATENATE(RIGHT(N17, 1), IF(O17 = "", "000", O17), IF(P17 = "", "000", P17), "0"), 2)</f>
         <v>00</v>
       </c>
       <c r="U17" s="13" t="str">
-        <f>IF(Q17="", BIN2HEX(R17, 2), BIN2HEX(Q17,2))</f>
+        <f t="shared" ref="U17:U21" si="32">IF(Q17="", BIN2HEX(R17, 2), BIN2HEX(Q17,2))</f>
         <v>00</v>
       </c>
       <c r="W17" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="X17">
         <v>1</v>
       </c>
       <c r="Y17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="Z17">
         <f>VLOOKUP(Y17,W16:X18,2)</f>
@@ -5648,11 +5668,11 @@
         <v>3</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0x003</v>
       </c>
       <c r="C18" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="F18" s="11">
         <v>1</v>
@@ -5661,47 +5681,50 @@
         <v>39</v>
       </c>
       <c r="H18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="L18">
         <v>255</v>
       </c>
       <c r="M18" s="16" t="str">
-        <f>IF(F18="", "", TEXT(DEC2BIN(F18), "000000"))</f>
+        <f t="shared" si="24"/>
         <v>000001</v>
       </c>
       <c r="N18" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>001</v>
       </c>
       <c r="O18" s="17" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="P18" s="17"/>
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="P18" s="17" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
       <c r="Q18" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="R18" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>11111111</v>
       </c>
       <c r="S18" t="str">
-        <f>BIN2HEX(LEFT(CONCATENATE(M18,IF(N18="", "000", N18)), 8), 2)</f>
+        <f t="shared" si="30"/>
         <v>04</v>
       </c>
       <c r="T18" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N18, 1), IF(O18 = "", "000", O18), "0000"), 2)</f>
+        <f t="shared" si="31"/>
         <v>80</v>
       </c>
       <c r="U18" s="13" t="str">
-        <f>IF(Q18="", BIN2HEX(R18, 2), BIN2HEX(Q18,2))</f>
+        <f t="shared" si="32"/>
         <v>FF</v>
       </c>
       <c r="W18" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="X18">
         <v>2</v>
@@ -5712,11 +5735,11 @@
         <v>6</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0x006</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F19" s="11">
         <v>40</v>
@@ -5725,40 +5748,43 @@
         <v>38</v>
       </c>
       <c r="H19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M19" s="16" t="str">
-        <f>IF(F19="", "", TEXT(DEC2BIN(F19), "000000"))</f>
+        <f t="shared" si="24"/>
         <v>101000</v>
       </c>
       <c r="N19" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>000</v>
       </c>
       <c r="O19" s="17" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="P19" s="17"/>
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="P19" s="17" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
       <c r="Q19" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="R19" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="S19" t="str">
-        <f>BIN2HEX(LEFT(CONCATENATE(M19,IF(N19="", "000", N19)), 8), 2)</f>
+        <f t="shared" si="30"/>
         <v>A0</v>
       </c>
       <c r="T19" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N19, 1), IF(O19 = "", "000", O19), "0000"), 2)</f>
+        <f t="shared" si="31"/>
         <v>00</v>
       </c>
       <c r="U19" s="13" t="str">
-        <f>IF(Q19="", BIN2HEX(R19, 2), BIN2HEX(Q19,2))</f>
+        <f t="shared" si="32"/>
         <v>00</v>
       </c>
     </row>
@@ -5767,11 +5793,11 @@
         <v>9</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0x009</v>
       </c>
       <c r="C20" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="E20" s="39" t="s">
         <v>83</v>
@@ -5783,40 +5809,43 @@
         <v>39</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20" si="24">IF(G20="", "", VLOOKUP(G20, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H20" si="33">IF(G20="", "", VLOOKUP(G20, $W$3:$X$10, 2))</f>
         <v>1</v>
       </c>
       <c r="M20" s="16" t="str">
-        <f>IF(F20="", "", TEXT(DEC2BIN(F20), "000000"))</f>
+        <f t="shared" si="24"/>
         <v>101001</v>
       </c>
       <c r="N20" s="17" t="str">
-        <f t="shared" ref="N20" si="25">IF(H20="", "", TEXT(DEC2BIN(H20), "000"))</f>
+        <f t="shared" si="25"/>
         <v>001</v>
       </c>
       <c r="O20" s="17" t="str">
-        <f t="shared" ref="O20" si="26">IF(I20="", "", TEXT(DEC2BIN(I20), "000"))</f>
-        <v/>
-      </c>
-      <c r="P20" s="17"/>
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="P20" s="17" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
       <c r="Q20" s="17" t="str">
-        <f t="shared" ref="Q20" si="27">IF(K20="", "", TEXT(DEC2BIN(K20), "00000000"))</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="R20" s="18" t="str">
-        <f t="shared" ref="R20" si="28">IF(L20="", "", TEXT(DEC2BIN(L20), "00000000"))</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="S20" t="str">
-        <f>BIN2HEX(LEFT(CONCATENATE(M20,IF(N20="", "000", N20)), 8), 2)</f>
+        <f t="shared" si="30"/>
         <v>A4</v>
       </c>
       <c r="T20" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N20, 1), IF(O20 = "", "000", O20), "0000"), 2)</f>
+        <f t="shared" si="31"/>
         <v>80</v>
       </c>
       <c r="U20" s="13" t="str">
-        <f>IF(Q20="", BIN2HEX(R20, 2), BIN2HEX(Q20,2))</f>
+        <f t="shared" si="32"/>
         <v>00</v>
       </c>
     </row>
@@ -5825,7 +5854,7 @@
         <v>12</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0x00C</v>
       </c>
       <c r="C21" t="s">
@@ -5843,36 +5872,39 @@
         <v>6</v>
       </c>
       <c r="M21" s="16" t="str">
-        <f>IF(F21="", "", TEXT(DEC2BIN(F21), "000000"))</f>
+        <f t="shared" si="24"/>
         <v>000101</v>
       </c>
       <c r="N21" s="17" t="str">
-        <f t="shared" ref="N21" si="29">IF(H21="", "", TEXT(DEC2BIN(H21), "000"))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O21" s="17" t="str">
-        <f t="shared" ref="O21" si="30">IF(I21="", "", TEXT(DEC2BIN(I21), "000"))</f>
-        <v/>
-      </c>
-      <c r="P21" s="17"/>
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="P21" s="17" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
       <c r="Q21" s="17" t="str">
-        <f t="shared" ref="Q21" si="31">IF(K21="", "", TEXT(DEC2BIN(K21), "00000000"))</f>
+        <f t="shared" si="28"/>
         <v>00000110</v>
       </c>
       <c r="R21" s="18" t="str">
-        <f t="shared" ref="R21" si="32">IF(L21="", "", TEXT(DEC2BIN(L21), "00000000"))</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="S21" t="str">
-        <f>BIN2HEX(LEFT(CONCATENATE(M21,IF(N21="", "000", N21)), 8), 2)</f>
+        <f t="shared" si="30"/>
         <v>14</v>
       </c>
       <c r="T21" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N21, 1), IF(O21 = "", "000", O21), "0000"), 2)</f>
+        <f t="shared" si="31"/>
         <v>00</v>
       </c>
       <c r="U21" s="13" t="str">
-        <f>IF(Q21="", BIN2HEX(R21, 2), BIN2HEX(Q21,2))</f>
+        <f t="shared" si="32"/>
         <v>06</v>
       </c>
     </row>
@@ -5914,7 +5946,7 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="8" t="s">
-        <v>85</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
@@ -5922,11 +5954,11 @@
         <v>0</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" ref="B31:B36" si="33">"0x" &amp; DEC2HEX(A31,3)</f>
+        <f t="shared" ref="B31:B36" si="34">"0x" &amp; DEC2HEX(A31,3)</f>
         <v>0x000</v>
       </c>
       <c r="C31" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F31" s="11">
         <v>1</v>
@@ -5935,43 +5967,46 @@
         <v>42</v>
       </c>
       <c r="H31">
-        <f t="shared" ref="H31" si="34">IF(G31="", "", VLOOKUP(G31, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H31" si="35">IF(G31="", "", VLOOKUP(G31, $W$3:$X$10, 2))</f>
         <v>6</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31" s="16" t="str">
-        <f t="shared" ref="M31:M36" si="35">IF(F31="", "", TEXT(DEC2BIN(F31), "000000"))</f>
+        <f t="shared" ref="M31:M36" si="36">IF(F31="", "", TEXT(DEC2BIN(F31), "000000"))</f>
         <v>000001</v>
       </c>
       <c r="N31" s="17" t="str">
-        <f t="shared" ref="N31" si="36">IF(H31="", "", TEXT(DEC2BIN(H31), "000"))</f>
+        <f t="shared" ref="N31:N36" si="37">IF(H31="", "", TEXT(DEC2BIN(H31), "000"))</f>
         <v>110</v>
       </c>
       <c r="O31" s="17" t="str">
-        <f t="shared" ref="O31" si="37">IF(I31="", "", TEXT(DEC2BIN(I31), "000"))</f>
-        <v/>
-      </c>
-      <c r="P31" s="17"/>
+        <f t="shared" ref="O31:O36" si="38">IF(I31="", "", TEXT(DEC2BIN(I31), "000"))</f>
+        <v/>
+      </c>
+      <c r="P31" s="17" t="str">
+        <f t="shared" ref="P31:P36" si="39">IF(J31="", "", TEXT(DEC2BIN(J31), "000"))</f>
+        <v/>
+      </c>
       <c r="Q31" s="17" t="str">
-        <f t="shared" ref="Q31" si="38">IF(K31="", "", TEXT(DEC2BIN(K31), "00000000"))</f>
+        <f t="shared" ref="Q31:Q36" si="40">IF(K31="", "", TEXT(DEC2BIN(K31), "00000000"))</f>
         <v/>
       </c>
       <c r="R31" s="18" t="str">
-        <f t="shared" ref="R31" si="39">IF(L31="", "", TEXT(DEC2BIN(L31), "00000000"))</f>
+        <f t="shared" ref="R31:R36" si="41">IF(L31="", "", TEXT(DEC2BIN(L31), "00000000"))</f>
         <v>00000001</v>
       </c>
       <c r="S31" t="str">
-        <f t="shared" ref="S31:S36" si="40">BIN2HEX(LEFT(CONCATENATE(M31,IF(N31="", "000", N31)), 8), 2)</f>
+        <f t="shared" ref="S31:S36" si="42">BIN2HEX(LEFT(CONCATENATE(M31,IF(N31="", "000", N31)), 8), 2)</f>
         <v>07</v>
       </c>
       <c r="T31" t="str">
-        <f t="shared" ref="T31:T36" si="41">BIN2HEX(CONCATENATE(RIGHT(N31, 1), IF(O31 = "", "000", O31), "0000"), 2)</f>
+        <f t="shared" ref="T31:T36" si="43">BIN2HEX(CONCATENATE(RIGHT(N31, 1), IF(O31 = "", "000", O31), IF(P31 = "", "000", P31), "0"), 2)</f>
         <v>00</v>
       </c>
       <c r="U31" s="13" t="str">
-        <f t="shared" ref="U31:U36" si="42">IF(Q31="", BIN2HEX(R31, 2), BIN2HEX(Q31,2))</f>
+        <f t="shared" ref="U31:U36" si="44">IF(Q31="", BIN2HEX(R31, 2), BIN2HEX(Q31,2))</f>
         <v>01</v>
       </c>
     </row>
@@ -5980,7 +6015,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0x003</v>
       </c>
       <c r="C32" t="s">
@@ -5993,43 +6028,46 @@
         <v>38</v>
       </c>
       <c r="H32">
-        <f t="shared" ref="H32" si="43">IF(G32="", "", VLOOKUP(G32, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H32" si="45">IF(G32="", "", VLOOKUP(G32, $W$3:$X$10, 2))</f>
         <v>0</v>
       </c>
       <c r="L32">
         <v>32</v>
       </c>
       <c r="M32" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>000001</v>
       </c>
       <c r="N32" s="17" t="str">
-        <f t="shared" ref="N32" si="44">IF(H32="", "", TEXT(DEC2BIN(H32), "000"))</f>
+        <f t="shared" si="37"/>
         <v>000</v>
       </c>
       <c r="O32" s="17" t="str">
-        <f t="shared" ref="O32" si="45">IF(I32="", "", TEXT(DEC2BIN(I32), "000"))</f>
-        <v/>
-      </c>
-      <c r="P32" s="17"/>
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="P32" s="17" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
       <c r="Q32" s="17" t="str">
-        <f t="shared" ref="Q32" si="46">IF(K32="", "", TEXT(DEC2BIN(K32), "00000000"))</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="R32" s="18" t="str">
-        <f t="shared" ref="R32" si="47">IF(L32="", "", TEXT(DEC2BIN(L32), "00000000"))</f>
+        <f t="shared" si="41"/>
         <v>00100000</v>
       </c>
       <c r="S32" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>04</v>
       </c>
       <c r="T32" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>00</v>
       </c>
       <c r="U32" s="13" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>20</v>
       </c>
     </row>
@@ -6038,11 +6076,11 @@
         <v>6</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0x006</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F33" s="11">
         <v>32</v>
@@ -6051,43 +6089,46 @@
         <v>38</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33" si="48">IF(G33="", "", VLOOKUP(G33, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H33" si="46">IF(G33="", "", VLOOKUP(G33, $W$3:$X$10, 2))</f>
         <v>0</v>
       </c>
       <c r="I33">
         <v>6</v>
       </c>
       <c r="M33" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>100000</v>
       </c>
       <c r="N33" s="17" t="str">
-        <f t="shared" ref="N33" si="49">IF(H33="", "", TEXT(DEC2BIN(H33), "000"))</f>
+        <f t="shared" si="37"/>
         <v>000</v>
       </c>
       <c r="O33" s="17" t="str">
-        <f t="shared" ref="O33" si="50">IF(I33="", "", TEXT(DEC2BIN(I33), "000"))</f>
+        <f t="shared" si="38"/>
         <v>110</v>
       </c>
-      <c r="P33" s="17"/>
+      <c r="P33" s="17" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
       <c r="Q33" s="17" t="str">
-        <f t="shared" ref="Q33" si="51">IF(K33="", "", TEXT(DEC2BIN(K33), "00000000"))</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="R33" s="18" t="str">
-        <f t="shared" ref="R33" si="52">IF(L33="", "", TEXT(DEC2BIN(L33), "00000000"))</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="S33" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>80</v>
       </c>
       <c r="T33" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>60</v>
       </c>
       <c r="U33" s="13" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>00</v>
       </c>
     </row>
@@ -6096,11 +6137,11 @@
         <v>9</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0x009</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F34" s="11">
         <v>6</v>
@@ -6109,36 +6150,39 @@
         <v>15</v>
       </c>
       <c r="M34" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>000110</v>
       </c>
       <c r="N34" s="17" t="str">
-        <f t="shared" ref="N34:O36" si="53">IF(H34="", "", TEXT(DEC2BIN(H34), "000"))</f>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="O34" s="17" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="P34" s="17"/>
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="P34" s="17" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
       <c r="Q34" s="17" t="str">
-        <f t="shared" ref="Q34:R36" si="54">IF(K34="", "", TEXT(DEC2BIN(K34), "00000000"))</f>
+        <f t="shared" si="40"/>
         <v>00001111</v>
       </c>
       <c r="R34" s="18" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="S34" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>18</v>
       </c>
       <c r="T34" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>00</v>
       </c>
       <c r="U34" s="13" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0F</v>
       </c>
     </row>
@@ -6147,7 +6191,7 @@
         <v>12</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0x00C</v>
       </c>
       <c r="C35" t="s">
@@ -6160,36 +6204,39 @@
         <v>6</v>
       </c>
       <c r="M35" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>000101</v>
       </c>
       <c r="N35" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="O35" s="17" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="P35" s="17"/>
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="P35" s="17" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
       <c r="Q35" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="40"/>
         <v>00000110</v>
       </c>
       <c r="R35" s="18" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="S35" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>14</v>
       </c>
       <c r="T35" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>00</v>
       </c>
       <c r="U35" s="13" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>06</v>
       </c>
     </row>
@@ -6198,11 +6245,11 @@
         <v>15</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0x00F</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F36" s="11">
         <v>5</v>
@@ -6211,42 +6258,45 @@
         <v>15</v>
       </c>
       <c r="M36" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>000101</v>
       </c>
       <c r="N36" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="O36" s="17" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="P36" s="17"/>
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="P36" s="17" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
       <c r="Q36" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="40"/>
         <v>00001111</v>
       </c>
       <c r="R36" s="18" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="S36" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>14</v>
       </c>
       <c r="T36" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>00</v>
       </c>
       <c r="U36" s="13" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0F</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C40" s="8" t="s">
-        <v>90</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
@@ -6254,11 +6304,11 @@
         <v>0</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" ref="B41:B44" si="55">"0x" &amp; DEC2HEX(A41,3)</f>
+        <f t="shared" ref="B41:B44" si="47">"0x" &amp; DEC2HEX(A41,3)</f>
         <v>0x000</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F41" s="11">
         <v>3</v>
@@ -6267,43 +6317,46 @@
         <v>38</v>
       </c>
       <c r="H41">
-        <f t="shared" ref="H41:H42" si="56">IF(G41="", "", VLOOKUP(G41, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H41:H42" si="48">IF(G41="", "", VLOOKUP(G41, $W$3:$X$10, 2))</f>
         <v>0</v>
       </c>
       <c r="K41">
         <v>16</v>
       </c>
       <c r="M41" s="16" t="str">
-        <f t="shared" ref="M41:M42" si="57">IF(F41="", "", TEXT(DEC2BIN(F41), "000000"))</f>
+        <f t="shared" ref="M41:M43" si="49">IF(F41="", "", TEXT(DEC2BIN(F41), "000000"))</f>
         <v>000011</v>
       </c>
       <c r="N41" s="17" t="str">
-        <f t="shared" ref="N41:N42" si="58">IF(H41="", "", TEXT(DEC2BIN(H41), "000"))</f>
+        <f t="shared" ref="N41:N43" si="50">IF(H41="", "", TEXT(DEC2BIN(H41), "000"))</f>
         <v>000</v>
       </c>
       <c r="O41" s="17" t="str">
-        <f t="shared" ref="O41:O42" si="59">IF(I41="", "", TEXT(DEC2BIN(I41), "000"))</f>
-        <v/>
-      </c>
-      <c r="P41" s="17"/>
+        <f t="shared" ref="O41:O43" si="51">IF(I41="", "", TEXT(DEC2BIN(I41), "000"))</f>
+        <v/>
+      </c>
+      <c r="P41" s="17" t="str">
+        <f t="shared" ref="P41:P43" si="52">IF(J41="", "", TEXT(DEC2BIN(J41), "000"))</f>
+        <v/>
+      </c>
       <c r="Q41" s="17" t="str">
-        <f t="shared" ref="Q41:Q42" si="60">IF(K41="", "", TEXT(DEC2BIN(K41), "00000000"))</f>
+        <f t="shared" ref="Q41:Q43" si="53">IF(K41="", "", TEXT(DEC2BIN(K41), "00000000"))</f>
         <v>00010000</v>
       </c>
       <c r="R41" s="18" t="str">
-        <f t="shared" ref="R41:R42" si="61">IF(L41="", "", TEXT(DEC2BIN(L41), "00000000"))</f>
+        <f t="shared" ref="R41:R43" si="54">IF(L41="", "", TEXT(DEC2BIN(L41), "00000000"))</f>
         <v/>
       </c>
       <c r="S41" t="str">
-        <f t="shared" ref="S41:S42" si="62">BIN2HEX(LEFT(CONCATENATE(M41,IF(N41="", "000", N41)), 8), 2)</f>
+        <f t="shared" ref="S41:S43" si="55">BIN2HEX(LEFT(CONCATENATE(M41,IF(N41="", "000", N41)), 8), 2)</f>
         <v>0C</v>
       </c>
       <c r="T41" t="str">
-        <f t="shared" ref="T41:T42" si="63">BIN2HEX(CONCATENATE(RIGHT(N41, 1), IF(O41 = "", "000", O41), "0000"), 2)</f>
+        <f t="shared" ref="T41:T43" si="56">BIN2HEX(CONCATENATE(RIGHT(N41, 1), IF(O41 = "", "000", O41), IF(P41 = "", "000", P41), "0"), 2)</f>
         <v>00</v>
       </c>
       <c r="U41" s="13" t="str">
-        <f t="shared" ref="U41:U42" si="64">IF(Q41="", BIN2HEX(R41, 2), BIN2HEX(Q41,2))</f>
+        <f t="shared" ref="U41:U43" si="57">IF(Q41="", BIN2HEX(R41, 2), BIN2HEX(Q41,2))</f>
         <v>10</v>
       </c>
     </row>
@@ -6312,11 +6365,11 @@
         <v>3</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="47"/>
         <v>0x003</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F42" s="11">
         <v>10</v>
@@ -6325,43 +6378,46 @@
         <v>38</v>
       </c>
       <c r="H42">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="K42">
         <v>17</v>
       </c>
       <c r="M42" s="16" t="str">
+        <f t="shared" si="49"/>
+        <v>001010</v>
+      </c>
+      <c r="N42" s="17" t="str">
+        <f t="shared" si="50"/>
+        <v>000</v>
+      </c>
+      <c r="O42" s="17" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="P42" s="17" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="Q42" s="17" t="str">
+        <f t="shared" si="53"/>
+        <v>00010001</v>
+      </c>
+      <c r="R42" s="18" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="S42" t="str">
+        <f t="shared" si="55"/>
+        <v>28</v>
+      </c>
+      <c r="T42" t="str">
+        <f t="shared" si="56"/>
+        <v>00</v>
+      </c>
+      <c r="U42" s="13" t="str">
         <f t="shared" si="57"/>
-        <v>001010</v>
-      </c>
-      <c r="N42" s="17" t="str">
-        <f t="shared" si="58"/>
-        <v>000</v>
-      </c>
-      <c r="O42" s="17" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17" t="str">
-        <f t="shared" si="60"/>
-        <v>00010001</v>
-      </c>
-      <c r="R42" s="18" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-      <c r="S42" t="str">
-        <f t="shared" si="62"/>
-        <v>28</v>
-      </c>
-      <c r="T42" t="str">
-        <f t="shared" si="63"/>
-        <v>00</v>
-      </c>
-      <c r="U42" s="13" t="str">
-        <f t="shared" si="64"/>
         <v>11</v>
       </c>
     </row>
@@ -6370,7 +6426,7 @@
         <v>6</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="47"/>
         <v>0x006</v>
       </c>
       <c r="C43" t="s">
@@ -6383,36 +6439,39 @@
         <v>6</v>
       </c>
       <c r="M43" s="16" t="str">
-        <f>IF(F43="", "", TEXT(DEC2BIN(F43), "000000"))</f>
+        <f t="shared" si="49"/>
         <v>000101</v>
       </c>
       <c r="N43" s="17" t="str">
-        <f>IF(H43="", "", TEXT(DEC2BIN(H43), "000"))</f>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="O43" s="17" t="str">
-        <f>IF(I43="", "", TEXT(DEC2BIN(I43), "000"))</f>
-        <v/>
-      </c>
-      <c r="P43" s="17"/>
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="P43" s="17" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
       <c r="Q43" s="17" t="str">
-        <f>IF(K43="", "", TEXT(DEC2BIN(K43), "00000000"))</f>
+        <f t="shared" si="53"/>
         <v>00000110</v>
       </c>
       <c r="R43" s="18" t="str">
-        <f>IF(L43="", "", TEXT(DEC2BIN(L43), "00000000"))</f>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="S43" t="str">
-        <f>BIN2HEX(LEFT(CONCATENATE(M43,IF(N43="", "000", N43)), 8), 2)</f>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="T43" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N43, 1), IF(O43 = "", "000", O43), "0000"), 2)</f>
+        <f t="shared" si="56"/>
         <v>00</v>
       </c>
       <c r="U43" s="13" t="str">
-        <f>IF(Q43="", BIN2HEX(R43, 2), BIN2HEX(Q43,2))</f>
+        <f t="shared" si="57"/>
         <v>06</v>
       </c>
     </row>
@@ -6421,14 +6480,14 @@
         <v>16</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="47"/>
         <v>0x010</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
@@ -6436,7 +6495,7 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C48" s="8" t="s">
-        <v>93</v>
+        <v>267</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
@@ -6444,14 +6503,14 @@
         <v>0</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" ref="B49:B50" si="65">"0x" &amp; DEC2HEX(A49,3)</f>
+        <f t="shared" ref="B49:B50" si="58">"0x" &amp; DEC2HEX(A49,3)</f>
         <v>0x000</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F49" s="11">
         <v>1</v>
@@ -6460,43 +6519,46 @@
         <v>39</v>
       </c>
       <c r="H49">
-        <f t="shared" ref="H49" si="66">IF(G49="", "", VLOOKUP(G49, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H49:H50" si="59">IF(G49="", "", VLOOKUP(G49, $W$3:$X$10, 2))</f>
         <v>1</v>
       </c>
       <c r="L49">
         <v>65</v>
       </c>
       <c r="M49" s="16" t="str">
-        <f t="shared" ref="M49" si="67">IF(F49="", "", TEXT(DEC2BIN(F49), "000000"))</f>
+        <f t="shared" ref="M49:M50" si="60">IF(F49="", "", TEXT(DEC2BIN(F49), "000000"))</f>
         <v>000001</v>
       </c>
       <c r="N49" s="17" t="str">
-        <f t="shared" ref="N49" si="68">IF(H49="", "", TEXT(DEC2BIN(H49), "000"))</f>
+        <f t="shared" ref="N49:N50" si="61">IF(H49="", "", TEXT(DEC2BIN(H49), "000"))</f>
         <v>001</v>
       </c>
       <c r="O49" s="17" t="str">
-        <f t="shared" ref="O49" si="69">IF(I49="", "", TEXT(DEC2BIN(I49), "000"))</f>
-        <v/>
-      </c>
-      <c r="P49" s="17"/>
+        <f t="shared" ref="O49:O50" si="62">IF(I49="", "", TEXT(DEC2BIN(I49), "000"))</f>
+        <v/>
+      </c>
+      <c r="P49" s="17" t="str">
+        <f t="shared" ref="P49:P50" si="63">IF(J49="", "", TEXT(DEC2BIN(J49), "000"))</f>
+        <v/>
+      </c>
       <c r="Q49" s="17" t="str">
-        <f t="shared" ref="Q49" si="70">IF(K49="", "", TEXT(DEC2BIN(K49), "00000000"))</f>
+        <f t="shared" ref="Q49:Q50" si="64">IF(K49="", "", TEXT(DEC2BIN(K49), "00000000"))</f>
         <v/>
       </c>
       <c r="R49" s="18" t="str">
-        <f t="shared" ref="R49" si="71">IF(L49="", "", TEXT(DEC2BIN(L49), "00000000"))</f>
+        <f t="shared" ref="R49:R50" si="65">IF(L49="", "", TEXT(DEC2BIN(L49), "00000000"))</f>
         <v>01000001</v>
       </c>
       <c r="S49" t="str">
-        <f t="shared" ref="S49" si="72">BIN2HEX(LEFT(CONCATENATE(M49,IF(N49="", "000", N49)), 8), 2)</f>
+        <f t="shared" ref="S49:S50" si="66">BIN2HEX(LEFT(CONCATENATE(M49,IF(N49="", "000", N49)), 8), 2)</f>
         <v>04</v>
       </c>
       <c r="T49" t="str">
-        <f t="shared" ref="T49" si="73">BIN2HEX(CONCATENATE(RIGHT(N49, 1), IF(O49 = "", "000", O49), "0000"), 2)</f>
+        <f t="shared" ref="T49:T50" si="67">BIN2HEX(CONCATENATE(RIGHT(N49, 1), IF(O49 = "", "000", O49), IF(P49 = "", "000", P49), "0"), 2)</f>
         <v>80</v>
       </c>
       <c r="U49" s="13" t="str">
-        <f t="shared" ref="U49" si="74">IF(Q49="", BIN2HEX(R49, 2), BIN2HEX(Q49,2))</f>
+        <f t="shared" ref="U49:U50" si="68">IF(Q49="", BIN2HEX(R49, 2), BIN2HEX(Q49,2))</f>
         <v>41</v>
       </c>
     </row>
@@ -6505,52 +6567,59 @@
         <v>3</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="58"/>
         <v>0x003</v>
       </c>
       <c r="C50" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F50" s="11">
         <v>17</v>
       </c>
+      <c r="G50" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
       </c>
       <c r="M50" s="16" t="str">
-        <f t="shared" ref="M50" si="75">IF(F50="", "", TEXT(DEC2BIN(F50), "000000"))</f>
+        <f t="shared" si="60"/>
         <v>010001</v>
       </c>
       <c r="N50" s="17" t="str">
-        <f t="shared" ref="N50" si="76">IF(H50="", "", TEXT(DEC2BIN(H50), "000"))</f>
+        <f t="shared" si="61"/>
+        <v>001</v>
+      </c>
+      <c r="O50" s="17" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="P50" s="17" t="str">
+        <f t="shared" si="63"/>
         <v>000</v>
       </c>
-      <c r="O50" s="17" t="str">
-        <f t="shared" ref="O50" si="77">IF(I50="", "", TEXT(DEC2BIN(I50), "000"))</f>
-        <v>001</v>
-      </c>
-      <c r="P50" s="17"/>
       <c r="Q50" s="17" t="str">
-        <f t="shared" ref="Q50" si="78">IF(K50="", "", TEXT(DEC2BIN(K50), "00000000"))</f>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="R50" s="18" t="str">
-        <f t="shared" ref="R50" si="79">IF(L50="", "", TEXT(DEC2BIN(L50), "00000000"))</f>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="S50" t="str">
-        <f t="shared" ref="S50" si="80">BIN2HEX(LEFT(CONCATENATE(M50,IF(N50="", "000", N50)), 8), 2)</f>
+        <f t="shared" si="66"/>
         <v>44</v>
       </c>
       <c r="T50" t="str">
-        <f t="shared" ref="T50" si="81">BIN2HEX(CONCATENATE(RIGHT(N50, 1), IF(O50 = "", "000", O50), "0000"), 2)</f>
-        <v>10</v>
+        <f t="shared" si="67"/>
+        <v>80</v>
       </c>
       <c r="U50" s="13" t="str">
-        <f t="shared" ref="U50" si="82">IF(Q50="", BIN2HEX(R50, 2), BIN2HEX(Q50,2))</f>
+        <f t="shared" si="68"/>
         <v>00</v>
       </c>
     </row>
@@ -6562,7 +6631,7 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C55" s="8" t="s">
-        <v>138</v>
+        <v>268</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
@@ -6570,17 +6639,17 @@
         <v>0</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" ref="B56:B79" si="83">"0x" &amp; DEC2HEX(A56,3)</f>
+        <f t="shared" ref="B56:B79" si="69">"0x" &amp; DEC2HEX(A56,3)</f>
         <v>0x000</v>
       </c>
       <c r="C56" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F56" s="43"/>
     </row>
@@ -6589,14 +6658,14 @@
         <v>3</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="69"/>
         <v>0x003</v>
       </c>
       <c r="C57" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c r="E57" s="8"/>
     </row>
@@ -6605,17 +6674,17 @@
         <v>6</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="69"/>
         <v>0x006</v>
       </c>
       <c r="C58" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.3">
@@ -6623,14 +6692,14 @@
         <v>9</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="69"/>
         <v>0x009</v>
       </c>
       <c r="C59" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c r="E59" s="8"/>
     </row>
@@ -6639,17 +6708,17 @@
         <v>12</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="69"/>
         <v>0x00C</v>
       </c>
       <c r="C60" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
@@ -6657,14 +6726,14 @@
         <v>15</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="69"/>
         <v>0x00F</v>
       </c>
       <c r="C61" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c r="E61" s="8"/>
     </row>
@@ -6673,17 +6742,17 @@
         <v>18</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="69"/>
         <v>0x012</v>
       </c>
       <c r="C62" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
@@ -6691,14 +6760,14 @@
         <v>21</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="69"/>
         <v>0x015</v>
       </c>
       <c r="C63" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c r="E63" s="8"/>
     </row>
@@ -6707,17 +6776,17 @@
         <v>24</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="69"/>
         <v>0x018</v>
       </c>
       <c r="C64" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -6725,14 +6794,14 @@
         <v>27</v>
       </c>
       <c r="B65" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="69"/>
         <v>0x01B</v>
       </c>
       <c r="C65" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c r="E65" s="8"/>
     </row>
@@ -6741,17 +6810,17 @@
         <v>30</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="69"/>
         <v>0x01E</v>
       </c>
       <c r="C66" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -6759,14 +6828,14 @@
         <v>33</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="69"/>
         <v>0x021</v>
       </c>
       <c r="C67" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c r="E67" s="8"/>
     </row>
@@ -6775,17 +6844,17 @@
         <v>36</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="69"/>
         <v>0x024</v>
       </c>
       <c r="C68" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -6793,14 +6862,14 @@
         <v>39</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="69"/>
         <v>0x027</v>
       </c>
       <c r="C69" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c r="E69" s="8"/>
     </row>
@@ -6809,17 +6878,17 @@
         <v>42</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="69"/>
         <v>0x02A</v>
       </c>
       <c r="C70" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -6827,14 +6896,14 @@
         <v>45</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="69"/>
         <v>0x02D</v>
       </c>
       <c r="C71" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c r="E71" s="8"/>
     </row>
@@ -6843,17 +6912,17 @@
         <v>48</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="69"/>
         <v>0x030</v>
       </c>
       <c r="C72" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -6861,14 +6930,14 @@
         <v>51</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="69"/>
         <v>0x033</v>
       </c>
       <c r="C73" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c r="E73" s="8"/>
     </row>
@@ -6877,17 +6946,17 @@
         <v>54</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="69"/>
         <v>0x036</v>
       </c>
       <c r="C74" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -6895,14 +6964,14 @@
         <v>57</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="69"/>
         <v>0x039</v>
       </c>
       <c r="C75" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c r="E75" s="8"/>
     </row>
@@ -6911,17 +6980,17 @@
         <v>60</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="69"/>
         <v>0x03C</v>
       </c>
       <c r="C76" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -6929,14 +6998,14 @@
         <v>63</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="69"/>
         <v>0x03F</v>
       </c>
       <c r="C77" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c r="E77" s="8"/>
     </row>
@@ -6945,17 +7014,17 @@
         <v>66</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="69"/>
         <v>0x042</v>
       </c>
       <c r="C78" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -6963,14 +7032,14 @@
         <v>69</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="69"/>
         <v>0x045</v>
       </c>
       <c r="C79" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c r="E79" s="8"/>
     </row>
@@ -6983,7 +7052,7 @@
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C82" s="8" t="s">
-        <v>139</v>
+        <v>269</v>
       </c>
       <c r="D82"/>
       <c r="E82" s="8"/>
@@ -6993,60 +7062,63 @@
         <v>0</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" ref="B83:B87" si="84">"0x" &amp; DEC2HEX(A83,3)</f>
+        <f t="shared" ref="B83:B87" si="70">"0x" &amp; DEC2HEX(A83,3)</f>
         <v>0x000</v>
       </c>
       <c r="C83" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D83"/>
       <c r="E83" s="8" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="F83" s="11">
         <v>1</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H83">
-        <f t="shared" ref="H83" si="85">IF(G83="", "", VLOOKUP(G83, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H83" si="71">IF(G83="", "", VLOOKUP(G83, $W$3:$X$10, 2))</f>
         <v>2</v>
       </c>
       <c r="L83">
         <v>0</v>
       </c>
       <c r="M83" s="16" t="str">
-        <f t="shared" ref="M83" si="86">IF(F83="", "", TEXT(DEC2BIN(F83), "000000"))</f>
+        <f t="shared" ref="M83:M93" si="72">IF(F83="", "", TEXT(DEC2BIN(F83), "000000"))</f>
         <v>000001</v>
       </c>
       <c r="N83" s="17" t="str">
-        <f t="shared" ref="N83" si="87">IF(H83="", "", TEXT(DEC2BIN(H83), "000"))</f>
+        <f t="shared" ref="N83:N93" si="73">IF(H83="", "", TEXT(DEC2BIN(H83), "000"))</f>
         <v>010</v>
       </c>
       <c r="O83" s="17" t="str">
-        <f t="shared" ref="O83" si="88">IF(I83="", "", TEXT(DEC2BIN(I83), "000"))</f>
-        <v/>
-      </c>
-      <c r="P83" s="17"/>
+        <f t="shared" ref="O83:O93" si="74">IF(I83="", "", TEXT(DEC2BIN(I83), "000"))</f>
+        <v/>
+      </c>
+      <c r="P83" s="17" t="str">
+        <f t="shared" ref="P83:P93" si="75">IF(J83="", "", TEXT(DEC2BIN(J83), "000"))</f>
+        <v/>
+      </c>
       <c r="Q83" s="17" t="str">
-        <f t="shared" ref="Q83" si="89">IF(K83="", "", TEXT(DEC2BIN(K83), "00000000"))</f>
+        <f t="shared" ref="Q83:Q93" si="76">IF(K83="", "", TEXT(DEC2BIN(K83), "00000000"))</f>
         <v/>
       </c>
       <c r="R83" s="18" t="str">
-        <f t="shared" ref="R83" si="90">IF(L83="", "", TEXT(DEC2BIN(L83), "00000000"))</f>
+        <f t="shared" ref="R83:R93" si="77">IF(L83="", "", TEXT(DEC2BIN(L83), "00000000"))</f>
         <v>00000000</v>
       </c>
       <c r="S83" t="str">
-        <f t="shared" ref="S83" si="91">BIN2HEX(LEFT(CONCATENATE(M83,IF(N83="", "000", N83)), 8), 2)</f>
+        <f t="shared" ref="S83:S93" si="78">BIN2HEX(LEFT(CONCATENATE(M83,IF(N83="", "000", N83)), 8), 2)</f>
         <v>05</v>
       </c>
       <c r="T83" t="str">
-        <f t="shared" ref="T83" si="92">BIN2HEX(CONCATENATE(RIGHT(N83, 1), IF(O83 = "", "000", O83), "0000"), 2)</f>
+        <f t="shared" ref="T83:T93" si="79">BIN2HEX(CONCATENATE(RIGHT(N83, 1), IF(O83 = "", "000", O83), IF(P83 = "", "000", P83), "0"), 2)</f>
         <v>00</v>
       </c>
       <c r="U83" s="13" t="str">
-        <f t="shared" ref="U83" si="93">IF(Q83="", BIN2HEX(R83, 2), BIN2HEX(Q83,2))</f>
+        <f t="shared" ref="U83:U93" si="80">IF(Q83="", BIN2HEX(R83, 2), BIN2HEX(Q83,2))</f>
         <v>00</v>
       </c>
     </row>
@@ -7055,59 +7127,62 @@
         <v>3</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="70"/>
         <v>0x003</v>
       </c>
       <c r="C84" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="F84" s="11">
         <v>1</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="H84">
-        <f t="shared" ref="H84:H86" si="94">IF(G84="", "", VLOOKUP(G84, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H84:H86" si="81">IF(G84="", "", VLOOKUP(G84, $W$3:$X$10, 2))</f>
         <v>3</v>
       </c>
       <c r="L84">
         <v>48</v>
       </c>
       <c r="M84" s="16" t="str">
-        <f t="shared" ref="M84:M86" si="95">IF(F84="", "", TEXT(DEC2BIN(F84), "000000"))</f>
+        <f t="shared" si="72"/>
         <v>000001</v>
       </c>
       <c r="N84" s="17" t="str">
-        <f t="shared" ref="N84:N86" si="96">IF(H84="", "", TEXT(DEC2BIN(H84), "000"))</f>
+        <f t="shared" si="73"/>
         <v>011</v>
       </c>
       <c r="O84" s="17" t="str">
-        <f t="shared" ref="O84:O86" si="97">IF(I84="", "", TEXT(DEC2BIN(I84), "000"))</f>
-        <v/>
-      </c>
-      <c r="P84" s="17"/>
+        <f t="shared" si="74"/>
+        <v/>
+      </c>
+      <c r="P84" s="17" t="str">
+        <f t="shared" si="75"/>
+        <v/>
+      </c>
       <c r="Q84" s="17" t="str">
-        <f t="shared" ref="Q84:Q86" si="98">IF(K84="", "", TEXT(DEC2BIN(K84), "00000000"))</f>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="R84" s="18" t="str">
-        <f t="shared" ref="R84:R86" si="99">IF(L84="", "", TEXT(DEC2BIN(L84), "00000000"))</f>
+        <f t="shared" si="77"/>
         <v>00110000</v>
       </c>
       <c r="S84" t="str">
-        <f t="shared" ref="S84:S86" si="100">BIN2HEX(LEFT(CONCATENATE(M84,IF(N84="", "000", N84)), 8), 2)</f>
+        <f t="shared" si="78"/>
         <v>05</v>
       </c>
       <c r="T84" t="str">
-        <f t="shared" ref="T84:T86" si="101">BIN2HEX(CONCATENATE(RIGHT(N84, 1), IF(O84 = "", "000", O84), "0000"), 2)</f>
+        <f t="shared" si="79"/>
         <v>80</v>
       </c>
       <c r="U84" s="13" t="str">
-        <f t="shared" ref="U84:U86" si="102">IF(Q84="", BIN2HEX(R84, 2), BIN2HEX(Q84,2))</f>
+        <f t="shared" si="80"/>
         <v>30</v>
       </c>
     </row>
@@ -7116,59 +7191,62 @@
         <v>6</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="70"/>
         <v>0x006</v>
       </c>
       <c r="C85" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F85" s="11">
         <v>1</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="H85">
-        <f t="shared" si="94"/>
+        <f t="shared" si="81"/>
         <v>7</v>
       </c>
       <c r="L85">
         <v>60</v>
       </c>
       <c r="M85" s="16" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="72"/>
         <v>000001</v>
       </c>
       <c r="N85" s="17" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="73"/>
         <v>111</v>
       </c>
       <c r="O85" s="17" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-      <c r="P85" s="17"/>
+        <f t="shared" si="74"/>
+        <v/>
+      </c>
+      <c r="P85" s="17" t="str">
+        <f t="shared" si="75"/>
+        <v/>
+      </c>
       <c r="Q85" s="17" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="R85" s="18" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="77"/>
         <v>00111100</v>
       </c>
       <c r="S85" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="78"/>
         <v>07</v>
       </c>
       <c r="T85" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="79"/>
         <v>80</v>
       </c>
       <c r="U85" s="13" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="80"/>
         <v>3C</v>
       </c>
     </row>
@@ -7177,14 +7255,14 @@
         <v>9</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="70"/>
         <v>0x009</v>
       </c>
       <c r="C86" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F86" s="11">
         <v>4</v>
@@ -7193,40 +7271,43 @@
         <v>38</v>
       </c>
       <c r="H86">
-        <f t="shared" si="94"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="M86" s="16" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="72"/>
         <v>000100</v>
       </c>
       <c r="N86" s="17" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="73"/>
         <v>000</v>
       </c>
       <c r="O86" s="17" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-      <c r="P86" s="17"/>
+        <f t="shared" si="74"/>
+        <v/>
+      </c>
+      <c r="P86" s="17" t="str">
+        <f t="shared" si="75"/>
+        <v/>
+      </c>
       <c r="Q86" s="17" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="R86" s="18" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="S86" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="78"/>
         <v>10</v>
       </c>
       <c r="T86" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="79"/>
         <v>00</v>
       </c>
       <c r="U86" s="13" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="80"/>
         <v>00</v>
       </c>
     </row>
@@ -7235,15 +7316,15 @@
         <v>12</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="70"/>
         <v>0x00C</v>
       </c>
       <c r="C87" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D87"/>
       <c r="E87" s="8" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F87" s="11">
         <v>17</v>
@@ -7252,43 +7333,46 @@
         <v>38</v>
       </c>
       <c r="H87">
-        <f t="shared" ref="H87:H89" si="103">IF(G87="", "", VLOOKUP(G87, $W$3:$X$10, 2))</f>
-        <v>0</v>
-      </c>
-      <c r="I87">
+        <f t="shared" ref="H87:H89" si="82">IF(G87="", "", VLOOKUP(G87, $W$3:$X$10, 2))</f>
+        <v>0</v>
+      </c>
+      <c r="J87">
         <v>0</v>
       </c>
       <c r="M87" s="16" t="str">
-        <f t="shared" ref="M87" si="104">IF(F87="", "", TEXT(DEC2BIN(F87), "000000"))</f>
+        <f t="shared" si="72"/>
         <v>010001</v>
       </c>
       <c r="N87" s="17" t="str">
-        <f t="shared" ref="N87:N89" si="105">IF(H87="", "", TEXT(DEC2BIN(H87), "000"))</f>
+        <f t="shared" si="73"/>
         <v>000</v>
       </c>
       <c r="O87" s="17" t="str">
-        <f t="shared" ref="O87:O89" si="106">IF(I87="", "", TEXT(DEC2BIN(I87), "000"))</f>
+        <f t="shared" si="74"/>
+        <v/>
+      </c>
+      <c r="P87" s="17" t="str">
+        <f t="shared" si="75"/>
         <v>000</v>
       </c>
-      <c r="P87" s="17"/>
       <c r="Q87" s="17" t="str">
-        <f t="shared" ref="Q87:Q89" si="107">IF(K87="", "", TEXT(DEC2BIN(K87), "00000000"))</f>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="R87" s="18" t="str">
-        <f t="shared" ref="R87:R89" si="108">IF(L87="", "", TEXT(DEC2BIN(L87), "00000000"))</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="S87" t="str">
-        <f t="shared" ref="S87" si="109">BIN2HEX(LEFT(CONCATENATE(M87,IF(N87="", "000", N87)), 8), 2)</f>
+        <f t="shared" si="78"/>
         <v>44</v>
       </c>
       <c r="T87" t="str">
-        <f t="shared" ref="T87" si="110">BIN2HEX(CONCATENATE(RIGHT(N87, 1), IF(O87 = "", "000", O87), "0000"), 2)</f>
+        <f t="shared" si="79"/>
         <v>00</v>
       </c>
       <c r="U87" s="13" t="str">
-        <f t="shared" ref="U87" si="111">IF(Q87="", BIN2HEX(R87, 2), BIN2HEX(Q87,2))</f>
+        <f t="shared" si="80"/>
         <v>00</v>
       </c>
     </row>
@@ -7297,54 +7381,57 @@
         <v>15</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" ref="B88:B93" si="112">"0x" &amp; DEC2HEX(A88,3)</f>
+        <f t="shared" ref="B88:B93" si="83">"0x" &amp; DEC2HEX(A88,3)</f>
         <v>0x00F</v>
       </c>
       <c r="C88" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E88" s="44"/>
       <c r="F88" s="11">
         <v>40</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="H88">
-        <f t="shared" si="103"/>
+        <f t="shared" si="82"/>
         <v>3</v>
       </c>
       <c r="M88" s="16" t="str">
-        <f>IF(F88="", "", TEXT(DEC2BIN(F88), "000000"))</f>
+        <f t="shared" si="72"/>
         <v>101000</v>
       </c>
       <c r="N88" s="17" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="73"/>
         <v>011</v>
       </c>
       <c r="O88" s="17" t="str">
-        <f t="shared" si="106"/>
-        <v/>
-      </c>
-      <c r="P88" s="17"/>
+        <f t="shared" si="74"/>
+        <v/>
+      </c>
+      <c r="P88" s="17" t="str">
+        <f t="shared" si="75"/>
+        <v/>
+      </c>
       <c r="Q88" s="17" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="R88" s="18" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="S88" t="str">
-        <f>BIN2HEX(LEFT(CONCATENATE(M88,IF(N88="", "000", N88)), 8), 2)</f>
+        <f t="shared" si="78"/>
         <v>A1</v>
       </c>
       <c r="T88" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N88, 1), IF(O88 = "", "000", O88), "0000"), 2)</f>
+        <f t="shared" si="79"/>
         <v>80</v>
       </c>
       <c r="U88" s="13" t="str">
-        <f>IF(Q88="", BIN2HEX(R88, 2), BIN2HEX(Q88,2))</f>
+        <f t="shared" si="80"/>
         <v>00</v>
       </c>
     </row>
@@ -7353,14 +7440,14 @@
         <v>18</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="83"/>
         <v>0x012</v>
       </c>
       <c r="C89" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="F89" s="11">
         <v>2</v>
@@ -7369,43 +7456,46 @@
         <v>39</v>
       </c>
       <c r="H89">
-        <f t="shared" si="103"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
       <c r="I89">
         <v>3</v>
       </c>
       <c r="M89" s="16" t="str">
-        <f t="shared" ref="M89" si="113">IF(F89="", "", TEXT(DEC2BIN(F89), "000000"))</f>
+        <f t="shared" si="72"/>
         <v>000010</v>
       </c>
       <c r="N89" s="17" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="73"/>
         <v>001</v>
       </c>
       <c r="O89" s="17" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="74"/>
         <v>011</v>
       </c>
-      <c r="P89" s="17"/>
+      <c r="P89" s="17" t="str">
+        <f t="shared" si="75"/>
+        <v/>
+      </c>
       <c r="Q89" s="17" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="R89" s="18" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="S89" t="str">
-        <f t="shared" ref="S89" si="114">BIN2HEX(LEFT(CONCATENATE(M89,IF(N89="", "000", N89)), 8), 2)</f>
+        <f t="shared" si="78"/>
         <v>08</v>
       </c>
       <c r="T89" t="str">
-        <f t="shared" ref="T89" si="115">BIN2HEX(CONCATENATE(RIGHT(N89, 1), IF(O89 = "", "000", O89), "0000"), 2)</f>
+        <f t="shared" si="79"/>
         <v>B0</v>
       </c>
       <c r="U89" s="13" t="str">
-        <f t="shared" ref="U89" si="116">IF(Q89="", BIN2HEX(R89, 2), BIN2HEX(Q89,2))</f>
+        <f t="shared" si="80"/>
         <v>00</v>
       </c>
     </row>
@@ -7414,59 +7504,62 @@
         <v>21</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="83"/>
         <v>0x015</v>
       </c>
       <c r="C90" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F90" s="11">
         <v>33</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="H90">
-        <f t="shared" ref="H90" si="117">IF(G90="", "", VLOOKUP(G90, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H90" si="84">IF(G90="", "", VLOOKUP(G90, $W$3:$X$10, 2))</f>
         <v>3</v>
       </c>
       <c r="I90">
         <v>7</v>
       </c>
       <c r="M90" s="16" t="str">
-        <f>IF(F90="", "", TEXT(DEC2BIN(F90), "000000"))</f>
+        <f t="shared" si="72"/>
         <v>100001</v>
       </c>
       <c r="N90" s="17" t="str">
-        <f t="shared" ref="N90" si="118">IF(H90="", "", TEXT(DEC2BIN(H90), "000"))</f>
+        <f t="shared" si="73"/>
         <v>011</v>
       </c>
       <c r="O90" s="17" t="str">
-        <f t="shared" ref="O90" si="119">IF(I90="", "", TEXT(DEC2BIN(I90), "000"))</f>
+        <f t="shared" si="74"/>
         <v>111</v>
       </c>
-      <c r="P90" s="17"/>
+      <c r="P90" s="17" t="str">
+        <f t="shared" si="75"/>
+        <v/>
+      </c>
       <c r="Q90" s="17" t="str">
-        <f t="shared" ref="Q90" si="120">IF(K90="", "", TEXT(DEC2BIN(K90), "00000000"))</f>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="R90" s="18" t="str">
-        <f t="shared" ref="R90" si="121">IF(L90="", "", TEXT(DEC2BIN(L90), "00000000"))</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="S90" t="str">
-        <f>BIN2HEX(LEFT(CONCATENATE(M90,IF(N90="", "000", N90)), 8), 2)</f>
+        <f t="shared" si="78"/>
         <v>85</v>
       </c>
       <c r="T90" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N90, 1), IF(O90 = "", "000", O90), "0000"), 2)</f>
+        <f t="shared" si="79"/>
         <v>F0</v>
       </c>
       <c r="U90" s="13" t="str">
-        <f>IF(Q90="", BIN2HEX(R90, 2), BIN2HEX(Q90,2))</f>
+        <f t="shared" si="80"/>
         <v>00</v>
       </c>
     </row>
@@ -7475,56 +7568,59 @@
         <v>24</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="83"/>
         <v>0x018</v>
       </c>
       <c r="C91" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F91" s="11">
         <v>6</v>
       </c>
       <c r="H91" t="str">
-        <f t="shared" ref="H91:H92" si="122">IF(G91="", "", VLOOKUP(G91, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H91:H92" si="85">IF(G91="", "", VLOOKUP(G91, $W$3:$X$10, 2))</f>
         <v/>
       </c>
       <c r="K91">
         <v>24</v>
       </c>
       <c r="M91" s="16" t="str">
-        <f>IF(F91="", "", TEXT(DEC2BIN(F91), "000000"))</f>
+        <f t="shared" si="72"/>
         <v>000110</v>
       </c>
       <c r="N91" s="17" t="str">
-        <f t="shared" ref="N91:N92" si="123">IF(H91="", "", TEXT(DEC2BIN(H91), "000"))</f>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="O91" s="17" t="str">
-        <f t="shared" ref="O91:O92" si="124">IF(I91="", "", TEXT(DEC2BIN(I91), "000"))</f>
-        <v/>
-      </c>
-      <c r="P91" s="17"/>
+        <f t="shared" si="74"/>
+        <v/>
+      </c>
+      <c r="P91" s="17" t="str">
+        <f t="shared" si="75"/>
+        <v/>
+      </c>
       <c r="Q91" s="17" t="str">
-        <f t="shared" ref="Q91:Q92" si="125">IF(K91="", "", TEXT(DEC2BIN(K91), "00000000"))</f>
+        <f t="shared" si="76"/>
         <v>00011000</v>
       </c>
       <c r="R91" s="18" t="str">
-        <f t="shared" ref="R91:R92" si="126">IF(L91="", "", TEXT(DEC2BIN(L91), "00000000"))</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="S91" t="str">
-        <f>BIN2HEX(LEFT(CONCATENATE(M91,IF(N91="", "000", N91)), 8), 2)</f>
+        <f t="shared" si="78"/>
         <v>18</v>
       </c>
       <c r="T91" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N91, 1), IF(O91 = "", "000", O91), "0000"), 2)</f>
+        <f t="shared" si="79"/>
         <v>00</v>
       </c>
       <c r="U91" s="13" t="str">
-        <f>IF(Q91="", BIN2HEX(R91, 2), BIN2HEX(Q91,2))</f>
+        <f t="shared" si="80"/>
         <v>18</v>
       </c>
     </row>
@@ -7533,59 +7629,62 @@
         <v>27</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="83"/>
         <v>0x01B</v>
       </c>
       <c r="C92" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F92" s="11">
         <v>2</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="H92">
-        <f t="shared" si="122"/>
+        <f t="shared" si="85"/>
         <v>3</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="M92" s="16" t="str">
-        <f t="shared" ref="M92" si="127">IF(F92="", "", TEXT(DEC2BIN(F92), "000000"))</f>
+        <f t="shared" si="72"/>
         <v>000010</v>
       </c>
       <c r="N92" s="17" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="73"/>
         <v>011</v>
       </c>
       <c r="O92" s="17" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="74"/>
         <v>001</v>
       </c>
-      <c r="P92" s="17"/>
+      <c r="P92" s="17" t="str">
+        <f t="shared" si="75"/>
+        <v/>
+      </c>
       <c r="Q92" s="17" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="R92" s="18" t="str">
-        <f t="shared" si="126"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="S92" t="str">
-        <f t="shared" ref="S92" si="128">BIN2HEX(LEFT(CONCATENATE(M92,IF(N92="", "000", N92)), 8), 2)</f>
+        <f t="shared" si="78"/>
         <v>09</v>
       </c>
       <c r="T92" t="str">
-        <f t="shared" ref="T92" si="129">BIN2HEX(CONCATENATE(RIGHT(N92, 1), IF(O92 = "", "000", O92), "0000"), 2)</f>
+        <f t="shared" si="79"/>
         <v>90</v>
       </c>
       <c r="U92" s="13" t="str">
-        <f t="shared" ref="U92" si="130">IF(Q92="", BIN2HEX(R92, 2), BIN2HEX(Q92,2))</f>
+        <f t="shared" si="80"/>
         <v>00</v>
       </c>
     </row>
@@ -7594,62 +7693,65 @@
         <v>30</v>
       </c>
       <c r="B93" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="83"/>
         <v>0x01E</v>
       </c>
       <c r="C93" t="s">
         <v>82</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F93" s="11">
         <v>5</v>
       </c>
       <c r="H93" t="str">
-        <f t="shared" ref="H93" si="131">IF(G93="", "", VLOOKUP(G93, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H93" si="86">IF(G93="", "", VLOOKUP(G93, $W$3:$X$10, 2))</f>
         <v/>
       </c>
       <c r="K93">
         <v>9</v>
       </c>
       <c r="M93" s="16" t="str">
-        <f>IF(F93="", "", TEXT(DEC2BIN(F93), "000000"))</f>
+        <f t="shared" si="72"/>
         <v>000101</v>
       </c>
       <c r="N93" s="17" t="str">
-        <f t="shared" ref="N93" si="132">IF(H93="", "", TEXT(DEC2BIN(H93), "000"))</f>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="O93" s="17" t="str">
-        <f t="shared" ref="O93" si="133">IF(I93="", "", TEXT(DEC2BIN(I93), "000"))</f>
-        <v/>
-      </c>
-      <c r="P93" s="17"/>
+        <f t="shared" si="74"/>
+        <v/>
+      </c>
+      <c r="P93" s="17" t="str">
+        <f t="shared" si="75"/>
+        <v/>
+      </c>
       <c r="Q93" s="17" t="str">
-        <f t="shared" ref="Q93" si="134">IF(K93="", "", TEXT(DEC2BIN(K93), "00000000"))</f>
+        <f t="shared" si="76"/>
         <v>00001001</v>
       </c>
       <c r="R93" s="18" t="str">
-        <f t="shared" ref="R93" si="135">IF(L93="", "", TEXT(DEC2BIN(L93), "00000000"))</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="S93" t="str">
-        <f>BIN2HEX(LEFT(CONCATENATE(M93,IF(N93="", "000", N93)), 8), 2)</f>
+        <f t="shared" si="78"/>
         <v>14</v>
       </c>
       <c r="T93" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N93, 1), IF(O93 = "", "000", O93), "0000"), 2)</f>
+        <f t="shared" si="79"/>
         <v>00</v>
       </c>
       <c r="U93" s="13" t="str">
-        <f>IF(Q93="", BIN2HEX(R93, 2), BIN2HEX(Q93,2))</f>
+        <f t="shared" si="80"/>
         <v>09</v>
       </c>
     </row>
     <row r="94" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E94" s="8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
@@ -7657,14 +7759,14 @@
         <v>48</v>
       </c>
       <c r="B95" t="str">
-        <f t="shared" ref="B95:B98" si="136">"0x" &amp; DEC2HEX(A95,3)</f>
+        <f t="shared" ref="B95:B98" si="87">"0x" &amp; DEC2HEX(A95,3)</f>
         <v>0x030</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
@@ -7672,14 +7774,14 @@
         <v>51</v>
       </c>
       <c r="B96" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="87"/>
         <v>0x033</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.3">
@@ -7687,14 +7789,14 @@
         <v>54</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="87"/>
         <v>0x036</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
@@ -7702,14 +7804,14 @@
         <v>57</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="87"/>
         <v>0x039</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
@@ -7717,15 +7819,13 @@
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C100" s="5" t="s">
-        <v>256</v>
-      </c>
+      <c r="C100" s="5"/>
       <c r="D100"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C101" s="8" t="s">
-        <v>140</v>
+        <v>270</v>
       </c>
       <c r="D101"/>
       <c r="E101" s="8"/>
@@ -7735,14 +7835,14 @@
         <v>0</v>
       </c>
       <c r="B102" t="str">
-        <f t="shared" ref="B102" si="137">"0x" &amp; DEC2HEX(A102,3)</f>
+        <f t="shared" ref="B102" si="88">"0x" &amp; DEC2HEX(A102,3)</f>
         <v>0x000</v>
       </c>
       <c r="C102" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F102" s="11">
         <v>1</v>
@@ -7751,46 +7851,46 @@
         <v>38</v>
       </c>
       <c r="H102">
-        <f t="shared" ref="H102" si="138">IF(G102="", "", VLOOKUP(G102, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H102" si="89">IF(G102="", "", VLOOKUP(G102, $W$3:$X$10, 2))</f>
         <v>0</v>
       </c>
       <c r="L102">
         <v>48</v>
       </c>
       <c r="M102" s="16" t="str">
-        <f t="shared" ref="M102" si="139">IF(F102="", "", TEXT(DEC2BIN(F102), "000000"))</f>
+        <f t="shared" ref="M102" si="90">IF(F102="", "", TEXT(DEC2BIN(F102), "000000"))</f>
         <v>000001</v>
       </c>
       <c r="N102" s="17" t="str">
-        <f t="shared" ref="N102" si="140">IF(H102="", "", TEXT(DEC2BIN(H102), "000"))</f>
+        <f t="shared" ref="N102" si="91">IF(H102="", "", TEXT(DEC2BIN(H102), "000"))</f>
         <v>000</v>
       </c>
       <c r="O102" s="17" t="str">
-        <f t="shared" ref="O102" si="141">IF(I102="", "", TEXT(DEC2BIN(I102), "000"))</f>
+        <f t="shared" ref="O102" si="92">IF(I102="", "", TEXT(DEC2BIN(I102), "000"))</f>
         <v/>
       </c>
       <c r="P102" s="17" t="str">
-        <f t="shared" ref="O102:P112" si="142">IF(J102="", "", TEXT(DEC2BIN(J102), "000"))</f>
+        <f t="shared" ref="O102:P112" si="93">IF(J102="", "", TEXT(DEC2BIN(J102), "000"))</f>
         <v/>
       </c>
       <c r="Q102" s="17" t="str">
-        <f t="shared" ref="Q102" si="143">IF(K102="", "", TEXT(DEC2BIN(K102), "00000000"))</f>
+        <f t="shared" ref="Q102" si="94">IF(K102="", "", TEXT(DEC2BIN(K102), "00000000"))</f>
         <v/>
       </c>
       <c r="R102" s="18" t="str">
-        <f t="shared" ref="R102" si="144">IF(L102="", "", TEXT(DEC2BIN(L102), "00000000"))</f>
+        <f t="shared" ref="R102" si="95">IF(L102="", "", TEXT(DEC2BIN(L102), "00000000"))</f>
         <v>00110000</v>
       </c>
       <c r="S102" t="str">
-        <f t="shared" ref="S102" si="145">BIN2HEX(LEFT(CONCATENATE(M102,IF(N102="", "000", N102)), 8), 2)</f>
+        <f t="shared" ref="S102" si="96">BIN2HEX(LEFT(CONCATENATE(M102,IF(N102="", "000", N102)), 8), 2)</f>
         <v>04</v>
       </c>
       <c r="T102" t="str">
-        <f t="shared" ref="T102:T112" si="146">BIN2HEX(CONCATENATE(RIGHT(N102, 1), IF(O102 = "", "000", O102), IF(P102 = "", "000", P102), "0"), 2)</f>
+        <f t="shared" ref="T102:T112" si="97">BIN2HEX(CONCATENATE(RIGHT(N102, 1), IF(O102 = "", "000", O102), IF(P102 = "", "000", P102), "0"), 2)</f>
         <v>00</v>
       </c>
       <c r="U102" s="13" t="str">
-        <f t="shared" ref="U102" si="147">IF(Q102="", BIN2HEX(R102, 2), BIN2HEX(Q102,2))</f>
+        <f t="shared" ref="U102" si="98">IF(Q102="", BIN2HEX(R102, 2), BIN2HEX(Q102,2))</f>
         <v>30</v>
       </c>
     </row>
@@ -7799,62 +7899,62 @@
         <v>3</v>
       </c>
       <c r="B103" t="str">
-        <f t="shared" ref="B103:B112" si="148">"0x" &amp; DEC2HEX(A103,3)</f>
+        <f t="shared" ref="B103:B112" si="99">"0x" &amp; DEC2HEX(A103,3)</f>
         <v>0x003</v>
       </c>
       <c r="C103" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F103" s="11">
         <v>1</v>
       </c>
       <c r="G103" s="12" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H103">
-        <f t="shared" ref="H103" si="149">IF(G103="", "", VLOOKUP(G103, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H103:H105" si="100">IF(G103="", "", VLOOKUP(G103, $W$3:$X$10, 2))</f>
         <v>2</v>
       </c>
       <c r="L103">
         <v>255</v>
       </c>
       <c r="M103" s="16" t="str">
-        <f t="shared" ref="M103:M104" si="150">IF(F103="", "", TEXT(DEC2BIN(F103), "000000"))</f>
+        <f t="shared" ref="M103:M104" si="101">IF(F103="", "", TEXT(DEC2BIN(F103), "000000"))</f>
         <v>000001</v>
       </c>
       <c r="N103" s="17" t="str">
-        <f t="shared" ref="N103:N104" si="151">IF(H103="", "", TEXT(DEC2BIN(H103), "000"))</f>
+        <f t="shared" ref="N103:N104" si="102">IF(H103="", "", TEXT(DEC2BIN(H103), "000"))</f>
         <v>010</v>
       </c>
       <c r="O103" s="17" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="P103" s="17" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="Q103" s="17" t="str">
-        <f t="shared" ref="Q103:Q104" si="152">IF(K103="", "", TEXT(DEC2BIN(K103), "00000000"))</f>
+        <f t="shared" ref="Q103:Q104" si="103">IF(K103="", "", TEXT(DEC2BIN(K103), "00000000"))</f>
         <v/>
       </c>
       <c r="R103" s="18" t="str">
-        <f t="shared" ref="R103:R104" si="153">IF(L103="", "", TEXT(DEC2BIN(L103), "00000000"))</f>
+        <f t="shared" ref="R103:R104" si="104">IF(L103="", "", TEXT(DEC2BIN(L103), "00000000"))</f>
         <v>11111111</v>
       </c>
       <c r="S103" t="str">
-        <f t="shared" ref="S103" si="154">BIN2HEX(LEFT(CONCATENATE(M103,IF(N103="", "000", N103)), 8), 2)</f>
+        <f t="shared" ref="S103" si="105">BIN2HEX(LEFT(CONCATENATE(M103,IF(N103="", "000", N103)), 8), 2)</f>
         <v>05</v>
       </c>
       <c r="T103" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="97"/>
         <v>00</v>
       </c>
       <c r="U103" s="13" t="str">
-        <f t="shared" ref="U103" si="155">IF(Q103="", BIN2HEX(R103, 2), BIN2HEX(Q103,2))</f>
+        <f t="shared" ref="U103" si="106">IF(Q103="", BIN2HEX(R103, 2), BIN2HEX(Q103,2))</f>
         <v>FF</v>
       </c>
     </row>
@@ -7863,59 +7963,63 @@
         <v>6</v>
       </c>
       <c r="B104" t="str">
-        <f t="shared" si="148"/>
+        <f t="shared" si="99"/>
         <v>0x006</v>
       </c>
       <c r="C104" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D104"/>
       <c r="E104" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F104" s="11">
         <v>17</v>
       </c>
-      <c r="I104">
+      <c r="G104" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="100"/>
         <v>2</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
       <c r="M104" s="16" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="101"/>
         <v>010001</v>
       </c>
       <c r="N104" s="17" t="str">
-        <f t="shared" si="151"/>
-        <v/>
+        <f t="shared" si="102"/>
+        <v>010</v>
       </c>
       <c r="O104" s="17" t="str">
-        <f t="shared" si="142"/>
-        <v>010</v>
+        <f t="shared" si="93"/>
+        <v/>
       </c>
       <c r="P104" s="17" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="93"/>
         <v>000</v>
       </c>
       <c r="Q104" s="17" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="R104" s="18" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="104"/>
         <v/>
       </c>
       <c r="S104" t="str">
-        <f t="shared" ref="S104" si="156">BIN2HEX(LEFT(CONCATENATE(M104,IF(N104="", "000", N104)), 8), 2)</f>
-        <v>44</v>
+        <f t="shared" ref="S104" si="107">BIN2HEX(LEFT(CONCATENATE(M104,IF(N104="", "000", N104)), 8), 2)</f>
+        <v>45</v>
       </c>
       <c r="T104" t="str">
-        <f t="shared" si="146"/>
-        <v>20</v>
+        <f t="shared" si="97"/>
+        <v>00</v>
       </c>
       <c r="U104" s="13" t="str">
-        <f t="shared" ref="U104" si="157">IF(Q104="", BIN2HEX(R104, 2), BIN2HEX(Q104,2))</f>
+        <f t="shared" ref="U104" si="108">IF(Q104="", BIN2HEX(R104, 2), BIN2HEX(Q104,2))</f>
         <v>00</v>
       </c>
     </row>
@@ -7924,56 +8028,60 @@
         <v>9</v>
       </c>
       <c r="B105" t="str">
-        <f t="shared" si="148"/>
+        <f t="shared" si="99"/>
         <v>0x009</v>
       </c>
       <c r="C105" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E105" s="8"/>
       <c r="F105" s="11">
         <v>17</v>
       </c>
-      <c r="I105">
+      <c r="G105" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="J105">
         <v>0</v>
       </c>
       <c r="M105" s="16" t="str">
-        <f t="shared" ref="M105" si="158">IF(F105="", "", TEXT(DEC2BIN(F105), "000000"))</f>
+        <f t="shared" ref="M105" si="109">IF(F105="", "", TEXT(DEC2BIN(F105), "000000"))</f>
         <v>010001</v>
       </c>
       <c r="N105" s="17" t="str">
-        <f t="shared" ref="N105:N110" si="159">IF(H105="", "", TEXT(DEC2BIN(H105), "000"))</f>
-        <v/>
+        <f t="shared" ref="N105:N110" si="110">IF(H105="", "", TEXT(DEC2BIN(H105), "000"))</f>
+        <v>000</v>
       </c>
       <c r="O105" s="17" t="str">
-        <f t="shared" ref="O105:O110" si="160">IF(I105="", "", TEXT(DEC2BIN(I105), "000"))</f>
+        <f t="shared" ref="O105:O110" si="111">IF(I105="", "", TEXT(DEC2BIN(I105), "000"))</f>
+        <v/>
+      </c>
+      <c r="P105" s="17" t="str">
+        <f t="shared" si="93"/>
         <v>000</v>
       </c>
-      <c r="P105" s="17" t="str">
-        <f t="shared" si="142"/>
-        <v>000</v>
-      </c>
       <c r="Q105" s="17" t="str">
-        <f t="shared" ref="Q105:Q110" si="161">IF(K105="", "", TEXT(DEC2BIN(K105), "00000000"))</f>
+        <f t="shared" ref="Q105:Q110" si="112">IF(K105="", "", TEXT(DEC2BIN(K105), "00000000"))</f>
         <v/>
       </c>
       <c r="R105" s="18" t="str">
-        <f t="shared" ref="R105:R110" si="162">IF(L105="", "", TEXT(DEC2BIN(L105), "00000000"))</f>
+        <f t="shared" ref="R105:R110" si="113">IF(L105="", "", TEXT(DEC2BIN(L105), "00000000"))</f>
         <v/>
       </c>
       <c r="S105" t="str">
-        <f t="shared" ref="S105" si="163">BIN2HEX(LEFT(CONCATENATE(M105,IF(N105="", "000", N105)), 8), 2)</f>
+        <f t="shared" ref="S105" si="114">BIN2HEX(LEFT(CONCATENATE(M105,IF(N105="", "000", N105)), 8), 2)</f>
         <v>44</v>
       </c>
       <c r="T105" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="97"/>
         <v>00</v>
       </c>
       <c r="U105" s="13" t="str">
-        <f t="shared" ref="U105" si="164">IF(Q105="", BIN2HEX(R105, 2), BIN2HEX(Q105,2))</f>
+        <f t="shared" ref="U105" si="115">IF(Q105="", BIN2HEX(R105, 2), BIN2HEX(Q105,2))</f>
         <v>00</v>
       </c>
     </row>
@@ -7982,11 +8090,11 @@
         <v>12</v>
       </c>
       <c r="B106" t="str">
-        <f t="shared" si="148"/>
+        <f t="shared" si="99"/>
         <v>0x00C</v>
       </c>
       <c r="C106" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E106" s="8"/>
       <c r="F106" s="11">
@@ -7996,7 +8104,7 @@
         <v>38</v>
       </c>
       <c r="H106">
-        <f t="shared" ref="H106:H110" si="165">IF(G106="", "", VLOOKUP(G106, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H106:H110" si="116">IF(G106="", "", VLOOKUP(G106, $W$3:$X$10, 2))</f>
         <v>0</v>
       </c>
       <c r="M106" s="16" t="str">
@@ -8004,35 +8112,35 @@
         <v>101000</v>
       </c>
       <c r="N106" s="17" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="110"/>
         <v>000</v>
       </c>
       <c r="O106" s="17" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="P106" s="17" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="Q106" s="17" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="112"/>
         <v/>
       </c>
       <c r="R106" s="18" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="113"/>
         <v/>
       </c>
       <c r="S106" t="str">
-        <f t="shared" ref="S106:S112" si="166">BIN2HEX(LEFT(CONCATENATE(M106,IF(N106="", "000", N106)), 8), 2)</f>
+        <f t="shared" ref="S106:S112" si="117">BIN2HEX(LEFT(CONCATENATE(M106,IF(N106="", "000", N106)), 8), 2)</f>
         <v>A0</v>
       </c>
       <c r="T106" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="97"/>
         <v>00</v>
       </c>
       <c r="U106" s="13" t="str">
-        <f t="shared" ref="U106:U112" si="167">IF(Q106="", BIN2HEX(R106, 2), BIN2HEX(Q106,2))</f>
+        <f t="shared" ref="U106:U112" si="118">IF(Q106="", BIN2HEX(R106, 2), BIN2HEX(Q106,2))</f>
         <v>00</v>
       </c>
     </row>
@@ -8041,14 +8149,14 @@
         <v>15</v>
       </c>
       <c r="B107" t="str">
-        <f t="shared" si="148"/>
+        <f t="shared" si="99"/>
         <v>0x00F</v>
       </c>
       <c r="C107" t="s">
         <v>81</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="F107" s="11">
         <v>2</v>
@@ -8057,46 +8165,46 @@
         <v>42</v>
       </c>
       <c r="H107">
-        <f t="shared" si="165"/>
+        <f t="shared" si="116"/>
         <v>6</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="M107" s="16" t="str">
-        <f t="shared" ref="M107:M108" si="168">IF(F107="", "", TEXT(DEC2BIN(F107), "000000"))</f>
+        <f t="shared" ref="M107:M108" si="119">IF(F107="", "", TEXT(DEC2BIN(F107), "000000"))</f>
         <v>000010</v>
       </c>
       <c r="N107" s="17" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="110"/>
         <v>110</v>
       </c>
       <c r="O107" s="17" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="111"/>
         <v>000</v>
       </c>
       <c r="P107" s="17" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="Q107" s="17" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="112"/>
         <v/>
       </c>
       <c r="R107" s="18" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="113"/>
         <v/>
       </c>
       <c r="S107" t="str">
-        <f t="shared" si="166"/>
+        <f t="shared" si="117"/>
         <v>0B</v>
       </c>
       <c r="T107" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="97"/>
         <v>00</v>
       </c>
       <c r="U107" s="13" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="118"/>
         <v>00</v>
       </c>
     </row>
@@ -8105,14 +8213,14 @@
         <v>18</v>
       </c>
       <c r="B108" t="str">
-        <f t="shared" si="148"/>
+        <f t="shared" si="99"/>
         <v>0x012</v>
       </c>
       <c r="C108" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F108" s="11">
         <v>1</v>
@@ -8121,46 +8229,46 @@
         <v>39</v>
       </c>
       <c r="H108">
-        <f t="shared" si="165"/>
+        <f t="shared" si="116"/>
         <v>1</v>
       </c>
       <c r="L108">
         <v>58</v>
       </c>
       <c r="M108" s="16" t="str">
-        <f t="shared" si="168"/>
+        <f t="shared" si="119"/>
         <v>000001</v>
       </c>
       <c r="N108" s="17" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="110"/>
         <v>001</v>
       </c>
       <c r="O108" s="17" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="P108" s="17" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="Q108" s="17" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="112"/>
         <v/>
       </c>
       <c r="R108" s="18" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="113"/>
         <v>00111010</v>
       </c>
       <c r="S108" t="str">
-        <f t="shared" si="166"/>
+        <f t="shared" si="117"/>
         <v>04</v>
       </c>
       <c r="T108" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="97"/>
         <v>80</v>
       </c>
       <c r="U108" s="13" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="118"/>
         <v>3A</v>
       </c>
     </row>
@@ -8169,11 +8277,11 @@
         <v>21</v>
       </c>
       <c r="B109" t="str">
-        <f t="shared" si="148"/>
+        <f t="shared" si="99"/>
         <v>0x015</v>
       </c>
       <c r="C109" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E109" s="8"/>
       <c r="F109" s="11">
@@ -8183,7 +8291,7 @@
         <v>39</v>
       </c>
       <c r="H109">
-        <f t="shared" si="165"/>
+        <f t="shared" si="116"/>
         <v>1</v>
       </c>
       <c r="I109">
@@ -8194,35 +8302,35 @@
         <v>100001</v>
       </c>
       <c r="N109" s="17" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="110"/>
         <v>001</v>
       </c>
       <c r="O109" s="17" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="111"/>
         <v>110</v>
       </c>
       <c r="P109" s="17" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="Q109" s="17" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="112"/>
         <v/>
       </c>
       <c r="R109" s="18" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="113"/>
         <v/>
       </c>
       <c r="S109" t="str">
-        <f t="shared" si="166"/>
+        <f t="shared" si="117"/>
         <v>84</v>
       </c>
       <c r="T109" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="97"/>
         <v>E0</v>
       </c>
       <c r="U109" s="13" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="118"/>
         <v>00</v>
       </c>
     </row>
@@ -8231,20 +8339,20 @@
         <v>24</v>
       </c>
       <c r="B110" t="str">
-        <f t="shared" si="148"/>
+        <f t="shared" si="99"/>
         <v>0x018</v>
       </c>
       <c r="C110" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F110" s="11">
         <v>6</v>
       </c>
       <c r="H110" t="str">
-        <f t="shared" si="165"/>
+        <f t="shared" si="116"/>
         <v/>
       </c>
       <c r="K110">
@@ -8255,35 +8363,35 @@
         <v>000110</v>
       </c>
       <c r="N110" s="17" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="O110" s="17" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="P110" s="17" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="Q110" s="17" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="112"/>
         <v>00000000</v>
       </c>
       <c r="R110" s="18" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="113"/>
         <v/>
       </c>
       <c r="S110" t="str">
-        <f t="shared" si="166"/>
+        <f t="shared" si="117"/>
         <v>18</v>
       </c>
       <c r="T110" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="97"/>
         <v>00</v>
       </c>
       <c r="U110" s="13" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="118"/>
         <v>00</v>
       </c>
     </row>
@@ -8292,7 +8400,7 @@
         <v>27</v>
       </c>
       <c r="B111" t="str">
-        <f t="shared" si="148"/>
+        <f t="shared" si="99"/>
         <v>0x01B</v>
       </c>
       <c r="C111" t="s">
@@ -8306,46 +8414,46 @@
         <v>38</v>
       </c>
       <c r="H111">
-        <f t="shared" ref="H111:H112" si="169">IF(G111="", "", VLOOKUP(G111, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H111:H112" si="120">IF(G111="", "", VLOOKUP(G111, $W$3:$X$10, 2))</f>
         <v>0</v>
       </c>
       <c r="I111">
         <v>6</v>
       </c>
       <c r="M111" s="16" t="str">
-        <f t="shared" ref="M111" si="170">IF(F111="", "", TEXT(DEC2BIN(F111), "000000"))</f>
+        <f t="shared" ref="M111" si="121">IF(F111="", "", TEXT(DEC2BIN(F111), "000000"))</f>
         <v>000010</v>
       </c>
       <c r="N111" s="17" t="str">
-        <f t="shared" ref="N111:N112" si="171">IF(H111="", "", TEXT(DEC2BIN(H111), "000"))</f>
+        <f t="shared" ref="N111:N112" si="122">IF(H111="", "", TEXT(DEC2BIN(H111), "000"))</f>
         <v>000</v>
       </c>
       <c r="O111" s="17" t="str">
-        <f t="shared" ref="O111:O112" si="172">IF(I111="", "", TEXT(DEC2BIN(I111), "000"))</f>
+        <f t="shared" ref="O111:O112" si="123">IF(I111="", "", TEXT(DEC2BIN(I111), "000"))</f>
         <v>110</v>
       </c>
       <c r="P111" s="17" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="Q111" s="17" t="str">
-        <f t="shared" ref="Q111:Q112" si="173">IF(K111="", "", TEXT(DEC2BIN(K111), "00000000"))</f>
+        <f t="shared" ref="Q111:Q112" si="124">IF(K111="", "", TEXT(DEC2BIN(K111), "00000000"))</f>
         <v/>
       </c>
       <c r="R111" s="18" t="str">
-        <f t="shared" ref="R111:R112" si="174">IF(L111="", "", TEXT(DEC2BIN(L111), "00000000"))</f>
+        <f t="shared" ref="R111:R112" si="125">IF(L111="", "", TEXT(DEC2BIN(L111), "00000000"))</f>
         <v/>
       </c>
       <c r="S111" t="str">
-        <f t="shared" si="166"/>
+        <f t="shared" si="117"/>
         <v>08</v>
       </c>
       <c r="T111" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="97"/>
         <v>60</v>
       </c>
       <c r="U111" s="13" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="118"/>
         <v>00</v>
       </c>
     </row>
@@ -8354,20 +8462,20 @@
         <v>30</v>
       </c>
       <c r="B112" t="str">
-        <f t="shared" si="148"/>
+        <f t="shared" si="99"/>
         <v>0x01E</v>
       </c>
       <c r="C112" t="s">
         <v>79</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F112" s="11">
         <v>5</v>
       </c>
       <c r="H112" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="K112">
@@ -8378,41 +8486,41 @@
         <v>000101</v>
       </c>
       <c r="N112" s="17" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="122"/>
         <v/>
       </c>
       <c r="O112" s="17" t="str">
-        <f t="shared" si="172"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="P112" s="17" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="Q112" s="17" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="124"/>
         <v>00000110</v>
       </c>
       <c r="R112" s="18" t="str">
-        <f t="shared" si="174"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="S112" t="str">
-        <f t="shared" si="166"/>
+        <f t="shared" si="117"/>
         <v>14</v>
       </c>
       <c r="T112" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="97"/>
         <v>00</v>
       </c>
       <c r="U112" s="13" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="118"/>
         <v>06</v>
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C116" s="8" t="s">
-        <v>169</v>
+        <v>271</v>
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
@@ -8420,14 +8528,14 @@
         <v>0</v>
       </c>
       <c r="B117" t="str">
-        <f t="shared" ref="B117:B132" si="175">"0x" &amp; DEC2HEX(A117,3)</f>
+        <f t="shared" ref="B117:B132" si="126">"0x" &amp; DEC2HEX(A117,3)</f>
         <v>0x000</v>
       </c>
       <c r="C117" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F117" s="11">
         <v>1</v>
@@ -8436,43 +8544,46 @@
         <v>39</v>
       </c>
       <c r="H117">
-        <f t="shared" ref="H117:H118" si="176">IF(G117="", "", VLOOKUP(G117, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H117:H118" si="127">IF(G117="", "", VLOOKUP(G117, $W$3:$X$10, 2))</f>
         <v>1</v>
       </c>
       <c r="L117">
         <v>48</v>
       </c>
       <c r="M117" s="16" t="str">
-        <f t="shared" ref="M117:M118" si="177">IF(F117="", "", TEXT(DEC2BIN(F117), "000000"))</f>
+        <f t="shared" ref="M117:M132" si="128">IF(F117="", "", TEXT(DEC2BIN(F117), "000000"))</f>
         <v>000001</v>
       </c>
       <c r="N117" s="17" t="str">
-        <f t="shared" ref="N117:N118" si="178">IF(H117="", "", TEXT(DEC2BIN(H117), "000"))</f>
+        <f t="shared" ref="N117:N132" si="129">IF(H117="", "", TEXT(DEC2BIN(H117), "000"))</f>
         <v>001</v>
       </c>
       <c r="O117" s="17" t="str">
-        <f t="shared" ref="O117:O118" si="179">IF(I117="", "", TEXT(DEC2BIN(I117), "000"))</f>
-        <v/>
-      </c>
-      <c r="P117" s="17"/>
+        <f t="shared" ref="O117:O132" si="130">IF(I117="", "", TEXT(DEC2BIN(I117), "000"))</f>
+        <v/>
+      </c>
+      <c r="P117" s="17" t="str">
+        <f t="shared" ref="P117:P132" si="131">IF(J117="", "", TEXT(DEC2BIN(J117), "000"))</f>
+        <v/>
+      </c>
       <c r="Q117" s="17" t="str">
-        <f t="shared" ref="Q117:Q118" si="180">IF(K117="", "", TEXT(DEC2BIN(K117), "00000000"))</f>
+        <f t="shared" ref="Q117:Q132" si="132">IF(K117="", "", TEXT(DEC2BIN(K117), "00000000"))</f>
         <v/>
       </c>
       <c r="R117" s="18" t="str">
-        <f t="shared" ref="R117:R118" si="181">IF(L117="", "", TEXT(DEC2BIN(L117), "00000000"))</f>
+        <f t="shared" ref="R117:R132" si="133">IF(L117="", "", TEXT(DEC2BIN(L117), "00000000"))</f>
         <v>00110000</v>
       </c>
       <c r="S117" t="str">
-        <f t="shared" ref="S117:S118" si="182">BIN2HEX(LEFT(CONCATENATE(M117,IF(N117="", "000", N117)), 8), 2)</f>
+        <f t="shared" ref="S117:S132" si="134">BIN2HEX(LEFT(CONCATENATE(M117,IF(N117="", "000", N117)), 8), 2)</f>
         <v>04</v>
       </c>
       <c r="T117" t="str">
-        <f t="shared" ref="T117:T118" si="183">BIN2HEX(CONCATENATE(RIGHT(N117, 1), IF(O117 = "", "000", O117), "0000"), 2)</f>
+        <f t="shared" ref="T117:T132" si="135">BIN2HEX(CONCATENATE(RIGHT(N117, 1), IF(O117 = "", "000", O117), IF(P117 = "", "000", P117), "0"), 2)</f>
         <v>80</v>
       </c>
       <c r="U117" s="13" t="str">
-        <f t="shared" ref="U117:U118" si="184">IF(Q117="", BIN2HEX(R117, 2), BIN2HEX(Q117,2))</f>
+        <f t="shared" ref="U117:U132" si="136">IF(Q117="", BIN2HEX(R117, 2), BIN2HEX(Q117,2))</f>
         <v>30</v>
       </c>
     </row>
@@ -8481,59 +8592,62 @@
         <v>3</v>
       </c>
       <c r="B118" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="126"/>
         <v>0x003</v>
       </c>
       <c r="C118" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F118" s="11">
         <v>1</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="H118">
-        <f t="shared" si="176"/>
+        <f t="shared" si="127"/>
         <v>7</v>
       </c>
       <c r="L118">
         <v>57</v>
       </c>
       <c r="M118" s="16" t="str">
-        <f t="shared" si="177"/>
+        <f t="shared" si="128"/>
         <v>000001</v>
       </c>
       <c r="N118" s="17" t="str">
-        <f t="shared" si="178"/>
+        <f t="shared" si="129"/>
         <v>111</v>
       </c>
       <c r="O118" s="17" t="str">
-        <f t="shared" si="179"/>
-        <v/>
-      </c>
-      <c r="P118" s="17"/>
+        <f t="shared" si="130"/>
+        <v/>
+      </c>
+      <c r="P118" s="17" t="str">
+        <f t="shared" si="131"/>
+        <v/>
+      </c>
       <c r="Q118" s="17" t="str">
-        <f t="shared" si="180"/>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="R118" s="18" t="str">
-        <f t="shared" si="181"/>
+        <f t="shared" si="133"/>
         <v>00111001</v>
       </c>
       <c r="S118" t="str">
-        <f t="shared" si="182"/>
+        <f t="shared" si="134"/>
         <v>07</v>
       </c>
       <c r="T118" t="str">
-        <f t="shared" si="183"/>
+        <f t="shared" si="135"/>
         <v>80</v>
       </c>
       <c r="U118" s="13" t="str">
-        <f t="shared" si="184"/>
+        <f t="shared" si="136"/>
         <v>39</v>
       </c>
     </row>
@@ -8542,14 +8656,14 @@
         <v>6</v>
       </c>
       <c r="B119" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="126"/>
         <v>0x006</v>
       </c>
       <c r="C119" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F119" s="11">
         <v>1</v>
@@ -8558,43 +8672,46 @@
         <v>42</v>
       </c>
       <c r="H119">
-        <f t="shared" ref="H119" si="185">IF(G119="", "", VLOOKUP(G119, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H119" si="137">IF(G119="", "", VLOOKUP(G119, $W$3:$X$10, 2))</f>
         <v>6</v>
       </c>
       <c r="L119">
         <v>96</v>
       </c>
       <c r="M119" s="16" t="str">
-        <f>IF(F119="", "", TEXT(DEC2BIN(F119), "000000"))</f>
+        <f t="shared" si="128"/>
         <v>000001</v>
       </c>
       <c r="N119" s="17" t="str">
-        <f>IF(H119="", "", TEXT(DEC2BIN(H119), "000"))</f>
+        <f t="shared" si="129"/>
         <v>110</v>
       </c>
       <c r="O119" s="17" t="str">
-        <f>IF(I119="", "", TEXT(DEC2BIN(I119), "000"))</f>
-        <v/>
-      </c>
-      <c r="P119" s="17"/>
+        <f t="shared" si="130"/>
+        <v/>
+      </c>
+      <c r="P119" s="17" t="str">
+        <f t="shared" si="131"/>
+        <v/>
+      </c>
       <c r="Q119" s="17" t="str">
-        <f>IF(K119="", "", TEXT(DEC2BIN(K119), "00000000"))</f>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="R119" s="18" t="str">
-        <f>IF(L119="", "", TEXT(DEC2BIN(L119), "00000000"))</f>
+        <f t="shared" si="133"/>
         <v>01100000</v>
       </c>
       <c r="S119" t="str">
-        <f t="shared" ref="S119" si="186">BIN2HEX(LEFT(CONCATENATE(M119,IF(N119="", "000", N119)), 8), 2)</f>
+        <f t="shared" si="134"/>
         <v>07</v>
       </c>
       <c r="T119" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N119, 1), IF(O119 = "", "000", O119), "0000"), 2)</f>
+        <f t="shared" si="135"/>
         <v>00</v>
       </c>
       <c r="U119" s="13" t="str">
-        <f t="shared" ref="U119" si="187">IF(Q119="", BIN2HEX(R119, 2), BIN2HEX(Q119,2))</f>
+        <f t="shared" si="136"/>
         <v>60</v>
       </c>
     </row>
@@ -8603,20 +8720,20 @@
         <v>9</v>
       </c>
       <c r="B120" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="126"/>
         <v>0x009</v>
       </c>
       <c r="C120" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="F120" s="11">
         <v>1</v>
       </c>
       <c r="G120" s="12" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H120">
         <f>IF(G120="", "", VLOOKUP(G120, $W$3:$X$10, 2))</f>
@@ -8626,36 +8743,39 @@
         <v>0</v>
       </c>
       <c r="M120" s="16" t="str">
-        <f>IF(F120="", "", TEXT(DEC2BIN(F120), "000000"))</f>
+        <f t="shared" si="128"/>
         <v>000001</v>
       </c>
       <c r="N120" s="17" t="str">
-        <f>IF(H120="", "", TEXT(DEC2BIN(H120), "000"))</f>
+        <f t="shared" si="129"/>
         <v>010</v>
       </c>
       <c r="O120" s="17" t="str">
-        <f>IF(I120="", "", TEXT(DEC2BIN(I120), "000"))</f>
-        <v/>
-      </c>
-      <c r="P120" s="17"/>
+        <f t="shared" si="130"/>
+        <v/>
+      </c>
+      <c r="P120" s="17" t="str">
+        <f t="shared" si="131"/>
+        <v/>
+      </c>
       <c r="Q120" s="17" t="str">
-        <f>IF(K120="", "", TEXT(DEC2BIN(K120), "00000000"))</f>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="R120" s="18" t="str">
-        <f>IF(L120="", "", TEXT(DEC2BIN(L120), "00000000"))</f>
+        <f t="shared" si="133"/>
         <v>00000000</v>
       </c>
       <c r="S120" t="str">
-        <f>BIN2HEX(LEFT(CONCATENATE(M120,IF(N120="", "000", N120)), 8), 2)</f>
+        <f t="shared" si="134"/>
         <v>05</v>
       </c>
       <c r="T120" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N120, 1), IF(O120 = "", "000", O120), "0000"), 2)</f>
+        <f t="shared" si="135"/>
         <v>00</v>
       </c>
       <c r="U120" s="13" t="str">
-        <f>IF(Q120="", BIN2HEX(R120, 2), BIN2HEX(Q120,2))</f>
+        <f t="shared" si="136"/>
         <v>00</v>
       </c>
     </row>
@@ -8664,57 +8784,60 @@
         <v>12</v>
       </c>
       <c r="B121" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="126"/>
         <v>0x00C</v>
       </c>
       <c r="C121" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E121" s="8"/>
       <c r="F121" s="11">
         <v>2</v>
       </c>
       <c r="G121" s="12" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="H121">
-        <f t="shared" ref="H121:H122" si="188">IF(G121="", "", VLOOKUP(G121, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H121:H122" si="138">IF(G121="", "", VLOOKUP(G121, $W$3:$X$10, 2))</f>
         <v>3</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="M121" s="16" t="str">
-        <f t="shared" ref="M121:M122" si="189">IF(F121="", "", TEXT(DEC2BIN(F121), "000000"))</f>
+        <f t="shared" si="128"/>
         <v>000010</v>
       </c>
       <c r="N121" s="17" t="str">
-        <f t="shared" ref="N121:N122" si="190">IF(H121="", "", TEXT(DEC2BIN(H121), "000"))</f>
+        <f t="shared" si="129"/>
         <v>011</v>
       </c>
       <c r="O121" s="17" t="str">
-        <f t="shared" ref="O121:O122" si="191">IF(I121="", "", TEXT(DEC2BIN(I121), "000"))</f>
+        <f t="shared" si="130"/>
         <v>001</v>
       </c>
-      <c r="P121" s="17"/>
+      <c r="P121" s="17" t="str">
+        <f t="shared" si="131"/>
+        <v/>
+      </c>
       <c r="Q121" s="17" t="str">
-        <f t="shared" ref="Q121:Q122" si="192">IF(K121="", "", TEXT(DEC2BIN(K121), "00000000"))</f>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="R121" s="18" t="str">
-        <f t="shared" ref="R121:R122" si="193">IF(L121="", "", TEXT(DEC2BIN(L121), "00000000"))</f>
+        <f t="shared" si="133"/>
         <v/>
       </c>
       <c r="S121" t="str">
-        <f t="shared" ref="S121:S122" si="194">BIN2HEX(LEFT(CONCATENATE(M121,IF(N121="", "000", N121)), 8), 2)</f>
+        <f t="shared" si="134"/>
         <v>09</v>
       </c>
       <c r="T121" t="str">
-        <f t="shared" ref="T121:T122" si="195">BIN2HEX(CONCATENATE(RIGHT(N121, 1), IF(O121 = "", "000", O121), "0000"), 2)</f>
+        <f t="shared" si="135"/>
         <v>90</v>
       </c>
       <c r="U121" s="13" t="str">
-        <f t="shared" ref="U121:U122" si="196">IF(Q121="", BIN2HEX(R121, 2), BIN2HEX(Q121,2))</f>
+        <f t="shared" si="136"/>
         <v>00</v>
       </c>
     </row>
@@ -8723,14 +8846,14 @@
         <v>15</v>
       </c>
       <c r="B122" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="126"/>
         <v>0x00F</v>
       </c>
       <c r="C122" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F122" s="11">
         <v>4</v>
@@ -8739,40 +8862,43 @@
         <v>38</v>
       </c>
       <c r="H122">
-        <f t="shared" si="188"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="M122" s="16" t="str">
-        <f t="shared" si="189"/>
+        <f t="shared" si="128"/>
         <v>000100</v>
       </c>
       <c r="N122" s="17" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="129"/>
         <v>000</v>
       </c>
       <c r="O122" s="17" t="str">
-        <f t="shared" si="191"/>
-        <v/>
-      </c>
-      <c r="P122" s="17"/>
+        <f t="shared" si="130"/>
+        <v/>
+      </c>
+      <c r="P122" s="17" t="str">
+        <f t="shared" si="131"/>
+        <v/>
+      </c>
       <c r="Q122" s="17" t="str">
-        <f t="shared" si="192"/>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="R122" s="18" t="str">
-        <f t="shared" si="193"/>
+        <f t="shared" si="133"/>
         <v/>
       </c>
       <c r="S122" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="134"/>
         <v>10</v>
       </c>
       <c r="T122" t="str">
-        <f t="shared" si="195"/>
+        <f t="shared" si="135"/>
         <v>00</v>
       </c>
       <c r="U122" s="13" t="str">
-        <f t="shared" si="196"/>
+        <f t="shared" si="136"/>
         <v>00</v>
       </c>
     </row>
@@ -8781,57 +8907,60 @@
         <v>18</v>
       </c>
       <c r="B123" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="126"/>
         <v>0x012</v>
       </c>
       <c r="C123" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="E123" s="8"/>
       <c r="F123" s="11">
         <v>2</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="H123">
-        <f t="shared" ref="H123:H124" si="197">IF(G123="", "", VLOOKUP(G123, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H123:H124" si="139">IF(G123="", "", VLOOKUP(G123, $W$3:$X$10, 2))</f>
         <v>3</v>
       </c>
       <c r="I123">
         <v>6</v>
       </c>
       <c r="M123" s="16" t="str">
-        <f t="shared" ref="M123:M124" si="198">IF(F123="", "", TEXT(DEC2BIN(F123), "000000"))</f>
+        <f t="shared" si="128"/>
         <v>000010</v>
       </c>
       <c r="N123" s="17" t="str">
-        <f t="shared" ref="N123:N124" si="199">IF(H123="", "", TEXT(DEC2BIN(H123), "000"))</f>
+        <f t="shared" si="129"/>
         <v>011</v>
       </c>
       <c r="O123" s="17" t="str">
-        <f t="shared" ref="O123:O124" si="200">IF(I123="", "", TEXT(DEC2BIN(I123), "000"))</f>
+        <f t="shared" si="130"/>
         <v>110</v>
       </c>
-      <c r="P123" s="17"/>
+      <c r="P123" s="17" t="str">
+        <f t="shared" si="131"/>
+        <v/>
+      </c>
       <c r="Q123" s="17" t="str">
-        <f t="shared" ref="Q123:Q124" si="201">IF(K123="", "", TEXT(DEC2BIN(K123), "00000000"))</f>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="R123" s="18" t="str">
-        <f t="shared" ref="R123:R124" si="202">IF(L123="", "", TEXT(DEC2BIN(L123), "00000000"))</f>
+        <f t="shared" si="133"/>
         <v/>
       </c>
       <c r="S123" t="str">
-        <f t="shared" ref="S123:S124" si="203">BIN2HEX(LEFT(CONCATENATE(M123,IF(N123="", "000", N123)), 8), 2)</f>
+        <f t="shared" si="134"/>
         <v>09</v>
       </c>
       <c r="T123" t="str">
-        <f t="shared" ref="T123:T124" si="204">BIN2HEX(CONCATENATE(RIGHT(N123, 1), IF(O123 = "", "000", O123), "0000"), 2)</f>
+        <f t="shared" si="135"/>
         <v>E0</v>
       </c>
       <c r="U123" s="13" t="str">
-        <f t="shared" ref="U123:U124" si="205">IF(Q123="", BIN2HEX(R123, 2), BIN2HEX(Q123,2))</f>
+        <f t="shared" si="136"/>
         <v>00</v>
       </c>
     </row>
@@ -8840,14 +8969,14 @@
         <v>21</v>
       </c>
       <c r="B124" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="126"/>
         <v>0x015</v>
       </c>
       <c r="C124" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F124" s="11">
         <v>11</v>
@@ -8856,40 +8985,43 @@
         <v>38</v>
       </c>
       <c r="H124">
-        <f t="shared" si="197"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="M124" s="16" t="str">
-        <f t="shared" si="198"/>
+        <f t="shared" si="128"/>
         <v>001011</v>
       </c>
       <c r="N124" s="17" t="str">
-        <f t="shared" si="199"/>
+        <f t="shared" si="129"/>
         <v>000</v>
       </c>
       <c r="O124" s="17" t="str">
-        <f t="shared" si="200"/>
-        <v/>
-      </c>
-      <c r="P124" s="17"/>
+        <f t="shared" si="130"/>
+        <v/>
+      </c>
+      <c r="P124" s="17" t="str">
+        <f t="shared" si="131"/>
+        <v/>
+      </c>
       <c r="Q124" s="17" t="str">
-        <f t="shared" si="201"/>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="R124" s="18" t="str">
-        <f t="shared" si="202"/>
+        <f t="shared" si="133"/>
         <v/>
       </c>
       <c r="S124" t="str">
-        <f t="shared" si="203"/>
+        <f t="shared" si="134"/>
         <v>2C</v>
       </c>
       <c r="T124" t="str">
-        <f t="shared" si="204"/>
+        <f t="shared" si="135"/>
         <v>00</v>
       </c>
       <c r="U124" s="13" t="str">
-        <f t="shared" si="205"/>
+        <f t="shared" si="136"/>
         <v>00</v>
       </c>
     </row>
@@ -8898,11 +9030,11 @@
         <v>24</v>
       </c>
       <c r="B125" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="126"/>
         <v>0x018</v>
       </c>
       <c r="C125" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E125" s="46"/>
       <c r="F125" s="11">
@@ -8912,40 +9044,43 @@
         <v>39</v>
       </c>
       <c r="H125">
-        <f t="shared" ref="H125:H129" si="206">IF(G125="", "", VLOOKUP(G125, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H125:H129" si="140">IF(G125="", "", VLOOKUP(G125, $W$3:$X$10, 2))</f>
         <v>1</v>
       </c>
       <c r="M125" s="16" t="str">
-        <f>IF(F125="", "", TEXT(DEC2BIN(F125), "000000"))</f>
+        <f t="shared" si="128"/>
         <v>101000</v>
       </c>
       <c r="N125" s="17" t="str">
-        <f>IF(H125="", "", TEXT(DEC2BIN(H125), "000"))</f>
+        <f t="shared" si="129"/>
         <v>001</v>
       </c>
       <c r="O125" s="17" t="str">
-        <f>IF(I125="", "", TEXT(DEC2BIN(I125), "000"))</f>
-        <v/>
-      </c>
-      <c r="P125" s="17"/>
+        <f t="shared" si="130"/>
+        <v/>
+      </c>
+      <c r="P125" s="17" t="str">
+        <f t="shared" si="131"/>
+        <v/>
+      </c>
       <c r="Q125" s="17" t="str">
-        <f>IF(K125="", "", TEXT(DEC2BIN(K125), "00000000"))</f>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="R125" s="18" t="str">
-        <f>IF(L125="", "", TEXT(DEC2BIN(L125), "00000000"))</f>
+        <f t="shared" si="133"/>
         <v/>
       </c>
       <c r="S125" t="str">
-        <f t="shared" ref="S125:S126" si="207">BIN2HEX(LEFT(CONCATENATE(M125,IF(N125="", "000", N125)), 8), 2)</f>
+        <f t="shared" si="134"/>
         <v>A0</v>
       </c>
       <c r="T125" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N125, 1), IF(O125 = "", "000", O125), "0000"), 2)</f>
+        <f t="shared" si="135"/>
         <v>80</v>
       </c>
       <c r="U125" s="13" t="str">
-        <f t="shared" ref="U125:U126" si="208">IF(Q125="", BIN2HEX(R125, 2), BIN2HEX(Q125,2))</f>
+        <f t="shared" si="136"/>
         <v>00</v>
       </c>
     </row>
@@ -8954,14 +9089,14 @@
         <v>27</v>
       </c>
       <c r="B126" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="126"/>
         <v>0x01B</v>
       </c>
       <c r="C126" t="s">
         <v>57</v>
       </c>
       <c r="E126" s="46" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="F126" s="11">
         <v>2</v>
@@ -8970,43 +9105,46 @@
         <v>38</v>
       </c>
       <c r="H126">
-        <f t="shared" si="206"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="I126">
         <v>1</v>
       </c>
       <c r="M126" s="16" t="str">
-        <f t="shared" ref="M126" si="209">IF(F126="", "", TEXT(DEC2BIN(F126), "000000"))</f>
+        <f t="shared" si="128"/>
         <v>000010</v>
       </c>
       <c r="N126" s="17" t="str">
-        <f t="shared" ref="N126:N129" si="210">IF(H126="", "", TEXT(DEC2BIN(H126), "000"))</f>
+        <f t="shared" si="129"/>
         <v>000</v>
       </c>
       <c r="O126" s="17" t="str">
-        <f t="shared" ref="O126:O129" si="211">IF(I126="", "", TEXT(DEC2BIN(I126), "000"))</f>
+        <f t="shared" si="130"/>
         <v>001</v>
       </c>
-      <c r="P126" s="17"/>
+      <c r="P126" s="17" t="str">
+        <f t="shared" si="131"/>
+        <v/>
+      </c>
       <c r="Q126" s="17" t="str">
-        <f t="shared" ref="Q126:Q129" si="212">IF(K126="", "", TEXT(DEC2BIN(K126), "00000000"))</f>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="R126" s="18" t="str">
-        <f t="shared" ref="R126:R129" si="213">IF(L126="", "", TEXT(DEC2BIN(L126), "00000000"))</f>
+        <f t="shared" si="133"/>
         <v/>
       </c>
       <c r="S126" t="str">
-        <f t="shared" si="207"/>
+        <f t="shared" si="134"/>
         <v>08</v>
       </c>
       <c r="T126" t="str">
-        <f t="shared" ref="T126" si="214">BIN2HEX(CONCATENATE(RIGHT(N126, 1), IF(O126 = "", "000", O126), "0000"), 2)</f>
+        <f t="shared" si="135"/>
         <v>10</v>
       </c>
       <c r="U126" s="13" t="str">
-        <f t="shared" si="208"/>
+        <f t="shared" si="136"/>
         <v>00</v>
       </c>
     </row>
@@ -9015,14 +9153,14 @@
         <v>30</v>
       </c>
       <c r="B127" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="126"/>
         <v>0x01E</v>
       </c>
       <c r="C127" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F127" s="11">
         <v>33</v>
@@ -9031,43 +9169,46 @@
         <v>38</v>
       </c>
       <c r="H127">
-        <f t="shared" si="206"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="I127">
         <v>7</v>
       </c>
       <c r="M127" s="16" t="str">
-        <f>IF(F127="", "", TEXT(DEC2BIN(F127), "000000"))</f>
+        <f t="shared" si="128"/>
         <v>100001</v>
       </c>
       <c r="N127" s="17" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="129"/>
         <v>000</v>
       </c>
       <c r="O127" s="17" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="130"/>
         <v>111</v>
       </c>
-      <c r="P127" s="17"/>
+      <c r="P127" s="17" t="str">
+        <f t="shared" si="131"/>
+        <v/>
+      </c>
       <c r="Q127" s="17" t="str">
-        <f t="shared" si="212"/>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="R127" s="18" t="str">
-        <f t="shared" si="213"/>
+        <f t="shared" si="133"/>
         <v/>
       </c>
       <c r="S127" t="str">
-        <f>BIN2HEX(LEFT(CONCATENATE(M127,IF(N127="", "000", N127)), 8), 2)</f>
+        <f t="shared" si="134"/>
         <v>84</v>
       </c>
       <c r="T127" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N127, 1), IF(O127 = "", "000", O127), "0000"), 2)</f>
+        <f t="shared" si="135"/>
         <v>70</v>
       </c>
       <c r="U127" s="13" t="str">
-        <f>IF(Q127="", BIN2HEX(R127, 2), BIN2HEX(Q127,2))</f>
+        <f t="shared" si="136"/>
         <v>00</v>
       </c>
     </row>
@@ -9076,56 +9217,59 @@
         <v>33</v>
       </c>
       <c r="B128" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="126"/>
         <v>0x021</v>
       </c>
       <c r="C128" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F128" s="11">
         <v>6</v>
       </c>
       <c r="H128" t="str">
-        <f t="shared" si="206"/>
+        <f t="shared" si="140"/>
         <v/>
       </c>
       <c r="K128">
         <v>33</v>
       </c>
       <c r="M128" s="16" t="str">
-        <f>IF(F128="", "", TEXT(DEC2BIN(F128), "000000"))</f>
+        <f t="shared" si="128"/>
         <v>000110</v>
       </c>
       <c r="N128" s="17" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="129"/>
         <v/>
       </c>
       <c r="O128" s="17" t="str">
-        <f t="shared" si="211"/>
-        <v/>
-      </c>
-      <c r="P128" s="17"/>
+        <f t="shared" si="130"/>
+        <v/>
+      </c>
+      <c r="P128" s="17" t="str">
+        <f t="shared" si="131"/>
+        <v/>
+      </c>
       <c r="Q128" s="17" t="str">
-        <f t="shared" si="212"/>
+        <f t="shared" si="132"/>
         <v>00100001</v>
       </c>
       <c r="R128" s="18" t="str">
-        <f t="shared" si="213"/>
+        <f t="shared" si="133"/>
         <v/>
       </c>
       <c r="S128" t="str">
-        <f>BIN2HEX(LEFT(CONCATENATE(M128,IF(N128="", "000", N128)), 8), 2)</f>
+        <f t="shared" si="134"/>
         <v>18</v>
       </c>
       <c r="T128" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N128, 1), IF(O128 = "", "000", O128), "0000"), 2)</f>
+        <f t="shared" si="135"/>
         <v>00</v>
       </c>
       <c r="U128" s="13" t="str">
-        <f>IF(Q128="", BIN2HEX(R128, 2), BIN2HEX(Q128,2))</f>
+        <f t="shared" si="136"/>
         <v>21</v>
       </c>
     </row>
@@ -9134,14 +9278,14 @@
         <v>36</v>
       </c>
       <c r="B129" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="126"/>
         <v>0x024</v>
       </c>
       <c r="C129" t="s">
         <v>80</v>
       </c>
-      <c r="E129" s="51" t="s">
-        <v>245</v>
+      <c r="E129" s="53" t="s">
+        <v>234</v>
       </c>
       <c r="F129" s="11">
         <v>2</v>
@@ -9150,43 +9294,46 @@
         <v>38</v>
       </c>
       <c r="H129">
-        <f t="shared" si="206"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="I129">
         <v>6</v>
       </c>
       <c r="M129" s="16" t="str">
-        <f t="shared" ref="M129" si="215">IF(F129="", "", TEXT(DEC2BIN(F129), "000000"))</f>
+        <f t="shared" si="128"/>
         <v>000010</v>
       </c>
       <c r="N129" s="17" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="129"/>
         <v>000</v>
       </c>
       <c r="O129" s="17" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="130"/>
         <v>110</v>
       </c>
-      <c r="P129" s="17"/>
+      <c r="P129" s="17" t="str">
+        <f t="shared" si="131"/>
+        <v/>
+      </c>
       <c r="Q129" s="17" t="str">
-        <f t="shared" si="212"/>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="R129" s="18" t="str">
-        <f t="shared" si="213"/>
+        <f t="shared" si="133"/>
         <v/>
       </c>
       <c r="S129" t="str">
-        <f t="shared" ref="S129" si="216">BIN2HEX(LEFT(CONCATENATE(M129,IF(N129="", "000", N129)), 8), 2)</f>
+        <f t="shared" si="134"/>
         <v>08</v>
       </c>
       <c r="T129" t="str">
-        <f t="shared" ref="T129" si="217">BIN2HEX(CONCATENATE(RIGHT(N129, 1), IF(O129 = "", "000", O129), "0000"), 2)</f>
+        <f t="shared" si="135"/>
         <v>60</v>
       </c>
       <c r="U129" s="13" t="str">
-        <f t="shared" ref="U129" si="218">IF(Q129="", BIN2HEX(R129, 2), BIN2HEX(Q129,2))</f>
+        <f t="shared" si="136"/>
         <v>00</v>
       </c>
     </row>
@@ -9195,13 +9342,13 @@
         <v>39</v>
       </c>
       <c r="B130" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="126"/>
         <v>0x027</v>
       </c>
       <c r="C130" t="s">
-        <v>212</v>
-      </c>
-      <c r="E130" s="51"/>
+        <v>203</v>
+      </c>
+      <c r="E130" s="53"/>
       <c r="F130" s="11">
         <v>40</v>
       </c>
@@ -9209,40 +9356,43 @@
         <v>38</v>
       </c>
       <c r="H130">
-        <f t="shared" ref="H130:H132" si="219">IF(G130="", "", VLOOKUP(G130, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H130:H132" si="141">IF(G130="", "", VLOOKUP(G130, $W$3:$X$10, 2))</f>
         <v>0</v>
       </c>
       <c r="M130" s="16" t="str">
-        <f>IF(F130="", "", TEXT(DEC2BIN(F130), "000000"))</f>
+        <f t="shared" si="128"/>
         <v>101000</v>
       </c>
       <c r="N130" s="17" t="str">
-        <f>IF(H130="", "", TEXT(DEC2BIN(H130), "000"))</f>
+        <f t="shared" si="129"/>
         <v>000</v>
       </c>
       <c r="O130" s="17" t="str">
-        <f>IF(I130="", "", TEXT(DEC2BIN(I130), "000"))</f>
-        <v/>
-      </c>
-      <c r="P130" s="17"/>
+        <f t="shared" si="130"/>
+        <v/>
+      </c>
+      <c r="P130" s="17" t="str">
+        <f t="shared" si="131"/>
+        <v/>
+      </c>
       <c r="Q130" s="17" t="str">
-        <f>IF(K130="", "", TEXT(DEC2BIN(K130), "00000000"))</f>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="R130" s="18" t="str">
-        <f>IF(L130="", "", TEXT(DEC2BIN(L130), "00000000"))</f>
+        <f t="shared" si="133"/>
         <v/>
       </c>
       <c r="S130" t="str">
-        <f t="shared" ref="S130:S131" si="220">BIN2HEX(LEFT(CONCATENATE(M130,IF(N130="", "000", N130)), 8), 2)</f>
+        <f t="shared" si="134"/>
         <v>A0</v>
       </c>
       <c r="T130" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N130, 1), IF(O130 = "", "000", O130), "0000"), 2)</f>
+        <f t="shared" si="135"/>
         <v>00</v>
       </c>
       <c r="U130" s="13" t="str">
-        <f t="shared" ref="U130:U131" si="221">IF(Q130="", BIN2HEX(R130, 2), BIN2HEX(Q130,2))</f>
+        <f t="shared" si="136"/>
         <v>00</v>
       </c>
     </row>
@@ -9251,13 +9401,13 @@
         <v>42</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="126"/>
         <v>0x02A</v>
       </c>
       <c r="C131" t="s">
         <v>81</v>
       </c>
-      <c r="E131" s="51"/>
+      <c r="E131" s="53"/>
       <c r="F131" s="11">
         <v>2</v>
       </c>
@@ -9265,43 +9415,46 @@
         <v>42</v>
       </c>
       <c r="H131">
-        <f t="shared" si="219"/>
+        <f t="shared" si="141"/>
         <v>6</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="M131" s="16" t="str">
-        <f t="shared" ref="M131" si="222">IF(F131="", "", TEXT(DEC2BIN(F131), "000000"))</f>
+        <f t="shared" si="128"/>
         <v>000010</v>
       </c>
       <c r="N131" s="17" t="str">
-        <f t="shared" ref="N131" si="223">IF(H131="", "", TEXT(DEC2BIN(H131), "000"))</f>
+        <f t="shared" si="129"/>
         <v>110</v>
       </c>
       <c r="O131" s="17" t="str">
-        <f t="shared" ref="O131" si="224">IF(I131="", "", TEXT(DEC2BIN(I131), "000"))</f>
+        <f t="shared" si="130"/>
         <v>000</v>
       </c>
-      <c r="P131" s="17"/>
+      <c r="P131" s="17" t="str">
+        <f t="shared" si="131"/>
+        <v/>
+      </c>
       <c r="Q131" s="17" t="str">
-        <f t="shared" ref="Q131" si="225">IF(K131="", "", TEXT(DEC2BIN(K131), "00000000"))</f>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="R131" s="18" t="str">
-        <f t="shared" ref="R131" si="226">IF(L131="", "", TEXT(DEC2BIN(L131), "00000000"))</f>
+        <f t="shared" si="133"/>
         <v/>
       </c>
       <c r="S131" t="str">
-        <f t="shared" si="220"/>
+        <f t="shared" si="134"/>
         <v>0B</v>
       </c>
       <c r="T131" t="str">
-        <f t="shared" ref="T131" si="227">BIN2HEX(CONCATENATE(RIGHT(N131, 1), IF(O131 = "", "000", O131), "0000"), 2)</f>
+        <f t="shared" si="135"/>
         <v>00</v>
       </c>
       <c r="U131" s="13" t="str">
-        <f t="shared" si="221"/>
+        <f t="shared" si="136"/>
         <v>00</v>
       </c>
     </row>
@@ -9310,62 +9463,65 @@
         <v>45</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="126"/>
         <v>0x02D</v>
       </c>
       <c r="C132" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F132" s="11">
         <v>5</v>
       </c>
       <c r="H132" t="str">
-        <f t="shared" si="219"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="K132">
         <v>12</v>
       </c>
       <c r="M132" s="16" t="str">
-        <f>IF(F132="", "", TEXT(DEC2BIN(F132), "000000"))</f>
+        <f t="shared" si="128"/>
         <v>000101</v>
       </c>
       <c r="N132" s="17" t="str">
-        <f t="shared" ref="N132" si="228">IF(H132="", "", TEXT(DEC2BIN(H132), "000"))</f>
+        <f t="shared" si="129"/>
         <v/>
       </c>
       <c r="O132" s="17" t="str">
-        <f t="shared" ref="O132" si="229">IF(I132="", "", TEXT(DEC2BIN(I132), "000"))</f>
-        <v/>
-      </c>
-      <c r="P132" s="17"/>
+        <f t="shared" si="130"/>
+        <v/>
+      </c>
+      <c r="P132" s="17" t="str">
+        <f t="shared" si="131"/>
+        <v/>
+      </c>
       <c r="Q132" s="17" t="str">
-        <f t="shared" ref="Q132" si="230">IF(K132="", "", TEXT(DEC2BIN(K132), "00000000"))</f>
+        <f t="shared" si="132"/>
         <v>00001100</v>
       </c>
       <c r="R132" s="18" t="str">
-        <f t="shared" ref="R132" si="231">IF(L132="", "", TEXT(DEC2BIN(L132), "00000000"))</f>
+        <f t="shared" si="133"/>
         <v/>
       </c>
       <c r="S132" t="str">
-        <f>BIN2HEX(LEFT(CONCATENATE(M132,IF(N132="", "000", N132)), 8), 2)</f>
+        <f t="shared" si="134"/>
         <v>14</v>
       </c>
       <c r="T132" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N132, 1), IF(O132 = "", "000", O132), "0000"), 2)</f>
+        <f t="shared" si="135"/>
         <v>00</v>
       </c>
       <c r="U132" s="13" t="str">
-        <f>IF(Q132="", BIN2HEX(R132, 2), BIN2HEX(Q132,2))</f>
+        <f t="shared" si="136"/>
         <v>0C</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E133" s="8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.3">
@@ -9373,11 +9529,11 @@
         <v>48</v>
       </c>
       <c r="B134" t="str">
-        <f t="shared" ref="B134:B136" si="232">"0x" &amp; DEC2HEX(A134,3)</f>
+        <f t="shared" ref="B134:B136" si="142">"0x" &amp; DEC2HEX(A134,3)</f>
         <v>0x030</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.3">
@@ -9385,11 +9541,11 @@
         <v>51</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" si="232"/>
+        <f t="shared" si="142"/>
         <v>0x033</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
@@ -9397,16 +9553,16 @@
         <v>54</v>
       </c>
       <c r="B136" t="str">
-        <f t="shared" si="232"/>
+        <f t="shared" si="142"/>
         <v>0x036</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C140" s="8" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.3">
@@ -9414,11 +9570,11 @@
         <v>0</v>
       </c>
       <c r="B141" t="str">
-        <f t="shared" ref="B141:B143" si="233">"0x" &amp; DEC2HEX(A141,3)</f>
+        <f t="shared" ref="B141:B143" si="143">"0x" &amp; DEC2HEX(A141,3)</f>
         <v>0x000</v>
       </c>
       <c r="C141" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E141" s="8"/>
       <c r="F141" s="11">
@@ -9428,7 +9584,7 @@
         <v>42</v>
       </c>
       <c r="H141">
-        <f t="shared" ref="H141" si="234">IF(G141="", "", VLOOKUP(G141, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H141" si="144">IF(G141="", "", VLOOKUP(G141, $W$3:$X$10, 2))</f>
         <v>6</v>
       </c>
       <c r="L141">
@@ -9439,23 +9595,23 @@
         <v>000001</v>
       </c>
       <c r="N141" s="17" t="str">
-        <f t="shared" ref="N141:P144" si="235">IF(H141="", "", TEXT(DEC2BIN(H141), "000"))</f>
+        <f t="shared" ref="N141:P144" si="145">IF(H141="", "", TEXT(DEC2BIN(H141), "000"))</f>
         <v>110</v>
       </c>
       <c r="O141" s="17" t="str">
-        <f t="shared" si="235"/>
+        <f t="shared" si="145"/>
         <v/>
       </c>
       <c r="P141" s="17" t="str">
-        <f t="shared" si="235"/>
+        <f t="shared" si="145"/>
         <v/>
       </c>
       <c r="Q141" s="17" t="str">
-        <f t="shared" ref="Q141:R144" si="236">IF(K141="", "", TEXT(DEC2BIN(K141), "00000000"))</f>
+        <f t="shared" ref="Q141:R144" si="146">IF(K141="", "", TEXT(DEC2BIN(K141), "00000000"))</f>
         <v/>
       </c>
       <c r="R141" s="18" t="str">
-        <f t="shared" si="236"/>
+        <f t="shared" si="146"/>
         <v>00000000</v>
       </c>
       <c r="S141" t="str">
@@ -9476,11 +9632,11 @@
         <v>3</v>
       </c>
       <c r="B142" t="str">
-        <f t="shared" si="233"/>
+        <f t="shared" si="143"/>
         <v>0x003</v>
       </c>
       <c r="C142" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="E142" s="8"/>
       <c r="F142" s="11">
@@ -9490,46 +9646,46 @@
         <v>38</v>
       </c>
       <c r="H142">
-        <f t="shared" ref="H142" si="237">IF(G142="", "", VLOOKUP(G142, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H142" si="147">IF(G142="", "", VLOOKUP(G142, $W$3:$X$10, 2))</f>
         <v>0</v>
       </c>
       <c r="L142">
         <v>255</v>
       </c>
       <c r="M142" s="16" t="str">
-        <f>IF(F142="", "", TEXT(DEC2BIN(F142), "000000"))</f>
+        <f t="shared" ref="M142:M149" si="148">IF(F142="", "", TEXT(DEC2BIN(F142), "000000"))</f>
         <v>000001</v>
       </c>
       <c r="N142" s="17" t="str">
-        <f t="shared" si="235"/>
+        <f t="shared" ref="N142:N149" si="149">IF(H142="", "", TEXT(DEC2BIN(H142), "000"))</f>
         <v>000</v>
       </c>
       <c r="O142" s="17" t="str">
-        <f t="shared" si="235"/>
+        <f t="shared" ref="O142:O149" si="150">IF(I142="", "", TEXT(DEC2BIN(I142), "000"))</f>
         <v/>
       </c>
       <c r="P142" s="17" t="str">
-        <f t="shared" si="235"/>
+        <f t="shared" ref="P142:P149" si="151">IF(J142="", "", TEXT(DEC2BIN(J142), "000"))</f>
         <v/>
       </c>
       <c r="Q142" s="17" t="str">
-        <f t="shared" si="236"/>
+        <f t="shared" ref="Q142:Q149" si="152">IF(K142="", "", TEXT(DEC2BIN(K142), "00000000"))</f>
         <v/>
       </c>
       <c r="R142" s="18" t="str">
-        <f t="shared" si="236"/>
+        <f t="shared" ref="R142:R149" si="153">IF(L142="", "", TEXT(DEC2BIN(L142), "00000000"))</f>
         <v>11111111</v>
       </c>
       <c r="S142" t="str">
-        <f>BIN2HEX(LEFT(CONCATENATE(M142,IF(N142="", "000", N142)), 8), 2)</f>
+        <f t="shared" ref="S142:S149" si="154">BIN2HEX(LEFT(CONCATENATE(M142,IF(N142="", "000", N142)), 8), 2)</f>
         <v>04</v>
       </c>
       <c r="T142" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N142, 1), IF(O142 = "", "000", O142), IF(P142 = "", "000", P142), "0"), 2)</f>
+        <f t="shared" ref="T142:T149" si="155">BIN2HEX(CONCATENATE(RIGHT(N142, 1), IF(O142 = "", "000", O142), IF(P142 = "", "000", P142), "0"), 2)</f>
         <v>00</v>
       </c>
       <c r="U142" s="13" t="str">
-        <f>IF(Q142="", BIN2HEX(R142, 2), BIN2HEX(Q142,2))</f>
+        <f t="shared" ref="U142:U149" si="156">IF(Q142="", BIN2HEX(R142, 2), BIN2HEX(Q142,2))</f>
         <v>FF</v>
       </c>
     </row>
@@ -9538,18 +9694,18 @@
         <v>6</v>
       </c>
       <c r="B143" t="str">
-        <f t="shared" si="233"/>
+        <f t="shared" si="143"/>
         <v>0x006</v>
       </c>
       <c r="C143" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="E143" s="8"/>
       <c r="F143" s="11">
         <v>1</v>
       </c>
       <c r="G143" s="12" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H143">
         <f>IF(G143="", "", VLOOKUP(G143, $W$3:$X$10, 2))</f>
@@ -9559,52 +9715,52 @@
         <v>0</v>
       </c>
       <c r="M143" s="16" t="str">
-        <f>IF(F143="", "", TEXT(DEC2BIN(F143), "000000"))</f>
+        <f t="shared" si="148"/>
         <v>000001</v>
       </c>
       <c r="N143" s="17" t="str">
-        <f t="shared" si="235"/>
+        <f t="shared" si="149"/>
         <v>010</v>
       </c>
       <c r="O143" s="17" t="str">
-        <f t="shared" si="235"/>
+        <f t="shared" si="150"/>
         <v/>
       </c>
       <c r="P143" s="17" t="str">
-        <f t="shared" si="235"/>
+        <f t="shared" si="151"/>
         <v/>
       </c>
       <c r="Q143" s="17" t="str">
-        <f t="shared" si="236"/>
+        <f t="shared" si="152"/>
         <v/>
       </c>
       <c r="R143" s="18" t="str">
-        <f t="shared" si="236"/>
+        <f t="shared" si="153"/>
         <v>00000000</v>
       </c>
       <c r="S143" t="str">
-        <f>BIN2HEX(LEFT(CONCATENATE(M143,IF(N143="", "000", N143)), 8), 2)</f>
+        <f t="shared" si="154"/>
         <v>05</v>
       </c>
       <c r="T143" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N143, 1), IF(O143 = "", "000", O143), IF(P143 = "", "000", P143), "0"), 2)</f>
+        <f t="shared" si="155"/>
         <v>00</v>
       </c>
       <c r="U143" s="13" t="str">
-        <f>IF(Q143="", BIN2HEX(R143, 2), BIN2HEX(Q143,2))</f>
+        <f t="shared" si="156"/>
         <v>00</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C144" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="E144" s="8"/>
       <c r="F144" s="11">
         <v>17</v>
       </c>
       <c r="G144" s="12" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H144">
         <f>IF(G144="", "", VLOOKUP(G144, $W$3:$X$10, 2))</f>
@@ -9617,45 +9773,45 @@
         <v>1</v>
       </c>
       <c r="M144" s="16" t="str">
-        <f>IF(F144="", "", TEXT(DEC2BIN(F144), "000000"))</f>
+        <f t="shared" si="148"/>
         <v>010001</v>
       </c>
       <c r="N144" s="17" t="str">
-        <f t="shared" si="235"/>
+        <f t="shared" si="149"/>
         <v>010</v>
       </c>
       <c r="O144" s="17" t="str">
-        <f t="shared" si="235"/>
+        <f t="shared" si="150"/>
         <v>110</v>
       </c>
       <c r="P144" s="17" t="str">
-        <f t="shared" si="235"/>
+        <f t="shared" si="151"/>
         <v>001</v>
       </c>
       <c r="Q144" s="17" t="str">
-        <f t="shared" si="236"/>
+        <f t="shared" si="152"/>
         <v/>
       </c>
       <c r="R144" s="18" t="str">
-        <f t="shared" si="236"/>
+        <f t="shared" si="153"/>
         <v/>
       </c>
       <c r="S144" t="str">
-        <f>BIN2HEX(LEFT(CONCATENATE(M144,IF(N144="", "000", N144)), 8), 2)</f>
+        <f t="shared" si="154"/>
         <v>45</v>
       </c>
       <c r="T144" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N144, 1), IF(O144 = "", "000", O144), IF(P144 = "", "000", P144), "0"), 2)</f>
+        <f t="shared" si="155"/>
         <v>62</v>
       </c>
       <c r="U144" s="13" t="str">
-        <f>IF(Q144="", BIN2HEX(R144, 2), BIN2HEX(Q144,2))</f>
+        <f t="shared" si="156"/>
         <v>00</v>
       </c>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C145" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="E145" s="8"/>
       <c r="F145" s="11">
@@ -9665,7 +9821,7 @@
         <v>38</v>
       </c>
       <c r="H145">
-        <f t="shared" ref="H145:H147" si="238">IF(G145="", "", VLOOKUP(G145, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H145:H147" si="157">IF(G145="", "", VLOOKUP(G145, $W$3:$X$10, 2))</f>
         <v>0</v>
       </c>
       <c r="I145">
@@ -9675,45 +9831,45 @@
         <v>1</v>
       </c>
       <c r="M145" s="16" t="str">
-        <f t="shared" ref="M145:M146" si="239">IF(F145="", "", TEXT(DEC2BIN(F145), "000000"))</f>
+        <f t="shared" si="148"/>
         <v>010001</v>
       </c>
       <c r="N145" s="17" t="str">
-        <f t="shared" ref="N145:N146" si="240">IF(H145="", "", TEXT(DEC2BIN(H145), "000"))</f>
+        <f t="shared" si="149"/>
         <v>000</v>
       </c>
       <c r="O145" s="17" t="str">
-        <f t="shared" ref="O145:O146" si="241">IF(I145="", "", TEXT(DEC2BIN(I145), "000"))</f>
+        <f t="shared" si="150"/>
         <v>110</v>
       </c>
       <c r="P145" s="17" t="str">
-        <f t="shared" ref="P145" si="242">IF(J145="", "", TEXT(DEC2BIN(J145), "000"))</f>
+        <f t="shared" si="151"/>
         <v>001</v>
       </c>
       <c r="Q145" s="17" t="str">
-        <f t="shared" ref="Q145:Q146" si="243">IF(K145="", "", TEXT(DEC2BIN(K145), "00000000"))</f>
+        <f t="shared" si="152"/>
         <v/>
       </c>
       <c r="R145" s="18" t="str">
-        <f t="shared" ref="R145:R146" si="244">IF(L145="", "", TEXT(DEC2BIN(L145), "00000000"))</f>
+        <f t="shared" si="153"/>
         <v/>
       </c>
       <c r="S145" t="str">
-        <f t="shared" ref="S145:S147" si="245">BIN2HEX(LEFT(CONCATENATE(M145,IF(N145="", "000", N145)), 8), 2)</f>
+        <f t="shared" si="154"/>
         <v>44</v>
       </c>
       <c r="T145" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N145, 1), IF(O145 = "", "000", O145), IF(P145 = "", "000", P145), "0"), 2)</f>
+        <f t="shared" si="155"/>
         <v>62</v>
       </c>
       <c r="U145" s="13" t="str">
-        <f t="shared" ref="U145:U147" si="246">IF(Q145="", BIN2HEX(R145, 2), BIN2HEX(Q145,2))</f>
+        <f t="shared" si="156"/>
         <v>00</v>
       </c>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C146" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="E146" s="8"/>
       <c r="F146" s="11">
@@ -9723,49 +9879,52 @@
         <v>39</v>
       </c>
       <c r="H146">
-        <f t="shared" si="238"/>
+        <f t="shared" si="157"/>
         <v>1</v>
       </c>
       <c r="I146">
         <v>6</v>
       </c>
       <c r="M146" s="16" t="str">
-        <f t="shared" si="239"/>
+        <f t="shared" si="148"/>
         <v>000010</v>
       </c>
       <c r="N146" s="17" t="str">
-        <f t="shared" si="240"/>
+        <f t="shared" si="149"/>
         <v>001</v>
       </c>
       <c r="O146" s="17" t="str">
-        <f t="shared" si="241"/>
+        <f t="shared" si="150"/>
         <v>110</v>
       </c>
-      <c r="P146" s="17"/>
+      <c r="P146" s="17" t="str">
+        <f t="shared" si="151"/>
+        <v/>
+      </c>
       <c r="Q146" s="17" t="str">
-        <f t="shared" si="243"/>
+        <f t="shared" si="152"/>
         <v/>
       </c>
       <c r="R146" s="18" t="str">
-        <f t="shared" si="244"/>
+        <f t="shared" si="153"/>
         <v/>
       </c>
       <c r="S146" t="str">
-        <f t="shared" si="245"/>
+        <f t="shared" si="154"/>
         <v>08</v>
       </c>
       <c r="T146" t="str">
-        <f t="shared" ref="T146" si="247">BIN2HEX(CONCATENATE(RIGHT(N146, 1), IF(O146 = "", "000", O146), "0000"), 2)</f>
+        <f t="shared" si="155"/>
         <v>E0</v>
       </c>
       <c r="U146" s="13" t="str">
-        <f t="shared" si="246"/>
+        <f t="shared" si="156"/>
         <v>00</v>
       </c>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C147" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E147" s="8"/>
       <c r="F147" s="11">
@@ -9775,46 +9934,49 @@
         <v>39</v>
       </c>
       <c r="H147">
-        <f t="shared" si="238"/>
+        <f t="shared" si="157"/>
         <v>1</v>
       </c>
       <c r="M147" s="16" t="str">
-        <f>IF(F147="", "", TEXT(DEC2BIN(F147), "000000"))</f>
+        <f t="shared" si="148"/>
         <v>101000</v>
       </c>
       <c r="N147" s="17" t="str">
-        <f>IF(H147="", "", TEXT(DEC2BIN(H147), "000"))</f>
+        <f t="shared" si="149"/>
         <v>001</v>
       </c>
       <c r="O147" s="17" t="str">
-        <f>IF(I147="", "", TEXT(DEC2BIN(I147), "000"))</f>
-        <v/>
-      </c>
-      <c r="P147" s="17"/>
+        <f t="shared" si="150"/>
+        <v/>
+      </c>
+      <c r="P147" s="17" t="str">
+        <f t="shared" si="151"/>
+        <v/>
+      </c>
       <c r="Q147" s="17" t="str">
-        <f>IF(K147="", "", TEXT(DEC2BIN(K147), "00000000"))</f>
+        <f t="shared" si="152"/>
         <v/>
       </c>
       <c r="R147" s="18" t="str">
-        <f>IF(L147="", "", TEXT(DEC2BIN(L147), "00000000"))</f>
+        <f t="shared" si="153"/>
         <v/>
       </c>
       <c r="S147" t="str">
-        <f t="shared" si="245"/>
+        <f t="shared" si="154"/>
         <v>A0</v>
       </c>
       <c r="T147" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N147, 1), IF(O147 = "", "000", O147), "0000"), 2)</f>
+        <f t="shared" si="155"/>
         <v>80</v>
       </c>
       <c r="U147" s="13" t="str">
-        <f t="shared" si="246"/>
+        <f t="shared" si="156"/>
         <v>00</v>
       </c>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C148" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="E148" s="8"/>
       <c r="F148" s="11">
@@ -9824,43 +9986,46 @@
         <v>42</v>
       </c>
       <c r="H148">
-        <f t="shared" ref="H148" si="248">IF(G148="", "", VLOOKUP(G148, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H148" si="158">IF(G148="", "", VLOOKUP(G148, $W$3:$X$10, 2))</f>
         <v>6</v>
       </c>
       <c r="I148">
         <v>1</v>
       </c>
       <c r="M148" s="16" t="str">
-        <f t="shared" ref="M148" si="249">IF(F148="", "", TEXT(DEC2BIN(F148), "000000"))</f>
+        <f t="shared" si="148"/>
         <v>000010</v>
       </c>
       <c r="N148" s="17" t="str">
-        <f t="shared" ref="N148" si="250">IF(H148="", "", TEXT(DEC2BIN(H148), "000"))</f>
+        <f t="shared" si="149"/>
         <v>110</v>
       </c>
       <c r="O148" s="17" t="str">
-        <f t="shared" ref="O148" si="251">IF(I148="", "", TEXT(DEC2BIN(I148), "000"))</f>
+        <f t="shared" si="150"/>
         <v>001</v>
       </c>
-      <c r="P148" s="17"/>
+      <c r="P148" s="17" t="str">
+        <f t="shared" si="151"/>
+        <v/>
+      </c>
       <c r="Q148" s="17" t="str">
-        <f t="shared" ref="Q148" si="252">IF(K148="", "", TEXT(DEC2BIN(K148), "00000000"))</f>
+        <f t="shared" si="152"/>
         <v/>
       </c>
       <c r="R148" s="18" t="str">
-        <f t="shared" ref="R148" si="253">IF(L148="", "", TEXT(DEC2BIN(L148), "00000000"))</f>
+        <f t="shared" si="153"/>
         <v/>
       </c>
       <c r="S148" t="str">
-        <f t="shared" ref="S148" si="254">BIN2HEX(LEFT(CONCATENATE(M148,IF(N148="", "000", N148)), 8), 2)</f>
+        <f t="shared" si="154"/>
         <v>0B</v>
       </c>
       <c r="T148" t="str">
-        <f t="shared" ref="T148" si="255">BIN2HEX(CONCATENATE(RIGHT(N148, 1), IF(O148 = "", "000", O148), "0000"), 2)</f>
+        <f t="shared" si="155"/>
         <v>10</v>
       </c>
       <c r="U148" s="13" t="str">
-        <f t="shared" ref="U148" si="256">IF(Q148="", BIN2HEX(R148, 2), BIN2HEX(Q148,2))</f>
+        <f t="shared" si="156"/>
         <v>00</v>
       </c>
     </row>
@@ -9872,57 +10037,55 @@
         <v>5</v>
       </c>
       <c r="H149" t="str">
-        <f t="shared" ref="H149" si="257">IF(G149="", "", VLOOKUP(G149, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H149" si="159">IF(G149="", "", VLOOKUP(G149, $W$3:$X$10, 2))</f>
         <v/>
       </c>
       <c r="K149">
         <v>9</v>
       </c>
       <c r="M149" s="16" t="str">
-        <f t="shared" ref="M149" si="258">IF(F149="", "", TEXT(DEC2BIN(F149), "000000"))</f>
+        <f t="shared" si="148"/>
         <v>000101</v>
       </c>
       <c r="N149" s="17" t="str">
-        <f t="shared" ref="N149" si="259">IF(H149="", "", TEXT(DEC2BIN(H149), "000"))</f>
+        <f t="shared" si="149"/>
         <v/>
       </c>
       <c r="O149" s="17" t="str">
-        <f t="shared" ref="O149" si="260">IF(I149="", "", TEXT(DEC2BIN(I149), "000"))</f>
+        <f t="shared" si="150"/>
         <v/>
       </c>
       <c r="P149" s="17" t="str">
-        <f t="shared" ref="P149" si="261">IF(J149="", "", TEXT(DEC2BIN(J149), "000"))</f>
+        <f t="shared" si="151"/>
         <v/>
       </c>
       <c r="Q149" s="17" t="str">
-        <f t="shared" ref="Q149" si="262">IF(K149="", "", TEXT(DEC2BIN(K149), "00000000"))</f>
+        <f t="shared" si="152"/>
         <v>00001001</v>
       </c>
       <c r="R149" s="18" t="str">
-        <f t="shared" ref="R149" si="263">IF(L149="", "", TEXT(DEC2BIN(L149), "00000000"))</f>
+        <f t="shared" si="153"/>
         <v/>
       </c>
       <c r="S149" t="str">
-        <f t="shared" ref="S149" si="264">BIN2HEX(LEFT(CONCATENATE(M149,IF(N149="", "000", N149)), 8), 2)</f>
+        <f t="shared" si="154"/>
         <v>14</v>
       </c>
       <c r="T149" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N149, 1), IF(O149 = "", "000", O149), IF(P149 = "", "000", P149), "0"), 2)</f>
+        <f t="shared" si="155"/>
         <v>00</v>
       </c>
       <c r="U149" s="13" t="str">
-        <f t="shared" ref="U149" si="265">IF(Q149="", BIN2HEX(R149, 2), BIN2HEX(Q149,2))</f>
+        <f t="shared" si="156"/>
         <v>09</v>
       </c>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C151" s="5" t="s">
-        <v>263</v>
-      </c>
+      <c r="C151" s="5"/>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C153" s="8" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
@@ -9930,11 +10093,11 @@
         <v>0</v>
       </c>
       <c r="B154" t="str">
-        <f t="shared" ref="B154:B167" si="266">"0x" &amp; DEC2HEX(A154,3)</f>
+        <f t="shared" ref="B154:B167" si="160">"0x" &amp; DEC2HEX(A154,3)</f>
         <v>0x000</v>
       </c>
       <c r="C154" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E154" s="8"/>
       <c r="F154" s="11">
@@ -9944,46 +10107,46 @@
         <v>42</v>
       </c>
       <c r="H154">
-        <f t="shared" ref="H154" si="267">IF(G154="", "", VLOOKUP(G154, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H154" si="161">IF(G154="", "", VLOOKUP(G154, $W$3:$X$10, 2))</f>
         <v>6</v>
       </c>
       <c r="L154">
         <v>0</v>
       </c>
       <c r="M154" s="16" t="str">
-        <f>IF(F154="", "", TEXT(DEC2BIN(F154), "000000"))</f>
+        <f t="shared" ref="M154:M167" si="162">IF(F154="", "", TEXT(DEC2BIN(F154), "000000"))</f>
         <v>000001</v>
       </c>
       <c r="N154" s="17" t="str">
-        <f t="shared" ref="N154" si="268">IF(H154="", "", TEXT(DEC2BIN(H154), "000"))</f>
+        <f t="shared" ref="N154:N167" si="163">IF(H154="", "", TEXT(DEC2BIN(H154), "000"))</f>
         <v>110</v>
       </c>
       <c r="O154" s="17" t="str">
-        <f t="shared" ref="O154" si="269">IF(I154="", "", TEXT(DEC2BIN(I154), "000"))</f>
+        <f t="shared" ref="O154:O167" si="164">IF(I154="", "", TEXT(DEC2BIN(I154), "000"))</f>
         <v/>
       </c>
       <c r="P154" s="17" t="str">
-        <f t="shared" ref="P154" si="270">IF(J154="", "", TEXT(DEC2BIN(J154), "000"))</f>
+        <f t="shared" ref="P154:P167" si="165">IF(J154="", "", TEXT(DEC2BIN(J154), "000"))</f>
         <v/>
       </c>
       <c r="Q154" s="17" t="str">
-        <f t="shared" ref="Q154" si="271">IF(K154="", "", TEXT(DEC2BIN(K154), "00000000"))</f>
+        <f t="shared" ref="Q154:Q167" si="166">IF(K154="", "", TEXT(DEC2BIN(K154), "00000000"))</f>
         <v/>
       </c>
       <c r="R154" s="18" t="str">
-        <f t="shared" ref="R154" si="272">IF(L154="", "", TEXT(DEC2BIN(L154), "00000000"))</f>
+        <f t="shared" ref="R154:R167" si="167">IF(L154="", "", TEXT(DEC2BIN(L154), "00000000"))</f>
         <v>00000000</v>
       </c>
       <c r="S154" t="str">
-        <f>BIN2HEX(LEFT(CONCATENATE(M154,IF(N154="", "000", N154)), 8), 2)</f>
+        <f t="shared" ref="S154:S167" si="168">BIN2HEX(LEFT(CONCATENATE(M154,IF(N154="", "000", N154)), 8), 2)</f>
         <v>07</v>
       </c>
       <c r="T154" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N154, 1), IF(O154 = "", "000", O154), IF(P154 = "", "000", P154), "0"), 2)</f>
+        <f t="shared" ref="T154:T167" si="169">BIN2HEX(CONCATENATE(RIGHT(N154, 1), IF(O154 = "", "000", O154), IF(P154 = "", "000", P154), "0"), 2)</f>
         <v>00</v>
       </c>
       <c r="U154" s="13" t="str">
-        <f>IF(Q154="", BIN2HEX(R154, 2), BIN2HEX(Q154,2))</f>
+        <f t="shared" ref="U154:U167" si="170">IF(Q154="", BIN2HEX(R154, 2), BIN2HEX(Q154,2))</f>
         <v>00</v>
       </c>
     </row>
@@ -9992,60 +10155,63 @@
         <v>3</v>
       </c>
       <c r="B155" t="str">
-        <f t="shared" si="266"/>
+        <f t="shared" si="160"/>
         <v>0x003</v>
       </c>
       <c r="C155" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D155"/>
       <c r="E155" s="8" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="F155" s="11">
         <v>1</v>
       </c>
       <c r="G155" s="12" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H155">
-        <f t="shared" ref="H155:H167" si="273">IF(G155="", "", VLOOKUP(G155, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H155:H167" si="171">IF(G155="", "", VLOOKUP(G155, $W$3:$X$10, 2))</f>
         <v>2</v>
       </c>
       <c r="L155">
         <v>0</v>
       </c>
       <c r="M155" s="16" t="str">
-        <f t="shared" ref="M155:M159" si="274">IF(F155="", "", TEXT(DEC2BIN(F155), "000000"))</f>
+        <f t="shared" si="162"/>
         <v>000001</v>
       </c>
       <c r="N155" s="17" t="str">
-        <f t="shared" ref="N155:N167" si="275">IF(H155="", "", TEXT(DEC2BIN(H155), "000"))</f>
+        <f t="shared" si="163"/>
         <v>010</v>
       </c>
       <c r="O155" s="17" t="str">
-        <f t="shared" ref="O155:O167" si="276">IF(I155="", "", TEXT(DEC2BIN(I155), "000"))</f>
-        <v/>
-      </c>
-      <c r="P155" s="17"/>
+        <f t="shared" si="164"/>
+        <v/>
+      </c>
+      <c r="P155" s="17" t="str">
+        <f t="shared" si="165"/>
+        <v/>
+      </c>
       <c r="Q155" s="17" t="str">
-        <f t="shared" ref="Q155:Q167" si="277">IF(K155="", "", TEXT(DEC2BIN(K155), "00000000"))</f>
+        <f t="shared" si="166"/>
         <v/>
       </c>
       <c r="R155" s="18" t="str">
-        <f t="shared" ref="R155:R167" si="278">IF(L155="", "", TEXT(DEC2BIN(L155), "00000000"))</f>
+        <f t="shared" si="167"/>
         <v>00000000</v>
       </c>
       <c r="S155" t="str">
-        <f t="shared" ref="S155:S159" si="279">BIN2HEX(LEFT(CONCATENATE(M155,IF(N155="", "000", N155)), 8), 2)</f>
+        <f t="shared" si="168"/>
         <v>05</v>
       </c>
       <c r="T155" t="str">
-        <f t="shared" ref="T155:T158" si="280">BIN2HEX(CONCATENATE(RIGHT(N155, 1), IF(O155 = "", "000", O155), "0000"), 2)</f>
+        <f t="shared" si="169"/>
         <v>00</v>
       </c>
       <c r="U155" s="13" t="str">
-        <f t="shared" ref="U155:U159" si="281">IF(Q155="", BIN2HEX(R155, 2), BIN2HEX(Q155,2))</f>
+        <f t="shared" si="170"/>
         <v>00</v>
       </c>
     </row>
@@ -10054,59 +10220,62 @@
         <v>6</v>
       </c>
       <c r="B156" t="str">
-        <f t="shared" si="266"/>
+        <f t="shared" si="160"/>
         <v>0x006</v>
       </c>
       <c r="C156" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="F156" s="11">
         <v>1</v>
       </c>
       <c r="G156" s="12" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="H156">
-        <f t="shared" si="273"/>
+        <f t="shared" si="171"/>
         <v>3</v>
       </c>
       <c r="L156">
         <v>48</v>
       </c>
       <c r="M156" s="16" t="str">
-        <f t="shared" si="274"/>
+        <f t="shared" si="162"/>
         <v>000001</v>
       </c>
       <c r="N156" s="17" t="str">
-        <f t="shared" si="275"/>
+        <f t="shared" si="163"/>
         <v>011</v>
       </c>
       <c r="O156" s="17" t="str">
-        <f t="shared" si="276"/>
-        <v/>
-      </c>
-      <c r="P156" s="17"/>
+        <f t="shared" si="164"/>
+        <v/>
+      </c>
+      <c r="P156" s="17" t="str">
+        <f t="shared" si="165"/>
+        <v/>
+      </c>
       <c r="Q156" s="17" t="str">
-        <f t="shared" si="277"/>
+        <f t="shared" si="166"/>
         <v/>
       </c>
       <c r="R156" s="18" t="str">
-        <f t="shared" si="278"/>
+        <f t="shared" si="167"/>
         <v>00110000</v>
       </c>
       <c r="S156" t="str">
-        <f t="shared" si="279"/>
+        <f t="shared" si="168"/>
         <v>05</v>
       </c>
       <c r="T156" t="str">
-        <f t="shared" si="280"/>
+        <f t="shared" si="169"/>
         <v>80</v>
       </c>
       <c r="U156" s="13" t="str">
-        <f t="shared" si="281"/>
+        <f t="shared" si="170"/>
         <v>30</v>
       </c>
     </row>
@@ -10115,59 +10284,62 @@
         <v>9</v>
       </c>
       <c r="B157" t="str">
-        <f t="shared" si="266"/>
+        <f t="shared" si="160"/>
         <v>0x009</v>
       </c>
       <c r="C157" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="F157" s="11">
         <v>1</v>
       </c>
       <c r="G157" s="12" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="H157">
-        <f t="shared" si="273"/>
+        <f t="shared" si="171"/>
         <v>7</v>
       </c>
       <c r="L157">
         <v>112</v>
       </c>
       <c r="M157" s="16" t="str">
-        <f t="shared" si="274"/>
+        <f t="shared" si="162"/>
         <v>000001</v>
       </c>
       <c r="N157" s="17" t="str">
-        <f t="shared" si="275"/>
+        <f t="shared" si="163"/>
         <v>111</v>
       </c>
       <c r="O157" s="17" t="str">
-        <f t="shared" si="276"/>
-        <v/>
-      </c>
-      <c r="P157" s="17"/>
+        <f t="shared" si="164"/>
+        <v/>
+      </c>
+      <c r="P157" s="17" t="str">
+        <f t="shared" si="165"/>
+        <v/>
+      </c>
       <c r="Q157" s="17" t="str">
-        <f t="shared" si="277"/>
+        <f t="shared" si="166"/>
         <v/>
       </c>
       <c r="R157" s="18" t="str">
-        <f t="shared" si="278"/>
+        <f t="shared" si="167"/>
         <v>01110000</v>
       </c>
       <c r="S157" t="str">
-        <f t="shared" si="279"/>
+        <f t="shared" si="168"/>
         <v>07</v>
       </c>
       <c r="T157" t="str">
-        <f t="shared" si="280"/>
+        <f t="shared" si="169"/>
         <v>80</v>
       </c>
       <c r="U157" s="13" t="str">
-        <f t="shared" si="281"/>
+        <f t="shared" si="170"/>
         <v>70</v>
       </c>
     </row>
@@ -10176,14 +10348,14 @@
         <v>12</v>
       </c>
       <c r="B158" t="str">
-        <f t="shared" si="266"/>
+        <f t="shared" si="160"/>
         <v>0x00C</v>
       </c>
       <c r="C158" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F158" s="11">
         <v>4</v>
@@ -10192,40 +10364,43 @@
         <v>38</v>
       </c>
       <c r="H158">
-        <f t="shared" si="273"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="M158" s="16" t="str">
-        <f t="shared" si="274"/>
+        <f t="shared" si="162"/>
         <v>000100</v>
       </c>
       <c r="N158" s="17" t="str">
-        <f t="shared" si="275"/>
+        <f t="shared" si="163"/>
         <v>000</v>
       </c>
       <c r="O158" s="17" t="str">
-        <f t="shared" si="276"/>
-        <v/>
-      </c>
-      <c r="P158" s="17"/>
+        <f t="shared" si="164"/>
+        <v/>
+      </c>
+      <c r="P158" s="17" t="str">
+        <f t="shared" si="165"/>
+        <v/>
+      </c>
       <c r="Q158" s="17" t="str">
-        <f t="shared" si="277"/>
+        <f t="shared" si="166"/>
         <v/>
       </c>
       <c r="R158" s="18" t="str">
-        <f t="shared" si="278"/>
+        <f t="shared" si="167"/>
         <v/>
       </c>
       <c r="S158" t="str">
-        <f t="shared" si="279"/>
+        <f t="shared" si="168"/>
         <v>10</v>
       </c>
       <c r="T158" t="str">
-        <f t="shared" si="280"/>
+        <f t="shared" si="169"/>
         <v>00</v>
       </c>
       <c r="U158" s="13" t="str">
-        <f t="shared" si="281"/>
+        <f t="shared" si="170"/>
         <v>00</v>
       </c>
     </row>
@@ -10234,14 +10409,14 @@
         <v>15</v>
       </c>
       <c r="B159" t="str">
-        <f t="shared" si="266"/>
+        <f t="shared" si="160"/>
         <v>0x00F</v>
       </c>
       <c r="C159" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="F159" s="11">
         <v>17</v>
@@ -10250,7 +10425,7 @@
         <v>38</v>
       </c>
       <c r="H159">
-        <f t="shared" si="273"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="I159">
@@ -10260,39 +10435,39 @@
         <v>1</v>
       </c>
       <c r="M159" s="16" t="str">
-        <f t="shared" si="274"/>
+        <f t="shared" si="162"/>
         <v>010001</v>
       </c>
       <c r="N159" s="17" t="str">
-        <f t="shared" si="275"/>
+        <f t="shared" si="163"/>
         <v>000</v>
       </c>
       <c r="O159" s="17" t="str">
-        <f t="shared" si="276"/>
+        <f t="shared" si="164"/>
         <v>110</v>
       </c>
       <c r="P159" s="17" t="str">
-        <f t="shared" ref="P159" si="282">IF(J159="", "", TEXT(DEC2BIN(J159), "000"))</f>
+        <f t="shared" si="165"/>
         <v>001</v>
       </c>
       <c r="Q159" s="17" t="str">
-        <f t="shared" si="277"/>
+        <f t="shared" si="166"/>
         <v/>
       </c>
       <c r="R159" s="18" t="str">
-        <f t="shared" si="278"/>
+        <f t="shared" si="167"/>
         <v/>
       </c>
       <c r="S159" t="str">
-        <f t="shared" si="279"/>
+        <f t="shared" si="168"/>
         <v>44</v>
       </c>
       <c r="T159" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N159, 1), IF(O159 = "", "000", O159), IF(P159 = "", "000", P159), "0"), 2)</f>
+        <f t="shared" si="169"/>
         <v>62</v>
       </c>
       <c r="U159" s="13" t="str">
-        <f t="shared" si="281"/>
+        <f t="shared" si="170"/>
         <v>00</v>
       </c>
     </row>
@@ -10301,54 +10476,57 @@
         <v>18</v>
       </c>
       <c r="B160" t="str">
-        <f t="shared" si="266"/>
+        <f t="shared" si="160"/>
         <v>0x012</v>
       </c>
       <c r="C160" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E160" s="44"/>
       <c r="F160" s="11">
         <v>40</v>
       </c>
       <c r="G160" s="12" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="H160">
-        <f t="shared" si="273"/>
+        <f t="shared" si="171"/>
         <v>3</v>
       </c>
       <c r="M160" s="16" t="str">
-        <f>IF(F160="", "", TEXT(DEC2BIN(F160), "000000"))</f>
+        <f t="shared" si="162"/>
         <v>101000</v>
       </c>
       <c r="N160" s="17" t="str">
-        <f t="shared" si="275"/>
+        <f t="shared" si="163"/>
         <v>011</v>
       </c>
       <c r="O160" s="17" t="str">
-        <f t="shared" si="276"/>
-        <v/>
-      </c>
-      <c r="P160" s="17"/>
+        <f t="shared" si="164"/>
+        <v/>
+      </c>
+      <c r="P160" s="17" t="str">
+        <f t="shared" si="165"/>
+        <v/>
+      </c>
       <c r="Q160" s="17" t="str">
-        <f t="shared" si="277"/>
+        <f t="shared" si="166"/>
         <v/>
       </c>
       <c r="R160" s="18" t="str">
-        <f t="shared" si="278"/>
+        <f t="shared" si="167"/>
         <v/>
       </c>
       <c r="S160" t="str">
-        <f>BIN2HEX(LEFT(CONCATENATE(M160,IF(N160="", "000", N160)), 8), 2)</f>
+        <f t="shared" si="168"/>
         <v>A1</v>
       </c>
       <c r="T160" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N160, 1), IF(O160 = "", "000", O160), "0000"), 2)</f>
+        <f t="shared" si="169"/>
         <v>80</v>
       </c>
       <c r="U160" s="13" t="str">
-        <f>IF(Q160="", BIN2HEX(R160, 2), BIN2HEX(Q160,2))</f>
+        <f t="shared" si="170"/>
         <v>00</v>
       </c>
     </row>
@@ -10357,11 +10535,11 @@
         <v>21</v>
       </c>
       <c r="B161" t="str">
-        <f t="shared" si="266"/>
+        <f t="shared" si="160"/>
         <v>0x015</v>
       </c>
       <c r="C161" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="E161" s="8"/>
       <c r="F161" s="11">
@@ -10371,43 +10549,46 @@
         <v>39</v>
       </c>
       <c r="H161">
-        <f t="shared" si="273"/>
+        <f t="shared" si="171"/>
         <v>1</v>
       </c>
       <c r="I161">
         <v>3</v>
       </c>
       <c r="M161" s="16" t="str">
-        <f t="shared" ref="M161" si="283">IF(F161="", "", TEXT(DEC2BIN(F161), "000000"))</f>
+        <f t="shared" si="162"/>
         <v>000010</v>
       </c>
       <c r="N161" s="17" t="str">
-        <f t="shared" si="275"/>
+        <f t="shared" si="163"/>
         <v>001</v>
       </c>
       <c r="O161" s="17" t="str">
-        <f t="shared" si="276"/>
+        <f t="shared" si="164"/>
         <v>011</v>
       </c>
-      <c r="P161" s="17"/>
+      <c r="P161" s="17" t="str">
+        <f t="shared" si="165"/>
+        <v/>
+      </c>
       <c r="Q161" s="17" t="str">
-        <f t="shared" si="277"/>
+        <f t="shared" si="166"/>
         <v/>
       </c>
       <c r="R161" s="18" t="str">
-        <f t="shared" si="278"/>
+        <f t="shared" si="167"/>
         <v/>
       </c>
       <c r="S161" t="str">
-        <f t="shared" ref="S161" si="284">BIN2HEX(LEFT(CONCATENATE(M161,IF(N161="", "000", N161)), 8), 2)</f>
+        <f t="shared" si="168"/>
         <v>08</v>
       </c>
       <c r="T161" t="str">
-        <f t="shared" ref="T161" si="285">BIN2HEX(CONCATENATE(RIGHT(N161, 1), IF(O161 = "", "000", O161), "0000"), 2)</f>
+        <f t="shared" si="169"/>
         <v>B0</v>
       </c>
       <c r="U161" s="13" t="str">
-        <f t="shared" ref="U161" si="286">IF(Q161="", BIN2HEX(R161, 2), BIN2HEX(Q161,2))</f>
+        <f t="shared" si="170"/>
         <v>00</v>
       </c>
     </row>
@@ -10416,14 +10597,14 @@
         <v>24</v>
       </c>
       <c r="B162" t="str">
-        <f t="shared" si="266"/>
+        <f t="shared" si="160"/>
         <v>0x018</v>
       </c>
       <c r="C162" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F162" s="11">
         <v>33</v>
@@ -10432,43 +10613,46 @@
         <v>39</v>
       </c>
       <c r="H162">
-        <f t="shared" si="273"/>
+        <f t="shared" si="171"/>
         <v>1</v>
       </c>
       <c r="I162">
         <v>7</v>
       </c>
       <c r="M162" s="16" t="str">
-        <f>IF(F162="", "", TEXT(DEC2BIN(F162), "000000"))</f>
+        <f t="shared" si="162"/>
         <v>100001</v>
       </c>
       <c r="N162" s="17" t="str">
-        <f t="shared" si="275"/>
+        <f t="shared" si="163"/>
         <v>001</v>
       </c>
       <c r="O162" s="17" t="str">
-        <f t="shared" si="276"/>
+        <f t="shared" si="164"/>
         <v>111</v>
       </c>
-      <c r="P162" s="17"/>
+      <c r="P162" s="17" t="str">
+        <f t="shared" si="165"/>
+        <v/>
+      </c>
       <c r="Q162" s="17" t="str">
-        <f t="shared" si="277"/>
+        <f t="shared" si="166"/>
         <v/>
       </c>
       <c r="R162" s="18" t="str">
-        <f t="shared" si="278"/>
+        <f t="shared" si="167"/>
         <v/>
       </c>
       <c r="S162" t="str">
-        <f>BIN2HEX(LEFT(CONCATENATE(M162,IF(N162="", "000", N162)), 8), 2)</f>
+        <f t="shared" si="168"/>
         <v>84</v>
       </c>
       <c r="T162" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N162, 1), IF(O162 = "", "000", O162), "0000"), 2)</f>
+        <f t="shared" si="169"/>
         <v>F0</v>
       </c>
       <c r="U162" s="13" t="str">
-        <f>IF(Q162="", BIN2HEX(R162, 2), BIN2HEX(Q162,2))</f>
+        <f t="shared" si="170"/>
         <v>00</v>
       </c>
     </row>
@@ -10477,56 +10661,59 @@
         <v>27</v>
       </c>
       <c r="B163" t="str">
-        <f t="shared" si="266"/>
+        <f t="shared" si="160"/>
         <v>0x01B</v>
       </c>
       <c r="C163" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="F163" s="11">
         <v>6</v>
       </c>
       <c r="H163" t="str">
-        <f t="shared" si="273"/>
+        <f t="shared" si="171"/>
         <v/>
       </c>
       <c r="K163">
         <v>0</v>
       </c>
       <c r="M163" s="16" t="str">
-        <f>IF(F163="", "", TEXT(DEC2BIN(F163), "000000"))</f>
+        <f t="shared" si="162"/>
         <v>000110</v>
       </c>
       <c r="N163" s="17" t="str">
-        <f t="shared" si="275"/>
+        <f t="shared" si="163"/>
         <v/>
       </c>
       <c r="O163" s="17" t="str">
-        <f t="shared" si="276"/>
-        <v/>
-      </c>
-      <c r="P163" s="17"/>
+        <f t="shared" si="164"/>
+        <v/>
+      </c>
+      <c r="P163" s="17" t="str">
+        <f t="shared" si="165"/>
+        <v/>
+      </c>
       <c r="Q163" s="17" t="str">
-        <f t="shared" si="277"/>
+        <f t="shared" si="166"/>
         <v>00000000</v>
       </c>
       <c r="R163" s="18" t="str">
-        <f t="shared" si="278"/>
+        <f t="shared" si="167"/>
         <v/>
       </c>
       <c r="S163" t="str">
-        <f>BIN2HEX(LEFT(CONCATENATE(M163,IF(N163="", "000", N163)), 8), 2)</f>
+        <f t="shared" si="168"/>
         <v>18</v>
       </c>
       <c r="T163" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N163, 1), IF(O163 = "", "000", O163), "0000"), 2)</f>
+        <f t="shared" si="169"/>
         <v>00</v>
       </c>
       <c r="U163" s="13" t="str">
-        <f>IF(Q163="", BIN2HEX(R163, 2), BIN2HEX(Q163,2))</f>
+        <f t="shared" si="170"/>
         <v>00</v>
       </c>
     </row>
@@ -10535,14 +10722,14 @@
         <v>30</v>
       </c>
       <c r="B164" t="str">
-        <f t="shared" si="266"/>
+        <f t="shared" si="160"/>
         <v>0x01E</v>
       </c>
       <c r="C164" t="s">
-        <v>259</v>
-      </c>
-      <c r="E164" s="51" t="s">
         <v>245</v>
+      </c>
+      <c r="E164" s="53" t="s">
+        <v>234</v>
       </c>
       <c r="F164" s="11">
         <v>2</v>
@@ -10551,43 +10738,46 @@
         <v>39</v>
       </c>
       <c r="H164">
-        <f t="shared" si="273"/>
+        <f t="shared" si="171"/>
         <v>1</v>
       </c>
       <c r="I164">
         <v>6</v>
       </c>
       <c r="M164" s="16" t="str">
-        <f t="shared" ref="M164" si="287">IF(F164="", "", TEXT(DEC2BIN(F164), "000000"))</f>
+        <f t="shared" si="162"/>
         <v>000010</v>
       </c>
       <c r="N164" s="17" t="str">
-        <f t="shared" si="275"/>
+        <f t="shared" si="163"/>
         <v>001</v>
       </c>
       <c r="O164" s="17" t="str">
-        <f t="shared" si="276"/>
+        <f t="shared" si="164"/>
         <v>110</v>
       </c>
-      <c r="P164" s="17"/>
+      <c r="P164" s="17" t="str">
+        <f t="shared" si="165"/>
+        <v/>
+      </c>
       <c r="Q164" s="17" t="str">
-        <f t="shared" si="277"/>
+        <f t="shared" si="166"/>
         <v/>
       </c>
       <c r="R164" s="18" t="str">
-        <f t="shared" si="278"/>
+        <f t="shared" si="167"/>
         <v/>
       </c>
       <c r="S164" t="str">
-        <f t="shared" ref="S164:S166" si="288">BIN2HEX(LEFT(CONCATENATE(M164,IF(N164="", "000", N164)), 8), 2)</f>
+        <f t="shared" si="168"/>
         <v>08</v>
       </c>
       <c r="T164" t="str">
-        <f t="shared" ref="T164" si="289">BIN2HEX(CONCATENATE(RIGHT(N164, 1), IF(O164 = "", "000", O164), "0000"), 2)</f>
+        <f t="shared" si="169"/>
         <v>E0</v>
       </c>
       <c r="U164" s="13" t="str">
-        <f t="shared" ref="U164:U166" si="290">IF(Q164="", BIN2HEX(R164, 2), BIN2HEX(Q164,2))</f>
+        <f t="shared" si="170"/>
         <v>00</v>
       </c>
     </row>
@@ -10596,13 +10786,13 @@
         <v>33</v>
       </c>
       <c r="B165" t="str">
-        <f t="shared" si="266"/>
+        <f t="shared" si="160"/>
         <v>0x021</v>
       </c>
       <c r="C165" t="s">
-        <v>236</v>
-      </c>
-      <c r="E165" s="51"/>
+        <v>225</v>
+      </c>
+      <c r="E165" s="53"/>
       <c r="F165" s="11">
         <v>40</v>
       </c>
@@ -10610,40 +10800,43 @@
         <v>39</v>
       </c>
       <c r="H165">
-        <f t="shared" si="273"/>
+        <f t="shared" si="171"/>
         <v>1</v>
       </c>
       <c r="M165" s="16" t="str">
-        <f>IF(F165="", "", TEXT(DEC2BIN(F165), "000000"))</f>
+        <f t="shared" si="162"/>
         <v>101000</v>
       </c>
       <c r="N165" s="17" t="str">
-        <f>IF(H165="", "", TEXT(DEC2BIN(H165), "000"))</f>
+        <f t="shared" si="163"/>
         <v>001</v>
       </c>
       <c r="O165" s="17" t="str">
-        <f>IF(I165="", "", TEXT(DEC2BIN(I165), "000"))</f>
-        <v/>
-      </c>
-      <c r="P165" s="17"/>
+        <f t="shared" si="164"/>
+        <v/>
+      </c>
+      <c r="P165" s="17" t="str">
+        <f t="shared" si="165"/>
+        <v/>
+      </c>
       <c r="Q165" s="17" t="str">
-        <f>IF(K165="", "", TEXT(DEC2BIN(K165), "00000000"))</f>
+        <f t="shared" si="166"/>
         <v/>
       </c>
       <c r="R165" s="18" t="str">
-        <f>IF(L165="", "", TEXT(DEC2BIN(L165), "00000000"))</f>
+        <f t="shared" si="167"/>
         <v/>
       </c>
       <c r="S165" t="str">
-        <f t="shared" si="288"/>
+        <f t="shared" si="168"/>
         <v>A0</v>
       </c>
       <c r="T165" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N165, 1), IF(O165 = "", "000", O165), "0000"), 2)</f>
+        <f t="shared" si="169"/>
         <v>80</v>
       </c>
       <c r="U165" s="13" t="str">
-        <f t="shared" si="290"/>
+        <f t="shared" si="170"/>
         <v>00</v>
       </c>
     </row>
@@ -10652,13 +10845,13 @@
         <v>36</v>
       </c>
       <c r="B166" t="str">
-        <f t="shared" si="266"/>
+        <f t="shared" si="160"/>
         <v>0x024</v>
       </c>
       <c r="C166" t="s">
-        <v>260</v>
-      </c>
-      <c r="E166" s="51"/>
+        <v>246</v>
+      </c>
+      <c r="E166" s="53"/>
       <c r="F166" s="11">
         <v>2</v>
       </c>
@@ -10666,43 +10859,46 @@
         <v>42</v>
       </c>
       <c r="H166">
-        <f t="shared" si="273"/>
+        <f t="shared" si="171"/>
         <v>6</v>
       </c>
       <c r="I166">
         <v>1</v>
       </c>
       <c r="M166" s="16" t="str">
-        <f t="shared" ref="M166" si="291">IF(F166="", "", TEXT(DEC2BIN(F166), "000000"))</f>
+        <f t="shared" si="162"/>
         <v>000010</v>
       </c>
       <c r="N166" s="17" t="str">
-        <f t="shared" ref="N166" si="292">IF(H166="", "", TEXT(DEC2BIN(H166), "000"))</f>
+        <f t="shared" si="163"/>
         <v>110</v>
       </c>
       <c r="O166" s="17" t="str">
-        <f t="shared" ref="O166" si="293">IF(I166="", "", TEXT(DEC2BIN(I166), "000"))</f>
+        <f t="shared" si="164"/>
         <v>001</v>
       </c>
-      <c r="P166" s="17"/>
+      <c r="P166" s="17" t="str">
+        <f t="shared" si="165"/>
+        <v/>
+      </c>
       <c r="Q166" s="17" t="str">
-        <f t="shared" ref="Q166" si="294">IF(K166="", "", TEXT(DEC2BIN(K166), "00000000"))</f>
+        <f t="shared" si="166"/>
         <v/>
       </c>
       <c r="R166" s="18" t="str">
-        <f t="shared" ref="R166" si="295">IF(L166="", "", TEXT(DEC2BIN(L166), "00000000"))</f>
+        <f t="shared" si="167"/>
         <v/>
       </c>
       <c r="S166" t="str">
-        <f t="shared" si="288"/>
+        <f t="shared" si="168"/>
         <v>0B</v>
       </c>
       <c r="T166" t="str">
-        <f t="shared" ref="T166" si="296">BIN2HEX(CONCATENATE(RIGHT(N166, 1), IF(O166 = "", "000", O166), "0000"), 2)</f>
+        <f t="shared" si="169"/>
         <v>10</v>
       </c>
       <c r="U166" s="13" t="str">
-        <f t="shared" si="290"/>
+        <f t="shared" si="170"/>
         <v>00</v>
       </c>
     </row>
@@ -10711,62 +10907,65 @@
         <v>39</v>
       </c>
       <c r="B167" t="str">
-        <f t="shared" si="266"/>
+        <f t="shared" si="160"/>
         <v>0x027</v>
       </c>
       <c r="C167" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F167" s="11">
         <v>5</v>
       </c>
       <c r="H167" t="str">
-        <f t="shared" si="273"/>
+        <f t="shared" si="171"/>
         <v/>
       </c>
       <c r="K167">
         <v>12</v>
       </c>
       <c r="M167" s="16" t="str">
-        <f>IF(F167="", "", TEXT(DEC2BIN(F167), "000000"))</f>
+        <f t="shared" si="162"/>
         <v>000101</v>
       </c>
       <c r="N167" s="17" t="str">
-        <f t="shared" si="275"/>
+        <f t="shared" si="163"/>
         <v/>
       </c>
       <c r="O167" s="17" t="str">
-        <f t="shared" si="276"/>
-        <v/>
-      </c>
-      <c r="P167" s="17"/>
+        <f t="shared" si="164"/>
+        <v/>
+      </c>
+      <c r="P167" s="17" t="str">
+        <f t="shared" si="165"/>
+        <v/>
+      </c>
       <c r="Q167" s="17" t="str">
-        <f t="shared" si="277"/>
+        <f t="shared" si="166"/>
         <v>00001100</v>
       </c>
       <c r="R167" s="18" t="str">
-        <f t="shared" si="278"/>
+        <f t="shared" si="167"/>
         <v/>
       </c>
       <c r="S167" t="str">
-        <f>BIN2HEX(LEFT(CONCATENATE(M167,IF(N167="", "000", N167)), 8), 2)</f>
+        <f t="shared" si="168"/>
         <v>14</v>
       </c>
       <c r="T167" t="str">
-        <f>BIN2HEX(CONCATENATE(RIGHT(N167, 1), IF(O167 = "", "000", O167), "0000"), 2)</f>
+        <f t="shared" si="169"/>
         <v>00</v>
       </c>
       <c r="U167" s="13" t="str">
-        <f>IF(Q167="", BIN2HEX(R167, 2), BIN2HEX(Q167,2))</f>
+        <f t="shared" si="170"/>
         <v>0C</v>
       </c>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E168" s="8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.3">
@@ -10774,11 +10973,11 @@
         <v>48</v>
       </c>
       <c r="B169" t="str">
-        <f t="shared" ref="B169:B172" si="297">"0x" &amp; DEC2HEX(A169,3)</f>
+        <f t="shared" ref="B169:B172" si="172">"0x" &amp; DEC2HEX(A169,3)</f>
         <v>0x030</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.3">
@@ -10786,11 +10985,11 @@
         <v>51</v>
       </c>
       <c r="B170" t="str">
-        <f t="shared" si="297"/>
+        <f t="shared" si="172"/>
         <v>0x033</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.3">
@@ -10798,11 +10997,11 @@
         <v>54</v>
       </c>
       <c r="B171" t="str">
-        <f t="shared" si="297"/>
+        <f t="shared" si="172"/>
         <v>0x036</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.3">
@@ -10810,11 +11009,11 @@
         <v>57</v>
       </c>
       <c r="B172" t="str">
-        <f t="shared" si="297"/>
+        <f t="shared" si="172"/>
         <v>0x039</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.3">
@@ -10822,11 +11021,11 @@
         <v>60</v>
       </c>
       <c r="B173" t="str">
-        <f t="shared" ref="B173:B180" si="298">"0x" &amp; DEC2HEX(A173,3)</f>
+        <f t="shared" ref="B173:B180" si="173">"0x" &amp; DEC2HEX(A173,3)</f>
         <v>0x03C</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.3">
@@ -10834,11 +11033,11 @@
         <v>63</v>
       </c>
       <c r="B174" t="str">
-        <f t="shared" si="298"/>
+        <f t="shared" si="173"/>
         <v>0x03F</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.3">
@@ -10846,11 +11045,11 @@
         <v>66</v>
       </c>
       <c r="B175" t="str">
-        <f t="shared" si="298"/>
+        <f t="shared" si="173"/>
         <v>0x042</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.3">
@@ -10858,11 +11057,11 @@
         <v>69</v>
       </c>
       <c r="B176" t="str">
-        <f t="shared" si="298"/>
+        <f t="shared" si="173"/>
         <v>0x045</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -10870,11 +11069,11 @@
         <v>72</v>
       </c>
       <c r="B177" t="str">
-        <f t="shared" si="298"/>
+        <f t="shared" si="173"/>
         <v>0x048</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -10882,11 +11081,11 @@
         <v>75</v>
       </c>
       <c r="B178" t="str">
-        <f t="shared" si="298"/>
+        <f t="shared" si="173"/>
         <v>0x04B</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -10894,11 +11093,11 @@
         <v>78</v>
       </c>
       <c r="B179" t="str">
-        <f t="shared" si="298"/>
+        <f t="shared" si="173"/>
         <v>0x04E</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -10906,11 +11105,11 @@
         <v>81</v>
       </c>
       <c r="B180" t="str">
-        <f t="shared" si="298"/>
+        <f t="shared" si="173"/>
         <v>0x051</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -10918,11 +11117,11 @@
         <v>84</v>
       </c>
       <c r="B181" t="str">
-        <f t="shared" ref="B181:B190" si="299">"0x" &amp; DEC2HEX(A181,3)</f>
+        <f t="shared" ref="B181:B190" si="174">"0x" &amp; DEC2HEX(A181,3)</f>
         <v>0x054</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -10930,11 +11129,11 @@
         <v>87</v>
       </c>
       <c r="B182" t="str">
-        <f t="shared" si="299"/>
+        <f t="shared" si="174"/>
         <v>0x057</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -10942,11 +11141,11 @@
         <v>90</v>
       </c>
       <c r="B183" t="str">
-        <f t="shared" si="299"/>
+        <f t="shared" si="174"/>
         <v>0x05A</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -10954,11 +11153,11 @@
         <v>93</v>
       </c>
       <c r="B184" t="str">
-        <f t="shared" si="299"/>
+        <f t="shared" si="174"/>
         <v>0x05D</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -10966,11 +11165,11 @@
         <v>96</v>
       </c>
       <c r="B185" t="str">
-        <f t="shared" si="299"/>
+        <f t="shared" si="174"/>
         <v>0x060</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -10978,11 +11177,11 @@
         <v>99</v>
       </c>
       <c r="B186" t="str">
-        <f t="shared" si="299"/>
+        <f t="shared" si="174"/>
         <v>0x063</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -10990,11 +11189,11 @@
         <v>102</v>
       </c>
       <c r="B187" t="str">
-        <f t="shared" si="299"/>
+        <f t="shared" si="174"/>
         <v>0x066</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -11002,11 +11201,11 @@
         <v>105</v>
       </c>
       <c r="B188" t="str">
-        <f t="shared" si="299"/>
+        <f t="shared" si="174"/>
         <v>0x069</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -11014,11 +11213,11 @@
         <v>108</v>
       </c>
       <c r="B189" t="str">
-        <f t="shared" si="299"/>
+        <f t="shared" si="174"/>
         <v>0x06C</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -11026,11 +11225,11 @@
         <v>111</v>
       </c>
       <c r="B190" t="str">
-        <f t="shared" si="299"/>
+        <f t="shared" si="174"/>
         <v>0x06F</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -11071,7 +11270,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -11153,14 +11352,14 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="53">
+      <c r="B9" s="48">
         <v>11111111</v>
       </c>
-      <c r="C9" s="52" t="str">
+      <c r="C9" s="47" t="str">
         <f t="shared" si="0"/>
         <v>FF</v>
       </c>
-      <c r="D9" s="52"/>
+      <c r="D9" s="47"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -11236,11 +11435,11 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="53" t="str">
+      <c r="B17" s="48" t="str">
         <f>"00000000"</f>
         <v>00000000</v>
       </c>
-      <c r="C17" s="52" t="str">
+      <c r="C17" s="47" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>
@@ -11319,11 +11518,11 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="53" t="str">
+      <c r="B25" s="48" t="str">
         <f>"00000000"</f>
         <v>00000000</v>
       </c>
-      <c r="C25" s="52" t="str">
+      <c r="C25" s="47" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>
@@ -11383,7 +11582,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="str">
-        <f>"00000000"</f>
+        <f t="shared" ref="B31:B36" si="2">"00000000"</f>
         <v>00000000</v>
       </c>
       <c r="C31" t="str">
@@ -11393,7 +11592,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="str">
-        <f>"00000000"</f>
+        <f t="shared" si="2"/>
         <v>00000000</v>
       </c>
       <c r="C32" t="str">
@@ -11402,11 +11601,11 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="53" t="str">
-        <f>"00000000"</f>
+      <c r="B33" s="48" t="str">
+        <f t="shared" si="2"/>
         <v>00000000</v>
       </c>
-      <c r="C33" s="52" t="str">
+      <c r="C33" s="47" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>
@@ -11416,7 +11615,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="2" t="str">
-        <f>"00000000"</f>
+        <f t="shared" si="2"/>
         <v>00000000</v>
       </c>
       <c r="C34" t="str">
@@ -11426,7 +11625,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="str">
-        <f>"00000000"</f>
+        <f t="shared" si="2"/>
         <v>00000000</v>
       </c>
       <c r="C35" t="str">
@@ -11436,7 +11635,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="str">
-        <f>"00000000"</f>
+        <f t="shared" si="2"/>
         <v>00000000</v>
       </c>
       <c r="C36" t="str">
@@ -11446,7 +11645,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="str">
-        <f t="shared" ref="B37:B38" si="2">"00000000"</f>
+        <f t="shared" ref="B37:B38" si="3">"00000000"</f>
         <v>00000000</v>
       </c>
       <c r="C37" t="str">
@@ -11456,7 +11655,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
       <c r="C38" t="str">
@@ -11466,7 +11665,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="str">
-        <f>"00000000"</f>
+        <f t="shared" ref="B39:B44" si="4">"00000000"</f>
         <v>00000000</v>
       </c>
       <c r="C39" t="str">
@@ -11476,7 +11675,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="str">
-        <f>"00000000"</f>
+        <f t="shared" si="4"/>
         <v>00000000</v>
       </c>
       <c r="C40" t="str">
@@ -11485,11 +11684,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="53" t="str">
-        <f>"00000000"</f>
+      <c r="B41" s="48" t="str">
+        <f t="shared" si="4"/>
         <v>00000000</v>
       </c>
-      <c r="C41" s="52" t="str">
+      <c r="C41" s="47" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>
@@ -11499,7 +11698,7 @@
         <v>5</v>
       </c>
       <c r="B42" s="2" t="str">
-        <f>"00000000"</f>
+        <f t="shared" si="4"/>
         <v>00000000</v>
       </c>
       <c r="C42" t="str">
@@ -11509,7 +11708,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="str">
-        <f>"00000000"</f>
+        <f t="shared" si="4"/>
         <v>00000000</v>
       </c>
       <c r="C43" t="str">
@@ -11519,7 +11718,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="str">
-        <f>"00000000"</f>
+        <f t="shared" si="4"/>
         <v>00000000</v>
       </c>
       <c r="C44" t="str">
@@ -11568,11 +11767,11 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="53" t="str">
+      <c r="B49" s="48" t="str">
         <f>"00000000"</f>
         <v>00000000</v>
       </c>
-      <c r="C49" s="52" t="str">
+      <c r="C49" s="47" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>
@@ -11651,11 +11850,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="53" t="str">
+      <c r="B57" s="48" t="str">
         <f>"00000000"</f>
         <v>00000000</v>
       </c>
-      <c r="C57" s="52" t="str">
+      <c r="C57" s="47" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>
@@ -11695,7 +11894,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B61" s="2" t="str">
-        <f t="shared" ref="B61:B63" si="3">"01000010"</f>
+        <f t="shared" ref="B61:B63" si="5">"01000010"</f>
         <v>01000010</v>
       </c>
       <c r="C61" t="str">
@@ -11705,7 +11904,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B62" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>01000010</v>
       </c>
       <c r="C62" t="str">
@@ -11715,7 +11914,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B63" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>01000010</v>
       </c>
       <c r="C63" t="str">
@@ -11734,11 +11933,11 @@
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="53" t="str">
+      <c r="B65" s="48" t="str">
         <f>"00000000"</f>
         <v>00000000</v>
       </c>
-      <c r="C65" s="52" t="str">
+      <c r="C65" s="47" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>

--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="288" windowWidth="14808" windowHeight="7836"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Control Lines" sheetId="1" r:id="rId1"/>
-    <sheet name="Some instructions for test" sheetId="2" r:id="rId2"/>
-    <sheet name="Test Programs" sheetId="3" r:id="rId3"/>
-    <sheet name="Animations" sheetId="4" r:id="rId4"/>
+    <sheet name="Test Programs" sheetId="3" r:id="rId2"/>
+    <sheet name="Animations" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
@@ -23,7 +22,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="C20" authorId="0" shapeId="0">
+    <comment ref="C20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +50,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="277">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -239,90 +238,18 @@
     <t>[RR3] to MEM_ADDR</t>
   </si>
   <si>
-    <t>LD A, data</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
-    <t>LD B, data</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
     <t>LD A, B</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>xxxx</t>
-  </si>
-  <si>
-    <t>LD B, A</t>
-  </si>
-  <si>
-    <t>LD A, [addr]</t>
-  </si>
-  <si>
     <t>[addr]</t>
   </si>
   <si>
-    <t>0c</t>
-  </si>
-  <si>
-    <t>001011</t>
-  </si>
-  <si>
-    <t>2c</t>
-  </si>
-  <si>
-    <t>0[addr]</t>
-  </si>
-  <si>
-    <t>ADD A, A, B</t>
-  </si>
-  <si>
-    <t>Sums A and B, put result in A</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>1x</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>SUB A, A, B</t>
-  </si>
-  <si>
-    <t>A - B, result in A</t>
-  </si>
-  <si>
-    <t>1c</t>
-  </si>
-  <si>
     <t>NOT A</t>
   </si>
   <si>
-    <t>NOT A, result in A</t>
-  </si>
-  <si>
-    <t>0x</t>
-  </si>
-  <si>
     <t>LD A, 0x20</t>
   </si>
   <si>
@@ -909,12 +836,93 @@
   </si>
   <si>
     <t>// 11 - Simple animation in Led Matrix output</t>
+  </si>
+  <si>
+    <t>LD A, 0x43</t>
+  </si>
+  <si>
+    <t>// 67 in decimal</t>
+  </si>
+  <si>
+    <t>DEC A</t>
+  </si>
+  <si>
+    <t>LD E, 0xc7</t>
+  </si>
+  <si>
+    <t>// 199 in decimal</t>
+  </si>
+  <si>
+    <t>// A should be 266 - 256 = 10 (0xA)</t>
+  </si>
+  <si>
+    <t>SUB A, E</t>
+  </si>
+  <si>
+    <t>// Reverse A and E registers, A will be  = 199 and E = 10</t>
+  </si>
+  <si>
+    <t>// A = 189</t>
+  </si>
+  <si>
+    <t>// A = 66</t>
+  </si>
+  <si>
+    <t>AND A, E</t>
+  </si>
+  <si>
+    <t>// A = 2</t>
+  </si>
+  <si>
+    <t>OR A, E</t>
+  </si>
+  <si>
+    <t>// A = 10</t>
+  </si>
+  <si>
+    <t>XOR A, E</t>
+  </si>
+  <si>
+    <t>// A = 0</t>
+  </si>
+  <si>
+    <t>NOR A, E</t>
+  </si>
+  <si>
+    <t>// A = 245</t>
+  </si>
+  <si>
+    <t>XNOR A, E</t>
+  </si>
+  <si>
+    <t>LD F, [HL]</t>
+  </si>
+  <si>
+    <t>ST [0x60], A</t>
+  </si>
+  <si>
+    <t>LD B, [0x60]</t>
+  </si>
+  <si>
+    <t>LD L, 0x60</t>
+  </si>
+  <si>
+    <t>// A = 255</t>
+  </si>
+  <si>
+    <t>// B = 255</t>
+  </si>
+  <si>
+    <t>// 12 - Test all instructions</t>
+  </si>
+  <si>
+    <t>// F = 255</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1123,7 +1131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1230,6 +1238,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1250,7 +1261,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1288,9 +1299,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1323,26 +1334,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1375,26 +1369,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1570,26 +1547,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="3.33203125" customWidth="1"/>
-    <col min="18" max="19" width="3.33203125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="3.33203125" customWidth="1"/>
-    <col min="21" max="21" width="3.33203125" style="41" customWidth="1"/>
-    <col min="22" max="27" width="3.33203125" customWidth="1"/>
-    <col min="28" max="30" width="5.88671875" customWidth="1"/>
+    <col min="4" max="17" width="3.28515625" customWidth="1"/>
+    <col min="18" max="19" width="3.28515625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="3.28515625" customWidth="1"/>
+    <col min="21" max="21" width="3.28515625" style="41" customWidth="1"/>
+    <col min="22" max="27" width="3.28515625" customWidth="1"/>
+    <col min="28" max="30" width="5.85546875" customWidth="1"/>
     <col min="31" max="31" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D1">
         <v>23</v>
       </c>
@@ -1665,13 +1642,13 @@
     </row>
     <row r="2" spans="1:39" s="1" customFormat="1" ht="129" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>1</v>
@@ -1707,13 +1684,13 @@
         <v>13</v>
       </c>
       <c r="O2" s="24" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="P2" s="23" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="Q2" s="23" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="R2" s="25" t="s">
         <v>20</v>
@@ -1722,10 +1699,10 @@
         <v>21</v>
       </c>
       <c r="T2" s="23" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="U2" s="40" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="V2" s="23" t="s">
         <v>32</v>
@@ -1746,12 +1723,12 @@
         <v>37</v>
       </c>
       <c r="AB2" s="49" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="AC2" s="49"/>
       <c r="AD2" s="49"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1855,7 +1832,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1955,7 +1932,7 @@
         <v>C00000</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2055,7 +2032,7 @@
         <v>600400</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2155,7 +2132,7 @@
         <v>5E0000</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2164,7 +2141,7 @@
         <v>0x4</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -2255,7 +2232,7 @@
         <v>4F0000</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2355,7 +2332,7 @@
         <v>004000</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2455,7 +2432,7 @@
         <v>006000</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="33">
         <v>7</v>
       </c>
@@ -2555,7 +2532,7 @@
         <v>004200</v>
       </c>
     </row>
-    <row r="11" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="33">
         <v>8</v>
       </c>
@@ -2655,7 +2632,7 @@
         <v>006200</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
         <v>9</v>
       </c>
@@ -2727,7 +2704,7 @@
         <v>000100</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2823,14 +2800,14 @@
         <v>00</v>
       </c>
       <c r="AF13" s="5" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="AM13" s="8" t="str">
         <f t="shared" ref="AM13:AM44" si="5">AB13 &amp; AC13 &amp; AD13</f>
         <v>181800</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -2839,7 +2816,7 @@
         <v>0xB</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -2930,7 +2907,7 @@
         <v>091800</v>
       </c>
     </row>
-    <row r="15" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="33">
         <v>12</v>
       </c>
@@ -2981,7 +2958,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="16" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="33">
         <v>13</v>
       </c>
@@ -3032,7 +3009,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="33">
         <v>14</v>
       </c>
@@ -3083,7 +3060,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="33">
         <v>15</v>
       </c>
@@ -3134,7 +3111,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="33">
         <v>16</v>
       </c>
@@ -3143,7 +3120,7 @@
         <v>0x10</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="P19" s="8">
         <v>0</v>
@@ -3170,14 +3147,14 @@
         <v>00</v>
       </c>
       <c r="AF19" s="8" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="AM19" s="8" t="str">
         <f t="shared" si="5"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -3186,7 +3163,7 @@
         <v>0x11</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3273,17 +3250,17 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="AM20" s="8" t="str">
         <f t="shared" si="5"/>
         <v>000880</v>
       </c>
       <c r="AN20" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="21" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -3316,7 +3293,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -3349,7 +3326,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -3382,7 +3359,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -3415,7 +3392,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -3448,7 +3425,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -3481,7 +3458,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -3514,7 +3491,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -3547,7 +3524,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -3580,7 +3557,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -3613,7 +3590,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -3646,7 +3623,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -3679,7 +3656,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="33" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -3712,7 +3689,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="34" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -3745,7 +3722,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -3841,14 +3818,14 @@
         <v>25</v>
       </c>
       <c r="AF35" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="AM35" s="8" t="str">
         <f t="shared" si="5"/>
         <v>408825</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -3944,14 +3921,14 @@
         <v>18</v>
       </c>
       <c r="AF36" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="AM36" s="8" t="str">
         <f t="shared" si="5"/>
         <v>408818</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -4051,10 +4028,10 @@
         <v>408802</v>
       </c>
       <c r="AN37" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -4154,7 +4131,7 @@
         <v>40882E</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -4254,7 +4231,7 @@
         <v>40883A</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -4354,7 +4331,7 @@
         <v>40881A</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -4363,7 +4340,7 @@
         <v>0x26</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="D41" s="6">
         <v>0</v>
@@ -4454,7 +4431,7 @@
         <v>408806</v>
       </c>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -4463,7 +4440,7 @@
         <v>0x27</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="D42" s="6">
         <v>0</v>
@@ -4554,7 +4531,7 @@
         <v>408826</v>
       </c>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -4563,7 +4540,7 @@
         <v>0x28</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="D43" s="6">
         <v>0</v>
@@ -4654,7 +4631,7 @@
         <v>408800</v>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -4663,7 +4640,7 @@
         <v>0x29</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="D44" s="6">
         <v>0</v>
@@ -4754,7 +4731,7 @@
         <v>40883D</v>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C46" s="3" t="s">
         <v>22</v>
       </c>
@@ -4762,7 +4739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C47" s="5" t="s">
         <v>30</v>
       </c>
@@ -4770,62 +4747,62 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D49" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D51" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="D52" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="R52"/>
       <c r="S52"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="D53" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="R53"/>
       <c r="S53"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D54" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="R54"/>
       <c r="S54"/>
@@ -4841,258 +4818,101 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z216"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E210" sqref="E210:E216"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.109375" style="7"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" style="16" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="2"/>
+    <col min="16" max="16" width="8.85546875" style="2"/>
+    <col min="17" max="17" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.42578125" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="1" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z190"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H122" sqref="H122"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.44140625" style="16" customWidth="1"/>
-    <col min="14" max="15" width="9.109375" style="2"/>
-    <col min="16" max="16" width="8.88671875" style="2"/>
-    <col min="17" max="17" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.44140625" style="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="F1" s="14" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="S1" s="50" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="T1" s="51"/>
       <c r="U1" s="52"/>
       <c r="V1" s="10"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="8" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="N2" s="17"/>
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
       <c r="W2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -5101,7 +4921,7 @@
         <v>0x000</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="11">
@@ -5160,7 +4980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5169,10 +4989,10 @@
         <v>0x003</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="F4" s="11">
         <v>1</v>
@@ -5230,7 +5050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6</v>
       </c>
@@ -5239,7 +5059,7 @@
         <v>0x006</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="11">
@@ -5298,7 +5118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9</v>
       </c>
@@ -5307,7 +5127,7 @@
         <v>0x009</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="11">
@@ -5363,7 +5183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E7" s="8"/>
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
@@ -5376,19 +5196,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C8" s="8" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="E8" s="8"/>
       <c r="W8" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="X8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -5397,7 +5217,7 @@
         <v>0x000</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11">
@@ -5450,13 +5270,13 @@
         <v>00</v>
       </c>
       <c r="W9" s="38" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="X9" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -5465,7 +5285,7 @@
         <v>0x003</v>
       </c>
       <c r="C10" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="F10" s="11">
         <v>40</v>
@@ -5514,13 +5334,13 @@
         <v>00</v>
       </c>
       <c r="W10" s="38" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="X10" s="38">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -5529,7 +5349,7 @@
         <v>0x006</v>
       </c>
       <c r="C11" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="F11" s="11">
         <v>5</v>
@@ -5578,18 +5398,18 @@
         <v>03</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C16" s="8" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="W16" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="X16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
@@ -5598,7 +5418,7 @@
         <v>0x000</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="F17" s="11">
         <v>1</v>
@@ -5650,20 +5470,20 @@
         <v>00</v>
       </c>
       <c r="W17" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="X17">
         <v>1</v>
       </c>
       <c r="Y17" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="Z17">
         <f>VLOOKUP(Y17,W16:X18,2)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5672,7 +5492,7 @@
         <v>0x003</v>
       </c>
       <c r="C18" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="F18" s="11">
         <v>1</v>
@@ -5724,13 +5544,13 @@
         <v>FF</v>
       </c>
       <c r="W18" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="X18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
@@ -5739,7 +5559,7 @@
         <v>0x006</v>
       </c>
       <c r="C19" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="F19" s="11">
         <v>40</v>
@@ -5788,7 +5608,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>9</v>
       </c>
@@ -5797,10 +5617,10 @@
         <v>0x009</v>
       </c>
       <c r="C20" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F20" s="11">
         <v>41</v>
@@ -5849,7 +5669,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12</v>
       </c>
@@ -5858,7 +5678,7 @@
         <v>0x00C</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="11">
@@ -5908,48 +5728,48 @@
         <v>06</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E22" s="39"/>
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
       <c r="P22" s="17"/>
       <c r="Q22" s="17"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E23" s="39"/>
       <c r="N23" s="17"/>
       <c r="O23" s="17"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="17"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E24" s="39"/>
       <c r="N24" s="17"/>
       <c r="O24" s="17"/>
       <c r="P24" s="17"/>
       <c r="Q24" s="17"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E25" s="39"/>
       <c r="N25" s="17"/>
       <c r="O25" s="17"/>
       <c r="P25" s="17"/>
       <c r="Q25" s="17"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="N26" s="17"/>
       <c r="O26" s="17"/>
       <c r="P26" s="17"/>
       <c r="Q26" s="17"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
@@ -5958,7 +5778,7 @@
         <v>0x000</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="F31" s="11">
         <v>1</v>
@@ -6010,7 +5830,7 @@
         <v>01</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -6019,7 +5839,7 @@
         <v>0x003</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F32" s="11">
         <v>1</v>
@@ -6071,7 +5891,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -6080,7 +5900,7 @@
         <v>0x006</v>
       </c>
       <c r="C33" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="F33" s="11">
         <v>32</v>
@@ -6132,7 +5952,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>9</v>
       </c>
@@ -6141,7 +5961,7 @@
         <v>0x009</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F34" s="11">
         <v>6</v>
@@ -6186,7 +6006,7 @@
         <v>0F</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>12</v>
       </c>
@@ -6195,7 +6015,7 @@
         <v>0x00C</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="F35" s="11">
         <v>5</v>
@@ -6240,7 +6060,7 @@
         <v>06</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>15</v>
       </c>
@@ -6249,7 +6069,7 @@
         <v>0x00F</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="F36" s="11">
         <v>5</v>
@@ -6294,12 +6114,12 @@
         <v>0F</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C40" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
@@ -6308,7 +6128,7 @@
         <v>0x000</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="F41" s="11">
         <v>3</v>
@@ -6360,7 +6180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
@@ -6369,7 +6189,7 @@
         <v>0x003</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F42" s="11">
         <v>10</v>
@@ -6421,7 +6241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>6</v>
       </c>
@@ -6430,7 +6250,7 @@
         <v>0x006</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="F43" s="11">
         <v>5</v>
@@ -6475,7 +6295,7 @@
         <v>06</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>16</v>
       </c>
@@ -6484,21 +6304,21 @@
         <v>0x010</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C46" s="38"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C48" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0</v>
       </c>
@@ -6507,10 +6327,10 @@
         <v>0x000</v>
       </c>
       <c r="C49" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="F49" s="11">
         <v>1</v>
@@ -6562,7 +6382,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3</v>
       </c>
@@ -6571,7 +6391,7 @@
         <v>0x003</v>
       </c>
       <c r="C50" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="F50" s="11">
         <v>17</v>
@@ -6623,18 +6443,18 @@
         <v>00</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="N51" s="17"/>
       <c r="O51" s="17"/>
       <c r="P51" s="17"/>
       <c r="Q51" s="17"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C55" s="8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0</v>
       </c>
@@ -6643,17 +6463,17 @@
         <v>0x000</v>
       </c>
       <c r="C56" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="F56" s="43"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
@@ -6662,14 +6482,14 @@
         <v>0x003</v>
       </c>
       <c r="C57" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>6</v>
       </c>
@@ -6678,16 +6498,16 @@
         <v>0x006</v>
       </c>
       <c r="C58" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>9</v>
       </c>
@@ -6696,14 +6516,14 @@
         <v>0x009</v>
       </c>
       <c r="C59" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="E59" s="8"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>12</v>
       </c>
@@ -6712,16 +6532,16 @@
         <v>0x00C</v>
       </c>
       <c r="C60" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>15</v>
       </c>
@@ -6730,14 +6550,14 @@
         <v>0x00F</v>
       </c>
       <c r="C61" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>18</v>
       </c>
@@ -6746,16 +6566,16 @@
         <v>0x012</v>
       </c>
       <c r="C62" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>21</v>
       </c>
@@ -6764,14 +6584,14 @@
         <v>0x015</v>
       </c>
       <c r="C63" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>24</v>
       </c>
@@ -6780,16 +6600,16 @@
         <v>0x018</v>
       </c>
       <c r="C64" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>27</v>
       </c>
@@ -6798,14 +6618,14 @@
         <v>0x01B</v>
       </c>
       <c r="C65" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="E65" s="8"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>30</v>
       </c>
@@ -6814,16 +6634,16 @@
         <v>0x01E</v>
       </c>
       <c r="C66" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>33</v>
       </c>
@@ -6832,14 +6652,14 @@
         <v>0x021</v>
       </c>
       <c r="C67" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="E67" s="8"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>36</v>
       </c>
@@ -6848,16 +6668,16 @@
         <v>0x024</v>
       </c>
       <c r="C68" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>39</v>
       </c>
@@ -6866,14 +6686,14 @@
         <v>0x027</v>
       </c>
       <c r="C69" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="E69" s="8"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>42</v>
       </c>
@@ -6882,16 +6702,16 @@
         <v>0x02A</v>
       </c>
       <c r="C70" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>45</v>
       </c>
@@ -6900,14 +6720,14 @@
         <v>0x02D</v>
       </c>
       <c r="C71" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="E71" s="8"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>48</v>
       </c>
@@ -6916,16 +6736,16 @@
         <v>0x030</v>
       </c>
       <c r="C72" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>51</v>
       </c>
@@ -6934,14 +6754,14 @@
         <v>0x033</v>
       </c>
       <c r="C73" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>54</v>
       </c>
@@ -6950,16 +6770,16 @@
         <v>0x036</v>
       </c>
       <c r="C74" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>57</v>
       </c>
@@ -6968,14 +6788,14 @@
         <v>0x039</v>
       </c>
       <c r="C75" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="E75" s="8"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>60</v>
       </c>
@@ -6984,16 +6804,16 @@
         <v>0x03C</v>
       </c>
       <c r="C76" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>63</v>
       </c>
@@ -7002,14 +6822,14 @@
         <v>0x03F</v>
       </c>
       <c r="C77" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="E77" s="8"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>66</v>
       </c>
@@ -7018,16 +6838,16 @@
         <v>0x042</v>
       </c>
       <c r="C78" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>69</v>
       </c>
@@ -7036,28 +6856,28 @@
         <v>0x045</v>
       </c>
       <c r="C79" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E80" s="8"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D81"/>
       <c r="E81" s="8"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C82" s="8" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="D82"/>
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>0</v>
       </c>
@@ -7066,17 +6886,17 @@
         <v>0x000</v>
       </c>
       <c r="C83" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="D83"/>
       <c r="E83" s="8" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="F83" s="11">
         <v>1</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="H83">
         <f t="shared" ref="H83" si="71">IF(G83="", "", VLOOKUP(G83, $W$3:$X$10, 2))</f>
@@ -7122,7 +6942,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>3</v>
       </c>
@@ -7131,16 +6951,16 @@
         <v>0x003</v>
       </c>
       <c r="C84" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="F84" s="11">
         <v>1</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="H84">
         <f t="shared" ref="H84:H86" si="81">IF(G84="", "", VLOOKUP(G84, $W$3:$X$10, 2))</f>
@@ -7186,7 +7006,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>6</v>
       </c>
@@ -7195,16 +7015,16 @@
         <v>0x006</v>
       </c>
       <c r="C85" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="F85" s="11">
         <v>1</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="H85">
         <f t="shared" si="81"/>
@@ -7250,7 +7070,7 @@
         <v>3C</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>9</v>
       </c>
@@ -7259,10 +7079,10 @@
         <v>0x009</v>
       </c>
       <c r="C86" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="F86" s="11">
         <v>4</v>
@@ -7311,7 +7131,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>12</v>
       </c>
@@ -7320,11 +7140,11 @@
         <v>0x00C</v>
       </c>
       <c r="C87" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="D87"/>
       <c r="E87" s="8" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="F87" s="11">
         <v>17</v>
@@ -7376,7 +7196,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>15</v>
       </c>
@@ -7385,14 +7205,14 @@
         <v>0x00F</v>
       </c>
       <c r="C88" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="E88" s="44"/>
       <c r="F88" s="11">
         <v>40</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="H88">
         <f t="shared" si="82"/>
@@ -7435,7 +7255,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>18</v>
       </c>
@@ -7444,10 +7264,10 @@
         <v>0x012</v>
       </c>
       <c r="C89" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="F89" s="11">
         <v>2</v>
@@ -7499,7 +7319,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>21</v>
       </c>
@@ -7508,16 +7328,16 @@
         <v>0x015</v>
       </c>
       <c r="C90" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="F90" s="11">
         <v>33</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="H90">
         <f t="shared" ref="H90" si="84">IF(G90="", "", VLOOKUP(G90, $W$3:$X$10, 2))</f>
@@ -7563,7 +7383,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>24</v>
       </c>
@@ -7572,10 +7392,10 @@
         <v>0x018</v>
       </c>
       <c r="C91" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="F91" s="11">
         <v>6</v>
@@ -7624,7 +7444,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>27</v>
       </c>
@@ -7633,16 +7453,16 @@
         <v>0x01B</v>
       </c>
       <c r="C92" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="F92" s="11">
         <v>2</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="H92">
         <f t="shared" si="85"/>
@@ -7688,7 +7508,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>30</v>
       </c>
@@ -7697,10 +7517,10 @@
         <v>0x01E</v>
       </c>
       <c r="C93" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="F93" s="11">
         <v>5</v>
@@ -7751,10 +7571,10 @@
     </row>
     <row r="94" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E94" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>48</v>
       </c>
@@ -7763,13 +7583,13 @@
         <v>0x030</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>51</v>
       </c>
@@ -7778,13 +7598,13 @@
         <v>0x033</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>54</v>
       </c>
@@ -7793,13 +7613,13 @@
         <v>0x036</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>57</v>
       </c>
@@ -7808,29 +7628,29 @@
         <v>0x039</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C99" s="5"/>
       <c r="E99" s="8"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C100" s="5"/>
       <c r="D100"/>
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C101" s="8" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="D101"/>
       <c r="E101" s="8"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>0</v>
       </c>
@@ -7839,10 +7659,10 @@
         <v>0x000</v>
       </c>
       <c r="C102" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="F102" s="11">
         <v>1</v>
@@ -7894,7 +7714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>3</v>
       </c>
@@ -7903,16 +7723,16 @@
         <v>0x003</v>
       </c>
       <c r="C103" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="F103" s="11">
         <v>1</v>
       </c>
       <c r="G103" s="12" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="H103">
         <f t="shared" ref="H103:H105" si="100">IF(G103="", "", VLOOKUP(G103, $W$3:$X$10, 2))</f>
@@ -7958,7 +7778,7 @@
         <v>FF</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>6</v>
       </c>
@@ -7967,17 +7787,17 @@
         <v>0x006</v>
       </c>
       <c r="C104" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="D104"/>
       <c r="E104" s="8" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="F104" s="11">
         <v>17</v>
       </c>
       <c r="G104" s="12" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="H104">
         <f t="shared" si="100"/>
@@ -8023,7 +7843,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>9</v>
       </c>
@@ -8032,7 +7852,7 @@
         <v>0x009</v>
       </c>
       <c r="C105" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="E105" s="8"/>
       <c r="F105" s="11">
@@ -8085,7 +7905,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>12</v>
       </c>
@@ -8094,7 +7914,7 @@
         <v>0x00C</v>
       </c>
       <c r="C106" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="E106" s="8"/>
       <c r="F106" s="11">
@@ -8144,7 +7964,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>15</v>
       </c>
@@ -8153,10 +7973,10 @@
         <v>0x00F</v>
       </c>
       <c r="C107" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="F107" s="11">
         <v>2</v>
@@ -8208,7 +8028,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>18</v>
       </c>
@@ -8217,10 +8037,10 @@
         <v>0x012</v>
       </c>
       <c r="C108" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="F108" s="11">
         <v>1</v>
@@ -8272,7 +8092,7 @@
         <v>3A</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>21</v>
       </c>
@@ -8281,7 +8101,7 @@
         <v>0x015</v>
       </c>
       <c r="C109" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="E109" s="8"/>
       <c r="F109" s="11">
@@ -8334,7 +8154,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>24</v>
       </c>
@@ -8343,10 +8163,10 @@
         <v>0x018</v>
       </c>
       <c r="C110" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="F110" s="11">
         <v>6</v>
@@ -8395,7 +8215,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>27</v>
       </c>
@@ -8404,7 +8224,7 @@
         <v>0x01B</v>
       </c>
       <c r="C111" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E111" s="8"/>
       <c r="F111" s="11">
@@ -8457,7 +8277,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>30</v>
       </c>
@@ -8466,10 +8286,10 @@
         <v>0x01E</v>
       </c>
       <c r="C112" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="F112" s="11">
         <v>5</v>
@@ -8518,12 +8338,12 @@
         <v>06</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C116" s="8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>0</v>
       </c>
@@ -8532,10 +8352,10 @@
         <v>0x000</v>
       </c>
       <c r="C117" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="F117" s="11">
         <v>1</v>
@@ -8587,7 +8407,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>3</v>
       </c>
@@ -8596,16 +8416,16 @@
         <v>0x003</v>
       </c>
       <c r="C118" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="F118" s="11">
         <v>1</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="H118">
         <f t="shared" si="127"/>
@@ -8651,7 +8471,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>6</v>
       </c>
@@ -8660,10 +8480,10 @@
         <v>0x006</v>
       </c>
       <c r="C119" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="F119" s="11">
         <v>1</v>
@@ -8715,7 +8535,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>9</v>
       </c>
@@ -8724,16 +8544,16 @@
         <v>0x009</v>
       </c>
       <c r="C120" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="F120" s="11">
         <v>1</v>
       </c>
       <c r="G120" s="12" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="H120">
         <f>IF(G120="", "", VLOOKUP(G120, $W$3:$X$10, 2))</f>
@@ -8779,7 +8599,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>12</v>
       </c>
@@ -8788,14 +8608,14 @@
         <v>0x00C</v>
       </c>
       <c r="C121" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="E121" s="8"/>
       <c r="F121" s="11">
         <v>2</v>
       </c>
       <c r="G121" s="12" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="H121">
         <f t="shared" ref="H121:H122" si="138">IF(G121="", "", VLOOKUP(G121, $W$3:$X$10, 2))</f>
@@ -8841,7 +8661,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>15</v>
       </c>
@@ -8850,10 +8670,10 @@
         <v>0x00F</v>
       </c>
       <c r="C122" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F122" s="11">
         <v>4</v>
@@ -8902,7 +8722,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>18</v>
       </c>
@@ -8911,14 +8731,14 @@
         <v>0x012</v>
       </c>
       <c r="C123" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="E123" s="8"/>
       <c r="F123" s="11">
         <v>2</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="H123">
         <f t="shared" ref="H123:H124" si="139">IF(G123="", "", VLOOKUP(G123, $W$3:$X$10, 2))</f>
@@ -8964,7 +8784,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>21</v>
       </c>
@@ -8973,10 +8793,10 @@
         <v>0x015</v>
       </c>
       <c r="C124" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F124" s="11">
         <v>11</v>
@@ -9025,7 +8845,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>24</v>
       </c>
@@ -9034,7 +8854,7 @@
         <v>0x018</v>
       </c>
       <c r="C125" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="E125" s="46"/>
       <c r="F125" s="11">
@@ -9084,7 +8904,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>27</v>
       </c>
@@ -9093,10 +8913,10 @@
         <v>0x01B</v>
       </c>
       <c r="C126" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E126" s="46" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="F126" s="11">
         <v>2</v>
@@ -9148,7 +8968,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>30</v>
       </c>
@@ -9157,10 +8977,10 @@
         <v>0x01E</v>
       </c>
       <c r="C127" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="F127" s="11">
         <v>33</v>
@@ -9212,7 +9032,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>33</v>
       </c>
@@ -9221,10 +9041,10 @@
         <v>0x021</v>
       </c>
       <c r="C128" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="F128" s="11">
         <v>6</v>
@@ -9273,7 +9093,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>36</v>
       </c>
@@ -9282,10 +9102,10 @@
         <v>0x024</v>
       </c>
       <c r="C129" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E129" s="53" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="F129" s="11">
         <v>2</v>
@@ -9337,7 +9157,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>39</v>
       </c>
@@ -9346,7 +9166,7 @@
         <v>0x027</v>
       </c>
       <c r="C130" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="E130" s="53"/>
       <c r="F130" s="11">
@@ -9396,7 +9216,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>42</v>
       </c>
@@ -9405,7 +9225,7 @@
         <v>0x02A</v>
       </c>
       <c r="C131" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="E131" s="53"/>
       <c r="F131" s="11">
@@ -9458,7 +9278,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>45</v>
       </c>
@@ -9467,10 +9287,10 @@
         <v>0x02D</v>
       </c>
       <c r="C132" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="F132" s="11">
         <v>5</v>
@@ -9519,12 +9339,12 @@
         <v>0C</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E133" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>48</v>
       </c>
@@ -9533,10 +9353,10 @@
         <v>0x030</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>51</v>
       </c>
@@ -9545,10 +9365,10 @@
         <v>0x033</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>54</v>
       </c>
@@ -9557,15 +9377,15 @@
         <v>0x036</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C140" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>0</v>
       </c>
@@ -9574,7 +9394,7 @@
         <v>0x000</v>
       </c>
       <c r="C141" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="E141" s="8"/>
       <c r="F141" s="11">
@@ -9595,7 +9415,7 @@
         <v>000001</v>
       </c>
       <c r="N141" s="17" t="str">
-        <f t="shared" ref="N141:P144" si="145">IF(H141="", "", TEXT(DEC2BIN(H141), "000"))</f>
+        <f t="shared" ref="N141:P141" si="145">IF(H141="", "", TEXT(DEC2BIN(H141), "000"))</f>
         <v>110</v>
       </c>
       <c r="O141" s="17" t="str">
@@ -9607,7 +9427,7 @@
         <v/>
       </c>
       <c r="Q141" s="17" t="str">
-        <f t="shared" ref="Q141:R144" si="146">IF(K141="", "", TEXT(DEC2BIN(K141), "00000000"))</f>
+        <f t="shared" ref="Q141:R141" si="146">IF(K141="", "", TEXT(DEC2BIN(K141), "00000000"))</f>
         <v/>
       </c>
       <c r="R141" s="18" t="str">
@@ -9627,7 +9447,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>3</v>
       </c>
@@ -9636,7 +9456,7 @@
         <v>0x003</v>
       </c>
       <c r="C142" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E142" s="8"/>
       <c r="F142" s="11">
@@ -9689,7 +9509,7 @@
         <v>FF</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>6</v>
       </c>
@@ -9698,14 +9518,14 @@
         <v>0x006</v>
       </c>
       <c r="C143" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="E143" s="8"/>
       <c r="F143" s="11">
         <v>1</v>
       </c>
       <c r="G143" s="12" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="H143">
         <f>IF(G143="", "", VLOOKUP(G143, $W$3:$X$10, 2))</f>
@@ -9751,16 +9571,16 @@
         <v>00</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C144" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="E144" s="8"/>
       <c r="F144" s="11">
         <v>17</v>
       </c>
       <c r="G144" s="12" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="H144">
         <f>IF(G144="", "", VLOOKUP(G144, $W$3:$X$10, 2))</f>
@@ -9809,9 +9629,9 @@
         <v>00</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C145" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="E145" s="8"/>
       <c r="F145" s="11">
@@ -9867,9 +9687,9 @@
         <v>00</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C146" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="E146" s="8"/>
       <c r="F146" s="11">
@@ -9922,9 +9742,9 @@
         <v>00</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C147" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="E147" s="8"/>
       <c r="F147" s="11">
@@ -9974,9 +9794,9 @@
         <v>00</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C148" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="E148" s="8"/>
       <c r="F148" s="11">
@@ -10029,9 +9849,9 @@
         <v>00</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C149" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="F149" s="11">
         <v>5</v>
@@ -10080,15 +9900,15 @@
         <v>09</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C151" s="5"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C153" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>0</v>
       </c>
@@ -10097,7 +9917,7 @@
         <v>0x000</v>
       </c>
       <c r="C154" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="E154" s="8"/>
       <c r="F154" s="11">
@@ -10150,7 +9970,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>3</v>
       </c>
@@ -10159,17 +9979,17 @@
         <v>0x003</v>
       </c>
       <c r="C155" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="D155"/>
       <c r="E155" s="8" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="F155" s="11">
         <v>1</v>
       </c>
       <c r="G155" s="12" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="H155">
         <f t="shared" ref="H155:H167" si="171">IF(G155="", "", VLOOKUP(G155, $W$3:$X$10, 2))</f>
@@ -10215,7 +10035,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>6</v>
       </c>
@@ -10224,16 +10044,16 @@
         <v>0x006</v>
       </c>
       <c r="C156" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="F156" s="11">
         <v>1</v>
       </c>
       <c r="G156" s="12" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="H156">
         <f t="shared" si="171"/>
@@ -10279,7 +10099,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>9</v>
       </c>
@@ -10288,16 +10108,16 @@
         <v>0x009</v>
       </c>
       <c r="C157" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="F157" s="11">
         <v>1</v>
       </c>
       <c r="G157" s="12" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="H157">
         <f t="shared" si="171"/>
@@ -10343,7 +10163,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>12</v>
       </c>
@@ -10352,10 +10172,10 @@
         <v>0x00C</v>
       </c>
       <c r="C158" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F158" s="11">
         <v>4</v>
@@ -10404,7 +10224,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>15</v>
       </c>
@@ -10413,10 +10233,10 @@
         <v>0x00F</v>
       </c>
       <c r="C159" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="F159" s="11">
         <v>17</v>
@@ -10471,7 +10291,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>18</v>
       </c>
@@ -10480,14 +10300,14 @@
         <v>0x012</v>
       </c>
       <c r="C160" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="E160" s="44"/>
       <c r="F160" s="11">
         <v>40</v>
       </c>
       <c r="G160" s="12" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="H160">
         <f t="shared" si="171"/>
@@ -10530,7 +10350,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>21</v>
       </c>
@@ -10539,7 +10359,7 @@
         <v>0x015</v>
       </c>
       <c r="C161" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="E161" s="8"/>
       <c r="F161" s="11">
@@ -10592,7 +10412,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>24</v>
       </c>
@@ -10601,10 +10421,10 @@
         <v>0x018</v>
       </c>
       <c r="C162" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="F162" s="11">
         <v>33</v>
@@ -10656,7 +10476,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>27</v>
       </c>
@@ -10665,10 +10485,10 @@
         <v>0x01B</v>
       </c>
       <c r="C163" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="F163" s="11">
         <v>6</v>
@@ -10717,7 +10537,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>30</v>
       </c>
@@ -10726,10 +10546,10 @@
         <v>0x01E</v>
       </c>
       <c r="C164" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="E164" s="53" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="F164" s="11">
         <v>2</v>
@@ -10781,7 +10601,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>33</v>
       </c>
@@ -10790,7 +10610,7 @@
         <v>0x021</v>
       </c>
       <c r="C165" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="E165" s="53"/>
       <c r="F165" s="11">
@@ -10840,7 +10660,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>36</v>
       </c>
@@ -10849,7 +10669,7 @@
         <v>0x024</v>
       </c>
       <c r="C166" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="E166" s="53"/>
       <c r="F166" s="11">
@@ -10902,7 +10722,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>39</v>
       </c>
@@ -10911,10 +10731,10 @@
         <v>0x027</v>
       </c>
       <c r="C167" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="F167" s="11">
         <v>5</v>
@@ -10963,12 +10783,12 @@
         <v>0C</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E168" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>48</v>
       </c>
@@ -10977,10 +10797,10 @@
         <v>0x030</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>51</v>
       </c>
@@ -10989,10 +10809,10 @@
         <v>0x033</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>54</v>
       </c>
@@ -11001,10 +10821,10 @@
         <v>0x036</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>57</v>
       </c>
@@ -11013,10 +10833,10 @@
         <v>0x039</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>60</v>
       </c>
@@ -11025,10 +10845,10 @@
         <v>0x03C</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>63</v>
       </c>
@@ -11037,10 +10857,10 @@
         <v>0x03F</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>66</v>
       </c>
@@ -11049,10 +10869,10 @@
         <v>0x042</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>69</v>
       </c>
@@ -11061,10 +10881,10 @@
         <v>0x045</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>72</v>
       </c>
@@ -11073,10 +10893,10 @@
         <v>0x048</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>75</v>
       </c>
@@ -11085,10 +10905,10 @@
         <v>0x04B</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>78</v>
       </c>
@@ -11097,10 +10917,10 @@
         <v>0x04E</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>81</v>
       </c>
@@ -11109,10 +10929,10 @@
         <v>0x051</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>84</v>
       </c>
@@ -11121,10 +10941,10 @@
         <v>0x054</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>87</v>
       </c>
@@ -11133,10 +10953,10 @@
         <v>0x057</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>90</v>
       </c>
@@ -11145,10 +10965,10 @@
         <v>0x05A</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>93</v>
       </c>
@@ -11157,10 +10977,10 @@
         <v>0x05D</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>96</v>
       </c>
@@ -11169,10 +10989,10 @@
         <v>0x060</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>99</v>
       </c>
@@ -11181,10 +11001,10 @@
         <v>0x063</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>102</v>
       </c>
@@ -11193,10 +11013,10 @@
         <v>0x066</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>105</v>
       </c>
@@ -11205,10 +11025,10 @@
         <v>0x069</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>108</v>
       </c>
@@ -11217,10 +11037,10 @@
         <v>0x06C</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>111</v>
       </c>
@@ -11229,23 +11049,589 @@
         <v>0x06F</v>
       </c>
       <c r="D190" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C193" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>0</v>
+      </c>
+      <c r="B194" t="str">
+        <f t="shared" ref="B194" si="175">"0x" &amp; DEC2HEX(A194,3)</f>
+        <v>0x000</v>
+      </c>
+      <c r="C194" t="s">
+        <v>250</v>
+      </c>
+      <c r="E194" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="F194" s="11">
+        <v>1</v>
+      </c>
+      <c r="G194" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H194">
+        <f t="shared" ref="H194" si="176">IF(G194="", "", VLOOKUP(G194, $W$3:$X$10, 2))</f>
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>67</v>
+      </c>
+      <c r="M194" s="16" t="str">
+        <f t="shared" ref="M194" si="177">IF(F194="", "", TEXT(DEC2BIN(F194), "000000"))</f>
+        <v>000001</v>
+      </c>
+      <c r="N194" s="17" t="str">
+        <f t="shared" ref="N194" si="178">IF(H194="", "", TEXT(DEC2BIN(H194), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="O194" s="17" t="str">
+        <f t="shared" ref="O194" si="179">IF(I194="", "", TEXT(DEC2BIN(I194), "000"))</f>
+        <v/>
+      </c>
+      <c r="P194" s="17" t="str">
+        <f t="shared" ref="P194" si="180">IF(J194="", "", TEXT(DEC2BIN(J194), "000"))</f>
+        <v/>
+      </c>
+      <c r="Q194" s="17" t="str">
+        <f t="shared" ref="Q194" si="181">IF(K194="", "", TEXT(DEC2BIN(K194), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="R194" s="18" t="str">
+        <f t="shared" ref="R194" si="182">IF(L194="", "", TEXT(DEC2BIN(L194), "00000000"))</f>
+        <v>01000011</v>
+      </c>
+      <c r="S194" t="str">
+        <f t="shared" ref="S194" si="183">BIN2HEX(LEFT(CONCATENATE(M194,IF(N194="", "000", N194)), 8), 2)</f>
+        <v>04</v>
+      </c>
+      <c r="T194" t="str">
+        <f t="shared" ref="T194" si="184">BIN2HEX(CONCATENATE(RIGHT(N194, 1), IF(O194 = "", "000", O194), IF(P194 = "", "000", P194), "0"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="U194" s="13" t="str">
+        <f t="shared" ref="U194" si="185">IF(Q194="", BIN2HEX(R194, 2), BIN2HEX(Q194,2))</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>3</v>
+      </c>
+      <c r="B195" t="str">
+        <f t="shared" ref="B195" si="186">"0x" &amp; DEC2HEX(A195,3)</f>
+        <v>0x003</v>
+      </c>
+      <c r="C195" t="s">
+        <v>253</v>
+      </c>
+      <c r="E195" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="F195" s="11">
+        <v>1</v>
+      </c>
+      <c r="G195" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H195">
+        <f t="shared" ref="H195" si="187">IF(G195="", "", VLOOKUP(G195, $W$3:$X$10, 2))</f>
+        <v>6</v>
+      </c>
+      <c r="L195">
+        <v>199</v>
+      </c>
+      <c r="M195" s="16" t="str">
+        <f t="shared" ref="M195" si="188">IF(F195="", "", TEXT(DEC2BIN(F195), "000000"))</f>
+        <v>000001</v>
+      </c>
+      <c r="N195" s="17" t="str">
+        <f t="shared" ref="N195" si="189">IF(H195="", "", TEXT(DEC2BIN(H195), "000"))</f>
+        <v>110</v>
+      </c>
+      <c r="O195" s="17" t="str">
+        <f t="shared" ref="O195" si="190">IF(I195="", "", TEXT(DEC2BIN(I195), "000"))</f>
+        <v/>
+      </c>
+      <c r="P195" s="17" t="str">
+        <f t="shared" ref="P195" si="191">IF(J195="", "", TEXT(DEC2BIN(J195), "000"))</f>
+        <v/>
+      </c>
+      <c r="Q195" s="17" t="str">
+        <f t="shared" ref="Q195" si="192">IF(K195="", "", TEXT(DEC2BIN(K195), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="R195" s="18" t="str">
+        <f t="shared" ref="R195" si="193">IF(L195="", "", TEXT(DEC2BIN(L195), "00000000"))</f>
+        <v>11000111</v>
+      </c>
+      <c r="S195" t="str">
+        <f t="shared" ref="S195" si="194">BIN2HEX(LEFT(CONCATENATE(M195,IF(N195="", "000", N195)), 8), 2)</f>
+        <v>07</v>
+      </c>
+      <c r="T195" t="str">
+        <f t="shared" ref="T195" si="195">BIN2HEX(CONCATENATE(RIGHT(N195, 1), IF(O195 = "", "000", O195), IF(P195 = "", "000", P195), "0"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="U195" s="13" t="str">
+        <f t="shared" ref="U195" si="196">IF(Q195="", BIN2HEX(R195, 2), BIN2HEX(Q195,2))</f>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>6</v>
+      </c>
+      <c r="B196" t="str">
+        <f t="shared" ref="B196:B210" si="197">"0x" &amp; DEC2HEX(A196,3)</f>
+        <v>0x006</v>
+      </c>
+      <c r="C196" t="s">
+        <v>179</v>
+      </c>
+      <c r="E196" s="8"/>
+      <c r="F196" s="11">
+        <v>40</v>
+      </c>
+      <c r="G196" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H196">
+        <f t="shared" ref="H196" si="198">IF(G196="", "", VLOOKUP(G196, $W$3:$X$10, 2))</f>
+        <v>0</v>
+      </c>
+      <c r="M196" s="16" t="str">
+        <f t="shared" ref="M196" si="199">IF(F196="", "", TEXT(DEC2BIN(F196), "000000"))</f>
+        <v>101000</v>
+      </c>
+      <c r="N196" s="17" t="str">
+        <f t="shared" ref="N196" si="200">IF(H196="", "", TEXT(DEC2BIN(H196), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="O196" s="17" t="str">
+        <f t="shared" ref="O196" si="201">IF(I196="", "", TEXT(DEC2BIN(I196), "000"))</f>
+        <v/>
+      </c>
+      <c r="P196" s="17" t="str">
+        <f t="shared" ref="P196" si="202">IF(J196="", "", TEXT(DEC2BIN(J196), "000"))</f>
+        <v/>
+      </c>
+      <c r="Q196" s="17" t="str">
+        <f t="shared" ref="Q196" si="203">IF(K196="", "", TEXT(DEC2BIN(K196), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="R196" s="18" t="str">
+        <f t="shared" ref="R196" si="204">IF(L196="", "", TEXT(DEC2BIN(L196), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="S196" t="str">
+        <f t="shared" ref="S196" si="205">BIN2HEX(LEFT(CONCATENATE(M196,IF(N196="", "000", N196)), 8), 2)</f>
+        <v>A0</v>
+      </c>
+      <c r="T196" t="str">
+        <f t="shared" ref="T196" si="206">BIN2HEX(CONCATENATE(RIGHT(N196, 1), IF(O196 = "", "000", O196), IF(P196 = "", "000", P196), "0"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="U196" s="13" t="str">
+        <f t="shared" ref="U196" si="207">IF(Q196="", BIN2HEX(R196, 2), BIN2HEX(Q196,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>9</v>
+      </c>
+      <c r="B197" t="str">
+        <f t="shared" si="197"/>
+        <v>0x009</v>
+      </c>
+      <c r="C197" t="s">
+        <v>252</v>
+      </c>
+      <c r="E197" s="8"/>
+      <c r="F197" s="11">
+        <v>41</v>
+      </c>
+      <c r="G197" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H197">
+        <f t="shared" ref="H197:H198" si="208">IF(G197="", "", VLOOKUP(G197, $W$3:$X$10, 2))</f>
+        <v>0</v>
+      </c>
+      <c r="M197" s="16" t="str">
+        <f t="shared" ref="M197:M198" si="209">IF(F197="", "", TEXT(DEC2BIN(F197), "000000"))</f>
+        <v>101001</v>
+      </c>
+      <c r="N197" s="17" t="str">
+        <f t="shared" ref="N197:N198" si="210">IF(H197="", "", TEXT(DEC2BIN(H197), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="O197" s="17" t="str">
+        <f t="shared" ref="O197:O198" si="211">IF(I197="", "", TEXT(DEC2BIN(I197), "000"))</f>
+        <v/>
+      </c>
+      <c r="P197" s="17" t="str">
+        <f t="shared" ref="P197:P198" si="212">IF(J197="", "", TEXT(DEC2BIN(J197), "000"))</f>
+        <v/>
+      </c>
+      <c r="Q197" s="17" t="str">
+        <f t="shared" ref="Q197:Q198" si="213">IF(K197="", "", TEXT(DEC2BIN(K197), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="R197" s="18" t="str">
+        <f t="shared" ref="R197:R198" si="214">IF(L197="", "", TEXT(DEC2BIN(L197), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="S197" t="str">
+        <f t="shared" ref="S197:S198" si="215">BIN2HEX(LEFT(CONCATENATE(M197,IF(N197="", "000", N197)), 8), 2)</f>
+        <v>A4</v>
+      </c>
+      <c r="T197" t="str">
+        <f t="shared" ref="T197:T198" si="216">BIN2HEX(CONCATENATE(RIGHT(N197, 1), IF(O197 = "", "000", O197), IF(P197 = "", "000", P197), "0"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="U197" s="13" t="str">
+        <f t="shared" ref="U197:U198" si="217">IF(Q197="", BIN2HEX(R197, 2), BIN2HEX(Q197,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>12</v>
+      </c>
+      <c r="B198" t="str">
+        <f t="shared" si="197"/>
+        <v>0x00C</v>
+      </c>
+      <c r="C198" t="s">
+        <v>115</v>
+      </c>
+      <c r="E198" s="8" t="s">
         <v>255</v>
       </c>
+      <c r="G198" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H198">
+        <f t="shared" si="208"/>
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>6</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="M198" s="16" t="str">
+        <f t="shared" si="209"/>
+        <v/>
+      </c>
+      <c r="N198" s="17" t="str">
+        <f t="shared" si="210"/>
+        <v>000</v>
+      </c>
+      <c r="O198" s="17" t="str">
+        <f t="shared" si="211"/>
+        <v>110</v>
+      </c>
+      <c r="P198" s="17" t="str">
+        <f t="shared" si="212"/>
+        <v/>
+      </c>
+      <c r="Q198" s="17" t="str">
+        <f t="shared" si="213"/>
+        <v/>
+      </c>
+      <c r="R198" s="18" t="str">
+        <f t="shared" si="214"/>
+        <v>00000000</v>
+      </c>
+      <c r="S198" t="str">
+        <f t="shared" si="215"/>
+        <v>00</v>
+      </c>
+      <c r="T198" t="str">
+        <f t="shared" si="216"/>
+        <v>60</v>
+      </c>
+      <c r="U198" s="13" t="str">
+        <f t="shared" si="217"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>15</v>
+      </c>
+      <c r="B199" t="str">
+        <f t="shared" si="197"/>
+        <v>0x00F</v>
+      </c>
+      <c r="C199" t="s">
+        <v>221</v>
+      </c>
+      <c r="E199" s="54" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>18</v>
+      </c>
+      <c r="B200" t="str">
+        <f t="shared" si="197"/>
+        <v>0x012</v>
+      </c>
+      <c r="C200" t="s">
+        <v>57</v>
+      </c>
+      <c r="E200" s="54"/>
+    </row>
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>21</v>
+      </c>
+      <c r="B201" t="str">
+        <f t="shared" si="197"/>
+        <v>0x015</v>
+      </c>
+      <c r="C201" t="s">
+        <v>51</v>
+      </c>
+      <c r="E201" s="54"/>
+    </row>
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>24</v>
+      </c>
+      <c r="B202" t="str">
+        <f t="shared" si="197"/>
+        <v>0x018</v>
+      </c>
+      <c r="C202" t="s">
+        <v>256</v>
+      </c>
+      <c r="E202" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>27</v>
+      </c>
+      <c r="B203" t="str">
+        <f t="shared" si="197"/>
+        <v>0x01B</v>
+      </c>
+      <c r="C203" t="s">
+        <v>53</v>
+      </c>
+      <c r="E203" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>30</v>
+      </c>
+      <c r="B204" t="str">
+        <f t="shared" si="197"/>
+        <v>0x01E</v>
+      </c>
+      <c r="C204" t="s">
+        <v>260</v>
+      </c>
+      <c r="E204" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>33</v>
+      </c>
+      <c r="B205" t="str">
+        <f t="shared" si="197"/>
+        <v>0x021</v>
+      </c>
+      <c r="C205" t="s">
+        <v>262</v>
+      </c>
+      <c r="E205" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>36</v>
+      </c>
+      <c r="B206" t="str">
+        <f t="shared" si="197"/>
+        <v>0x024</v>
+      </c>
+      <c r="C206" t="s">
+        <v>264</v>
+      </c>
+      <c r="E206" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>39</v>
+      </c>
+      <c r="B207" t="str">
+        <f t="shared" si="197"/>
+        <v>0x027</v>
+      </c>
+      <c r="C207" t="s">
+        <v>266</v>
+      </c>
+      <c r="E207" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>42</v>
+      </c>
+      <c r="B208" t="str">
+        <f t="shared" si="197"/>
+        <v>0x02A</v>
+      </c>
+      <c r="C208" t="s">
+        <v>268</v>
+      </c>
+      <c r="E208" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C209" t="s">
+        <v>252</v>
+      </c>
+      <c r="E209" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F209" s="11">
+        <v>41</v>
+      </c>
+      <c r="G209" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H209">
+        <f t="shared" ref="H209" si="218">IF(G209="", "", VLOOKUP(G209, $W$3:$X$10, 2))</f>
+        <v>0</v>
+      </c>
+      <c r="M209" s="16" t="str">
+        <f t="shared" ref="M209" si="219">IF(F209="", "", TEXT(DEC2BIN(F209), "000000"))</f>
+        <v>101001</v>
+      </c>
+      <c r="N209" s="17" t="str">
+        <f t="shared" ref="N209" si="220">IF(H209="", "", TEXT(DEC2BIN(H209), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="O209" s="17" t="str">
+        <f t="shared" ref="O209" si="221">IF(I209="", "", TEXT(DEC2BIN(I209), "000"))</f>
+        <v/>
+      </c>
+      <c r="P209" s="17" t="str">
+        <f t="shared" ref="P209" si="222">IF(J209="", "", TEXT(DEC2BIN(J209), "000"))</f>
+        <v/>
+      </c>
+      <c r="Q209" s="17" t="str">
+        <f t="shared" ref="Q209" si="223">IF(K209="", "", TEXT(DEC2BIN(K209), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="R209" s="18" t="str">
+        <f t="shared" ref="R209" si="224">IF(L209="", "", TEXT(DEC2BIN(L209), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="S209" t="str">
+        <f t="shared" ref="S209" si="225">BIN2HEX(LEFT(CONCATENATE(M209,IF(N209="", "000", N209)), 8), 2)</f>
+        <v>A4</v>
+      </c>
+      <c r="T209" t="str">
+        <f t="shared" ref="T209" si="226">BIN2HEX(CONCATENATE(RIGHT(N209, 1), IF(O209 = "", "000", O209), IF(P209 = "", "000", P209), "0"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="U209" s="13" t="str">
+        <f t="shared" ref="U209" si="227">IF(Q209="", BIN2HEX(R209, 2), BIN2HEX(Q209,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>45</v>
+      </c>
+      <c r="B210" t="str">
+        <f t="shared" si="197"/>
+        <v>0x02D</v>
+      </c>
+      <c r="C210" t="s">
+        <v>270</v>
+      </c>
+      <c r="E210" s="8"/>
+    </row>
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C211" t="s">
+        <v>271</v>
+      </c>
+      <c r="E211" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C212" t="s">
+        <v>190</v>
+      </c>
+      <c r="E212" s="8"/>
+    </row>
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C213" t="s">
+        <v>272</v>
+      </c>
+      <c r="E213" s="8"/>
+    </row>
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C214" t="s">
+        <v>269</v>
+      </c>
+      <c r="E214" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C215" t="s">
+        <v>186</v>
+      </c>
+      <c r="E215" s="8"/>
+    </row>
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E216" s="8"/>
     </row>
   </sheetData>
   <sortState ref="W16:X18">
     <sortCondition ref="W13"/>
   </sortState>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="E129:E131"/>
     <mergeCell ref="E164:E166"/>
+    <mergeCell ref="E199:E201"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y17">
       <formula1>$W$16:$W$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G6 G9:G11 G17:G26 G31:G33 G41:G42 G49 G83:G93 G117:G132 G102:G112 G141:G149 G154:G167">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G6 G9:G11 G17:G26 G31:G33 G41:G42 G49 G83:G93 G117:G132 G102:G112 G141:G149 G154:G167 G194:G198 G209">
       <formula1>$W$3:$W$10</formula1>
     </dataValidation>
   </dataValidations>
@@ -11255,22 +11641,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C65"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">

--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="284">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -917,6 +917,27 @@
   </si>
   <si>
     <t>// F = 255</t>
+  </si>
+  <si>
+    <t>ST [HL], L</t>
+  </si>
+  <si>
+    <t>LD C, [HL]</t>
+  </si>
+  <si>
+    <t>// C = 0x60</t>
+  </si>
+  <si>
+    <t>LD D, [HL]</t>
+  </si>
+  <si>
+    <t>// D = 0x60</t>
+  </si>
+  <si>
+    <t>// L = 0x60</t>
+  </si>
+  <si>
+    <t>// H = 0x0</t>
   </si>
 </sst>
 </file>
@@ -1549,7 +1570,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4819,11 +4840,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z216"/>
+  <dimension ref="A1:Z217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E210" sqref="E210:E216"/>
+      <selection pane="bottomLeft" activeCell="F224" sqref="F224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11190,7 +11211,7 @@
         <v>6</v>
       </c>
       <c r="B196" t="str">
-        <f t="shared" ref="B196:B210" si="197">"0x" &amp; DEC2HEX(A196,3)</f>
+        <f t="shared" ref="B196:B217" si="197">"0x" &amp; DEC2HEX(A196,3)</f>
         <v>0x006</v>
       </c>
       <c r="C196" t="s">
@@ -11263,43 +11284,43 @@
         <v>38</v>
       </c>
       <c r="H197">
-        <f t="shared" ref="H197:H198" si="208">IF(G197="", "", VLOOKUP(G197, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H197:H201" si="208">IF(G197="", "", VLOOKUP(G197, $W$3:$X$10, 2))</f>
         <v>0</v>
       </c>
       <c r="M197" s="16" t="str">
-        <f t="shared" ref="M197:M198" si="209">IF(F197="", "", TEXT(DEC2BIN(F197), "000000"))</f>
+        <f t="shared" ref="M197:M201" si="209">IF(F197="", "", TEXT(DEC2BIN(F197), "000000"))</f>
         <v>101001</v>
       </c>
       <c r="N197" s="17" t="str">
-        <f t="shared" ref="N197:N198" si="210">IF(H197="", "", TEXT(DEC2BIN(H197), "000"))</f>
+        <f t="shared" ref="N197:N201" si="210">IF(H197="", "", TEXT(DEC2BIN(H197), "000"))</f>
         <v>000</v>
       </c>
       <c r="O197" s="17" t="str">
-        <f t="shared" ref="O197:O198" si="211">IF(I197="", "", TEXT(DEC2BIN(I197), "000"))</f>
+        <f t="shared" ref="O197:O201" si="211">IF(I197="", "", TEXT(DEC2BIN(I197), "000"))</f>
         <v/>
       </c>
       <c r="P197" s="17" t="str">
-        <f t="shared" ref="P197:P198" si="212">IF(J197="", "", TEXT(DEC2BIN(J197), "000"))</f>
+        <f t="shared" ref="P197:P201" si="212">IF(J197="", "", TEXT(DEC2BIN(J197), "000"))</f>
         <v/>
       </c>
       <c r="Q197" s="17" t="str">
-        <f t="shared" ref="Q197:Q198" si="213">IF(K197="", "", TEXT(DEC2BIN(K197), "00000000"))</f>
+        <f t="shared" ref="Q197:Q201" si="213">IF(K197="", "", TEXT(DEC2BIN(K197), "00000000"))</f>
         <v/>
       </c>
       <c r="R197" s="18" t="str">
-        <f t="shared" ref="R197:R198" si="214">IF(L197="", "", TEXT(DEC2BIN(L197), "00000000"))</f>
+        <f t="shared" ref="R197:R201" si="214">IF(L197="", "", TEXT(DEC2BIN(L197), "00000000"))</f>
         <v/>
       </c>
       <c r="S197" t="str">
-        <f t="shared" ref="S197:S198" si="215">BIN2HEX(LEFT(CONCATENATE(M197,IF(N197="", "000", N197)), 8), 2)</f>
+        <f t="shared" ref="S197:S201" si="215">BIN2HEX(LEFT(CONCATENATE(M197,IF(N197="", "000", N197)), 8), 2)</f>
         <v>A4</v>
       </c>
       <c r="T197" t="str">
-        <f t="shared" ref="T197:T198" si="216">BIN2HEX(CONCATENATE(RIGHT(N197, 1), IF(O197 = "", "000", O197), IF(P197 = "", "000", P197), "0"), 2)</f>
+        <f t="shared" ref="T197:T201" si="216">BIN2HEX(CONCATENATE(RIGHT(N197, 1), IF(O197 = "", "000", O197), IF(P197 = "", "000", P197), "0"), 2)</f>
         <v>00</v>
       </c>
       <c r="U197" s="13" t="str">
-        <f t="shared" ref="U197:U198" si="217">IF(Q197="", BIN2HEX(R197, 2), BIN2HEX(Q197,2))</f>
+        <f t="shared" ref="U197:U201" si="217">IF(Q197="", BIN2HEX(R197, 2), BIN2HEX(Q197,2))</f>
         <v>00</v>
       </c>
     </row>
@@ -11317,6 +11338,9 @@
       <c r="E198" s="8" t="s">
         <v>255</v>
       </c>
+      <c r="F198" s="11">
+        <v>32</v>
+      </c>
       <c r="G198" s="12" t="s">
         <v>38</v>
       </c>
@@ -11327,12 +11351,9 @@
       <c r="I198">
         <v>6</v>
       </c>
-      <c r="L198">
-        <v>0</v>
-      </c>
       <c r="M198" s="16" t="str">
         <f t="shared" si="209"/>
-        <v/>
+        <v>100000</v>
       </c>
       <c r="N198" s="17" t="str">
         <f t="shared" si="210"/>
@@ -11352,11 +11373,11 @@
       </c>
       <c r="R198" s="18" t="str">
         <f t="shared" si="214"/>
-        <v>00000000</v>
+        <v/>
       </c>
       <c r="S198" t="str">
         <f t="shared" si="215"/>
-        <v>00</v>
+        <v>80</v>
       </c>
       <c r="T198" t="str">
         <f t="shared" si="216"/>
@@ -11381,6 +11402,55 @@
       <c r="E199" s="54" t="s">
         <v>257</v>
       </c>
+      <c r="F199" s="11">
+        <v>2</v>
+      </c>
+      <c r="G199" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H199">
+        <f t="shared" si="208"/>
+        <v>1</v>
+      </c>
+      <c r="I199">
+        <v>6</v>
+      </c>
+      <c r="M199" s="16" t="str">
+        <f t="shared" si="209"/>
+        <v>000010</v>
+      </c>
+      <c r="N199" s="17" t="str">
+        <f t="shared" si="210"/>
+        <v>001</v>
+      </c>
+      <c r="O199" s="17" t="str">
+        <f t="shared" si="211"/>
+        <v>110</v>
+      </c>
+      <c r="P199" s="17" t="str">
+        <f t="shared" si="212"/>
+        <v/>
+      </c>
+      <c r="Q199" s="17" t="str">
+        <f t="shared" si="213"/>
+        <v/>
+      </c>
+      <c r="R199" s="18" t="str">
+        <f t="shared" si="214"/>
+        <v/>
+      </c>
+      <c r="S199" t="str">
+        <f t="shared" si="215"/>
+        <v>08</v>
+      </c>
+      <c r="T199" t="str">
+        <f t="shared" si="216"/>
+        <v>E0</v>
+      </c>
+      <c r="U199" s="13" t="str">
+        <f t="shared" si="217"/>
+        <v>00</v>
+      </c>
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200">
@@ -11394,6 +11464,55 @@
         <v>57</v>
       </c>
       <c r="E200" s="54"/>
+      <c r="F200" s="11">
+        <v>2</v>
+      </c>
+      <c r="G200" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H200">
+        <f t="shared" si="208"/>
+        <v>6</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="M200" s="16" t="str">
+        <f t="shared" si="209"/>
+        <v>000010</v>
+      </c>
+      <c r="N200" s="17" t="str">
+        <f t="shared" si="210"/>
+        <v>110</v>
+      </c>
+      <c r="O200" s="17" t="str">
+        <f t="shared" si="211"/>
+        <v>000</v>
+      </c>
+      <c r="P200" s="17" t="str">
+        <f t="shared" si="212"/>
+        <v/>
+      </c>
+      <c r="Q200" s="17" t="str">
+        <f t="shared" si="213"/>
+        <v/>
+      </c>
+      <c r="R200" s="18" t="str">
+        <f t="shared" si="214"/>
+        <v/>
+      </c>
+      <c r="S200" t="str">
+        <f t="shared" si="215"/>
+        <v>0B</v>
+      </c>
+      <c r="T200" t="str">
+        <f t="shared" si="216"/>
+        <v>00</v>
+      </c>
+      <c r="U200" s="13" t="str">
+        <f t="shared" si="217"/>
+        <v>00</v>
+      </c>
     </row>
     <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201">
@@ -11407,6 +11526,55 @@
         <v>51</v>
       </c>
       <c r="E201" s="54"/>
+      <c r="F201" s="11">
+        <v>2</v>
+      </c>
+      <c r="G201" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H201">
+        <f t="shared" si="208"/>
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="M201" s="16" t="str">
+        <f t="shared" si="209"/>
+        <v>000010</v>
+      </c>
+      <c r="N201" s="17" t="str">
+        <f t="shared" si="210"/>
+        <v>000</v>
+      </c>
+      <c r="O201" s="17" t="str">
+        <f t="shared" si="211"/>
+        <v>001</v>
+      </c>
+      <c r="P201" s="17" t="str">
+        <f t="shared" si="212"/>
+        <v/>
+      </c>
+      <c r="Q201" s="17" t="str">
+        <f t="shared" si="213"/>
+        <v/>
+      </c>
+      <c r="R201" s="18" t="str">
+        <f t="shared" si="214"/>
+        <v/>
+      </c>
+      <c r="S201" t="str">
+        <f t="shared" si="215"/>
+        <v>08</v>
+      </c>
+      <c r="T201" t="str">
+        <f t="shared" si="216"/>
+        <v>10</v>
+      </c>
+      <c r="U201" s="13" t="str">
+        <f t="shared" si="217"/>
+        <v>00</v>
+      </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202">
@@ -11422,6 +11590,55 @@
       <c r="E202" s="8" t="s">
         <v>258</v>
       </c>
+      <c r="F202" s="11">
+        <v>33</v>
+      </c>
+      <c r="G202" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H202">
+        <f t="shared" ref="H202" si="218">IF(G202="", "", VLOOKUP(G202, $W$3:$X$10, 2))</f>
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>6</v>
+      </c>
+      <c r="M202" s="16" t="str">
+        <f t="shared" ref="M202" si="219">IF(F202="", "", TEXT(DEC2BIN(F202), "000000"))</f>
+        <v>100001</v>
+      </c>
+      <c r="N202" s="17" t="str">
+        <f t="shared" ref="N202" si="220">IF(H202="", "", TEXT(DEC2BIN(H202), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="O202" s="17" t="str">
+        <f t="shared" ref="O202" si="221">IF(I202="", "", TEXT(DEC2BIN(I202), "000"))</f>
+        <v>110</v>
+      </c>
+      <c r="P202" s="17" t="str">
+        <f t="shared" ref="P202" si="222">IF(J202="", "", TEXT(DEC2BIN(J202), "000"))</f>
+        <v/>
+      </c>
+      <c r="Q202" s="17" t="str">
+        <f t="shared" ref="Q202" si="223">IF(K202="", "", TEXT(DEC2BIN(K202), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="R202" s="18" t="str">
+        <f t="shared" ref="R202" si="224">IF(L202="", "", TEXT(DEC2BIN(L202), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="S202" t="str">
+        <f t="shared" ref="S202" si="225">BIN2HEX(LEFT(CONCATENATE(M202,IF(N202="", "000", N202)), 8), 2)</f>
+        <v>84</v>
+      </c>
+      <c r="T202" t="str">
+        <f t="shared" ref="T202" si="226">BIN2HEX(CONCATENATE(RIGHT(N202, 1), IF(O202 = "", "000", O202), IF(P202 = "", "000", P202), "0"), 2)</f>
+        <v>60</v>
+      </c>
+      <c r="U202" s="13" t="str">
+        <f t="shared" ref="U202" si="227">IF(Q202="", BIN2HEX(R202, 2), BIN2HEX(Q202,2))</f>
+        <v>00</v>
+      </c>
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203">
@@ -11437,6 +11654,52 @@
       <c r="E203" s="8" t="s">
         <v>259</v>
       </c>
+      <c r="F203" s="11">
+        <v>34</v>
+      </c>
+      <c r="G203" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H203">
+        <f t="shared" ref="H203:H204" si="228">IF(G203="", "", VLOOKUP(G203, $W$3:$X$10, 2))</f>
+        <v>0</v>
+      </c>
+      <c r="M203" s="16" t="str">
+        <f t="shared" ref="M203:M204" si="229">IF(F203="", "", TEXT(DEC2BIN(F203), "000000"))</f>
+        <v>100010</v>
+      </c>
+      <c r="N203" s="17" t="str">
+        <f t="shared" ref="N203:N204" si="230">IF(H203="", "", TEXT(DEC2BIN(H203), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="O203" s="17" t="str">
+        <f t="shared" ref="O203:O204" si="231">IF(I203="", "", TEXT(DEC2BIN(I203), "000"))</f>
+        <v/>
+      </c>
+      <c r="P203" s="17" t="str">
+        <f t="shared" ref="P203:P204" si="232">IF(J203="", "", TEXT(DEC2BIN(J203), "000"))</f>
+        <v/>
+      </c>
+      <c r="Q203" s="17" t="str">
+        <f t="shared" ref="Q203:Q204" si="233">IF(K203="", "", TEXT(DEC2BIN(K203), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="R203" s="18" t="str">
+        <f t="shared" ref="R203:R204" si="234">IF(L203="", "", TEXT(DEC2BIN(L203), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="S203" t="str">
+        <f t="shared" ref="S203:S204" si="235">BIN2HEX(LEFT(CONCATENATE(M203,IF(N203="", "000", N203)), 8), 2)</f>
+        <v>88</v>
+      </c>
+      <c r="T203" t="str">
+        <f t="shared" ref="T203:T204" si="236">BIN2HEX(CONCATENATE(RIGHT(N203, 1), IF(O203 = "", "000", O203), IF(P203 = "", "000", P203), "0"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="U203" s="13" t="str">
+        <f t="shared" ref="U203:U204" si="237">IF(Q203="", BIN2HEX(R203, 2), BIN2HEX(Q203,2))</f>
+        <v>00</v>
+      </c>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204">
@@ -11452,6 +11715,55 @@
       <c r="E204" s="8" t="s">
         <v>261</v>
       </c>
+      <c r="F204" s="11">
+        <v>35</v>
+      </c>
+      <c r="G204" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H204">
+        <f t="shared" si="228"/>
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>6</v>
+      </c>
+      <c r="M204" s="16" t="str">
+        <f t="shared" si="229"/>
+        <v>100011</v>
+      </c>
+      <c r="N204" s="17" t="str">
+        <f t="shared" si="230"/>
+        <v>000</v>
+      </c>
+      <c r="O204" s="17" t="str">
+        <f t="shared" si="231"/>
+        <v>110</v>
+      </c>
+      <c r="P204" s="17" t="str">
+        <f t="shared" si="232"/>
+        <v/>
+      </c>
+      <c r="Q204" s="17" t="str">
+        <f t="shared" si="233"/>
+        <v/>
+      </c>
+      <c r="R204" s="18" t="str">
+        <f t="shared" si="234"/>
+        <v/>
+      </c>
+      <c r="S204" t="str">
+        <f t="shared" si="235"/>
+        <v>8C</v>
+      </c>
+      <c r="T204" t="str">
+        <f t="shared" si="236"/>
+        <v>60</v>
+      </c>
+      <c r="U204" s="13" t="str">
+        <f t="shared" si="237"/>
+        <v>00</v>
+      </c>
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205">
@@ -11467,6 +11779,55 @@
       <c r="E205" s="8" t="s">
         <v>263</v>
       </c>
+      <c r="F205" s="11">
+        <v>36</v>
+      </c>
+      <c r="G205" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H205">
+        <f t="shared" ref="H205:H208" si="238">IF(G205="", "", VLOOKUP(G205, $W$3:$X$10, 2))</f>
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>6</v>
+      </c>
+      <c r="M205" s="16" t="str">
+        <f t="shared" ref="M205:M208" si="239">IF(F205="", "", TEXT(DEC2BIN(F205), "000000"))</f>
+        <v>100100</v>
+      </c>
+      <c r="N205" s="17" t="str">
+        <f t="shared" ref="N205:N208" si="240">IF(H205="", "", TEXT(DEC2BIN(H205), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="O205" s="17" t="str">
+        <f t="shared" ref="O205:O208" si="241">IF(I205="", "", TEXT(DEC2BIN(I205), "000"))</f>
+        <v>110</v>
+      </c>
+      <c r="P205" s="17" t="str">
+        <f t="shared" ref="P205:P208" si="242">IF(J205="", "", TEXT(DEC2BIN(J205), "000"))</f>
+        <v/>
+      </c>
+      <c r="Q205" s="17" t="str">
+        <f t="shared" ref="Q205:Q208" si="243">IF(K205="", "", TEXT(DEC2BIN(K205), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="R205" s="18" t="str">
+        <f t="shared" ref="R205:R208" si="244">IF(L205="", "", TEXT(DEC2BIN(L205), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="S205" t="str">
+        <f t="shared" ref="S205:S208" si="245">BIN2HEX(LEFT(CONCATENATE(M205,IF(N205="", "000", N205)), 8), 2)</f>
+        <v>90</v>
+      </c>
+      <c r="T205" t="str">
+        <f t="shared" ref="T205:T208" si="246">BIN2HEX(CONCATENATE(RIGHT(N205, 1), IF(O205 = "", "000", O205), IF(P205 = "", "000", P205), "0"), 2)</f>
+        <v>60</v>
+      </c>
+      <c r="U205" s="13" t="str">
+        <f t="shared" ref="U205:U208" si="247">IF(Q205="", BIN2HEX(R205, 2), BIN2HEX(Q205,2))</f>
+        <v>00</v>
+      </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206">
@@ -11482,6 +11843,55 @@
       <c r="E206" s="8" t="s">
         <v>265</v>
       </c>
+      <c r="F206" s="11">
+        <v>37</v>
+      </c>
+      <c r="G206" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H206">
+        <f t="shared" si="238"/>
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>6</v>
+      </c>
+      <c r="M206" s="16" t="str">
+        <f t="shared" si="239"/>
+        <v>100101</v>
+      </c>
+      <c r="N206" s="17" t="str">
+        <f t="shared" si="240"/>
+        <v>000</v>
+      </c>
+      <c r="O206" s="17" t="str">
+        <f t="shared" si="241"/>
+        <v>110</v>
+      </c>
+      <c r="P206" s="17" t="str">
+        <f t="shared" si="242"/>
+        <v/>
+      </c>
+      <c r="Q206" s="17" t="str">
+        <f t="shared" si="243"/>
+        <v/>
+      </c>
+      <c r="R206" s="18" t="str">
+        <f t="shared" si="244"/>
+        <v/>
+      </c>
+      <c r="S206" t="str">
+        <f t="shared" si="245"/>
+        <v>94</v>
+      </c>
+      <c r="T206" t="str">
+        <f t="shared" si="246"/>
+        <v>60</v>
+      </c>
+      <c r="U206" s="13" t="str">
+        <f t="shared" si="247"/>
+        <v>00</v>
+      </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207">
@@ -11497,6 +11907,55 @@
       <c r="E207" s="8" t="s">
         <v>267</v>
       </c>
+      <c r="F207" s="11">
+        <v>38</v>
+      </c>
+      <c r="G207" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H207">
+        <f t="shared" si="238"/>
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>6</v>
+      </c>
+      <c r="M207" s="16" t="str">
+        <f t="shared" si="239"/>
+        <v>100110</v>
+      </c>
+      <c r="N207" s="17" t="str">
+        <f t="shared" si="240"/>
+        <v>000</v>
+      </c>
+      <c r="O207" s="17" t="str">
+        <f t="shared" si="241"/>
+        <v>110</v>
+      </c>
+      <c r="P207" s="17" t="str">
+        <f t="shared" si="242"/>
+        <v/>
+      </c>
+      <c r="Q207" s="17" t="str">
+        <f t="shared" si="243"/>
+        <v/>
+      </c>
+      <c r="R207" s="18" t="str">
+        <f t="shared" si="244"/>
+        <v/>
+      </c>
+      <c r="S207" t="str">
+        <f t="shared" si="245"/>
+        <v>98</v>
+      </c>
+      <c r="T207" t="str">
+        <f t="shared" si="246"/>
+        <v>60</v>
+      </c>
+      <c r="U207" s="13" t="str">
+        <f t="shared" si="247"/>
+        <v>00</v>
+      </c>
     </row>
     <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A208">
@@ -11512,8 +11971,64 @@
       <c r="E208" s="8" t="s">
         <v>265</v>
       </c>
+      <c r="F208" s="11">
+        <v>39</v>
+      </c>
+      <c r="G208" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H208">
+        <f t="shared" si="238"/>
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>6</v>
+      </c>
+      <c r="M208" s="16" t="str">
+        <f t="shared" si="239"/>
+        <v>100111</v>
+      </c>
+      <c r="N208" s="17" t="str">
+        <f t="shared" si="240"/>
+        <v>000</v>
+      </c>
+      <c r="O208" s="17" t="str">
+        <f t="shared" si="241"/>
+        <v>110</v>
+      </c>
+      <c r="P208" s="17" t="str">
+        <f t="shared" si="242"/>
+        <v/>
+      </c>
+      <c r="Q208" s="17" t="str">
+        <f t="shared" si="243"/>
+        <v/>
+      </c>
+      <c r="R208" s="18" t="str">
+        <f t="shared" si="244"/>
+        <v/>
+      </c>
+      <c r="S208" t="str">
+        <f t="shared" si="245"/>
+        <v>9C</v>
+      </c>
+      <c r="T208" t="str">
+        <f t="shared" si="246"/>
+        <v>60</v>
+      </c>
+      <c r="U208" s="13" t="str">
+        <f t="shared" si="247"/>
+        <v>00</v>
+      </c>
     </row>
     <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>45</v>
+      </c>
+      <c r="B209" t="str">
+        <f t="shared" si="197"/>
+        <v>0x02D</v>
+      </c>
       <c r="C209" t="s">
         <v>252</v>
       </c>
@@ -11527,95 +12042,541 @@
         <v>38</v>
       </c>
       <c r="H209">
-        <f t="shared" ref="H209" si="218">IF(G209="", "", VLOOKUP(G209, $W$3:$X$10, 2))</f>
+        <f t="shared" ref="H209:H215" si="248">IF(G209="", "", VLOOKUP(G209, $W$3:$X$10, 2))</f>
         <v>0</v>
       </c>
       <c r="M209" s="16" t="str">
-        <f t="shared" ref="M209" si="219">IF(F209="", "", TEXT(DEC2BIN(F209), "000000"))</f>
+        <f t="shared" ref="M209:M215" si="249">IF(F209="", "", TEXT(DEC2BIN(F209), "000000"))</f>
         <v>101001</v>
       </c>
       <c r="N209" s="17" t="str">
-        <f t="shared" ref="N209" si="220">IF(H209="", "", TEXT(DEC2BIN(H209), "000"))</f>
+        <f t="shared" ref="N209:N215" si="250">IF(H209="", "", TEXT(DEC2BIN(H209), "000"))</f>
         <v>000</v>
       </c>
       <c r="O209" s="17" t="str">
-        <f t="shared" ref="O209" si="221">IF(I209="", "", TEXT(DEC2BIN(I209), "000"))</f>
+        <f t="shared" ref="O209:O215" si="251">IF(I209="", "", TEXT(DEC2BIN(I209), "000"))</f>
         <v/>
       </c>
       <c r="P209" s="17" t="str">
-        <f t="shared" ref="P209" si="222">IF(J209="", "", TEXT(DEC2BIN(J209), "000"))</f>
+        <f t="shared" ref="P209:P215" si="252">IF(J209="", "", TEXT(DEC2BIN(J209), "000"))</f>
         <v/>
       </c>
       <c r="Q209" s="17" t="str">
-        <f t="shared" ref="Q209" si="223">IF(K209="", "", TEXT(DEC2BIN(K209), "00000000"))</f>
+        <f t="shared" ref="Q209:Q215" si="253">IF(K209="", "", TEXT(DEC2BIN(K209), "00000000"))</f>
         <v/>
       </c>
       <c r="R209" s="18" t="str">
-        <f t="shared" ref="R209" si="224">IF(L209="", "", TEXT(DEC2BIN(L209), "00000000"))</f>
+        <f t="shared" ref="R209:R215" si="254">IF(L209="", "", TEXT(DEC2BIN(L209), "00000000"))</f>
         <v/>
       </c>
       <c r="S209" t="str">
-        <f t="shared" ref="S209" si="225">BIN2HEX(LEFT(CONCATENATE(M209,IF(N209="", "000", N209)), 8), 2)</f>
+        <f t="shared" ref="S209:S215" si="255">BIN2HEX(LEFT(CONCATENATE(M209,IF(N209="", "000", N209)), 8), 2)</f>
         <v>A4</v>
       </c>
       <c r="T209" t="str">
-        <f t="shared" ref="T209" si="226">BIN2HEX(CONCATENATE(RIGHT(N209, 1), IF(O209 = "", "000", O209), IF(P209 = "", "000", P209), "0"), 2)</f>
+        <f t="shared" ref="T209:T215" si="256">BIN2HEX(CONCATENATE(RIGHT(N209, 1), IF(O209 = "", "000", O209), IF(P209 = "", "000", P209), "0"), 2)</f>
         <v>00</v>
       </c>
       <c r="U209" s="13" t="str">
-        <f t="shared" ref="U209" si="227">IF(Q209="", BIN2HEX(R209, 2), BIN2HEX(Q209,2))</f>
+        <f t="shared" ref="U209:U215" si="257">IF(Q209="", BIN2HEX(R209, 2), BIN2HEX(Q209,2))</f>
         <v>00</v>
       </c>
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B210" t="str">
         <f t="shared" si="197"/>
-        <v>0x02D</v>
+        <v>0x030</v>
       </c>
       <c r="C210" t="s">
         <v>270</v>
       </c>
       <c r="E210" s="8"/>
+      <c r="F210" s="11">
+        <v>10</v>
+      </c>
+      <c r="G210" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H210">
+        <f t="shared" si="248"/>
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>96</v>
+      </c>
+      <c r="M210" s="16" t="str">
+        <f t="shared" si="249"/>
+        <v>001010</v>
+      </c>
+      <c r="N210" s="17" t="str">
+        <f t="shared" si="250"/>
+        <v>000</v>
+      </c>
+      <c r="O210" s="17" t="str">
+        <f t="shared" si="251"/>
+        <v/>
+      </c>
+      <c r="P210" s="17" t="str">
+        <f t="shared" si="252"/>
+        <v/>
+      </c>
+      <c r="Q210" s="17" t="str">
+        <f t="shared" si="253"/>
+        <v>01100000</v>
+      </c>
+      <c r="R210" s="18" t="str">
+        <f t="shared" si="254"/>
+        <v/>
+      </c>
+      <c r="S210" t="str">
+        <f t="shared" si="255"/>
+        <v>28</v>
+      </c>
+      <c r="T210" t="str">
+        <f t="shared" si="256"/>
+        <v>00</v>
+      </c>
+      <c r="U210" s="13" t="str">
+        <f t="shared" si="257"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>51</v>
+      </c>
+      <c r="B211" t="str">
+        <f t="shared" si="197"/>
+        <v>0x033</v>
+      </c>
       <c r="C211" t="s">
         <v>271</v>
       </c>
       <c r="E211" s="8" t="s">
         <v>274</v>
       </c>
+      <c r="F211" s="11">
+        <v>3</v>
+      </c>
+      <c r="G211" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H211">
+        <f t="shared" si="248"/>
+        <v>1</v>
+      </c>
+      <c r="K211">
+        <v>96</v>
+      </c>
+      <c r="M211" s="16" t="str">
+        <f t="shared" si="249"/>
+        <v>000011</v>
+      </c>
+      <c r="N211" s="17" t="str">
+        <f t="shared" si="250"/>
+        <v>001</v>
+      </c>
+      <c r="O211" s="17" t="str">
+        <f t="shared" si="251"/>
+        <v/>
+      </c>
+      <c r="P211" s="17" t="str">
+        <f t="shared" si="252"/>
+        <v/>
+      </c>
+      <c r="Q211" s="17" t="str">
+        <f t="shared" si="253"/>
+        <v>01100000</v>
+      </c>
+      <c r="R211" s="18" t="str">
+        <f t="shared" si="254"/>
+        <v/>
+      </c>
+      <c r="S211" t="str">
+        <f t="shared" si="255"/>
+        <v>0C</v>
+      </c>
+      <c r="T211" t="str">
+        <f t="shared" si="256"/>
+        <v>80</v>
+      </c>
+      <c r="U211" s="13" t="str">
+        <f t="shared" si="257"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>54</v>
+      </c>
+      <c r="B212" t="str">
+        <f t="shared" si="197"/>
+        <v>0x036</v>
+      </c>
       <c r="C212" t="s">
         <v>190</v>
       </c>
-      <c r="E212" s="8"/>
+      <c r="E212" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="F212" s="11">
+        <v>1</v>
+      </c>
+      <c r="G212" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="H212">
+        <f t="shared" si="248"/>
+        <v>2</v>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+      <c r="M212" s="16" t="str">
+        <f t="shared" si="249"/>
+        <v>000001</v>
+      </c>
+      <c r="N212" s="17" t="str">
+        <f t="shared" si="250"/>
+        <v>010</v>
+      </c>
+      <c r="O212" s="17" t="str">
+        <f t="shared" si="251"/>
+        <v/>
+      </c>
+      <c r="P212" s="17" t="str">
+        <f t="shared" si="252"/>
+        <v/>
+      </c>
+      <c r="Q212" s="17" t="str">
+        <f t="shared" si="253"/>
+        <v/>
+      </c>
+      <c r="R212" s="18" t="str">
+        <f t="shared" si="254"/>
+        <v>00000000</v>
+      </c>
+      <c r="S212" t="str">
+        <f t="shared" si="255"/>
+        <v>05</v>
+      </c>
+      <c r="T212" t="str">
+        <f t="shared" si="256"/>
+        <v>00</v>
+      </c>
+      <c r="U212" s="13" t="str">
+        <f t="shared" si="257"/>
+        <v>00</v>
+      </c>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>57</v>
+      </c>
+      <c r="B213" t="str">
+        <f t="shared" si="197"/>
+        <v>0x039</v>
+      </c>
       <c r="C213" t="s">
         <v>272</v>
       </c>
-      <c r="E213" s="8"/>
+      <c r="E213" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F213" s="11">
+        <v>1</v>
+      </c>
+      <c r="G213" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H213">
+        <f t="shared" si="248"/>
+        <v>3</v>
+      </c>
+      <c r="L213">
+        <v>96</v>
+      </c>
+      <c r="M213" s="16" t="str">
+        <f t="shared" si="249"/>
+        <v>000001</v>
+      </c>
+      <c r="N213" s="17" t="str">
+        <f t="shared" si="250"/>
+        <v>011</v>
+      </c>
+      <c r="O213" s="17" t="str">
+        <f t="shared" si="251"/>
+        <v/>
+      </c>
+      <c r="P213" s="17" t="str">
+        <f t="shared" si="252"/>
+        <v/>
+      </c>
+      <c r="Q213" s="17" t="str">
+        <f t="shared" si="253"/>
+        <v/>
+      </c>
+      <c r="R213" s="18" t="str">
+        <f t="shared" si="254"/>
+        <v>01100000</v>
+      </c>
+      <c r="S213" t="str">
+        <f t="shared" si="255"/>
+        <v>05</v>
+      </c>
+      <c r="T213" t="str">
+        <f t="shared" si="256"/>
+        <v>80</v>
+      </c>
+      <c r="U213" s="13" t="str">
+        <f t="shared" si="257"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>60</v>
+      </c>
+      <c r="B214" t="str">
+        <f t="shared" si="197"/>
+        <v>0x03C</v>
+      </c>
       <c r="C214" t="s">
         <v>269</v>
       </c>
       <c r="E214" s="8" t="s">
         <v>276</v>
       </c>
+      <c r="F214" s="11">
+        <v>4</v>
+      </c>
+      <c r="G214" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H214">
+        <f t="shared" si="248"/>
+        <v>7</v>
+      </c>
+      <c r="M214" s="16" t="str">
+        <f t="shared" si="249"/>
+        <v>000100</v>
+      </c>
+      <c r="N214" s="17" t="str">
+        <f t="shared" si="250"/>
+        <v>111</v>
+      </c>
+      <c r="O214" s="17" t="str">
+        <f t="shared" si="251"/>
+        <v/>
+      </c>
+      <c r="P214" s="17" t="str">
+        <f t="shared" si="252"/>
+        <v/>
+      </c>
+      <c r="Q214" s="17" t="str">
+        <f t="shared" si="253"/>
+        <v/>
+      </c>
+      <c r="R214" s="18" t="str">
+        <f t="shared" si="254"/>
+        <v/>
+      </c>
+      <c r="S214" t="str">
+        <f t="shared" si="255"/>
+        <v>13</v>
+      </c>
+      <c r="T214" t="str">
+        <f t="shared" si="256"/>
+        <v>80</v>
+      </c>
+      <c r="U214" s="13" t="str">
+        <f t="shared" si="257"/>
+        <v>00</v>
+      </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>63</v>
+      </c>
+      <c r="B215" t="str">
+        <f t="shared" si="197"/>
+        <v>0x03F</v>
+      </c>
       <c r="C215" t="s">
-        <v>186</v>
+        <v>277</v>
       </c>
       <c r="E215" s="8"/>
+      <c r="F215" s="11">
+        <v>11</v>
+      </c>
+      <c r="G215" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H215">
+        <f t="shared" si="248"/>
+        <v>3</v>
+      </c>
+      <c r="M215" s="16" t="str">
+        <f t="shared" si="249"/>
+        <v>001011</v>
+      </c>
+      <c r="N215" s="17" t="str">
+        <f t="shared" si="250"/>
+        <v>011</v>
+      </c>
+      <c r="O215" s="17" t="str">
+        <f t="shared" si="251"/>
+        <v/>
+      </c>
+      <c r="P215" s="17" t="str">
+        <f t="shared" si="252"/>
+        <v/>
+      </c>
+      <c r="Q215" s="17" t="str">
+        <f t="shared" si="253"/>
+        <v/>
+      </c>
+      <c r="R215" s="18" t="str">
+        <f t="shared" si="254"/>
+        <v/>
+      </c>
+      <c r="S215" t="str">
+        <f t="shared" si="255"/>
+        <v>2D</v>
+      </c>
+      <c r="T215" t="str">
+        <f t="shared" si="256"/>
+        <v>80</v>
+      </c>
+      <c r="U215" s="13" t="str">
+        <f t="shared" si="257"/>
+        <v>00</v>
+      </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E216" s="8"/>
+      <c r="A216">
+        <v>66</v>
+      </c>
+      <c r="B216" t="str">
+        <f t="shared" si="197"/>
+        <v>0x042</v>
+      </c>
+      <c r="C216" t="s">
+        <v>278</v>
+      </c>
+      <c r="E216" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="F216" s="11">
+        <v>4</v>
+      </c>
+      <c r="G216" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H216">
+        <f t="shared" ref="H216:H217" si="258">IF(G216="", "", VLOOKUP(G216, $W$3:$X$10, 2))</f>
+        <v>4</v>
+      </c>
+      <c r="M216" s="16" t="str">
+        <f t="shared" ref="M216:M217" si="259">IF(F216="", "", TEXT(DEC2BIN(F216), "000000"))</f>
+        <v>000100</v>
+      </c>
+      <c r="N216" s="17" t="str">
+        <f t="shared" ref="N216:N217" si="260">IF(H216="", "", TEXT(DEC2BIN(H216), "000"))</f>
+        <v>100</v>
+      </c>
+      <c r="O216" s="17" t="str">
+        <f t="shared" ref="O216:O217" si="261">IF(I216="", "", TEXT(DEC2BIN(I216), "000"))</f>
+        <v/>
+      </c>
+      <c r="P216" s="17" t="str">
+        <f t="shared" ref="P216:P217" si="262">IF(J216="", "", TEXT(DEC2BIN(J216), "000"))</f>
+        <v/>
+      </c>
+      <c r="Q216" s="17" t="str">
+        <f t="shared" ref="Q216:Q217" si="263">IF(K216="", "", TEXT(DEC2BIN(K216), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="R216" s="18" t="str">
+        <f t="shared" ref="R216:R217" si="264">IF(L216="", "", TEXT(DEC2BIN(L216), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="S216" t="str">
+        <f t="shared" ref="S216:S217" si="265">BIN2HEX(LEFT(CONCATENATE(M216,IF(N216="", "000", N216)), 8), 2)</f>
+        <v>12</v>
+      </c>
+      <c r="T216" t="str">
+        <f t="shared" ref="T216:T217" si="266">BIN2HEX(CONCATENATE(RIGHT(N216, 1), IF(O216 = "", "000", O216), IF(P216 = "", "000", P216), "0"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="U216" s="13" t="str">
+        <f t="shared" ref="U216:U217" si="267">IF(Q216="", BIN2HEX(R216, 2), BIN2HEX(Q216,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>69</v>
+      </c>
+      <c r="B217" t="str">
+        <f t="shared" si="197"/>
+        <v>0x045</v>
+      </c>
+      <c r="C217" t="s">
+        <v>280</v>
+      </c>
+      <c r="E217" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="F217" s="11">
+        <v>4</v>
+      </c>
+      <c r="G217" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H217">
+        <f t="shared" si="258"/>
+        <v>5</v>
+      </c>
+      <c r="M217" s="16" t="str">
+        <f t="shared" si="259"/>
+        <v>000100</v>
+      </c>
+      <c r="N217" s="17" t="str">
+        <f t="shared" si="260"/>
+        <v>101</v>
+      </c>
+      <c r="O217" s="17" t="str">
+        <f t="shared" si="261"/>
+        <v/>
+      </c>
+      <c r="P217" s="17" t="str">
+        <f t="shared" si="262"/>
+        <v/>
+      </c>
+      <c r="Q217" s="17" t="str">
+        <f t="shared" si="263"/>
+        <v/>
+      </c>
+      <c r="R217" s="18" t="str">
+        <f t="shared" si="264"/>
+        <v/>
+      </c>
+      <c r="S217" t="str">
+        <f t="shared" si="265"/>
+        <v>12</v>
+      </c>
+      <c r="T217" t="str">
+        <f t="shared" si="266"/>
+        <v>80</v>
+      </c>
+      <c r="U217" s="13" t="str">
+        <f t="shared" si="267"/>
+        <v>00</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="W16:X18">
@@ -11627,11 +12588,11 @@
     <mergeCell ref="E164:E166"/>
     <mergeCell ref="E199:E201"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y17">
       <formula1>$W$16:$W$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G6 G9:G11 G17:G26 G31:G33 G41:G42 G49 G83:G93 G117:G132 G102:G112 G141:G149 G154:G167 G194:G198 G209">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G6 G9:G11 G17:G26 G31:G33 G41:G42 G49 G83:G93 G117:G132 G102:G112 G141:G149 G154:G167 G194:G217">
       <formula1>$W$3:$W$10</formula1>
     </dataValidation>
   </dataValidations>
@@ -12122,7 +13083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="str">
         <f>"00011000"</f>
         <v>00011000</v>
@@ -12132,7 +13093,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="str">
         <f>"00000000"</f>
         <v>00000000</v>
@@ -12142,7 +13103,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="str">
         <f>"00000000"</f>
         <v>00000000</v>
@@ -12152,7 +13113,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49" s="48" t="str">
         <f>"00000000"</f>
         <v>00000000</v>
@@ -12162,7 +13123,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>6</v>
       </c>
@@ -12175,7 +13136,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="str">
         <f>"00000000"</f>
         <v>00000000</v>
@@ -12185,7 +13146,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="str">
         <f>"00111100"</f>
         <v>00111100</v>
@@ -12195,7 +13156,7 @@
         <v>3C</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="str">
         <f>"00100100"</f>
         <v>00100100</v>
@@ -12205,7 +13166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="str">
         <f>"00100100"</f>
         <v>00100100</v>
@@ -12215,7 +13176,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="str">
         <f>"00111100"</f>
         <v>00111100</v>
@@ -12225,7 +13186,7 @@
         <v>3C</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="str">
         <f>"00000000"</f>
         <v>00000000</v>
@@ -12235,7 +13196,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" s="48" t="str">
         <f>"00000000"</f>
         <v>00000000</v>
@@ -12245,7 +13206,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>7</v>
       </c>
@@ -12258,7 +13219,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="str">
         <f>"01111110"</f>
         <v>01111110</v>
@@ -12268,7 +13229,7 @@
         <v>7E</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="str">
         <f>"01000010"</f>
         <v>01000010</v>
@@ -12278,7 +13239,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="str">
         <f t="shared" ref="B61:B63" si="5">"01000010"</f>
         <v>01000010</v>
@@ -12288,7 +13249,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="str">
         <f t="shared" si="5"/>
         <v>01000010</v>
@@ -12298,7 +13259,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="str">
         <f t="shared" si="5"/>
         <v>01000010</v>
@@ -12308,7 +13269,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="str">
         <f>"01111110"</f>
         <v>01111110</v>
@@ -12318,7 +13279,7 @@
         <v>7E</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="48" t="str">
         <f>"00000000"</f>
         <v>00000000</v>

--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -4844,7 +4844,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F224" sqref="F224"/>
+      <selection pane="bottomLeft" activeCell="E221" sqref="E221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Control Lines" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="316">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -790,12 +790,6 @@
     <t>44 80 00</t>
   </si>
   <si>
-    <t>CLOSE_REGS_BRIDGE = 1 would allow to output all registers, instead of only the first four</t>
-  </si>
-  <si>
-    <t>One register ALU instructions can be modified to use all registers, as the above OUT instruction</t>
-  </si>
-  <si>
     <t>// 1 - Increments A, starting in 32</t>
   </si>
   <si>
@@ -1037,13 +1031,16 @@
   </si>
   <si>
     <t>JP [0x021]</t>
+  </si>
+  <si>
+    <t>One register ALU instructions can be modified to use all registers, by using CLOSE_REGS_BRIDGE=1 and EN_R1_OUT=0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1135,6 +1132,14 @@
     <font>
       <sz val="11"/>
       <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1258,7 +1263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1350,6 +1355,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1368,10 +1377,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1678,16 +1684,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN54"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="17" width="3.28515625" customWidth="1"/>
     <col min="18" max="19" width="3.28515625" style="4" customWidth="1"/>
     <col min="20" max="20" width="3.28515625" customWidth="1"/>
@@ -1771,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="1" customFormat="1" ht="129" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" s="1" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>173</v>
       </c>
@@ -1853,11 +1859,11 @@
       <c r="AA2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="49" t="s">
+      <c r="AB2" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
     </row>
     <row r="3" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -2835,7 +2841,7 @@
         <v>000100</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2930,7 +2936,7 @@
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="AF13" s="5" t="s">
+      <c r="AF13" s="57" t="s">
         <v>185</v>
       </c>
       <c r="AM13" s="8" t="str">
@@ -3285,7 +3291,7 @@
         <v>000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -3293,7 +3299,7 @@
         <f t="shared" si="4"/>
         <v>0x11</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="30" t="s">
         <v>113</v>
       </c>
       <c r="D20">
@@ -3387,9 +3393,7 @@
         <f t="shared" si="5"/>
         <v>000880</v>
       </c>
-      <c r="AN20" s="5" t="s">
-        <v>234</v>
-      </c>
+      <c r="AN20" s="5"/>
     </row>
     <row r="21" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
@@ -4059,7 +4063,7 @@
         <v>408818</v>
       </c>
     </row>
-    <row r="37" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -4158,8 +4162,8 @@
         <f t="shared" si="5"/>
         <v>408802</v>
       </c>
-      <c r="AN37" s="5" t="s">
-        <v>235</v>
+      <c r="AN37" s="57" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
@@ -4952,14 +4956,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA249"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E176" sqref="E176:E197"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G234" sqref="G234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="55" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="49" customWidth="1"/>
     <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
@@ -4979,13 +4983,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
-        <v>301</v>
-      </c>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="50" t="s">
         <v>70</v>
       </c>
       <c r="G1" s="14" t="s">
@@ -5027,18 +5031,18 @@
       <c r="S1" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="T1" s="50" t="s">
+      <c r="T1" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="U1" s="51"/>
-      <c r="V1" s="52"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="54"/>
       <c r="W1" s="10"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
@@ -5334,7 +5338,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D8" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F8" s="8"/>
       <c r="X8" t="s">
@@ -5536,7 +5540,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D16" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="X16" t="s">
         <v>159</v>
@@ -5902,7 +5906,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.25">
@@ -6252,7 +6256,7 @@
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D40" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
@@ -6451,7 +6455,7 @@
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D48" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.25">
@@ -6587,7 +6591,7 @@
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D55" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.25">
@@ -7008,7 +7012,7 @@
     </row>
     <row r="82" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D82" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E82"/>
       <c r="F82" s="8"/>
@@ -7781,7 +7785,7 @@
     </row>
     <row r="101" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D101" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E101"/>
       <c r="F101" s="8"/>
@@ -8476,7 +8480,7 @@
     </row>
     <row r="116" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D116" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="117" spans="2:22" x14ac:dyDescent="0.25">
@@ -9240,7 +9244,7 @@
       <c r="D129" t="s">
         <v>56</v>
       </c>
-      <c r="F129" s="53" t="s">
+      <c r="F129" s="55" t="s">
         <v>210</v>
       </c>
       <c r="G129" s="11">
@@ -9304,7 +9308,7 @@
       <c r="D130" t="s">
         <v>179</v>
       </c>
-      <c r="F130" s="53"/>
+      <c r="F130" s="55"/>
       <c r="G130" s="11">
         <v>40</v>
       </c>
@@ -9363,7 +9367,7 @@
       <c r="D131" t="s">
         <v>57</v>
       </c>
-      <c r="F131" s="53"/>
+      <c r="F131" s="55"/>
       <c r="G131" s="11">
         <v>2</v>
       </c>
@@ -9518,7 +9522,7 @@
     </row>
     <row r="140" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D140" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="141" spans="2:22" x14ac:dyDescent="0.25">
@@ -10041,7 +10045,7 @@
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D153" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="154" spans="1:22" x14ac:dyDescent="0.25">
@@ -10119,7 +10123,7 @@
       </c>
       <c r="E155"/>
       <c r="F155" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G155" s="11">
         <v>1</v>
@@ -10180,7 +10184,7 @@
         <v>0x006</v>
       </c>
       <c r="D156" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F156" s="8" t="s">
         <v>224</v>
@@ -10244,7 +10248,7 @@
         <v>0x009</v>
       </c>
       <c r="D157" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F157" s="8" t="s">
         <v>225</v>
@@ -10300,21 +10304,21 @@
       </c>
     </row>
     <row r="158" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A158" s="55" t="s">
-        <v>291</v>
+      <c r="A158" s="49" t="s">
+        <v>289</v>
       </c>
       <c r="B158">
         <v>12</v>
       </c>
       <c r="C158" t="str">
-        <f t="shared" ref="C158:C174" si="172">"0x" &amp; DEC2HEX(B158,3)</f>
+        <f t="shared" ref="C158:C167" si="172">"0x" &amp; DEC2HEX(B158,3)</f>
         <v>0x00C</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G158" s="11">
         <v>1</v>
@@ -10375,10 +10379,10 @@
         <v>0x00F</v>
       </c>
       <c r="D159" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G159" s="11">
         <v>35</v>
@@ -10498,7 +10502,7 @@
         <v>0x015</v>
       </c>
       <c r="D161" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F161" s="8"/>
       <c r="G161" s="11">
@@ -10549,8 +10553,8 @@
       </c>
     </row>
     <row r="162" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A162" s="55" t="s">
-        <v>308</v>
+      <c r="A162" s="49" t="s">
+        <v>306</v>
       </c>
       <c r="B162">
         <v>24</v>
@@ -10560,10 +10564,10 @@
         <v>0x018</v>
       </c>
       <c r="D162" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G162" s="11">
         <v>1</v>
@@ -10624,10 +10628,10 @@
         <v>0x01B</v>
       </c>
       <c r="D163" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G163" s="11">
         <v>17</v>
@@ -10694,7 +10698,7 @@
         <v>217</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G164" s="11">
         <v>1</v>
@@ -10747,8 +10751,8 @@
       </c>
     </row>
     <row r="165" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A165" s="55" t="s">
-        <v>312</v>
+      <c r="A165" s="49" t="s">
+        <v>310</v>
       </c>
       <c r="B165">
         <v>33</v>
@@ -11134,7 +11138,7 @@
       <c r="D171" t="s">
         <v>221</v>
       </c>
-      <c r="F171" s="53" t="s">
+      <c r="F171" s="55" t="s">
         <v>210</v>
       </c>
       <c r="G171" s="11">
@@ -11198,7 +11202,7 @@
       <c r="D172" t="s">
         <v>201</v>
       </c>
-      <c r="F172" s="53"/>
+      <c r="F172" s="55"/>
       <c r="G172" s="11">
         <v>40</v>
       </c>
@@ -11257,7 +11261,7 @@
       <c r="D173" t="s">
         <v>222</v>
       </c>
-      <c r="F173" s="53"/>
+      <c r="F173" s="55"/>
       <c r="G173" s="11">
         <v>2</v>
       </c>
@@ -11640,7 +11644,7 @@
     </row>
     <row r="200" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D200" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="201" spans="2:22" x14ac:dyDescent="0.25">
@@ -11652,10 +11656,10 @@
         <v>0x000</v>
       </c>
       <c r="D201" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F201" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G201" s="11">
         <v>1</v>
@@ -11716,10 +11720,10 @@
         <v>0x003</v>
       </c>
       <c r="D202" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F202" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G202" s="11">
         <v>1</v>
@@ -11839,7 +11843,7 @@
         <v>0x009</v>
       </c>
       <c r="D204" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F204" s="8"/>
       <c r="G204" s="11">
@@ -11901,7 +11905,7 @@
         <v>115</v>
       </c>
       <c r="F205" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G205" s="11">
         <v>32</v>
@@ -11964,8 +11968,8 @@
       <c r="D206" t="s">
         <v>221</v>
       </c>
-      <c r="F206" s="54" t="s">
-        <v>255</v>
+      <c r="F206" s="56" t="s">
+        <v>253</v>
       </c>
       <c r="G206" s="11">
         <v>2</v>
@@ -12028,7 +12032,7 @@
       <c r="D207" t="s">
         <v>57</v>
       </c>
-      <c r="F207" s="54"/>
+      <c r="F207" s="56"/>
       <c r="G207" s="11">
         <v>2</v>
       </c>
@@ -12090,7 +12094,7 @@
       <c r="D208" t="s">
         <v>51</v>
       </c>
-      <c r="F208" s="54"/>
+      <c r="F208" s="56"/>
       <c r="G208" s="11">
         <v>2</v>
       </c>
@@ -12150,10 +12154,10 @@
         <v>0x018</v>
       </c>
       <c r="D209" t="s">
+        <v>252</v>
+      </c>
+      <c r="F209" s="8" t="s">
         <v>254</v>
-      </c>
-      <c r="F209" s="8" t="s">
-        <v>256</v>
       </c>
       <c r="G209" s="11">
         <v>33</v>
@@ -12217,7 +12221,7 @@
         <v>53</v>
       </c>
       <c r="F210" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G210" s="11">
         <v>34</v>
@@ -12275,10 +12279,10 @@
         <v>0x01E</v>
       </c>
       <c r="D211" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F211" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G211" s="11">
         <v>35</v>
@@ -12339,10 +12343,10 @@
         <v>0x021</v>
       </c>
       <c r="D212" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F212" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G212" s="11">
         <v>36</v>
@@ -12403,10 +12407,10 @@
         <v>0x024</v>
       </c>
       <c r="D213" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F213" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G213" s="11">
         <v>37</v>
@@ -12467,10 +12471,10 @@
         <v>0x027</v>
       </c>
       <c r="D214" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F214" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G214" s="11">
         <v>38</v>
@@ -12531,10 +12535,10 @@
         <v>0x02A</v>
       </c>
       <c r="D215" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G215" s="11">
         <v>39</v>
@@ -12595,10 +12599,10 @@
         <v>0x02D</v>
       </c>
       <c r="D216" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F216" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G216" s="11">
         <v>41</v>
@@ -12656,7 +12660,7 @@
         <v>0x030</v>
       </c>
       <c r="D217" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F217" s="8"/>
       <c r="G217" s="11">
@@ -12718,10 +12722,10 @@
         <v>0x033</v>
       </c>
       <c r="D218" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F218" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G218" s="11">
         <v>3</v>
@@ -12785,7 +12789,7 @@
         <v>190</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G219" s="11">
         <v>1</v>
@@ -12846,10 +12850,10 @@
         <v>0x039</v>
       </c>
       <c r="D220" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G220" s="11">
         <v>1</v>
@@ -12910,10 +12914,10 @@
         <v>0x03C</v>
       </c>
       <c r="D221" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G221" s="11">
         <v>4</v>
@@ -12971,7 +12975,7 @@
         <v>0x03F</v>
       </c>
       <c r="D222" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F222" s="8"/>
       <c r="G222" s="11">
@@ -13030,10 +13034,10 @@
         <v>0x042</v>
       </c>
       <c r="D223" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F223" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G223" s="11">
         <v>4</v>
@@ -13091,10 +13095,10 @@
         <v>0x045</v>
       </c>
       <c r="D224" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F224" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G224" s="11">
         <v>4</v>
@@ -13145,7 +13149,7 @@
     </row>
     <row r="225" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F225" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="226" spans="1:22" x14ac:dyDescent="0.25">
@@ -13156,7 +13160,7 @@
     </row>
     <row r="228" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D228" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F228" s="8"/>
     </row>
@@ -13169,10 +13173,10 @@
         <v>0x000</v>
       </c>
       <c r="D229" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F229" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G229" s="11">
         <v>1</v>
@@ -13287,8 +13291,8 @@
       </c>
     </row>
     <row r="231" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A231" s="55" t="s">
-        <v>286</v>
+      <c r="A231" s="49" t="s">
+        <v>284</v>
       </c>
       <c r="B231">
         <v>6</v>
@@ -13298,10 +13302,10 @@
         <v>0x006</v>
       </c>
       <c r="D231" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F231" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G231" s="11">
         <v>1</v>
@@ -13362,7 +13366,7 @@
         <v>0x009</v>
       </c>
       <c r="D232" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F232" s="8"/>
       <c r="G232" s="11">
@@ -13416,8 +13420,8 @@
       </c>
     </row>
     <row r="233" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A233" s="55" t="s">
-        <v>291</v>
+      <c r="A233" s="49" t="s">
+        <v>289</v>
       </c>
       <c r="B233">
         <v>12</v>
@@ -13427,10 +13431,10 @@
         <v>0x00C</v>
       </c>
       <c r="D233" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F233" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G233" s="11">
         <v>2</v>
@@ -13491,7 +13495,7 @@
         <v>0x00F</v>
       </c>
       <c r="D234" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F234" s="8"/>
       <c r="G234" s="11">
@@ -13553,7 +13557,7 @@
         <v>0x012</v>
       </c>
       <c r="D235" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F235" s="8"/>
       <c r="G235" s="11">
@@ -13612,7 +13616,7 @@
         <v>0x015</v>
       </c>
       <c r="D236" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F236" s="8"/>
       <c r="G236" s="11">
@@ -13674,10 +13678,10 @@
         <v>0x018</v>
       </c>
       <c r="D237" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F237" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G237" s="11">
         <v>32</v>
@@ -13797,7 +13801,7 @@
         <v>0x01E</v>
       </c>
       <c r="D239" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F239" s="8"/>
       <c r="G239" s="11">
@@ -13848,8 +13852,8 @@
       </c>
     </row>
     <row r="240" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A240" s="55" t="s">
-        <v>292</v>
+      <c r="A240" s="49" t="s">
+        <v>290</v>
       </c>
       <c r="B240">
         <v>33</v>
@@ -13862,7 +13866,7 @@
         <v>223</v>
       </c>
       <c r="F240" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G240" s="11">
         <v>17</v>
@@ -13926,10 +13930,10 @@
         <v>0x024</v>
       </c>
       <c r="D241" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F241" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G241" s="11">
         <v>1</v>

--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Control Lines" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="329">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -1034,6 +1034,45 @@
   </si>
   <si>
     <t>One register ALU instructions can be modified to use all registers, by using CLOSE_REGS_BRIDGE=1 and EN_R1_OUT=0</t>
+  </si>
+  <si>
+    <t>// 14 - Pixel animation using Draw pixel subroutine</t>
+  </si>
+  <si>
+    <t>JP 0x0</t>
+  </si>
+  <si>
+    <t>// Else reset E register (y value)</t>
+  </si>
+  <si>
+    <t>// Decrements A (x value)</t>
+  </si>
+  <si>
+    <t>// go to next loop iteration</t>
+  </si>
+  <si>
+    <t>// Alu op just to set Z flag and make conditional jump possible</t>
+  </si>
+  <si>
+    <t>reset_a:</t>
+  </si>
+  <si>
+    <t>// If A = 0 then to reset_a</t>
+  </si>
+  <si>
+    <t>JP Z, 0x3c</t>
+  </si>
+  <si>
+    <t>LD F, 0</t>
+  </si>
+  <si>
+    <t>// Start of loop testing</t>
+  </si>
+  <si>
+    <t>// restart from the very beginning</t>
+  </si>
+  <si>
+    <t>JP 0x6</t>
   </si>
 </sst>
 </file>
@@ -1359,6 +1398,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1377,7 +1417,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1684,8 +1723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
@@ -1859,11 +1898,11 @@
       <c r="AA2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="51" t="s">
+      <c r="AB2" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
     </row>
     <row r="3" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -2936,7 +2975,7 @@
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="AF13" s="57" t="s">
+      <c r="AF13" s="51" t="s">
         <v>185</v>
       </c>
       <c r="AM13" s="8" t="str">
@@ -4162,7 +4201,7 @@
         <f t="shared" si="5"/>
         <v>408802</v>
       </c>
-      <c r="AN37" s="57" t="s">
+      <c r="AN37" s="51" t="s">
         <v>315</v>
       </c>
     </row>
@@ -4954,11 +4993,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA249"/>
+  <dimension ref="A1:AA270"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G234" sqref="G234"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F257" sqref="F257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5031,11 +5070,11 @@
       <c r="S1" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="T1" s="52" t="s">
+      <c r="T1" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="U1" s="53"/>
-      <c r="V1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="55"/>
       <c r="W1" s="10"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -9244,7 +9283,7 @@
       <c r="D129" t="s">
         <v>56</v>
       </c>
-      <c r="F129" s="55" t="s">
+      <c r="F129" s="56" t="s">
         <v>210</v>
       </c>
       <c r="G129" s="11">
@@ -9308,7 +9347,7 @@
       <c r="D130" t="s">
         <v>179</v>
       </c>
-      <c r="F130" s="55"/>
+      <c r="F130" s="56"/>
       <c r="G130" s="11">
         <v>40</v>
       </c>
@@ -9367,7 +9406,7 @@
       <c r="D131" t="s">
         <v>57</v>
       </c>
-      <c r="F131" s="55"/>
+      <c r="F131" s="56"/>
       <c r="G131" s="11">
         <v>2</v>
       </c>
@@ -11138,7 +11177,7 @@
       <c r="D171" t="s">
         <v>221</v>
       </c>
-      <c r="F171" s="55" t="s">
+      <c r="F171" s="56" t="s">
         <v>210</v>
       </c>
       <c r="G171" s="11">
@@ -11202,7 +11241,7 @@
       <c r="D172" t="s">
         <v>201</v>
       </c>
-      <c r="F172" s="55"/>
+      <c r="F172" s="56"/>
       <c r="G172" s="11">
         <v>40</v>
       </c>
@@ -11261,7 +11300,7 @@
       <c r="D173" t="s">
         <v>222</v>
       </c>
-      <c r="F173" s="55"/>
+      <c r="F173" s="56"/>
       <c r="G173" s="11">
         <v>2</v>
       </c>
@@ -11968,7 +12007,7 @@
       <c r="D206" t="s">
         <v>221</v>
       </c>
-      <c r="F206" s="56" t="s">
+      <c r="F206" s="57" t="s">
         <v>253</v>
       </c>
       <c r="G206" s="11">
@@ -12032,7 +12071,7 @@
       <c r="D207" t="s">
         <v>57</v>
       </c>
-      <c r="F207" s="56"/>
+      <c r="F207" s="57"/>
       <c r="G207" s="11">
         <v>2</v>
       </c>
@@ -12094,7 +12133,7 @@
       <c r="D208" t="s">
         <v>51</v>
       </c>
-      <c r="F208" s="56"/>
+      <c r="F208" s="57"/>
       <c r="G208" s="11">
         <v>2</v>
       </c>
@@ -13921,7 +13960,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="241" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B241">
         <v>36</v>
       </c>
@@ -13985,7 +14024,7 @@
         <v>08</v>
       </c>
     </row>
-    <row r="242" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B242">
         <v>39</v>
       </c>
@@ -14050,26 +14089,1410 @@
         <v>00</v>
       </c>
     </row>
-    <row r="243" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F243" s="8"/>
     </row>
-    <row r="244" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F244" s="8"/>
     </row>
-    <row r="245" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F245" s="8"/>
     </row>
-    <row r="246" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D246" s="8" t="s">
+        <v>316</v>
+      </c>
       <c r="F246" s="8"/>
     </row>
-    <row r="247" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="F247" s="8"/>
-    </row>
-    <row r="248" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B247">
+        <v>0</v>
+      </c>
+      <c r="C247" t="str">
+        <f t="shared" ref="C247:C260" si="353">"0x" &amp; DEC2HEX(B247,3)</f>
+        <v>0x000</v>
+      </c>
+      <c r="D247" t="s">
+        <v>296</v>
+      </c>
+      <c r="F247" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="G247" s="11">
+        <v>1</v>
+      </c>
+      <c r="H247" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I247">
+        <f t="shared" ref="I247:I257" si="354">IF(H247="", "", VLOOKUP(H247, $X$3:$Y$10, 2))</f>
+        <v>0</v>
+      </c>
+      <c r="M247">
+        <v>7</v>
+      </c>
+      <c r="N247" s="16" t="str">
+        <f t="shared" ref="N247:N261" si="355">IF(G247="", "", TEXT(DEC2BIN(G247), "000000"))</f>
+        <v>000001</v>
+      </c>
+      <c r="O247" s="17" t="str">
+        <f t="shared" ref="O247:O261" si="356">IF(I247="", "", TEXT(DEC2BIN(I247), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="P247" s="17" t="str">
+        <f t="shared" ref="P247:P261" si="357">IF(J247="", "", TEXT(DEC2BIN(J247), "000"))</f>
+        <v/>
+      </c>
+      <c r="Q247" s="17" t="str">
+        <f t="shared" ref="Q247:Q261" si="358">IF(K247="", "", TEXT(DEC2BIN(K247), "000"))</f>
+        <v/>
+      </c>
+      <c r="R247" s="17" t="str">
+        <f t="shared" ref="R247:R261" si="359">IF(L247="", "", TEXT(DEC2BIN(L247), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="S247" s="18" t="str">
+        <f t="shared" ref="S247:S261" si="360">IF(M247="", "", TEXT(DEC2BIN(M247), "00000000"))</f>
+        <v>00000111</v>
+      </c>
+      <c r="T247" t="str">
+        <f t="shared" ref="T247:T261" si="361">BIN2HEX(LEFT(CONCATENATE(N247,IF(O247="", "000", O247)), 8), 2)</f>
+        <v>04</v>
+      </c>
+      <c r="U247" t="str">
+        <f t="shared" ref="U247:U261" si="362">BIN2HEX(CONCATENATE(RIGHT(O247, 1), IF(P247 = "", "000", P247), IF(Q247 = "", "000", Q247), "0"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="V247" s="13" t="str">
+        <f t="shared" ref="V247:V261" si="363">IF(R247="", BIN2HEX(S247, 2), BIN2HEX(R247,2))</f>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="248" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B248">
+        <v>3</v>
+      </c>
+      <c r="C248" t="str">
+        <f t="shared" si="353"/>
+        <v>0x003</v>
+      </c>
+      <c r="D248" t="s">
+        <v>217</v>
+      </c>
       <c r="F248" s="8"/>
-    </row>
-    <row r="249" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="F249" s="8"/>
+      <c r="G248" s="11">
+        <v>1</v>
+      </c>
+      <c r="H248" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I248">
+        <f t="shared" si="354"/>
+        <v>6</v>
+      </c>
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248" s="16" t="str">
+        <f t="shared" si="355"/>
+        <v>000001</v>
+      </c>
+      <c r="O248" s="17" t="str">
+        <f t="shared" si="356"/>
+        <v>110</v>
+      </c>
+      <c r="P248" s="17" t="str">
+        <f t="shared" si="357"/>
+        <v/>
+      </c>
+      <c r="Q248" s="17" t="str">
+        <f t="shared" si="358"/>
+        <v/>
+      </c>
+      <c r="R248" s="17" t="str">
+        <f t="shared" si="359"/>
+        <v/>
+      </c>
+      <c r="S248" s="18" t="str">
+        <f t="shared" si="360"/>
+        <v>00000000</v>
+      </c>
+      <c r="T248" t="str">
+        <f t="shared" si="361"/>
+        <v>07</v>
+      </c>
+      <c r="U248" t="str">
+        <f t="shared" si="362"/>
+        <v>00</v>
+      </c>
+      <c r="V248" s="13" t="str">
+        <f t="shared" si="363"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="249" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A249" s="49" t="s">
+        <v>284</v>
+      </c>
+      <c r="B249">
+        <v>6</v>
+      </c>
+      <c r="C249" t="str">
+        <f t="shared" si="353"/>
+        <v>0x006</v>
+      </c>
+      <c r="D249" t="s">
+        <v>281</v>
+      </c>
+      <c r="F249" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="G249" s="11">
+        <v>1</v>
+      </c>
+      <c r="H249" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="I249">
+        <f t="shared" si="354"/>
+        <v>2</v>
+      </c>
+      <c r="M249">
+        <v>1</v>
+      </c>
+      <c r="N249" s="16" t="str">
+        <f t="shared" si="355"/>
+        <v>000001</v>
+      </c>
+      <c r="O249" s="17" t="str">
+        <f t="shared" si="356"/>
+        <v>010</v>
+      </c>
+      <c r="P249" s="17" t="str">
+        <f t="shared" si="357"/>
+        <v/>
+      </c>
+      <c r="Q249" s="17" t="str">
+        <f t="shared" si="358"/>
+        <v/>
+      </c>
+      <c r="R249" s="17" t="str">
+        <f t="shared" si="359"/>
+        <v/>
+      </c>
+      <c r="S249" s="18" t="str">
+        <f t="shared" si="360"/>
+        <v>00000001</v>
+      </c>
+      <c r="T249" t="str">
+        <f t="shared" si="361"/>
+        <v>05</v>
+      </c>
+      <c r="U249" t="str">
+        <f t="shared" si="362"/>
+        <v>00</v>
+      </c>
+      <c r="V249" s="13" t="str">
+        <f t="shared" si="363"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="250" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B250">
+        <v>9</v>
+      </c>
+      <c r="C250" t="str">
+        <f t="shared" si="353"/>
+        <v>0x009</v>
+      </c>
+      <c r="D250" t="s">
+        <v>283</v>
+      </c>
+      <c r="F250" s="8"/>
+      <c r="G250" s="11">
+        <v>1</v>
+      </c>
+      <c r="H250" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I250">
+        <f t="shared" si="354"/>
+        <v>4</v>
+      </c>
+      <c r="M250">
+        <v>7</v>
+      </c>
+      <c r="N250" s="16" t="str">
+        <f t="shared" si="355"/>
+        <v>000001</v>
+      </c>
+      <c r="O250" s="17" t="str">
+        <f t="shared" si="356"/>
+        <v>100</v>
+      </c>
+      <c r="P250" s="17" t="str">
+        <f t="shared" si="357"/>
+        <v/>
+      </c>
+      <c r="Q250" s="17" t="str">
+        <f t="shared" si="358"/>
+        <v/>
+      </c>
+      <c r="R250" s="17" t="str">
+        <f t="shared" si="359"/>
+        <v/>
+      </c>
+      <c r="S250" s="18" t="str">
+        <f t="shared" si="360"/>
+        <v>00000111</v>
+      </c>
+      <c r="T250" t="str">
+        <f t="shared" si="361"/>
+        <v>06</v>
+      </c>
+      <c r="U250" t="str">
+        <f t="shared" si="362"/>
+        <v>00</v>
+      </c>
+      <c r="V250" s="13" t="str">
+        <f t="shared" si="363"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="251" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A251" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="B251">
+        <v>12</v>
+      </c>
+      <c r="C251" t="str">
+        <f t="shared" si="353"/>
+        <v>0x00C</v>
+      </c>
+      <c r="D251" t="s">
+        <v>285</v>
+      </c>
+      <c r="F251" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="G251" s="11">
+        <v>2</v>
+      </c>
+      <c r="H251" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I251">
+        <f t="shared" si="354"/>
+        <v>3</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="N251" s="16" t="str">
+        <f t="shared" si="355"/>
+        <v>000010</v>
+      </c>
+      <c r="O251" s="17" t="str">
+        <f t="shared" si="356"/>
+        <v>011</v>
+      </c>
+      <c r="P251" s="17" t="str">
+        <f t="shared" si="357"/>
+        <v>000</v>
+      </c>
+      <c r="Q251" s="17" t="str">
+        <f t="shared" si="358"/>
+        <v/>
+      </c>
+      <c r="R251" s="17" t="str">
+        <f t="shared" si="359"/>
+        <v/>
+      </c>
+      <c r="S251" s="18" t="str">
+        <f t="shared" si="360"/>
+        <v/>
+      </c>
+      <c r="T251" t="str">
+        <f t="shared" si="361"/>
+        <v>09</v>
+      </c>
+      <c r="U251" t="str">
+        <f t="shared" si="362"/>
+        <v>80</v>
+      </c>
+      <c r="V251" s="13" t="str">
+        <f t="shared" si="363"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="252" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B252">
+        <v>15</v>
+      </c>
+      <c r="C252" t="str">
+        <f t="shared" si="353"/>
+        <v>0x00F</v>
+      </c>
+      <c r="D252" t="s">
+        <v>287</v>
+      </c>
+      <c r="F252" s="8"/>
+      <c r="G252" s="11">
+        <v>33</v>
+      </c>
+      <c r="H252" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I252">
+        <f t="shared" si="354"/>
+        <v>3</v>
+      </c>
+      <c r="J252">
+        <v>4</v>
+      </c>
+      <c r="N252" s="16" t="str">
+        <f t="shared" si="355"/>
+        <v>100001</v>
+      </c>
+      <c r="O252" s="17" t="str">
+        <f t="shared" si="356"/>
+        <v>011</v>
+      </c>
+      <c r="P252" s="17" t="str">
+        <f t="shared" si="357"/>
+        <v>100</v>
+      </c>
+      <c r="Q252" s="17" t="str">
+        <f t="shared" si="358"/>
+        <v/>
+      </c>
+      <c r="R252" s="17" t="str">
+        <f t="shared" si="359"/>
+        <v/>
+      </c>
+      <c r="S252" s="18" t="str">
+        <f t="shared" si="360"/>
+        <v/>
+      </c>
+      <c r="T252" t="str">
+        <f t="shared" si="361"/>
+        <v>85</v>
+      </c>
+      <c r="U252" t="str">
+        <f t="shared" si="362"/>
+        <v>C0</v>
+      </c>
+      <c r="V252" s="13" t="str">
+        <f t="shared" si="363"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="253" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B253">
+        <v>18</v>
+      </c>
+      <c r="C253" t="str">
+        <f t="shared" si="353"/>
+        <v>0x012</v>
+      </c>
+      <c r="D253" t="s">
+        <v>295</v>
+      </c>
+      <c r="F253" s="8"/>
+      <c r="G253" s="11">
+        <v>6</v>
+      </c>
+      <c r="I253" t="str">
+        <f t="shared" si="354"/>
+        <v/>
+      </c>
+      <c r="L253">
+        <v>33</v>
+      </c>
+      <c r="N253" s="16" t="str">
+        <f t="shared" si="355"/>
+        <v>000110</v>
+      </c>
+      <c r="O253" s="17" t="str">
+        <f t="shared" si="356"/>
+        <v/>
+      </c>
+      <c r="P253" s="17" t="str">
+        <f t="shared" si="357"/>
+        <v/>
+      </c>
+      <c r="Q253" s="17" t="str">
+        <f t="shared" si="358"/>
+        <v/>
+      </c>
+      <c r="R253" s="17" t="str">
+        <f t="shared" si="359"/>
+        <v>00100001</v>
+      </c>
+      <c r="S253" s="18" t="str">
+        <f t="shared" si="360"/>
+        <v/>
+      </c>
+      <c r="T253" t="str">
+        <f t="shared" si="361"/>
+        <v>18</v>
+      </c>
+      <c r="U253" t="str">
+        <f t="shared" si="362"/>
+        <v>00</v>
+      </c>
+      <c r="V253" s="13" t="str">
+        <f t="shared" si="363"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="254" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B254">
+        <v>21</v>
+      </c>
+      <c r="C254" t="str">
+        <f t="shared" si="353"/>
+        <v>0x015</v>
+      </c>
+      <c r="D254" t="s">
+        <v>293</v>
+      </c>
+      <c r="F254" s="8"/>
+      <c r="G254" s="11">
+        <v>2</v>
+      </c>
+      <c r="H254" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I254">
+        <f t="shared" si="354"/>
+        <v>5</v>
+      </c>
+      <c r="J254">
+        <v>2</v>
+      </c>
+      <c r="N254" s="16" t="str">
+        <f t="shared" si="355"/>
+        <v>000010</v>
+      </c>
+      <c r="O254" s="17" t="str">
+        <f t="shared" si="356"/>
+        <v>101</v>
+      </c>
+      <c r="P254" s="17" t="str">
+        <f t="shared" si="357"/>
+        <v>010</v>
+      </c>
+      <c r="Q254" s="17" t="str">
+        <f t="shared" si="358"/>
+        <v/>
+      </c>
+      <c r="R254" s="17" t="str">
+        <f t="shared" si="359"/>
+        <v/>
+      </c>
+      <c r="S254" s="18" t="str">
+        <f t="shared" si="360"/>
+        <v/>
+      </c>
+      <c r="T254" t="str">
+        <f t="shared" si="361"/>
+        <v>0A</v>
+      </c>
+      <c r="U254" t="str">
+        <f t="shared" si="362"/>
+        <v>A0</v>
+      </c>
+      <c r="V254" s="13" t="str">
+        <f t="shared" si="363"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="255" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B255">
+        <v>24</v>
+      </c>
+      <c r="C255" t="str">
+        <f t="shared" si="353"/>
+        <v>0x018</v>
+      </c>
+      <c r="D255" t="s">
+        <v>294</v>
+      </c>
+      <c r="F255" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="G255" s="11">
+        <v>32</v>
+      </c>
+      <c r="H255" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="I255">
+        <f t="shared" si="354"/>
+        <v>2</v>
+      </c>
+      <c r="J255">
+        <v>5</v>
+      </c>
+      <c r="N255" s="16" t="str">
+        <f t="shared" si="355"/>
+        <v>100000</v>
+      </c>
+      <c r="O255" s="17" t="str">
+        <f t="shared" si="356"/>
+        <v>010</v>
+      </c>
+      <c r="P255" s="17" t="str">
+        <f t="shared" si="357"/>
+        <v>101</v>
+      </c>
+      <c r="Q255" s="17" t="str">
+        <f t="shared" si="358"/>
+        <v/>
+      </c>
+      <c r="R255" s="17" t="str">
+        <f t="shared" si="359"/>
+        <v/>
+      </c>
+      <c r="S255" s="18" t="str">
+        <f t="shared" si="360"/>
+        <v/>
+      </c>
+      <c r="T255" t="str">
+        <f t="shared" si="361"/>
+        <v>81</v>
+      </c>
+      <c r="U255" t="str">
+        <f t="shared" si="362"/>
+        <v>50</v>
+      </c>
+      <c r="V255" s="13" t="str">
+        <f t="shared" si="363"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="256" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B256">
+        <v>27</v>
+      </c>
+      <c r="C256" t="str">
+        <f t="shared" si="353"/>
+        <v>0x01B</v>
+      </c>
+      <c r="D256" t="s">
+        <v>179</v>
+      </c>
+      <c r="F256" s="8"/>
+      <c r="G256" s="11">
+        <v>40</v>
+      </c>
+      <c r="H256" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I256">
+        <f t="shared" si="354"/>
+        <v>0</v>
+      </c>
+      <c r="N256" s="16" t="str">
+        <f t="shared" si="355"/>
+        <v>101000</v>
+      </c>
+      <c r="O256" s="17" t="str">
+        <f t="shared" si="356"/>
+        <v>000</v>
+      </c>
+      <c r="P256" s="17" t="str">
+        <f t="shared" si="357"/>
+        <v/>
+      </c>
+      <c r="Q256" s="17" t="str">
+        <f t="shared" si="358"/>
+        <v/>
+      </c>
+      <c r="R256" s="17" t="str">
+        <f t="shared" si="359"/>
+        <v/>
+      </c>
+      <c r="S256" s="18" t="str">
+        <f t="shared" si="360"/>
+        <v/>
+      </c>
+      <c r="T256" t="str">
+        <f t="shared" si="361"/>
+        <v>A0</v>
+      </c>
+      <c r="U256" t="str">
+        <f t="shared" si="362"/>
+        <v>00</v>
+      </c>
+      <c r="V256" s="13" t="str">
+        <f t="shared" si="363"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="257" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B257">
+        <v>30</v>
+      </c>
+      <c r="C257" t="str">
+        <f t="shared" si="353"/>
+        <v>0x01E</v>
+      </c>
+      <c r="D257" t="s">
+        <v>291</v>
+      </c>
+      <c r="F257" s="8"/>
+      <c r="G257" s="11">
+        <v>5</v>
+      </c>
+      <c r="I257" t="str">
+        <f t="shared" si="354"/>
+        <v/>
+      </c>
+      <c r="L257">
+        <v>12</v>
+      </c>
+      <c r="N257" s="16" t="str">
+        <f t="shared" si="355"/>
+        <v>000101</v>
+      </c>
+      <c r="O257" s="17" t="str">
+        <f t="shared" si="356"/>
+        <v/>
+      </c>
+      <c r="P257" s="17" t="str">
+        <f t="shared" si="357"/>
+        <v/>
+      </c>
+      <c r="Q257" s="17" t="str">
+        <f t="shared" si="358"/>
+        <v/>
+      </c>
+      <c r="R257" s="17" t="str">
+        <f t="shared" si="359"/>
+        <v>00001100</v>
+      </c>
+      <c r="S257" s="18" t="str">
+        <f t="shared" si="360"/>
+        <v/>
+      </c>
+      <c r="T257" t="str">
+        <f t="shared" si="361"/>
+        <v>14</v>
+      </c>
+      <c r="U257" t="str">
+        <f t="shared" si="362"/>
+        <v>00</v>
+      </c>
+      <c r="V257" s="13" t="str">
+        <f t="shared" si="363"/>
+        <v>0C</v>
+      </c>
+    </row>
+    <row r="258" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A258" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="B258">
+        <v>33</v>
+      </c>
+      <c r="C258" t="str">
+        <f t="shared" si="353"/>
+        <v>0x021</v>
+      </c>
+      <c r="D258" t="s">
+        <v>223</v>
+      </c>
+      <c r="F258" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="G258" s="11">
+        <v>17</v>
+      </c>
+      <c r="H258" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="I258">
+        <f>IF(H258="", "", VLOOKUP(H258, $X$3:$Y$10, 2))</f>
+        <v>2</v>
+      </c>
+      <c r="J258">
+        <v>6</v>
+      </c>
+      <c r="K258">
+        <v>1</v>
+      </c>
+      <c r="N258" s="16" t="str">
+        <f t="shared" si="355"/>
+        <v>010001</v>
+      </c>
+      <c r="O258" s="17" t="str">
+        <f t="shared" si="356"/>
+        <v>010</v>
+      </c>
+      <c r="P258" s="17" t="str">
+        <f t="shared" si="357"/>
+        <v>110</v>
+      </c>
+      <c r="Q258" s="17" t="str">
+        <f t="shared" si="358"/>
+        <v>001</v>
+      </c>
+      <c r="R258" s="17" t="str">
+        <f t="shared" si="359"/>
+        <v/>
+      </c>
+      <c r="S258" s="18" t="str">
+        <f t="shared" si="360"/>
+        <v/>
+      </c>
+      <c r="T258" t="str">
+        <f t="shared" si="361"/>
+        <v>45</v>
+      </c>
+      <c r="U258" t="str">
+        <f t="shared" si="362"/>
+        <v>62</v>
+      </c>
+      <c r="V258" s="13" t="str">
+        <f t="shared" si="363"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="259" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B259">
+        <v>36</v>
+      </c>
+      <c r="C259" t="str">
+        <f t="shared" si="353"/>
+        <v>0x024</v>
+      </c>
+      <c r="D259" t="s">
+        <v>301</v>
+      </c>
+      <c r="F259" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G259" s="11">
+        <v>1</v>
+      </c>
+      <c r="H259" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I259">
+        <f t="shared" ref="I259" si="364">IF(H259="", "", VLOOKUP(H259, $X$3:$Y$10, 2))</f>
+        <v>6</v>
+      </c>
+      <c r="M259">
+        <v>8</v>
+      </c>
+      <c r="N259" s="16" t="str">
+        <f t="shared" si="355"/>
+        <v>000001</v>
+      </c>
+      <c r="O259" s="17" t="str">
+        <f t="shared" si="356"/>
+        <v>110</v>
+      </c>
+      <c r="P259" s="17" t="str">
+        <f t="shared" si="357"/>
+        <v/>
+      </c>
+      <c r="Q259" s="17" t="str">
+        <f t="shared" si="358"/>
+        <v/>
+      </c>
+      <c r="R259" s="17" t="str">
+        <f t="shared" si="359"/>
+        <v/>
+      </c>
+      <c r="S259" s="18" t="str">
+        <f t="shared" si="360"/>
+        <v>00001000</v>
+      </c>
+      <c r="T259" t="str">
+        <f t="shared" si="361"/>
+        <v>07</v>
+      </c>
+      <c r="U259" t="str">
+        <f t="shared" si="362"/>
+        <v>00</v>
+      </c>
+      <c r="V259" s="13" t="str">
+        <f t="shared" si="363"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="260" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B260">
+        <v>39</v>
+      </c>
+      <c r="C260" t="str">
+        <f t="shared" si="353"/>
+        <v>0x027</v>
+      </c>
+      <c r="D260" t="s">
+        <v>223</v>
+      </c>
+      <c r="F260" s="8"/>
+      <c r="G260" s="11">
+        <v>17</v>
+      </c>
+      <c r="H260" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="I260">
+        <f>IF(H260="", "", VLOOKUP(H260, $X$3:$Y$10, 2))</f>
+        <v>2</v>
+      </c>
+      <c r="J260">
+        <v>6</v>
+      </c>
+      <c r="K260">
+        <v>1</v>
+      </c>
+      <c r="N260" s="16" t="str">
+        <f t="shared" si="355"/>
+        <v>010001</v>
+      </c>
+      <c r="O260" s="17" t="str">
+        <f t="shared" si="356"/>
+        <v>010</v>
+      </c>
+      <c r="P260" s="17" t="str">
+        <f t="shared" si="357"/>
+        <v>110</v>
+      </c>
+      <c r="Q260" s="17" t="str">
+        <f t="shared" si="358"/>
+        <v>001</v>
+      </c>
+      <c r="R260" s="17" t="str">
+        <f t="shared" si="359"/>
+        <v/>
+      </c>
+      <c r="S260" s="18" t="str">
+        <f t="shared" si="360"/>
+        <v/>
+      </c>
+      <c r="T260" t="str">
+        <f t="shared" si="361"/>
+        <v>45</v>
+      </c>
+      <c r="U260" t="str">
+        <f t="shared" si="362"/>
+        <v>62</v>
+      </c>
+      <c r="V260" s="13" t="str">
+        <f t="shared" si="363"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="261" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B261">
+        <v>42</v>
+      </c>
+      <c r="C261" t="str">
+        <f t="shared" ref="C261:C265" si="365">"0x" &amp; DEC2HEX(B261,3)</f>
+        <v>0x02A</v>
+      </c>
+      <c r="D261" t="s">
+        <v>325</v>
+      </c>
+      <c r="F261" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="G261" s="11">
+        <v>1</v>
+      </c>
+      <c r="H261" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="I261">
+        <f t="shared" ref="I261:I263" si="366">IF(H261="", "", VLOOKUP(H261, $X$3:$Y$10, 2))</f>
+        <v>7</v>
+      </c>
+      <c r="M261">
+        <v>0</v>
+      </c>
+      <c r="N261" s="16" t="str">
+        <f t="shared" si="355"/>
+        <v>000001</v>
+      </c>
+      <c r="O261" s="17" t="str">
+        <f t="shared" si="356"/>
+        <v>111</v>
+      </c>
+      <c r="P261" s="17" t="str">
+        <f t="shared" si="357"/>
+        <v/>
+      </c>
+      <c r="Q261" s="17" t="str">
+        <f t="shared" si="358"/>
+        <v/>
+      </c>
+      <c r="R261" s="17" t="str">
+        <f t="shared" si="359"/>
+        <v/>
+      </c>
+      <c r="S261" s="18" t="str">
+        <f t="shared" si="360"/>
+        <v>00000000</v>
+      </c>
+      <c r="T261" t="str">
+        <f t="shared" si="361"/>
+        <v>07</v>
+      </c>
+      <c r="U261" t="str">
+        <f t="shared" si="362"/>
+        <v>80</v>
+      </c>
+      <c r="V261" s="13" t="str">
+        <f t="shared" si="363"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="262" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B262">
+        <v>45</v>
+      </c>
+      <c r="C262" t="str">
+        <f t="shared" si="365"/>
+        <v>0x02D</v>
+      </c>
+      <c r="D262" t="s">
+        <v>118</v>
+      </c>
+      <c r="F262" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G262" s="11">
+        <v>33</v>
+      </c>
+      <c r="H262" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I262">
+        <f t="shared" si="366"/>
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>7</v>
+      </c>
+      <c r="N262" s="16" t="str">
+        <f t="shared" ref="N262:N263" si="367">IF(G262="", "", TEXT(DEC2BIN(G262), "000000"))</f>
+        <v>100001</v>
+      </c>
+      <c r="O262" s="17" t="str">
+        <f t="shared" ref="O262:O263" si="368">IF(I262="", "", TEXT(DEC2BIN(I262), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="P262" s="17" t="str">
+        <f t="shared" ref="P262:P263" si="369">IF(J262="", "", TEXT(DEC2BIN(J262), "000"))</f>
+        <v>111</v>
+      </c>
+      <c r="Q262" s="17" t="str">
+        <f t="shared" ref="Q262:Q263" si="370">IF(K262="", "", TEXT(DEC2BIN(K262), "000"))</f>
+        <v/>
+      </c>
+      <c r="R262" s="17" t="str">
+        <f t="shared" ref="R262:R263" si="371">IF(L262="", "", TEXT(DEC2BIN(L262), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="S262" s="18" t="str">
+        <f t="shared" ref="S262:S263" si="372">IF(M262="", "", TEXT(DEC2BIN(M262), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="T262" t="str">
+        <f t="shared" ref="T262:T263" si="373">BIN2HEX(LEFT(CONCATENATE(N262,IF(O262="", "000", O262)), 8), 2)</f>
+        <v>84</v>
+      </c>
+      <c r="U262" t="str">
+        <f t="shared" ref="U262:U263" si="374">BIN2HEX(CONCATENATE(RIGHT(O262, 1), IF(P262 = "", "000", P262), IF(Q262 = "", "000", Q262), "0"), 2)</f>
+        <v>70</v>
+      </c>
+      <c r="V262" s="13" t="str">
+        <f t="shared" ref="V262:V263" si="375">IF(R262="", BIN2HEX(S262, 2), BIN2HEX(R262,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="263" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B263">
+        <v>48</v>
+      </c>
+      <c r="C263" t="str">
+        <f t="shared" si="365"/>
+        <v>0x030</v>
+      </c>
+      <c r="D263" t="s">
+        <v>324</v>
+      </c>
+      <c r="F263" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="G263" s="11">
+        <v>6</v>
+      </c>
+      <c r="I263" t="str">
+        <f t="shared" si="366"/>
+        <v/>
+      </c>
+      <c r="L263">
+        <v>60</v>
+      </c>
+      <c r="N263" s="16" t="str">
+        <f t="shared" si="367"/>
+        <v>000110</v>
+      </c>
+      <c r="O263" s="17" t="str">
+        <f t="shared" si="368"/>
+        <v/>
+      </c>
+      <c r="P263" s="17" t="str">
+        <f t="shared" si="369"/>
+        <v/>
+      </c>
+      <c r="Q263" s="17" t="str">
+        <f t="shared" si="370"/>
+        <v/>
+      </c>
+      <c r="R263" s="17" t="str">
+        <f t="shared" si="371"/>
+        <v>00111100</v>
+      </c>
+      <c r="S263" s="18" t="str">
+        <f t="shared" si="372"/>
+        <v/>
+      </c>
+      <c r="T263" t="str">
+        <f t="shared" si="373"/>
+        <v>18</v>
+      </c>
+      <c r="U263" t="str">
+        <f t="shared" si="374"/>
+        <v>00</v>
+      </c>
+      <c r="V263" s="13" t="str">
+        <f t="shared" si="375"/>
+        <v>3C</v>
+      </c>
+    </row>
+    <row r="264" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B264">
+        <v>51</v>
+      </c>
+      <c r="C264" t="str">
+        <f t="shared" si="365"/>
+        <v>0x033</v>
+      </c>
+      <c r="D264" t="s">
+        <v>217</v>
+      </c>
+      <c r="F264" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="G264" s="11">
+        <v>1</v>
+      </c>
+      <c r="H264" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I264">
+        <f t="shared" ref="I264:I266" si="376">IF(H264="", "", VLOOKUP(H264, $X$3:$Y$10, 2))</f>
+        <v>6</v>
+      </c>
+      <c r="M264">
+        <v>0</v>
+      </c>
+      <c r="N264" s="16" t="str">
+        <f t="shared" ref="N264:N266" si="377">IF(G264="", "", TEXT(DEC2BIN(G264), "000000"))</f>
+        <v>000001</v>
+      </c>
+      <c r="O264" s="17" t="str">
+        <f t="shared" ref="O264:O266" si="378">IF(I264="", "", TEXT(DEC2BIN(I264), "000"))</f>
+        <v>110</v>
+      </c>
+      <c r="P264" s="17" t="str">
+        <f t="shared" ref="P264:P266" si="379">IF(J264="", "", TEXT(DEC2BIN(J264), "000"))</f>
+        <v/>
+      </c>
+      <c r="Q264" s="17" t="str">
+        <f t="shared" ref="Q264:Q266" si="380">IF(K264="", "", TEXT(DEC2BIN(K264), "000"))</f>
+        <v/>
+      </c>
+      <c r="R264" s="17" t="str">
+        <f t="shared" ref="R264:R266" si="381">IF(L264="", "", TEXT(DEC2BIN(L264), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="S264" s="18" t="str">
+        <f t="shared" ref="S264:S266" si="382">IF(M264="", "", TEXT(DEC2BIN(M264), "00000000"))</f>
+        <v>00000000</v>
+      </c>
+      <c r="T264" t="str">
+        <f t="shared" ref="T264:T266" si="383">BIN2HEX(LEFT(CONCATENATE(N264,IF(O264="", "000", O264)), 8), 2)</f>
+        <v>07</v>
+      </c>
+      <c r="U264" t="str">
+        <f t="shared" ref="U264:U266" si="384">BIN2HEX(CONCATENATE(RIGHT(O264, 1), IF(P264 = "", "000", P264), IF(Q264 = "", "000", Q264), "0"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="V264" s="13" t="str">
+        <f t="shared" ref="V264:V266" si="385">IF(R264="", BIN2HEX(S264, 2), BIN2HEX(R264,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="265" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B265">
+        <v>54</v>
+      </c>
+      <c r="C265" t="str">
+        <f t="shared" si="365"/>
+        <v>0x036</v>
+      </c>
+      <c r="D265" t="s">
+        <v>248</v>
+      </c>
+      <c r="F265" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="G265" s="11">
+        <v>41</v>
+      </c>
+      <c r="H265" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I265">
+        <f t="shared" si="376"/>
+        <v>0</v>
+      </c>
+      <c r="N265" s="16" t="str">
+        <f t="shared" si="377"/>
+        <v>101001</v>
+      </c>
+      <c r="O265" s="17" t="str">
+        <f t="shared" si="378"/>
+        <v>000</v>
+      </c>
+      <c r="P265" s="17" t="str">
+        <f t="shared" si="379"/>
+        <v/>
+      </c>
+      <c r="Q265" s="17" t="str">
+        <f t="shared" si="380"/>
+        <v/>
+      </c>
+      <c r="R265" s="17" t="str">
+        <f t="shared" si="381"/>
+        <v/>
+      </c>
+      <c r="S265" s="18" t="str">
+        <f t="shared" si="382"/>
+        <v/>
+      </c>
+      <c r="T265" t="str">
+        <f t="shared" si="383"/>
+        <v>A4</v>
+      </c>
+      <c r="U265" t="str">
+        <f t="shared" si="384"/>
+        <v>00</v>
+      </c>
+      <c r="V265" s="13" t="str">
+        <f t="shared" si="385"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="266" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B266">
+        <v>57</v>
+      </c>
+      <c r="C266" t="str">
+        <f t="shared" ref="C266:C268" si="386">"0x" &amp; DEC2HEX(B266,3)</f>
+        <v>0x039</v>
+      </c>
+      <c r="D266" t="s">
+        <v>328</v>
+      </c>
+      <c r="F266" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="G266" s="11">
+        <v>5</v>
+      </c>
+      <c r="I266" t="str">
+        <f t="shared" si="376"/>
+        <v/>
+      </c>
+      <c r="L266">
+        <v>6</v>
+      </c>
+      <c r="N266" s="16" t="str">
+        <f t="shared" si="377"/>
+        <v>000101</v>
+      </c>
+      <c r="O266" s="17" t="str">
+        <f t="shared" si="378"/>
+        <v/>
+      </c>
+      <c r="P266" s="17" t="str">
+        <f t="shared" si="379"/>
+        <v/>
+      </c>
+      <c r="Q266" s="17" t="str">
+        <f t="shared" si="380"/>
+        <v/>
+      </c>
+      <c r="R266" s="17" t="str">
+        <f t="shared" si="381"/>
+        <v>00000110</v>
+      </c>
+      <c r="S266" s="18" t="str">
+        <f t="shared" si="382"/>
+        <v/>
+      </c>
+      <c r="T266" t="str">
+        <f t="shared" si="383"/>
+        <v>14</v>
+      </c>
+      <c r="U266" t="str">
+        <f t="shared" si="384"/>
+        <v>00</v>
+      </c>
+      <c r="V266" s="13" t="str">
+        <f t="shared" si="385"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="267" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A267" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="B267">
+        <v>60</v>
+      </c>
+      <c r="C267" t="str">
+        <f t="shared" si="386"/>
+        <v>0x03C</v>
+      </c>
+      <c r="D267" t="s">
+        <v>296</v>
+      </c>
+      <c r="F267" s="8"/>
+      <c r="G267" s="11">
+        <v>1</v>
+      </c>
+      <c r="H267" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I267">
+        <f t="shared" ref="I267:I268" si="387">IF(H267="", "", VLOOKUP(H267, $X$3:$Y$10, 2))</f>
+        <v>0</v>
+      </c>
+      <c r="M267">
+        <v>7</v>
+      </c>
+      <c r="N267" s="16" t="str">
+        <f t="shared" ref="N267:N268" si="388">IF(G267="", "", TEXT(DEC2BIN(G267), "000000"))</f>
+        <v>000001</v>
+      </c>
+      <c r="O267" s="17" t="str">
+        <f t="shared" ref="O267:O268" si="389">IF(I267="", "", TEXT(DEC2BIN(I267), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="P267" s="17" t="str">
+        <f t="shared" ref="P267:P268" si="390">IF(J267="", "", TEXT(DEC2BIN(J267), "000"))</f>
+        <v/>
+      </c>
+      <c r="Q267" s="17" t="str">
+        <f t="shared" ref="Q267:Q268" si="391">IF(K267="", "", TEXT(DEC2BIN(K267), "000"))</f>
+        <v/>
+      </c>
+      <c r="R267" s="17" t="str">
+        <f t="shared" ref="R267:R268" si="392">IF(L267="", "", TEXT(DEC2BIN(L267), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="S267" s="18" t="str">
+        <f t="shared" ref="S267:S268" si="393">IF(M267="", "", TEXT(DEC2BIN(M267), "00000000"))</f>
+        <v>00000111</v>
+      </c>
+      <c r="T267" t="str">
+        <f t="shared" ref="T267:T268" si="394">BIN2HEX(LEFT(CONCATENATE(N267,IF(O267="", "000", O267)), 8), 2)</f>
+        <v>04</v>
+      </c>
+      <c r="U267" t="str">
+        <f t="shared" ref="U267:U268" si="395">BIN2HEX(CONCATENATE(RIGHT(O267, 1), IF(P267 = "", "000", P267), IF(Q267 = "", "000", Q267), "0"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="V267" s="13" t="str">
+        <f t="shared" ref="V267:V268" si="396">IF(R267="", BIN2HEX(S267, 2), BIN2HEX(R267,2))</f>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="268" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B268">
+        <v>63</v>
+      </c>
+      <c r="C268" t="str">
+        <f t="shared" si="386"/>
+        <v>0x03F</v>
+      </c>
+      <c r="D268" t="s">
+        <v>317</v>
+      </c>
+      <c r="F268" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="G268" s="11">
+        <v>5</v>
+      </c>
+      <c r="I268" t="str">
+        <f t="shared" si="387"/>
+        <v/>
+      </c>
+      <c r="L268">
+        <v>0</v>
+      </c>
+      <c r="N268" s="16" t="str">
+        <f t="shared" si="388"/>
+        <v>000101</v>
+      </c>
+      <c r="O268" s="17" t="str">
+        <f t="shared" si="389"/>
+        <v/>
+      </c>
+      <c r="P268" s="17" t="str">
+        <f t="shared" si="390"/>
+        <v/>
+      </c>
+      <c r="Q268" s="17" t="str">
+        <f t="shared" si="391"/>
+        <v/>
+      </c>
+      <c r="R268" s="17" t="str">
+        <f t="shared" si="392"/>
+        <v>00000000</v>
+      </c>
+      <c r="S268" s="18" t="str">
+        <f t="shared" si="393"/>
+        <v/>
+      </c>
+      <c r="T268" t="str">
+        <f t="shared" si="394"/>
+        <v>14</v>
+      </c>
+      <c r="U268" t="str">
+        <f t="shared" si="395"/>
+        <v>00</v>
+      </c>
+      <c r="V268" s="13" t="str">
+        <f t="shared" si="396"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="270" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="F270" s="8"/>
     </row>
   </sheetData>
   <sortState ref="X16:Y18">
@@ -14085,7 +15508,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z17">
       <formula1>$X$16:$X$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H6 H9:H11 H201:H224 H141:H149 H102:H112 H117:H132 H83:H93 H49 H41:H42 H31:H33 H17:H26 H229:H242 H154:H174">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H6 H9:H11 H201:H224 H141:H149 H102:H112 H117:H132 H83:H93 H49 H41:H42 H31:H33 H17:H26 H229:H242 H154:H174 H247:H268">
       <formula1>$X$3:$X$10</formula1>
     </dataValidation>
   </dataValidations>

--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="333">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -1060,9 +1060,6 @@
     <t>// If A = 0 then to reset_a</t>
   </si>
   <si>
-    <t>JP Z, 0x3c</t>
-  </si>
-  <si>
     <t>LD F, 0</t>
   </si>
   <si>
@@ -1072,10 +1069,22 @@
     <t>// restart from the very beginning</t>
   </si>
   <si>
-    <t>JP 0x6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">// Constant to </t>
+    <t>LD B, A</t>
+  </si>
+  <si>
+    <t>// saves register A value (for this subroutine)</t>
+  </si>
+  <si>
+    <t>JP 0xf</t>
+  </si>
+  <si>
+    <t>JP Z, 0x27</t>
+  </si>
+  <si>
+    <t>JP Z, 0x42</t>
+  </si>
+  <si>
+    <t>JP 0x9</t>
   </si>
 </sst>
 </file>
@@ -4996,11 +5005,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA270"/>
+  <dimension ref="A1:AA272"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L253" sqref="L253"/>
+      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T270" sqref="T247:V270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5022,6 +5031,7 @@
     <col min="19" max="19" width="10.85546875" style="18" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="3.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -13963,7 +13973,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="241" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B241">
         <v>36</v>
       </c>
@@ -14027,7 +14037,7 @@
         <v>08</v>
       </c>
     </row>
-    <row r="242" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B242">
         <v>39</v>
       </c>
@@ -14092,27 +14102,27 @@
         <v>00</v>
       </c>
     </row>
-    <row r="243" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F243" s="8"/>
     </row>
-    <row r="244" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F244" s="8"/>
     </row>
-    <row r="245" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F245" s="8"/>
     </row>
-    <row r="246" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D246" s="8" t="s">
         <v>316</v>
       </c>
       <c r="F246" s="8"/>
     </row>
-    <row r="247" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B247">
         <v>0</v>
       </c>
       <c r="C247" t="str">
-        <f t="shared" ref="C247:C260" si="240">"0x" &amp; DEC2HEX(B247,3)</f>
+        <f t="shared" ref="C247:C251" si="240">"0x" &amp; DEC2HEX(B247,3)</f>
         <v>0x000</v>
       </c>
       <c r="D247" t="s">
@@ -14143,35 +14153,36 @@
         <v>000</v>
       </c>
       <c r="P247" s="17" t="str">
-        <f t="shared" ref="P247:P261" si="241">IF(J247="", "", TEXT(DEC2BIN(J247), "000"))</f>
+        <f t="shared" ref="P247:P263" si="241">IF(J247="", "", TEXT(DEC2BIN(J247), "000"))</f>
         <v/>
       </c>
       <c r="Q247" s="17" t="str">
-        <f t="shared" ref="Q247:Q261" si="242">IF(K247="", "", TEXT(DEC2BIN(K247), "000"))</f>
+        <f t="shared" ref="Q247:Q263" si="242">IF(K247="", "", TEXT(DEC2BIN(K247), "000"))</f>
         <v/>
       </c>
       <c r="R247" s="17" t="str">
-        <f t="shared" ref="R247:R261" si="243">IF(L247="", "", TEXT(DEC2BIN(L247), "00000000"))</f>
+        <f t="shared" ref="R247:R263" si="243">IF(L247="", "", TEXT(DEC2BIN(L247), "00000000"))</f>
         <v/>
       </c>
       <c r="S247" s="18" t="str">
-        <f t="shared" ref="S247:S261" si="244">IF(M247="", "", TEXT(DEC2BIN(M247), "00000000"))</f>
+        <f t="shared" ref="S247:S263" si="244">IF(M247="", "", TEXT(DEC2BIN(M247), "00000000"))</f>
         <v>00000111</v>
       </c>
       <c r="T247" t="str">
-        <f t="shared" ref="T247:T261" si="245">BIN2HEX(LEFT(CONCATENATE(N247,IF(O247="", "000", O247)), 8), 2)</f>
+        <f t="shared" ref="T247:T263" si="245">BIN2HEX(LEFT(CONCATENATE(N247,IF(O247="", "000", O247)), 8), 2)</f>
         <v>04</v>
       </c>
       <c r="U247" t="str">
-        <f t="shared" ref="U247:U261" si="246">BIN2HEX(CONCATENATE(RIGHT(O247, 1), IF(P247 = "", "000", P247), IF(Q247 = "", "000", Q247), "0"), 2)</f>
+        <f t="shared" ref="U247:U263" si="246">BIN2HEX(CONCATENATE(RIGHT(O247, 1), IF(P247 = "", "000", P247), IF(Q247 = "", "000", Q247), "0"), 2)</f>
         <v>00</v>
       </c>
       <c r="V247" s="13" t="str">
-        <f t="shared" ref="V247:V261" si="247">IF(R247="", BIN2HEX(S247, 2), BIN2HEX(R247,2))</f>
+        <f t="shared" ref="V247:V263" si="247">IF(R247="", BIN2HEX(S247, 2), BIN2HEX(R247,2))</f>
         <v>07</v>
       </c>
-    </row>
-    <row r="248" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y247" s="13"/>
+    </row>
+    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B248">
         <v>3</v>
       </c>
@@ -14232,100 +14243,100 @@
         <f t="shared" si="247"/>
         <v>00</v>
       </c>
-    </row>
-    <row r="249" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A249" s="49" t="s">
-        <v>284</v>
-      </c>
+      <c r="Y248" s="13"/>
+    </row>
+    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B249">
         <v>6</v>
       </c>
       <c r="C249" t="str">
-        <f t="shared" si="240"/>
+        <f t="shared" ref="C249:C270" si="248">"0x" &amp; DEC2HEX(B249,3)</f>
         <v>0x006</v>
       </c>
       <c r="D249" t="s">
-        <v>281</v>
-      </c>
-      <c r="F249" s="8" t="s">
-        <v>282</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="F249" s="8"/>
       <c r="G249" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H249" s="12" t="s">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="I249">
         <f>IF(H249="", "", VLOOKUP(H249, $X$3:$Y$10, 2))</f>
-        <v>2</v>
-      </c>
-      <c r="M249">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
       </c>
       <c r="N249" s="16" t="str">
         <f>IF(G249="", "", TEXT(DEC2BIN(G249), "000000"))</f>
-        <v>000001</v>
+        <v>000010</v>
       </c>
       <c r="O249" s="17" t="str">
         <f>IF(I249="", "", TEXT(DEC2BIN(I249), "000"))</f>
-        <v>010</v>
+        <v>001</v>
       </c>
       <c r="P249" s="17" t="str">
-        <f t="shared" si="241"/>
-        <v/>
+        <f>IF(J249="", "", TEXT(DEC2BIN(J249), "000"))</f>
+        <v>000</v>
       </c>
       <c r="Q249" s="17" t="str">
-        <f t="shared" si="242"/>
+        <f>IF(K249="", "", TEXT(DEC2BIN(K249), "000"))</f>
         <v/>
       </c>
       <c r="R249" s="17" t="str">
-        <f t="shared" si="243"/>
+        <f>IF(L249="", "", TEXT(DEC2BIN(L249), "00000000"))</f>
         <v/>
       </c>
       <c r="S249" s="18" t="str">
-        <f t="shared" si="244"/>
-        <v>00000001</v>
+        <f>IF(M249="", "", TEXT(DEC2BIN(M249), "00000000"))</f>
+        <v/>
       </c>
       <c r="T249" t="str">
-        <f t="shared" si="245"/>
-        <v>05</v>
+        <f>BIN2HEX(LEFT(CONCATENATE(N249,IF(O249="", "000", O249)), 8), 2)</f>
+        <v>08</v>
       </c>
       <c r="U249" t="str">
-        <f t="shared" si="246"/>
-        <v>00</v>
+        <f>BIN2HEX(CONCATENATE(RIGHT(O249, 1), IF(P249 = "", "000", P249), IF(Q249 = "", "000", Q249), "0"), 2)</f>
+        <v>80</v>
       </c>
       <c r="V249" s="13" t="str">
-        <f t="shared" si="247"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="250" spans="1:22" x14ac:dyDescent="0.25">
+        <f>IF(R249="", BIN2HEX(S249, 2), BIN2HEX(R249,2))</f>
+        <v>00</v>
+      </c>
+      <c r="Y249" s="13"/>
+    </row>
+    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A250" s="49" t="s">
+        <v>284</v>
+      </c>
       <c r="B250">
         <v>9</v>
       </c>
       <c r="C250" t="str">
-        <f t="shared" si="240"/>
+        <f t="shared" si="248"/>
         <v>0x009</v>
       </c>
       <c r="D250" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F250" s="8" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
       <c r="G250" s="11">
         <v>1</v>
       </c>
       <c r="H250" s="12" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="I250">
         <f>IF(H250="", "", VLOOKUP(H250, $X$3:$Y$10, 2))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M250">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N250" s="16" t="str">
         <f>IF(G250="", "", TEXT(DEC2BIN(G250), "000000"))</f>
@@ -14333,7 +14344,7 @@
       </c>
       <c r="O250" s="17" t="str">
         <f>IF(I250="", "", TEXT(DEC2BIN(I250), "000"))</f>
-        <v>100</v>
+        <v>010</v>
       </c>
       <c r="P250" s="17" t="str">
         <f t="shared" si="241"/>
@@ -14349,11 +14360,11 @@
       </c>
       <c r="S250" s="18" t="str">
         <f t="shared" si="244"/>
-        <v>00000111</v>
+        <v>00000001</v>
       </c>
       <c r="T250" t="str">
         <f t="shared" si="245"/>
-        <v>06</v>
+        <v>05</v>
       </c>
       <c r="U250" t="str">
         <f t="shared" si="246"/>
@@ -14361,50 +14372,46 @@
       </c>
       <c r="V250" s="13" t="str">
         <f t="shared" si="247"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="251" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A251" s="49" t="s">
-        <v>289</v>
-      </c>
+        <v>01</v>
+      </c>
+      <c r="Y250" s="13"/>
+    </row>
+    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B251">
         <v>12</v>
       </c>
       <c r="C251" t="str">
-        <f t="shared" si="240"/>
+        <f t="shared" si="248"/>
         <v>0x00C</v>
       </c>
       <c r="D251" t="s">
-        <v>285</v>
-      </c>
-      <c r="F251" s="8" t="s">
-        <v>286</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="F251" s="8"/>
       <c r="G251" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H251" s="12" t="s">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="I251">
         <f>IF(H251="", "", VLOOKUP(H251, $X$3:$Y$10, 2))</f>
-        <v>3</v>
-      </c>
-      <c r="J251">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="M251">
+        <v>7</v>
       </c>
       <c r="N251" s="16" t="str">
         <f>IF(G251="", "", TEXT(DEC2BIN(G251), "000000"))</f>
-        <v>000010</v>
+        <v>000001</v>
       </c>
       <c r="O251" s="17" t="str">
         <f>IF(I251="", "", TEXT(DEC2BIN(I251), "000"))</f>
-        <v>011</v>
+        <v>100</v>
       </c>
       <c r="P251" s="17" t="str">
         <f t="shared" si="241"/>
-        <v>000</v>
+        <v/>
       </c>
       <c r="Q251" s="17" t="str">
         <f t="shared" si="242"/>
@@ -14416,532 +14423,540 @@
       </c>
       <c r="S251" s="18" t="str">
         <f t="shared" si="244"/>
-        <v/>
+        <v>00000111</v>
       </c>
       <c r="T251" t="str">
         <f t="shared" si="245"/>
-        <v>09</v>
+        <v>06</v>
       </c>
       <c r="U251" t="str">
         <f t="shared" si="246"/>
-        <v>80</v>
+        <v>00</v>
       </c>
       <c r="V251" s="13" t="str">
         <f t="shared" si="247"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="252" spans="1:22" x14ac:dyDescent="0.25">
+        <v>07</v>
+      </c>
+      <c r="Y251" s="13"/>
+    </row>
+    <row r="252" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A252" s="49" t="s">
+        <v>289</v>
+      </c>
       <c r="B252">
         <v>15</v>
       </c>
       <c r="C252" t="str">
-        <f t="shared" si="240"/>
+        <f t="shared" si="248"/>
         <v>0x00F</v>
       </c>
       <c r="D252" t="s">
-        <v>287</v>
-      </c>
-      <c r="F252" s="8"/>
+        <v>51</v>
+      </c>
       <c r="G252" s="11">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="H252" s="12" t="s">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="I252">
         <f>IF(H252="", "", VLOOKUP(H252, $X$3:$Y$10, 2))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J252">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N252" s="16" t="str">
         <f>IF(G252="", "", TEXT(DEC2BIN(G252), "000000"))</f>
-        <v>100001</v>
+        <v>000010</v>
       </c>
       <c r="O252" s="17" t="str">
         <f>IF(I252="", "", TEXT(DEC2BIN(I252), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="P252" s="17" t="str">
+        <f t="shared" ref="P252" si="249">IF(J252="", "", TEXT(DEC2BIN(J252), "000"))</f>
+        <v>001</v>
+      </c>
+      <c r="Q252" s="17" t="str">
+        <f t="shared" ref="Q252" si="250">IF(K252="", "", TEXT(DEC2BIN(K252), "000"))</f>
+        <v/>
+      </c>
+      <c r="R252" s="17" t="str">
+        <f t="shared" ref="R252" si="251">IF(L252="", "", TEXT(DEC2BIN(L252), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="S252" s="18" t="str">
+        <f t="shared" ref="S252" si="252">IF(M252="", "", TEXT(DEC2BIN(M252), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="T252" t="str">
+        <f t="shared" ref="T252" si="253">BIN2HEX(LEFT(CONCATENATE(N252,IF(O252="", "000", O252)), 8), 2)</f>
+        <v>08</v>
+      </c>
+      <c r="U252" t="str">
+        <f t="shared" ref="U252" si="254">BIN2HEX(CONCATENATE(RIGHT(O252, 1), IF(P252 = "", "000", P252), IF(Q252 = "", "000", Q252), "0"), 2)</f>
+        <v>10</v>
+      </c>
+      <c r="V252" s="13" t="str">
+        <f t="shared" ref="V252" si="255">IF(R252="", BIN2HEX(S252, 2), BIN2HEX(R252,2))</f>
+        <v>00</v>
+      </c>
+      <c r="Y252" s="13"/>
+    </row>
+    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B253">
+        <v>18</v>
+      </c>
+      <c r="C253" t="str">
+        <f t="shared" si="248"/>
+        <v>0x012</v>
+      </c>
+      <c r="D253" t="s">
+        <v>285</v>
+      </c>
+      <c r="F253" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="G253" s="11">
+        <v>2</v>
+      </c>
+      <c r="H253" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I253">
+        <f>IF(H253="", "", VLOOKUP(H253, $X$3:$Y$10, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="N253" s="16" t="str">
+        <f>IF(G253="", "", TEXT(DEC2BIN(G253), "000000"))</f>
+        <v>000010</v>
+      </c>
+      <c r="O253" s="17" t="str">
+        <f>IF(I253="", "", TEXT(DEC2BIN(I253), "000"))</f>
         <v>011</v>
       </c>
-      <c r="P252" s="17" t="str">
+      <c r="P253" s="17" t="str">
+        <f t="shared" si="241"/>
+        <v>000</v>
+      </c>
+      <c r="Q253" s="17" t="str">
+        <f t="shared" si="242"/>
+        <v/>
+      </c>
+      <c r="R253" s="17" t="str">
+        <f t="shared" si="243"/>
+        <v/>
+      </c>
+      <c r="S253" s="18" t="str">
+        <f t="shared" si="244"/>
+        <v/>
+      </c>
+      <c r="T253" t="str">
+        <f t="shared" si="245"/>
+        <v>09</v>
+      </c>
+      <c r="U253" t="str">
+        <f t="shared" si="246"/>
+        <v>80</v>
+      </c>
+      <c r="V253" s="13" t="str">
+        <f t="shared" si="247"/>
+        <v>00</v>
+      </c>
+      <c r="Y253" s="13"/>
+    </row>
+    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B254">
+        <v>21</v>
+      </c>
+      <c r="C254" t="str">
+        <f t="shared" si="248"/>
+        <v>0x015</v>
+      </c>
+      <c r="D254" t="s">
+        <v>287</v>
+      </c>
+      <c r="F254" s="8"/>
+      <c r="G254" s="11">
+        <v>33</v>
+      </c>
+      <c r="H254" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I254">
+        <f>IF(H254="", "", VLOOKUP(H254, $X$3:$Y$10, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="J254">
+        <v>4</v>
+      </c>
+      <c r="N254" s="16" t="str">
+        <f>IF(G254="", "", TEXT(DEC2BIN(G254), "000000"))</f>
+        <v>100001</v>
+      </c>
+      <c r="O254" s="17" t="str">
+        <f>IF(I254="", "", TEXT(DEC2BIN(I254), "000"))</f>
+        <v>011</v>
+      </c>
+      <c r="P254" s="17" t="str">
         <f t="shared" si="241"/>
         <v>100</v>
       </c>
-      <c r="Q252" s="17" t="str">
+      <c r="Q254" s="17" t="str">
         <f t="shared" si="242"/>
         <v/>
       </c>
-      <c r="R252" s="17" t="str">
+      <c r="R254" s="17" t="str">
         <f t="shared" si="243"/>
         <v/>
       </c>
-      <c r="S252" s="18" t="str">
+      <c r="S254" s="18" t="str">
         <f t="shared" si="244"/>
         <v/>
       </c>
-      <c r="T252" t="str">
+      <c r="T254" t="str">
         <f t="shared" si="245"/>
         <v>85</v>
       </c>
-      <c r="U252" t="str">
+      <c r="U254" t="str">
         <f t="shared" si="246"/>
         <v>C0</v>
       </c>
-      <c r="V252" s="13" t="str">
+      <c r="V254" s="13" t="str">
         <f t="shared" si="247"/>
         <v>00</v>
       </c>
-    </row>
-    <row r="253" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B253">
-        <v>18</v>
-      </c>
-      <c r="C253" t="str">
-        <f t="shared" si="240"/>
-        <v>0x012</v>
-      </c>
-      <c r="D253" t="s">
-        <v>295</v>
-      </c>
-      <c r="F253" s="8"/>
-      <c r="G253" s="11">
+      <c r="Y254" s="13"/>
+    </row>
+    <row r="255" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B255">
+        <v>24</v>
+      </c>
+      <c r="C255" t="str">
+        <f t="shared" si="248"/>
+        <v>0x018</v>
+      </c>
+      <c r="D255" t="s">
+        <v>330</v>
+      </c>
+      <c r="F255" s="8"/>
+      <c r="G255" s="11">
         <v>6</v>
       </c>
-      <c r="I253" t="str">
-        <f>IF(H253="", "", VLOOKUP(H253, $X$3:$Y$10, 2))</f>
-        <v/>
-      </c>
-      <c r="L253">
-        <v>33</v>
-      </c>
-      <c r="N253" s="16" t="str">
-        <f>IF(G253="", "", TEXT(DEC2BIN(G253), "000000"))</f>
+      <c r="I255" t="str">
+        <f>IF(H255="", "", VLOOKUP(H255, $X$3:$Y$10, 2))</f>
+        <v/>
+      </c>
+      <c r="L255">
+        <v>39</v>
+      </c>
+      <c r="N255" s="16" t="str">
+        <f>IF(G255="", "", TEXT(DEC2BIN(G255), "000000"))</f>
         <v>000110</v>
       </c>
-      <c r="O253" s="17" t="str">
-        <f>IF(I253="", "", TEXT(DEC2BIN(I253), "000"))</f>
-        <v/>
-      </c>
-      <c r="P253" s="17" t="str">
+      <c r="O255" s="17" t="str">
+        <f>IF(I255="", "", TEXT(DEC2BIN(I255), "000"))</f>
+        <v/>
+      </c>
+      <c r="P255" s="17" t="str">
         <f t="shared" si="241"/>
         <v/>
       </c>
-      <c r="Q253" s="17" t="str">
+      <c r="Q255" s="17" t="str">
         <f t="shared" si="242"/>
         <v/>
       </c>
-      <c r="R253" s="17" t="str">
+      <c r="R255" s="17" t="str">
         <f t="shared" si="243"/>
-        <v>00100001</v>
-      </c>
-      <c r="S253" s="18" t="str">
+        <v>00100111</v>
+      </c>
+      <c r="S255" s="18" t="str">
         <f t="shared" si="244"/>
         <v/>
       </c>
-      <c r="T253" t="str">
+      <c r="T255" t="str">
         <f t="shared" si="245"/>
         <v>18</v>
       </c>
-      <c r="U253" t="str">
+      <c r="U255" t="str">
         <f t="shared" si="246"/>
         <v>00</v>
       </c>
-      <c r="V253" s="13" t="str">
+      <c r="V255" s="13" t="str">
         <f t="shared" si="247"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="254" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B254">
-        <v>21</v>
-      </c>
-      <c r="C254" t="str">
-        <f t="shared" si="240"/>
-        <v>0x015</v>
-      </c>
-      <c r="D254" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y255" s="13"/>
+    </row>
+    <row r="256" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B256">
+        <v>27</v>
+      </c>
+      <c r="C256" t="str">
+        <f t="shared" si="248"/>
+        <v>0x01B</v>
+      </c>
+      <c r="D256" t="s">
         <v>293</v>
       </c>
-      <c r="F254" s="8"/>
-      <c r="G254" s="11">
+      <c r="F256" s="8"/>
+      <c r="G256" s="11">
         <v>2</v>
       </c>
-      <c r="H254" s="12" t="s">
+      <c r="H256" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I254">
-        <f>IF(H254="", "", VLOOKUP(H254, $X$3:$Y$10, 2))</f>
+      <c r="I256">
+        <f>IF(H256="", "", VLOOKUP(H256, $X$3:$Y$10, 2))</f>
         <v>5</v>
       </c>
-      <c r="J254">
+      <c r="J256">
         <v>2</v>
       </c>
-      <c r="N254" s="16" t="str">
-        <f>IF(G254="", "", TEXT(DEC2BIN(G254), "000000"))</f>
+      <c r="N256" s="16" t="str">
+        <f>IF(G256="", "", TEXT(DEC2BIN(G256), "000000"))</f>
         <v>000010</v>
       </c>
-      <c r="O254" s="17" t="str">
-        <f>IF(I254="", "", TEXT(DEC2BIN(I254), "000"))</f>
+      <c r="O256" s="17" t="str">
+        <f>IF(I256="", "", TEXT(DEC2BIN(I256), "000"))</f>
         <v>101</v>
       </c>
-      <c r="P254" s="17" t="str">
+      <c r="P256" s="17" t="str">
         <f t="shared" si="241"/>
         <v>010</v>
       </c>
-      <c r="Q254" s="17" t="str">
+      <c r="Q256" s="17" t="str">
         <f t="shared" si="242"/>
         <v/>
       </c>
-      <c r="R254" s="17" t="str">
+      <c r="R256" s="17" t="str">
         <f t="shared" si="243"/>
         <v/>
       </c>
-      <c r="S254" s="18" t="str">
+      <c r="S256" s="18" t="str">
         <f t="shared" si="244"/>
         <v/>
       </c>
-      <c r="T254" t="str">
+      <c r="T256" t="str">
         <f t="shared" si="245"/>
         <v>0A</v>
       </c>
-      <c r="U254" t="str">
+      <c r="U256" t="str">
         <f t="shared" si="246"/>
         <v>A0</v>
       </c>
-      <c r="V254" s="13" t="str">
+      <c r="V256" s="13" t="str">
         <f t="shared" si="247"/>
         <v>00</v>
       </c>
-    </row>
-    <row r="255" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B255">
-        <v>24</v>
-      </c>
-      <c r="C255" t="str">
-        <f t="shared" si="240"/>
-        <v>0x018</v>
-      </c>
-      <c r="D255" t="s">
+      <c r="Y256" s="13"/>
+    </row>
+    <row r="257" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B257">
+        <v>30</v>
+      </c>
+      <c r="C257" t="str">
+        <f t="shared" si="248"/>
+        <v>0x01E</v>
+      </c>
+      <c r="D257" t="s">
         <v>294</v>
       </c>
-      <c r="F255" s="8" t="s">
+      <c r="F257" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="G255" s="11">
+      <c r="G257" s="11">
         <v>32</v>
       </c>
-      <c r="H255" s="12" t="s">
+      <c r="H257" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="I255">
-        <f>IF(H255="", "", VLOOKUP(H255, $X$3:$Y$10, 2))</f>
+      <c r="I257">
+        <f>IF(H257="", "", VLOOKUP(H257, $X$3:$Y$10, 2))</f>
         <v>2</v>
       </c>
-      <c r="J255">
+      <c r="J257">
         <v>5</v>
       </c>
-      <c r="N255" s="16" t="str">
-        <f>IF(G255="", "", TEXT(DEC2BIN(G255), "000000"))</f>
+      <c r="N257" s="16" t="str">
+        <f>IF(G257="", "", TEXT(DEC2BIN(G257), "000000"))</f>
         <v>100000</v>
       </c>
-      <c r="O255" s="17" t="str">
-        <f>IF(I255="", "", TEXT(DEC2BIN(I255), "000"))</f>
+      <c r="O257" s="17" t="str">
+        <f>IF(I257="", "", TEXT(DEC2BIN(I257), "000"))</f>
         <v>010</v>
       </c>
-      <c r="P255" s="17" t="str">
+      <c r="P257" s="17" t="str">
         <f t="shared" si="241"/>
         <v>101</v>
       </c>
-      <c r="Q255" s="17" t="str">
+      <c r="Q257" s="17" t="str">
         <f t="shared" si="242"/>
         <v/>
       </c>
-      <c r="R255" s="17" t="str">
+      <c r="R257" s="17" t="str">
         <f t="shared" si="243"/>
         <v/>
       </c>
-      <c r="S255" s="18" t="str">
+      <c r="S257" s="18" t="str">
         <f t="shared" si="244"/>
         <v/>
       </c>
-      <c r="T255" t="str">
+      <c r="T257" t="str">
         <f t="shared" si="245"/>
         <v>81</v>
       </c>
-      <c r="U255" t="str">
+      <c r="U257" t="str">
         <f t="shared" si="246"/>
         <v>50</v>
       </c>
-      <c r="V255" s="13" t="str">
+      <c r="V257" s="13" t="str">
         <f t="shared" si="247"/>
         <v>00</v>
       </c>
-    </row>
-    <row r="256" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B256">
-        <v>27</v>
-      </c>
-      <c r="C256" t="str">
-        <f t="shared" si="240"/>
-        <v>0x01B</v>
-      </c>
-      <c r="D256" t="s">
+      <c r="Y257" s="13"/>
+    </row>
+    <row r="258" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B258">
+        <v>33</v>
+      </c>
+      <c r="C258" t="str">
+        <f t="shared" si="248"/>
+        <v>0x021</v>
+      </c>
+      <c r="D258" t="s">
         <v>179</v>
       </c>
-      <c r="F256" s="8"/>
-      <c r="G256" s="11">
+      <c r="F258" s="8"/>
+      <c r="G258" s="11">
         <v>40</v>
       </c>
-      <c r="H256" s="12" t="s">
+      <c r="H258" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I256">
-        <f>IF(H256="", "", VLOOKUP(H256, $X$3:$Y$10, 2))</f>
-        <v>0</v>
-      </c>
-      <c r="N256" s="16" t="str">
-        <f>IF(G256="", "", TEXT(DEC2BIN(G256), "000000"))</f>
+      <c r="I258">
+        <f>IF(H258="", "", VLOOKUP(H258, $X$3:$Y$10, 2))</f>
+        <v>0</v>
+      </c>
+      <c r="N258" s="16" t="str">
+        <f>IF(G258="", "", TEXT(DEC2BIN(G258), "000000"))</f>
         <v>101000</v>
       </c>
-      <c r="O256" s="17" t="str">
-        <f>IF(I256="", "", TEXT(DEC2BIN(I256), "000"))</f>
+      <c r="O258" s="17" t="str">
+        <f>IF(I258="", "", TEXT(DEC2BIN(I258), "000"))</f>
         <v>000</v>
       </c>
-      <c r="P256" s="17" t="str">
+      <c r="P258" s="17" t="str">
         <f t="shared" si="241"/>
         <v/>
       </c>
-      <c r="Q256" s="17" t="str">
+      <c r="Q258" s="17" t="str">
         <f t="shared" si="242"/>
         <v/>
       </c>
-      <c r="R256" s="17" t="str">
+      <c r="R258" s="17" t="str">
         <f t="shared" si="243"/>
         <v/>
       </c>
-      <c r="S256" s="18" t="str">
+      <c r="S258" s="18" t="str">
         <f t="shared" si="244"/>
         <v/>
       </c>
-      <c r="T256" t="str">
+      <c r="T258" t="str">
         <f t="shared" si="245"/>
         <v>A0</v>
       </c>
-      <c r="U256" t="str">
+      <c r="U258" t="str">
         <f t="shared" si="246"/>
         <v>00</v>
       </c>
-      <c r="V256" s="13" t="str">
+      <c r="V258" s="13" t="str">
         <f t="shared" si="247"/>
         <v>00</v>
       </c>
-    </row>
-    <row r="257" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B257">
-        <v>30</v>
-      </c>
-      <c r="C257" t="str">
-        <f t="shared" si="240"/>
-        <v>0x01E</v>
-      </c>
-      <c r="D257" t="s">
-        <v>291</v>
-      </c>
-      <c r="F257" s="8"/>
-      <c r="G257" s="11">
+      <c r="Y258" s="13"/>
+    </row>
+    <row r="259" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B259">
+        <v>36</v>
+      </c>
+      <c r="C259" t="str">
+        <f t="shared" si="248"/>
+        <v>0x024</v>
+      </c>
+      <c r="D259" t="s">
+        <v>329</v>
+      </c>
+      <c r="F259" s="8"/>
+      <c r="G259" s="11">
         <v>5</v>
       </c>
-      <c r="I257" t="str">
-        <f>IF(H257="", "", VLOOKUP(H257, $X$3:$Y$10, 2))</f>
-        <v/>
-      </c>
-      <c r="L257">
-        <v>12</v>
-      </c>
-      <c r="N257" s="16" t="str">
-        <f>IF(G257="", "", TEXT(DEC2BIN(G257), "000000"))</f>
+      <c r="I259" t="str">
+        <f>IF(H259="", "", VLOOKUP(H259, $X$3:$Y$10, 2))</f>
+        <v/>
+      </c>
+      <c r="L259">
+        <v>15</v>
+      </c>
+      <c r="N259" s="16" t="str">
+        <f>IF(G259="", "", TEXT(DEC2BIN(G259), "000000"))</f>
         <v>000101</v>
       </c>
-      <c r="O257" s="17" t="str">
-        <f>IF(I257="", "", TEXT(DEC2BIN(I257), "000"))</f>
-        <v/>
-      </c>
-      <c r="P257" s="17" t="str">
+      <c r="O259" s="17" t="str">
+        <f>IF(I259="", "", TEXT(DEC2BIN(I259), "000"))</f>
+        <v/>
+      </c>
+      <c r="P259" s="17" t="str">
         <f t="shared" si="241"/>
         <v/>
       </c>
-      <c r="Q257" s="17" t="str">
+      <c r="Q259" s="17" t="str">
         <f t="shared" si="242"/>
         <v/>
       </c>
-      <c r="R257" s="17" t="str">
+      <c r="R259" s="17" t="str">
         <f t="shared" si="243"/>
-        <v>00001100</v>
-      </c>
-      <c r="S257" s="18" t="str">
+        <v>00001111</v>
+      </c>
+      <c r="S259" s="18" t="str">
         <f t="shared" si="244"/>
         <v/>
       </c>
-      <c r="T257" t="str">
+      <c r="T259" t="str">
         <f t="shared" si="245"/>
         <v>14</v>
       </c>
-      <c r="U257" t="str">
-        <f t="shared" si="246"/>
-        <v>00</v>
-      </c>
-      <c r="V257" s="13" t="str">
-        <f t="shared" si="247"/>
-        <v>0C</v>
-      </c>
-    </row>
-    <row r="258" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A258" s="49" t="s">
-        <v>290</v>
-      </c>
-      <c r="B258">
-        <v>33</v>
-      </c>
-      <c r="C258" t="str">
-        <f t="shared" si="240"/>
-        <v>0x021</v>
-      </c>
-      <c r="D258" t="s">
-        <v>223</v>
-      </c>
-      <c r="F258" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="G258" s="11">
-        <v>17</v>
-      </c>
-      <c r="H258" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="I258">
-        <f>IF(H258="", "", VLOOKUP(H258, $X$3:$Y$10, 2))</f>
-        <v>2</v>
-      </c>
-      <c r="J258">
-        <v>6</v>
-      </c>
-      <c r="K258">
-        <v>1</v>
-      </c>
-      <c r="N258" s="16" t="str">
-        <f>IF(G258="", "", TEXT(DEC2BIN(G258), "000000"))</f>
-        <v>010001</v>
-      </c>
-      <c r="O258" s="17" t="str">
-        <f>IF(I258="", "", TEXT(DEC2BIN(I258), "000"))</f>
-        <v>010</v>
-      </c>
-      <c r="P258" s="17" t="str">
-        <f t="shared" si="241"/>
-        <v>110</v>
-      </c>
-      <c r="Q258" s="17" t="str">
-        <f t="shared" si="242"/>
-        <v>001</v>
-      </c>
-      <c r="R258" s="17" t="str">
-        <f t="shared" si="243"/>
-        <v/>
-      </c>
-      <c r="S258" s="18" t="str">
-        <f t="shared" si="244"/>
-        <v/>
-      </c>
-      <c r="T258" t="str">
-        <f t="shared" si="245"/>
-        <v>45</v>
-      </c>
-      <c r="U258" t="str">
-        <f t="shared" si="246"/>
-        <v>62</v>
-      </c>
-      <c r="V258" s="13" t="str">
-        <f t="shared" si="247"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="259" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B259">
-        <v>36</v>
-      </c>
-      <c r="C259" t="str">
-        <f t="shared" si="240"/>
-        <v>0x024</v>
-      </c>
-      <c r="D259" t="s">
-        <v>301</v>
-      </c>
-      <c r="F259" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="G259" s="11">
-        <v>1</v>
-      </c>
-      <c r="H259" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I259">
-        <f>IF(H259="", "", VLOOKUP(H259, $X$3:$Y$10, 2))</f>
-        <v>6</v>
-      </c>
-      <c r="M259">
-        <v>8</v>
-      </c>
-      <c r="N259" s="16" t="str">
-        <f>IF(G259="", "", TEXT(DEC2BIN(G259), "000000"))</f>
-        <v>000001</v>
-      </c>
-      <c r="O259" s="17" t="str">
-        <f>IF(I259="", "", TEXT(DEC2BIN(I259), "000"))</f>
-        <v>110</v>
-      </c>
-      <c r="P259" s="17" t="str">
-        <f t="shared" si="241"/>
-        <v/>
-      </c>
-      <c r="Q259" s="17" t="str">
-        <f t="shared" si="242"/>
-        <v/>
-      </c>
-      <c r="R259" s="17" t="str">
-        <f t="shared" si="243"/>
-        <v/>
-      </c>
-      <c r="S259" s="18" t="str">
-        <f t="shared" si="244"/>
-        <v>00001000</v>
-      </c>
-      <c r="T259" t="str">
-        <f t="shared" si="245"/>
-        <v>07</v>
-      </c>
       <c r="U259" t="str">
         <f t="shared" si="246"/>
         <v>00</v>
       </c>
       <c r="V259" s="13" t="str">
         <f t="shared" si="247"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="260" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0F</v>
+      </c>
+      <c r="Y259" s="13"/>
+    </row>
+    <row r="260" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A260" s="49" t="s">
+        <v>290</v>
+      </c>
       <c r="B260">
         <v>39</v>
       </c>
       <c r="C260" t="str">
-        <f t="shared" si="240"/>
+        <f t="shared" si="248"/>
         <v>0x027</v>
       </c>
       <c r="D260" t="s">
         <v>223</v>
       </c>
-      <c r="F260" s="8"/>
+      <c r="F260" s="8" t="s">
+        <v>298</v>
+      </c>
       <c r="G260" s="11">
         <v>17</v>
       </c>
@@ -14994,33 +15009,34 @@
         <f t="shared" si="247"/>
         <v>00</v>
       </c>
-    </row>
-    <row r="261" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y260" s="13"/>
+    </row>
+    <row r="261" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B261">
         <v>42</v>
       </c>
       <c r="C261" t="str">
-        <f t="shared" ref="C261:C265" si="248">"0x" &amp; DEC2HEX(B261,3)</f>
+        <f t="shared" si="248"/>
         <v>0x02A</v>
       </c>
       <c r="D261" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="F261" s="8" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="G261" s="11">
         <v>1</v>
       </c>
       <c r="H261" s="12" t="s">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="I261">
         <f>IF(H261="", "", VLOOKUP(H261, $X$3:$Y$10, 2))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M261">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N261" s="16" t="str">
         <f>IF(G261="", "", TEXT(DEC2BIN(G261), "000000"))</f>
@@ -15028,7 +15044,7 @@
       </c>
       <c r="O261" s="17" t="str">
         <f>IF(I261="", "", TEXT(DEC2BIN(I261), "000"))</f>
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P261" s="17" t="str">
         <f t="shared" si="241"/>
@@ -15044,7 +15060,7 @@
       </c>
       <c r="S261" s="18" t="str">
         <f t="shared" si="244"/>
-        <v>00000000</v>
+        <v>00001000</v>
       </c>
       <c r="T261" t="str">
         <f t="shared" si="245"/>
@@ -15052,14 +15068,15 @@
       </c>
       <c r="U261" t="str">
         <f t="shared" si="246"/>
-        <v>80</v>
+        <v>00</v>
       </c>
       <c r="V261" s="13" t="str">
         <f t="shared" si="247"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="262" spans="1:22" x14ac:dyDescent="0.25">
+        <v>08</v>
+      </c>
+      <c r="Y261" s="13"/>
+    </row>
+    <row r="262" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B262">
         <v>45</v>
       </c>
@@ -15068,62 +15085,64 @@
         <v>0x02D</v>
       </c>
       <c r="D262" t="s">
-        <v>118</v>
-      </c>
-      <c r="F262" s="8" t="s">
-        <v>321</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="F262" s="8"/>
       <c r="G262" s="11">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H262" s="12" t="s">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="I262">
         <f>IF(H262="", "", VLOOKUP(H262, $X$3:$Y$10, 2))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J262">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="K262">
+        <v>1</v>
       </c>
       <c r="N262" s="16" t="str">
         <f>IF(G262="", "", TEXT(DEC2BIN(G262), "000000"))</f>
-        <v>100001</v>
+        <v>010001</v>
       </c>
       <c r="O262" s="17" t="str">
         <f>IF(I262="", "", TEXT(DEC2BIN(I262), "000"))</f>
-        <v>000</v>
+        <v>010</v>
       </c>
       <c r="P262" s="17" t="str">
-        <f t="shared" ref="P262:P263" si="249">IF(J262="", "", TEXT(DEC2BIN(J262), "000"))</f>
-        <v>111</v>
+        <f t="shared" si="241"/>
+        <v>110</v>
       </c>
       <c r="Q262" s="17" t="str">
-        <f t="shared" ref="Q262:Q263" si="250">IF(K262="", "", TEXT(DEC2BIN(K262), "000"))</f>
-        <v/>
+        <f t="shared" si="242"/>
+        <v>001</v>
       </c>
       <c r="R262" s="17" t="str">
-        <f t="shared" ref="R262:R263" si="251">IF(L262="", "", TEXT(DEC2BIN(L262), "00000000"))</f>
+        <f t="shared" si="243"/>
         <v/>
       </c>
       <c r="S262" s="18" t="str">
-        <f t="shared" ref="S262:S263" si="252">IF(M262="", "", TEXT(DEC2BIN(M262), "00000000"))</f>
+        <f t="shared" si="244"/>
         <v/>
       </c>
       <c r="T262" t="str">
-        <f t="shared" ref="T262:T263" si="253">BIN2HEX(LEFT(CONCATENATE(N262,IF(O262="", "000", O262)), 8), 2)</f>
-        <v>84</v>
+        <f t="shared" si="245"/>
+        <v>45</v>
       </c>
       <c r="U262" t="str">
-        <f t="shared" ref="U262:U263" si="254">BIN2HEX(CONCATENATE(RIGHT(O262, 1), IF(P262 = "", "000", P262), IF(Q262 = "", "000", Q262), "0"), 2)</f>
-        <v>70</v>
+        <f t="shared" si="246"/>
+        <v>62</v>
       </c>
       <c r="V262" s="13" t="str">
-        <f t="shared" ref="V262:V263" si="255">IF(R262="", BIN2HEX(S262, 2), BIN2HEX(R262,2))</f>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="263" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="247"/>
+        <v>00</v>
+      </c>
+      <c r="Y262" s="13"/>
+    </row>
+    <row r="263" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B263">
         <v>48</v>
       </c>
@@ -15135,56 +15154,59 @@
         <v>324</v>
       </c>
       <c r="F263" s="8" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G263" s="11">
-        <v>6</v>
-      </c>
-      <c r="I263" t="str">
+        <v>1</v>
+      </c>
+      <c r="H263" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="I263">
         <f>IF(H263="", "", VLOOKUP(H263, $X$3:$Y$10, 2))</f>
-        <v/>
-      </c>
-      <c r="L263">
-        <v>60</v>
+        <v>7</v>
+      </c>
+      <c r="M263">
+        <v>0</v>
       </c>
       <c r="N263" s="16" t="str">
         <f>IF(G263="", "", TEXT(DEC2BIN(G263), "000000"))</f>
-        <v>000110</v>
+        <v>000001</v>
       </c>
       <c r="O263" s="17" t="str">
         <f>IF(I263="", "", TEXT(DEC2BIN(I263), "000"))</f>
-        <v/>
+        <v>111</v>
       </c>
       <c r="P263" s="17" t="str">
-        <f t="shared" si="249"/>
+        <f t="shared" si="241"/>
         <v/>
       </c>
       <c r="Q263" s="17" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="242"/>
         <v/>
       </c>
       <c r="R263" s="17" t="str">
-        <f t="shared" si="251"/>
-        <v>00111100</v>
+        <f t="shared" si="243"/>
+        <v/>
       </c>
       <c r="S263" s="18" t="str">
-        <f t="shared" si="252"/>
-        <v/>
+        <f t="shared" si="244"/>
+        <v>00000000</v>
       </c>
       <c r="T263" t="str">
-        <f t="shared" si="253"/>
-        <v>18</v>
+        <f t="shared" si="245"/>
+        <v>07</v>
       </c>
       <c r="U263" t="str">
-        <f t="shared" si="254"/>
-        <v>00</v>
+        <f t="shared" si="246"/>
+        <v>80</v>
       </c>
       <c r="V263" s="13" t="str">
-        <f t="shared" si="255"/>
-        <v>3C</v>
-      </c>
-    </row>
-    <row r="264" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="247"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="264" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B264">
         <v>51</v>
       </c>
@@ -15193,62 +15215,62 @@
         <v>0x033</v>
       </c>
       <c r="D264" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="F264" s="8" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G264" s="11">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="H264" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I264">
         <f>IF(H264="", "", VLOOKUP(H264, $X$3:$Y$10, 2))</f>
-        <v>6</v>
-      </c>
-      <c r="M264">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J264">
+        <v>7</v>
       </c>
       <c r="N264" s="16" t="str">
         <f>IF(G264="", "", TEXT(DEC2BIN(G264), "000000"))</f>
-        <v>000001</v>
+        <v>100001</v>
       </c>
       <c r="O264" s="17" t="str">
         <f>IF(I264="", "", TEXT(DEC2BIN(I264), "000"))</f>
-        <v>110</v>
+        <v>001</v>
       </c>
       <c r="P264" s="17" t="str">
-        <f t="shared" ref="P264:P266" si="256">IF(J264="", "", TEXT(DEC2BIN(J264), "000"))</f>
-        <v/>
+        <f t="shared" ref="P264:P265" si="256">IF(J264="", "", TEXT(DEC2BIN(J264), "000"))</f>
+        <v>111</v>
       </c>
       <c r="Q264" s="17" t="str">
-        <f t="shared" ref="Q264:Q266" si="257">IF(K264="", "", TEXT(DEC2BIN(K264), "000"))</f>
+        <f t="shared" ref="Q264:Q265" si="257">IF(K264="", "", TEXT(DEC2BIN(K264), "000"))</f>
         <v/>
       </c>
       <c r="R264" s="17" t="str">
-        <f t="shared" ref="R264:R266" si="258">IF(L264="", "", TEXT(DEC2BIN(L264), "00000000"))</f>
+        <f t="shared" ref="R264:R265" si="258">IF(L264="", "", TEXT(DEC2BIN(L264), "00000000"))</f>
         <v/>
       </c>
       <c r="S264" s="18" t="str">
-        <f t="shared" ref="S264:S266" si="259">IF(M264="", "", TEXT(DEC2BIN(M264), "00000000"))</f>
-        <v>00000000</v>
+        <f t="shared" ref="S264:S265" si="259">IF(M264="", "", TEXT(DEC2BIN(M264), "00000000"))</f>
+        <v/>
       </c>
       <c r="T264" t="str">
-        <f t="shared" ref="T264:T266" si="260">BIN2HEX(LEFT(CONCATENATE(N264,IF(O264="", "000", O264)), 8), 2)</f>
-        <v>07</v>
+        <f t="shared" ref="T264:T265" si="260">BIN2HEX(LEFT(CONCATENATE(N264,IF(O264="", "000", O264)), 8), 2)</f>
+        <v>84</v>
       </c>
       <c r="U264" t="str">
-        <f t="shared" ref="U264:U266" si="261">BIN2HEX(CONCATENATE(RIGHT(O264, 1), IF(P264 = "", "000", P264), IF(Q264 = "", "000", Q264), "0"), 2)</f>
-        <v>00</v>
+        <f t="shared" ref="U264:U265" si="261">BIN2HEX(CONCATENATE(RIGHT(O264, 1), IF(P264 = "", "000", P264), IF(Q264 = "", "000", Q264), "0"), 2)</f>
+        <v>F0</v>
       </c>
       <c r="V264" s="13" t="str">
-        <f t="shared" ref="V264:V266" si="262">IF(R264="", BIN2HEX(S264, 2), BIN2HEX(R264,2))</f>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="265" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" ref="V264:V265" si="262">IF(R264="", BIN2HEX(S264, 2), BIN2HEX(R264,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="265" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B265">
         <v>54</v>
       </c>
@@ -15257,28 +15279,28 @@
         <v>0x036</v>
       </c>
       <c r="D265" t="s">
-        <v>248</v>
+        <v>331</v>
       </c>
       <c r="F265" s="8" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G265" s="11">
-        <v>41</v>
-      </c>
-      <c r="H265" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I265">
+        <v>6</v>
+      </c>
+      <c r="I265" t="str">
         <f>IF(H265="", "", VLOOKUP(H265, $X$3:$Y$10, 2))</f>
-        <v>0</v>
+        <v/>
+      </c>
+      <c r="L265">
+        <v>66</v>
       </c>
       <c r="N265" s="16" t="str">
         <f>IF(G265="", "", TEXT(DEC2BIN(G265), "000000"))</f>
-        <v>101001</v>
+        <v>000110</v>
       </c>
       <c r="O265" s="17" t="str">
         <f>IF(I265="", "", TEXT(DEC2BIN(I265), "000"))</f>
-        <v>000</v>
+        <v/>
       </c>
       <c r="P265" s="17" t="str">
         <f t="shared" si="256"/>
@@ -15290,7 +15312,7 @@
       </c>
       <c r="R265" s="17" t="str">
         <f t="shared" si="258"/>
-        <v/>
+        <v>01000010</v>
       </c>
       <c r="S265" s="18" t="str">
         <f t="shared" si="259"/>
@@ -15298,7 +15320,7 @@
       </c>
       <c r="T265" t="str">
         <f t="shared" si="260"/>
-        <v>A4</v>
+        <v>18</v>
       </c>
       <c r="U265" t="str">
         <f t="shared" si="261"/>
@@ -15306,148 +15328,147 @@
       </c>
       <c r="V265" s="13" t="str">
         <f t="shared" si="262"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="266" spans="1:22" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="266" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B266">
         <v>57</v>
       </c>
       <c r="C266" t="str">
-        <f t="shared" ref="C266:C268" si="263">"0x" &amp; DEC2HEX(B266,3)</f>
+        <f t="shared" si="248"/>
         <v>0x039</v>
       </c>
       <c r="D266" t="s">
-        <v>328</v>
+        <v>217</v>
       </c>
       <c r="F266" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G266" s="11">
-        <v>5</v>
-      </c>
-      <c r="I266" t="str">
+        <v>1</v>
+      </c>
+      <c r="H266" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I266">
         <f>IF(H266="", "", VLOOKUP(H266, $X$3:$Y$10, 2))</f>
-        <v/>
-      </c>
-      <c r="L266">
         <v>6</v>
+      </c>
+      <c r="M266">
+        <v>0</v>
       </c>
       <c r="N266" s="16" t="str">
         <f>IF(G266="", "", TEXT(DEC2BIN(G266), "000000"))</f>
-        <v>000101</v>
+        <v>000001</v>
       </c>
       <c r="O266" s="17" t="str">
         <f>IF(I266="", "", TEXT(DEC2BIN(I266), "000"))</f>
-        <v/>
+        <v>110</v>
       </c>
       <c r="P266" s="17" t="str">
-        <f t="shared" si="256"/>
+        <f t="shared" ref="P266:P268" si="263">IF(J266="", "", TEXT(DEC2BIN(J266), "000"))</f>
         <v/>
       </c>
       <c r="Q266" s="17" t="str">
-        <f t="shared" si="257"/>
+        <f t="shared" ref="Q266:Q268" si="264">IF(K266="", "", TEXT(DEC2BIN(K266), "000"))</f>
         <v/>
       </c>
       <c r="R266" s="17" t="str">
-        <f t="shared" si="258"/>
-        <v>00000110</v>
+        <f t="shared" ref="R266:R268" si="265">IF(L266="", "", TEXT(DEC2BIN(L266), "00000000"))</f>
+        <v/>
       </c>
       <c r="S266" s="18" t="str">
-        <f t="shared" si="259"/>
-        <v/>
+        <f t="shared" ref="S266:S268" si="266">IF(M266="", "", TEXT(DEC2BIN(M266), "00000000"))</f>
+        <v>00000000</v>
       </c>
       <c r="T266" t="str">
-        <f t="shared" si="260"/>
-        <v>14</v>
+        <f t="shared" ref="T266:T268" si="267">BIN2HEX(LEFT(CONCATENATE(N266,IF(O266="", "000", O266)), 8), 2)</f>
+        <v>07</v>
       </c>
       <c r="U266" t="str">
-        <f t="shared" si="261"/>
+        <f t="shared" ref="U266:U268" si="268">BIN2HEX(CONCATENATE(RIGHT(O266, 1), IF(P266 = "", "000", P266), IF(Q266 = "", "000", Q266), "0"), 2)</f>
         <v>00</v>
       </c>
       <c r="V266" s="13" t="str">
-        <f t="shared" si="262"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="267" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A267" s="49" t="s">
-        <v>322</v>
-      </c>
+        <f t="shared" ref="V266:V268" si="269">IF(R266="", BIN2HEX(S266, 2), BIN2HEX(R266,2))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="267" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B267">
         <v>60</v>
       </c>
       <c r="C267" t="str">
-        <f t="shared" si="263"/>
+        <f t="shared" si="248"/>
         <v>0x03C</v>
       </c>
       <c r="D267" t="s">
-        <v>296</v>
-      </c>
-      <c r="F267" s="8"/>
+        <v>184</v>
+      </c>
+      <c r="F267" s="8" t="s">
+        <v>319</v>
+      </c>
       <c r="G267" s="11">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="H267" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I267">
         <f>IF(H267="", "", VLOOKUP(H267, $X$3:$Y$10, 2))</f>
-        <v>0</v>
-      </c>
-      <c r="M267">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N267" s="16" t="str">
         <f>IF(G267="", "", TEXT(DEC2BIN(G267), "000000"))</f>
-        <v>000001</v>
+        <v>101001</v>
       </c>
       <c r="O267" s="17" t="str">
         <f>IF(I267="", "", TEXT(DEC2BIN(I267), "000"))</f>
-        <v>000</v>
+        <v>001</v>
       </c>
       <c r="P267" s="17" t="str">
-        <f t="shared" ref="P267:P268" si="264">IF(J267="", "", TEXT(DEC2BIN(J267), "000"))</f>
+        <f t="shared" si="263"/>
         <v/>
       </c>
       <c r="Q267" s="17" t="str">
-        <f t="shared" ref="Q267:Q268" si="265">IF(K267="", "", TEXT(DEC2BIN(K267), "000"))</f>
+        <f t="shared" si="264"/>
         <v/>
       </c>
       <c r="R267" s="17" t="str">
-        <f t="shared" ref="R267:R268" si="266">IF(L267="", "", TEXT(DEC2BIN(L267), "00000000"))</f>
+        <f t="shared" si="265"/>
         <v/>
       </c>
       <c r="S267" s="18" t="str">
-        <f t="shared" ref="S267:S268" si="267">IF(M267="", "", TEXT(DEC2BIN(M267), "00000000"))</f>
-        <v>00000111</v>
+        <f t="shared" si="266"/>
+        <v/>
       </c>
       <c r="T267" t="str">
-        <f t="shared" ref="T267:T268" si="268">BIN2HEX(LEFT(CONCATENATE(N267,IF(O267="", "000", O267)), 8), 2)</f>
-        <v>04</v>
+        <f t="shared" si="267"/>
+        <v>A4</v>
       </c>
       <c r="U267" t="str">
-        <f t="shared" ref="U267:U268" si="269">BIN2HEX(CONCATENATE(RIGHT(O267, 1), IF(P267 = "", "000", P267), IF(Q267 = "", "000", Q267), "0"), 2)</f>
-        <v>00</v>
+        <f t="shared" si="268"/>
+        <v>80</v>
       </c>
       <c r="V267" s="13" t="str">
-        <f t="shared" ref="V267:V268" si="270">IF(R267="", BIN2HEX(S267, 2), BIN2HEX(R267,2))</f>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="268" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="269"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="268" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B268">
         <v>63</v>
       </c>
       <c r="C268" t="str">
-        <f t="shared" si="263"/>
+        <f t="shared" si="248"/>
         <v>0x03F</v>
       </c>
       <c r="D268" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="F268" s="8" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G268" s="11">
         <v>5</v>
@@ -15457,7 +15478,7 @@
         <v/>
       </c>
       <c r="L268">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N268" s="16" t="str">
         <f>IF(G268="", "", TEXT(DEC2BIN(G268), "000000"))</f>
@@ -15468,36 +15489,162 @@
         <v/>
       </c>
       <c r="P268" s="17" t="str">
+        <f t="shared" si="263"/>
+        <v/>
+      </c>
+      <c r="Q268" s="17" t="str">
         <f t="shared" si="264"/>
         <v/>
       </c>
-      <c r="Q268" s="17" t="str">
+      <c r="R268" s="17" t="str">
         <f t="shared" si="265"/>
-        <v/>
-      </c>
-      <c r="R268" s="17" t="str">
+        <v>00001001</v>
+      </c>
+      <c r="S268" s="18" t="str">
         <f t="shared" si="266"/>
+        <v/>
+      </c>
+      <c r="T268" t="str">
+        <f t="shared" si="267"/>
+        <v>14</v>
+      </c>
+      <c r="U268" t="str">
+        <f t="shared" si="268"/>
+        <v>00</v>
+      </c>
+      <c r="V268" s="13" t="str">
+        <f t="shared" si="269"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="269" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A269" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="B269">
+        <v>66</v>
+      </c>
+      <c r="C269" t="str">
+        <f t="shared" si="248"/>
+        <v>0x042</v>
+      </c>
+      <c r="D269" t="s">
+        <v>296</v>
+      </c>
+      <c r="F269" s="8"/>
+      <c r="G269" s="11">
+        <v>1</v>
+      </c>
+      <c r="H269" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I269">
+        <f>IF(H269="", "", VLOOKUP(H269, $X$3:$Y$10, 2))</f>
+        <v>0</v>
+      </c>
+      <c r="M269">
+        <v>7</v>
+      </c>
+      <c r="N269" s="16" t="str">
+        <f>IF(G269="", "", TEXT(DEC2BIN(G269), "000000"))</f>
+        <v>000001</v>
+      </c>
+      <c r="O269" s="17" t="str">
+        <f>IF(I269="", "", TEXT(DEC2BIN(I269), "000"))</f>
+        <v>000</v>
+      </c>
+      <c r="P269" s="17" t="str">
+        <f t="shared" ref="P269:P270" si="270">IF(J269="", "", TEXT(DEC2BIN(J269), "000"))</f>
+        <v/>
+      </c>
+      <c r="Q269" s="17" t="str">
+        <f t="shared" ref="Q269:Q270" si="271">IF(K269="", "", TEXT(DEC2BIN(K269), "000"))</f>
+        <v/>
+      </c>
+      <c r="R269" s="17" t="str">
+        <f t="shared" ref="R269:R270" si="272">IF(L269="", "", TEXT(DEC2BIN(L269), "00000000"))</f>
+        <v/>
+      </c>
+      <c r="S269" s="18" t="str">
+        <f t="shared" ref="S269:S270" si="273">IF(M269="", "", TEXT(DEC2BIN(M269), "00000000"))</f>
+        <v>00000111</v>
+      </c>
+      <c r="T269" t="str">
+        <f t="shared" ref="T269:T270" si="274">BIN2HEX(LEFT(CONCATENATE(N269,IF(O269="", "000", O269)), 8), 2)</f>
+        <v>04</v>
+      </c>
+      <c r="U269" t="str">
+        <f t="shared" ref="U269:U270" si="275">BIN2HEX(CONCATENATE(RIGHT(O269, 1), IF(P269 = "", "000", P269), IF(Q269 = "", "000", Q269), "0"), 2)</f>
+        <v>00</v>
+      </c>
+      <c r="V269" s="13" t="str">
+        <f t="shared" ref="V269:V270" si="276">IF(R269="", BIN2HEX(S269, 2), BIN2HEX(R269,2))</f>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="270" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B270">
+        <v>69</v>
+      </c>
+      <c r="C270" t="str">
+        <f t="shared" si="248"/>
+        <v>0x045</v>
+      </c>
+      <c r="D270" t="s">
+        <v>317</v>
+      </c>
+      <c r="F270" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="G270" s="11">
+        <v>5</v>
+      </c>
+      <c r="I270" t="str">
+        <f>IF(H270="", "", VLOOKUP(H270, $X$3:$Y$10, 2))</f>
+        <v/>
+      </c>
+      <c r="L270">
+        <v>0</v>
+      </c>
+      <c r="N270" s="16" t="str">
+        <f>IF(G270="", "", TEXT(DEC2BIN(G270), "000000"))</f>
+        <v>000101</v>
+      </c>
+      <c r="O270" s="17" t="str">
+        <f>IF(I270="", "", TEXT(DEC2BIN(I270), "000"))</f>
+        <v/>
+      </c>
+      <c r="P270" s="17" t="str">
+        <f t="shared" si="270"/>
+        <v/>
+      </c>
+      <c r="Q270" s="17" t="str">
+        <f t="shared" si="271"/>
+        <v/>
+      </c>
+      <c r="R270" s="17" t="str">
+        <f t="shared" si="272"/>
         <v>00000000</v>
       </c>
-      <c r="S268" s="18" t="str">
-        <f t="shared" si="267"/>
-        <v/>
-      </c>
-      <c r="T268" t="str">
-        <f t="shared" si="268"/>
+      <c r="S270" s="18" t="str">
+        <f t="shared" si="273"/>
+        <v/>
+      </c>
+      <c r="T270" t="str">
+        <f t="shared" si="274"/>
         <v>14</v>
       </c>
-      <c r="U268" t="str">
-        <f t="shared" si="269"/>
-        <v>00</v>
-      </c>
-      <c r="V268" s="13" t="str">
-        <f t="shared" si="270"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="270" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F270" s="8"/>
+      <c r="U270" t="str">
+        <f t="shared" si="275"/>
+        <v>00</v>
+      </c>
+      <c r="V270" s="13" t="str">
+        <f t="shared" si="276"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="272" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F272" s="8"/>
     </row>
   </sheetData>
   <sortState ref="X16:Y18">
@@ -15513,7 +15660,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z17">
       <formula1>$X$16:$X$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H6 H9:H11 H201:H224 H141:H149 H102:H112 H117:H132 H83:H93 H49 H41:H42 H31:H33 H17:H26 H229:H242 H154:H174 H247:H268">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H6 H9:H11 H201:H224 H141:H149 H102:H112 H117:H132 H83:H93 H49 H41:H42 H31:H33 H17:H26 H229:H242 H154:H174 H247:H270">
       <formula1>$X$3:$X$10</formula1>
     </dataValidation>
   </dataValidations>

--- a/2nd gen - 8 bit cpu/Instruction control lines.xlsx
+++ b/2nd gen - 8 bit cpu/Instruction control lines.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="348" windowWidth="14808" windowHeight="7776"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Control Lines" sheetId="1" r:id="rId1"/>
     <sheet name="Test Programs" sheetId="3" r:id="rId2"/>
     <sheet name="Animations" sheetId="4" r:id="rId3"/>
+    <sheet name="Magnitude comparison instr" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
@@ -19,10 +20,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="C20" authorId="0" shapeId="0">
+    <comment ref="C20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C46" authorId="0" shapeId="0">
+    <comment ref="C46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C47" authorId="0" shapeId="0">
+    <comment ref="C47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -96,10 +97,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="374">
   <si>
     <t>LD R1, data</t>
   </si>
@@ -1182,12 +1183,87 @@
   </si>
   <si>
     <t>SUBM R1, R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP C, </t>
+  </si>
+  <si>
+    <t>SUB</t>
+  </si>
+  <si>
+    <t>R1 &gt;= R2</t>
+  </si>
+  <si>
+    <t>R1 &gt; R2</t>
+  </si>
+  <si>
+    <t>SUBM</t>
+  </si>
+  <si>
+    <t>R1 &lt;= R2</t>
+  </si>
+  <si>
+    <t>R1 &lt; R2</t>
+  </si>
+  <si>
+    <t>OUTPUT Cn + 4</t>
+  </si>
+  <si>
+    <t>INSTR</t>
+  </si>
+  <si>
+    <t>MAG</t>
+  </si>
+  <si>
+    <t>carry:</t>
+  </si>
+  <si>
+    <t>no_carry:</t>
+  </si>
+  <si>
+    <t>JP C, [carry]</t>
+  </si>
+  <si>
+    <t>// R1 &gt;= R2</t>
+  </si>
+  <si>
+    <t>// R1 &lt; R2</t>
+  </si>
+  <si>
+    <t>// R1 &lt;= R2</t>
+  </si>
+  <si>
+    <t>// R1 &gt; R2</t>
+  </si>
+  <si>
+    <t>// 18 - Test mag comp instr</t>
+  </si>
+  <si>
+    <t>LD A, 0</t>
+  </si>
+  <si>
+    <t>LD C, 5</t>
+  </si>
+  <si>
+    <t>SUB A, C</t>
+  </si>
+  <si>
+    <t>// ASCII char '&lt;'</t>
+  </si>
+  <si>
+    <t>LD B, 0x3c</t>
+  </si>
+  <si>
+    <t>LD H, 0x3e</t>
+  </si>
+  <si>
+    <t>// ASCII char '&gt;'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1439,7 +1515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1484,36 +1560,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1533,9 +1584,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1568,6 +1616,29 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1585,10 +1656,51 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="133350"/>
+          <a:ext cx="4076700" cy="1895475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1626,9 +1738,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1661,26 +1773,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1713,26 +1808,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1908,3572 +1986,3572 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N50" sqref="N50"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" style="38" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="27" width="3.33203125" style="40" customWidth="1"/>
-    <col min="28" max="30" width="5.88671875" style="40" customWidth="1"/>
-    <col min="31" max="31" width="2" style="40" customWidth="1"/>
-    <col min="32" max="16384" width="8.88671875" style="40"/>
+    <col min="1" max="1" width="7.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="27" width="3.28515625" style="31" customWidth="1"/>
+    <col min="28" max="30" width="5.85546875" style="31" customWidth="1"/>
+    <col min="31" max="31" width="2" style="31" customWidth="1"/>
+    <col min="32" max="16384" width="8.85546875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="D1" s="40">
+    <row r="1" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="D1" s="31">
         <v>23</v>
       </c>
-      <c r="E1" s="40">
+      <c r="E1" s="31">
         <v>22</v>
       </c>
-      <c r="F1" s="40">
+      <c r="F1" s="31">
         <v>21</v>
       </c>
-      <c r="G1" s="40">
+      <c r="G1" s="31">
         <v>20</v>
       </c>
-      <c r="H1" s="40">
+      <c r="H1" s="31">
         <v>19</v>
       </c>
-      <c r="I1" s="40">
+      <c r="I1" s="31">
         <v>18</v>
       </c>
-      <c r="J1" s="40">
+      <c r="J1" s="31">
         <v>17</v>
       </c>
-      <c r="K1" s="40">
+      <c r="K1" s="31">
         <v>16</v>
       </c>
-      <c r="L1" s="40">
+      <c r="L1" s="31">
         <v>15</v>
       </c>
-      <c r="M1" s="40">
+      <c r="M1" s="31">
         <v>14</v>
       </c>
-      <c r="N1" s="40">
+      <c r="N1" s="31">
         <v>13</v>
       </c>
-      <c r="O1" s="40">
+      <c r="O1" s="31">
         <v>12</v>
       </c>
-      <c r="P1" s="40">
+      <c r="P1" s="31">
         <v>11</v>
       </c>
-      <c r="Q1" s="40">
+      <c r="Q1" s="31">
         <v>10</v>
       </c>
-      <c r="R1" s="40">
+      <c r="R1" s="31">
         <v>9</v>
       </c>
-      <c r="S1" s="40">
+      <c r="S1" s="31">
         <v>8</v>
       </c>
-      <c r="T1" s="40">
+      <c r="T1" s="31">
         <v>7</v>
       </c>
-      <c r="U1" s="40">
+      <c r="U1" s="31">
         <v>6</v>
       </c>
-      <c r="V1" s="40">
+      <c r="V1" s="31">
         <v>5</v>
       </c>
-      <c r="W1" s="40">
+      <c r="W1" s="31">
         <v>4</v>
       </c>
-      <c r="X1" s="40">
+      <c r="X1" s="31">
         <v>3</v>
       </c>
-      <c r="Y1" s="40">
+      <c r="Y1" s="31">
         <v>2</v>
       </c>
-      <c r="Z1" s="40">
-        <v>1</v>
-      </c>
-      <c r="AA1" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" s="39" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="Z1" s="31">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" s="30" customFormat="1" ht="132" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="44" t="s">
+      <c r="D2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="R2" s="44" t="s">
+      <c r="R2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="44" t="s">
+      <c r="S2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="44" t="s">
+      <c r="T2" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="U2" s="44" t="s">
+      <c r="U2" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="44" t="s">
+      <c r="W2" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="44" t="s">
+      <c r="X2" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="44" t="s">
+      <c r="Y2" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" s="44" t="s">
+      <c r="Z2" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="AA2" s="44" t="s">
+      <c r="AA2" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="46" t="s">
+      <c r="AB2" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A3" s="38">
-        <v>0</v>
-      </c>
-      <c r="B3" s="38" t="str">
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+    </row>
+    <row r="3" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A3" s="29">
+        <v>0</v>
+      </c>
+      <c r="B3" s="29" t="str">
         <f>"0x" &amp; DEC2HEX(A3)</f>
         <v>0x0</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="38">
-        <v>0</v>
-      </c>
-      <c r="E3" s="38">
-        <v>0</v>
-      </c>
-      <c r="F3" s="38">
-        <v>0</v>
-      </c>
-      <c r="G3" s="38">
-        <v>0</v>
-      </c>
-      <c r="H3" s="38">
-        <v>0</v>
-      </c>
-      <c r="I3" s="38">
-        <v>0</v>
-      </c>
-      <c r="J3" s="38">
-        <v>0</v>
-      </c>
-      <c r="K3" s="38">
-        <v>0</v>
-      </c>
-      <c r="L3" s="38">
-        <v>0</v>
-      </c>
-      <c r="M3" s="38">
-        <v>0</v>
-      </c>
-      <c r="N3" s="38">
-        <v>0</v>
-      </c>
-      <c r="O3" s="38">
-        <v>0</v>
-      </c>
-      <c r="P3" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="38">
-        <v>0</v>
-      </c>
-      <c r="R3" s="38">
-        <v>0</v>
-      </c>
-      <c r="S3" s="38">
-        <v>0</v>
-      </c>
-      <c r="T3" s="38">
-        <v>0</v>
-      </c>
-      <c r="U3" s="38">
-        <v>0</v>
-      </c>
-      <c r="V3" s="48" t="s">
+      <c r="D3" s="29">
+        <v>0</v>
+      </c>
+      <c r="E3" s="29">
+        <v>0</v>
+      </c>
+      <c r="F3" s="29">
+        <v>0</v>
+      </c>
+      <c r="G3" s="29">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>0</v>
+      </c>
+      <c r="I3" s="29">
+        <v>0</v>
+      </c>
+      <c r="J3" s="29">
+        <v>0</v>
+      </c>
+      <c r="K3" s="29">
+        <v>0</v>
+      </c>
+      <c r="L3" s="29">
+        <v>0</v>
+      </c>
+      <c r="M3" s="29">
+        <v>0</v>
+      </c>
+      <c r="N3" s="29">
+        <v>0</v>
+      </c>
+      <c r="O3" s="29">
+        <v>0</v>
+      </c>
+      <c r="P3" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="29">
+        <v>0</v>
+      </c>
+      <c r="R3" s="29">
+        <v>0</v>
+      </c>
+      <c r="S3" s="29">
+        <v>0</v>
+      </c>
+      <c r="T3" s="29">
+        <v>0</v>
+      </c>
+      <c r="U3" s="29">
+        <v>0</v>
+      </c>
+      <c r="V3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="38" t="s">
+      <c r="W3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="X3" s="38" t="s">
+      <c r="X3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="38" t="s">
+      <c r="Y3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="38" t="s">
+      <c r="Z3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AA3" s="38" t="s">
+      <c r="AA3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AB3" s="49" t="str">
+      <c r="AB3" s="39" t="str">
         <f t="shared" ref="AB3:AB14" si="0">BIN2HEX(IF(D3="x", 0, D3) &amp; IF(E3="x", 0, E3) &amp; IF(F3="x", 0, F3) &amp; IF(G3="x", 0, G3) &amp; IF(H3="x", 0, H3) &amp; IF(I3="x", 0, I3) &amp; IF(J3="x", 0, J3) &amp; IF(K3="x", 0, K3), 2)</f>
         <v>00</v>
       </c>
-      <c r="AC3" s="50" t="str">
+      <c r="AC3" s="40" t="str">
         <f t="shared" ref="AC3:AC14" si="1">BIN2HEX(IF(L3="x", 0, L3) &amp; IF(M3="x", 0, M3) &amp; IF(N3="x", 0, N3) &amp; IF(O3="x", 0, O3) &amp;  IF(P3="x", 0, P3) &amp; IF(Q3="x", 0, Q3) &amp; IF(R3="x", 0, R3) &amp; IF(S3="x", 0, S3), 2)</f>
         <v>00</v>
       </c>
-      <c r="AD3" s="51" t="str">
+      <c r="AD3" s="41" t="str">
         <f t="shared" ref="AD3:AD14" si="2">BIN2HEX(IF(T3="x", 0, T3) &amp; IF(U3="x", 0, U3) &amp; IF(V3="x", 0, V3) &amp; IF(W3="x", 0, W3) &amp; IF(X3="x", 0, X3) &amp; IF(Y3="x", 0, Y3) &amp; IF(Z3="x", 0, Z3) &amp; IF(AA3="x", 0, AA3), 2)</f>
         <v>00</v>
       </c>
-      <c r="AM3" s="52" t="str">
+      <c r="AM3" s="42" t="str">
         <f t="shared" ref="AM3:AM11" si="3">AB3 &amp; AC3 &amp; AD3</f>
         <v>000000</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A4" s="38">
-        <v>1</v>
-      </c>
-      <c r="B4" s="38" t="str">
+    <row r="4" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A4" s="29">
+        <v>1</v>
+      </c>
+      <c r="B4" s="29" t="str">
         <f>"0x" &amp; DEC2HEX(A4)</f>
         <v>0x1</v>
       </c>
-      <c r="C4" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="38">
-        <v>1</v>
-      </c>
-      <c r="E4" s="38">
-        <v>1</v>
-      </c>
-      <c r="F4" s="38">
-        <v>0</v>
-      </c>
-      <c r="G4" s="38">
-        <v>0</v>
-      </c>
-      <c r="H4" s="38">
-        <v>0</v>
-      </c>
-      <c r="I4" s="38" t="s">
+      <c r="C4" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="29">
+        <v>1</v>
+      </c>
+      <c r="E4" s="29">
+        <v>1</v>
+      </c>
+      <c r="F4" s="29">
+        <v>0</v>
+      </c>
+      <c r="G4" s="29">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29">
+        <v>0</v>
+      </c>
+      <c r="I4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="38">
-        <v>0</v>
-      </c>
-      <c r="K4" s="38">
-        <v>0</v>
-      </c>
-      <c r="L4" s="38">
-        <v>0</v>
-      </c>
-      <c r="M4" s="38">
-        <v>0</v>
-      </c>
-      <c r="N4" s="38">
-        <v>0</v>
-      </c>
-      <c r="O4" s="38">
-        <v>0</v>
-      </c>
-      <c r="P4" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="38">
-        <v>0</v>
-      </c>
-      <c r="R4" s="38">
-        <v>0</v>
-      </c>
-      <c r="S4" s="38">
-        <v>0</v>
-      </c>
-      <c r="T4" s="38">
-        <v>0</v>
-      </c>
-      <c r="U4" s="38">
-        <v>0</v>
-      </c>
-      <c r="V4" s="53" t="s">
+      <c r="J4" s="29">
+        <v>0</v>
+      </c>
+      <c r="K4" s="29">
+        <v>0</v>
+      </c>
+      <c r="L4" s="29">
+        <v>0</v>
+      </c>
+      <c r="M4" s="29">
+        <v>0</v>
+      </c>
+      <c r="N4" s="29">
+        <v>0</v>
+      </c>
+      <c r="O4" s="29">
+        <v>0</v>
+      </c>
+      <c r="P4" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="29">
+        <v>0</v>
+      </c>
+      <c r="R4" s="29">
+        <v>0</v>
+      </c>
+      <c r="S4" s="29">
+        <v>0</v>
+      </c>
+      <c r="T4" s="29">
+        <v>0</v>
+      </c>
+      <c r="U4" s="29">
+        <v>0</v>
+      </c>
+      <c r="V4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="W4" s="38" t="s">
+      <c r="W4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="38" t="s">
+      <c r="X4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Y4" s="38" t="s">
+      <c r="Y4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Z4" s="38" t="s">
+      <c r="Z4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="38" t="s">
+      <c r="AA4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AB4" s="54" t="str">
+      <c r="AB4" s="44" t="str">
         <f t="shared" si="0"/>
         <v>C0</v>
       </c>
-      <c r="AC4" s="55" t="str">
+      <c r="AC4" s="45" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="AD4" s="56" t="str">
+      <c r="AD4" s="46" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="AM4" s="52" t="str">
+      <c r="AM4" s="42" t="str">
         <f t="shared" si="3"/>
         <v>C00000</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A5" s="38">
+    <row r="5" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A5" s="29">
         <v>2</v>
       </c>
-      <c r="B5" s="38" t="str">
+      <c r="B5" s="29" t="str">
         <f t="shared" ref="B5:B46" si="4">"0x" &amp; DEC2HEX(A5)</f>
         <v>0x2</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="38">
-        <v>0</v>
-      </c>
-      <c r="E5" s="38">
-        <v>1</v>
-      </c>
-      <c r="F5" s="38">
-        <v>1</v>
-      </c>
-      <c r="G5" s="38">
-        <v>0</v>
-      </c>
-      <c r="H5" s="38">
-        <v>0</v>
-      </c>
-      <c r="I5" s="38" t="s">
+      <c r="D5" s="29">
+        <v>0</v>
+      </c>
+      <c r="E5" s="29">
+        <v>1</v>
+      </c>
+      <c r="F5" s="29">
+        <v>1</v>
+      </c>
+      <c r="G5" s="29">
+        <v>0</v>
+      </c>
+      <c r="H5" s="29">
+        <v>0</v>
+      </c>
+      <c r="I5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="38">
-        <v>0</v>
-      </c>
-      <c r="K5" s="38">
-        <v>0</v>
-      </c>
-      <c r="L5" s="38">
-        <v>0</v>
-      </c>
-      <c r="M5" s="38">
-        <v>0</v>
-      </c>
-      <c r="N5" s="38">
-        <v>0</v>
-      </c>
-      <c r="O5" s="38">
-        <v>0</v>
-      </c>
-      <c r="P5" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="38">
-        <v>1</v>
-      </c>
-      <c r="R5" s="38">
-        <v>0</v>
-      </c>
-      <c r="S5" s="38">
-        <v>0</v>
-      </c>
-      <c r="T5" s="38">
-        <v>0</v>
-      </c>
-      <c r="U5" s="38">
-        <v>0</v>
-      </c>
-      <c r="V5" s="53" t="s">
+      <c r="J5" s="29">
+        <v>0</v>
+      </c>
+      <c r="K5" s="29">
+        <v>0</v>
+      </c>
+      <c r="L5" s="29">
+        <v>0</v>
+      </c>
+      <c r="M5" s="29">
+        <v>0</v>
+      </c>
+      <c r="N5" s="29">
+        <v>0</v>
+      </c>
+      <c r="O5" s="29">
+        <v>0</v>
+      </c>
+      <c r="P5" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="29">
+        <v>1</v>
+      </c>
+      <c r="R5" s="29">
+        <v>0</v>
+      </c>
+      <c r="S5" s="29">
+        <v>0</v>
+      </c>
+      <c r="T5" s="29">
+        <v>0</v>
+      </c>
+      <c r="U5" s="29">
+        <v>0</v>
+      </c>
+      <c r="V5" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="W5" s="38" t="s">
+      <c r="W5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="X5" s="38" t="s">
+      <c r="X5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Y5" s="38" t="s">
+      <c r="Y5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Z5" s="38" t="s">
+      <c r="Z5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AA5" s="38" t="s">
+      <c r="AA5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AB5" s="54" t="str">
+      <c r="AB5" s="44" t="str">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="AC5" s="55" t="str">
+      <c r="AC5" s="45" t="str">
         <f t="shared" si="1"/>
         <v>04</v>
       </c>
-      <c r="AD5" s="56" t="str">
+      <c r="AD5" s="46" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="AM5" s="52" t="str">
+      <c r="AM5" s="42" t="str">
         <f t="shared" si="3"/>
         <v>600400</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A6" s="38">
+    <row r="6" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A6" s="29">
         <v>3</v>
       </c>
-      <c r="B6" s="38" t="str">
+      <c r="B6" s="29" t="str">
         <f t="shared" si="4"/>
         <v>0x3</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="38">
-        <v>0</v>
-      </c>
-      <c r="E6" s="38">
-        <v>1</v>
-      </c>
-      <c r="F6" s="38">
-        <v>0</v>
-      </c>
-      <c r="G6" s="38">
-        <v>1</v>
-      </c>
-      <c r="H6" s="38">
-        <v>1</v>
-      </c>
-      <c r="I6" s="38">
-        <v>1</v>
-      </c>
-      <c r="J6" s="38">
-        <v>1</v>
-      </c>
-      <c r="K6" s="38">
-        <v>0</v>
-      </c>
-      <c r="L6" s="38">
-        <v>0</v>
-      </c>
-      <c r="M6" s="38">
-        <v>0</v>
-      </c>
-      <c r="N6" s="38">
-        <v>0</v>
-      </c>
-      <c r="O6" s="38">
-        <v>0</v>
-      </c>
-      <c r="P6" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="38">
-        <v>0</v>
-      </c>
-      <c r="R6" s="38">
-        <v>0</v>
-      </c>
-      <c r="S6" s="38">
-        <v>0</v>
-      </c>
-      <c r="T6" s="38">
-        <v>0</v>
-      </c>
-      <c r="U6" s="38">
-        <v>0</v>
-      </c>
-      <c r="V6" s="53" t="s">
+      <c r="D6" s="29">
+        <v>0</v>
+      </c>
+      <c r="E6" s="29">
+        <v>1</v>
+      </c>
+      <c r="F6" s="29">
+        <v>0</v>
+      </c>
+      <c r="G6" s="29">
+        <v>1</v>
+      </c>
+      <c r="H6" s="29">
+        <v>1</v>
+      </c>
+      <c r="I6" s="29">
+        <v>1</v>
+      </c>
+      <c r="J6" s="29">
+        <v>1</v>
+      </c>
+      <c r="K6" s="29">
+        <v>0</v>
+      </c>
+      <c r="L6" s="29">
+        <v>0</v>
+      </c>
+      <c r="M6" s="29">
+        <v>0</v>
+      </c>
+      <c r="N6" s="29">
+        <v>0</v>
+      </c>
+      <c r="O6" s="29">
+        <v>0</v>
+      </c>
+      <c r="P6" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="29">
+        <v>0</v>
+      </c>
+      <c r="R6" s="29">
+        <v>0</v>
+      </c>
+      <c r="S6" s="29">
+        <v>0</v>
+      </c>
+      <c r="T6" s="29">
+        <v>0</v>
+      </c>
+      <c r="U6" s="29">
+        <v>0</v>
+      </c>
+      <c r="V6" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="W6" s="38" t="s">
+      <c r="W6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="X6" s="38" t="s">
+      <c r="X6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Y6" s="38" t="s">
+      <c r="Y6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Z6" s="38" t="s">
+      <c r="Z6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AA6" s="38" t="s">
+      <c r="AA6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AB6" s="54" t="str">
+      <c r="AB6" s="44" t="str">
         <f t="shared" si="0"/>
         <v>5E</v>
       </c>
-      <c r="AC6" s="55" t="str">
+      <c r="AC6" s="45" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="AD6" s="56" t="str">
+      <c r="AD6" s="46" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="AM6" s="52" t="str">
+      <c r="AM6" s="42" t="str">
         <f t="shared" si="3"/>
         <v>5E0000</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A7" s="38">
+    <row r="7" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A7" s="29">
         <v>4</v>
       </c>
-      <c r="B7" s="38" t="str">
+      <c r="B7" s="29" t="str">
         <f t="shared" si="4"/>
         <v>0x4</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="D7" s="38">
-        <v>0</v>
-      </c>
-      <c r="E7" s="38">
-        <v>1</v>
-      </c>
-      <c r="F7" s="38">
-        <v>0</v>
-      </c>
-      <c r="G7" s="38">
-        <v>0</v>
-      </c>
-      <c r="H7" s="38">
-        <v>1</v>
-      </c>
-      <c r="I7" s="38">
-        <v>1</v>
-      </c>
-      <c r="J7" s="38">
-        <v>1</v>
-      </c>
-      <c r="K7" s="38">
-        <v>1</v>
-      </c>
-      <c r="L7" s="38">
-        <v>0</v>
-      </c>
-      <c r="M7" s="38">
-        <v>0</v>
-      </c>
-      <c r="N7" s="38">
-        <v>0</v>
-      </c>
-      <c r="O7" s="38">
-        <v>0</v>
-      </c>
-      <c r="P7" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="38">
-        <v>0</v>
-      </c>
-      <c r="R7" s="38">
-        <v>0</v>
-      </c>
-      <c r="S7" s="38">
-        <v>0</v>
-      </c>
-      <c r="T7" s="38">
-        <v>0</v>
-      </c>
-      <c r="U7" s="38">
-        <v>0</v>
-      </c>
-      <c r="V7" s="53" t="s">
+      <c r="D7" s="29">
+        <v>0</v>
+      </c>
+      <c r="E7" s="29">
+        <v>1</v>
+      </c>
+      <c r="F7" s="29">
+        <v>0</v>
+      </c>
+      <c r="G7" s="29">
+        <v>0</v>
+      </c>
+      <c r="H7" s="29">
+        <v>1</v>
+      </c>
+      <c r="I7" s="29">
+        <v>1</v>
+      </c>
+      <c r="J7" s="29">
+        <v>1</v>
+      </c>
+      <c r="K7" s="29">
+        <v>1</v>
+      </c>
+      <c r="L7" s="29">
+        <v>0</v>
+      </c>
+      <c r="M7" s="29">
+        <v>0</v>
+      </c>
+      <c r="N7" s="29">
+        <v>0</v>
+      </c>
+      <c r="O7" s="29">
+        <v>0</v>
+      </c>
+      <c r="P7" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="29">
+        <v>0</v>
+      </c>
+      <c r="R7" s="29">
+        <v>0</v>
+      </c>
+      <c r="S7" s="29">
+        <v>0</v>
+      </c>
+      <c r="T7" s="29">
+        <v>0</v>
+      </c>
+      <c r="U7" s="29">
+        <v>0</v>
+      </c>
+      <c r="V7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="W7" s="38" t="s">
+      <c r="W7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="X7" s="38" t="s">
+      <c r="X7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Y7" s="38" t="s">
+      <c r="Y7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Z7" s="38" t="s">
+      <c r="Z7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AA7" s="38" t="s">
+      <c r="AA7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AB7" s="54" t="str">
+      <c r="AB7" s="44" t="str">
         <f t="shared" si="0"/>
         <v>4F</v>
       </c>
-      <c r="AC7" s="55" t="str">
+      <c r="AC7" s="45" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="AD7" s="56" t="str">
+      <c r="AD7" s="46" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="AM7" s="52" t="str">
+      <c r="AM7" s="42" t="str">
         <f t="shared" si="3"/>
         <v>4F0000</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A8" s="38">
+    <row r="8" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A8" s="29">
         <v>5</v>
       </c>
-      <c r="B8" s="38" t="str">
+      <c r="B8" s="29" t="str">
         <f t="shared" si="4"/>
         <v>0x5</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="38">
-        <v>0</v>
-      </c>
-      <c r="E8" s="38">
-        <v>0</v>
-      </c>
-      <c r="F8" s="38">
-        <v>0</v>
-      </c>
-      <c r="G8" s="38">
-        <v>0</v>
-      </c>
-      <c r="H8" s="38">
-        <v>0</v>
-      </c>
-      <c r="I8" s="38" t="s">
+      <c r="D8" s="29">
+        <v>0</v>
+      </c>
+      <c r="E8" s="29">
+        <v>0</v>
+      </c>
+      <c r="F8" s="29">
+        <v>0</v>
+      </c>
+      <c r="G8" s="29">
+        <v>0</v>
+      </c>
+      <c r="H8" s="29">
+        <v>0</v>
+      </c>
+      <c r="I8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="38">
-        <v>0</v>
-      </c>
-      <c r="K8" s="38">
-        <v>0</v>
-      </c>
-      <c r="L8" s="38">
-        <v>0</v>
-      </c>
-      <c r="M8" s="38">
-        <v>1</v>
-      </c>
-      <c r="N8" s="38">
-        <v>0</v>
-      </c>
-      <c r="O8" s="38">
-        <v>0</v>
-      </c>
-      <c r="P8" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="38">
-        <v>0</v>
-      </c>
-      <c r="R8" s="38">
-        <v>0</v>
-      </c>
-      <c r="S8" s="38">
-        <v>0</v>
-      </c>
-      <c r="T8" s="38">
-        <v>0</v>
-      </c>
-      <c r="U8" s="38">
-        <v>0</v>
-      </c>
-      <c r="V8" s="53" t="s">
+      <c r="J8" s="29">
+        <v>0</v>
+      </c>
+      <c r="K8" s="29">
+        <v>0</v>
+      </c>
+      <c r="L8" s="29">
+        <v>0</v>
+      </c>
+      <c r="M8" s="29">
+        <v>1</v>
+      </c>
+      <c r="N8" s="29">
+        <v>0</v>
+      </c>
+      <c r="O8" s="29">
+        <v>0</v>
+      </c>
+      <c r="P8" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="29">
+        <v>0</v>
+      </c>
+      <c r="R8" s="29">
+        <v>0</v>
+      </c>
+      <c r="S8" s="29">
+        <v>0</v>
+      </c>
+      <c r="T8" s="29">
+        <v>0</v>
+      </c>
+      <c r="U8" s="29">
+        <v>0</v>
+      </c>
+      <c r="V8" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="W8" s="38" t="s">
+      <c r="W8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="X8" s="38" t="s">
+      <c r="X8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Y8" s="38" t="s">
+      <c r="Y8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="38" t="s">
+      <c r="Z8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AA8" s="38" t="s">
+      <c r="AA8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AB8" s="54" t="str">
+      <c r="AB8" s="44" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>
-      <c r="AC8" s="55" t="str">
+      <c r="AC8" s="45" t="str">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="AD8" s="56" t="str">
+      <c r="AD8" s="46" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="AM8" s="52" t="str">
+      <c r="AM8" s="42" t="str">
         <f t="shared" si="3"/>
         <v>004000</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A9" s="38">
+    <row r="9" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A9" s="29">
         <v>6</v>
       </c>
-      <c r="B9" s="38" t="str">
+      <c r="B9" s="29" t="str">
         <f t="shared" si="4"/>
         <v>0x6</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="38">
-        <v>0</v>
-      </c>
-      <c r="E9" s="38">
-        <v>0</v>
-      </c>
-      <c r="F9" s="38">
-        <v>0</v>
-      </c>
-      <c r="G9" s="38">
-        <v>0</v>
-      </c>
-      <c r="H9" s="38">
-        <v>0</v>
-      </c>
-      <c r="I9" s="38" t="s">
+      <c r="D9" s="29">
+        <v>0</v>
+      </c>
+      <c r="E9" s="29">
+        <v>0</v>
+      </c>
+      <c r="F9" s="29">
+        <v>0</v>
+      </c>
+      <c r="G9" s="29">
+        <v>0</v>
+      </c>
+      <c r="H9" s="29">
+        <v>0</v>
+      </c>
+      <c r="I9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="38">
-        <v>0</v>
-      </c>
-      <c r="K9" s="38">
-        <v>0</v>
-      </c>
-      <c r="L9" s="38">
-        <v>0</v>
-      </c>
-      <c r="M9" s="38">
-        <v>1</v>
-      </c>
-      <c r="N9" s="38">
-        <v>1</v>
-      </c>
-      <c r="O9" s="38">
-        <v>0</v>
-      </c>
-      <c r="P9" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="38">
-        <v>0</v>
-      </c>
-      <c r="R9" s="38">
-        <v>0</v>
-      </c>
-      <c r="S9" s="38">
-        <v>0</v>
-      </c>
-      <c r="T9" s="38">
-        <v>0</v>
-      </c>
-      <c r="U9" s="38">
-        <v>0</v>
-      </c>
-      <c r="V9" s="53" t="s">
+      <c r="J9" s="29">
+        <v>0</v>
+      </c>
+      <c r="K9" s="29">
+        <v>0</v>
+      </c>
+      <c r="L9" s="29">
+        <v>0</v>
+      </c>
+      <c r="M9" s="29">
+        <v>1</v>
+      </c>
+      <c r="N9" s="29">
+        <v>1</v>
+      </c>
+      <c r="O9" s="29">
+        <v>0</v>
+      </c>
+      <c r="P9" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="29">
+        <v>0</v>
+      </c>
+      <c r="R9" s="29">
+        <v>0</v>
+      </c>
+      <c r="S9" s="29">
+        <v>0</v>
+      </c>
+      <c r="T9" s="29">
+        <v>0</v>
+      </c>
+      <c r="U9" s="29">
+        <v>0</v>
+      </c>
+      <c r="V9" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="38" t="s">
+      <c r="W9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="38" t="s">
+      <c r="X9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Y9" s="38" t="s">
+      <c r="Y9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Z9" s="38" t="s">
+      <c r="Z9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AA9" s="38" t="s">
+      <c r="AA9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AB9" s="54" t="str">
+      <c r="AB9" s="44" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>
-      <c r="AC9" s="55" t="str">
+      <c r="AC9" s="45" t="str">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="AD9" s="56" t="str">
+      <c r="AD9" s="46" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="AM9" s="52" t="str">
+      <c r="AM9" s="42" t="str">
         <f t="shared" si="3"/>
         <v>006000</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A10" s="38">
+    <row r="10" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A10" s="29">
         <v>7</v>
       </c>
-      <c r="B10" s="38" t="str">
+      <c r="B10" s="29" t="str">
         <f t="shared" si="4"/>
         <v>0x7</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="38">
-        <v>0</v>
-      </c>
-      <c r="E10" s="38">
-        <v>0</v>
-      </c>
-      <c r="F10" s="38">
-        <v>0</v>
-      </c>
-      <c r="G10" s="38">
-        <v>0</v>
-      </c>
-      <c r="H10" s="38">
-        <v>0</v>
-      </c>
-      <c r="I10" s="38" t="s">
+      <c r="D10" s="29">
+        <v>0</v>
+      </c>
+      <c r="E10" s="29">
+        <v>0</v>
+      </c>
+      <c r="F10" s="29">
+        <v>0</v>
+      </c>
+      <c r="G10" s="29">
+        <v>0</v>
+      </c>
+      <c r="H10" s="29">
+        <v>0</v>
+      </c>
+      <c r="I10" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="38">
-        <v>0</v>
-      </c>
-      <c r="K10" s="38">
-        <v>0</v>
-      </c>
-      <c r="L10" s="38">
-        <v>0</v>
-      </c>
-      <c r="M10" s="38">
-        <v>1</v>
-      </c>
-      <c r="N10" s="38">
-        <v>0</v>
-      </c>
-      <c r="O10" s="38">
-        <v>0</v>
-      </c>
-      <c r="P10" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="38">
-        <v>0</v>
-      </c>
-      <c r="R10" s="38">
-        <v>1</v>
-      </c>
-      <c r="S10" s="38">
-        <v>0</v>
-      </c>
-      <c r="T10" s="38">
-        <v>0</v>
-      </c>
-      <c r="U10" s="38">
-        <v>0</v>
-      </c>
-      <c r="V10" s="53" t="s">
+      <c r="J10" s="29">
+        <v>0</v>
+      </c>
+      <c r="K10" s="29">
+        <v>0</v>
+      </c>
+      <c r="L10" s="29">
+        <v>0</v>
+      </c>
+      <c r="M10" s="29">
+        <v>1</v>
+      </c>
+      <c r="N10" s="29">
+        <v>0</v>
+      </c>
+      <c r="O10" s="29">
+        <v>0</v>
+      </c>
+      <c r="P10" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="29">
+        <v>0</v>
+      </c>
+      <c r="R10" s="29">
+        <v>1</v>
+      </c>
+      <c r="S10" s="29">
+        <v>0</v>
+      </c>
+      <c r="T10" s="29">
+        <v>0</v>
+      </c>
+      <c r="U10" s="29">
+        <v>0</v>
+      </c>
+      <c r="V10" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="W10" s="38" t="s">
+      <c r="W10" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="X10" s="38" t="s">
+      <c r="X10" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Y10" s="38" t="s">
+      <c r="Y10" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Z10" s="38" t="s">
+      <c r="Z10" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AA10" s="38" t="s">
+      <c r="AA10" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AB10" s="54" t="str">
+      <c r="AB10" s="44" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>
-      <c r="AC10" s="55" t="str">
+      <c r="AC10" s="45" t="str">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="AD10" s="56" t="str">
+      <c r="AD10" s="46" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="AM10" s="52" t="str">
+      <c r="AM10" s="42" t="str">
         <f t="shared" si="3"/>
         <v>004200</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A11" s="38">
+    <row r="11" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A11" s="29">
         <v>8</v>
       </c>
-      <c r="B11" s="38" t="str">
+      <c r="B11" s="29" t="str">
         <f t="shared" si="4"/>
         <v>0x8</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="38">
-        <v>0</v>
-      </c>
-      <c r="E11" s="38">
-        <v>0</v>
-      </c>
-      <c r="F11" s="38">
-        <v>0</v>
-      </c>
-      <c r="G11" s="38">
-        <v>0</v>
-      </c>
-      <c r="H11" s="38">
-        <v>0</v>
-      </c>
-      <c r="I11" s="38" t="s">
+      <c r="D11" s="29">
+        <v>0</v>
+      </c>
+      <c r="E11" s="29">
+        <v>0</v>
+      </c>
+      <c r="F11" s="29">
+        <v>0</v>
+      </c>
+      <c r="G11" s="29">
+        <v>0</v>
+      </c>
+      <c r="H11" s="29">
+        <v>0</v>
+      </c>
+      <c r="I11" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="38">
-        <v>0</v>
-      </c>
-      <c r="K11" s="38">
-        <v>0</v>
-      </c>
-      <c r="L11" s="38">
-        <v>0</v>
-      </c>
-      <c r="M11" s="38">
-        <v>1</v>
-      </c>
-      <c r="N11" s="38">
-        <v>1</v>
-      </c>
-      <c r="O11" s="38">
-        <v>0</v>
-      </c>
-      <c r="P11" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="38">
-        <v>0</v>
-      </c>
-      <c r="R11" s="38">
-        <v>1</v>
-      </c>
-      <c r="S11" s="38">
-        <v>0</v>
-      </c>
-      <c r="T11" s="38">
-        <v>0</v>
-      </c>
-      <c r="U11" s="38">
-        <v>0</v>
-      </c>
-      <c r="V11" s="53" t="s">
+      <c r="J11" s="29">
+        <v>0</v>
+      </c>
+      <c r="K11" s="29">
+        <v>0</v>
+      </c>
+      <c r="L11" s="29">
+        <v>0</v>
+      </c>
+      <c r="M11" s="29">
+        <v>1</v>
+      </c>
+      <c r="N11" s="29">
+        <v>1</v>
+      </c>
+      <c r="O11" s="29">
+        <v>0</v>
+      </c>
+      <c r="P11" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="29">
+        <v>0</v>
+      </c>
+      <c r="R11" s="29">
+        <v>1</v>
+      </c>
+      <c r="S11" s="29">
+        <v>0</v>
+      </c>
+      <c r="T11" s="29">
+        <v>0</v>
+      </c>
+      <c r="U11" s="29">
+        <v>0</v>
+      </c>
+      <c r="V11" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="W11" s="38" t="s">
+      <c r="W11" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="X11" s="38" t="s">
+      <c r="X11" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Y11" s="38" t="s">
+      <c r="Y11" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Z11" s="38" t="s">
+      <c r="Z11" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AA11" s="38" t="s">
+      <c r="AA11" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AB11" s="54" t="str">
+      <c r="AB11" s="44" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>
-      <c r="AC11" s="55" t="str">
+      <c r="AC11" s="45" t="str">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="AD11" s="56" t="str">
+      <c r="AD11" s="46" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="AM11" s="52" t="str">
+      <c r="AM11" s="42" t="str">
         <f t="shared" si="3"/>
         <v>006200</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A12" s="38">
+    <row r="12" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A12" s="29">
         <v>9</v>
       </c>
-      <c r="B12" s="38" t="str">
+      <c r="B12" s="29" t="str">
         <f t="shared" si="4"/>
         <v>0x9</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="38">
-        <v>0</v>
-      </c>
-      <c r="E12" s="38">
-        <v>0</v>
-      </c>
-      <c r="F12" s="38">
-        <v>0</v>
-      </c>
-      <c r="G12" s="38">
-        <v>0</v>
-      </c>
-      <c r="H12" s="38">
-        <v>0</v>
-      </c>
-      <c r="I12" s="38" t="s">
+      <c r="D12" s="29">
+        <v>0</v>
+      </c>
+      <c r="E12" s="29">
+        <v>0</v>
+      </c>
+      <c r="F12" s="29">
+        <v>0</v>
+      </c>
+      <c r="G12" s="29">
+        <v>0</v>
+      </c>
+      <c r="H12" s="29">
+        <v>0</v>
+      </c>
+      <c r="I12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="38">
-        <v>0</v>
-      </c>
-      <c r="K12" s="38">
-        <v>0</v>
-      </c>
-      <c r="L12" s="38">
-        <v>0</v>
-      </c>
-      <c r="M12" s="38">
-        <v>0</v>
-      </c>
-      <c r="N12" s="38">
-        <v>0</v>
-      </c>
-      <c r="O12" s="38">
-        <v>0</v>
-      </c>
-      <c r="P12" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="38">
-        <v>0</v>
-      </c>
-      <c r="R12" s="38">
-        <v>0</v>
-      </c>
-      <c r="S12" s="38">
-        <v>1</v>
-      </c>
-      <c r="T12" s="38">
-        <v>0</v>
-      </c>
-      <c r="U12" s="38">
-        <v>0</v>
-      </c>
-      <c r="V12" s="53" t="s">
+      <c r="J12" s="29">
+        <v>0</v>
+      </c>
+      <c r="K12" s="29">
+        <v>0</v>
+      </c>
+      <c r="L12" s="29">
+        <v>0</v>
+      </c>
+      <c r="M12" s="29">
+        <v>0</v>
+      </c>
+      <c r="N12" s="29">
+        <v>0</v>
+      </c>
+      <c r="O12" s="29">
+        <v>0</v>
+      </c>
+      <c r="P12" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="29">
+        <v>0</v>
+      </c>
+      <c r="R12" s="29">
+        <v>0</v>
+      </c>
+      <c r="S12" s="29">
+        <v>1</v>
+      </c>
+      <c r="T12" s="29">
+        <v>0</v>
+      </c>
+      <c r="U12" s="29">
+        <v>0</v>
+      </c>
+      <c r="V12" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="W12" s="38" t="s">
+      <c r="W12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="X12" s="38" t="s">
+      <c r="X12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Y12" s="38" t="s">
+      <c r="Y12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Z12" s="38" t="s">
+      <c r="Z12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AA12" s="38" t="s">
+      <c r="AA12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AB12" s="54" t="str">
+      <c r="AB12" s="44" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>
-      <c r="AC12" s="55" t="str">
+      <c r="AC12" s="45" t="str">
         <f t="shared" si="1"/>
         <v>01</v>
       </c>
-      <c r="AD12" s="56" t="str">
+      <c r="AD12" s="46" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="AM12" s="52" t="str">
+      <c r="AM12" s="42" t="str">
         <f>AB12 &amp; AC12 &amp; AD12</f>
         <v>000100</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A13" s="38">
+    <row r="13" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A13" s="29">
         <v>10</v>
       </c>
-      <c r="B13" s="38" t="str">
+      <c r="B13" s="29" t="str">
         <f t="shared" si="4"/>
         <v>0xA</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="38">
-        <v>0</v>
-      </c>
-      <c r="E13" s="38">
-        <v>0</v>
-      </c>
-      <c r="F13" s="38">
-        <v>0</v>
-      </c>
-      <c r="G13" s="38">
-        <v>1</v>
-      </c>
-      <c r="H13" s="38">
-        <v>1</v>
-      </c>
-      <c r="I13" s="38">
-        <v>0</v>
-      </c>
-      <c r="J13" s="38">
-        <v>0</v>
-      </c>
-      <c r="K13" s="38">
-        <v>0</v>
-      </c>
-      <c r="L13" s="38">
-        <v>0</v>
-      </c>
-      <c r="M13" s="38">
-        <v>0</v>
-      </c>
-      <c r="N13" s="38">
-        <v>0</v>
-      </c>
-      <c r="O13" s="40">
-        <v>1</v>
-      </c>
-      <c r="P13" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="38">
-        <v>0</v>
-      </c>
-      <c r="R13" s="38">
-        <v>0</v>
-      </c>
-      <c r="S13" s="38">
-        <v>0</v>
-      </c>
-      <c r="T13" s="38">
-        <v>0</v>
-      </c>
-      <c r="U13" s="38">
-        <v>0</v>
-      </c>
-      <c r="V13" s="53" t="s">
+      <c r="D13" s="29">
+        <v>0</v>
+      </c>
+      <c r="E13" s="29">
+        <v>0</v>
+      </c>
+      <c r="F13" s="29">
+        <v>0</v>
+      </c>
+      <c r="G13" s="29">
+        <v>1</v>
+      </c>
+      <c r="H13" s="29">
+        <v>1</v>
+      </c>
+      <c r="I13" s="29">
+        <v>0</v>
+      </c>
+      <c r="J13" s="29">
+        <v>0</v>
+      </c>
+      <c r="K13" s="29">
+        <v>0</v>
+      </c>
+      <c r="L13" s="29">
+        <v>0</v>
+      </c>
+      <c r="M13" s="29">
+        <v>0</v>
+      </c>
+      <c r="N13" s="29">
+        <v>0</v>
+      </c>
+      <c r="O13" s="31">
+        <v>1</v>
+      </c>
+      <c r="P13" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="29">
+        <v>0</v>
+      </c>
+      <c r="R13" s="29">
+        <v>0</v>
+      </c>
+      <c r="S13" s="29">
+        <v>0</v>
+      </c>
+      <c r="T13" s="29">
+        <v>0</v>
+      </c>
+      <c r="U13" s="29">
+        <v>0</v>
+      </c>
+      <c r="V13" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="W13" s="38" t="s">
+      <c r="W13" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="X13" s="38" t="s">
+      <c r="X13" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Y13" s="38" t="s">
+      <c r="Y13" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Z13" s="38" t="s">
+      <c r="Z13" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AA13" s="38" t="s">
+      <c r="AA13" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AB13" s="54" t="str">
+      <c r="AB13" s="44" t="str">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AC13" s="55" t="str">
+      <c r="AC13" s="45" t="str">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="AD13" s="56" t="str">
+      <c r="AD13" s="46" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="AF13" s="57" t="s">
+      <c r="AF13" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="AM13" s="52" t="str">
+      <c r="AM13" s="42" t="str">
         <f t="shared" ref="AM13:AM45" si="5">AB13 &amp; AC13 &amp; AD13</f>
         <v>181800</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A14" s="38">
+    <row r="14" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A14" s="29">
         <v>11</v>
       </c>
-      <c r="B14" s="38" t="str">
+      <c r="B14" s="29" t="str">
         <f t="shared" si="4"/>
         <v>0xB</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="38">
-        <v>0</v>
-      </c>
-      <c r="E14" s="38">
-        <v>0</v>
-      </c>
-      <c r="F14" s="38">
-        <v>0</v>
-      </c>
-      <c r="G14" s="38">
-        <v>0</v>
-      </c>
-      <c r="H14" s="38">
-        <v>1</v>
-      </c>
-      <c r="I14" s="38">
-        <v>0</v>
-      </c>
-      <c r="J14" s="38">
-        <v>0</v>
-      </c>
-      <c r="K14" s="38">
-        <v>1</v>
-      </c>
-      <c r="L14" s="38">
-        <v>0</v>
-      </c>
-      <c r="M14" s="38">
-        <v>0</v>
-      </c>
-      <c r="N14" s="38">
-        <v>0</v>
-      </c>
-      <c r="O14" s="40">
-        <v>1</v>
-      </c>
-      <c r="P14" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="38">
-        <v>0</v>
-      </c>
-      <c r="R14" s="38">
-        <v>0</v>
-      </c>
-      <c r="S14" s="38">
-        <v>0</v>
-      </c>
-      <c r="T14" s="38">
-        <v>0</v>
-      </c>
-      <c r="U14" s="38">
-        <v>0</v>
-      </c>
-      <c r="V14" s="53" t="s">
+      <c r="D14" s="29">
+        <v>0</v>
+      </c>
+      <c r="E14" s="29">
+        <v>0</v>
+      </c>
+      <c r="F14" s="29">
+        <v>0</v>
+      </c>
+      <c r="G14" s="29">
+        <v>0</v>
+      </c>
+      <c r="H14" s="29">
+        <v>1</v>
+      </c>
+      <c r="I14" s="29">
+        <v>0</v>
+      </c>
+      <c r="J14" s="29">
+        <v>0</v>
+      </c>
+      <c r="K14" s="29">
+        <v>1</v>
+      </c>
+      <c r="L14" s="29">
+        <v>0</v>
+      </c>
+      <c r="M14" s="29">
+        <v>0</v>
+      </c>
+      <c r="N14" s="29">
+        <v>0</v>
+      </c>
+      <c r="O14" s="31">
+        <v>1</v>
+      </c>
+      <c r="P14" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="29">
+        <v>0</v>
+      </c>
+      <c r="R14" s="29">
+        <v>0</v>
+      </c>
+      <c r="S14" s="29">
+        <v>0</v>
+      </c>
+      <c r="T14" s="29">
+        <v>0</v>
+      </c>
+      <c r="U14" s="29">
+        <v>0</v>
+      </c>
+      <c r="V14" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="W14" s="38" t="s">
+      <c r="W14" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="X14" s="38" t="s">
+      <c r="X14" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Y14" s="38" t="s">
+      <c r="Y14" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Z14" s="38" t="s">
+      <c r="Z14" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AA14" s="38" t="s">
+      <c r="AA14" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AB14" s="54" t="str">
+      <c r="AB14" s="44" t="str">
         <f t="shared" si="0"/>
         <v>09</v>
       </c>
-      <c r="AC14" s="55" t="str">
+      <c r="AC14" s="45" t="str">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="AD14" s="56" t="str">
+      <c r="AD14" s="46" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="AM14" s="52" t="str">
+      <c r="AM14" s="42" t="str">
         <f t="shared" si="5"/>
         <v>091800</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A15" s="38">
+    <row r="15" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A15" s="29">
         <v>12</v>
       </c>
-      <c r="B15" s="38" t="str">
+      <c r="B15" s="29" t="str">
         <f t="shared" si="4"/>
         <v>0xC</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="D15" s="38">
-        <v>0</v>
-      </c>
-      <c r="E15" s="38">
-        <v>0</v>
-      </c>
-      <c r="F15" s="38">
-        <v>0</v>
-      </c>
-      <c r="G15" s="38">
-        <v>0</v>
-      </c>
-      <c r="H15" s="38">
-        <v>0</v>
-      </c>
-      <c r="I15" s="38" t="s">
+      <c r="D15" s="29">
+        <v>0</v>
+      </c>
+      <c r="E15" s="29">
+        <v>0</v>
+      </c>
+      <c r="F15" s="29">
+        <v>0</v>
+      </c>
+      <c r="G15" s="29">
+        <v>0</v>
+      </c>
+      <c r="H15" s="29">
+        <v>0</v>
+      </c>
+      <c r="I15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="38">
-        <v>0</v>
-      </c>
-      <c r="K15" s="38">
-        <v>0</v>
-      </c>
-      <c r="L15" s="38">
-        <v>0</v>
-      </c>
-      <c r="M15" s="38">
-        <v>1</v>
-      </c>
-      <c r="N15" s="38">
-        <v>0</v>
-      </c>
-      <c r="O15" s="40">
-        <v>0</v>
-      </c>
-      <c r="P15" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="38">
-        <v>0</v>
-      </c>
-      <c r="R15" s="38">
-        <v>0</v>
-      </c>
-      <c r="S15" s="38">
-        <v>0</v>
-      </c>
-      <c r="T15" s="38">
-        <v>0</v>
-      </c>
-      <c r="U15" s="38">
-        <v>1</v>
-      </c>
-      <c r="V15" s="53" t="s">
+      <c r="J15" s="29">
+        <v>0</v>
+      </c>
+      <c r="K15" s="29">
+        <v>0</v>
+      </c>
+      <c r="L15" s="29">
+        <v>0</v>
+      </c>
+      <c r="M15" s="29">
+        <v>1</v>
+      </c>
+      <c r="N15" s="29">
+        <v>0</v>
+      </c>
+      <c r="O15" s="31">
+        <v>0</v>
+      </c>
+      <c r="P15" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="29">
+        <v>0</v>
+      </c>
+      <c r="R15" s="29">
+        <v>0</v>
+      </c>
+      <c r="S15" s="29">
+        <v>0</v>
+      </c>
+      <c r="T15" s="29">
+        <v>0</v>
+      </c>
+      <c r="U15" s="29">
+        <v>1</v>
+      </c>
+      <c r="V15" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="W15" s="38" t="s">
+      <c r="W15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="X15" s="38" t="s">
+      <c r="X15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Y15" s="38" t="s">
+      <c r="Y15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Z15" s="38" t="s">
+      <c r="Z15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AA15" s="38" t="s">
+      <c r="AA15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AB15" s="54" t="str">
+      <c r="AB15" s="44" t="str">
         <f t="shared" ref="AB15:AB16" si="6">BIN2HEX(IF(D15="x", 0, D15) &amp; IF(E15="x", 0, E15) &amp; IF(F15="x", 0, F15) &amp; IF(G15="x", 0, G15) &amp; IF(H15="x", 0, H15) &amp; IF(I15="x", 0, I15) &amp; IF(J15="x", 0, J15) &amp; IF(K15="x", 0, K15), 2)</f>
         <v>00</v>
       </c>
-      <c r="AC15" s="55" t="str">
+      <c r="AC15" s="45" t="str">
         <f t="shared" ref="AC15:AC16" si="7">BIN2HEX(IF(L15="x", 0, L15) &amp; IF(M15="x", 0, M15) &amp; IF(N15="x", 0, N15) &amp; IF(O15="x", 0, O15) &amp;  IF(P15="x", 0, P15) &amp; IF(Q15="x", 0, Q15) &amp; IF(R15="x", 0, R15) &amp; IF(S15="x", 0, S15), 2)</f>
         <v>40</v>
       </c>
-      <c r="AD15" s="56" t="str">
+      <c r="AD15" s="46" t="str">
         <f t="shared" ref="AD15:AD16" si="8">BIN2HEX(IF(T15="x", 0, T15) &amp; IF(U15="x", 0, U15) &amp; IF(V15="x", 0, V15) &amp; IF(W15="x", 0, W15) &amp; IF(X15="x", 0, X15) &amp; IF(Y15="x", 0, Y15) &amp; IF(Z15="x", 0, Z15) &amp; IF(AA15="x", 0, AA15), 2)</f>
         <v>40</v>
       </c>
-      <c r="AF15" s="57"/>
-      <c r="AM15" s="52" t="str">
+      <c r="AF15" s="47"/>
+      <c r="AM15" s="42" t="str">
         <f t="shared" si="5"/>
         <v>004040</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A16" s="38">
+    <row r="16" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A16" s="29">
         <v>13</v>
       </c>
-      <c r="B16" s="38" t="str">
+      <c r="B16" s="29" t="str">
         <f t="shared" si="4"/>
         <v>0xD</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="37" t="s">
         <v>347</v>
       </c>
-      <c r="D16" s="38">
-        <v>0</v>
-      </c>
-      <c r="E16" s="38">
-        <v>0</v>
-      </c>
-      <c r="F16" s="38">
-        <v>0</v>
-      </c>
-      <c r="G16" s="38">
-        <v>0</v>
-      </c>
-      <c r="H16" s="38">
-        <v>0</v>
-      </c>
-      <c r="I16" s="38" t="s">
+      <c r="D16" s="29">
+        <v>0</v>
+      </c>
+      <c r="E16" s="29">
+        <v>0</v>
+      </c>
+      <c r="F16" s="29">
+        <v>0</v>
+      </c>
+      <c r="G16" s="29">
+        <v>0</v>
+      </c>
+      <c r="H16" s="29">
+        <v>0</v>
+      </c>
+      <c r="I16" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="38">
-        <v>0</v>
-      </c>
-      <c r="K16" s="38">
-        <v>0</v>
-      </c>
-      <c r="L16" s="38">
-        <v>0</v>
-      </c>
-      <c r="M16" s="38">
-        <v>1</v>
-      </c>
-      <c r="N16" s="38">
-        <v>0</v>
-      </c>
-      <c r="O16" s="40">
-        <v>0</v>
-      </c>
-      <c r="P16" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="38">
-        <v>0</v>
-      </c>
-      <c r="R16" s="38">
-        <v>1</v>
-      </c>
-      <c r="S16" s="38">
-        <v>0</v>
-      </c>
-      <c r="T16" s="38">
-        <v>0</v>
-      </c>
-      <c r="U16" s="38">
-        <v>1</v>
-      </c>
-      <c r="V16" s="53" t="s">
+      <c r="J16" s="29">
+        <v>0</v>
+      </c>
+      <c r="K16" s="29">
+        <v>0</v>
+      </c>
+      <c r="L16" s="29">
+        <v>0</v>
+      </c>
+      <c r="M16" s="29">
+        <v>1</v>
+      </c>
+      <c r="N16" s="29">
+        <v>0</v>
+      </c>
+      <c r="O16" s="31">
+        <v>0</v>
+      </c>
+      <c r="P16" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="29">
+        <v>0</v>
+      </c>
+      <c r="R16" s="29">
+        <v>1</v>
+      </c>
+      <c r="S16" s="29">
+        <v>0</v>
+      </c>
+      <c r="T16" s="29">
+        <v>0</v>
+      </c>
+      <c r="U16" s="29">
+        <v>1</v>
+      </c>
+      <c r="V16" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="W16" s="38" t="s">
+      <c r="W16" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="X16" s="38" t="s">
+      <c r="X16" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Y16" s="38" t="s">
+      <c r="Y16" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Z16" s="38" t="s">
+      <c r="Z16" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AA16" s="38" t="s">
+      <c r="AA16" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AB16" s="54" t="str">
+      <c r="AB16" s="44" t="str">
         <f t="shared" si="6"/>
         <v>00</v>
       </c>
-      <c r="AC16" s="55" t="str">
+      <c r="AC16" s="45" t="str">
         <f t="shared" si="7"/>
         <v>42</v>
       </c>
-      <c r="AD16" s="56" t="str">
+      <c r="AD16" s="46" t="str">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="AF16" s="57"/>
-      <c r="AM16" s="52" t="str">
+      <c r="AF16" s="47"/>
+      <c r="AM16" s="42" t="str">
         <f t="shared" si="5"/>
         <v>004240</v>
       </c>
     </row>
-    <row r="17" spans="1:40" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58">
+    <row r="17" spans="1:40" s="42" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A17" s="48">
         <v>14</v>
       </c>
-      <c r="B17" s="38" t="str">
+      <c r="B17" s="29" t="str">
         <f t="shared" si="4"/>
         <v>0xE</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="T17" s="58">
-        <v>0</v>
-      </c>
-      <c r="U17" s="58">
-        <v>0</v>
-      </c>
-      <c r="V17" s="60"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="58"/>
-      <c r="Y17" s="58"/>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="61" t="str">
+      <c r="C17" s="49"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="T17" s="48">
+        <v>0</v>
+      </c>
+      <c r="U17" s="48">
+        <v>0</v>
+      </c>
+      <c r="V17" s="50"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="51" t="str">
         <f t="shared" ref="AB17:AB19" si="9">BIN2HEX(IF(D17="x", 0, D17) &amp; IF(E17="x", 0, E17) &amp; IF(F17="x", 0, F17) &amp; IF(G17="x", 0, G17) &amp; IF(H17="x", 0, H17) &amp; IF(I17="x", 0, I17) &amp; IF(J17="x", 0, J17) &amp; IF(K17="x", 0, K17), 2)</f>
         <v>00</v>
       </c>
-      <c r="AC17" s="62" t="str">
+      <c r="AC17" s="52" t="str">
         <f t="shared" ref="AC17:AC19" si="10">BIN2HEX(IF(L17="x", 0, L17) &amp; IF(M17="x", 0, M17) &amp; IF(N17="x", 0, N17) &amp; IF(O17="x", 0, O17) &amp;  IF(P17="x", 0, P17) &amp; IF(Q17="x", 0, Q17) &amp; IF(R17="x", 0, R17) &amp; IF(S17="x", 0, S17), 2)</f>
         <v>00</v>
       </c>
-      <c r="AD17" s="63" t="str">
+      <c r="AD17" s="53" t="str">
         <f t="shared" ref="AD17:AD19" si="11">BIN2HEX(IF(T17="x", 0, T17) &amp; IF(U17="x", 0, U17) &amp; IF(V17="x", 0, V17) &amp; IF(W17="x", 0, W17) &amp; IF(X17="x", 0, X17) &amp; IF(Y17="x", 0, Y17) &amp; IF(Z17="x", 0, Z17) &amp; IF(AA17="x", 0, AA17), 2)</f>
         <v>00</v>
       </c>
-      <c r="AM17" s="52" t="str">
+      <c r="AM17" s="42" t="str">
         <f t="shared" si="5"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58">
+    <row r="18" spans="1:40" s="42" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A18" s="48">
         <v>15</v>
       </c>
-      <c r="B18" s="38" t="str">
+      <c r="B18" s="29" t="str">
         <f t="shared" si="4"/>
         <v>0xF</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="T18" s="58">
-        <v>0</v>
-      </c>
-      <c r="U18" s="58">
-        <v>0</v>
-      </c>
-      <c r="V18" s="60"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="58"/>
-      <c r="AA18" s="58"/>
-      <c r="AB18" s="61" t="str">
+      <c r="C18" s="49"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="T18" s="48">
+        <v>0</v>
+      </c>
+      <c r="U18" s="48">
+        <v>0</v>
+      </c>
+      <c r="V18" s="50"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="51" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="AC18" s="62" t="str">
+      <c r="AC18" s="52" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="AD18" s="63" t="str">
+      <c r="AD18" s="53" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
-      <c r="AM18" s="52" t="str">
+      <c r="AM18" s="42" t="str">
         <f t="shared" si="5"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58">
+    <row r="19" spans="1:40" s="42" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A19" s="48">
         <v>16</v>
       </c>
-      <c r="B19" s="38" t="str">
+      <c r="B19" s="29" t="str">
         <f t="shared" si="4"/>
         <v>0x10</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="P19" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="52">
-        <v>0</v>
-      </c>
-      <c r="T19" s="52">
-        <v>0</v>
-      </c>
-      <c r="U19" s="52">
-        <v>0</v>
-      </c>
-      <c r="V19" s="61"/>
-      <c r="AB19" s="61" t="str">
+      <c r="P19" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="42">
+        <v>0</v>
+      </c>
+      <c r="T19" s="42">
+        <v>0</v>
+      </c>
+      <c r="U19" s="42">
+        <v>0</v>
+      </c>
+      <c r="V19" s="51"/>
+      <c r="AB19" s="51" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="AC19" s="62" t="str">
+      <c r="AC19" s="52" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="AD19" s="63" t="str">
+      <c r="AD19" s="53" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
-      <c r="AF19" s="52" t="s">
+      <c r="AF19" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="AM19" s="52" t="str">
+      <c r="AM19" s="42" t="str">
         <f t="shared" si="5"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A20" s="38">
+    <row r="20" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A20" s="29">
         <v>17</v>
       </c>
-      <c r="B20" s="38" t="str">
+      <c r="B20" s="29" t="str">
         <f t="shared" si="4"/>
         <v>0x11</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="40">
-        <v>0</v>
-      </c>
-      <c r="E20" s="40">
-        <v>0</v>
-      </c>
-      <c r="F20" s="40">
-        <v>0</v>
-      </c>
-      <c r="G20" s="40">
-        <v>0</v>
-      </c>
-      <c r="H20" s="40">
-        <v>0</v>
-      </c>
-      <c r="I20" s="40">
-        <v>0</v>
-      </c>
-      <c r="J20" s="40">
-        <v>0</v>
-      </c>
-      <c r="K20" s="40">
-        <v>0</v>
-      </c>
-      <c r="L20" s="40">
-        <v>0</v>
-      </c>
-      <c r="M20" s="40">
-        <v>0</v>
-      </c>
-      <c r="N20" s="40">
-        <v>0</v>
-      </c>
-      <c r="O20" s="40">
-        <v>0</v>
-      </c>
-      <c r="P20" s="40">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="40">
-        <v>0</v>
-      </c>
-      <c r="R20" s="40">
-        <v>0</v>
-      </c>
-      <c r="S20" s="40">
-        <v>0</v>
-      </c>
-      <c r="T20" s="40">
-        <v>1</v>
-      </c>
-      <c r="U20" s="40">
-        <v>0</v>
-      </c>
-      <c r="V20" s="53" t="s">
+      <c r="D20" s="31">
+        <v>0</v>
+      </c>
+      <c r="E20" s="31">
+        <v>0</v>
+      </c>
+      <c r="F20" s="31">
+        <v>0</v>
+      </c>
+      <c r="G20" s="31">
+        <v>0</v>
+      </c>
+      <c r="H20" s="31">
+        <v>0</v>
+      </c>
+      <c r="I20" s="31">
+        <v>0</v>
+      </c>
+      <c r="J20" s="31">
+        <v>0</v>
+      </c>
+      <c r="K20" s="31">
+        <v>0</v>
+      </c>
+      <c r="L20" s="31">
+        <v>0</v>
+      </c>
+      <c r="M20" s="31">
+        <v>0</v>
+      </c>
+      <c r="N20" s="31">
+        <v>0</v>
+      </c>
+      <c r="O20" s="31">
+        <v>0</v>
+      </c>
+      <c r="P20" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="31">
+        <v>0</v>
+      </c>
+      <c r="R20" s="31">
+        <v>0</v>
+      </c>
+      <c r="S20" s="31">
+        <v>0</v>
+      </c>
+      <c r="T20" s="31">
+        <v>1</v>
+      </c>
+      <c r="U20" s="31">
+        <v>0</v>
+      </c>
+      <c r="V20" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="W20" s="38" t="s">
+      <c r="W20" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="X20" s="38" t="s">
+      <c r="X20" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Y20" s="38" t="s">
+      <c r="Y20" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Z20" s="38" t="s">
+      <c r="Z20" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AA20" s="38" t="s">
+      <c r="AA20" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AB20" s="54" t="str">
+      <c r="AB20" s="44" t="str">
         <f t="shared" ref="AB20" si="12">BIN2HEX(IF(D20="x", 0, D20) &amp; IF(E20="x", 0, E20) &amp; IF(F20="x", 0, F20) &amp; IF(G20="x", 0, G20) &amp; IF(H20="x", 0, H20) &amp; IF(I20="x", 0, I20) &amp; IF(J20="x", 0, J20) &amp; IF(K20="x", 0, K20), 2)</f>
         <v>00</v>
       </c>
-      <c r="AC20" s="55" t="str">
+      <c r="AC20" s="45" t="str">
         <f t="shared" ref="AC20" si="13">BIN2HEX(IF(L20="x", 0, L20) &amp; IF(M20="x", 0, M20) &amp; IF(N20="x", 0, N20) &amp; IF(O20="x", 0, O20) &amp;  IF(P20="x", 0, P20) &amp; IF(Q20="x", 0, Q20) &amp; IF(R20="x", 0, R20) &amp; IF(S20="x", 0, S20), 2)</f>
         <v>08</v>
       </c>
-      <c r="AD20" s="56" t="str">
+      <c r="AD20" s="46" t="str">
         <f t="shared" ref="AD20" si="14">BIN2HEX(IF(T20="x", 0, T20) &amp; IF(U20="x", 0, U20) &amp; IF(V20="x", 0, V20) &amp; IF(W20="x", 0, W20) &amp; IF(X20="x", 0, X20) &amp; IF(Y20="x", 0, Y20) &amp; IF(Z20="x", 0, Z20) &amp; IF(AA20="x", 0, AA20), 2)</f>
         <v>80</v>
       </c>
-      <c r="AM20" s="52" t="str">
+      <c r="AM20" s="42" t="str">
         <f t="shared" si="5"/>
         <v>000880</v>
       </c>
-      <c r="AN20" s="64"/>
-    </row>
-    <row r="21" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="38">
+      <c r="AN20" s="54"/>
+    </row>
+    <row r="21" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="29">
         <v>18</v>
       </c>
-      <c r="B21" s="38" t="str">
+      <c r="B21" s="29" t="str">
         <f t="shared" si="4"/>
         <v>0x12</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="54" t="str">
+      <c r="C21" s="55"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="44" t="str">
         <f t="shared" ref="AB21:AB34" si="15">BIN2HEX(IF(D21="x", 0, D21) &amp; IF(E21="x", 0, E21) &amp; IF(F21="x", 0, F21) &amp; IF(G21="x", 0, G21) &amp; IF(H21="x", 0, H21) &amp; IF(I21="x", 0, I21) &amp; IF(J21="x", 0, J21) &amp; IF(K21="x", 0, K21), 2)</f>
         <v>00</v>
       </c>
-      <c r="AC21" s="55" t="str">
+      <c r="AC21" s="45" t="str">
         <f t="shared" ref="AC21:AC34" si="16">BIN2HEX(IF(L21="x", 0, L21) &amp; IF(M21="x", 0, M21) &amp; IF(N21="x", 0, N21) &amp; IF(O21="x", 0, O21) &amp;  IF(P21="x", 0, P21) &amp; IF(Q21="x", 0, Q21) &amp; IF(R21="x", 0, R21) &amp; IF(S21="x", 0, S21), 2)</f>
         <v>00</v>
       </c>
-      <c r="AD21" s="56" t="str">
+      <c r="AD21" s="46" t="str">
         <f t="shared" ref="AD21:AD34" si="17">BIN2HEX(IF(T21="x", 0, T21) &amp; IF(U21="x", 0, U21) &amp; IF(V21="x", 0, V21) &amp; IF(W21="x", 0, W21) &amp; IF(X21="x", 0, X21) &amp; IF(Y21="x", 0, Y21) &amp; IF(Z21="x", 0, Z21) &amp; IF(AA21="x", 0, AA21), 2)</f>
         <v>00</v>
       </c>
-      <c r="AM21" s="52" t="str">
+      <c r="AM21" s="42" t="str">
         <f t="shared" si="5"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="38">
+    <row r="22" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="29">
         <v>19</v>
       </c>
-      <c r="B22" s="38" t="str">
+      <c r="B22" s="29" t="str">
         <f t="shared" si="4"/>
         <v>0x13</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="38"/>
-      <c r="AB22" s="54" t="str">
+      <c r="C22" s="55"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="44" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="AC22" s="55" t="str">
+      <c r="AC22" s="45" t="str">
         <f t="shared" si="16"/>
         <v>00</v>
       </c>
-      <c r="AD22" s="56" t="str">
+      <c r="AD22" s="46" t="str">
         <f t="shared" si="17"/>
         <v>00</v>
       </c>
-      <c r="AM22" s="52" t="str">
+      <c r="AM22" s="42" t="str">
         <f t="shared" si="5"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="38">
+    <row r="23" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="29">
         <v>20</v>
       </c>
-      <c r="B23" s="38" t="str">
+      <c r="B23" s="29" t="str">
         <f t="shared" si="4"/>
         <v>0x14</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="54" t="str">
+      <c r="C23" s="55"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="44" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="AC23" s="55" t="str">
+      <c r="AC23" s="45" t="str">
         <f t="shared" si="16"/>
         <v>00</v>
       </c>
-      <c r="AD23" s="56" t="str">
+      <c r="AD23" s="46" t="str">
         <f t="shared" si="17"/>
         <v>00</v>
       </c>
-      <c r="AM23" s="52" t="str">
+      <c r="AM23" s="42" t="str">
         <f t="shared" si="5"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="38">
+    <row r="24" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="29">
         <v>21</v>
       </c>
-      <c r="B24" s="38" t="str">
+      <c r="B24" s="29" t="str">
         <f t="shared" si="4"/>
         <v>0x15</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="54" t="str">
+      <c r="C24" s="55"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="44" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="AC24" s="55" t="str">
+      <c r="AC24" s="45" t="str">
         <f t="shared" si="16"/>
         <v>00</v>
       </c>
-      <c r="AD24" s="56" t="str">
+      <c r="AD24" s="46" t="str">
         <f t="shared" si="17"/>
         <v>00</v>
       </c>
-      <c r="AM24" s="52" t="str">
+      <c r="AM24" s="42" t="str">
         <f t="shared" si="5"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38">
+    <row r="25" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="29">
         <v>22</v>
       </c>
-      <c r="B25" s="38" t="str">
+      <c r="B25" s="29" t="str">
         <f t="shared" si="4"/>
         <v>0x16</v>
       </c>
-      <c r="C25" s="65"/>
-      <c r="V25" s="53"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="38"/>
-      <c r="AA25" s="38"/>
-      <c r="AB25" s="54" t="str">
+      <c r="C25" s="55"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="44" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="AC25" s="55" t="str">
+      <c r="AC25" s="45" t="str">
         <f t="shared" si="16"/>
         <v>00</v>
       </c>
-      <c r="AD25" s="56" t="str">
+      <c r="AD25" s="46" t="str">
         <f t="shared" si="17"/>
         <v>00</v>
       </c>
-      <c r="AM25" s="52" t="str">
+      <c r="AM25" s="42" t="str">
         <f t="shared" si="5"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="38">
+    <row r="26" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="29">
         <v>23</v>
       </c>
-      <c r="B26" s="38" t="str">
+      <c r="B26" s="29" t="str">
         <f t="shared" si="4"/>
         <v>0x17</v>
       </c>
-      <c r="C26" s="65"/>
-      <c r="V26" s="53"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="54" t="str">
+      <c r="C26" s="55"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="44" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="AC26" s="55" t="str">
+      <c r="AC26" s="45" t="str">
         <f t="shared" si="16"/>
         <v>00</v>
       </c>
-      <c r="AD26" s="56" t="str">
+      <c r="AD26" s="46" t="str">
         <f t="shared" si="17"/>
         <v>00</v>
       </c>
-      <c r="AM26" s="52" t="str">
+      <c r="AM26" s="42" t="str">
         <f t="shared" si="5"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="38">
+    <row r="27" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="29">
         <v>24</v>
       </c>
-      <c r="B27" s="38" t="str">
+      <c r="B27" s="29" t="str">
         <f t="shared" si="4"/>
         <v>0x18</v>
       </c>
-      <c r="C27" s="65"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="38"/>
-      <c r="AA27" s="38"/>
-      <c r="AB27" s="54" t="str">
+      <c r="C27" s="55"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="44" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="AC27" s="55" t="str">
+      <c r="AC27" s="45" t="str">
         <f t="shared" si="16"/>
         <v>00</v>
       </c>
-      <c r="AD27" s="56" t="str">
+      <c r="AD27" s="46" t="str">
         <f t="shared" si="17"/>
         <v>00</v>
       </c>
-      <c r="AM27" s="52" t="str">
+      <c r="AM27" s="42" t="str">
         <f t="shared" si="5"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="38">
+    <row r="28" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="29">
         <v>25</v>
       </c>
-      <c r="B28" s="38" t="str">
+      <c r="B28" s="29" t="str">
         <f t="shared" si="4"/>
         <v>0x19</v>
       </c>
-      <c r="C28" s="65"/>
-      <c r="V28" s="53"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="38"/>
-      <c r="AB28" s="54" t="str">
+      <c r="C28" s="55"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="44" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="AC28" s="55" t="str">
+      <c r="AC28" s="45" t="str">
         <f t="shared" si="16"/>
         <v>00</v>
       </c>
-      <c r="AD28" s="56" t="str">
+      <c r="AD28" s="46" t="str">
         <f t="shared" si="17"/>
         <v>00</v>
       </c>
-      <c r="AM28" s="52" t="str">
+      <c r="AM28" s="42" t="str">
         <f t="shared" si="5"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="38">
+    <row r="29" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="29">
         <v>26</v>
       </c>
-      <c r="B29" s="38" t="str">
+      <c r="B29" s="29" t="str">
         <f t="shared" si="4"/>
         <v>0x1A</v>
       </c>
-      <c r="C29" s="65"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="38"/>
-      <c r="AA29" s="38"/>
-      <c r="AB29" s="54" t="str">
+      <c r="C29" s="55"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="44" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="AC29" s="55" t="str">
+      <c r="AC29" s="45" t="str">
         <f t="shared" si="16"/>
         <v>00</v>
       </c>
-      <c r="AD29" s="56" t="str">
+      <c r="AD29" s="46" t="str">
         <f t="shared" si="17"/>
         <v>00</v>
       </c>
-      <c r="AM29" s="52" t="str">
+      <c r="AM29" s="42" t="str">
         <f t="shared" si="5"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="38">
+    <row r="30" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="29">
         <v>27</v>
       </c>
-      <c r="B30" s="38" t="str">
+      <c r="B30" s="29" t="str">
         <f t="shared" si="4"/>
         <v>0x1B</v>
       </c>
-      <c r="C30" s="65"/>
-      <c r="V30" s="53"/>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="38"/>
-      <c r="AA30" s="38"/>
-      <c r="AB30" s="54" t="str">
+      <c r="C30" s="55"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="44" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="AC30" s="55" t="str">
+      <c r="AC30" s="45" t="str">
         <f t="shared" si="16"/>
         <v>00</v>
       </c>
-      <c r="AD30" s="56" t="str">
+      <c r="AD30" s="46" t="str">
         <f t="shared" si="17"/>
         <v>00</v>
       </c>
-      <c r="AM30" s="52" t="str">
+      <c r="AM30" s="42" t="str">
         <f t="shared" si="5"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38">
+    <row r="31" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="29">
         <v>28</v>
       </c>
-      <c r="B31" s="38" t="str">
+      <c r="B31" s="29" t="str">
         <f t="shared" si="4"/>
         <v>0x1C</v>
       </c>
-      <c r="C31" s="65"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="38"/>
-      <c r="X31" s="38"/>
-      <c r="Y31" s="38"/>
-      <c r="Z31" s="38"/>
-      <c r="AA31" s="38"/>
-      <c r="AB31" s="54" t="str">
+      <c r="C31" s="55"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="44" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="AC31" s="55" t="str">
+      <c r="AC31" s="45" t="str">
         <f t="shared" si="16"/>
         <v>00</v>
       </c>
-      <c r="AD31" s="56" t="str">
+      <c r="AD31" s="46" t="str">
         <f t="shared" si="17"/>
         <v>00</v>
       </c>
-      <c r="AM31" s="52" t="str">
+      <c r="AM31" s="42" t="str">
         <f t="shared" si="5"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="38">
+    <row r="32" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="29">
         <v>29</v>
       </c>
-      <c r="B32" s="38" t="str">
+      <c r="B32" s="29" t="str">
         <f t="shared" si="4"/>
         <v>0x1D</v>
       </c>
-      <c r="C32" s="65"/>
-      <c r="V32" s="53"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="38"/>
-      <c r="AA32" s="38"/>
-      <c r="AB32" s="54" t="str">
+      <c r="C32" s="55"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="29"/>
+      <c r="AB32" s="44" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="AC32" s="55" t="str">
+      <c r="AC32" s="45" t="str">
         <f t="shared" si="16"/>
         <v>00</v>
       </c>
-      <c r="AD32" s="56" t="str">
+      <c r="AD32" s="46" t="str">
         <f t="shared" si="17"/>
         <v>00</v>
       </c>
-      <c r="AM32" s="52" t="str">
+      <c r="AM32" s="42" t="str">
         <f t="shared" si="5"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="33" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="38">
+    <row r="33" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="29">
         <v>30</v>
       </c>
-      <c r="B33" s="38" t="str">
+      <c r="B33" s="29" t="str">
         <f t="shared" si="4"/>
         <v>0x1E</v>
       </c>
-      <c r="C33" s="65"/>
-      <c r="V33" s="53"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="38"/>
-      <c r="Z33" s="38"/>
-      <c r="AA33" s="38"/>
-      <c r="AB33" s="54" t="str">
+      <c r="C33" s="55"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="29"/>
+      <c r="AB33" s="44" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="AC33" s="55" t="str">
+      <c r="AC33" s="45" t="str">
         <f t="shared" si="16"/>
         <v>00</v>
       </c>
-      <c r="AD33" s="56" t="str">
+      <c r="AD33" s="46" t="str">
         <f t="shared" si="17"/>
         <v>00</v>
       </c>
-      <c r="AM33" s="52" t="str">
+      <c r="AM33" s="42" t="str">
         <f t="shared" si="5"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="34" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="38">
+    <row r="34" spans="1:40" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="29">
         <v>31</v>
       </c>
-      <c r="B34" s="38" t="str">
+      <c r="B34" s="29" t="str">
         <f t="shared" si="4"/>
         <v>0x1F</v>
       </c>
-      <c r="C34" s="65"/>
-      <c r="V34" s="53"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="38"/>
-      <c r="AA34" s="38"/>
-      <c r="AB34" s="54" t="str">
+      <c r="C34" s="55"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="44" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="AC34" s="55" t="str">
+      <c r="AC34" s="45" t="str">
         <f t="shared" si="16"/>
         <v>00</v>
       </c>
-      <c r="AD34" s="56" t="str">
+      <c r="AD34" s="46" t="str">
         <f t="shared" si="17"/>
         <v>00</v>
       </c>
-      <c r="AM34" s="52" t="str">
+      <c r="AM34" s="42" t="str">
         <f t="shared" si="5"/>
         <v>000000</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="C35" s="65"/>
-      <c r="V35" s="53"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="38"/>
-      <c r="Y35" s="38"/>
-      <c r="Z35" s="38"/>
-      <c r="AA35" s="38"/>
-      <c r="AB35" s="54"/>
-      <c r="AC35" s="55"/>
-      <c r="AD35" s="56"/>
-      <c r="AM35" s="52"/>
-    </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A36" s="38">
+    <row r="35" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C35" s="55"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="44"/>
+      <c r="AC35" s="45"/>
+      <c r="AD35" s="46"/>
+      <c r="AM35" s="42"/>
+    </row>
+    <row r="36" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A36" s="29">
         <v>32</v>
       </c>
-      <c r="B36" s="38" t="str">
+      <c r="B36" s="29" t="str">
         <f t="shared" si="4"/>
         <v>0x20</v>
       </c>
-      <c r="C36" s="47" t="s">
+      <c r="C36" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="66">
-        <v>0</v>
-      </c>
-      <c r="E36" s="66">
-        <v>1</v>
-      </c>
-      <c r="F36" s="66">
-        <v>0</v>
-      </c>
-      <c r="G36" s="66">
-        <v>0</v>
-      </c>
-      <c r="H36" s="66">
-        <v>0</v>
-      </c>
-      <c r="I36" s="66" t="s">
+      <c r="D36" s="56">
+        <v>0</v>
+      </c>
+      <c r="E36" s="56">
+        <v>1</v>
+      </c>
+      <c r="F36" s="56">
+        <v>0</v>
+      </c>
+      <c r="G36" s="56">
+        <v>0</v>
+      </c>
+      <c r="H36" s="56">
+        <v>0</v>
+      </c>
+      <c r="I36" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="J36" s="66">
-        <v>0</v>
-      </c>
-      <c r="K36" s="66">
-        <v>0</v>
-      </c>
-      <c r="L36" s="66">
-        <v>1</v>
-      </c>
-      <c r="M36" s="66">
-        <v>0</v>
-      </c>
-      <c r="N36" s="66">
-        <v>0</v>
-      </c>
-      <c r="O36" s="66">
-        <v>0</v>
-      </c>
-      <c r="P36" s="66">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="66">
-        <v>0</v>
-      </c>
-      <c r="R36" s="66">
-        <v>0</v>
-      </c>
-      <c r="S36" s="66">
-        <v>0</v>
-      </c>
-      <c r="T36" s="66">
-        <v>0</v>
-      </c>
-      <c r="U36" s="66">
-        <v>0</v>
-      </c>
-      <c r="V36" s="53">
-        <v>1</v>
-      </c>
-      <c r="W36" s="38">
-        <v>0</v>
-      </c>
-      <c r="X36" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="38">
-        <v>1</v>
-      </c>
-      <c r="Z36" s="38">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="38">
-        <v>1</v>
-      </c>
-      <c r="AB36" s="54" t="str">
+      <c r="J36" s="56">
+        <v>0</v>
+      </c>
+      <c r="K36" s="56">
+        <v>0</v>
+      </c>
+      <c r="L36" s="56">
+        <v>1</v>
+      </c>
+      <c r="M36" s="56">
+        <v>0</v>
+      </c>
+      <c r="N36" s="56">
+        <v>0</v>
+      </c>
+      <c r="O36" s="56">
+        <v>0</v>
+      </c>
+      <c r="P36" s="56">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="56">
+        <v>0</v>
+      </c>
+      <c r="R36" s="56">
+        <v>0</v>
+      </c>
+      <c r="S36" s="56">
+        <v>0</v>
+      </c>
+      <c r="T36" s="56">
+        <v>0</v>
+      </c>
+      <c r="U36" s="56">
+        <v>0</v>
+      </c>
+      <c r="V36" s="43">
+        <v>1</v>
+      </c>
+      <c r="W36" s="29">
+        <v>0</v>
+      </c>
+      <c r="X36" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="29">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="29">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="44" t="str">
         <f t="shared" ref="AB36:AB41" si="18">BIN2HEX(IF(D36="x", 0, D36) &amp; IF(E36="x", 0, E36) &amp; IF(F36="x", 0, F36) &amp; IF(G36="x", 0, G36) &amp; IF(H36="x", 0, H36) &amp; IF(I36="x", 0, I36) &amp; IF(J36="x", 0, J36) &amp; IF(K36="x", 0, K36), 2)</f>
         <v>40</v>
       </c>
-      <c r="AC36" s="55" t="str">
+      <c r="AC36" s="45" t="str">
         <f t="shared" ref="AC36:AC41" si="19">BIN2HEX(IF(L36="x", 0, L36) &amp; IF(M36="x", 0, M36) &amp; IF(N36="x", 0, N36) &amp; IF(O36="x", 0, O36) &amp;  IF(P36="x", 0, P36) &amp; IF(Q36="x", 0, Q36) &amp; IF(R36="x", 0, R36) &amp; IF(S36="x", 0, S36), 2)</f>
         <v>88</v>
       </c>
-      <c r="AD36" s="56" t="str">
+      <c r="AD36" s="46" t="str">
         <f t="shared" ref="AD36:AD41" si="20">BIN2HEX(IF(T36="x", 0, T36) &amp; IF(U36="x", 0, U36) &amp; IF(V36="x", 0, V36) &amp; IF(W36="x", 0, W36) &amp; IF(X36="x", 0, X36) &amp; IF(Y36="x", 0, Y36) &amp; IF(Z36="x", 0, Z36) &amp; IF(AA36="x", 0, AA36), 2)</f>
         <v>25</v>
       </c>
-      <c r="AF36" s="40" t="s">
+      <c r="AF36" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="AM36" s="52" t="str">
+      <c r="AM36" s="42" t="str">
         <f t="shared" si="5"/>
         <v>408825</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A37" s="38">
+    <row r="37" spans="1:40" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A37" s="29">
         <v>33</v>
       </c>
-      <c r="B37" s="38" t="str">
+      <c r="B37" s="29" t="str">
         <f t="shared" si="4"/>
         <v>0x21</v>
       </c>
-      <c r="C37" s="47" t="s">
+      <c r="C37" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="66">
-        <v>0</v>
-      </c>
-      <c r="E37" s="66">
-        <v>1</v>
-      </c>
-      <c r="F37" s="66">
-        <v>0</v>
-      </c>
-      